--- a/GasAmg.xlsx
+++ b/GasAmg.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr date1904="false"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
@@ -56,10 +56,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
-  </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -96,7 +94,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -383,12 +381,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -868,21 +866,21 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>44562</v>
+        <v>44595</v>
       </c>
       <c r="B35" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
       </c>
       <c r="D35" t="n">
-        <v>22.982</v>
+        <v>22.2533333333333</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>44563</v>
+        <v>44562</v>
       </c>
       <c r="B36" t="s">
         <v>6</v>
@@ -891,12 +889,12 @@
         <v>5</v>
       </c>
       <c r="D36" t="n">
-        <v>22.9855</v>
+        <v>22.982</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>44564</v>
+        <v>44563</v>
       </c>
       <c r="B37" t="s">
         <v>6</v>
@@ -910,7 +908,7 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>44565</v>
+        <v>44564</v>
       </c>
       <c r="B38" t="s">
         <v>6</v>
@@ -919,12 +917,12 @@
         <v>5</v>
       </c>
       <c r="D38" t="n">
-        <v>23.014</v>
+        <v>22.9855</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>44566</v>
+        <v>44565</v>
       </c>
       <c r="B39" t="s">
         <v>6</v>
@@ -933,12 +931,12 @@
         <v>5</v>
       </c>
       <c r="D39" t="n">
-        <v>23.0155</v>
+        <v>23.014</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>44567</v>
+        <v>44566</v>
       </c>
       <c r="B40" t="s">
         <v>6</v>
@@ -952,7 +950,7 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>44568</v>
+        <v>44567</v>
       </c>
       <c r="B41" t="s">
         <v>6</v>
@@ -961,12 +959,12 @@
         <v>5</v>
       </c>
       <c r="D41" t="n">
-        <v>23.0355</v>
+        <v>23.0155</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>44569</v>
+        <v>44568</v>
       </c>
       <c r="B42" t="s">
         <v>6</v>
@@ -975,12 +973,12 @@
         <v>5</v>
       </c>
       <c r="D42" t="n">
-        <v>23.0405</v>
+        <v>23.0355</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>44570</v>
+        <v>44569</v>
       </c>
       <c r="B43" t="s">
         <v>6</v>
@@ -989,12 +987,12 @@
         <v>5</v>
       </c>
       <c r="D43" t="n">
-        <v>23.0515</v>
+        <v>23.0405</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>44571</v>
+        <v>44570</v>
       </c>
       <c r="B44" t="s">
         <v>6</v>
@@ -1008,7 +1006,7 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>44572</v>
+        <v>44571</v>
       </c>
       <c r="B45" t="s">
         <v>6</v>
@@ -1022,7 +1020,7 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>44573</v>
+        <v>44572</v>
       </c>
       <c r="B46" t="s">
         <v>6</v>
@@ -1031,12 +1029,12 @@
         <v>5</v>
       </c>
       <c r="D46" t="n">
-        <v>23.129</v>
+        <v>23.0515</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>44574</v>
+        <v>44573</v>
       </c>
       <c r="B47" t="s">
         <v>6</v>
@@ -1045,12 +1043,12 @@
         <v>5</v>
       </c>
       <c r="D47" t="n">
-        <v>23.137</v>
+        <v>23.129</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>44575</v>
+        <v>44574</v>
       </c>
       <c r="B48" t="s">
         <v>6</v>
@@ -1059,12 +1057,12 @@
         <v>5</v>
       </c>
       <c r="D48" t="n">
-        <v>23.1625</v>
+        <v>23.137</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>44576</v>
+        <v>44575</v>
       </c>
       <c r="B49" t="s">
         <v>6</v>
@@ -1073,12 +1071,12 @@
         <v>5</v>
       </c>
       <c r="D49" t="n">
-        <v>23.1675</v>
+        <v>23.1625</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>44577</v>
+        <v>44576</v>
       </c>
       <c r="B50" t="s">
         <v>6</v>
@@ -1092,7 +1090,7 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>44578</v>
+        <v>44577</v>
       </c>
       <c r="B51" t="s">
         <v>6</v>
@@ -1101,12 +1099,12 @@
         <v>5</v>
       </c>
       <c r="D51" t="n">
-        <v>23.182</v>
+        <v>23.1675</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>44579</v>
+        <v>44578</v>
       </c>
       <c r="B52" t="s">
         <v>6</v>
@@ -1120,7 +1118,7 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>44580</v>
+        <v>44579</v>
       </c>
       <c r="B53" t="s">
         <v>6</v>
@@ -1134,7 +1132,7 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>44581</v>
+        <v>44580</v>
       </c>
       <c r="B54" t="s">
         <v>6</v>
@@ -1143,12 +1141,12 @@
         <v>5</v>
       </c>
       <c r="D54" t="n">
-        <v>23.197</v>
+        <v>23.182</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>44582</v>
+        <v>44581</v>
       </c>
       <c r="B55" t="s">
         <v>6</v>
@@ -1157,12 +1155,12 @@
         <v>5</v>
       </c>
       <c r="D55" t="n">
-        <v>23.2085</v>
+        <v>23.197</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>44583</v>
+        <v>44582</v>
       </c>
       <c r="B56" t="s">
         <v>6</v>
@@ -1171,12 +1169,12 @@
         <v>5</v>
       </c>
       <c r="D56" t="n">
-        <v>23.2125</v>
+        <v>23.2085</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>44584</v>
+        <v>44583</v>
       </c>
       <c r="B57" t="s">
         <v>6</v>
@@ -1185,12 +1183,12 @@
         <v>5</v>
       </c>
       <c r="D57" t="n">
-        <v>23.2225</v>
+        <v>23.2125</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>44585</v>
+        <v>44584</v>
       </c>
       <c r="B58" t="s">
         <v>6</v>
@@ -1204,7 +1202,7 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>44586</v>
+        <v>44585</v>
       </c>
       <c r="B59" t="s">
         <v>6</v>
@@ -1218,7 +1216,7 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>44587</v>
+        <v>44586</v>
       </c>
       <c r="B60" t="s">
         <v>6</v>
@@ -1232,7 +1230,7 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>44588</v>
+        <v>44587</v>
       </c>
       <c r="B61" t="s">
         <v>6</v>
@@ -1246,7 +1244,7 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>44589</v>
+        <v>44588</v>
       </c>
       <c r="B62" t="s">
         <v>6</v>
@@ -1255,12 +1253,12 @@
         <v>5</v>
       </c>
       <c r="D62" t="n">
-        <v>23.2285</v>
+        <v>23.2225</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>44590</v>
+        <v>44589</v>
       </c>
       <c r="B63" t="s">
         <v>6</v>
@@ -1269,12 +1267,12 @@
         <v>5</v>
       </c>
       <c r="D63" t="n">
-        <v>23.2325</v>
+        <v>23.2285</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>44591</v>
+        <v>44590</v>
       </c>
       <c r="B64" t="s">
         <v>6</v>
@@ -1283,12 +1281,12 @@
         <v>5</v>
       </c>
       <c r="D64" t="n">
-        <v>23.247</v>
+        <v>23.2325</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>44592</v>
+        <v>44591</v>
       </c>
       <c r="B65" t="s">
         <v>6</v>
@@ -1302,7 +1300,7 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>44593</v>
+        <v>44592</v>
       </c>
       <c r="B66" t="s">
         <v>6</v>
@@ -1316,7 +1314,7 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>44594</v>
+        <v>44593</v>
       </c>
       <c r="B67" t="s">
         <v>6</v>
@@ -1330,35 +1328,35 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>44562</v>
+        <v>44594</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C68" t="s">
         <v>5</v>
       </c>
       <c r="D68" t="n">
-        <v>20.7971428571429</v>
+        <v>23.247</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>44563</v>
+        <v>44595</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C69" t="s">
         <v>5</v>
       </c>
       <c r="D69" t="n">
-        <v>20.8247619047619</v>
+        <v>23.2615</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>44564</v>
+        <v>44562</v>
       </c>
       <c r="B70" t="s">
         <v>7</v>
@@ -1367,12 +1365,12 @@
         <v>5</v>
       </c>
       <c r="D70" t="n">
-        <v>20.8247619047619</v>
+        <v>20.7971428571429</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>44565</v>
+        <v>44563</v>
       </c>
       <c r="B71" t="s">
         <v>7</v>
@@ -1381,12 +1379,12 @@
         <v>5</v>
       </c>
       <c r="D71" t="n">
-        <v>20.8704761904762</v>
+        <v>20.8247619047619</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>44566</v>
+        <v>44564</v>
       </c>
       <c r="B72" t="s">
         <v>7</v>
@@ -1395,12 +1393,12 @@
         <v>5</v>
       </c>
       <c r="D72" t="n">
-        <v>20.8528571428571</v>
+        <v>20.8247619047619</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>44567</v>
+        <v>44565</v>
       </c>
       <c r="B73" t="s">
         <v>7</v>
@@ -1409,12 +1407,12 @@
         <v>5</v>
       </c>
       <c r="D73" t="n">
-        <v>20.8547619047619</v>
+        <v>20.8704761904762</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>44568</v>
+        <v>44566</v>
       </c>
       <c r="B74" t="s">
         <v>7</v>
@@ -1423,12 +1421,12 @@
         <v>5</v>
       </c>
       <c r="D74" t="n">
-        <v>20.8790476190476</v>
+        <v>20.8528571428571</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>44569</v>
+        <v>44567</v>
       </c>
       <c r="B75" t="s">
         <v>7</v>
@@ -1437,12 +1435,12 @@
         <v>5</v>
       </c>
       <c r="D75" t="n">
-        <v>20.8857142857143</v>
+        <v>20.8547619047619</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>44570</v>
+        <v>44568</v>
       </c>
       <c r="B76" t="s">
         <v>7</v>
@@ -1451,12 +1449,12 @@
         <v>5</v>
       </c>
       <c r="D76" t="n">
-        <v>20.9004761904762</v>
+        <v>20.8790476190476</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>44571</v>
+        <v>44569</v>
       </c>
       <c r="B77" t="s">
         <v>7</v>
@@ -1465,12 +1463,12 @@
         <v>5</v>
       </c>
       <c r="D77" t="n">
-        <v>20.9004761904762</v>
+        <v>20.8857142857143</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>44572</v>
+        <v>44570</v>
       </c>
       <c r="B78" t="s">
         <v>7</v>
@@ -1484,7 +1482,7 @@
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>44573</v>
+        <v>44571</v>
       </c>
       <c r="B79" t="s">
         <v>7</v>
@@ -1493,12 +1491,12 @@
         <v>5</v>
       </c>
       <c r="D79" t="n">
-        <v>20.9028571428571</v>
+        <v>20.9004761904762</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>44574</v>
+        <v>44572</v>
       </c>
       <c r="B80" t="s">
         <v>7</v>
@@ -1507,12 +1505,12 @@
         <v>5</v>
       </c>
       <c r="D80" t="n">
-        <v>20.9042857142857</v>
+        <v>20.9004761904762</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>44575</v>
+        <v>44573</v>
       </c>
       <c r="B81" t="s">
         <v>7</v>
@@ -1521,12 +1519,12 @@
         <v>5</v>
       </c>
       <c r="D81" t="n">
-        <v>20.9071428571429</v>
+        <v>20.9028571428571</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>44576</v>
+        <v>44574</v>
       </c>
       <c r="B82" t="s">
         <v>7</v>
@@ -1535,12 +1533,12 @@
         <v>5</v>
       </c>
       <c r="D82" t="n">
-        <v>20.9404761904762</v>
+        <v>20.9042857142857</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>44577</v>
+        <v>44575</v>
       </c>
       <c r="B83" t="s">
         <v>7</v>
@@ -1549,12 +1547,12 @@
         <v>5</v>
       </c>
       <c r="D83" t="n">
-        <v>20.9404761904762</v>
+        <v>20.9071428571429</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>44578</v>
+        <v>44576</v>
       </c>
       <c r="B84" t="s">
         <v>7</v>
@@ -1568,7 +1566,7 @@
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>44579</v>
+        <v>44577</v>
       </c>
       <c r="B85" t="s">
         <v>7</v>
@@ -1582,7 +1580,7 @@
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>44580</v>
+        <v>44578</v>
       </c>
       <c r="B86" t="s">
         <v>7</v>
@@ -1591,12 +1589,12 @@
         <v>5</v>
       </c>
       <c r="D86" t="n">
-        <v>20.9433333333333</v>
+        <v>20.9404761904762</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>44581</v>
+        <v>44579</v>
       </c>
       <c r="B87" t="s">
         <v>7</v>
@@ -1605,12 +1603,12 @@
         <v>5</v>
       </c>
       <c r="D87" t="n">
-        <v>20.9590476190476</v>
+        <v>20.9404761904762</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>44582</v>
+        <v>44580</v>
       </c>
       <c r="B88" t="s">
         <v>7</v>
@@ -1619,12 +1617,12 @@
         <v>5</v>
       </c>
       <c r="D88" t="n">
-        <v>20.9685714285714</v>
+        <v>20.9433333333333</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>44583</v>
+        <v>44581</v>
       </c>
       <c r="B89" t="s">
         <v>7</v>
@@ -1633,12 +1631,12 @@
         <v>5</v>
       </c>
       <c r="D89" t="n">
-        <v>20.9785714285714</v>
+        <v>20.9590476190476</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>44584</v>
+        <v>44582</v>
       </c>
       <c r="B90" t="s">
         <v>7</v>
@@ -1647,12 +1645,12 @@
         <v>5</v>
       </c>
       <c r="D90" t="n">
-        <v>20.977619047619</v>
+        <v>20.9685714285714</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>44585</v>
+        <v>44583</v>
       </c>
       <c r="B91" t="s">
         <v>7</v>
@@ -1661,12 +1659,12 @@
         <v>5</v>
       </c>
       <c r="D91" t="n">
-        <v>20.977619047619</v>
+        <v>20.9785714285714</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>44586</v>
+        <v>44584</v>
       </c>
       <c r="B92" t="s">
         <v>7</v>
@@ -1680,7 +1678,7 @@
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>44587</v>
+        <v>44585</v>
       </c>
       <c r="B93" t="s">
         <v>7</v>
@@ -1689,12 +1687,12 @@
         <v>5</v>
       </c>
       <c r="D93" t="n">
-        <v>20.9880952380952</v>
+        <v>20.977619047619</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>44588</v>
+        <v>44586</v>
       </c>
       <c r="B94" t="s">
         <v>7</v>
@@ -1703,12 +1701,12 @@
         <v>5</v>
       </c>
       <c r="D94" t="n">
-        <v>20.9880952380952</v>
+        <v>20.977619047619</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>44589</v>
+        <v>44587</v>
       </c>
       <c r="B95" t="s">
         <v>7</v>
@@ -1717,12 +1715,12 @@
         <v>5</v>
       </c>
       <c r="D95" t="n">
-        <v>21</v>
+        <v>20.9880952380952</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>44590</v>
+        <v>44588</v>
       </c>
       <c r="B96" t="s">
         <v>7</v>
@@ -1731,12 +1729,12 @@
         <v>5</v>
       </c>
       <c r="D96" t="n">
-        <v>21.0090476190476</v>
+        <v>20.9880952380952</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>44591</v>
+        <v>44589</v>
       </c>
       <c r="B97" t="s">
         <v>7</v>
@@ -1745,12 +1743,12 @@
         <v>5</v>
       </c>
       <c r="D97" t="n">
-        <v>21.0290476190476</v>
+        <v>21</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>44592</v>
+        <v>44590</v>
       </c>
       <c r="B98" t="s">
         <v>7</v>
@@ -1759,12 +1757,12 @@
         <v>5</v>
       </c>
       <c r="D98" t="n">
-        <v>21.0385714285714</v>
+        <v>21.0090476190476</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>44593</v>
+        <v>44591</v>
       </c>
       <c r="B99" t="s">
         <v>7</v>
@@ -1773,12 +1771,12 @@
         <v>5</v>
       </c>
       <c r="D99" t="n">
-        <v>21.0385714285714</v>
+        <v>21.0290476190476</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>44594</v>
+        <v>44592</v>
       </c>
       <c r="B100" t="s">
         <v>7</v>
@@ -1787,54 +1785,54 @@
         <v>5</v>
       </c>
       <c r="D100" t="n">
-        <v>21.0528571428571</v>
+        <v>21.0385714285714</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="B101" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
-        <v>21.8166071428571</v>
+        <v>21.0385714285714</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>44563</v>
+        <v>44594</v>
       </c>
       <c r="B102" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D102" t="n">
-        <v>21.8160714285714</v>
+        <v>21.0528571428571</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>44564</v>
+        <v>44595</v>
       </c>
       <c r="B103" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D103" t="n">
-        <v>21.80875</v>
+        <v>21.0528571428571</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>44565</v>
+        <v>44562</v>
       </c>
       <c r="B104" t="s">
         <v>4</v>
@@ -1843,12 +1841,12 @@
         <v>8</v>
       </c>
       <c r="D104" t="n">
-        <v>21.8051785714286</v>
+        <v>21.8166071428571</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>44566</v>
+        <v>44563</v>
       </c>
       <c r="B105" t="s">
         <v>4</v>
@@ -1857,12 +1855,12 @@
         <v>8</v>
       </c>
       <c r="D105" t="n">
-        <v>21.8173214285714</v>
+        <v>21.8160714285714</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>44567</v>
+        <v>44564</v>
       </c>
       <c r="B106" t="s">
         <v>4</v>
@@ -1871,12 +1869,12 @@
         <v>8</v>
       </c>
       <c r="D106" t="n">
-        <v>21.8083928571429</v>
+        <v>21.80875</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>44568</v>
+        <v>44565</v>
       </c>
       <c r="B107" t="s">
         <v>4</v>
@@ -1885,12 +1883,12 @@
         <v>8</v>
       </c>
       <c r="D107" t="n">
-        <v>21.8082142857143</v>
+        <v>21.8051785714286</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>44569</v>
+        <v>44566</v>
       </c>
       <c r="B108" t="s">
         <v>4</v>
@@ -1899,12 +1897,12 @@
         <v>8</v>
       </c>
       <c r="D108" t="n">
-        <v>21.8585714285714</v>
+        <v>21.8173214285714</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>44570</v>
+        <v>44567</v>
       </c>
       <c r="B109" t="s">
         <v>4</v>
@@ -1913,12 +1911,12 @@
         <v>8</v>
       </c>
       <c r="D109" t="n">
-        <v>21.8498214285714</v>
+        <v>21.8083928571429</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>44571</v>
+        <v>44568</v>
       </c>
       <c r="B110" t="s">
         <v>4</v>
@@ -1927,12 +1925,12 @@
         <v>8</v>
       </c>
       <c r="D110" t="n">
-        <v>21.83375</v>
+        <v>21.8082142857143</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>44572</v>
+        <v>44569</v>
       </c>
       <c r="B111" t="s">
         <v>4</v>
@@ -1941,12 +1939,12 @@
         <v>8</v>
       </c>
       <c r="D111" t="n">
-        <v>21.8516071428571</v>
+        <v>21.8585714285714</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>44573</v>
+        <v>44570</v>
       </c>
       <c r="B112" t="s">
         <v>4</v>
@@ -1955,12 +1953,12 @@
         <v>8</v>
       </c>
       <c r="D112" t="n">
-        <v>21.8853571428571</v>
+        <v>21.8498214285714</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>44574</v>
+        <v>44571</v>
       </c>
       <c r="B113" t="s">
         <v>4</v>
@@ -1969,12 +1967,12 @@
         <v>8</v>
       </c>
       <c r="D113" t="n">
-        <v>21.8948214285714</v>
+        <v>21.83375</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>44575</v>
+        <v>44572</v>
       </c>
       <c r="B114" t="s">
         <v>4</v>
@@ -1983,12 +1981,12 @@
         <v>8</v>
       </c>
       <c r="D114" t="n">
-        <v>21.9010714285714</v>
+        <v>21.8516071428571</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>44576</v>
+        <v>44573</v>
       </c>
       <c r="B115" t="s">
         <v>4</v>
@@ -1997,12 +1995,12 @@
         <v>8</v>
       </c>
       <c r="D115" t="n">
-        <v>21.9028571428571</v>
+        <v>21.8853571428571</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>44577</v>
+        <v>44574</v>
       </c>
       <c r="B116" t="s">
         <v>4</v>
@@ -2011,12 +2009,12 @@
         <v>8</v>
       </c>
       <c r="D116" t="n">
-        <v>21.90875</v>
+        <v>21.8948214285714</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>44578</v>
+        <v>44575</v>
       </c>
       <c r="B117" t="s">
         <v>4</v>
@@ -2025,12 +2023,12 @@
         <v>8</v>
       </c>
       <c r="D117" t="n">
-        <v>21.8944642857143</v>
+        <v>21.9010714285714</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>44579</v>
+        <v>44576</v>
       </c>
       <c r="B118" t="s">
         <v>4</v>
@@ -2039,12 +2037,12 @@
         <v>8</v>
       </c>
       <c r="D118" t="n">
-        <v>21.9283928571429</v>
+        <v>21.9028571428571</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>44580</v>
+        <v>44577</v>
       </c>
       <c r="B119" t="s">
         <v>4</v>
@@ -2053,12 +2051,12 @@
         <v>8</v>
       </c>
       <c r="D119" t="n">
-        <v>21.9244642857143</v>
+        <v>21.90875</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>44581</v>
+        <v>44578</v>
       </c>
       <c r="B120" t="s">
         <v>4</v>
@@ -2067,12 +2065,12 @@
         <v>8</v>
       </c>
       <c r="D120" t="n">
-        <v>21.9325</v>
+        <v>21.8944642857143</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>44582</v>
+        <v>44579</v>
       </c>
       <c r="B121" t="s">
         <v>4</v>
@@ -2081,12 +2079,12 @@
         <v>8</v>
       </c>
       <c r="D121" t="n">
-        <v>21.9405357142857</v>
+        <v>21.9283928571429</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>44583</v>
+        <v>44580</v>
       </c>
       <c r="B122" t="s">
         <v>4</v>
@@ -2095,12 +2093,12 @@
         <v>8</v>
       </c>
       <c r="D122" t="n">
-        <v>21.9471428571429</v>
+        <v>21.9244642857143</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>44584</v>
+        <v>44581</v>
       </c>
       <c r="B123" t="s">
         <v>4</v>
@@ -2109,12 +2107,12 @@
         <v>8</v>
       </c>
       <c r="D123" t="n">
-        <v>21.9519642857143</v>
+        <v>21.9325</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>44585</v>
+        <v>44582</v>
       </c>
       <c r="B124" t="s">
         <v>4</v>
@@ -2123,12 +2121,12 @@
         <v>8</v>
       </c>
       <c r="D124" t="n">
-        <v>21.9376785714286</v>
+        <v>21.9405357142857</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>44586</v>
+        <v>44583</v>
       </c>
       <c r="B125" t="s">
         <v>4</v>
@@ -2137,12 +2135,12 @@
         <v>8</v>
       </c>
       <c r="D125" t="n">
-        <v>21.95375</v>
+        <v>21.9471428571429</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>44587</v>
+        <v>44584</v>
       </c>
       <c r="B126" t="s">
         <v>4</v>
@@ -2151,12 +2149,12 @@
         <v>8</v>
       </c>
       <c r="D126" t="n">
-        <v>21.9694642857143</v>
+        <v>21.9519642857143</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>44588</v>
+        <v>44585</v>
       </c>
       <c r="B127" t="s">
         <v>4</v>
@@ -2165,12 +2163,12 @@
         <v>8</v>
       </c>
       <c r="D127" t="n">
-        <v>21.9648214285714</v>
+        <v>21.9376785714286</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>44589</v>
+        <v>44586</v>
       </c>
       <c r="B128" t="s">
         <v>4</v>
@@ -2179,12 +2177,12 @@
         <v>8</v>
       </c>
       <c r="D128" t="n">
-        <v>21.9683928571429</v>
+        <v>21.95375</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>44590</v>
+        <v>44587</v>
       </c>
       <c r="B129" t="s">
         <v>4</v>
@@ -2193,12 +2191,12 @@
         <v>8</v>
       </c>
       <c r="D129" t="n">
-        <v>21.9635714285714</v>
+        <v>21.9694642857143</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>44591</v>
+        <v>44588</v>
       </c>
       <c r="B130" t="s">
         <v>4</v>
@@ -2207,12 +2205,12 @@
         <v>8</v>
       </c>
       <c r="D130" t="n">
-        <v>21.9780357142857</v>
+        <v>21.9648214285714</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>44592</v>
+        <v>44589</v>
       </c>
       <c r="B131" t="s">
         <v>4</v>
@@ -2221,12 +2219,12 @@
         <v>8</v>
       </c>
       <c r="D131" t="n">
-        <v>21.96375</v>
+        <v>21.9683928571429</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>44593</v>
+        <v>44590</v>
       </c>
       <c r="B132" t="s">
         <v>4</v>
@@ -2235,12 +2233,12 @@
         <v>8</v>
       </c>
       <c r="D132" t="n">
-        <v>21.9780357142857</v>
+        <v>21.9635714285714</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>44594</v>
+        <v>44591</v>
       </c>
       <c r="B133" t="s">
         <v>4</v>
@@ -2249,68 +2247,68 @@
         <v>8</v>
       </c>
       <c r="D133" t="n">
-        <v>22.0108928571429</v>
+        <v>21.9780357142857</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>44562</v>
+        <v>44592</v>
       </c>
       <c r="B134" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C134" t="s">
         <v>8</v>
       </c>
       <c r="D134" t="n">
-        <v>23.1053968253968</v>
+        <v>21.96375</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>44563</v>
+        <v>44593</v>
       </c>
       <c r="B135" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C135" t="s">
         <v>8</v>
       </c>
       <c r="D135" t="n">
-        <v>23.1303174603175</v>
+        <v>21.9780357142857</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>44564</v>
+        <v>44594</v>
       </c>
       <c r="B136" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C136" t="s">
         <v>8</v>
       </c>
       <c r="D136" t="n">
-        <v>23.1181746031746</v>
+        <v>22.0108928571429</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>44565</v>
+        <v>44595</v>
       </c>
       <c r="B137" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C137" t="s">
         <v>8</v>
       </c>
       <c r="D137" t="n">
-        <v>23.1251587301587</v>
+        <v>22.0060714285714</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>44566</v>
+        <v>44562</v>
       </c>
       <c r="B138" t="s">
         <v>6</v>
@@ -2319,12 +2317,12 @@
         <v>8</v>
       </c>
       <c r="D138" t="n">
-        <v>23.1421428571429</v>
+        <v>23.1053968253968</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>44567</v>
+        <v>44563</v>
       </c>
       <c r="B139" t="s">
         <v>6</v>
@@ -2333,12 +2331,12 @@
         <v>8</v>
       </c>
       <c r="D139" t="n">
-        <v>23.1629365079365</v>
+        <v>23.1303174603175</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>44568</v>
+        <v>44564</v>
       </c>
       <c r="B140" t="s">
         <v>6</v>
@@ -2347,12 +2345,12 @@
         <v>8</v>
       </c>
       <c r="D140" t="n">
-        <v>23.1716666666667</v>
+        <v>23.1181746031746</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>44569</v>
+        <v>44565</v>
       </c>
       <c r="B141" t="s">
         <v>6</v>
@@ -2361,12 +2359,12 @@
         <v>8</v>
       </c>
       <c r="D141" t="n">
-        <v>23.1869841269841</v>
+        <v>23.1251587301587</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>44570</v>
+        <v>44566</v>
       </c>
       <c r="B142" t="s">
         <v>6</v>
@@ -2375,12 +2373,12 @@
         <v>8</v>
       </c>
       <c r="D142" t="n">
-        <v>23.1927777777778</v>
+        <v>23.1421428571429</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>44571</v>
+        <v>44567</v>
       </c>
       <c r="B143" t="s">
         <v>6</v>
@@ -2389,12 +2387,12 @@
         <v>8</v>
       </c>
       <c r="D143" t="n">
-        <v>23.195873015873</v>
+        <v>23.1629365079365</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>44572</v>
+        <v>44568</v>
       </c>
       <c r="B144" t="s">
         <v>6</v>
@@ -2403,12 +2401,12 @@
         <v>8</v>
       </c>
       <c r="D144" t="n">
-        <v>23.1703968253968</v>
+        <v>23.1716666666667</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>44573</v>
+        <v>44569</v>
       </c>
       <c r="B145" t="s">
         <v>6</v>
@@ -2417,12 +2415,12 @@
         <v>8</v>
       </c>
       <c r="D145" t="n">
-        <v>23.2097619047619</v>
+        <v>23.1869841269841</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>44574</v>
+        <v>44570</v>
       </c>
       <c r="B146" t="s">
         <v>6</v>
@@ -2431,12 +2429,12 @@
         <v>8</v>
       </c>
       <c r="D146" t="n">
-        <v>23.2205555555556</v>
+        <v>23.1927777777778</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>44575</v>
+        <v>44571</v>
       </c>
       <c r="B147" t="s">
         <v>6</v>
@@ -2445,12 +2443,12 @@
         <v>8</v>
       </c>
       <c r="D147" t="n">
-        <v>23.2261111111111</v>
+        <v>23.195873015873</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>44576</v>
+        <v>44572</v>
       </c>
       <c r="B148" t="s">
         <v>6</v>
@@ -2459,12 +2457,12 @@
         <v>8</v>
       </c>
       <c r="D148" t="n">
-        <v>23.2265873015873</v>
+        <v>23.1703968253968</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>44577</v>
+        <v>44573</v>
       </c>
       <c r="B149" t="s">
         <v>6</v>
@@ -2473,12 +2471,12 @@
         <v>8</v>
       </c>
       <c r="D149" t="n">
-        <v>23.2284126984127</v>
+        <v>23.2097619047619</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>44578</v>
+        <v>44574</v>
       </c>
       <c r="B150" t="s">
         <v>6</v>
@@ -2487,12 +2485,12 @@
         <v>8</v>
       </c>
       <c r="D150" t="n">
-        <v>23.2296825396825</v>
+        <v>23.2205555555556</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>44579</v>
+        <v>44575</v>
       </c>
       <c r="B151" t="s">
         <v>6</v>
@@ -2501,12 +2499,12 @@
         <v>8</v>
       </c>
       <c r="D151" t="n">
-        <v>23.2337301587302</v>
+        <v>23.2261111111111</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>44580</v>
+        <v>44576</v>
       </c>
       <c r="B152" t="s">
         <v>6</v>
@@ -2515,12 +2513,12 @@
         <v>8</v>
       </c>
       <c r="D152" t="n">
-        <v>23.2570634920635</v>
+        <v>23.2265873015873</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>44581</v>
+        <v>44577</v>
       </c>
       <c r="B153" t="s">
         <v>6</v>
@@ -2529,12 +2527,12 @@
         <v>8</v>
       </c>
       <c r="D153" t="n">
-        <v>23.2701587301587</v>
+        <v>23.2284126984127</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>44582</v>
+        <v>44578</v>
       </c>
       <c r="B154" t="s">
         <v>6</v>
@@ -2543,12 +2541,12 @@
         <v>8</v>
       </c>
       <c r="D154" t="n">
-        <v>23.2738888888889</v>
+        <v>23.2296825396825</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>44583</v>
+        <v>44579</v>
       </c>
       <c r="B155" t="s">
         <v>6</v>
@@ -2557,12 +2555,12 @@
         <v>8</v>
       </c>
       <c r="D155" t="n">
-        <v>23.2864285714286</v>
+        <v>23.2337301587302</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>44584</v>
+        <v>44580</v>
       </c>
       <c r="B156" t="s">
         <v>6</v>
@@ -2571,12 +2569,12 @@
         <v>8</v>
       </c>
       <c r="D156" t="n">
-        <v>23.2903174603175</v>
+        <v>23.2570634920635</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>44585</v>
+        <v>44581</v>
       </c>
       <c r="B157" t="s">
         <v>6</v>
@@ -2585,12 +2583,12 @@
         <v>8</v>
       </c>
       <c r="D157" t="n">
-        <v>23.2895238095238</v>
+        <v>23.2701587301587</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>44586</v>
+        <v>44582</v>
       </c>
       <c r="B158" t="s">
         <v>6</v>
@@ -2599,12 +2597,12 @@
         <v>8</v>
       </c>
       <c r="D158" t="n">
-        <v>23.2953968253968</v>
+        <v>23.2738888888889</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>44587</v>
+        <v>44583</v>
       </c>
       <c r="B159" t="s">
         <v>6</v>
@@ -2613,12 +2611,12 @@
         <v>8</v>
       </c>
       <c r="D159" t="n">
-        <v>23.3019047619048</v>
+        <v>23.2864285714286</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>44588</v>
+        <v>44584</v>
       </c>
       <c r="B160" t="s">
         <v>6</v>
@@ -2627,12 +2625,12 @@
         <v>8</v>
       </c>
       <c r="D160" t="n">
-        <v>23.3071428571429</v>
+        <v>23.2903174603175</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>44589</v>
+        <v>44585</v>
       </c>
       <c r="B161" t="s">
         <v>6</v>
@@ -2641,12 +2639,12 @@
         <v>8</v>
       </c>
       <c r="D161" t="n">
-        <v>23.3089682539683</v>
+        <v>23.2895238095238</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>44590</v>
+        <v>44586</v>
       </c>
       <c r="B162" t="s">
         <v>6</v>
@@ -2655,12 +2653,12 @@
         <v>8</v>
       </c>
       <c r="D162" t="n">
-        <v>23.3001587301587</v>
+        <v>23.2953968253968</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>44591</v>
+        <v>44587</v>
       </c>
       <c r="B163" t="s">
         <v>6</v>
@@ -2669,12 +2667,12 @@
         <v>8</v>
       </c>
       <c r="D163" t="n">
-        <v>23.3194444444444</v>
+        <v>23.3019047619048</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>44592</v>
+        <v>44588</v>
       </c>
       <c r="B164" t="s">
         <v>6</v>
@@ -2683,12 +2681,12 @@
         <v>8</v>
       </c>
       <c r="D164" t="n">
-        <v>23.3202380952381</v>
+        <v>23.3071428571429</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>44593</v>
+        <v>44589</v>
       </c>
       <c r="B165" t="s">
         <v>6</v>
@@ -2697,12 +2695,12 @@
         <v>8</v>
       </c>
       <c r="D165" t="n">
-        <v>23.3429365079365</v>
+        <v>23.3089682539683</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>44594</v>
+        <v>44590</v>
       </c>
       <c r="B166" t="s">
         <v>6</v>
@@ -2711,82 +2709,82 @@
         <v>8</v>
       </c>
       <c r="D166" t="n">
-        <v>23.3310317460317</v>
+        <v>23.3001587301587</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>44562</v>
+        <v>44591</v>
       </c>
       <c r="B167" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C167" t="s">
         <v>8</v>
       </c>
       <c r="D167" t="n">
-        <v>20.898992248062</v>
+        <v>23.3194444444444</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>44563</v>
+        <v>44592</v>
       </c>
       <c r="B168" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C168" t="s">
         <v>8</v>
       </c>
       <c r="D168" t="n">
-        <v>20.9282170542636</v>
+        <v>23.3202380952381</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>44564</v>
+        <v>44593</v>
       </c>
       <c r="B169" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C169" t="s">
         <v>8</v>
       </c>
       <c r="D169" t="n">
-        <v>20.9231782945736</v>
+        <v>23.3429365079365</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>44565</v>
+        <v>44594</v>
       </c>
       <c r="B170" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C170" t="s">
         <v>8</v>
       </c>
       <c r="D170" t="n">
-        <v>20.9351937984496</v>
+        <v>23.3310317460317</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>44566</v>
+        <v>44595</v>
       </c>
       <c r="B171" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C171" t="s">
         <v>8</v>
       </c>
       <c r="D171" t="n">
-        <v>20.9878294573643</v>
+        <v>23.3405555555556</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>44567</v>
+        <v>44562</v>
       </c>
       <c r="B172" t="s">
         <v>7</v>
@@ -2795,12 +2793,12 @@
         <v>8</v>
       </c>
       <c r="D172" t="n">
-        <v>21.0073643410853</v>
+        <v>20.898992248062</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>44568</v>
+        <v>44563</v>
       </c>
       <c r="B173" t="s">
         <v>7</v>
@@ -2809,12 +2807,12 @@
         <v>8</v>
       </c>
       <c r="D173" t="n">
-        <v>21.0072868217054</v>
+        <v>20.9282170542636</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>44569</v>
+        <v>44564</v>
       </c>
       <c r="B174" t="s">
         <v>7</v>
@@ -2823,12 +2821,12 @@
         <v>8</v>
       </c>
       <c r="D174" t="n">
-        <v>21.0057364341085</v>
+        <v>20.9231782945736</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>44570</v>
+        <v>44565</v>
       </c>
       <c r="B175" t="s">
         <v>7</v>
@@ -2837,12 +2835,12 @@
         <v>8</v>
       </c>
       <c r="D175" t="n">
-        <v>20.9878294573643</v>
+        <v>20.9351937984496</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>44571</v>
+        <v>44566</v>
       </c>
       <c r="B176" t="s">
         <v>7</v>
@@ -2851,12 +2849,12 @@
         <v>8</v>
       </c>
       <c r="D176" t="n">
-        <v>20.9848062015504</v>
+        <v>20.9878294573643</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>44572</v>
+        <v>44567</v>
       </c>
       <c r="B177" t="s">
         <v>7</v>
@@ -2865,12 +2863,12 @@
         <v>8</v>
       </c>
       <c r="D177" t="n">
-        <v>20.9837984496124</v>
+        <v>21.0073643410853</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
-        <v>44573</v>
+        <v>44568</v>
       </c>
       <c r="B178" t="s">
         <v>7</v>
@@ -2879,12 +2877,12 @@
         <v>8</v>
       </c>
       <c r="D178" t="n">
-        <v>20.9815503875969</v>
+        <v>21.0072868217054</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
-        <v>44574</v>
+        <v>44569</v>
       </c>
       <c r="B179" t="s">
         <v>7</v>
@@ -2893,12 +2891,12 @@
         <v>8</v>
       </c>
       <c r="D179" t="n">
-        <v>20.9628682170543</v>
+        <v>21.0057364341085</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>44575</v>
+        <v>44570</v>
       </c>
       <c r="B180" t="s">
         <v>7</v>
@@ -2907,12 +2905,12 @@
         <v>8</v>
       </c>
       <c r="D180" t="n">
-        <v>20.9932558139535</v>
+        <v>20.9878294573643</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
-        <v>44576</v>
+        <v>44571</v>
       </c>
       <c r="B181" t="s">
         <v>7</v>
@@ -2921,12 +2919,12 @@
         <v>8</v>
       </c>
       <c r="D181" t="n">
-        <v>20.9991472868217</v>
+        <v>20.9848062015504</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
-        <v>44577</v>
+        <v>44572</v>
       </c>
       <c r="B182" t="s">
         <v>7</v>
@@ -2935,12 +2933,12 @@
         <v>8</v>
       </c>
       <c r="D182" t="n">
-        <v>20.9958914728682</v>
+        <v>20.9837984496124</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
-        <v>44578</v>
+        <v>44573</v>
       </c>
       <c r="B183" t="s">
         <v>7</v>
@@ -2949,12 +2947,12 @@
         <v>8</v>
       </c>
       <c r="D183" t="n">
-        <v>20.9891472868217</v>
+        <v>20.9815503875969</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
-        <v>44579</v>
+        <v>44574</v>
       </c>
       <c r="B184" t="s">
         <v>7</v>
@@ -2963,12 +2961,12 @@
         <v>8</v>
       </c>
       <c r="D184" t="n">
-        <v>21.0002325581395</v>
+        <v>20.9628682170543</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>44580</v>
+        <v>44575</v>
       </c>
       <c r="B185" t="s">
         <v>7</v>
@@ -2977,12 +2975,12 @@
         <v>8</v>
       </c>
       <c r="D185" t="n">
-        <v>21.0181395348837</v>
+        <v>20.9932558139535</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>44581</v>
+        <v>44576</v>
       </c>
       <c r="B186" t="s">
         <v>7</v>
@@ -2991,12 +2989,12 @@
         <v>8</v>
       </c>
       <c r="D186" t="n">
-        <v>21.026976744186</v>
+        <v>20.9991472868217</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
-        <v>44582</v>
+        <v>44577</v>
       </c>
       <c r="B187" t="s">
         <v>7</v>
@@ -3005,12 +3003,12 @@
         <v>8</v>
       </c>
       <c r="D187" t="n">
-        <v>21.0304651162791</v>
+        <v>20.9958914728682</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
-        <v>44583</v>
+        <v>44578</v>
       </c>
       <c r="B188" t="s">
         <v>7</v>
@@ -3019,12 +3017,12 @@
         <v>8</v>
       </c>
       <c r="D188" t="n">
-        <v>21.0454263565891</v>
+        <v>20.9891472868217</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
-        <v>44584</v>
+        <v>44579</v>
       </c>
       <c r="B189" t="s">
         <v>7</v>
@@ -3033,12 +3031,12 @@
         <v>8</v>
       </c>
       <c r="D189" t="n">
-        <v>21.0455813953488</v>
+        <v>21.0002325581395</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
-        <v>44585</v>
+        <v>44580</v>
       </c>
       <c r="B190" t="s">
         <v>7</v>
@@ -3047,12 +3045,12 @@
         <v>8</v>
       </c>
       <c r="D190" t="n">
-        <v>21.0408527131783</v>
+        <v>21.0181395348837</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
-        <v>44586</v>
+        <v>44581</v>
       </c>
       <c r="B191" t="s">
         <v>7</v>
@@ -3061,12 +3059,12 @@
         <v>8</v>
       </c>
       <c r="D191" t="n">
-        <v>21.0537984496124</v>
+        <v>21.026976744186</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
-        <v>44587</v>
+        <v>44582</v>
       </c>
       <c r="B192" t="s">
         <v>7</v>
@@ -3075,12 +3073,12 @@
         <v>8</v>
       </c>
       <c r="D192" t="n">
-        <v>21.0571317829457</v>
+        <v>21.0304651162791</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
-        <v>44588</v>
+        <v>44583</v>
       </c>
       <c r="B193" t="s">
         <v>7</v>
@@ -3089,12 +3087,12 @@
         <v>8</v>
       </c>
       <c r="D193" t="n">
-        <v>21.063488372093</v>
+        <v>21.0454263565891</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
-        <v>44589</v>
+        <v>44584</v>
       </c>
       <c r="B194" t="s">
         <v>7</v>
@@ -3103,12 +3101,12 @@
         <v>8</v>
       </c>
       <c r="D194" t="n">
-        <v>21.0696899224806</v>
+        <v>21.0455813953488</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
-        <v>44590</v>
+        <v>44585</v>
       </c>
       <c r="B195" t="s">
         <v>7</v>
@@ -3117,12 +3115,12 @@
         <v>8</v>
       </c>
       <c r="D195" t="n">
-        <v>21.0715503875969</v>
+        <v>21.0408527131783</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
-        <v>44591</v>
+        <v>44586</v>
       </c>
       <c r="B196" t="s">
         <v>7</v>
@@ -3131,12 +3129,12 @@
         <v>8</v>
       </c>
       <c r="D196" t="n">
-        <v>21.0771317829457</v>
+        <v>21.0537984496124</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
-        <v>44592</v>
+        <v>44587</v>
       </c>
       <c r="B197" t="s">
         <v>7</v>
@@ -3145,12 +3143,12 @@
         <v>8</v>
       </c>
       <c r="D197" t="n">
-        <v>21.0759689922481</v>
+        <v>21.0571317829457</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
-        <v>44593</v>
+        <v>44588</v>
       </c>
       <c r="B198" t="s">
         <v>7</v>
@@ -3159,12 +3157,12 @@
         <v>8</v>
       </c>
       <c r="D198" t="n">
-        <v>21.0853488372093</v>
+        <v>21.063488372093</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
-        <v>44594</v>
+        <v>44589</v>
       </c>
       <c r="B199" t="s">
         <v>7</v>
@@ -3173,96 +3171,96 @@
         <v>8</v>
       </c>
       <c r="D199" t="n">
-        <v>21.0791472868217</v>
+        <v>21.0696899224806</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
-        <v>44562</v>
+        <v>44590</v>
       </c>
       <c r="B200" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C200" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D200" t="n">
-        <v>21.5081481481481</v>
+        <v>21.0715503875969</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
-        <v>44563</v>
+        <v>44591</v>
       </c>
       <c r="B201" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C201" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D201" t="n">
-        <v>21.512962962963</v>
+        <v>21.0771317829457</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
-        <v>44564</v>
+        <v>44592</v>
       </c>
       <c r="B202" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C202" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D202" t="n">
-        <v>21.512962962963</v>
+        <v>21.0759689922481</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
-        <v>44565</v>
+        <v>44593</v>
       </c>
       <c r="B203" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C203" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D203" t="n">
-        <v>21.5211111111111</v>
+        <v>21.0853488372093</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
-        <v>44566</v>
+        <v>44594</v>
       </c>
       <c r="B204" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C204" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D204" t="n">
-        <v>21.5598148148148</v>
+        <v>21.0791472868217</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
-        <v>44567</v>
+        <v>44595</v>
       </c>
       <c r="B205" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C205" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D205" t="n">
-        <v>21.5757407407407</v>
+        <v>21.0796124031008</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
-        <v>44568</v>
+        <v>44562</v>
       </c>
       <c r="B206" t="s">
         <v>4</v>
@@ -3271,12 +3269,12 @@
         <v>9</v>
       </c>
       <c r="D206" t="n">
-        <v>21.592962962963</v>
+        <v>21.5081481481481</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
-        <v>44569</v>
+        <v>44563</v>
       </c>
       <c r="B207" t="s">
         <v>4</v>
@@ -3285,12 +3283,12 @@
         <v>9</v>
       </c>
       <c r="D207" t="n">
-        <v>21.6074074074074</v>
+        <v>21.512962962963</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
-        <v>44570</v>
+        <v>44564</v>
       </c>
       <c r="B208" t="s">
         <v>4</v>
@@ -3299,12 +3297,12 @@
         <v>9</v>
       </c>
       <c r="D208" t="n">
-        <v>21.6264814814815</v>
+        <v>21.512962962963</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
-        <v>44571</v>
+        <v>44565</v>
       </c>
       <c r="B209" t="s">
         <v>4</v>
@@ -3313,12 +3311,12 @@
         <v>9</v>
       </c>
       <c r="D209" t="n">
-        <v>21.6264814814815</v>
+        <v>21.5211111111111</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
-        <v>44572</v>
+        <v>44566</v>
       </c>
       <c r="B210" t="s">
         <v>4</v>
@@ -3327,12 +3325,12 @@
         <v>9</v>
       </c>
       <c r="D210" t="n">
-        <v>21.6264814814815</v>
+        <v>21.5598148148148</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
-        <v>44573</v>
+        <v>44567</v>
       </c>
       <c r="B211" t="s">
         <v>4</v>
@@ -3341,12 +3339,12 @@
         <v>9</v>
       </c>
       <c r="D211" t="n">
-        <v>21.6377777777778</v>
+        <v>21.5757407407407</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
-        <v>44574</v>
+        <v>44568</v>
       </c>
       <c r="B212" t="s">
         <v>4</v>
@@ -3355,12 +3353,12 @@
         <v>9</v>
       </c>
       <c r="D212" t="n">
-        <v>21.6598148148148</v>
+        <v>21.592962962963</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
-        <v>44575</v>
+        <v>44569</v>
       </c>
       <c r="B213" t="s">
         <v>4</v>
@@ -3369,12 +3367,12 @@
         <v>9</v>
       </c>
       <c r="D213" t="n">
-        <v>21.6805555555556</v>
+        <v>21.6074074074074</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
-        <v>44576</v>
+        <v>44570</v>
       </c>
       <c r="B214" t="s">
         <v>4</v>
@@ -3383,12 +3381,12 @@
         <v>9</v>
       </c>
       <c r="D214" t="n">
-        <v>21.682037037037</v>
+        <v>21.6264814814815</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
-        <v>44577</v>
+        <v>44571</v>
       </c>
       <c r="B215" t="s">
         <v>4</v>
@@ -3397,12 +3395,12 @@
         <v>9</v>
       </c>
       <c r="D215" t="n">
-        <v>21.6875925925926</v>
+        <v>21.6264814814815</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
-        <v>44578</v>
+        <v>44572</v>
       </c>
       <c r="B216" t="s">
         <v>4</v>
@@ -3411,12 +3409,12 @@
         <v>9</v>
       </c>
       <c r="D216" t="n">
-        <v>21.6875925925926</v>
+        <v>21.6264814814815</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
-        <v>44579</v>
+        <v>44573</v>
       </c>
       <c r="B217" t="s">
         <v>4</v>
@@ -3425,12 +3423,12 @@
         <v>9</v>
       </c>
       <c r="D217" t="n">
-        <v>21.6912962962963</v>
+        <v>21.6377777777778</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
-        <v>44580</v>
+        <v>44574</v>
       </c>
       <c r="B218" t="s">
         <v>4</v>
@@ -3439,12 +3437,12 @@
         <v>9</v>
       </c>
       <c r="D218" t="n">
-        <v>21.6972222222222</v>
+        <v>21.6598148148148</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
-        <v>44581</v>
+        <v>44575</v>
       </c>
       <c r="B219" t="s">
         <v>4</v>
@@ -3453,12 +3451,12 @@
         <v>9</v>
       </c>
       <c r="D219" t="n">
-        <v>21.6972222222222</v>
+        <v>21.6805555555556</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
-        <v>44582</v>
+        <v>44576</v>
       </c>
       <c r="B220" t="s">
         <v>4</v>
@@ -3467,12 +3465,12 @@
         <v>9</v>
       </c>
       <c r="D220" t="n">
-        <v>21.7133333333333</v>
+        <v>21.682037037037</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
-        <v>44583</v>
+        <v>44577</v>
       </c>
       <c r="B221" t="s">
         <v>4</v>
@@ -3481,12 +3479,12 @@
         <v>9</v>
       </c>
       <c r="D221" t="n">
-        <v>21.72</v>
+        <v>21.6875925925926</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
-        <v>44584</v>
+        <v>44578</v>
       </c>
       <c r="B222" t="s">
         <v>4</v>
@@ -3495,12 +3493,12 @@
         <v>9</v>
       </c>
       <c r="D222" t="n">
-        <v>21.7237037037037</v>
+        <v>21.6875925925926</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
-        <v>44585</v>
+        <v>44579</v>
       </c>
       <c r="B223" t="s">
         <v>4</v>
@@ -3509,12 +3507,12 @@
         <v>9</v>
       </c>
       <c r="D223" t="n">
-        <v>21.7274074074074</v>
+        <v>21.6912962962963</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
-        <v>44586</v>
+        <v>44580</v>
       </c>
       <c r="B224" t="s">
         <v>4</v>
@@ -3523,12 +3521,12 @@
         <v>9</v>
       </c>
       <c r="D224" t="n">
-        <v>21.7274074074074</v>
+        <v>21.6972222222222</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
-        <v>44587</v>
+        <v>44581</v>
       </c>
       <c r="B225" t="s">
         <v>4</v>
@@ -3537,12 +3535,12 @@
         <v>9</v>
       </c>
       <c r="D225" t="n">
-        <v>21.7307407407407</v>
+        <v>21.6972222222222</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
-        <v>44588</v>
+        <v>44582</v>
       </c>
       <c r="B226" t="s">
         <v>4</v>
@@ -3551,12 +3549,12 @@
         <v>9</v>
       </c>
       <c r="D226" t="n">
-        <v>21.7424074074074</v>
+        <v>21.7133333333333</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
-        <v>44589</v>
+        <v>44583</v>
       </c>
       <c r="B227" t="s">
         <v>4</v>
@@ -3565,12 +3563,12 @@
         <v>9</v>
       </c>
       <c r="D227" t="n">
-        <v>21.7651851851852</v>
+        <v>21.72</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
-        <v>44590</v>
+        <v>44584</v>
       </c>
       <c r="B228" t="s">
         <v>4</v>
@@ -3579,12 +3577,12 @@
         <v>9</v>
       </c>
       <c r="D228" t="n">
-        <v>21.7692592592593</v>
+        <v>21.7237037037037</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
-        <v>44591</v>
+        <v>44585</v>
       </c>
       <c r="B229" t="s">
         <v>4</v>
@@ -3593,12 +3591,12 @@
         <v>9</v>
       </c>
       <c r="D229" t="n">
-        <v>21.7798148148148</v>
+        <v>21.7274074074074</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
-        <v>44592</v>
+        <v>44586</v>
       </c>
       <c r="B230" t="s">
         <v>4</v>
@@ -3607,12 +3605,12 @@
         <v>9</v>
       </c>
       <c r="D230" t="n">
-        <v>21.7798148148148</v>
+        <v>21.7274074074074</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
-        <v>44593</v>
+        <v>44587</v>
       </c>
       <c r="B231" t="s">
         <v>4</v>
@@ -3621,12 +3619,12 @@
         <v>9</v>
       </c>
       <c r="D231" t="n">
-        <v>21.7853703703704</v>
+        <v>21.7307407407407</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
-        <v>44594</v>
+        <v>44588</v>
       </c>
       <c r="B232" t="s">
         <v>4</v>
@@ -3635,110 +3633,110 @@
         <v>9</v>
       </c>
       <c r="D232" t="n">
-        <v>21.7927777777778</v>
+        <v>21.7424074074074</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
-        <v>44562</v>
+        <v>44589</v>
       </c>
       <c r="B233" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C233" t="s">
         <v>9</v>
       </c>
       <c r="D233" t="n">
-        <v>22.91859375</v>
+        <v>21.7651851851852</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
-        <v>44563</v>
+        <v>44590</v>
       </c>
       <c r="B234" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C234" t="s">
         <v>9</v>
       </c>
       <c r="D234" t="n">
-        <v>22.91796875</v>
+        <v>21.7692592592593</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
-        <v>44564</v>
+        <v>44591</v>
       </c>
       <c r="B235" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C235" t="s">
         <v>9</v>
       </c>
       <c r="D235" t="n">
-        <v>22.91796875</v>
+        <v>21.7798148148148</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
-        <v>44565</v>
+        <v>44592</v>
       </c>
       <c r="B236" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C236" t="s">
         <v>9</v>
       </c>
       <c r="D236" t="n">
-        <v>22.92109375</v>
+        <v>21.7798148148148</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
-        <v>44566</v>
+        <v>44593</v>
       </c>
       <c r="B237" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C237" t="s">
         <v>9</v>
       </c>
       <c r="D237" t="n">
-        <v>22.93453125</v>
+        <v>21.7853703703704</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
-        <v>44567</v>
+        <v>44594</v>
       </c>
       <c r="B238" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C238" t="s">
         <v>9</v>
       </c>
       <c r="D238" t="n">
-        <v>22.96671875</v>
+        <v>21.7927777777778</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
-        <v>44568</v>
+        <v>44595</v>
       </c>
       <c r="B239" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C239" t="s">
         <v>9</v>
       </c>
       <c r="D239" t="n">
-        <v>22.98828125</v>
+        <v>21.7927777777778</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
-        <v>44569</v>
+        <v>44562</v>
       </c>
       <c r="B240" t="s">
         <v>6</v>
@@ -3747,12 +3745,12 @@
         <v>9</v>
       </c>
       <c r="D240" t="n">
-        <v>23.00359375</v>
+        <v>22.91859375</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
-        <v>44570</v>
+        <v>44563</v>
       </c>
       <c r="B241" t="s">
         <v>6</v>
@@ -3761,12 +3759,12 @@
         <v>9</v>
       </c>
       <c r="D241" t="n">
-        <v>23.02234375</v>
+        <v>22.91796875</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
-        <v>44571</v>
+        <v>44564</v>
       </c>
       <c r="B242" t="s">
         <v>6</v>
@@ -3775,12 +3773,12 @@
         <v>9</v>
       </c>
       <c r="D242" t="n">
-        <v>23.02234375</v>
+        <v>22.91796875</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
-        <v>44572</v>
+        <v>44565</v>
       </c>
       <c r="B243" t="s">
         <v>6</v>
@@ -3789,12 +3787,12 @@
         <v>9</v>
       </c>
       <c r="D243" t="n">
-        <v>23.035</v>
+        <v>22.92109375</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
-        <v>44573</v>
+        <v>44566</v>
       </c>
       <c r="B244" t="s">
         <v>6</v>
@@ -3803,12 +3801,12 @@
         <v>9</v>
       </c>
       <c r="D244" t="n">
-        <v>23.0515625</v>
+        <v>22.93453125</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
-        <v>44574</v>
+        <v>44567</v>
       </c>
       <c r="B245" t="s">
         <v>6</v>
@@ -3817,12 +3815,12 @@
         <v>9</v>
       </c>
       <c r="D245" t="n">
-        <v>23.0765625</v>
+        <v>22.96671875</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
-        <v>44575</v>
+        <v>44568</v>
       </c>
       <c r="B246" t="s">
         <v>6</v>
@@ -3831,12 +3829,12 @@
         <v>9</v>
       </c>
       <c r="D246" t="n">
-        <v>23.076875</v>
+        <v>22.98828125</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
-        <v>44576</v>
+        <v>44569</v>
       </c>
       <c r="B247" t="s">
         <v>6</v>
@@ -3845,12 +3843,12 @@
         <v>9</v>
       </c>
       <c r="D247" t="n">
-        <v>23.0821875</v>
+        <v>23.00359375</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
-        <v>44577</v>
+        <v>44570</v>
       </c>
       <c r="B248" t="s">
         <v>6</v>
@@ -3859,12 +3857,12 @@
         <v>9</v>
       </c>
       <c r="D248" t="n">
-        <v>23.080625</v>
+        <v>23.02234375</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
-        <v>44578</v>
+        <v>44571</v>
       </c>
       <c r="B249" t="s">
         <v>6</v>
@@ -3873,12 +3871,12 @@
         <v>9</v>
       </c>
       <c r="D249" t="n">
-        <v>23.080625</v>
+        <v>23.02234375</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
-        <v>44579</v>
+        <v>44572</v>
       </c>
       <c r="B250" t="s">
         <v>6</v>
@@ -3887,12 +3885,12 @@
         <v>9</v>
       </c>
       <c r="D250" t="n">
-        <v>23.08703125</v>
+        <v>23.035</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
-        <v>44580</v>
+        <v>44573</v>
       </c>
       <c r="B251" t="s">
         <v>6</v>
@@ -3901,12 +3899,12 @@
         <v>9</v>
       </c>
       <c r="D251" t="n">
-        <v>23.09890625</v>
+        <v>23.0515625</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
-        <v>44581</v>
+        <v>44574</v>
       </c>
       <c r="B252" t="s">
         <v>6</v>
@@ -3915,12 +3913,12 @@
         <v>9</v>
       </c>
       <c r="D252" t="n">
-        <v>23.09890625</v>
+        <v>23.0765625</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
-        <v>44582</v>
+        <v>44575</v>
       </c>
       <c r="B253" t="s">
         <v>6</v>
@@ -3929,12 +3927,12 @@
         <v>9</v>
       </c>
       <c r="D253" t="n">
-        <v>23.1109375</v>
+        <v>23.076875</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
-        <v>44583</v>
+        <v>44576</v>
       </c>
       <c r="B254" t="s">
         <v>6</v>
@@ -3943,12 +3941,12 @@
         <v>9</v>
       </c>
       <c r="D254" t="n">
-        <v>23.13921875</v>
+        <v>23.0821875</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
-        <v>44584</v>
+        <v>44577</v>
       </c>
       <c r="B255" t="s">
         <v>6</v>
@@ -3957,12 +3955,12 @@
         <v>9</v>
       </c>
       <c r="D255" t="n">
-        <v>23.1396875</v>
+        <v>23.080625</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
-        <v>44585</v>
+        <v>44578</v>
       </c>
       <c r="B256" t="s">
         <v>6</v>
@@ -3971,12 +3969,12 @@
         <v>9</v>
       </c>
       <c r="D256" t="n">
-        <v>23.1428125</v>
+        <v>23.080625</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
-        <v>44586</v>
+        <v>44579</v>
       </c>
       <c r="B257" t="s">
         <v>6</v>
@@ -3985,12 +3983,12 @@
         <v>9</v>
       </c>
       <c r="D257" t="n">
-        <v>23.14609375</v>
+        <v>23.08703125</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
-        <v>44587</v>
+        <v>44580</v>
       </c>
       <c r="B258" t="s">
         <v>6</v>
@@ -3999,12 +3997,12 @@
         <v>9</v>
       </c>
       <c r="D258" t="n">
-        <v>23.15125</v>
+        <v>23.09890625</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
-        <v>44588</v>
+        <v>44581</v>
       </c>
       <c r="B259" t="s">
         <v>6</v>
@@ -4013,12 +4011,12 @@
         <v>9</v>
       </c>
       <c r="D259" t="n">
-        <v>23.1503125</v>
+        <v>23.09890625</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
-        <v>44589</v>
+        <v>44582</v>
       </c>
       <c r="B260" t="s">
         <v>6</v>
@@ -4027,12 +4025,12 @@
         <v>9</v>
       </c>
       <c r="D260" t="n">
-        <v>23.15265625</v>
+        <v>23.1109375</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
-        <v>44590</v>
+        <v>44583</v>
       </c>
       <c r="B261" t="s">
         <v>6</v>
@@ -4041,12 +4039,12 @@
         <v>9</v>
       </c>
       <c r="D261" t="n">
-        <v>23.160625</v>
+        <v>23.13921875</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
-        <v>44591</v>
+        <v>44584</v>
       </c>
       <c r="B262" t="s">
         <v>6</v>
@@ -4055,12 +4053,12 @@
         <v>9</v>
       </c>
       <c r="D262" t="n">
-        <v>23.16828125</v>
+        <v>23.1396875</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
-        <v>44592</v>
+        <v>44585</v>
       </c>
       <c r="B263" t="s">
         <v>6</v>
@@ -4069,12 +4067,12 @@
         <v>9</v>
       </c>
       <c r="D263" t="n">
-        <v>23.16828125</v>
+        <v>23.1428125</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
-        <v>44593</v>
+        <v>44586</v>
       </c>
       <c r="B264" t="s">
         <v>6</v>
@@ -4083,12 +4081,12 @@
         <v>9</v>
       </c>
       <c r="D264" t="n">
-        <v>23.17625</v>
+        <v>23.14609375</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
-        <v>44594</v>
+        <v>44587</v>
       </c>
       <c r="B265" t="s">
         <v>6</v>
@@ -4097,124 +4095,124 @@
         <v>9</v>
       </c>
       <c r="D265" t="n">
-        <v>23.1778125</v>
+        <v>23.15125</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
-        <v>44562</v>
+        <v>44588</v>
       </c>
       <c r="B266" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C266" t="s">
         <v>9</v>
       </c>
       <c r="D266" t="n">
-        <v>20.6065151515152</v>
+        <v>23.1503125</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
-        <v>44563</v>
+        <v>44589</v>
       </c>
       <c r="B267" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C267" t="s">
         <v>9</v>
       </c>
       <c r="D267" t="n">
-        <v>20.6087878787879</v>
+        <v>23.15265625</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
-        <v>44564</v>
+        <v>44590</v>
       </c>
       <c r="B268" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C268" t="s">
         <v>9</v>
       </c>
       <c r="D268" t="n">
-        <v>20.6087878787879</v>
+        <v>23.160625</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
-        <v>44565</v>
+        <v>44591</v>
       </c>
       <c r="B269" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C269" t="s">
         <v>9</v>
       </c>
       <c r="D269" t="n">
-        <v>20.6133333333333</v>
+        <v>23.16828125</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
-        <v>44566</v>
+        <v>44592</v>
       </c>
       <c r="B270" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C270" t="s">
         <v>9</v>
       </c>
       <c r="D270" t="n">
-        <v>20.6781818181818</v>
+        <v>23.16828125</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
-        <v>44567</v>
+        <v>44593</v>
       </c>
       <c r="B271" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C271" t="s">
         <v>9</v>
       </c>
       <c r="D271" t="n">
-        <v>20.7092424242424</v>
+        <v>23.17625</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
-        <v>44568</v>
+        <v>44594</v>
       </c>
       <c r="B272" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C272" t="s">
         <v>9</v>
       </c>
       <c r="D272" t="n">
-        <v>20.7286363636364</v>
+        <v>23.1778125</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
-        <v>44569</v>
+        <v>44595</v>
       </c>
       <c r="B273" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C273" t="s">
         <v>9</v>
       </c>
       <c r="D273" t="n">
-        <v>20.7330303030303</v>
+        <v>23.179375</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
-        <v>44570</v>
+        <v>44562</v>
       </c>
       <c r="B274" t="s">
         <v>7</v>
@@ -4223,12 +4221,12 @@
         <v>9</v>
       </c>
       <c r="D274" t="n">
-        <v>20.725</v>
+        <v>20.6065151515152</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
-        <v>44571</v>
+        <v>44563</v>
       </c>
       <c r="B275" t="s">
         <v>7</v>
@@ -4237,12 +4235,12 @@
         <v>9</v>
       </c>
       <c r="D275" t="n">
-        <v>20.725</v>
+        <v>20.6087878787879</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
-        <v>44572</v>
+        <v>44564</v>
       </c>
       <c r="B276" t="s">
         <v>7</v>
@@ -4251,12 +4249,12 @@
         <v>9</v>
       </c>
       <c r="D276" t="n">
-        <v>20.7128787878788</v>
+        <v>20.6087878787879</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
-        <v>44573</v>
+        <v>44565</v>
       </c>
       <c r="B277" t="s">
         <v>7</v>
@@ -4265,12 +4263,12 @@
         <v>9</v>
       </c>
       <c r="D277" t="n">
-        <v>20.7272727272727</v>
+        <v>20.6133333333333</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
-        <v>44574</v>
+        <v>44566</v>
       </c>
       <c r="B278" t="s">
         <v>7</v>
@@ -4279,12 +4277,12 @@
         <v>9</v>
       </c>
       <c r="D278" t="n">
-        <v>20.7092424242424</v>
+        <v>20.6781818181818</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
-        <v>44575</v>
+        <v>44567</v>
       </c>
       <c r="B279" t="s">
         <v>7</v>
@@ -4293,12 +4291,12 @@
         <v>9</v>
       </c>
       <c r="D279" t="n">
-        <v>20.7124242424242</v>
+        <v>20.7092424242424</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
-        <v>44576</v>
+        <v>44568</v>
       </c>
       <c r="B280" t="s">
         <v>7</v>
@@ -4307,12 +4305,12 @@
         <v>9</v>
       </c>
       <c r="D280" t="n">
-        <v>20.7092424242424</v>
+        <v>20.7286363636364</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
-        <v>44577</v>
+        <v>44569</v>
       </c>
       <c r="B281" t="s">
         <v>7</v>
@@ -4321,12 +4319,12 @@
         <v>9</v>
       </c>
       <c r="D281" t="n">
-        <v>20.7372727272727</v>
+        <v>20.7330303030303</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
-        <v>44578</v>
+        <v>44570</v>
       </c>
       <c r="B282" t="s">
         <v>7</v>
@@ -4335,12 +4333,12 @@
         <v>9</v>
       </c>
       <c r="D282" t="n">
-        <v>20.7372727272727</v>
+        <v>20.725</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
-        <v>44579</v>
+        <v>44571</v>
       </c>
       <c r="B283" t="s">
         <v>7</v>
@@ -4349,12 +4347,12 @@
         <v>9</v>
       </c>
       <c r="D283" t="n">
-        <v>20.7418181818182</v>
+        <v>20.725</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
-        <v>44580</v>
+        <v>44572</v>
       </c>
       <c r="B284" t="s">
         <v>7</v>
@@ -4363,12 +4361,12 @@
         <v>9</v>
       </c>
       <c r="D284" t="n">
-        <v>20.7542424242424</v>
+        <v>20.7128787878788</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
-        <v>44581</v>
+        <v>44573</v>
       </c>
       <c r="B285" t="s">
         <v>7</v>
@@ -4377,12 +4375,12 @@
         <v>9</v>
       </c>
       <c r="D285" t="n">
-        <v>20.7542424242424</v>
+        <v>20.7272727272727</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
-        <v>44582</v>
+        <v>44574</v>
       </c>
       <c r="B286" t="s">
         <v>7</v>
@@ -4391,12 +4389,12 @@
         <v>9</v>
       </c>
       <c r="D286" t="n">
-        <v>20.7706060606061</v>
+        <v>20.7092424242424</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
-        <v>44583</v>
+        <v>44575</v>
       </c>
       <c r="B287" t="s">
         <v>7</v>
@@ -4405,12 +4403,12 @@
         <v>9</v>
       </c>
       <c r="D287" t="n">
-        <v>20.73</v>
+        <v>20.7124242424242</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
-        <v>44584</v>
+        <v>44576</v>
       </c>
       <c r="B288" t="s">
         <v>7</v>
@@ -4419,12 +4417,12 @@
         <v>9</v>
       </c>
       <c r="D288" t="n">
-        <v>20.7478787878788</v>
+        <v>20.7092424242424</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
-        <v>44585</v>
+        <v>44577</v>
       </c>
       <c r="B289" t="s">
         <v>7</v>
@@ -4433,12 +4431,12 @@
         <v>9</v>
       </c>
       <c r="D289" t="n">
-        <v>20.7480303030303</v>
+        <v>20.7372727272727</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
-        <v>44586</v>
+        <v>44578</v>
       </c>
       <c r="B290" t="s">
         <v>7</v>
@@ -4447,12 +4445,12 @@
         <v>9</v>
       </c>
       <c r="D290" t="n">
-        <v>20.7495454545455</v>
+        <v>20.7372727272727</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
-        <v>44587</v>
+        <v>44579</v>
       </c>
       <c r="B291" t="s">
         <v>7</v>
@@ -4461,12 +4459,12 @@
         <v>9</v>
       </c>
       <c r="D291" t="n">
-        <v>20.7660606060606</v>
+        <v>20.7418181818182</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
-        <v>44588</v>
+        <v>44580</v>
       </c>
       <c r="B292" t="s">
         <v>7</v>
@@ -4475,12 +4473,12 @@
         <v>9</v>
       </c>
       <c r="D292" t="n">
-        <v>20.7789393939394</v>
+        <v>20.7542424242424</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
-        <v>44589</v>
+        <v>44581</v>
       </c>
       <c r="B293" t="s">
         <v>7</v>
@@ -4489,12 +4487,12 @@
         <v>9</v>
       </c>
       <c r="D293" t="n">
-        <v>20.7801515151515</v>
+        <v>20.7542424242424</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
-        <v>44590</v>
+        <v>44582</v>
       </c>
       <c r="B294" t="s">
         <v>7</v>
@@ -4503,12 +4501,12 @@
         <v>9</v>
       </c>
       <c r="D294" t="n">
-        <v>20.7775757575758</v>
+        <v>20.7706060606061</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
-        <v>44591</v>
+        <v>44583</v>
       </c>
       <c r="B295" t="s">
         <v>7</v>
@@ -4517,12 +4515,12 @@
         <v>9</v>
       </c>
       <c r="D295" t="n">
-        <v>20.7863636363636</v>
+        <v>20.73</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
-        <v>44592</v>
+        <v>44584</v>
       </c>
       <c r="B296" t="s">
         <v>7</v>
@@ -4531,12 +4529,12 @@
         <v>9</v>
       </c>
       <c r="D296" t="n">
-        <v>20.7863636363636</v>
+        <v>20.7478787878788</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
-        <v>44593</v>
+        <v>44585</v>
       </c>
       <c r="B297" t="s">
         <v>7</v>
@@ -4545,12 +4543,12 @@
         <v>9</v>
       </c>
       <c r="D297" t="n">
-        <v>20.7927272727273</v>
+        <v>20.7480303030303</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
-        <v>44594</v>
+        <v>44586</v>
       </c>
       <c r="B298" t="s">
         <v>7</v>
@@ -4559,138 +4557,138 @@
         <v>9</v>
       </c>
       <c r="D298" t="n">
-        <v>20.7942424242424</v>
+        <v>20.7495454545455</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
-        <v>44562</v>
+        <v>44587</v>
       </c>
       <c r="B299" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C299" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D299" t="n">
-        <v>21.5029268292683</v>
+        <v>20.7660606060606</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
-        <v>44563</v>
+        <v>44588</v>
       </c>
       <c r="B300" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C300" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D300" t="n">
-        <v>21.5219512195122</v>
+        <v>20.7789393939394</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
-        <v>44564</v>
+        <v>44589</v>
       </c>
       <c r="B301" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C301" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D301" t="n">
-        <v>21.5219512195122</v>
+        <v>20.7801515151515</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
-        <v>44565</v>
+        <v>44590</v>
       </c>
       <c r="B302" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C302" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D302" t="n">
-        <v>21.5675609756098</v>
+        <v>20.7775757575758</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
-        <v>44566</v>
+        <v>44591</v>
       </c>
       <c r="B303" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C303" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D303" t="n">
-        <v>21.5809756097561</v>
+        <v>20.7863636363636</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
-        <v>44567</v>
+        <v>44592</v>
       </c>
       <c r="B304" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C304" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D304" t="n">
-        <v>21.5712195121951</v>
+        <v>20.7863636363636</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
-        <v>44568</v>
+        <v>44593</v>
       </c>
       <c r="B305" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C305" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D305" t="n">
-        <v>21.5631707317073</v>
+        <v>20.7927272727273</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
-        <v>44569</v>
+        <v>44594</v>
       </c>
       <c r="B306" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C306" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D306" t="n">
-        <v>21.5985365853659</v>
+        <v>20.7942424242424</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
-        <v>44570</v>
+        <v>44595</v>
       </c>
       <c r="B307" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C307" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D307" t="n">
-        <v>21.6253658536585</v>
+        <v>20.8087878787879</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
-        <v>44571</v>
+        <v>44562</v>
       </c>
       <c r="B308" t="s">
         <v>4</v>
@@ -4699,12 +4697,12 @@
         <v>10</v>
       </c>
       <c r="D308" t="n">
-        <v>21.6253658536585</v>
+        <v>21.5029268292683</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
-        <v>44572</v>
+        <v>44563</v>
       </c>
       <c r="B309" t="s">
         <v>4</v>
@@ -4713,12 +4711,12 @@
         <v>10</v>
       </c>
       <c r="D309" t="n">
-        <v>21.6253658536585</v>
+        <v>21.5219512195122</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
-        <v>44573</v>
+        <v>44564</v>
       </c>
       <c r="B310" t="s">
         <v>4</v>
@@ -4727,12 +4725,12 @@
         <v>10</v>
       </c>
       <c r="D310" t="n">
-        <v>21.6919512195122</v>
+        <v>21.5219512195122</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
-        <v>44574</v>
+        <v>44565</v>
       </c>
       <c r="B311" t="s">
         <v>4</v>
@@ -4741,12 +4739,12 @@
         <v>10</v>
       </c>
       <c r="D311" t="n">
-        <v>21.6775609756098</v>
+        <v>21.5675609756098</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
-        <v>44575</v>
+        <v>44566</v>
       </c>
       <c r="B312" t="s">
         <v>4</v>
@@ -4755,12 +4753,12 @@
         <v>10</v>
       </c>
       <c r="D312" t="n">
-        <v>21.6863414634146</v>
+        <v>21.5809756097561</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
-        <v>44576</v>
+        <v>44567</v>
       </c>
       <c r="B313" t="s">
         <v>4</v>
@@ -4769,12 +4767,12 @@
         <v>10</v>
       </c>
       <c r="D313" t="n">
-        <v>21.6856097560976</v>
+        <v>21.5712195121951</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
-        <v>44577</v>
+        <v>44568</v>
       </c>
       <c r="B314" t="s">
         <v>4</v>
@@ -4783,12 +4781,12 @@
         <v>10</v>
       </c>
       <c r="D314" t="n">
-        <v>21.6756097560976</v>
+        <v>21.5631707317073</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
-        <v>44578</v>
+        <v>44569</v>
       </c>
       <c r="B315" t="s">
         <v>4</v>
@@ -4797,12 +4795,12 @@
         <v>10</v>
       </c>
       <c r="D315" t="n">
-        <v>21.6756097560976</v>
+        <v>21.5985365853659</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
-        <v>44579</v>
+        <v>44570</v>
       </c>
       <c r="B316" t="s">
         <v>4</v>
@@ -4811,12 +4809,12 @@
         <v>10</v>
       </c>
       <c r="D316" t="n">
-        <v>21.6756097560976</v>
+        <v>21.6253658536585</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
-        <v>44580</v>
+        <v>44571</v>
       </c>
       <c r="B317" t="s">
         <v>4</v>
@@ -4825,12 +4823,12 @@
         <v>10</v>
       </c>
       <c r="D317" t="n">
-        <v>21.6943902439024</v>
+        <v>21.6253658536585</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
-        <v>44581</v>
+        <v>44572</v>
       </c>
       <c r="B318" t="s">
         <v>4</v>
@@ -4839,12 +4837,12 @@
         <v>10</v>
       </c>
       <c r="D318" t="n">
-        <v>21.7256097560976</v>
+        <v>21.6253658536585</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
-        <v>44582</v>
+        <v>44573</v>
       </c>
       <c r="B319" t="s">
         <v>4</v>
@@ -4853,12 +4851,12 @@
         <v>10</v>
       </c>
       <c r="D319" t="n">
-        <v>21.7353658536585</v>
+        <v>21.6919512195122</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
-        <v>44583</v>
+        <v>44574</v>
       </c>
       <c r="B320" t="s">
         <v>4</v>
@@ -4867,12 +4865,12 @@
         <v>10</v>
       </c>
       <c r="D320" t="n">
-        <v>21.740243902439</v>
+        <v>21.6775609756098</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
-        <v>44584</v>
+        <v>44575</v>
       </c>
       <c r="B321" t="s">
         <v>4</v>
@@ -4881,12 +4879,12 @@
         <v>10</v>
       </c>
       <c r="D321" t="n">
-        <v>21.7385365853659</v>
+        <v>21.6863414634146</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
-        <v>44585</v>
+        <v>44576</v>
       </c>
       <c r="B322" t="s">
         <v>4</v>
@@ -4895,12 +4893,12 @@
         <v>10</v>
       </c>
       <c r="D322" t="n">
-        <v>21.7385365853659</v>
+        <v>21.6856097560976</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
-        <v>44586</v>
+        <v>44577</v>
       </c>
       <c r="B323" t="s">
         <v>4</v>
@@ -4909,12 +4907,12 @@
         <v>10</v>
       </c>
       <c r="D323" t="n">
-        <v>21.7407317073171</v>
+        <v>21.6756097560976</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
-        <v>44587</v>
+        <v>44578</v>
       </c>
       <c r="B324" t="s">
         <v>4</v>
@@ -4923,12 +4921,12 @@
         <v>10</v>
       </c>
       <c r="D324" t="n">
-        <v>21.7407317073171</v>
+        <v>21.6756097560976</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
-        <v>44588</v>
+        <v>44579</v>
       </c>
       <c r="B325" t="s">
         <v>4</v>
@@ -4937,12 +4935,12 @@
         <v>10</v>
       </c>
       <c r="D325" t="n">
-        <v>21.7424390243902</v>
+        <v>21.6756097560976</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
-        <v>44589</v>
+        <v>44580</v>
       </c>
       <c r="B326" t="s">
         <v>4</v>
@@ -4951,12 +4949,12 @@
         <v>10</v>
       </c>
       <c r="D326" t="n">
-        <v>21.7412195121951</v>
+        <v>21.6943902439024</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
-        <v>44590</v>
+        <v>44581</v>
       </c>
       <c r="B327" t="s">
         <v>4</v>
@@ -4965,12 +4963,12 @@
         <v>10</v>
       </c>
       <c r="D327" t="n">
-        <v>21.7456097560976</v>
+        <v>21.7256097560976</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
-        <v>44591</v>
+        <v>44582</v>
       </c>
       <c r="B328" t="s">
         <v>4</v>
@@ -4979,12 +4977,12 @@
         <v>10</v>
       </c>
       <c r="D328" t="n">
-        <v>21.7648780487805</v>
+        <v>21.7353658536585</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
-        <v>44592</v>
+        <v>44583</v>
       </c>
       <c r="B329" t="s">
         <v>4</v>
@@ -4993,12 +4991,12 @@
         <v>10</v>
       </c>
       <c r="D329" t="n">
-        <v>21.769756097561</v>
+        <v>21.740243902439</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
-        <v>44593</v>
+        <v>44584</v>
       </c>
       <c r="B330" t="s">
         <v>4</v>
@@ -5007,12 +5005,12 @@
         <v>10</v>
       </c>
       <c r="D330" t="n">
-        <v>21.769756097561</v>
+        <v>21.7385365853659</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
-        <v>44594</v>
+        <v>44585</v>
       </c>
       <c r="B331" t="s">
         <v>4</v>
@@ -5021,152 +5019,152 @@
         <v>10</v>
       </c>
       <c r="D331" t="n">
-        <v>21.7707317073171</v>
+        <v>21.7385365853659</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
-        <v>44562</v>
+        <v>44586</v>
       </c>
       <c r="B332" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C332" t="s">
         <v>10</v>
       </c>
       <c r="D332" t="n">
-        <v>23.0265454545455</v>
+        <v>21.7407317073171</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
-        <v>44563</v>
+        <v>44587</v>
       </c>
       <c r="B333" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C333" t="s">
         <v>10</v>
       </c>
       <c r="D333" t="n">
-        <v>23.0314545454545</v>
+        <v>21.7407317073171</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="1" t="n">
-        <v>44564</v>
+        <v>44588</v>
       </c>
       <c r="B334" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C334" t="s">
         <v>10</v>
       </c>
       <c r="D334" t="n">
-        <v>23.0314545454545</v>
+        <v>21.7424390243902</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="1" t="n">
-        <v>44565</v>
+        <v>44589</v>
       </c>
       <c r="B335" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C335" t="s">
         <v>10</v>
       </c>
       <c r="D335" t="n">
-        <v>23.0509090909091</v>
+        <v>21.7412195121951</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="1" t="n">
-        <v>44566</v>
+        <v>44590</v>
       </c>
       <c r="B336" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C336" t="s">
         <v>10</v>
       </c>
       <c r="D336" t="n">
-        <v>23.0698181818182</v>
+        <v>21.7456097560976</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="1" t="n">
-        <v>44567</v>
+        <v>44591</v>
       </c>
       <c r="B337" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C337" t="s">
         <v>10</v>
       </c>
       <c r="D337" t="n">
-        <v>23.0838181818182</v>
+        <v>21.7648780487805</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="1" t="n">
-        <v>44568</v>
+        <v>44592</v>
       </c>
       <c r="B338" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C338" t="s">
         <v>10</v>
       </c>
       <c r="D338" t="n">
-        <v>23.0914545454545</v>
+        <v>21.769756097561</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="1" t="n">
-        <v>44569</v>
+        <v>44593</v>
       </c>
       <c r="B339" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C339" t="s">
         <v>10</v>
       </c>
       <c r="D339" t="n">
-        <v>23.1112727272727</v>
+        <v>21.769756097561</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="1" t="n">
-        <v>44570</v>
+        <v>44594</v>
       </c>
       <c r="B340" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C340" t="s">
         <v>10</v>
       </c>
       <c r="D340" t="n">
-        <v>23.1110909090909</v>
+        <v>21.7707317073171</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="1" t="n">
-        <v>44571</v>
+        <v>44595</v>
       </c>
       <c r="B341" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C341" t="s">
         <v>10</v>
       </c>
       <c r="D341" t="n">
-        <v>23.1092727272727</v>
+        <v>21.7756097560976</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="1" t="n">
-        <v>44572</v>
+        <v>44562</v>
       </c>
       <c r="B342" t="s">
         <v>6</v>
@@ -5175,12 +5173,12 @@
         <v>10</v>
       </c>
       <c r="D342" t="n">
-        <v>23.1130909090909</v>
+        <v>23.0265454545455</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="1" t="n">
-        <v>44573</v>
+        <v>44563</v>
       </c>
       <c r="B343" t="s">
         <v>6</v>
@@ -5189,12 +5187,12 @@
         <v>10</v>
       </c>
       <c r="D343" t="n">
-        <v>23.1265454545455</v>
+        <v>23.0314545454545</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="1" t="n">
-        <v>44574</v>
+        <v>44564</v>
       </c>
       <c r="B344" t="s">
         <v>6</v>
@@ -5203,12 +5201,12 @@
         <v>10</v>
       </c>
       <c r="D344" t="n">
-        <v>23.1356363636364</v>
+        <v>23.0314545454545</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="1" t="n">
-        <v>44575</v>
+        <v>44565</v>
       </c>
       <c r="B345" t="s">
         <v>6</v>
@@ -5217,12 +5215,12 @@
         <v>10</v>
       </c>
       <c r="D345" t="n">
-        <v>23.1650909090909</v>
+        <v>23.0509090909091</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="1" t="n">
-        <v>44576</v>
+        <v>44566</v>
       </c>
       <c r="B346" t="s">
         <v>6</v>
@@ -5231,12 +5229,12 @@
         <v>10</v>
       </c>
       <c r="D346" t="n">
-        <v>23.1807272727273</v>
+        <v>23.0698181818182</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="1" t="n">
-        <v>44577</v>
+        <v>44567</v>
       </c>
       <c r="B347" t="s">
         <v>6</v>
@@ -5245,12 +5243,12 @@
         <v>10</v>
       </c>
       <c r="D347" t="n">
-        <v>23.1778181818182</v>
+        <v>23.0838181818182</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="1" t="n">
-        <v>44578</v>
+        <v>44568</v>
       </c>
       <c r="B348" t="s">
         <v>6</v>
@@ -5259,12 +5257,12 @@
         <v>10</v>
       </c>
       <c r="D348" t="n">
-        <v>23.1778181818182</v>
+        <v>23.0914545454545</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="1" t="n">
-        <v>44579</v>
+        <v>44569</v>
       </c>
       <c r="B349" t="s">
         <v>6</v>
@@ -5273,12 +5271,12 @@
         <v>10</v>
       </c>
       <c r="D349" t="n">
-        <v>23.1816363636364</v>
+        <v>23.1112727272727</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="1" t="n">
-        <v>44580</v>
+        <v>44570</v>
       </c>
       <c r="B350" t="s">
         <v>6</v>
@@ -5287,12 +5285,12 @@
         <v>10</v>
       </c>
       <c r="D350" t="n">
-        <v>23.186</v>
+        <v>23.1110909090909</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="1" t="n">
-        <v>44581</v>
+        <v>44571</v>
       </c>
       <c r="B351" t="s">
         <v>6</v>
@@ -5301,12 +5299,12 @@
         <v>10</v>
       </c>
       <c r="D351" t="n">
-        <v>23.186</v>
+        <v>23.1092727272727</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="1" t="n">
-        <v>44582</v>
+        <v>44572</v>
       </c>
       <c r="B352" t="s">
         <v>6</v>
@@ -5315,12 +5313,12 @@
         <v>10</v>
       </c>
       <c r="D352" t="n">
-        <v>23.1732727272727</v>
+        <v>23.1130909090909</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="1" t="n">
-        <v>44583</v>
+        <v>44573</v>
       </c>
       <c r="B353" t="s">
         <v>6</v>
@@ -5329,12 +5327,12 @@
         <v>10</v>
       </c>
       <c r="D353" t="n">
-        <v>23.1850909090909</v>
+        <v>23.1265454545455</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="1" t="n">
-        <v>44584</v>
+        <v>44574</v>
       </c>
       <c r="B354" t="s">
         <v>6</v>
@@ -5343,12 +5341,12 @@
         <v>10</v>
       </c>
       <c r="D354" t="n">
-        <v>23.1852727272727</v>
+        <v>23.1356363636364</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="1" t="n">
-        <v>44585</v>
+        <v>44575</v>
       </c>
       <c r="B355" t="s">
         <v>6</v>
@@ -5357,12 +5355,12 @@
         <v>10</v>
       </c>
       <c r="D355" t="n">
-        <v>23.1852727272727</v>
+        <v>23.1650909090909</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="1" t="n">
-        <v>44586</v>
+        <v>44576</v>
       </c>
       <c r="B356" t="s">
         <v>6</v>
@@ -5371,12 +5369,12 @@
         <v>10</v>
       </c>
       <c r="D356" t="n">
-        <v>23.1901818181818</v>
+        <v>23.1807272727273</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="1" t="n">
-        <v>44587</v>
+        <v>44577</v>
       </c>
       <c r="B357" t="s">
         <v>6</v>
@@ -5385,12 +5383,12 @@
         <v>10</v>
       </c>
       <c r="D357" t="n">
-        <v>23.2003636363636</v>
+        <v>23.1778181818182</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="1" t="n">
-        <v>44588</v>
+        <v>44578</v>
       </c>
       <c r="B358" t="s">
         <v>6</v>
@@ -5399,12 +5397,12 @@
         <v>10</v>
       </c>
       <c r="D358" t="n">
-        <v>23.2023636363636</v>
+        <v>23.1778181818182</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="1" t="n">
-        <v>44589</v>
+        <v>44579</v>
       </c>
       <c r="B359" t="s">
         <v>6</v>
@@ -5413,12 +5411,12 @@
         <v>10</v>
       </c>
       <c r="D359" t="n">
-        <v>23.1981818181818</v>
+        <v>23.1816363636364</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="1" t="n">
-        <v>44590</v>
+        <v>44580</v>
       </c>
       <c r="B360" t="s">
         <v>6</v>
@@ -5427,12 +5425,12 @@
         <v>10</v>
       </c>
       <c r="D360" t="n">
-        <v>23.2034545454545</v>
+        <v>23.186</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="1" t="n">
-        <v>44591</v>
+        <v>44581</v>
       </c>
       <c r="B361" t="s">
         <v>6</v>
@@ -5441,12 +5439,12 @@
         <v>10</v>
       </c>
       <c r="D361" t="n">
-        <v>23.2032727272727</v>
+        <v>23.186</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="1" t="n">
-        <v>44592</v>
+        <v>44582</v>
       </c>
       <c r="B362" t="s">
         <v>6</v>
@@ -5455,12 +5453,12 @@
         <v>10</v>
       </c>
       <c r="D362" t="n">
-        <v>23.2287272727273</v>
+        <v>23.1732727272727</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="1" t="n">
-        <v>44593</v>
+        <v>44583</v>
       </c>
       <c r="B363" t="s">
         <v>6</v>
@@ -5469,12 +5467,12 @@
         <v>10</v>
       </c>
       <c r="D363" t="n">
-        <v>23.2325454545455</v>
+        <v>23.1850909090909</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="1" t="n">
-        <v>44594</v>
+        <v>44584</v>
       </c>
       <c r="B364" t="s">
         <v>6</v>
@@ -5483,166 +5481,166 @@
         <v>10</v>
       </c>
       <c r="D364" t="n">
-        <v>23.2372727272727</v>
+        <v>23.1852727272727</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="1" t="n">
-        <v>44562</v>
+        <v>44585</v>
       </c>
       <c r="B365" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C365" t="s">
         <v>10</v>
       </c>
       <c r="D365" t="n">
-        <v>20.702</v>
+        <v>23.1852727272727</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="1" t="n">
-        <v>44563</v>
+        <v>44586</v>
       </c>
       <c r="B366" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C366" t="s">
         <v>10</v>
       </c>
       <c r="D366" t="n">
-        <v>20.7236363636364</v>
+        <v>23.1901818181818</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="1" t="n">
-        <v>44564</v>
+        <v>44587</v>
       </c>
       <c r="B367" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C367" t="s">
         <v>10</v>
       </c>
       <c r="D367" t="n">
-        <v>20.7345454545455</v>
+        <v>23.2003636363636</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="1" t="n">
-        <v>44565</v>
+        <v>44588</v>
       </c>
       <c r="B368" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C368" t="s">
         <v>10</v>
       </c>
       <c r="D368" t="n">
-        <v>20.7574545454545</v>
+        <v>23.2023636363636</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="1" t="n">
-        <v>44566</v>
+        <v>44589</v>
       </c>
       <c r="B369" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C369" t="s">
         <v>10</v>
       </c>
       <c r="D369" t="n">
-        <v>20.7961818181818</v>
+        <v>23.1981818181818</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="1" t="n">
-        <v>44567</v>
+        <v>44590</v>
       </c>
       <c r="B370" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C370" t="s">
         <v>10</v>
       </c>
       <c r="D370" t="n">
-        <v>20.8190909090909</v>
+        <v>23.2034545454545</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="1" t="n">
-        <v>44568</v>
+        <v>44591</v>
       </c>
       <c r="B371" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C371" t="s">
         <v>10</v>
       </c>
       <c r="D371" t="n">
-        <v>20.8203636363636</v>
+        <v>23.2032727272727</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="1" t="n">
-        <v>44569</v>
+        <v>44592</v>
       </c>
       <c r="B372" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C372" t="s">
         <v>10</v>
       </c>
       <c r="D372" t="n">
-        <v>20.8349090909091</v>
+        <v>23.2287272727273</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="1" t="n">
-        <v>44570</v>
+        <v>44593</v>
       </c>
       <c r="B373" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C373" t="s">
         <v>10</v>
       </c>
       <c r="D373" t="n">
-        <v>20.8312727272727</v>
+        <v>23.2325454545455</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="1" t="n">
-        <v>44571</v>
+        <v>44594</v>
       </c>
       <c r="B374" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C374" t="s">
         <v>10</v>
       </c>
       <c r="D374" t="n">
-        <v>20.8221818181818</v>
+        <v>23.2372727272727</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="1" t="n">
-        <v>44572</v>
+        <v>44595</v>
       </c>
       <c r="B375" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C375" t="s">
         <v>10</v>
       </c>
       <c r="D375" t="n">
-        <v>20.8258181818182</v>
+        <v>23.2390909090909</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="1" t="n">
-        <v>44573</v>
+        <v>44562</v>
       </c>
       <c r="B376" t="s">
         <v>7</v>
@@ -5651,12 +5649,12 @@
         <v>10</v>
       </c>
       <c r="D376" t="n">
-        <v>20.826</v>
+        <v>20.702</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="1" t="n">
-        <v>44574</v>
+        <v>44563</v>
       </c>
       <c r="B377" t="s">
         <v>7</v>
@@ -5665,12 +5663,12 @@
         <v>10</v>
       </c>
       <c r="D377" t="n">
-        <v>20.8196363636364</v>
+        <v>20.7236363636364</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="1" t="n">
-        <v>44575</v>
+        <v>44564</v>
       </c>
       <c r="B378" t="s">
         <v>7</v>
@@ -5679,12 +5677,12 @@
         <v>10</v>
       </c>
       <c r="D378" t="n">
-        <v>20.8356363636364</v>
+        <v>20.7345454545455</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="1" t="n">
-        <v>44576</v>
+        <v>44565</v>
       </c>
       <c r="B379" t="s">
         <v>7</v>
@@ -5693,12 +5691,12 @@
         <v>10</v>
       </c>
       <c r="D379" t="n">
-        <v>20.8518181818182</v>
+        <v>20.7574545454545</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="1" t="n">
-        <v>44577</v>
+        <v>44566</v>
       </c>
       <c r="B380" t="s">
         <v>7</v>
@@ -5707,12 +5705,12 @@
         <v>10</v>
       </c>
       <c r="D380" t="n">
-        <v>20.8463636363636</v>
+        <v>20.7961818181818</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="1" t="n">
-        <v>44578</v>
+        <v>44567</v>
       </c>
       <c r="B381" t="s">
         <v>7</v>
@@ -5721,12 +5719,12 @@
         <v>10</v>
       </c>
       <c r="D381" t="n">
-        <v>20.85</v>
+        <v>20.8190909090909</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="1" t="n">
-        <v>44579</v>
+        <v>44568</v>
       </c>
       <c r="B382" t="s">
         <v>7</v>
@@ -5735,12 +5733,12 @@
         <v>10</v>
       </c>
       <c r="D382" t="n">
-        <v>20.8536363636364</v>
+        <v>20.8203636363636</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="1" t="n">
-        <v>44580</v>
+        <v>44569</v>
       </c>
       <c r="B383" t="s">
         <v>7</v>
@@ -5749,12 +5747,12 @@
         <v>10</v>
       </c>
       <c r="D383" t="n">
-        <v>20.8594545454545</v>
+        <v>20.8349090909091</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="1" t="n">
-        <v>44581</v>
+        <v>44570</v>
       </c>
       <c r="B384" t="s">
         <v>7</v>
@@ -5763,12 +5761,12 @@
         <v>10</v>
       </c>
       <c r="D384" t="n">
-        <v>20.8832727272727</v>
+        <v>20.8312727272727</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="1" t="n">
-        <v>44582</v>
+        <v>44571</v>
       </c>
       <c r="B385" t="s">
         <v>7</v>
@@ -5777,12 +5775,12 @@
         <v>10</v>
       </c>
       <c r="D385" t="n">
-        <v>20.8901818181818</v>
+        <v>20.8221818181818</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="1" t="n">
-        <v>44583</v>
+        <v>44572</v>
       </c>
       <c r="B386" t="s">
         <v>7</v>
@@ -5791,12 +5789,12 @@
         <v>10</v>
       </c>
       <c r="D386" t="n">
-        <v>20.8945454545455</v>
+        <v>20.8258181818182</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="1" t="n">
-        <v>44584</v>
+        <v>44573</v>
       </c>
       <c r="B387" t="s">
         <v>7</v>
@@ -5805,12 +5803,12 @@
         <v>10</v>
       </c>
       <c r="D387" t="n">
-        <v>20.8929090909091</v>
+        <v>20.826</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="1" t="n">
-        <v>44585</v>
+        <v>44574</v>
       </c>
       <c r="B388" t="s">
         <v>7</v>
@@ -5819,12 +5817,12 @@
         <v>10</v>
       </c>
       <c r="D388" t="n">
-        <v>20.8929090909091</v>
+        <v>20.8196363636364</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="1" t="n">
-        <v>44586</v>
+        <v>44575</v>
       </c>
       <c r="B389" t="s">
         <v>7</v>
@@ -5833,12 +5831,12 @@
         <v>10</v>
       </c>
       <c r="D389" t="n">
-        <v>20.8936363636364</v>
+        <v>20.8356363636364</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="1" t="n">
-        <v>44587</v>
+        <v>44576</v>
       </c>
       <c r="B390" t="s">
         <v>7</v>
@@ -5847,12 +5845,12 @@
         <v>10</v>
       </c>
       <c r="D390" t="n">
-        <v>20.8992727272727</v>
+        <v>20.8518181818182</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="1" t="n">
-        <v>44588</v>
+        <v>44577</v>
       </c>
       <c r="B391" t="s">
         <v>7</v>
@@ -5861,12 +5859,12 @@
         <v>10</v>
       </c>
       <c r="D391" t="n">
-        <v>20.8990909090909</v>
+        <v>20.8463636363636</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="1" t="n">
-        <v>44589</v>
+        <v>44578</v>
       </c>
       <c r="B392" t="s">
         <v>7</v>
@@ -5875,12 +5873,12 @@
         <v>10</v>
       </c>
       <c r="D392" t="n">
-        <v>20.8976363636364</v>
+        <v>20.85</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="1" t="n">
-        <v>44590</v>
+        <v>44579</v>
       </c>
       <c r="B393" t="s">
         <v>7</v>
@@ -5889,12 +5887,12 @@
         <v>10</v>
       </c>
       <c r="D393" t="n">
-        <v>20.8961818181818</v>
+        <v>20.8536363636364</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="1" t="n">
-        <v>44591</v>
+        <v>44580</v>
       </c>
       <c r="B394" t="s">
         <v>7</v>
@@ -5903,12 +5901,12 @@
         <v>10</v>
       </c>
       <c r="D394" t="n">
-        <v>20.8981818181818</v>
+        <v>20.8594545454545</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="1" t="n">
-        <v>44592</v>
+        <v>44581</v>
       </c>
       <c r="B395" t="s">
         <v>7</v>
@@ -5917,12 +5915,12 @@
         <v>10</v>
       </c>
       <c r="D395" t="n">
-        <v>20.9018181818182</v>
+        <v>20.8832727272727</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="1" t="n">
-        <v>44593</v>
+        <v>44582</v>
       </c>
       <c r="B396" t="s">
         <v>7</v>
@@ -5931,12 +5929,12 @@
         <v>10</v>
       </c>
       <c r="D396" t="n">
-        <v>20.9054545454545</v>
+        <v>20.8901818181818</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="1" t="n">
-        <v>44594</v>
+        <v>44583</v>
       </c>
       <c r="B397" t="s">
         <v>7</v>
@@ -5945,180 +5943,180 @@
         <v>10</v>
       </c>
       <c r="D397" t="n">
-        <v>20.9210909090909</v>
+        <v>20.8945454545455</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="1" t="n">
-        <v>44562</v>
+        <v>44584</v>
       </c>
       <c r="B398" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C398" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D398" t="n">
-        <v>21.8417142857143</v>
+        <v>20.8929090909091</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="1" t="n">
-        <v>44563</v>
+        <v>44585</v>
       </c>
       <c r="B399" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C399" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D399" t="n">
-        <v>21.8468571428571</v>
+        <v>20.8929090909091</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="1" t="n">
-        <v>44564</v>
+        <v>44586</v>
       </c>
       <c r="B400" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C400" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D400" t="n">
-        <v>21.8748571428571</v>
+        <v>20.8936363636364</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="1" t="n">
-        <v>44565</v>
+        <v>44587</v>
       </c>
       <c r="B401" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C401" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D401" t="n">
-        <v>21.8748571428571</v>
+        <v>20.8992727272727</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="1" t="n">
-        <v>44566</v>
+        <v>44588</v>
       </c>
       <c r="B402" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C402" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D402" t="n">
-        <v>21.8662857142857</v>
+        <v>20.8990909090909</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="1" t="n">
-        <v>44567</v>
+        <v>44589</v>
       </c>
       <c r="B403" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C403" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D403" t="n">
-        <v>21.8582857142857</v>
+        <v>20.8976363636364</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="1" t="n">
-        <v>44568</v>
+        <v>44590</v>
       </c>
       <c r="B404" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C404" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D404" t="n">
-        <v>21.8522857142857</v>
+        <v>20.8961818181818</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="1" t="n">
-        <v>44569</v>
+        <v>44591</v>
       </c>
       <c r="B405" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C405" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D405" t="n">
-        <v>21.8597142857143</v>
+        <v>20.8981818181818</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="1" t="n">
-        <v>44570</v>
+        <v>44592</v>
       </c>
       <c r="B406" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C406" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D406" t="n">
-        <v>21.8691428571429</v>
+        <v>20.9018181818182</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" s="1" t="n">
-        <v>44571</v>
+        <v>44593</v>
       </c>
       <c r="B407" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C407" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D407" t="n">
-        <v>21.8691428571429</v>
+        <v>20.9054545454545</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="1" t="n">
-        <v>44572</v>
+        <v>44594</v>
       </c>
       <c r="B408" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C408" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D408" t="n">
-        <v>21.8691428571429</v>
+        <v>20.9210909090909</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="1" t="n">
-        <v>44573</v>
+        <v>44595</v>
       </c>
       <c r="B409" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C409" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D409" t="n">
-        <v>21.8882857142857</v>
+        <v>20.9210909090909</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="1" t="n">
-        <v>44574</v>
+        <v>44562</v>
       </c>
       <c r="B410" t="s">
         <v>4</v>
@@ -6127,12 +6125,12 @@
         <v>11</v>
       </c>
       <c r="D410" t="n">
-        <v>21.9302857142857</v>
+        <v>21.8417142857143</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="1" t="n">
-        <v>44575</v>
+        <v>44563</v>
       </c>
       <c r="B411" t="s">
         <v>4</v>
@@ -6141,12 +6139,12 @@
         <v>11</v>
       </c>
       <c r="D411" t="n">
-        <v>21.9345714285714</v>
+        <v>21.8468571428571</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="1" t="n">
-        <v>44576</v>
+        <v>44564</v>
       </c>
       <c r="B412" t="s">
         <v>4</v>
@@ -6155,12 +6153,12 @@
         <v>11</v>
       </c>
       <c r="D412" t="n">
-        <v>21.952</v>
+        <v>21.8748571428571</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="1" t="n">
-        <v>44577</v>
+        <v>44565</v>
       </c>
       <c r="B413" t="s">
         <v>4</v>
@@ -6169,12 +6167,12 @@
         <v>11</v>
       </c>
       <c r="D413" t="n">
-        <v>21.9737142857143</v>
+        <v>21.8748571428571</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" s="1" t="n">
-        <v>44578</v>
+        <v>44566</v>
       </c>
       <c r="B414" t="s">
         <v>4</v>
@@ -6183,12 +6181,12 @@
         <v>11</v>
       </c>
       <c r="D414" t="n">
-        <v>21.9737142857143</v>
+        <v>21.8662857142857</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" s="1" t="n">
-        <v>44579</v>
+        <v>44567</v>
       </c>
       <c r="B415" t="s">
         <v>4</v>
@@ -6197,12 +6195,12 @@
         <v>11</v>
       </c>
       <c r="D415" t="n">
-        <v>21.9871428571429</v>
+        <v>21.8582857142857</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" s="1" t="n">
-        <v>44580</v>
+        <v>44568</v>
       </c>
       <c r="B416" t="s">
         <v>4</v>
@@ -6211,12 +6209,12 @@
         <v>11</v>
       </c>
       <c r="D416" t="n">
-        <v>21.9871428571429</v>
+        <v>21.8522857142857</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" s="1" t="n">
-        <v>44581</v>
+        <v>44569</v>
       </c>
       <c r="B417" t="s">
         <v>4</v>
@@ -6225,12 +6223,12 @@
         <v>11</v>
       </c>
       <c r="D417" t="n">
-        <v>21.9908571428571</v>
+        <v>21.8597142857143</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" s="1" t="n">
-        <v>44582</v>
+        <v>44570</v>
       </c>
       <c r="B418" t="s">
         <v>4</v>
@@ -6239,12 +6237,12 @@
         <v>11</v>
       </c>
       <c r="D418" t="n">
-        <v>22.0005714285714</v>
+        <v>21.8691428571429</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" s="1" t="n">
-        <v>44583</v>
+        <v>44571</v>
       </c>
       <c r="B419" t="s">
         <v>4</v>
@@ -6253,12 +6251,12 @@
         <v>11</v>
       </c>
       <c r="D419" t="n">
-        <v>22.0005714285714</v>
+        <v>21.8691428571429</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" s="1" t="n">
-        <v>44584</v>
+        <v>44572</v>
       </c>
       <c r="B420" t="s">
         <v>4</v>
@@ -6267,12 +6265,12 @@
         <v>11</v>
       </c>
       <c r="D420" t="n">
-        <v>21.9988571428571</v>
+        <v>21.8691428571429</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" s="1" t="n">
-        <v>44585</v>
+        <v>44573</v>
       </c>
       <c r="B421" t="s">
         <v>4</v>
@@ -6281,12 +6279,12 @@
         <v>11</v>
       </c>
       <c r="D421" t="n">
-        <v>22.0045714285714</v>
+        <v>21.8882857142857</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" s="1" t="n">
-        <v>44586</v>
+        <v>44574</v>
       </c>
       <c r="B422" t="s">
         <v>4</v>
@@ -6295,12 +6293,12 @@
         <v>11</v>
       </c>
       <c r="D422" t="n">
-        <v>22.0045714285714</v>
+        <v>21.9302857142857</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" s="1" t="n">
-        <v>44587</v>
+        <v>44575</v>
       </c>
       <c r="B423" t="s">
         <v>4</v>
@@ -6309,12 +6307,12 @@
         <v>11</v>
       </c>
       <c r="D423" t="n">
-        <v>22.0342857142857</v>
+        <v>21.9345714285714</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" s="1" t="n">
-        <v>44588</v>
+        <v>44576</v>
       </c>
       <c r="B424" t="s">
         <v>4</v>
@@ -6323,12 +6321,12 @@
         <v>11</v>
       </c>
       <c r="D424" t="n">
-        <v>22.0474285714286</v>
+        <v>21.952</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" s="1" t="n">
-        <v>44589</v>
+        <v>44577</v>
       </c>
       <c r="B425" t="s">
         <v>4</v>
@@ -6337,12 +6335,12 @@
         <v>11</v>
       </c>
       <c r="D425" t="n">
-        <v>22.0394285714286</v>
+        <v>21.9737142857143</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" s="1" t="n">
-        <v>44590</v>
+        <v>44578</v>
       </c>
       <c r="B426" t="s">
         <v>4</v>
@@ -6351,12 +6349,12 @@
         <v>11</v>
       </c>
       <c r="D426" t="n">
-        <v>22.0402857142857</v>
+        <v>21.9737142857143</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" s="1" t="n">
-        <v>44591</v>
+        <v>44579</v>
       </c>
       <c r="B427" t="s">
         <v>4</v>
@@ -6365,12 +6363,12 @@
         <v>11</v>
       </c>
       <c r="D427" t="n">
-        <v>22.0548571428571</v>
+        <v>21.9871428571429</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" s="1" t="n">
-        <v>44592</v>
+        <v>44580</v>
       </c>
       <c r="B428" t="s">
         <v>4</v>
@@ -6379,12 +6377,12 @@
         <v>11</v>
       </c>
       <c r="D428" t="n">
-        <v>22.0548571428571</v>
+        <v>21.9871428571429</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" s="1" t="n">
-        <v>44593</v>
+        <v>44581</v>
       </c>
       <c r="B429" t="s">
         <v>4</v>
@@ -6393,12 +6391,12 @@
         <v>11</v>
       </c>
       <c r="D429" t="n">
-        <v>22.0548571428571</v>
+        <v>21.9908571428571</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" s="1" t="n">
-        <v>44594</v>
+        <v>44582</v>
       </c>
       <c r="B430" t="s">
         <v>4</v>
@@ -6407,194 +6405,194 @@
         <v>11</v>
       </c>
       <c r="D430" t="n">
-        <v>22.0748571428571</v>
+        <v>22.0005714285714</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" s="1" t="n">
-        <v>44562</v>
+        <v>44583</v>
       </c>
       <c r="B431" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C431" t="s">
         <v>11</v>
       </c>
       <c r="D431" t="n">
-        <v>22.96</v>
+        <v>22.0005714285714</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" s="1" t="n">
-        <v>44563</v>
+        <v>44584</v>
       </c>
       <c r="B432" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C432" t="s">
         <v>11</v>
       </c>
       <c r="D432" t="n">
-        <v>22.9595238095238</v>
+        <v>21.9988571428571</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" s="1" t="n">
-        <v>44564</v>
+        <v>44585</v>
       </c>
       <c r="B433" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C433" t="s">
         <v>11</v>
       </c>
       <c r="D433" t="n">
-        <v>22.9659523809524</v>
+        <v>22.0045714285714</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" s="1" t="n">
-        <v>44565</v>
+        <v>44586</v>
       </c>
       <c r="B434" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C434" t="s">
         <v>11</v>
       </c>
       <c r="D434" t="n">
-        <v>22.9659523809524</v>
+        <v>22.0045714285714</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" s="1" t="n">
-        <v>44566</v>
+        <v>44587</v>
       </c>
       <c r="B435" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C435" t="s">
         <v>11</v>
       </c>
       <c r="D435" t="n">
-        <v>22.967619047619</v>
+        <v>22.0342857142857</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" s="1" t="n">
-        <v>44567</v>
+        <v>44588</v>
       </c>
       <c r="B436" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C436" t="s">
         <v>11</v>
       </c>
       <c r="D436" t="n">
-        <v>22.9961904761905</v>
+        <v>22.0474285714286</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" s="1" t="n">
-        <v>44568</v>
+        <v>44589</v>
       </c>
       <c r="B437" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C437" t="s">
         <v>11</v>
       </c>
       <c r="D437" t="n">
-        <v>23.0071428571429</v>
+        <v>22.0394285714286</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" s="1" t="n">
-        <v>44569</v>
+        <v>44590</v>
       </c>
       <c r="B438" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C438" t="s">
         <v>11</v>
       </c>
       <c r="D438" t="n">
-        <v>23.0109523809524</v>
+        <v>22.0402857142857</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" s="1" t="n">
-        <v>44570</v>
+        <v>44591</v>
       </c>
       <c r="B439" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C439" t="s">
         <v>11</v>
       </c>
       <c r="D439" t="n">
-        <v>23.0119047619048</v>
+        <v>22.0548571428571</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" s="1" t="n">
-        <v>44571</v>
+        <v>44592</v>
       </c>
       <c r="B440" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C440" t="s">
         <v>11</v>
       </c>
       <c r="D440" t="n">
-        <v>23.0119047619048</v>
+        <v>22.0548571428571</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" s="1" t="n">
-        <v>44572</v>
+        <v>44593</v>
       </c>
       <c r="B441" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C441" t="s">
         <v>11</v>
       </c>
       <c r="D441" t="n">
-        <v>23.017619047619</v>
+        <v>22.0548571428571</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" s="1" t="n">
-        <v>44573</v>
+        <v>44594</v>
       </c>
       <c r="B442" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C442" t="s">
         <v>11</v>
       </c>
       <c r="D442" t="n">
-        <v>23.0330952380952</v>
+        <v>22.0748571428571</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" s="1" t="n">
-        <v>44574</v>
+        <v>44595</v>
       </c>
       <c r="B443" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C443" t="s">
         <v>11</v>
       </c>
       <c r="D443" t="n">
-        <v>23.0414285714286</v>
+        <v>22.0837142857143</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" s="1" t="n">
-        <v>44575</v>
+        <v>44562</v>
       </c>
       <c r="B444" t="s">
         <v>6</v>
@@ -6603,12 +6601,12 @@
         <v>11</v>
       </c>
       <c r="D444" t="n">
-        <v>23.0495238095238</v>
+        <v>22.96</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" s="1" t="n">
-        <v>44576</v>
+        <v>44563</v>
       </c>
       <c r="B445" t="s">
         <v>6</v>
@@ -6617,12 +6615,12 @@
         <v>11</v>
       </c>
       <c r="D445" t="n">
-        <v>23.0514285714286</v>
+        <v>22.9595238095238</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" s="1" t="n">
-        <v>44577</v>
+        <v>44564</v>
       </c>
       <c r="B446" t="s">
         <v>6</v>
@@ -6631,12 +6629,12 @@
         <v>11</v>
       </c>
       <c r="D446" t="n">
-        <v>23.0566666666667</v>
+        <v>22.9659523809524</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" s="1" t="n">
-        <v>44578</v>
+        <v>44565</v>
       </c>
       <c r="B447" t="s">
         <v>6</v>
@@ -6645,12 +6643,12 @@
         <v>11</v>
       </c>
       <c r="D447" t="n">
-        <v>23.0569047619048</v>
+        <v>22.9659523809524</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" s="1" t="n">
-        <v>44579</v>
+        <v>44566</v>
       </c>
       <c r="B448" t="s">
         <v>6</v>
@@ -6659,12 +6657,12 @@
         <v>11</v>
       </c>
       <c r="D448" t="n">
-        <v>23.0569047619048</v>
+        <v>22.967619047619</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" s="1" t="n">
-        <v>44580</v>
+        <v>44567</v>
       </c>
       <c r="B449" t="s">
         <v>6</v>
@@ -6673,12 +6671,12 @@
         <v>11</v>
       </c>
       <c r="D449" t="n">
-        <v>23.047380952381</v>
+        <v>22.9961904761905</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" s="1" t="n">
-        <v>44581</v>
+        <v>44568</v>
       </c>
       <c r="B450" t="s">
         <v>6</v>
@@ -6687,12 +6685,12 @@
         <v>11</v>
       </c>
       <c r="D450" t="n">
-        <v>23.0485714285714</v>
+        <v>23.0071428571429</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" s="1" t="n">
-        <v>44582</v>
+        <v>44569</v>
       </c>
       <c r="B451" t="s">
         <v>6</v>
@@ -6701,12 +6699,12 @@
         <v>11</v>
       </c>
       <c r="D451" t="n">
-        <v>23.0492857142857</v>
+        <v>23.0109523809524</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" s="1" t="n">
-        <v>44583</v>
+        <v>44570</v>
       </c>
       <c r="B452" t="s">
         <v>6</v>
@@ -6715,12 +6713,12 @@
         <v>11</v>
       </c>
       <c r="D452" t="n">
-        <v>23.0545238095238</v>
+        <v>23.0119047619048</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" s="1" t="n">
-        <v>44584</v>
+        <v>44571</v>
       </c>
       <c r="B453" t="s">
         <v>6</v>
@@ -6729,12 +6727,12 @@
         <v>11</v>
       </c>
       <c r="D453" t="n">
-        <v>23.0545238095238</v>
+        <v>23.0119047619048</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" s="1" t="n">
-        <v>44585</v>
+        <v>44572</v>
       </c>
       <c r="B454" t="s">
         <v>6</v>
@@ -6743,12 +6741,12 @@
         <v>11</v>
       </c>
       <c r="D454" t="n">
-        <v>23.057380952381</v>
+        <v>23.017619047619</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" s="1" t="n">
-        <v>44586</v>
+        <v>44573</v>
       </c>
       <c r="B455" t="s">
         <v>6</v>
@@ -6757,12 +6755,12 @@
         <v>11</v>
       </c>
       <c r="D455" t="n">
-        <v>23.057380952381</v>
+        <v>23.0330952380952</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" s="1" t="n">
-        <v>44587</v>
+        <v>44574</v>
       </c>
       <c r="B456" t="s">
         <v>6</v>
@@ -6771,12 +6769,12 @@
         <v>11</v>
       </c>
       <c r="D456" t="n">
-        <v>23.0678571428571</v>
+        <v>23.0414285714286</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" s="1" t="n">
-        <v>44588</v>
+        <v>44575</v>
       </c>
       <c r="B457" t="s">
         <v>6</v>
@@ -6785,12 +6783,12 @@
         <v>11</v>
       </c>
       <c r="D457" t="n">
-        <v>23.0754761904762</v>
+        <v>23.0495238095238</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" s="1" t="n">
-        <v>44589</v>
+        <v>44576</v>
       </c>
       <c r="B458" t="s">
         <v>6</v>
@@ -6799,12 +6797,12 @@
         <v>11</v>
       </c>
       <c r="D458" t="n">
-        <v>23.0414285714286</v>
+        <v>23.0514285714286</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" s="1" t="n">
-        <v>44590</v>
+        <v>44577</v>
       </c>
       <c r="B459" t="s">
         <v>6</v>
@@ -6813,12 +6811,12 @@
         <v>11</v>
       </c>
       <c r="D459" t="n">
-        <v>23.0947619047619</v>
+        <v>23.0566666666667</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" s="1" t="n">
-        <v>44591</v>
+        <v>44578</v>
       </c>
       <c r="B460" t="s">
         <v>6</v>
@@ -6827,12 +6825,12 @@
         <v>11</v>
       </c>
       <c r="D460" t="n">
-        <v>23.1142857142857</v>
+        <v>23.0569047619048</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" s="1" t="n">
-        <v>44592</v>
+        <v>44579</v>
       </c>
       <c r="B461" t="s">
         <v>6</v>
@@ -6841,12 +6839,12 @@
         <v>11</v>
       </c>
       <c r="D461" t="n">
-        <v>23.1142857142857</v>
+        <v>23.0569047619048</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" s="1" t="n">
-        <v>44593</v>
+        <v>44580</v>
       </c>
       <c r="B462" t="s">
         <v>6</v>
@@ -6855,12 +6853,12 @@
         <v>11</v>
       </c>
       <c r="D462" t="n">
-        <v>23.1228571428571</v>
+        <v>23.047380952381</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" s="1" t="n">
-        <v>44594</v>
+        <v>44581</v>
       </c>
       <c r="B463" t="s">
         <v>6</v>
@@ -6869,208 +6867,208 @@
         <v>11</v>
       </c>
       <c r="D463" t="n">
-        <v>23.1252380952381</v>
+        <v>23.0485714285714</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" s="1" t="n">
-        <v>44562</v>
+        <v>44582</v>
       </c>
       <c r="B464" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C464" t="s">
         <v>11</v>
       </c>
       <c r="D464" t="n">
-        <v>20.9079069767442</v>
+        <v>23.0492857142857</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" s="1" t="n">
-        <v>44563</v>
+        <v>44583</v>
       </c>
       <c r="B465" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C465" t="s">
         <v>11</v>
       </c>
       <c r="D465" t="n">
-        <v>20.9072093023256</v>
+        <v>23.0545238095238</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" s="1" t="n">
-        <v>44564</v>
+        <v>44584</v>
       </c>
       <c r="B466" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C466" t="s">
         <v>11</v>
       </c>
       <c r="D466" t="n">
-        <v>20.913488372093</v>
+        <v>23.0545238095238</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" s="1" t="n">
-        <v>44565</v>
+        <v>44585</v>
       </c>
       <c r="B467" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C467" t="s">
         <v>11</v>
       </c>
       <c r="D467" t="n">
-        <v>20.913488372093</v>
+        <v>23.057380952381</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" s="1" t="n">
-        <v>44566</v>
+        <v>44586</v>
       </c>
       <c r="B468" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C468" t="s">
         <v>11</v>
       </c>
       <c r="D468" t="n">
-        <v>20.9390697674419</v>
+        <v>23.057380952381</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" s="1" t="n">
-        <v>44567</v>
+        <v>44587</v>
       </c>
       <c r="B469" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C469" t="s">
         <v>11</v>
       </c>
       <c r="D469" t="n">
-        <v>20.9458139534884</v>
+        <v>23.0678571428571</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" s="1" t="n">
-        <v>44568</v>
+        <v>44588</v>
       </c>
       <c r="B470" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C470" t="s">
         <v>11</v>
       </c>
       <c r="D470" t="n">
-        <v>20.9586046511628</v>
+        <v>23.0754761904762</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" s="1" t="n">
-        <v>44569</v>
+        <v>44589</v>
       </c>
       <c r="B471" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C471" t="s">
         <v>11</v>
       </c>
       <c r="D471" t="n">
-        <v>20.9688372093023</v>
+        <v>23.0414285714286</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" s="1" t="n">
-        <v>44570</v>
+        <v>44590</v>
       </c>
       <c r="B472" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C472" t="s">
         <v>11</v>
       </c>
       <c r="D472" t="n">
-        <v>20.9316279069767</v>
+        <v>23.0947619047619</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" s="1" t="n">
-        <v>44571</v>
+        <v>44591</v>
       </c>
       <c r="B473" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C473" t="s">
         <v>11</v>
       </c>
       <c r="D473" t="n">
-        <v>20.9239534883721</v>
+        <v>23.1142857142857</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" s="1" t="n">
-        <v>44572</v>
+        <v>44592</v>
       </c>
       <c r="B474" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C474" t="s">
         <v>11</v>
       </c>
       <c r="D474" t="n">
-        <v>20.9004651162791</v>
+        <v>23.1142857142857</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" s="1" t="n">
-        <v>44573</v>
+        <v>44593</v>
       </c>
       <c r="B475" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C475" t="s">
         <v>11</v>
       </c>
       <c r="D475" t="n">
-        <v>20.8746511627907</v>
+        <v>23.1228571428571</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" s="1" t="n">
-        <v>44574</v>
+        <v>44594</v>
       </c>
       <c r="B476" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C476" t="s">
         <v>11</v>
       </c>
       <c r="D476" t="n">
-        <v>20.863023255814</v>
+        <v>23.1252380952381</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" s="1" t="n">
-        <v>44575</v>
+        <v>44595</v>
       </c>
       <c r="B477" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C477" t="s">
         <v>11</v>
       </c>
       <c r="D477" t="n">
-        <v>20.873023255814</v>
+        <v>23.1309523809524</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" s="1" t="n">
-        <v>44576</v>
+        <v>44562</v>
       </c>
       <c r="B478" t="s">
         <v>7</v>
@@ -7079,12 +7077,12 @@
         <v>11</v>
       </c>
       <c r="D478" t="n">
-        <v>20.893488372093</v>
+        <v>20.9079069767442</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" s="1" t="n">
-        <v>44577</v>
+        <v>44563</v>
       </c>
       <c r="B479" t="s">
         <v>7</v>
@@ -7093,12 +7091,12 @@
         <v>11</v>
       </c>
       <c r="D479" t="n">
-        <v>20.9213953488372</v>
+        <v>20.9072093023256</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" s="1" t="n">
-        <v>44578</v>
+        <v>44564</v>
       </c>
       <c r="B480" t="s">
         <v>7</v>
@@ -7107,12 +7105,12 @@
         <v>11</v>
       </c>
       <c r="D480" t="n">
-        <v>20.9220930232558</v>
+        <v>20.913488372093</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" s="1" t="n">
-        <v>44579</v>
+        <v>44565</v>
       </c>
       <c r="B481" t="s">
         <v>7</v>
@@ -7121,12 +7119,12 @@
         <v>11</v>
       </c>
       <c r="D481" t="n">
-        <v>20.9290697674419</v>
+        <v>20.913488372093</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" s="1" t="n">
-        <v>44580</v>
+        <v>44566</v>
       </c>
       <c r="B482" t="s">
         <v>7</v>
@@ -7135,12 +7133,12 @@
         <v>11</v>
       </c>
       <c r="D482" t="n">
-        <v>20.9290697674419</v>
+        <v>20.9390697674419</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" s="1" t="n">
-        <v>44581</v>
+        <v>44567</v>
       </c>
       <c r="B483" t="s">
         <v>7</v>
@@ -7149,12 +7147,12 @@
         <v>11</v>
       </c>
       <c r="D483" t="n">
-        <v>20.9325581395349</v>
+        <v>20.9458139534884</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" s="1" t="n">
-        <v>44582</v>
+        <v>44568</v>
       </c>
       <c r="B484" t="s">
         <v>7</v>
@@ -7163,12 +7161,12 @@
         <v>11</v>
       </c>
       <c r="D484" t="n">
-        <v>20.9451162790698</v>
+        <v>20.9586046511628</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" s="1" t="n">
-        <v>44583</v>
+        <v>44569</v>
       </c>
       <c r="B485" t="s">
         <v>7</v>
@@ -7177,12 +7175,12 @@
         <v>11</v>
       </c>
       <c r="D485" t="n">
-        <v>20.9462790697674</v>
+        <v>20.9688372093023</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" s="1" t="n">
-        <v>44584</v>
+        <v>44570</v>
       </c>
       <c r="B486" t="s">
         <v>7</v>
@@ -7191,12 +7189,12 @@
         <v>11</v>
       </c>
       <c r="D486" t="n">
-        <v>20.9420930232558</v>
+        <v>20.9316279069767</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" s="1" t="n">
-        <v>44585</v>
+        <v>44571</v>
       </c>
       <c r="B487" t="s">
         <v>7</v>
@@ -7205,12 +7203,12 @@
         <v>11</v>
       </c>
       <c r="D487" t="n">
-        <v>20.9453488372093</v>
+        <v>20.9239534883721</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" s="1" t="n">
-        <v>44586</v>
+        <v>44572</v>
       </c>
       <c r="B488" t="s">
         <v>7</v>
@@ -7219,12 +7217,12 @@
         <v>11</v>
       </c>
       <c r="D488" t="n">
-        <v>20.9523255813953</v>
+        <v>20.9004651162791</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" s="1" t="n">
-        <v>44587</v>
+        <v>44573</v>
       </c>
       <c r="B489" t="s">
         <v>7</v>
@@ -7233,12 +7231,12 @@
         <v>11</v>
       </c>
       <c r="D489" t="n">
-        <v>20.956976744186</v>
+        <v>20.8746511627907</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" s="1" t="n">
-        <v>44588</v>
+        <v>44574</v>
       </c>
       <c r="B490" t="s">
         <v>7</v>
@@ -7247,12 +7245,12 @@
         <v>11</v>
       </c>
       <c r="D490" t="n">
-        <v>20.9588372093023</v>
+        <v>20.863023255814</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" s="1" t="n">
-        <v>44589</v>
+        <v>44575</v>
       </c>
       <c r="B491" t="s">
         <v>7</v>
@@ -7261,12 +7259,12 @@
         <v>11</v>
       </c>
       <c r="D491" t="n">
-        <v>20.9574418604651</v>
+        <v>20.873023255814</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" s="1" t="n">
-        <v>44590</v>
+        <v>44576</v>
       </c>
       <c r="B492" t="s">
         <v>7</v>
@@ -7275,12 +7273,12 @@
         <v>11</v>
       </c>
       <c r="D492" t="n">
-        <v>20.9697674418605</v>
+        <v>20.893488372093</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" s="1" t="n">
-        <v>44591</v>
+        <v>44577</v>
       </c>
       <c r="B493" t="s">
         <v>7</v>
@@ -7289,12 +7287,12 @@
         <v>11</v>
       </c>
       <c r="D493" t="n">
-        <v>20.9786046511628</v>
+        <v>20.9213953488372</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" s="1" t="n">
-        <v>44592</v>
+        <v>44578</v>
       </c>
       <c r="B494" t="s">
         <v>7</v>
@@ -7303,12 +7301,12 @@
         <v>11</v>
       </c>
       <c r="D494" t="n">
-        <v>20.9806976744186</v>
+        <v>20.9220930232558</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" s="1" t="n">
-        <v>44593</v>
+        <v>44579</v>
       </c>
       <c r="B495" t="s">
         <v>7</v>
@@ -7317,12 +7315,12 @@
         <v>11</v>
       </c>
       <c r="D495" t="n">
-        <v>20.9748837209302</v>
+        <v>20.9290697674419</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" s="1" t="n">
-        <v>44594</v>
+        <v>44580</v>
       </c>
       <c r="B496" t="s">
         <v>7</v>
@@ -7331,222 +7329,222 @@
         <v>11</v>
       </c>
       <c r="D496" t="n">
-        <v>20.9748837209302</v>
+        <v>20.9290697674419</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" s="1" t="n">
-        <v>44562</v>
+        <v>44581</v>
       </c>
       <c r="B497" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C497" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D497" t="n">
-        <v>21.8206896551724</v>
+        <v>20.9325581395349</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" s="1" t="n">
-        <v>44563</v>
+        <v>44582</v>
       </c>
       <c r="B498" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C498" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D498" t="n">
-        <v>21.8365517241379</v>
+        <v>20.9451162790698</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" s="1" t="n">
-        <v>44564</v>
+        <v>44583</v>
       </c>
       <c r="B499" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C499" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D499" t="n">
-        <v>21.8370689655172</v>
+        <v>20.9462790697674</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" s="1" t="n">
-        <v>44565</v>
+        <v>44584</v>
       </c>
       <c r="B500" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C500" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D500" t="n">
-        <v>21.8451724137931</v>
+        <v>20.9420930232558</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" s="1" t="n">
-        <v>44566</v>
+        <v>44585</v>
       </c>
       <c r="B501" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C501" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D501" t="n">
-        <v>21.8486206896552</v>
+        <v>20.9453488372093</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" s="1" t="n">
-        <v>44567</v>
+        <v>44586</v>
       </c>
       <c r="B502" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C502" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D502" t="n">
-        <v>21.8558620689655</v>
+        <v>20.9523255813953</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" s="1" t="n">
-        <v>44568</v>
+        <v>44587</v>
       </c>
       <c r="B503" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C503" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D503" t="n">
-        <v>21.8655172413793</v>
+        <v>20.956976744186</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" s="1" t="n">
-        <v>44569</v>
+        <v>44588</v>
       </c>
       <c r="B504" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C504" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D504" t="n">
-        <v>21.8781034482759</v>
+        <v>20.9588372093023</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" s="1" t="n">
-        <v>44570</v>
+        <v>44589</v>
       </c>
       <c r="B505" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C505" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D505" t="n">
-        <v>21.8918965517241</v>
+        <v>20.9574418604651</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" s="1" t="n">
-        <v>44571</v>
+        <v>44590</v>
       </c>
       <c r="B506" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C506" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D506" t="n">
-        <v>21.8918965517241</v>
+        <v>20.9697674418605</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" s="1" t="n">
-        <v>44572</v>
+        <v>44591</v>
       </c>
       <c r="B507" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C507" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D507" t="n">
-        <v>21.8918965517241</v>
+        <v>20.9786046511628</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" s="1" t="n">
-        <v>44573</v>
+        <v>44592</v>
       </c>
       <c r="B508" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C508" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D508" t="n">
-        <v>21.8948275862069</v>
+        <v>20.9806976744186</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" s="1" t="n">
-        <v>44574</v>
+        <v>44593</v>
       </c>
       <c r="B509" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C509" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D509" t="n">
-        <v>21.9013793103448</v>
+        <v>20.9748837209302</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" s="1" t="n">
-        <v>44575</v>
+        <v>44594</v>
       </c>
       <c r="B510" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C510" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D510" t="n">
-        <v>21.9348275862069</v>
+        <v>20.9748837209302</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" s="1" t="n">
-        <v>44576</v>
+        <v>44595</v>
       </c>
       <c r="B511" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C511" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D511" t="n">
-        <v>21.9508620689655</v>
+        <v>20.9827906976744</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" s="1" t="n">
-        <v>44577</v>
+        <v>44562</v>
       </c>
       <c r="B512" t="s">
         <v>4</v>
@@ -7555,12 +7553,12 @@
         <v>12</v>
       </c>
       <c r="D512" t="n">
-        <v>21.9594827586207</v>
+        <v>21.8206896551724</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" s="1" t="n">
-        <v>44578</v>
+        <v>44563</v>
       </c>
       <c r="B513" t="s">
         <v>4</v>
@@ -7569,12 +7567,12 @@
         <v>12</v>
       </c>
       <c r="D513" t="n">
-        <v>21.9629310344828</v>
+        <v>21.8365517241379</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" s="1" t="n">
-        <v>44579</v>
+        <v>44564</v>
       </c>
       <c r="B514" t="s">
         <v>4</v>
@@ -7583,12 +7581,12 @@
         <v>12</v>
       </c>
       <c r="D514" t="n">
-        <v>21.9801724137931</v>
+        <v>21.8370689655172</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" s="1" t="n">
-        <v>44580</v>
+        <v>44565</v>
       </c>
       <c r="B515" t="s">
         <v>4</v>
@@ -7597,12 +7595,12 @@
         <v>12</v>
       </c>
       <c r="D515" t="n">
-        <v>22.0012068965517</v>
+        <v>21.8451724137931</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" s="1" t="n">
-        <v>44581</v>
+        <v>44566</v>
       </c>
       <c r="B516" t="s">
         <v>4</v>
@@ -7611,12 +7609,12 @@
         <v>12</v>
       </c>
       <c r="D516" t="n">
-        <v>22.0122413793103</v>
+        <v>21.8486206896552</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" s="1" t="n">
-        <v>44582</v>
+        <v>44567</v>
       </c>
       <c r="B517" t="s">
         <v>4</v>
@@ -7625,12 +7623,12 @@
         <v>12</v>
       </c>
       <c r="D517" t="n">
-        <v>22.0229310344828</v>
+        <v>21.8558620689655</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" s="1" t="n">
-        <v>44583</v>
+        <v>44568</v>
       </c>
       <c r="B518" t="s">
         <v>4</v>
@@ -7639,12 +7637,12 @@
         <v>12</v>
       </c>
       <c r="D518" t="n">
-        <v>22.0279310344828</v>
+        <v>21.8655172413793</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" s="1" t="n">
-        <v>44584</v>
+        <v>44569</v>
       </c>
       <c r="B519" t="s">
         <v>4</v>
@@ -7653,12 +7651,12 @@
         <v>12</v>
       </c>
       <c r="D519" t="n">
-        <v>22.0289655172414</v>
+        <v>21.8781034482759</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" s="1" t="n">
-        <v>44585</v>
+        <v>44570</v>
       </c>
       <c r="B520" t="s">
         <v>4</v>
@@ -7667,12 +7665,12 @@
         <v>12</v>
       </c>
       <c r="D520" t="n">
-        <v>22.0289655172414</v>
+        <v>21.8918965517241</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" s="1" t="n">
-        <v>44586</v>
+        <v>44571</v>
       </c>
       <c r="B521" t="s">
         <v>4</v>
@@ -7681,12 +7679,12 @@
         <v>12</v>
       </c>
       <c r="D521" t="n">
-        <v>22.0289655172414</v>
+        <v>21.8918965517241</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" s="1" t="n">
-        <v>44587</v>
+        <v>44572</v>
       </c>
       <c r="B522" t="s">
         <v>4</v>
@@ -7695,12 +7693,12 @@
         <v>12</v>
       </c>
       <c r="D522" t="n">
-        <v>22.0539655172414</v>
+        <v>21.8918965517241</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" s="1" t="n">
-        <v>44588</v>
+        <v>44573</v>
       </c>
       <c r="B523" t="s">
         <v>4</v>
@@ -7709,12 +7707,12 @@
         <v>12</v>
       </c>
       <c r="D523" t="n">
-        <v>22.0541379310345</v>
+        <v>21.8948275862069</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" s="1" t="n">
-        <v>44589</v>
+        <v>44574</v>
       </c>
       <c r="B524" t="s">
         <v>4</v>
@@ -7723,12 +7721,12 @@
         <v>12</v>
       </c>
       <c r="D524" t="n">
-        <v>22.061724137931</v>
+        <v>21.9013793103448</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" s="1" t="n">
-        <v>44590</v>
+        <v>44575</v>
       </c>
       <c r="B525" t="s">
         <v>4</v>
@@ -7737,12 +7735,12 @@
         <v>12</v>
       </c>
       <c r="D525" t="n">
-        <v>22.0710344827586</v>
+        <v>21.9348275862069</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" s="1" t="n">
-        <v>44591</v>
+        <v>44576</v>
       </c>
       <c r="B526" t="s">
         <v>4</v>
@@ -7751,12 +7749,12 @@
         <v>12</v>
       </c>
       <c r="D526" t="n">
-        <v>22.0762068965517</v>
+        <v>21.9508620689655</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" s="1" t="n">
-        <v>44592</v>
+        <v>44577</v>
       </c>
       <c r="B527" t="s">
         <v>4</v>
@@ -7765,12 +7763,12 @@
         <v>12</v>
       </c>
       <c r="D527" t="n">
-        <v>22.0744827586207</v>
+        <v>21.9594827586207</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" s="1" t="n">
-        <v>44593</v>
+        <v>44578</v>
       </c>
       <c r="B528" t="s">
         <v>4</v>
@@ -7779,12 +7777,12 @@
         <v>12</v>
       </c>
       <c r="D528" t="n">
-        <v>22.0744827586207</v>
+        <v>21.9629310344828</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" s="1" t="n">
-        <v>44594</v>
+        <v>44579</v>
       </c>
       <c r="B529" t="s">
         <v>4</v>
@@ -7793,236 +7791,236 @@
         <v>12</v>
       </c>
       <c r="D529" t="n">
-        <v>22.1041379310345</v>
+        <v>21.9801724137931</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" s="1" t="n">
-        <v>44562</v>
+        <v>44580</v>
       </c>
       <c r="B530" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C530" t="s">
         <v>12</v>
       </c>
       <c r="D530" t="n">
-        <v>23.1925225225225</v>
+        <v>22.0012068965517</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" s="1" t="n">
-        <v>44563</v>
+        <v>44581</v>
       </c>
       <c r="B531" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C531" t="s">
         <v>12</v>
       </c>
       <c r="D531" t="n">
-        <v>23.2095495495495</v>
+        <v>22.0122413793103</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" s="1" t="n">
-        <v>44564</v>
+        <v>44582</v>
       </c>
       <c r="B532" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C532" t="s">
         <v>12</v>
       </c>
       <c r="D532" t="n">
-        <v>23.2102702702703</v>
+        <v>22.0229310344828</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" s="1" t="n">
-        <v>44565</v>
+        <v>44583</v>
       </c>
       <c r="B533" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C533" t="s">
         <v>12</v>
       </c>
       <c r="D533" t="n">
-        <v>23.2326126126126</v>
+        <v>22.0279310344828</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" s="1" t="n">
-        <v>44566</v>
+        <v>44584</v>
       </c>
       <c r="B534" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C534" t="s">
         <v>12</v>
       </c>
       <c r="D534" t="n">
-        <v>23.2481081081081</v>
+        <v>22.0289655172414</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="1" t="n">
-        <v>44567</v>
+        <v>44585</v>
       </c>
       <c r="B535" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C535" t="s">
         <v>12</v>
       </c>
       <c r="D535" t="n">
-        <v>23.2995495495495</v>
+        <v>22.0289655172414</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="1" t="n">
-        <v>44568</v>
+        <v>44586</v>
       </c>
       <c r="B536" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C536" t="s">
         <v>12</v>
       </c>
       <c r="D536" t="n">
-        <v>23.3083783783784</v>
+        <v>22.0289655172414</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" s="1" t="n">
-        <v>44569</v>
+        <v>44587</v>
       </c>
       <c r="B537" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C537" t="s">
         <v>12</v>
       </c>
       <c r="D537" t="n">
-        <v>23.3227927927928</v>
+        <v>22.0539655172414</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" s="1" t="n">
-        <v>44570</v>
+        <v>44588</v>
       </c>
       <c r="B538" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C538" t="s">
         <v>12</v>
       </c>
       <c r="D538" t="n">
-        <v>23.3292792792793</v>
+        <v>22.0541379310345</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="1" t="n">
-        <v>44571</v>
+        <v>44589</v>
       </c>
       <c r="B539" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C539" t="s">
         <v>12</v>
       </c>
       <c r="D539" t="n">
-        <v>23.3373873873874</v>
+        <v>22.061724137931</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="1" t="n">
-        <v>44572</v>
+        <v>44590</v>
       </c>
       <c r="B540" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C540" t="s">
         <v>12</v>
       </c>
       <c r="D540" t="n">
-        <v>23.3382882882883</v>
+        <v>22.0710344827586</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="1" t="n">
-        <v>44573</v>
+        <v>44591</v>
       </c>
       <c r="B541" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C541" t="s">
         <v>12</v>
       </c>
       <c r="D541" t="n">
-        <v>23.3463963963964</v>
+        <v>22.0762068965517</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" s="1" t="n">
-        <v>44574</v>
+        <v>44592</v>
       </c>
       <c r="B542" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C542" t="s">
         <v>12</v>
       </c>
       <c r="D542" t="n">
-        <v>23.350990990991</v>
+        <v>22.0744827586207</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" s="1" t="n">
-        <v>44575</v>
+        <v>44593</v>
       </c>
       <c r="B543" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C543" t="s">
         <v>12</v>
       </c>
       <c r="D543" t="n">
-        <v>23.37</v>
+        <v>22.0744827586207</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" s="1" t="n">
-        <v>44576</v>
+        <v>44594</v>
       </c>
       <c r="B544" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C544" t="s">
         <v>12</v>
       </c>
       <c r="D544" t="n">
-        <v>23.4382882882883</v>
+        <v>22.1041379310345</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="1" t="n">
-        <v>44577</v>
+        <v>44595</v>
       </c>
       <c r="B545" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C545" t="s">
         <v>12</v>
       </c>
       <c r="D545" t="n">
-        <v>23.4328828828829</v>
+        <v>22.1155172413793</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="1" t="n">
-        <v>44578</v>
+        <v>44562</v>
       </c>
       <c r="B546" t="s">
         <v>6</v>
@@ -8031,12 +8029,12 @@
         <v>12</v>
       </c>
       <c r="D546" t="n">
-        <v>23.4333333333333</v>
+        <v>23.1925225225225</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="1" t="n">
-        <v>44579</v>
+        <v>44563</v>
       </c>
       <c r="B547" t="s">
         <v>6</v>
@@ -8045,12 +8043,12 @@
         <v>12</v>
       </c>
       <c r="D547" t="n">
-        <v>23.4362162162162</v>
+        <v>23.2095495495495</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" s="1" t="n">
-        <v>44580</v>
+        <v>44564</v>
       </c>
       <c r="B548" t="s">
         <v>6</v>
@@ -8059,12 +8057,12 @@
         <v>12</v>
       </c>
       <c r="D548" t="n">
-        <v>23.4383783783784</v>
+        <v>23.2102702702703</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="1" t="n">
-        <v>44581</v>
+        <v>44565</v>
       </c>
       <c r="B549" t="s">
         <v>6</v>
@@ -8073,12 +8071,12 @@
         <v>12</v>
       </c>
       <c r="D549" t="n">
-        <v>23.3811711711712</v>
+        <v>23.2326126126126</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="1" t="n">
-        <v>44582</v>
+        <v>44566</v>
       </c>
       <c r="B550" t="s">
         <v>6</v>
@@ -8087,12 +8085,12 @@
         <v>12</v>
       </c>
       <c r="D550" t="n">
-        <v>23.3984684684685</v>
+        <v>23.2481081081081</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="1" t="n">
-        <v>44583</v>
+        <v>44567</v>
       </c>
       <c r="B551" t="s">
         <v>6</v>
@@ -8101,12 +8099,12 @@
         <v>12</v>
       </c>
       <c r="D551" t="n">
-        <v>23.4007207207207</v>
+        <v>23.2995495495495</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="1" t="n">
-        <v>44584</v>
+        <v>44568</v>
       </c>
       <c r="B552" t="s">
         <v>6</v>
@@ -8115,12 +8113,12 @@
         <v>12</v>
       </c>
       <c r="D552" t="n">
-        <v>23.4044144144144</v>
+        <v>23.3083783783784</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="1" t="n">
-        <v>44585</v>
+        <v>44569</v>
       </c>
       <c r="B553" t="s">
         <v>6</v>
@@ -8129,12 +8127,12 @@
         <v>12</v>
       </c>
       <c r="D553" t="n">
-        <v>23.4062162162162</v>
+        <v>23.3227927927928</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="1" t="n">
-        <v>44586</v>
+        <v>44570</v>
       </c>
       <c r="B554" t="s">
         <v>6</v>
@@ -8143,12 +8141,12 @@
         <v>12</v>
       </c>
       <c r="D554" t="n">
-        <v>23.4253153153153</v>
+        <v>23.3292792792793</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="1" t="n">
-        <v>44587</v>
+        <v>44571</v>
       </c>
       <c r="B555" t="s">
         <v>6</v>
@@ -8157,12 +8155,12 @@
         <v>12</v>
       </c>
       <c r="D555" t="n">
-        <v>23.4313513513514</v>
+        <v>23.3373873873874</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="1" t="n">
-        <v>44588</v>
+        <v>44572</v>
       </c>
       <c r="B556" t="s">
         <v>6</v>
@@ -8171,12 +8169,12 @@
         <v>12</v>
       </c>
       <c r="D556" t="n">
-        <v>23.4363063063063</v>
+        <v>23.3382882882883</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="1" t="n">
-        <v>44589</v>
+        <v>44573</v>
       </c>
       <c r="B557" t="s">
         <v>6</v>
@@ -8185,12 +8183,12 @@
         <v>12</v>
       </c>
       <c r="D557" t="n">
-        <v>23.4356756756757</v>
+        <v>23.3463963963964</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="1" t="n">
-        <v>44590</v>
+        <v>44574</v>
       </c>
       <c r="B558" t="s">
         <v>6</v>
@@ -8199,12 +8197,12 @@
         <v>12</v>
       </c>
       <c r="D558" t="n">
-        <v>23.4473873873874</v>
+        <v>23.350990990991</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="1" t="n">
-        <v>44591</v>
+        <v>44575</v>
       </c>
       <c r="B559" t="s">
         <v>6</v>
@@ -8213,12 +8211,12 @@
         <v>12</v>
       </c>
       <c r="D559" t="n">
-        <v>23.4496396396396</v>
+        <v>23.37</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="1" t="n">
-        <v>44592</v>
+        <v>44576</v>
       </c>
       <c r="B560" t="s">
         <v>6</v>
@@ -8227,12 +8225,12 @@
         <v>12</v>
       </c>
       <c r="D560" t="n">
-        <v>23.4487387387387</v>
+        <v>23.4382882882883</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="1" t="n">
-        <v>44593</v>
+        <v>44577</v>
       </c>
       <c r="B561" t="s">
         <v>6</v>
@@ -8241,12 +8239,12 @@
         <v>12</v>
       </c>
       <c r="D561" t="n">
-        <v>23.4493693693694</v>
+        <v>23.4328828828829</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="1" t="n">
-        <v>44594</v>
+        <v>44578</v>
       </c>
       <c r="B562" t="s">
         <v>6</v>
@@ -8255,250 +8253,250 @@
         <v>12</v>
       </c>
       <c r="D562" t="n">
-        <v>23.4601801801802</v>
+        <v>23.4333333333333</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" s="1" t="n">
-        <v>44562</v>
+        <v>44579</v>
       </c>
       <c r="B563" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C563" t="s">
         <v>12</v>
       </c>
       <c r="D563" t="n">
-        <v>21.0064864864865</v>
+        <v>23.4362162162162</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" s="1" t="n">
-        <v>44563</v>
+        <v>44580</v>
       </c>
       <c r="B564" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C564" t="s">
         <v>12</v>
       </c>
       <c r="D564" t="n">
-        <v>21.0158558558559</v>
+        <v>23.4383783783784</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" s="1" t="n">
-        <v>44564</v>
+        <v>44581</v>
       </c>
       <c r="B565" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C565" t="s">
         <v>12</v>
       </c>
       <c r="D565" t="n">
-        <v>21.0141441441441</v>
+        <v>23.3811711711712</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" s="1" t="n">
-        <v>44565</v>
+        <v>44582</v>
       </c>
       <c r="B566" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C566" t="s">
         <v>12</v>
       </c>
       <c r="D566" t="n">
-        <v>21.027027027027</v>
+        <v>23.3984684684685</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" s="1" t="n">
-        <v>44566</v>
+        <v>44583</v>
       </c>
       <c r="B567" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C567" t="s">
         <v>12</v>
       </c>
       <c r="D567" t="n">
-        <v>21.0442342342342</v>
+        <v>23.4007207207207</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" s="1" t="n">
-        <v>44567</v>
+        <v>44584</v>
       </c>
       <c r="B568" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C568" t="s">
         <v>12</v>
       </c>
       <c r="D568" t="n">
-        <v>21.1037837837838</v>
+        <v>23.4044144144144</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" s="1" t="n">
-        <v>44568</v>
+        <v>44585</v>
       </c>
       <c r="B569" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C569" t="s">
         <v>12</v>
       </c>
       <c r="D569" t="n">
-        <v>21.0835135135135</v>
+        <v>23.4062162162162</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" s="1" t="n">
-        <v>44569</v>
+        <v>44586</v>
       </c>
       <c r="B570" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C570" t="s">
         <v>12</v>
       </c>
       <c r="D570" t="n">
-        <v>21.0995495495496</v>
+        <v>23.4253153153153</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" s="1" t="n">
-        <v>44570</v>
+        <v>44587</v>
       </c>
       <c r="B571" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C571" t="s">
         <v>12</v>
       </c>
       <c r="D571" t="n">
-        <v>21.094954954955</v>
+        <v>23.4313513513514</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" s="1" t="n">
-        <v>44571</v>
+        <v>44588</v>
       </c>
       <c r="B572" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C572" t="s">
         <v>12</v>
       </c>
       <c r="D572" t="n">
-        <v>21.0977477477477</v>
+        <v>23.4363063063063</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" s="1" t="n">
-        <v>44572</v>
+        <v>44589</v>
       </c>
       <c r="B573" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C573" t="s">
         <v>12</v>
       </c>
       <c r="D573" t="n">
-        <v>21.0977477477477</v>
+        <v>23.4356756756757</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" s="1" t="n">
-        <v>44573</v>
+        <v>44590</v>
       </c>
       <c r="B574" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C574" t="s">
         <v>12</v>
       </c>
       <c r="D574" t="n">
-        <v>21.0985585585586</v>
+        <v>23.4473873873874</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" s="1" t="n">
-        <v>44574</v>
+        <v>44591</v>
       </c>
       <c r="B575" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C575" t="s">
         <v>12</v>
       </c>
       <c r="D575" t="n">
-        <v>21.0721621621622</v>
+        <v>23.4496396396396</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" s="1" t="n">
-        <v>44575</v>
+        <v>44592</v>
       </c>
       <c r="B576" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C576" t="s">
         <v>12</v>
       </c>
       <c r="D576" t="n">
-        <v>21.0942342342342</v>
+        <v>23.4487387387387</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" s="1" t="n">
-        <v>44576</v>
+        <v>44593</v>
       </c>
       <c r="B577" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C577" t="s">
         <v>12</v>
       </c>
       <c r="D577" t="n">
-        <v>21.101981981982</v>
+        <v>23.4493693693694</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" s="1" t="n">
-        <v>44577</v>
+        <v>44594</v>
       </c>
       <c r="B578" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C578" t="s">
         <v>12</v>
       </c>
       <c r="D578" t="n">
-        <v>21.0937837837838</v>
+        <v>23.4601801801802</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" s="1" t="n">
-        <v>44578</v>
+        <v>44595</v>
       </c>
       <c r="B579" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C579" t="s">
         <v>12</v>
       </c>
       <c r="D579" t="n">
-        <v>21.0848648648649</v>
+        <v>23.4700900900901</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" s="1" t="n">
-        <v>44579</v>
+        <v>44562</v>
       </c>
       <c r="B580" t="s">
         <v>7</v>
@@ -8507,12 +8505,12 @@
         <v>12</v>
       </c>
       <c r="D580" t="n">
-        <v>21.0988288288288</v>
+        <v>21.0064864864865</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" s="1" t="n">
-        <v>44580</v>
+        <v>44563</v>
       </c>
       <c r="B581" t="s">
         <v>7</v>
@@ -8521,12 +8519,12 @@
         <v>12</v>
       </c>
       <c r="D581" t="n">
-        <v>21.0969369369369</v>
+        <v>21.0158558558559</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" s="1" t="n">
-        <v>44581</v>
+        <v>44564</v>
       </c>
       <c r="B582" t="s">
         <v>7</v>
@@ -8535,12 +8533,12 @@
         <v>12</v>
       </c>
       <c r="D582" t="n">
-        <v>21.1026126126126</v>
+        <v>21.0141441441441</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" s="1" t="n">
-        <v>44582</v>
+        <v>44565</v>
       </c>
       <c r="B583" t="s">
         <v>7</v>
@@ -8549,12 +8547,12 @@
         <v>12</v>
       </c>
       <c r="D583" t="n">
-        <v>21.1125225225225</v>
+        <v>21.027027027027</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" s="1" t="n">
-        <v>44583</v>
+        <v>44566</v>
       </c>
       <c r="B584" t="s">
         <v>7</v>
@@ -8563,12 +8561,12 @@
         <v>12</v>
       </c>
       <c r="D584" t="n">
-        <v>21.1110810810811</v>
+        <v>21.0442342342342</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" s="1" t="n">
-        <v>44584</v>
+        <v>44567</v>
       </c>
       <c r="B585" t="s">
         <v>7</v>
@@ -8577,12 +8575,12 @@
         <v>12</v>
       </c>
       <c r="D585" t="n">
-        <v>21.1175675675676</v>
+        <v>21.1037837837838</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" s="1" t="n">
-        <v>44585</v>
+        <v>44568</v>
       </c>
       <c r="B586" t="s">
         <v>7</v>
@@ -8591,12 +8589,12 @@
         <v>12</v>
       </c>
       <c r="D586" t="n">
-        <v>21.105045045045</v>
+        <v>21.0835135135135</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" s="1" t="n">
-        <v>44586</v>
+        <v>44569</v>
       </c>
       <c r="B587" t="s">
         <v>7</v>
@@ -8605,12 +8603,12 @@
         <v>12</v>
       </c>
       <c r="D587" t="n">
-        <v>21.1237837837838</v>
+        <v>21.0995495495496</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" s="1" t="n">
-        <v>44587</v>
+        <v>44570</v>
       </c>
       <c r="B588" t="s">
         <v>7</v>
@@ -8619,12 +8617,12 @@
         <v>12</v>
       </c>
       <c r="D588" t="n">
-        <v>21.128018018018</v>
+        <v>21.094954954955</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" s="1" t="n">
-        <v>44588</v>
+        <v>44571</v>
       </c>
       <c r="B589" t="s">
         <v>7</v>
@@ -8633,12 +8631,12 @@
         <v>12</v>
       </c>
       <c r="D589" t="n">
-        <v>21.139009009009</v>
+        <v>21.0977477477477</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" s="1" t="n">
-        <v>44589</v>
+        <v>44572</v>
       </c>
       <c r="B590" t="s">
         <v>7</v>
@@ -8647,12 +8645,12 @@
         <v>12</v>
       </c>
       <c r="D590" t="n">
-        <v>21.1357657657658</v>
+        <v>21.0977477477477</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" s="1" t="n">
-        <v>44590</v>
+        <v>44573</v>
       </c>
       <c r="B591" t="s">
         <v>7</v>
@@ -8661,12 +8659,12 @@
         <v>12</v>
       </c>
       <c r="D591" t="n">
-        <v>21.1426126126126</v>
+        <v>21.0985585585586</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" s="1" t="n">
-        <v>44591</v>
+        <v>44574</v>
       </c>
       <c r="B592" t="s">
         <v>7</v>
@@ -8675,12 +8673,12 @@
         <v>12</v>
       </c>
       <c r="D592" t="n">
-        <v>21.1431531531532</v>
+        <v>21.0721621621622</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" s="1" t="n">
-        <v>44592</v>
+        <v>44575</v>
       </c>
       <c r="B593" t="s">
         <v>7</v>
@@ -8689,12 +8687,12 @@
         <v>12</v>
       </c>
       <c r="D593" t="n">
-        <v>21.1322522522523</v>
+        <v>21.0942342342342</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" s="1" t="n">
-        <v>44593</v>
+        <v>44576</v>
       </c>
       <c r="B594" t="s">
         <v>7</v>
@@ -8703,21 +8701,273 @@
         <v>12</v>
       </c>
       <c r="D594" t="n">
-        <v>21.1448648648649</v>
+        <v>21.101981981982</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" s="1" t="n">
+        <v>44577</v>
+      </c>
+      <c r="B595" t="s">
+        <v>7</v>
+      </c>
+      <c r="C595" t="s">
+        <v>12</v>
+      </c>
+      <c r="D595" t="n">
+        <v>21.0937837837838</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" s="1" t="n">
+        <v>44578</v>
+      </c>
+      <c r="B596" t="s">
+        <v>7</v>
+      </c>
+      <c r="C596" t="s">
+        <v>12</v>
+      </c>
+      <c r="D596" t="n">
+        <v>21.0848648648649</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" s="1" t="n">
+        <v>44579</v>
+      </c>
+      <c r="B597" t="s">
+        <v>7</v>
+      </c>
+      <c r="C597" t="s">
+        <v>12</v>
+      </c>
+      <c r="D597" t="n">
+        <v>21.0988288288288</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" s="1" t="n">
+        <v>44580</v>
+      </c>
+      <c r="B598" t="s">
+        <v>7</v>
+      </c>
+      <c r="C598" t="s">
+        <v>12</v>
+      </c>
+      <c r="D598" t="n">
+        <v>21.0969369369369</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" s="1" t="n">
+        <v>44581</v>
+      </c>
+      <c r="B599" t="s">
+        <v>7</v>
+      </c>
+      <c r="C599" t="s">
+        <v>12</v>
+      </c>
+      <c r="D599" t="n">
+        <v>21.1026126126126</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" s="1" t="n">
+        <v>44582</v>
+      </c>
+      <c r="B600" t="s">
+        <v>7</v>
+      </c>
+      <c r="C600" t="s">
+        <v>12</v>
+      </c>
+      <c r="D600" t="n">
+        <v>21.1125225225225</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" s="1" t="n">
+        <v>44583</v>
+      </c>
+      <c r="B601" t="s">
+        <v>7</v>
+      </c>
+      <c r="C601" t="s">
+        <v>12</v>
+      </c>
+      <c r="D601" t="n">
+        <v>21.1110810810811</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" s="1" t="n">
+        <v>44584</v>
+      </c>
+      <c r="B602" t="s">
+        <v>7</v>
+      </c>
+      <c r="C602" t="s">
+        <v>12</v>
+      </c>
+      <c r="D602" t="n">
+        <v>21.1175675675676</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" s="1" t="n">
+        <v>44585</v>
+      </c>
+      <c r="B603" t="s">
+        <v>7</v>
+      </c>
+      <c r="C603" t="s">
+        <v>12</v>
+      </c>
+      <c r="D603" t="n">
+        <v>21.105045045045</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" s="1" t="n">
+        <v>44586</v>
+      </c>
+      <c r="B604" t="s">
+        <v>7</v>
+      </c>
+      <c r="C604" t="s">
+        <v>12</v>
+      </c>
+      <c r="D604" t="n">
+        <v>21.1237837837838</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" s="1" t="n">
+        <v>44587</v>
+      </c>
+      <c r="B605" t="s">
+        <v>7</v>
+      </c>
+      <c r="C605" t="s">
+        <v>12</v>
+      </c>
+      <c r="D605" t="n">
+        <v>21.128018018018</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" s="1" t="n">
+        <v>44588</v>
+      </c>
+      <c r="B606" t="s">
+        <v>7</v>
+      </c>
+      <c r="C606" t="s">
+        <v>12</v>
+      </c>
+      <c r="D606" t="n">
+        <v>21.139009009009</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" s="1" t="n">
+        <v>44589</v>
+      </c>
+      <c r="B607" t="s">
+        <v>7</v>
+      </c>
+      <c r="C607" t="s">
+        <v>12</v>
+      </c>
+      <c r="D607" t="n">
+        <v>21.1357657657658</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" s="1" t="n">
+        <v>44590</v>
+      </c>
+      <c r="B608" t="s">
+        <v>7</v>
+      </c>
+      <c r="C608" t="s">
+        <v>12</v>
+      </c>
+      <c r="D608" t="n">
+        <v>21.1426126126126</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" s="1" t="n">
+        <v>44591</v>
+      </c>
+      <c r="B609" t="s">
+        <v>7</v>
+      </c>
+      <c r="C609" t="s">
+        <v>12</v>
+      </c>
+      <c r="D609" t="n">
+        <v>21.1431531531532</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" s="1" t="n">
+        <v>44592</v>
+      </c>
+      <c r="B610" t="s">
+        <v>7</v>
+      </c>
+      <c r="C610" t="s">
+        <v>12</v>
+      </c>
+      <c r="D610" t="n">
+        <v>21.1322522522523</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" s="1" t="n">
+        <v>44593</v>
+      </c>
+      <c r="B611" t="s">
+        <v>7</v>
+      </c>
+      <c r="C611" t="s">
+        <v>12</v>
+      </c>
+      <c r="D611" t="n">
+        <v>21.1448648648649</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" s="1" t="n">
         <v>44594</v>
       </c>
-      <c r="B595" t="s">
-        <v>7</v>
-      </c>
-      <c r="C595" t="s">
-        <v>12</v>
-      </c>
-      <c r="D595" t="n">
+      <c r="B612" t="s">
+        <v>7</v>
+      </c>
+      <c r="C612" t="s">
+        <v>12</v>
+      </c>
+      <c r="D612" t="n">
         <v>21.1565765765766</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" s="1" t="n">
+        <v>44595</v>
+      </c>
+      <c r="B613" t="s">
+        <v>7</v>
+      </c>
+      <c r="C613" t="s">
+        <v>12</v>
+      </c>
+      <c r="D613" t="n">
+        <v>21.1677477477477</v>
       </c>
     </row>
   </sheetData>

--- a/GasAmg.xlsx
+++ b/GasAmg.xlsx
@@ -880,21 +880,21 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>44562</v>
+        <v>44596</v>
       </c>
       <c r="B36" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
       </c>
       <c r="D36" t="n">
-        <v>22.982</v>
+        <v>22.2685714285714</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>44563</v>
+        <v>44562</v>
       </c>
       <c r="B37" t="s">
         <v>6</v>
@@ -903,12 +903,12 @@
         <v>5</v>
       </c>
       <c r="D37" t="n">
-        <v>22.9855</v>
+        <v>22.982</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>44564</v>
+        <v>44563</v>
       </c>
       <c r="B38" t="s">
         <v>6</v>
@@ -922,7 +922,7 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>44565</v>
+        <v>44564</v>
       </c>
       <c r="B39" t="s">
         <v>6</v>
@@ -931,12 +931,12 @@
         <v>5</v>
       </c>
       <c r="D39" t="n">
-        <v>23.014</v>
+        <v>22.9855</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>44566</v>
+        <v>44565</v>
       </c>
       <c r="B40" t="s">
         <v>6</v>
@@ -945,12 +945,12 @@
         <v>5</v>
       </c>
       <c r="D40" t="n">
-        <v>23.0155</v>
+        <v>23.014</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>44567</v>
+        <v>44566</v>
       </c>
       <c r="B41" t="s">
         <v>6</v>
@@ -964,7 +964,7 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>44568</v>
+        <v>44567</v>
       </c>
       <c r="B42" t="s">
         <v>6</v>
@@ -973,12 +973,12 @@
         <v>5</v>
       </c>
       <c r="D42" t="n">
-        <v>23.0355</v>
+        <v>23.0155</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>44569</v>
+        <v>44568</v>
       </c>
       <c r="B43" t="s">
         <v>6</v>
@@ -987,12 +987,12 @@
         <v>5</v>
       </c>
       <c r="D43" t="n">
-        <v>23.0405</v>
+        <v>23.0355</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>44570</v>
+        <v>44569</v>
       </c>
       <c r="B44" t="s">
         <v>6</v>
@@ -1001,12 +1001,12 @@
         <v>5</v>
       </c>
       <c r="D44" t="n">
-        <v>23.0515</v>
+        <v>23.0405</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>44571</v>
+        <v>44570</v>
       </c>
       <c r="B45" t="s">
         <v>6</v>
@@ -1020,7 +1020,7 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>44572</v>
+        <v>44571</v>
       </c>
       <c r="B46" t="s">
         <v>6</v>
@@ -1034,7 +1034,7 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>44573</v>
+        <v>44572</v>
       </c>
       <c r="B47" t="s">
         <v>6</v>
@@ -1043,12 +1043,12 @@
         <v>5</v>
       </c>
       <c r="D47" t="n">
-        <v>23.129</v>
+        <v>23.0515</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>44574</v>
+        <v>44573</v>
       </c>
       <c r="B48" t="s">
         <v>6</v>
@@ -1057,12 +1057,12 @@
         <v>5</v>
       </c>
       <c r="D48" t="n">
-        <v>23.137</v>
+        <v>23.129</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>44575</v>
+        <v>44574</v>
       </c>
       <c r="B49" t="s">
         <v>6</v>
@@ -1071,12 +1071,12 @@
         <v>5</v>
       </c>
       <c r="D49" t="n">
-        <v>23.1625</v>
+        <v>23.137</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>44576</v>
+        <v>44575</v>
       </c>
       <c r="B50" t="s">
         <v>6</v>
@@ -1085,12 +1085,12 @@
         <v>5</v>
       </c>
       <c r="D50" t="n">
-        <v>23.1675</v>
+        <v>23.1625</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>44577</v>
+        <v>44576</v>
       </c>
       <c r="B51" t="s">
         <v>6</v>
@@ -1104,7 +1104,7 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>44578</v>
+        <v>44577</v>
       </c>
       <c r="B52" t="s">
         <v>6</v>
@@ -1113,12 +1113,12 @@
         <v>5</v>
       </c>
       <c r="D52" t="n">
-        <v>23.182</v>
+        <v>23.1675</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>44579</v>
+        <v>44578</v>
       </c>
       <c r="B53" t="s">
         <v>6</v>
@@ -1132,7 +1132,7 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>44580</v>
+        <v>44579</v>
       </c>
       <c r="B54" t="s">
         <v>6</v>
@@ -1146,7 +1146,7 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>44581</v>
+        <v>44580</v>
       </c>
       <c r="B55" t="s">
         <v>6</v>
@@ -1155,12 +1155,12 @@
         <v>5</v>
       </c>
       <c r="D55" t="n">
-        <v>23.197</v>
+        <v>23.182</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>44582</v>
+        <v>44581</v>
       </c>
       <c r="B56" t="s">
         <v>6</v>
@@ -1169,12 +1169,12 @@
         <v>5</v>
       </c>
       <c r="D56" t="n">
-        <v>23.2085</v>
+        <v>23.197</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>44583</v>
+        <v>44582</v>
       </c>
       <c r="B57" t="s">
         <v>6</v>
@@ -1183,12 +1183,12 @@
         <v>5</v>
       </c>
       <c r="D57" t="n">
-        <v>23.2125</v>
+        <v>23.2085</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>44584</v>
+        <v>44583</v>
       </c>
       <c r="B58" t="s">
         <v>6</v>
@@ -1197,12 +1197,12 @@
         <v>5</v>
       </c>
       <c r="D58" t="n">
-        <v>23.2225</v>
+        <v>23.2125</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>44585</v>
+        <v>44584</v>
       </c>
       <c r="B59" t="s">
         <v>6</v>
@@ -1216,7 +1216,7 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>44586</v>
+        <v>44585</v>
       </c>
       <c r="B60" t="s">
         <v>6</v>
@@ -1230,7 +1230,7 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>44587</v>
+        <v>44586</v>
       </c>
       <c r="B61" t="s">
         <v>6</v>
@@ -1244,7 +1244,7 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>44588</v>
+        <v>44587</v>
       </c>
       <c r="B62" t="s">
         <v>6</v>
@@ -1258,7 +1258,7 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>44589</v>
+        <v>44588</v>
       </c>
       <c r="B63" t="s">
         <v>6</v>
@@ -1267,12 +1267,12 @@
         <v>5</v>
       </c>
       <c r="D63" t="n">
-        <v>23.2285</v>
+        <v>23.2225</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>44590</v>
+        <v>44589</v>
       </c>
       <c r="B64" t="s">
         <v>6</v>
@@ -1281,12 +1281,12 @@
         <v>5</v>
       </c>
       <c r="D64" t="n">
-        <v>23.2325</v>
+        <v>23.2285</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>44591</v>
+        <v>44590</v>
       </c>
       <c r="B65" t="s">
         <v>6</v>
@@ -1295,12 +1295,12 @@
         <v>5</v>
       </c>
       <c r="D65" t="n">
-        <v>23.247</v>
+        <v>23.2325</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>44592</v>
+        <v>44591</v>
       </c>
       <c r="B66" t="s">
         <v>6</v>
@@ -1314,7 +1314,7 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>44593</v>
+        <v>44592</v>
       </c>
       <c r="B67" t="s">
         <v>6</v>
@@ -1328,7 +1328,7 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>44594</v>
+        <v>44593</v>
       </c>
       <c r="B68" t="s">
         <v>6</v>
@@ -1342,7 +1342,7 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>44595</v>
+        <v>44594</v>
       </c>
       <c r="B69" t="s">
         <v>6</v>
@@ -1351,40 +1351,40 @@
         <v>5</v>
       </c>
       <c r="D69" t="n">
-        <v>23.2615</v>
+        <v>23.247</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>44562</v>
+        <v>44595</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C70" t="s">
         <v>5</v>
       </c>
       <c r="D70" t="n">
-        <v>20.7971428571429</v>
+        <v>23.2615</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>44563</v>
+        <v>44596</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C71" t="s">
         <v>5</v>
       </c>
       <c r="D71" t="n">
-        <v>20.8247619047619</v>
+        <v>23.2615</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>44564</v>
+        <v>44562</v>
       </c>
       <c r="B72" t="s">
         <v>7</v>
@@ -1393,12 +1393,12 @@
         <v>5</v>
       </c>
       <c r="D72" t="n">
-        <v>20.8247619047619</v>
+        <v>20.7971428571429</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>44565</v>
+        <v>44563</v>
       </c>
       <c r="B73" t="s">
         <v>7</v>
@@ -1407,12 +1407,12 @@
         <v>5</v>
       </c>
       <c r="D73" t="n">
-        <v>20.8704761904762</v>
+        <v>20.8247619047619</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>44566</v>
+        <v>44564</v>
       </c>
       <c r="B74" t="s">
         <v>7</v>
@@ -1421,12 +1421,12 @@
         <v>5</v>
       </c>
       <c r="D74" t="n">
-        <v>20.8528571428571</v>
+        <v>20.8247619047619</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>44567</v>
+        <v>44565</v>
       </c>
       <c r="B75" t="s">
         <v>7</v>
@@ -1435,12 +1435,12 @@
         <v>5</v>
       </c>
       <c r="D75" t="n">
-        <v>20.8547619047619</v>
+        <v>20.8704761904762</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>44568</v>
+        <v>44566</v>
       </c>
       <c r="B76" t="s">
         <v>7</v>
@@ -1449,12 +1449,12 @@
         <v>5</v>
       </c>
       <c r="D76" t="n">
-        <v>20.8790476190476</v>
+        <v>20.8528571428571</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>44569</v>
+        <v>44567</v>
       </c>
       <c r="B77" t="s">
         <v>7</v>
@@ -1463,12 +1463,12 @@
         <v>5</v>
       </c>
       <c r="D77" t="n">
-        <v>20.8857142857143</v>
+        <v>20.8547619047619</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>44570</v>
+        <v>44568</v>
       </c>
       <c r="B78" t="s">
         <v>7</v>
@@ -1477,12 +1477,12 @@
         <v>5</v>
       </c>
       <c r="D78" t="n">
-        <v>20.9004761904762</v>
+        <v>20.8790476190476</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>44571</v>
+        <v>44569</v>
       </c>
       <c r="B79" t="s">
         <v>7</v>
@@ -1491,12 +1491,12 @@
         <v>5</v>
       </c>
       <c r="D79" t="n">
-        <v>20.9004761904762</v>
+        <v>20.8857142857143</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>44572</v>
+        <v>44570</v>
       </c>
       <c r="B80" t="s">
         <v>7</v>
@@ -1510,7 +1510,7 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>44573</v>
+        <v>44571</v>
       </c>
       <c r="B81" t="s">
         <v>7</v>
@@ -1519,12 +1519,12 @@
         <v>5</v>
       </c>
       <c r="D81" t="n">
-        <v>20.9028571428571</v>
+        <v>20.9004761904762</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>44574</v>
+        <v>44572</v>
       </c>
       <c r="B82" t="s">
         <v>7</v>
@@ -1533,12 +1533,12 @@
         <v>5</v>
       </c>
       <c r="D82" t="n">
-        <v>20.9042857142857</v>
+        <v>20.9004761904762</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>44575</v>
+        <v>44573</v>
       </c>
       <c r="B83" t="s">
         <v>7</v>
@@ -1547,12 +1547,12 @@
         <v>5</v>
       </c>
       <c r="D83" t="n">
-        <v>20.9071428571429</v>
+        <v>20.9028571428571</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>44576</v>
+        <v>44574</v>
       </c>
       <c r="B84" t="s">
         <v>7</v>
@@ -1561,12 +1561,12 @@
         <v>5</v>
       </c>
       <c r="D84" t="n">
-        <v>20.9404761904762</v>
+        <v>20.9042857142857</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>44577</v>
+        <v>44575</v>
       </c>
       <c r="B85" t="s">
         <v>7</v>
@@ -1575,12 +1575,12 @@
         <v>5</v>
       </c>
       <c r="D85" t="n">
-        <v>20.9404761904762</v>
+        <v>20.9071428571429</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>44578</v>
+        <v>44576</v>
       </c>
       <c r="B86" t="s">
         <v>7</v>
@@ -1594,7 +1594,7 @@
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>44579</v>
+        <v>44577</v>
       </c>
       <c r="B87" t="s">
         <v>7</v>
@@ -1608,7 +1608,7 @@
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>44580</v>
+        <v>44578</v>
       </c>
       <c r="B88" t="s">
         <v>7</v>
@@ -1617,12 +1617,12 @@
         <v>5</v>
       </c>
       <c r="D88" t="n">
-        <v>20.9433333333333</v>
+        <v>20.9404761904762</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>44581</v>
+        <v>44579</v>
       </c>
       <c r="B89" t="s">
         <v>7</v>
@@ -1631,12 +1631,12 @@
         <v>5</v>
       </c>
       <c r="D89" t="n">
-        <v>20.9590476190476</v>
+        <v>20.9404761904762</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>44582</v>
+        <v>44580</v>
       </c>
       <c r="B90" t="s">
         <v>7</v>
@@ -1645,12 +1645,12 @@
         <v>5</v>
       </c>
       <c r="D90" t="n">
-        <v>20.9685714285714</v>
+        <v>20.9433333333333</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>44583</v>
+        <v>44581</v>
       </c>
       <c r="B91" t="s">
         <v>7</v>
@@ -1659,12 +1659,12 @@
         <v>5</v>
       </c>
       <c r="D91" t="n">
-        <v>20.9785714285714</v>
+        <v>20.9590476190476</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>44584</v>
+        <v>44582</v>
       </c>
       <c r="B92" t="s">
         <v>7</v>
@@ -1673,12 +1673,12 @@
         <v>5</v>
       </c>
       <c r="D92" t="n">
-        <v>20.977619047619</v>
+        <v>20.9685714285714</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>44585</v>
+        <v>44583</v>
       </c>
       <c r="B93" t="s">
         <v>7</v>
@@ -1687,12 +1687,12 @@
         <v>5</v>
       </c>
       <c r="D93" t="n">
-        <v>20.977619047619</v>
+        <v>20.9785714285714</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>44586</v>
+        <v>44584</v>
       </c>
       <c r="B94" t="s">
         <v>7</v>
@@ -1706,7 +1706,7 @@
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>44587</v>
+        <v>44585</v>
       </c>
       <c r="B95" t="s">
         <v>7</v>
@@ -1715,12 +1715,12 @@
         <v>5</v>
       </c>
       <c r="D95" t="n">
-        <v>20.9880952380952</v>
+        <v>20.977619047619</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>44588</v>
+        <v>44586</v>
       </c>
       <c r="B96" t="s">
         <v>7</v>
@@ -1729,12 +1729,12 @@
         <v>5</v>
       </c>
       <c r="D96" t="n">
-        <v>20.9880952380952</v>
+        <v>20.977619047619</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>44589</v>
+        <v>44587</v>
       </c>
       <c r="B97" t="s">
         <v>7</v>
@@ -1743,12 +1743,12 @@
         <v>5</v>
       </c>
       <c r="D97" t="n">
-        <v>21</v>
+        <v>20.9880952380952</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>44590</v>
+        <v>44588</v>
       </c>
       <c r="B98" t="s">
         <v>7</v>
@@ -1757,12 +1757,12 @@
         <v>5</v>
       </c>
       <c r="D98" t="n">
-        <v>21.0090476190476</v>
+        <v>20.9880952380952</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>44591</v>
+        <v>44589</v>
       </c>
       <c r="B99" t="s">
         <v>7</v>
@@ -1771,12 +1771,12 @@
         <v>5</v>
       </c>
       <c r="D99" t="n">
-        <v>21.0290476190476</v>
+        <v>21</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>44592</v>
+        <v>44590</v>
       </c>
       <c r="B100" t="s">
         <v>7</v>
@@ -1785,12 +1785,12 @@
         <v>5</v>
       </c>
       <c r="D100" t="n">
-        <v>21.0385714285714</v>
+        <v>21.0090476190476</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>44593</v>
+        <v>44591</v>
       </c>
       <c r="B101" t="s">
         <v>7</v>
@@ -1799,12 +1799,12 @@
         <v>5</v>
       </c>
       <c r="D101" t="n">
-        <v>21.0385714285714</v>
+        <v>21.0290476190476</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>44594</v>
+        <v>44592</v>
       </c>
       <c r="B102" t="s">
         <v>7</v>
@@ -1813,12 +1813,12 @@
         <v>5</v>
       </c>
       <c r="D102" t="n">
-        <v>21.0528571428571</v>
+        <v>21.0385714285714</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>44595</v>
+        <v>44593</v>
       </c>
       <c r="B103" t="s">
         <v>7</v>
@@ -1827,54 +1827,54 @@
         <v>5</v>
       </c>
       <c r="D103" t="n">
-        <v>21.0528571428571</v>
+        <v>21.0385714285714</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>44562</v>
+        <v>44594</v>
       </c>
       <c r="B104" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D104" t="n">
-        <v>21.8166071428571</v>
+        <v>21.0528571428571</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>44563</v>
+        <v>44595</v>
       </c>
       <c r="B105" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D105" t="n">
-        <v>21.8160714285714</v>
+        <v>21.0528571428571</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>44564</v>
+        <v>44596</v>
       </c>
       <c r="B106" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D106" t="n">
-        <v>21.80875</v>
+        <v>21.0690476190476</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>44565</v>
+        <v>44562</v>
       </c>
       <c r="B107" t="s">
         <v>4</v>
@@ -1883,12 +1883,12 @@
         <v>8</v>
       </c>
       <c r="D107" t="n">
-        <v>21.8051785714286</v>
+        <v>21.8166071428571</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>44566</v>
+        <v>44563</v>
       </c>
       <c r="B108" t="s">
         <v>4</v>
@@ -1897,12 +1897,12 @@
         <v>8</v>
       </c>
       <c r="D108" t="n">
-        <v>21.8173214285714</v>
+        <v>21.8160714285714</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>44567</v>
+        <v>44564</v>
       </c>
       <c r="B109" t="s">
         <v>4</v>
@@ -1911,12 +1911,12 @@
         <v>8</v>
       </c>
       <c r="D109" t="n">
-        <v>21.8083928571429</v>
+        <v>21.80875</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>44568</v>
+        <v>44565</v>
       </c>
       <c r="B110" t="s">
         <v>4</v>
@@ -1925,12 +1925,12 @@
         <v>8</v>
       </c>
       <c r="D110" t="n">
-        <v>21.8082142857143</v>
+        <v>21.8051785714286</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>44569</v>
+        <v>44566</v>
       </c>
       <c r="B111" t="s">
         <v>4</v>
@@ -1939,12 +1939,12 @@
         <v>8</v>
       </c>
       <c r="D111" t="n">
-        <v>21.8585714285714</v>
+        <v>21.8173214285714</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>44570</v>
+        <v>44567</v>
       </c>
       <c r="B112" t="s">
         <v>4</v>
@@ -1953,12 +1953,12 @@
         <v>8</v>
       </c>
       <c r="D112" t="n">
-        <v>21.8498214285714</v>
+        <v>21.8083928571429</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>44571</v>
+        <v>44568</v>
       </c>
       <c r="B113" t="s">
         <v>4</v>
@@ -1967,12 +1967,12 @@
         <v>8</v>
       </c>
       <c r="D113" t="n">
-        <v>21.83375</v>
+        <v>21.8082142857143</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>44572</v>
+        <v>44569</v>
       </c>
       <c r="B114" t="s">
         <v>4</v>
@@ -1981,12 +1981,12 @@
         <v>8</v>
       </c>
       <c r="D114" t="n">
-        <v>21.8516071428571</v>
+        <v>21.8585714285714</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>44573</v>
+        <v>44570</v>
       </c>
       <c r="B115" t="s">
         <v>4</v>
@@ -1995,12 +1995,12 @@
         <v>8</v>
       </c>
       <c r="D115" t="n">
-        <v>21.8853571428571</v>
+        <v>21.8498214285714</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>44574</v>
+        <v>44571</v>
       </c>
       <c r="B116" t="s">
         <v>4</v>
@@ -2009,12 +2009,12 @@
         <v>8</v>
       </c>
       <c r="D116" t="n">
-        <v>21.8948214285714</v>
+        <v>21.83375</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>44575</v>
+        <v>44572</v>
       </c>
       <c r="B117" t="s">
         <v>4</v>
@@ -2023,12 +2023,12 @@
         <v>8</v>
       </c>
       <c r="D117" t="n">
-        <v>21.9010714285714</v>
+        <v>21.8516071428571</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>44576</v>
+        <v>44573</v>
       </c>
       <c r="B118" t="s">
         <v>4</v>
@@ -2037,12 +2037,12 @@
         <v>8</v>
       </c>
       <c r="D118" t="n">
-        <v>21.9028571428571</v>
+        <v>21.8853571428571</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>44577</v>
+        <v>44574</v>
       </c>
       <c r="B119" t="s">
         <v>4</v>
@@ -2051,12 +2051,12 @@
         <v>8</v>
       </c>
       <c r="D119" t="n">
-        <v>21.90875</v>
+        <v>21.8948214285714</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>44578</v>
+        <v>44575</v>
       </c>
       <c r="B120" t="s">
         <v>4</v>
@@ -2065,12 +2065,12 @@
         <v>8</v>
       </c>
       <c r="D120" t="n">
-        <v>21.8944642857143</v>
+        <v>21.9010714285714</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>44579</v>
+        <v>44576</v>
       </c>
       <c r="B121" t="s">
         <v>4</v>
@@ -2079,12 +2079,12 @@
         <v>8</v>
       </c>
       <c r="D121" t="n">
-        <v>21.9283928571429</v>
+        <v>21.9028571428571</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>44580</v>
+        <v>44577</v>
       </c>
       <c r="B122" t="s">
         <v>4</v>
@@ -2093,12 +2093,12 @@
         <v>8</v>
       </c>
       <c r="D122" t="n">
-        <v>21.9244642857143</v>
+        <v>21.90875</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>44581</v>
+        <v>44578</v>
       </c>
       <c r="B123" t="s">
         <v>4</v>
@@ -2107,12 +2107,12 @@
         <v>8</v>
       </c>
       <c r="D123" t="n">
-        <v>21.9325</v>
+        <v>21.8944642857143</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>44582</v>
+        <v>44579</v>
       </c>
       <c r="B124" t="s">
         <v>4</v>
@@ -2121,12 +2121,12 @@
         <v>8</v>
       </c>
       <c r="D124" t="n">
-        <v>21.9405357142857</v>
+        <v>21.9283928571429</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>44583</v>
+        <v>44580</v>
       </c>
       <c r="B125" t="s">
         <v>4</v>
@@ -2135,12 +2135,12 @@
         <v>8</v>
       </c>
       <c r="D125" t="n">
-        <v>21.9471428571429</v>
+        <v>21.9244642857143</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>44584</v>
+        <v>44581</v>
       </c>
       <c r="B126" t="s">
         <v>4</v>
@@ -2149,12 +2149,12 @@
         <v>8</v>
       </c>
       <c r="D126" t="n">
-        <v>21.9519642857143</v>
+        <v>21.9325</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>44585</v>
+        <v>44582</v>
       </c>
       <c r="B127" t="s">
         <v>4</v>
@@ -2163,12 +2163,12 @@
         <v>8</v>
       </c>
       <c r="D127" t="n">
-        <v>21.9376785714286</v>
+        <v>21.9405357142857</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>44586</v>
+        <v>44583</v>
       </c>
       <c r="B128" t="s">
         <v>4</v>
@@ -2177,12 +2177,12 @@
         <v>8</v>
       </c>
       <c r="D128" t="n">
-        <v>21.95375</v>
+        <v>21.9471428571429</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>44587</v>
+        <v>44584</v>
       </c>
       <c r="B129" t="s">
         <v>4</v>
@@ -2191,12 +2191,12 @@
         <v>8</v>
       </c>
       <c r="D129" t="n">
-        <v>21.9694642857143</v>
+        <v>21.9519642857143</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>44588</v>
+        <v>44585</v>
       </c>
       <c r="B130" t="s">
         <v>4</v>
@@ -2205,12 +2205,12 @@
         <v>8</v>
       </c>
       <c r="D130" t="n">
-        <v>21.9648214285714</v>
+        <v>21.9376785714286</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>44589</v>
+        <v>44586</v>
       </c>
       <c r="B131" t="s">
         <v>4</v>
@@ -2219,12 +2219,12 @@
         <v>8</v>
       </c>
       <c r="D131" t="n">
-        <v>21.9683928571429</v>
+        <v>21.95375</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>44590</v>
+        <v>44587</v>
       </c>
       <c r="B132" t="s">
         <v>4</v>
@@ -2233,12 +2233,12 @@
         <v>8</v>
       </c>
       <c r="D132" t="n">
-        <v>21.9635714285714</v>
+        <v>21.9694642857143</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>44591</v>
+        <v>44588</v>
       </c>
       <c r="B133" t="s">
         <v>4</v>
@@ -2247,12 +2247,12 @@
         <v>8</v>
       </c>
       <c r="D133" t="n">
-        <v>21.9780357142857</v>
+        <v>21.9648214285714</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>44592</v>
+        <v>44589</v>
       </c>
       <c r="B134" t="s">
         <v>4</v>
@@ -2261,12 +2261,12 @@
         <v>8</v>
       </c>
       <c r="D134" t="n">
-        <v>21.96375</v>
+        <v>21.9683928571429</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>44593</v>
+        <v>44590</v>
       </c>
       <c r="B135" t="s">
         <v>4</v>
@@ -2275,12 +2275,12 @@
         <v>8</v>
       </c>
       <c r="D135" t="n">
-        <v>21.9780357142857</v>
+        <v>21.9635714285714</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>44594</v>
+        <v>44591</v>
       </c>
       <c r="B136" t="s">
         <v>4</v>
@@ -2289,12 +2289,12 @@
         <v>8</v>
       </c>
       <c r="D136" t="n">
-        <v>22.0108928571429</v>
+        <v>21.9780357142857</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>44595</v>
+        <v>44592</v>
       </c>
       <c r="B137" t="s">
         <v>4</v>
@@ -2303,68 +2303,68 @@
         <v>8</v>
       </c>
       <c r="D137" t="n">
-        <v>22.0060714285714</v>
+        <v>21.96375</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="B138" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C138" t="s">
         <v>8</v>
       </c>
       <c r="D138" t="n">
-        <v>23.1053968253968</v>
+        <v>21.9780357142857</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>44563</v>
+        <v>44594</v>
       </c>
       <c r="B139" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C139" t="s">
         <v>8</v>
       </c>
       <c r="D139" t="n">
-        <v>23.1303174603175</v>
+        <v>22.0108928571429</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>44564</v>
+        <v>44595</v>
       </c>
       <c r="B140" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C140" t="s">
         <v>8</v>
       </c>
       <c r="D140" t="n">
-        <v>23.1181746031746</v>
+        <v>22.0060714285714</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>44565</v>
+        <v>44596</v>
       </c>
       <c r="B141" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C141" t="s">
         <v>8</v>
       </c>
       <c r="D141" t="n">
-        <v>23.1251587301587</v>
+        <v>22.0426785714286</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>44566</v>
+        <v>44562</v>
       </c>
       <c r="B142" t="s">
         <v>6</v>
@@ -2373,12 +2373,12 @@
         <v>8</v>
       </c>
       <c r="D142" t="n">
-        <v>23.1421428571429</v>
+        <v>23.1053968253968</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>44567</v>
+        <v>44563</v>
       </c>
       <c r="B143" t="s">
         <v>6</v>
@@ -2387,12 +2387,12 @@
         <v>8</v>
       </c>
       <c r="D143" t="n">
-        <v>23.1629365079365</v>
+        <v>23.1303174603175</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>44568</v>
+        <v>44564</v>
       </c>
       <c r="B144" t="s">
         <v>6</v>
@@ -2401,12 +2401,12 @@
         <v>8</v>
       </c>
       <c r="D144" t="n">
-        <v>23.1716666666667</v>
+        <v>23.1181746031746</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>44569</v>
+        <v>44565</v>
       </c>
       <c r="B145" t="s">
         <v>6</v>
@@ -2415,12 +2415,12 @@
         <v>8</v>
       </c>
       <c r="D145" t="n">
-        <v>23.1869841269841</v>
+        <v>23.1251587301587</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>44570</v>
+        <v>44566</v>
       </c>
       <c r="B146" t="s">
         <v>6</v>
@@ -2429,12 +2429,12 @@
         <v>8</v>
       </c>
       <c r="D146" t="n">
-        <v>23.1927777777778</v>
+        <v>23.1421428571429</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>44571</v>
+        <v>44567</v>
       </c>
       <c r="B147" t="s">
         <v>6</v>
@@ -2443,12 +2443,12 @@
         <v>8</v>
       </c>
       <c r="D147" t="n">
-        <v>23.195873015873</v>
+        <v>23.1629365079365</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>44572</v>
+        <v>44568</v>
       </c>
       <c r="B148" t="s">
         <v>6</v>
@@ -2457,12 +2457,12 @@
         <v>8</v>
       </c>
       <c r="D148" t="n">
-        <v>23.1703968253968</v>
+        <v>23.1716666666667</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>44573</v>
+        <v>44569</v>
       </c>
       <c r="B149" t="s">
         <v>6</v>
@@ -2471,12 +2471,12 @@
         <v>8</v>
       </c>
       <c r="D149" t="n">
-        <v>23.2097619047619</v>
+        <v>23.1869841269841</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>44574</v>
+        <v>44570</v>
       </c>
       <c r="B150" t="s">
         <v>6</v>
@@ -2485,12 +2485,12 @@
         <v>8</v>
       </c>
       <c r="D150" t="n">
-        <v>23.2205555555556</v>
+        <v>23.1927777777778</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>44575</v>
+        <v>44571</v>
       </c>
       <c r="B151" t="s">
         <v>6</v>
@@ -2499,12 +2499,12 @@
         <v>8</v>
       </c>
       <c r="D151" t="n">
-        <v>23.2261111111111</v>
+        <v>23.195873015873</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>44576</v>
+        <v>44572</v>
       </c>
       <c r="B152" t="s">
         <v>6</v>
@@ -2513,12 +2513,12 @@
         <v>8</v>
       </c>
       <c r="D152" t="n">
-        <v>23.2265873015873</v>
+        <v>23.1703968253968</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>44577</v>
+        <v>44573</v>
       </c>
       <c r="B153" t="s">
         <v>6</v>
@@ -2527,12 +2527,12 @@
         <v>8</v>
       </c>
       <c r="D153" t="n">
-        <v>23.2284126984127</v>
+        <v>23.2097619047619</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>44578</v>
+        <v>44574</v>
       </c>
       <c r="B154" t="s">
         <v>6</v>
@@ -2541,12 +2541,12 @@
         <v>8</v>
       </c>
       <c r="D154" t="n">
-        <v>23.2296825396825</v>
+        <v>23.2205555555556</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>44579</v>
+        <v>44575</v>
       </c>
       <c r="B155" t="s">
         <v>6</v>
@@ -2555,12 +2555,12 @@
         <v>8</v>
       </c>
       <c r="D155" t="n">
-        <v>23.2337301587302</v>
+        <v>23.2261111111111</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>44580</v>
+        <v>44576</v>
       </c>
       <c r="B156" t="s">
         <v>6</v>
@@ -2569,12 +2569,12 @@
         <v>8</v>
       </c>
       <c r="D156" t="n">
-        <v>23.2570634920635</v>
+        <v>23.2265873015873</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>44581</v>
+        <v>44577</v>
       </c>
       <c r="B157" t="s">
         <v>6</v>
@@ -2583,12 +2583,12 @@
         <v>8</v>
       </c>
       <c r="D157" t="n">
-        <v>23.2701587301587</v>
+        <v>23.2284126984127</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>44582</v>
+        <v>44578</v>
       </c>
       <c r="B158" t="s">
         <v>6</v>
@@ -2597,12 +2597,12 @@
         <v>8</v>
       </c>
       <c r="D158" t="n">
-        <v>23.2738888888889</v>
+        <v>23.2296825396825</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>44583</v>
+        <v>44579</v>
       </c>
       <c r="B159" t="s">
         <v>6</v>
@@ -2611,12 +2611,12 @@
         <v>8</v>
       </c>
       <c r="D159" t="n">
-        <v>23.2864285714286</v>
+        <v>23.2337301587302</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>44584</v>
+        <v>44580</v>
       </c>
       <c r="B160" t="s">
         <v>6</v>
@@ -2625,12 +2625,12 @@
         <v>8</v>
       </c>
       <c r="D160" t="n">
-        <v>23.2903174603175</v>
+        <v>23.2570634920635</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>44585</v>
+        <v>44581</v>
       </c>
       <c r="B161" t="s">
         <v>6</v>
@@ -2639,12 +2639,12 @@
         <v>8</v>
       </c>
       <c r="D161" t="n">
-        <v>23.2895238095238</v>
+        <v>23.2701587301587</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>44586</v>
+        <v>44582</v>
       </c>
       <c r="B162" t="s">
         <v>6</v>
@@ -2653,12 +2653,12 @@
         <v>8</v>
       </c>
       <c r="D162" t="n">
-        <v>23.2953968253968</v>
+        <v>23.2738888888889</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>44587</v>
+        <v>44583</v>
       </c>
       <c r="B163" t="s">
         <v>6</v>
@@ -2667,12 +2667,12 @@
         <v>8</v>
       </c>
       <c r="D163" t="n">
-        <v>23.3019047619048</v>
+        <v>23.2864285714286</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>44588</v>
+        <v>44584</v>
       </c>
       <c r="B164" t="s">
         <v>6</v>
@@ -2681,12 +2681,12 @@
         <v>8</v>
       </c>
       <c r="D164" t="n">
-        <v>23.3071428571429</v>
+        <v>23.2903174603175</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>44589</v>
+        <v>44585</v>
       </c>
       <c r="B165" t="s">
         <v>6</v>
@@ -2695,12 +2695,12 @@
         <v>8</v>
       </c>
       <c r="D165" t="n">
-        <v>23.3089682539683</v>
+        <v>23.2895238095238</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>44590</v>
+        <v>44586</v>
       </c>
       <c r="B166" t="s">
         <v>6</v>
@@ -2709,12 +2709,12 @@
         <v>8</v>
       </c>
       <c r="D166" t="n">
-        <v>23.3001587301587</v>
+        <v>23.2953968253968</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>44591</v>
+        <v>44587</v>
       </c>
       <c r="B167" t="s">
         <v>6</v>
@@ -2723,12 +2723,12 @@
         <v>8</v>
       </c>
       <c r="D167" t="n">
-        <v>23.3194444444444</v>
+        <v>23.3019047619048</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>44592</v>
+        <v>44588</v>
       </c>
       <c r="B168" t="s">
         <v>6</v>
@@ -2737,12 +2737,12 @@
         <v>8</v>
       </c>
       <c r="D168" t="n">
-        <v>23.3202380952381</v>
+        <v>23.3071428571429</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>44593</v>
+        <v>44589</v>
       </c>
       <c r="B169" t="s">
         <v>6</v>
@@ -2751,12 +2751,12 @@
         <v>8</v>
       </c>
       <c r="D169" t="n">
-        <v>23.3429365079365</v>
+        <v>23.3089682539683</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>44594</v>
+        <v>44590</v>
       </c>
       <c r="B170" t="s">
         <v>6</v>
@@ -2765,12 +2765,12 @@
         <v>8</v>
       </c>
       <c r="D170" t="n">
-        <v>23.3310317460317</v>
+        <v>23.3001587301587</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>44595</v>
+        <v>44591</v>
       </c>
       <c r="B171" t="s">
         <v>6</v>
@@ -2779,82 +2779,82 @@
         <v>8</v>
       </c>
       <c r="D171" t="n">
-        <v>23.3405555555556</v>
+        <v>23.3194444444444</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>44562</v>
+        <v>44592</v>
       </c>
       <c r="B172" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C172" t="s">
         <v>8</v>
       </c>
       <c r="D172" t="n">
-        <v>20.898992248062</v>
+        <v>23.3202380952381</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>44563</v>
+        <v>44593</v>
       </c>
       <c r="B173" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C173" t="s">
         <v>8</v>
       </c>
       <c r="D173" t="n">
-        <v>20.9282170542636</v>
+        <v>23.3429365079365</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>44564</v>
+        <v>44594</v>
       </c>
       <c r="B174" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C174" t="s">
         <v>8</v>
       </c>
       <c r="D174" t="n">
-        <v>20.9231782945736</v>
+        <v>23.3310317460317</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>44565</v>
+        <v>44595</v>
       </c>
       <c r="B175" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C175" t="s">
         <v>8</v>
       </c>
       <c r="D175" t="n">
-        <v>20.9351937984496</v>
+        <v>23.3405555555556</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>44566</v>
+        <v>44596</v>
       </c>
       <c r="B176" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C176" t="s">
         <v>8</v>
       </c>
       <c r="D176" t="n">
-        <v>20.9878294573643</v>
+        <v>23.3464285714286</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>44567</v>
+        <v>44562</v>
       </c>
       <c r="B177" t="s">
         <v>7</v>
@@ -2863,12 +2863,12 @@
         <v>8</v>
       </c>
       <c r="D177" t="n">
-        <v>21.0073643410853</v>
+        <v>20.898992248062</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
-        <v>44568</v>
+        <v>44563</v>
       </c>
       <c r="B178" t="s">
         <v>7</v>
@@ -2877,12 +2877,12 @@
         <v>8</v>
       </c>
       <c r="D178" t="n">
-        <v>21.0072868217054</v>
+        <v>20.9282170542636</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
-        <v>44569</v>
+        <v>44564</v>
       </c>
       <c r="B179" t="s">
         <v>7</v>
@@ -2891,12 +2891,12 @@
         <v>8</v>
       </c>
       <c r="D179" t="n">
-        <v>21.0057364341085</v>
+        <v>20.9231782945736</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>44570</v>
+        <v>44565</v>
       </c>
       <c r="B180" t="s">
         <v>7</v>
@@ -2905,12 +2905,12 @@
         <v>8</v>
       </c>
       <c r="D180" t="n">
-        <v>20.9878294573643</v>
+        <v>20.9351937984496</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
-        <v>44571</v>
+        <v>44566</v>
       </c>
       <c r="B181" t="s">
         <v>7</v>
@@ -2919,12 +2919,12 @@
         <v>8</v>
       </c>
       <c r="D181" t="n">
-        <v>20.9848062015504</v>
+        <v>20.9878294573643</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
-        <v>44572</v>
+        <v>44567</v>
       </c>
       <c r="B182" t="s">
         <v>7</v>
@@ -2933,12 +2933,12 @@
         <v>8</v>
       </c>
       <c r="D182" t="n">
-        <v>20.9837984496124</v>
+        <v>21.0073643410853</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
-        <v>44573</v>
+        <v>44568</v>
       </c>
       <c r="B183" t="s">
         <v>7</v>
@@ -2947,12 +2947,12 @@
         <v>8</v>
       </c>
       <c r="D183" t="n">
-        <v>20.9815503875969</v>
+        <v>21.0072868217054</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
-        <v>44574</v>
+        <v>44569</v>
       </c>
       <c r="B184" t="s">
         <v>7</v>
@@ -2961,12 +2961,12 @@
         <v>8</v>
       </c>
       <c r="D184" t="n">
-        <v>20.9628682170543</v>
+        <v>21.0057364341085</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>44575</v>
+        <v>44570</v>
       </c>
       <c r="B185" t="s">
         <v>7</v>
@@ -2975,12 +2975,12 @@
         <v>8</v>
       </c>
       <c r="D185" t="n">
-        <v>20.9932558139535</v>
+        <v>20.9878294573643</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>44576</v>
+        <v>44571</v>
       </c>
       <c r="B186" t="s">
         <v>7</v>
@@ -2989,12 +2989,12 @@
         <v>8</v>
       </c>
       <c r="D186" t="n">
-        <v>20.9991472868217</v>
+        <v>20.9848062015504</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
-        <v>44577</v>
+        <v>44572</v>
       </c>
       <c r="B187" t="s">
         <v>7</v>
@@ -3003,12 +3003,12 @@
         <v>8</v>
       </c>
       <c r="D187" t="n">
-        <v>20.9958914728682</v>
+        <v>20.9837984496124</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
-        <v>44578</v>
+        <v>44573</v>
       </c>
       <c r="B188" t="s">
         <v>7</v>
@@ -3017,12 +3017,12 @@
         <v>8</v>
       </c>
       <c r="D188" t="n">
-        <v>20.9891472868217</v>
+        <v>20.9815503875969</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
-        <v>44579</v>
+        <v>44574</v>
       </c>
       <c r="B189" t="s">
         <v>7</v>
@@ -3031,12 +3031,12 @@
         <v>8</v>
       </c>
       <c r="D189" t="n">
-        <v>21.0002325581395</v>
+        <v>20.9628682170543</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
-        <v>44580</v>
+        <v>44575</v>
       </c>
       <c r="B190" t="s">
         <v>7</v>
@@ -3045,12 +3045,12 @@
         <v>8</v>
       </c>
       <c r="D190" t="n">
-        <v>21.0181395348837</v>
+        <v>20.9932558139535</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
-        <v>44581</v>
+        <v>44576</v>
       </c>
       <c r="B191" t="s">
         <v>7</v>
@@ -3059,12 +3059,12 @@
         <v>8</v>
       </c>
       <c r="D191" t="n">
-        <v>21.026976744186</v>
+        <v>20.9991472868217</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
-        <v>44582</v>
+        <v>44577</v>
       </c>
       <c r="B192" t="s">
         <v>7</v>
@@ -3073,12 +3073,12 @@
         <v>8</v>
       </c>
       <c r="D192" t="n">
-        <v>21.0304651162791</v>
+        <v>20.9958914728682</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
-        <v>44583</v>
+        <v>44578</v>
       </c>
       <c r="B193" t="s">
         <v>7</v>
@@ -3087,12 +3087,12 @@
         <v>8</v>
       </c>
       <c r="D193" t="n">
-        <v>21.0454263565891</v>
+        <v>20.9891472868217</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
-        <v>44584</v>
+        <v>44579</v>
       </c>
       <c r="B194" t="s">
         <v>7</v>
@@ -3101,12 +3101,12 @@
         <v>8</v>
       </c>
       <c r="D194" t="n">
-        <v>21.0455813953488</v>
+        <v>21.0002325581395</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
-        <v>44585</v>
+        <v>44580</v>
       </c>
       <c r="B195" t="s">
         <v>7</v>
@@ -3115,12 +3115,12 @@
         <v>8</v>
       </c>
       <c r="D195" t="n">
-        <v>21.0408527131783</v>
+        <v>21.0181395348837</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
-        <v>44586</v>
+        <v>44581</v>
       </c>
       <c r="B196" t="s">
         <v>7</v>
@@ -3129,12 +3129,12 @@
         <v>8</v>
       </c>
       <c r="D196" t="n">
-        <v>21.0537984496124</v>
+        <v>21.026976744186</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
-        <v>44587</v>
+        <v>44582</v>
       </c>
       <c r="B197" t="s">
         <v>7</v>
@@ -3143,12 +3143,12 @@
         <v>8</v>
       </c>
       <c r="D197" t="n">
-        <v>21.0571317829457</v>
+        <v>21.0304651162791</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
-        <v>44588</v>
+        <v>44583</v>
       </c>
       <c r="B198" t="s">
         <v>7</v>
@@ -3157,12 +3157,12 @@
         <v>8</v>
       </c>
       <c r="D198" t="n">
-        <v>21.063488372093</v>
+        <v>21.0454263565891</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
-        <v>44589</v>
+        <v>44584</v>
       </c>
       <c r="B199" t="s">
         <v>7</v>
@@ -3171,12 +3171,12 @@
         <v>8</v>
       </c>
       <c r="D199" t="n">
-        <v>21.0696899224806</v>
+        <v>21.0455813953488</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
-        <v>44590</v>
+        <v>44585</v>
       </c>
       <c r="B200" t="s">
         <v>7</v>
@@ -3185,12 +3185,12 @@
         <v>8</v>
       </c>
       <c r="D200" t="n">
-        <v>21.0715503875969</v>
+        <v>21.0408527131783</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
-        <v>44591</v>
+        <v>44586</v>
       </c>
       <c r="B201" t="s">
         <v>7</v>
@@ -3199,12 +3199,12 @@
         <v>8</v>
       </c>
       <c r="D201" t="n">
-        <v>21.0771317829457</v>
+        <v>21.0537984496124</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
-        <v>44592</v>
+        <v>44587</v>
       </c>
       <c r="B202" t="s">
         <v>7</v>
@@ -3213,12 +3213,12 @@
         <v>8</v>
       </c>
       <c r="D202" t="n">
-        <v>21.0759689922481</v>
+        <v>21.0571317829457</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
-        <v>44593</v>
+        <v>44588</v>
       </c>
       <c r="B203" t="s">
         <v>7</v>
@@ -3227,12 +3227,12 @@
         <v>8</v>
       </c>
       <c r="D203" t="n">
-        <v>21.0853488372093</v>
+        <v>21.063488372093</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
-        <v>44594</v>
+        <v>44589</v>
       </c>
       <c r="B204" t="s">
         <v>7</v>
@@ -3241,12 +3241,12 @@
         <v>8</v>
       </c>
       <c r="D204" t="n">
-        <v>21.0791472868217</v>
+        <v>21.0696899224806</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
-        <v>44595</v>
+        <v>44590</v>
       </c>
       <c r="B205" t="s">
         <v>7</v>
@@ -3255,96 +3255,96 @@
         <v>8</v>
       </c>
       <c r="D205" t="n">
-        <v>21.0796124031008</v>
+        <v>21.0715503875969</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
-        <v>44562</v>
+        <v>44591</v>
       </c>
       <c r="B206" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C206" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D206" t="n">
-        <v>21.5081481481481</v>
+        <v>21.0771317829457</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
-        <v>44563</v>
+        <v>44592</v>
       </c>
       <c r="B207" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C207" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D207" t="n">
-        <v>21.512962962963</v>
+        <v>21.0759689922481</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
-        <v>44564</v>
+        <v>44593</v>
       </c>
       <c r="B208" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C208" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D208" t="n">
-        <v>21.512962962963</v>
+        <v>21.0853488372093</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
-        <v>44565</v>
+        <v>44594</v>
       </c>
       <c r="B209" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C209" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D209" t="n">
-        <v>21.5211111111111</v>
+        <v>21.0791472868217</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
-        <v>44566</v>
+        <v>44595</v>
       </c>
       <c r="B210" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C210" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D210" t="n">
-        <v>21.5598148148148</v>
+        <v>21.0796124031008</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
-        <v>44567</v>
+        <v>44596</v>
       </c>
       <c r="B211" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C211" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D211" t="n">
-        <v>21.5757407407407</v>
+        <v>21.0876744186046</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
-        <v>44568</v>
+        <v>44562</v>
       </c>
       <c r="B212" t="s">
         <v>4</v>
@@ -3353,12 +3353,12 @@
         <v>9</v>
       </c>
       <c r="D212" t="n">
-        <v>21.592962962963</v>
+        <v>21.5081481481481</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
-        <v>44569</v>
+        <v>44563</v>
       </c>
       <c r="B213" t="s">
         <v>4</v>
@@ -3367,12 +3367,12 @@
         <v>9</v>
       </c>
       <c r="D213" t="n">
-        <v>21.6074074074074</v>
+        <v>21.512962962963</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
-        <v>44570</v>
+        <v>44564</v>
       </c>
       <c r="B214" t="s">
         <v>4</v>
@@ -3381,12 +3381,12 @@
         <v>9</v>
       </c>
       <c r="D214" t="n">
-        <v>21.6264814814815</v>
+        <v>21.512962962963</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
-        <v>44571</v>
+        <v>44565</v>
       </c>
       <c r="B215" t="s">
         <v>4</v>
@@ -3395,12 +3395,12 @@
         <v>9</v>
       </c>
       <c r="D215" t="n">
-        <v>21.6264814814815</v>
+        <v>21.5211111111111</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
-        <v>44572</v>
+        <v>44566</v>
       </c>
       <c r="B216" t="s">
         <v>4</v>
@@ -3409,12 +3409,12 @@
         <v>9</v>
       </c>
       <c r="D216" t="n">
-        <v>21.6264814814815</v>
+        <v>21.5598148148148</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
-        <v>44573</v>
+        <v>44567</v>
       </c>
       <c r="B217" t="s">
         <v>4</v>
@@ -3423,12 +3423,12 @@
         <v>9</v>
       </c>
       <c r="D217" t="n">
-        <v>21.6377777777778</v>
+        <v>21.5757407407407</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
-        <v>44574</v>
+        <v>44568</v>
       </c>
       <c r="B218" t="s">
         <v>4</v>
@@ -3437,12 +3437,12 @@
         <v>9</v>
       </c>
       <c r="D218" t="n">
-        <v>21.6598148148148</v>
+        <v>21.592962962963</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
-        <v>44575</v>
+        <v>44569</v>
       </c>
       <c r="B219" t="s">
         <v>4</v>
@@ -3451,12 +3451,12 @@
         <v>9</v>
       </c>
       <c r="D219" t="n">
-        <v>21.6805555555556</v>
+        <v>21.6074074074074</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
-        <v>44576</v>
+        <v>44570</v>
       </c>
       <c r="B220" t="s">
         <v>4</v>
@@ -3465,12 +3465,12 @@
         <v>9</v>
       </c>
       <c r="D220" t="n">
-        <v>21.682037037037</v>
+        <v>21.6264814814815</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
-        <v>44577</v>
+        <v>44571</v>
       </c>
       <c r="B221" t="s">
         <v>4</v>
@@ -3479,12 +3479,12 @@
         <v>9</v>
       </c>
       <c r="D221" t="n">
-        <v>21.6875925925926</v>
+        <v>21.6264814814815</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
-        <v>44578</v>
+        <v>44572</v>
       </c>
       <c r="B222" t="s">
         <v>4</v>
@@ -3493,12 +3493,12 @@
         <v>9</v>
       </c>
       <c r="D222" t="n">
-        <v>21.6875925925926</v>
+        <v>21.6264814814815</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
-        <v>44579</v>
+        <v>44573</v>
       </c>
       <c r="B223" t="s">
         <v>4</v>
@@ -3507,12 +3507,12 @@
         <v>9</v>
       </c>
       <c r="D223" t="n">
-        <v>21.6912962962963</v>
+        <v>21.6377777777778</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
-        <v>44580</v>
+        <v>44574</v>
       </c>
       <c r="B224" t="s">
         <v>4</v>
@@ -3521,12 +3521,12 @@
         <v>9</v>
       </c>
       <c r="D224" t="n">
-        <v>21.6972222222222</v>
+        <v>21.6598148148148</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
-        <v>44581</v>
+        <v>44575</v>
       </c>
       <c r="B225" t="s">
         <v>4</v>
@@ -3535,12 +3535,12 @@
         <v>9</v>
       </c>
       <c r="D225" t="n">
-        <v>21.6972222222222</v>
+        <v>21.6805555555556</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
-        <v>44582</v>
+        <v>44576</v>
       </c>
       <c r="B226" t="s">
         <v>4</v>
@@ -3549,12 +3549,12 @@
         <v>9</v>
       </c>
       <c r="D226" t="n">
-        <v>21.7133333333333</v>
+        <v>21.682037037037</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
-        <v>44583</v>
+        <v>44577</v>
       </c>
       <c r="B227" t="s">
         <v>4</v>
@@ -3563,12 +3563,12 @@
         <v>9</v>
       </c>
       <c r="D227" t="n">
-        <v>21.72</v>
+        <v>21.6875925925926</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
-        <v>44584</v>
+        <v>44578</v>
       </c>
       <c r="B228" t="s">
         <v>4</v>
@@ -3577,12 +3577,12 @@
         <v>9</v>
       </c>
       <c r="D228" t="n">
-        <v>21.7237037037037</v>
+        <v>21.6875925925926</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
-        <v>44585</v>
+        <v>44579</v>
       </c>
       <c r="B229" t="s">
         <v>4</v>
@@ -3591,12 +3591,12 @@
         <v>9</v>
       </c>
       <c r="D229" t="n">
-        <v>21.7274074074074</v>
+        <v>21.6912962962963</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
-        <v>44586</v>
+        <v>44580</v>
       </c>
       <c r="B230" t="s">
         <v>4</v>
@@ -3605,12 +3605,12 @@
         <v>9</v>
       </c>
       <c r="D230" t="n">
-        <v>21.7274074074074</v>
+        <v>21.6972222222222</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
-        <v>44587</v>
+        <v>44581</v>
       </c>
       <c r="B231" t="s">
         <v>4</v>
@@ -3619,12 +3619,12 @@
         <v>9</v>
       </c>
       <c r="D231" t="n">
-        <v>21.7307407407407</v>
+        <v>21.6972222222222</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
-        <v>44588</v>
+        <v>44582</v>
       </c>
       <c r="B232" t="s">
         <v>4</v>
@@ -3633,12 +3633,12 @@
         <v>9</v>
       </c>
       <c r="D232" t="n">
-        <v>21.7424074074074</v>
+        <v>21.7133333333333</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
-        <v>44589</v>
+        <v>44583</v>
       </c>
       <c r="B233" t="s">
         <v>4</v>
@@ -3647,12 +3647,12 @@
         <v>9</v>
       </c>
       <c r="D233" t="n">
-        <v>21.7651851851852</v>
+        <v>21.72</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
-        <v>44590</v>
+        <v>44584</v>
       </c>
       <c r="B234" t="s">
         <v>4</v>
@@ -3661,12 +3661,12 @@
         <v>9</v>
       </c>
       <c r="D234" t="n">
-        <v>21.7692592592593</v>
+        <v>21.7237037037037</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
-        <v>44591</v>
+        <v>44585</v>
       </c>
       <c r="B235" t="s">
         <v>4</v>
@@ -3675,12 +3675,12 @@
         <v>9</v>
       </c>
       <c r="D235" t="n">
-        <v>21.7798148148148</v>
+        <v>21.7274074074074</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
-        <v>44592</v>
+        <v>44586</v>
       </c>
       <c r="B236" t="s">
         <v>4</v>
@@ -3689,12 +3689,12 @@
         <v>9</v>
       </c>
       <c r="D236" t="n">
-        <v>21.7798148148148</v>
+        <v>21.7274074074074</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
-        <v>44593</v>
+        <v>44587</v>
       </c>
       <c r="B237" t="s">
         <v>4</v>
@@ -3703,12 +3703,12 @@
         <v>9</v>
       </c>
       <c r="D237" t="n">
-        <v>21.7853703703704</v>
+        <v>21.7307407407407</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
-        <v>44594</v>
+        <v>44588</v>
       </c>
       <c r="B238" t="s">
         <v>4</v>
@@ -3717,12 +3717,12 @@
         <v>9</v>
       </c>
       <c r="D238" t="n">
-        <v>21.7927777777778</v>
+        <v>21.7424074074074</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
-        <v>44595</v>
+        <v>44589</v>
       </c>
       <c r="B239" t="s">
         <v>4</v>
@@ -3731,110 +3731,110 @@
         <v>9</v>
       </c>
       <c r="D239" t="n">
-        <v>21.7927777777778</v>
+        <v>21.7651851851852</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
-        <v>44562</v>
+        <v>44590</v>
       </c>
       <c r="B240" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C240" t="s">
         <v>9</v>
       </c>
       <c r="D240" t="n">
-        <v>22.91859375</v>
+        <v>21.7692592592593</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
-        <v>44563</v>
+        <v>44591</v>
       </c>
       <c r="B241" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C241" t="s">
         <v>9</v>
       </c>
       <c r="D241" t="n">
-        <v>22.91796875</v>
+        <v>21.7798148148148</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
-        <v>44564</v>
+        <v>44592</v>
       </c>
       <c r="B242" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C242" t="s">
         <v>9</v>
       </c>
       <c r="D242" t="n">
-        <v>22.91796875</v>
+        <v>21.7798148148148</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
-        <v>44565</v>
+        <v>44593</v>
       </c>
       <c r="B243" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C243" t="s">
         <v>9</v>
       </c>
       <c r="D243" t="n">
-        <v>22.92109375</v>
+        <v>21.7853703703704</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
-        <v>44566</v>
+        <v>44594</v>
       </c>
       <c r="B244" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C244" t="s">
         <v>9</v>
       </c>
       <c r="D244" t="n">
-        <v>22.93453125</v>
+        <v>21.7927777777778</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
-        <v>44567</v>
+        <v>44595</v>
       </c>
       <c r="B245" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C245" t="s">
         <v>9</v>
       </c>
       <c r="D245" t="n">
-        <v>22.96671875</v>
+        <v>21.7927777777778</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
-        <v>44568</v>
+        <v>44596</v>
       </c>
       <c r="B246" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C246" t="s">
         <v>9</v>
       </c>
       <c r="D246" t="n">
-        <v>22.98828125</v>
+        <v>21.8001851851852</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
-        <v>44569</v>
+        <v>44562</v>
       </c>
       <c r="B247" t="s">
         <v>6</v>
@@ -3843,12 +3843,12 @@
         <v>9</v>
       </c>
       <c r="D247" t="n">
-        <v>23.00359375</v>
+        <v>22.91859375</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
-        <v>44570</v>
+        <v>44563</v>
       </c>
       <c r="B248" t="s">
         <v>6</v>
@@ -3857,12 +3857,12 @@
         <v>9</v>
       </c>
       <c r="D248" t="n">
-        <v>23.02234375</v>
+        <v>22.91796875</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
-        <v>44571</v>
+        <v>44564</v>
       </c>
       <c r="B249" t="s">
         <v>6</v>
@@ -3871,12 +3871,12 @@
         <v>9</v>
       </c>
       <c r="D249" t="n">
-        <v>23.02234375</v>
+        <v>22.91796875</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
-        <v>44572</v>
+        <v>44565</v>
       </c>
       <c r="B250" t="s">
         <v>6</v>
@@ -3885,12 +3885,12 @@
         <v>9</v>
       </c>
       <c r="D250" t="n">
-        <v>23.035</v>
+        <v>22.92109375</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
-        <v>44573</v>
+        <v>44566</v>
       </c>
       <c r="B251" t="s">
         <v>6</v>
@@ -3899,12 +3899,12 @@
         <v>9</v>
       </c>
       <c r="D251" t="n">
-        <v>23.0515625</v>
+        <v>22.93453125</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
-        <v>44574</v>
+        <v>44567</v>
       </c>
       <c r="B252" t="s">
         <v>6</v>
@@ -3913,12 +3913,12 @@
         <v>9</v>
       </c>
       <c r="D252" t="n">
-        <v>23.0765625</v>
+        <v>22.96671875</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
-        <v>44575</v>
+        <v>44568</v>
       </c>
       <c r="B253" t="s">
         <v>6</v>
@@ -3927,12 +3927,12 @@
         <v>9</v>
       </c>
       <c r="D253" t="n">
-        <v>23.076875</v>
+        <v>22.98828125</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
-        <v>44576</v>
+        <v>44569</v>
       </c>
       <c r="B254" t="s">
         <v>6</v>
@@ -3941,12 +3941,12 @@
         <v>9</v>
       </c>
       <c r="D254" t="n">
-        <v>23.0821875</v>
+        <v>23.00359375</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
-        <v>44577</v>
+        <v>44570</v>
       </c>
       <c r="B255" t="s">
         <v>6</v>
@@ -3955,12 +3955,12 @@
         <v>9</v>
       </c>
       <c r="D255" t="n">
-        <v>23.080625</v>
+        <v>23.02234375</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
-        <v>44578</v>
+        <v>44571</v>
       </c>
       <c r="B256" t="s">
         <v>6</v>
@@ -3969,12 +3969,12 @@
         <v>9</v>
       </c>
       <c r="D256" t="n">
-        <v>23.080625</v>
+        <v>23.02234375</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
-        <v>44579</v>
+        <v>44572</v>
       </c>
       <c r="B257" t="s">
         <v>6</v>
@@ -3983,12 +3983,12 @@
         <v>9</v>
       </c>
       <c r="D257" t="n">
-        <v>23.08703125</v>
+        <v>23.035</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
-        <v>44580</v>
+        <v>44573</v>
       </c>
       <c r="B258" t="s">
         <v>6</v>
@@ -3997,12 +3997,12 @@
         <v>9</v>
       </c>
       <c r="D258" t="n">
-        <v>23.09890625</v>
+        <v>23.0515625</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
-        <v>44581</v>
+        <v>44574</v>
       </c>
       <c r="B259" t="s">
         <v>6</v>
@@ -4011,12 +4011,12 @@
         <v>9</v>
       </c>
       <c r="D259" t="n">
-        <v>23.09890625</v>
+        <v>23.0765625</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
-        <v>44582</v>
+        <v>44575</v>
       </c>
       <c r="B260" t="s">
         <v>6</v>
@@ -4025,12 +4025,12 @@
         <v>9</v>
       </c>
       <c r="D260" t="n">
-        <v>23.1109375</v>
+        <v>23.076875</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
-        <v>44583</v>
+        <v>44576</v>
       </c>
       <c r="B261" t="s">
         <v>6</v>
@@ -4039,12 +4039,12 @@
         <v>9</v>
       </c>
       <c r="D261" t="n">
-        <v>23.13921875</v>
+        <v>23.0821875</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
-        <v>44584</v>
+        <v>44577</v>
       </c>
       <c r="B262" t="s">
         <v>6</v>
@@ -4053,12 +4053,12 @@
         <v>9</v>
       </c>
       <c r="D262" t="n">
-        <v>23.1396875</v>
+        <v>23.080625</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
-        <v>44585</v>
+        <v>44578</v>
       </c>
       <c r="B263" t="s">
         <v>6</v>
@@ -4067,12 +4067,12 @@
         <v>9</v>
       </c>
       <c r="D263" t="n">
-        <v>23.1428125</v>
+        <v>23.080625</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
-        <v>44586</v>
+        <v>44579</v>
       </c>
       <c r="B264" t="s">
         <v>6</v>
@@ -4081,12 +4081,12 @@
         <v>9</v>
       </c>
       <c r="D264" t="n">
-        <v>23.14609375</v>
+        <v>23.08703125</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
-        <v>44587</v>
+        <v>44580</v>
       </c>
       <c r="B265" t="s">
         <v>6</v>
@@ -4095,12 +4095,12 @@
         <v>9</v>
       </c>
       <c r="D265" t="n">
-        <v>23.15125</v>
+        <v>23.09890625</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
-        <v>44588</v>
+        <v>44581</v>
       </c>
       <c r="B266" t="s">
         <v>6</v>
@@ -4109,12 +4109,12 @@
         <v>9</v>
       </c>
       <c r="D266" t="n">
-        <v>23.1503125</v>
+        <v>23.09890625</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
-        <v>44589</v>
+        <v>44582</v>
       </c>
       <c r="B267" t="s">
         <v>6</v>
@@ -4123,12 +4123,12 @@
         <v>9</v>
       </c>
       <c r="D267" t="n">
-        <v>23.15265625</v>
+        <v>23.1109375</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
-        <v>44590</v>
+        <v>44583</v>
       </c>
       <c r="B268" t="s">
         <v>6</v>
@@ -4137,12 +4137,12 @@
         <v>9</v>
       </c>
       <c r="D268" t="n">
-        <v>23.160625</v>
+        <v>23.13921875</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
-        <v>44591</v>
+        <v>44584</v>
       </c>
       <c r="B269" t="s">
         <v>6</v>
@@ -4151,12 +4151,12 @@
         <v>9</v>
       </c>
       <c r="D269" t="n">
-        <v>23.16828125</v>
+        <v>23.1396875</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
-        <v>44592</v>
+        <v>44585</v>
       </c>
       <c r="B270" t="s">
         <v>6</v>
@@ -4165,12 +4165,12 @@
         <v>9</v>
       </c>
       <c r="D270" t="n">
-        <v>23.16828125</v>
+        <v>23.1428125</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
-        <v>44593</v>
+        <v>44586</v>
       </c>
       <c r="B271" t="s">
         <v>6</v>
@@ -4179,12 +4179,12 @@
         <v>9</v>
       </c>
       <c r="D271" t="n">
-        <v>23.17625</v>
+        <v>23.14609375</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
-        <v>44594</v>
+        <v>44587</v>
       </c>
       <c r="B272" t="s">
         <v>6</v>
@@ -4193,12 +4193,12 @@
         <v>9</v>
       </c>
       <c r="D272" t="n">
-        <v>23.1778125</v>
+        <v>23.15125</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
-        <v>44595</v>
+        <v>44588</v>
       </c>
       <c r="B273" t="s">
         <v>6</v>
@@ -4207,124 +4207,124 @@
         <v>9</v>
       </c>
       <c r="D273" t="n">
-        <v>23.179375</v>
+        <v>23.1503125</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
-        <v>44562</v>
+        <v>44589</v>
       </c>
       <c r="B274" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C274" t="s">
         <v>9</v>
       </c>
       <c r="D274" t="n">
-        <v>20.6065151515152</v>
+        <v>23.15265625</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
-        <v>44563</v>
+        <v>44590</v>
       </c>
       <c r="B275" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C275" t="s">
         <v>9</v>
       </c>
       <c r="D275" t="n">
-        <v>20.6087878787879</v>
+        <v>23.160625</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
-        <v>44564</v>
+        <v>44591</v>
       </c>
       <c r="B276" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C276" t="s">
         <v>9</v>
       </c>
       <c r="D276" t="n">
-        <v>20.6087878787879</v>
+        <v>23.16828125</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
-        <v>44565</v>
+        <v>44592</v>
       </c>
       <c r="B277" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C277" t="s">
         <v>9</v>
       </c>
       <c r="D277" t="n">
-        <v>20.6133333333333</v>
+        <v>23.16828125</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
-        <v>44566</v>
+        <v>44593</v>
       </c>
       <c r="B278" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C278" t="s">
         <v>9</v>
       </c>
       <c r="D278" t="n">
-        <v>20.6781818181818</v>
+        <v>23.17625</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
-        <v>44567</v>
+        <v>44594</v>
       </c>
       <c r="B279" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C279" t="s">
         <v>9</v>
       </c>
       <c r="D279" t="n">
-        <v>20.7092424242424</v>
+        <v>23.1778125</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
-        <v>44568</v>
+        <v>44595</v>
       </c>
       <c r="B280" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C280" t="s">
         <v>9</v>
       </c>
       <c r="D280" t="n">
-        <v>20.7286363636364</v>
+        <v>23.179375</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
-        <v>44569</v>
+        <v>44596</v>
       </c>
       <c r="B281" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C281" t="s">
         <v>9</v>
       </c>
       <c r="D281" t="n">
-        <v>20.7330303030303</v>
+        <v>23.18328125</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
-        <v>44570</v>
+        <v>44562</v>
       </c>
       <c r="B282" t="s">
         <v>7</v>
@@ -4333,12 +4333,12 @@
         <v>9</v>
       </c>
       <c r="D282" t="n">
-        <v>20.725</v>
+        <v>20.6065151515152</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
-        <v>44571</v>
+        <v>44563</v>
       </c>
       <c r="B283" t="s">
         <v>7</v>
@@ -4347,12 +4347,12 @@
         <v>9</v>
       </c>
       <c r="D283" t="n">
-        <v>20.725</v>
+        <v>20.6087878787879</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
-        <v>44572</v>
+        <v>44564</v>
       </c>
       <c r="B284" t="s">
         <v>7</v>
@@ -4361,12 +4361,12 @@
         <v>9</v>
       </c>
       <c r="D284" t="n">
-        <v>20.7128787878788</v>
+        <v>20.6087878787879</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
-        <v>44573</v>
+        <v>44565</v>
       </c>
       <c r="B285" t="s">
         <v>7</v>
@@ -4375,12 +4375,12 @@
         <v>9</v>
       </c>
       <c r="D285" t="n">
-        <v>20.7272727272727</v>
+        <v>20.6133333333333</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
-        <v>44574</v>
+        <v>44566</v>
       </c>
       <c r="B286" t="s">
         <v>7</v>
@@ -4389,12 +4389,12 @@
         <v>9</v>
       </c>
       <c r="D286" t="n">
-        <v>20.7092424242424</v>
+        <v>20.6781818181818</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
-        <v>44575</v>
+        <v>44567</v>
       </c>
       <c r="B287" t="s">
         <v>7</v>
@@ -4403,12 +4403,12 @@
         <v>9</v>
       </c>
       <c r="D287" t="n">
-        <v>20.7124242424242</v>
+        <v>20.7092424242424</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
-        <v>44576</v>
+        <v>44568</v>
       </c>
       <c r="B288" t="s">
         <v>7</v>
@@ -4417,12 +4417,12 @@
         <v>9</v>
       </c>
       <c r="D288" t="n">
-        <v>20.7092424242424</v>
+        <v>20.7286363636364</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
-        <v>44577</v>
+        <v>44569</v>
       </c>
       <c r="B289" t="s">
         <v>7</v>
@@ -4431,12 +4431,12 @@
         <v>9</v>
       </c>
       <c r="D289" t="n">
-        <v>20.7372727272727</v>
+        <v>20.7330303030303</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
-        <v>44578</v>
+        <v>44570</v>
       </c>
       <c r="B290" t="s">
         <v>7</v>
@@ -4445,12 +4445,12 @@
         <v>9</v>
       </c>
       <c r="D290" t="n">
-        <v>20.7372727272727</v>
+        <v>20.725</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
-        <v>44579</v>
+        <v>44571</v>
       </c>
       <c r="B291" t="s">
         <v>7</v>
@@ -4459,12 +4459,12 @@
         <v>9</v>
       </c>
       <c r="D291" t="n">
-        <v>20.7418181818182</v>
+        <v>20.725</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
-        <v>44580</v>
+        <v>44572</v>
       </c>
       <c r="B292" t="s">
         <v>7</v>
@@ -4473,12 +4473,12 @@
         <v>9</v>
       </c>
       <c r="D292" t="n">
-        <v>20.7542424242424</v>
+        <v>20.7128787878788</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
-        <v>44581</v>
+        <v>44573</v>
       </c>
       <c r="B293" t="s">
         <v>7</v>
@@ -4487,12 +4487,12 @@
         <v>9</v>
       </c>
       <c r="D293" t="n">
-        <v>20.7542424242424</v>
+        <v>20.7272727272727</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
-        <v>44582</v>
+        <v>44574</v>
       </c>
       <c r="B294" t="s">
         <v>7</v>
@@ -4501,12 +4501,12 @@
         <v>9</v>
       </c>
       <c r="D294" t="n">
-        <v>20.7706060606061</v>
+        <v>20.7092424242424</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
-        <v>44583</v>
+        <v>44575</v>
       </c>
       <c r="B295" t="s">
         <v>7</v>
@@ -4515,12 +4515,12 @@
         <v>9</v>
       </c>
       <c r="D295" t="n">
-        <v>20.73</v>
+        <v>20.7124242424242</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
-        <v>44584</v>
+        <v>44576</v>
       </c>
       <c r="B296" t="s">
         <v>7</v>
@@ -4529,12 +4529,12 @@
         <v>9</v>
       </c>
       <c r="D296" t="n">
-        <v>20.7478787878788</v>
+        <v>20.7092424242424</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
-        <v>44585</v>
+        <v>44577</v>
       </c>
       <c r="B297" t="s">
         <v>7</v>
@@ -4543,12 +4543,12 @@
         <v>9</v>
       </c>
       <c r="D297" t="n">
-        <v>20.7480303030303</v>
+        <v>20.7372727272727</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
-        <v>44586</v>
+        <v>44578</v>
       </c>
       <c r="B298" t="s">
         <v>7</v>
@@ -4557,12 +4557,12 @@
         <v>9</v>
       </c>
       <c r="D298" t="n">
-        <v>20.7495454545455</v>
+        <v>20.7372727272727</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
-        <v>44587</v>
+        <v>44579</v>
       </c>
       <c r="B299" t="s">
         <v>7</v>
@@ -4571,12 +4571,12 @@
         <v>9</v>
       </c>
       <c r="D299" t="n">
-        <v>20.7660606060606</v>
+        <v>20.7418181818182</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
-        <v>44588</v>
+        <v>44580</v>
       </c>
       <c r="B300" t="s">
         <v>7</v>
@@ -4585,12 +4585,12 @@
         <v>9</v>
       </c>
       <c r="D300" t="n">
-        <v>20.7789393939394</v>
+        <v>20.7542424242424</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
-        <v>44589</v>
+        <v>44581</v>
       </c>
       <c r="B301" t="s">
         <v>7</v>
@@ -4599,12 +4599,12 @@
         <v>9</v>
       </c>
       <c r="D301" t="n">
-        <v>20.7801515151515</v>
+        <v>20.7542424242424</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
-        <v>44590</v>
+        <v>44582</v>
       </c>
       <c r="B302" t="s">
         <v>7</v>
@@ -4613,12 +4613,12 @@
         <v>9</v>
       </c>
       <c r="D302" t="n">
-        <v>20.7775757575758</v>
+        <v>20.7706060606061</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
-        <v>44591</v>
+        <v>44583</v>
       </c>
       <c r="B303" t="s">
         <v>7</v>
@@ -4627,12 +4627,12 @@
         <v>9</v>
       </c>
       <c r="D303" t="n">
-        <v>20.7863636363636</v>
+        <v>20.73</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
-        <v>44592</v>
+        <v>44584</v>
       </c>
       <c r="B304" t="s">
         <v>7</v>
@@ -4641,12 +4641,12 @@
         <v>9</v>
       </c>
       <c r="D304" t="n">
-        <v>20.7863636363636</v>
+        <v>20.7478787878788</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
-        <v>44593</v>
+        <v>44585</v>
       </c>
       <c r="B305" t="s">
         <v>7</v>
@@ -4655,12 +4655,12 @@
         <v>9</v>
       </c>
       <c r="D305" t="n">
-        <v>20.7927272727273</v>
+        <v>20.7480303030303</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
-        <v>44594</v>
+        <v>44586</v>
       </c>
       <c r="B306" t="s">
         <v>7</v>
@@ -4669,12 +4669,12 @@
         <v>9</v>
       </c>
       <c r="D306" t="n">
-        <v>20.7942424242424</v>
+        <v>20.7495454545455</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
-        <v>44595</v>
+        <v>44587</v>
       </c>
       <c r="B307" t="s">
         <v>7</v>
@@ -4683,138 +4683,138 @@
         <v>9</v>
       </c>
       <c r="D307" t="n">
-        <v>20.8087878787879</v>
+        <v>20.7660606060606</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
-        <v>44562</v>
+        <v>44588</v>
       </c>
       <c r="B308" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C308" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D308" t="n">
-        <v>21.5029268292683</v>
+        <v>20.7789393939394</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
-        <v>44563</v>
+        <v>44589</v>
       </c>
       <c r="B309" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C309" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D309" t="n">
-        <v>21.5219512195122</v>
+        <v>20.7801515151515</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
-        <v>44564</v>
+        <v>44590</v>
       </c>
       <c r="B310" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C310" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D310" t="n">
-        <v>21.5219512195122</v>
+        <v>20.7775757575758</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
-        <v>44565</v>
+        <v>44591</v>
       </c>
       <c r="B311" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C311" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D311" t="n">
-        <v>21.5675609756098</v>
+        <v>20.7863636363636</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
-        <v>44566</v>
+        <v>44592</v>
       </c>
       <c r="B312" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C312" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D312" t="n">
-        <v>21.5809756097561</v>
+        <v>20.7863636363636</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
-        <v>44567</v>
+        <v>44593</v>
       </c>
       <c r="B313" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C313" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D313" t="n">
-        <v>21.5712195121951</v>
+        <v>20.7927272727273</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
-        <v>44568</v>
+        <v>44594</v>
       </c>
       <c r="B314" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C314" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D314" t="n">
-        <v>21.5631707317073</v>
+        <v>20.7942424242424</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
-        <v>44569</v>
+        <v>44595</v>
       </c>
       <c r="B315" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C315" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D315" t="n">
-        <v>21.5985365853659</v>
+        <v>20.8087878787879</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
-        <v>44570</v>
+        <v>44596</v>
       </c>
       <c r="B316" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C316" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D316" t="n">
-        <v>21.6253658536585</v>
+        <v>20.8159090909091</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
-        <v>44571</v>
+        <v>44562</v>
       </c>
       <c r="B317" t="s">
         <v>4</v>
@@ -4823,12 +4823,12 @@
         <v>10</v>
       </c>
       <c r="D317" t="n">
-        <v>21.6253658536585</v>
+        <v>21.5029268292683</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
-        <v>44572</v>
+        <v>44563</v>
       </c>
       <c r="B318" t="s">
         <v>4</v>
@@ -4837,12 +4837,12 @@
         <v>10</v>
       </c>
       <c r="D318" t="n">
-        <v>21.6253658536585</v>
+        <v>21.5219512195122</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
-        <v>44573</v>
+        <v>44564</v>
       </c>
       <c r="B319" t="s">
         <v>4</v>
@@ -4851,12 +4851,12 @@
         <v>10</v>
       </c>
       <c r="D319" t="n">
-        <v>21.6919512195122</v>
+        <v>21.5219512195122</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
-        <v>44574</v>
+        <v>44565</v>
       </c>
       <c r="B320" t="s">
         <v>4</v>
@@ -4865,12 +4865,12 @@
         <v>10</v>
       </c>
       <c r="D320" t="n">
-        <v>21.6775609756098</v>
+        <v>21.5675609756098</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
-        <v>44575</v>
+        <v>44566</v>
       </c>
       <c r="B321" t="s">
         <v>4</v>
@@ -4879,12 +4879,12 @@
         <v>10</v>
       </c>
       <c r="D321" t="n">
-        <v>21.6863414634146</v>
+        <v>21.5809756097561</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
-        <v>44576</v>
+        <v>44567</v>
       </c>
       <c r="B322" t="s">
         <v>4</v>
@@ -4893,12 +4893,12 @@
         <v>10</v>
       </c>
       <c r="D322" t="n">
-        <v>21.6856097560976</v>
+        <v>21.5712195121951</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
-        <v>44577</v>
+        <v>44568</v>
       </c>
       <c r="B323" t="s">
         <v>4</v>
@@ -4907,12 +4907,12 @@
         <v>10</v>
       </c>
       <c r="D323" t="n">
-        <v>21.6756097560976</v>
+        <v>21.5631707317073</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
-        <v>44578</v>
+        <v>44569</v>
       </c>
       <c r="B324" t="s">
         <v>4</v>
@@ -4921,12 +4921,12 @@
         <v>10</v>
       </c>
       <c r="D324" t="n">
-        <v>21.6756097560976</v>
+        <v>21.5985365853659</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
-        <v>44579</v>
+        <v>44570</v>
       </c>
       <c r="B325" t="s">
         <v>4</v>
@@ -4935,12 +4935,12 @@
         <v>10</v>
       </c>
       <c r="D325" t="n">
-        <v>21.6756097560976</v>
+        <v>21.6253658536585</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
-        <v>44580</v>
+        <v>44571</v>
       </c>
       <c r="B326" t="s">
         <v>4</v>
@@ -4949,12 +4949,12 @@
         <v>10</v>
       </c>
       <c r="D326" t="n">
-        <v>21.6943902439024</v>
+        <v>21.6253658536585</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
-        <v>44581</v>
+        <v>44572</v>
       </c>
       <c r="B327" t="s">
         <v>4</v>
@@ -4963,12 +4963,12 @@
         <v>10</v>
       </c>
       <c r="D327" t="n">
-        <v>21.7256097560976</v>
+        <v>21.6253658536585</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
-        <v>44582</v>
+        <v>44573</v>
       </c>
       <c r="B328" t="s">
         <v>4</v>
@@ -4977,12 +4977,12 @@
         <v>10</v>
       </c>
       <c r="D328" t="n">
-        <v>21.7353658536585</v>
+        <v>21.6919512195122</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
-        <v>44583</v>
+        <v>44574</v>
       </c>
       <c r="B329" t="s">
         <v>4</v>
@@ -4991,12 +4991,12 @@
         <v>10</v>
       </c>
       <c r="D329" t="n">
-        <v>21.740243902439</v>
+        <v>21.6775609756098</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
-        <v>44584</v>
+        <v>44575</v>
       </c>
       <c r="B330" t="s">
         <v>4</v>
@@ -5005,12 +5005,12 @@
         <v>10</v>
       </c>
       <c r="D330" t="n">
-        <v>21.7385365853659</v>
+        <v>21.6863414634146</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
-        <v>44585</v>
+        <v>44576</v>
       </c>
       <c r="B331" t="s">
         <v>4</v>
@@ -5019,12 +5019,12 @@
         <v>10</v>
       </c>
       <c r="D331" t="n">
-        <v>21.7385365853659</v>
+        <v>21.6856097560976</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
-        <v>44586</v>
+        <v>44577</v>
       </c>
       <c r="B332" t="s">
         <v>4</v>
@@ -5033,12 +5033,12 @@
         <v>10</v>
       </c>
       <c r="D332" t="n">
-        <v>21.7407317073171</v>
+        <v>21.6756097560976</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
-        <v>44587</v>
+        <v>44578</v>
       </c>
       <c r="B333" t="s">
         <v>4</v>
@@ -5047,12 +5047,12 @@
         <v>10</v>
       </c>
       <c r="D333" t="n">
-        <v>21.7407317073171</v>
+        <v>21.6756097560976</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="1" t="n">
-        <v>44588</v>
+        <v>44579</v>
       </c>
       <c r="B334" t="s">
         <v>4</v>
@@ -5061,12 +5061,12 @@
         <v>10</v>
       </c>
       <c r="D334" t="n">
-        <v>21.7424390243902</v>
+        <v>21.6756097560976</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="1" t="n">
-        <v>44589</v>
+        <v>44580</v>
       </c>
       <c r="B335" t="s">
         <v>4</v>
@@ -5075,12 +5075,12 @@
         <v>10</v>
       </c>
       <c r="D335" t="n">
-        <v>21.7412195121951</v>
+        <v>21.6943902439024</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="1" t="n">
-        <v>44590</v>
+        <v>44581</v>
       </c>
       <c r="B336" t="s">
         <v>4</v>
@@ -5089,12 +5089,12 @@
         <v>10</v>
       </c>
       <c r="D336" t="n">
-        <v>21.7456097560976</v>
+        <v>21.7256097560976</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="1" t="n">
-        <v>44591</v>
+        <v>44582</v>
       </c>
       <c r="B337" t="s">
         <v>4</v>
@@ -5103,12 +5103,12 @@
         <v>10</v>
       </c>
       <c r="D337" t="n">
-        <v>21.7648780487805</v>
+        <v>21.7353658536585</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="1" t="n">
-        <v>44592</v>
+        <v>44583</v>
       </c>
       <c r="B338" t="s">
         <v>4</v>
@@ -5117,12 +5117,12 @@
         <v>10</v>
       </c>
       <c r="D338" t="n">
-        <v>21.769756097561</v>
+        <v>21.740243902439</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="1" t="n">
-        <v>44593</v>
+        <v>44584</v>
       </c>
       <c r="B339" t="s">
         <v>4</v>
@@ -5131,12 +5131,12 @@
         <v>10</v>
       </c>
       <c r="D339" t="n">
-        <v>21.769756097561</v>
+        <v>21.7385365853659</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="1" t="n">
-        <v>44594</v>
+        <v>44585</v>
       </c>
       <c r="B340" t="s">
         <v>4</v>
@@ -5145,12 +5145,12 @@
         <v>10</v>
       </c>
       <c r="D340" t="n">
-        <v>21.7707317073171</v>
+        <v>21.7385365853659</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="1" t="n">
-        <v>44595</v>
+        <v>44586</v>
       </c>
       <c r="B341" t="s">
         <v>4</v>
@@ -5159,152 +5159,152 @@
         <v>10</v>
       </c>
       <c r="D341" t="n">
-        <v>21.7756097560976</v>
+        <v>21.7407317073171</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="1" t="n">
-        <v>44562</v>
+        <v>44587</v>
       </c>
       <c r="B342" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C342" t="s">
         <v>10</v>
       </c>
       <c r="D342" t="n">
-        <v>23.0265454545455</v>
+        <v>21.7407317073171</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="1" t="n">
-        <v>44563</v>
+        <v>44588</v>
       </c>
       <c r="B343" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C343" t="s">
         <v>10</v>
       </c>
       <c r="D343" t="n">
-        <v>23.0314545454545</v>
+        <v>21.7424390243902</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="1" t="n">
-        <v>44564</v>
+        <v>44589</v>
       </c>
       <c r="B344" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C344" t="s">
         <v>10</v>
       </c>
       <c r="D344" t="n">
-        <v>23.0314545454545</v>
+        <v>21.7412195121951</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="1" t="n">
-        <v>44565</v>
+        <v>44590</v>
       </c>
       <c r="B345" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C345" t="s">
         <v>10</v>
       </c>
       <c r="D345" t="n">
-        <v>23.0509090909091</v>
+        <v>21.7456097560976</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="1" t="n">
-        <v>44566</v>
+        <v>44591</v>
       </c>
       <c r="B346" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C346" t="s">
         <v>10</v>
       </c>
       <c r="D346" t="n">
-        <v>23.0698181818182</v>
+        <v>21.7648780487805</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="1" t="n">
-        <v>44567</v>
+        <v>44592</v>
       </c>
       <c r="B347" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C347" t="s">
         <v>10</v>
       </c>
       <c r="D347" t="n">
-        <v>23.0838181818182</v>
+        <v>21.769756097561</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="1" t="n">
-        <v>44568</v>
+        <v>44593</v>
       </c>
       <c r="B348" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C348" t="s">
         <v>10</v>
       </c>
       <c r="D348" t="n">
-        <v>23.0914545454545</v>
+        <v>21.769756097561</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="1" t="n">
-        <v>44569</v>
+        <v>44594</v>
       </c>
       <c r="B349" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C349" t="s">
         <v>10</v>
       </c>
       <c r="D349" t="n">
-        <v>23.1112727272727</v>
+        <v>21.7707317073171</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="1" t="n">
-        <v>44570</v>
+        <v>44595</v>
       </c>
       <c r="B350" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C350" t="s">
         <v>10</v>
       </c>
       <c r="D350" t="n">
-        <v>23.1110909090909</v>
+        <v>21.7756097560976</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="1" t="n">
-        <v>44571</v>
+        <v>44596</v>
       </c>
       <c r="B351" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C351" t="s">
         <v>10</v>
       </c>
       <c r="D351" t="n">
-        <v>23.1092727272727</v>
+        <v>21.7870731707317</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="1" t="n">
-        <v>44572</v>
+        <v>44562</v>
       </c>
       <c r="B352" t="s">
         <v>6</v>
@@ -5313,12 +5313,12 @@
         <v>10</v>
       </c>
       <c r="D352" t="n">
-        <v>23.1130909090909</v>
+        <v>23.0265454545455</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="1" t="n">
-        <v>44573</v>
+        <v>44563</v>
       </c>
       <c r="B353" t="s">
         <v>6</v>
@@ -5327,12 +5327,12 @@
         <v>10</v>
       </c>
       <c r="D353" t="n">
-        <v>23.1265454545455</v>
+        <v>23.0314545454545</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="1" t="n">
-        <v>44574</v>
+        <v>44564</v>
       </c>
       <c r="B354" t="s">
         <v>6</v>
@@ -5341,12 +5341,12 @@
         <v>10</v>
       </c>
       <c r="D354" t="n">
-        <v>23.1356363636364</v>
+        <v>23.0314545454545</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="1" t="n">
-        <v>44575</v>
+        <v>44565</v>
       </c>
       <c r="B355" t="s">
         <v>6</v>
@@ -5355,12 +5355,12 @@
         <v>10</v>
       </c>
       <c r="D355" t="n">
-        <v>23.1650909090909</v>
+        <v>23.0509090909091</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="1" t="n">
-        <v>44576</v>
+        <v>44566</v>
       </c>
       <c r="B356" t="s">
         <v>6</v>
@@ -5369,12 +5369,12 @@
         <v>10</v>
       </c>
       <c r="D356" t="n">
-        <v>23.1807272727273</v>
+        <v>23.0698181818182</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="1" t="n">
-        <v>44577</v>
+        <v>44567</v>
       </c>
       <c r="B357" t="s">
         <v>6</v>
@@ -5383,12 +5383,12 @@
         <v>10</v>
       </c>
       <c r="D357" t="n">
-        <v>23.1778181818182</v>
+        <v>23.0838181818182</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="1" t="n">
-        <v>44578</v>
+        <v>44568</v>
       </c>
       <c r="B358" t="s">
         <v>6</v>
@@ -5397,12 +5397,12 @@
         <v>10</v>
       </c>
       <c r="D358" t="n">
-        <v>23.1778181818182</v>
+        <v>23.0914545454545</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="1" t="n">
-        <v>44579</v>
+        <v>44569</v>
       </c>
       <c r="B359" t="s">
         <v>6</v>
@@ -5411,12 +5411,12 @@
         <v>10</v>
       </c>
       <c r="D359" t="n">
-        <v>23.1816363636364</v>
+        <v>23.1112727272727</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="1" t="n">
-        <v>44580</v>
+        <v>44570</v>
       </c>
       <c r="B360" t="s">
         <v>6</v>
@@ -5425,12 +5425,12 @@
         <v>10</v>
       </c>
       <c r="D360" t="n">
-        <v>23.186</v>
+        <v>23.1110909090909</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="1" t="n">
-        <v>44581</v>
+        <v>44571</v>
       </c>
       <c r="B361" t="s">
         <v>6</v>
@@ -5439,12 +5439,12 @@
         <v>10</v>
       </c>
       <c r="D361" t="n">
-        <v>23.186</v>
+        <v>23.1092727272727</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="1" t="n">
-        <v>44582</v>
+        <v>44572</v>
       </c>
       <c r="B362" t="s">
         <v>6</v>
@@ -5453,12 +5453,12 @@
         <v>10</v>
       </c>
       <c r="D362" t="n">
-        <v>23.1732727272727</v>
+        <v>23.1130909090909</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="1" t="n">
-        <v>44583</v>
+        <v>44573</v>
       </c>
       <c r="B363" t="s">
         <v>6</v>
@@ -5467,12 +5467,12 @@
         <v>10</v>
       </c>
       <c r="D363" t="n">
-        <v>23.1850909090909</v>
+        <v>23.1265454545455</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="1" t="n">
-        <v>44584</v>
+        <v>44574</v>
       </c>
       <c r="B364" t="s">
         <v>6</v>
@@ -5481,12 +5481,12 @@
         <v>10</v>
       </c>
       <c r="D364" t="n">
-        <v>23.1852727272727</v>
+        <v>23.1356363636364</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="1" t="n">
-        <v>44585</v>
+        <v>44575</v>
       </c>
       <c r="B365" t="s">
         <v>6</v>
@@ -5495,12 +5495,12 @@
         <v>10</v>
       </c>
       <c r="D365" t="n">
-        <v>23.1852727272727</v>
+        <v>23.1650909090909</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="1" t="n">
-        <v>44586</v>
+        <v>44576</v>
       </c>
       <c r="B366" t="s">
         <v>6</v>
@@ -5509,12 +5509,12 @@
         <v>10</v>
       </c>
       <c r="D366" t="n">
-        <v>23.1901818181818</v>
+        <v>23.1807272727273</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="1" t="n">
-        <v>44587</v>
+        <v>44577</v>
       </c>
       <c r="B367" t="s">
         <v>6</v>
@@ -5523,12 +5523,12 @@
         <v>10</v>
       </c>
       <c r="D367" t="n">
-        <v>23.2003636363636</v>
+        <v>23.1778181818182</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="1" t="n">
-        <v>44588</v>
+        <v>44578</v>
       </c>
       <c r="B368" t="s">
         <v>6</v>
@@ -5537,12 +5537,12 @@
         <v>10</v>
       </c>
       <c r="D368" t="n">
-        <v>23.2023636363636</v>
+        <v>23.1778181818182</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="1" t="n">
-        <v>44589</v>
+        <v>44579</v>
       </c>
       <c r="B369" t="s">
         <v>6</v>
@@ -5551,12 +5551,12 @@
         <v>10</v>
       </c>
       <c r="D369" t="n">
-        <v>23.1981818181818</v>
+        <v>23.1816363636364</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="1" t="n">
-        <v>44590</v>
+        <v>44580</v>
       </c>
       <c r="B370" t="s">
         <v>6</v>
@@ -5565,12 +5565,12 @@
         <v>10</v>
       </c>
       <c r="D370" t="n">
-        <v>23.2034545454545</v>
+        <v>23.186</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="1" t="n">
-        <v>44591</v>
+        <v>44581</v>
       </c>
       <c r="B371" t="s">
         <v>6</v>
@@ -5579,12 +5579,12 @@
         <v>10</v>
       </c>
       <c r="D371" t="n">
-        <v>23.2032727272727</v>
+        <v>23.186</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="1" t="n">
-        <v>44592</v>
+        <v>44582</v>
       </c>
       <c r="B372" t="s">
         <v>6</v>
@@ -5593,12 +5593,12 @@
         <v>10</v>
       </c>
       <c r="D372" t="n">
-        <v>23.2287272727273</v>
+        <v>23.1732727272727</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="1" t="n">
-        <v>44593</v>
+        <v>44583</v>
       </c>
       <c r="B373" t="s">
         <v>6</v>
@@ -5607,12 +5607,12 @@
         <v>10</v>
       </c>
       <c r="D373" t="n">
-        <v>23.2325454545455</v>
+        <v>23.1850909090909</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="1" t="n">
-        <v>44594</v>
+        <v>44584</v>
       </c>
       <c r="B374" t="s">
         <v>6</v>
@@ -5621,12 +5621,12 @@
         <v>10</v>
       </c>
       <c r="D374" t="n">
-        <v>23.2372727272727</v>
+        <v>23.1852727272727</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="1" t="n">
-        <v>44595</v>
+        <v>44585</v>
       </c>
       <c r="B375" t="s">
         <v>6</v>
@@ -5635,166 +5635,166 @@
         <v>10</v>
       </c>
       <c r="D375" t="n">
-        <v>23.2390909090909</v>
+        <v>23.1852727272727</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="1" t="n">
-        <v>44562</v>
+        <v>44586</v>
       </c>
       <c r="B376" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C376" t="s">
         <v>10</v>
       </c>
       <c r="D376" t="n">
-        <v>20.702</v>
+        <v>23.1901818181818</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="1" t="n">
-        <v>44563</v>
+        <v>44587</v>
       </c>
       <c r="B377" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C377" t="s">
         <v>10</v>
       </c>
       <c r="D377" t="n">
-        <v>20.7236363636364</v>
+        <v>23.2003636363636</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="1" t="n">
-        <v>44564</v>
+        <v>44588</v>
       </c>
       <c r="B378" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C378" t="s">
         <v>10</v>
       </c>
       <c r="D378" t="n">
-        <v>20.7345454545455</v>
+        <v>23.2023636363636</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="1" t="n">
-        <v>44565</v>
+        <v>44589</v>
       </c>
       <c r="B379" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C379" t="s">
         <v>10</v>
       </c>
       <c r="D379" t="n">
-        <v>20.7574545454545</v>
+        <v>23.1981818181818</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="1" t="n">
-        <v>44566</v>
+        <v>44590</v>
       </c>
       <c r="B380" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C380" t="s">
         <v>10</v>
       </c>
       <c r="D380" t="n">
-        <v>20.7961818181818</v>
+        <v>23.2034545454545</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="1" t="n">
-        <v>44567</v>
+        <v>44591</v>
       </c>
       <c r="B381" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C381" t="s">
         <v>10</v>
       </c>
       <c r="D381" t="n">
-        <v>20.8190909090909</v>
+        <v>23.2032727272727</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="1" t="n">
-        <v>44568</v>
+        <v>44592</v>
       </c>
       <c r="B382" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C382" t="s">
         <v>10</v>
       </c>
       <c r="D382" t="n">
-        <v>20.8203636363636</v>
+        <v>23.2287272727273</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="1" t="n">
-        <v>44569</v>
+        <v>44593</v>
       </c>
       <c r="B383" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C383" t="s">
         <v>10</v>
       </c>
       <c r="D383" t="n">
-        <v>20.8349090909091</v>
+        <v>23.2325454545455</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="1" t="n">
-        <v>44570</v>
+        <v>44594</v>
       </c>
       <c r="B384" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C384" t="s">
         <v>10</v>
       </c>
       <c r="D384" t="n">
-        <v>20.8312727272727</v>
+        <v>23.2372727272727</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="1" t="n">
-        <v>44571</v>
+        <v>44595</v>
       </c>
       <c r="B385" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C385" t="s">
         <v>10</v>
       </c>
       <c r="D385" t="n">
-        <v>20.8221818181818</v>
+        <v>23.2390909090909</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="1" t="n">
-        <v>44572</v>
+        <v>44596</v>
       </c>
       <c r="B386" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C386" t="s">
         <v>10</v>
       </c>
       <c r="D386" t="n">
-        <v>20.8258181818182</v>
+        <v>23.2445454545455</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="1" t="n">
-        <v>44573</v>
+        <v>44562</v>
       </c>
       <c r="B387" t="s">
         <v>7</v>
@@ -5803,12 +5803,12 @@
         <v>10</v>
       </c>
       <c r="D387" t="n">
-        <v>20.826</v>
+        <v>20.702</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="1" t="n">
-        <v>44574</v>
+        <v>44563</v>
       </c>
       <c r="B388" t="s">
         <v>7</v>
@@ -5817,12 +5817,12 @@
         <v>10</v>
       </c>
       <c r="D388" t="n">
-        <v>20.8196363636364</v>
+        <v>20.7236363636364</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="1" t="n">
-        <v>44575</v>
+        <v>44564</v>
       </c>
       <c r="B389" t="s">
         <v>7</v>
@@ -5831,12 +5831,12 @@
         <v>10</v>
       </c>
       <c r="D389" t="n">
-        <v>20.8356363636364</v>
+        <v>20.7345454545455</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="1" t="n">
-        <v>44576</v>
+        <v>44565</v>
       </c>
       <c r="B390" t="s">
         <v>7</v>
@@ -5845,12 +5845,12 @@
         <v>10</v>
       </c>
       <c r="D390" t="n">
-        <v>20.8518181818182</v>
+        <v>20.7574545454545</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="1" t="n">
-        <v>44577</v>
+        <v>44566</v>
       </c>
       <c r="B391" t="s">
         <v>7</v>
@@ -5859,12 +5859,12 @@
         <v>10</v>
       </c>
       <c r="D391" t="n">
-        <v>20.8463636363636</v>
+        <v>20.7961818181818</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="1" t="n">
-        <v>44578</v>
+        <v>44567</v>
       </c>
       <c r="B392" t="s">
         <v>7</v>
@@ -5873,12 +5873,12 @@
         <v>10</v>
       </c>
       <c r="D392" t="n">
-        <v>20.85</v>
+        <v>20.8190909090909</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="1" t="n">
-        <v>44579</v>
+        <v>44568</v>
       </c>
       <c r="B393" t="s">
         <v>7</v>
@@ -5887,12 +5887,12 @@
         <v>10</v>
       </c>
       <c r="D393" t="n">
-        <v>20.8536363636364</v>
+        <v>20.8203636363636</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="1" t="n">
-        <v>44580</v>
+        <v>44569</v>
       </c>
       <c r="B394" t="s">
         <v>7</v>
@@ -5901,12 +5901,12 @@
         <v>10</v>
       </c>
       <c r="D394" t="n">
-        <v>20.8594545454545</v>
+        <v>20.8349090909091</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="1" t="n">
-        <v>44581</v>
+        <v>44570</v>
       </c>
       <c r="B395" t="s">
         <v>7</v>
@@ -5915,12 +5915,12 @@
         <v>10</v>
       </c>
       <c r="D395" t="n">
-        <v>20.8832727272727</v>
+        <v>20.8312727272727</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="1" t="n">
-        <v>44582</v>
+        <v>44571</v>
       </c>
       <c r="B396" t="s">
         <v>7</v>
@@ -5929,12 +5929,12 @@
         <v>10</v>
       </c>
       <c r="D396" t="n">
-        <v>20.8901818181818</v>
+        <v>20.8221818181818</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="1" t="n">
-        <v>44583</v>
+        <v>44572</v>
       </c>
       <c r="B397" t="s">
         <v>7</v>
@@ -5943,12 +5943,12 @@
         <v>10</v>
       </c>
       <c r="D397" t="n">
-        <v>20.8945454545455</v>
+        <v>20.8258181818182</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="1" t="n">
-        <v>44584</v>
+        <v>44573</v>
       </c>
       <c r="B398" t="s">
         <v>7</v>
@@ -5957,12 +5957,12 @@
         <v>10</v>
       </c>
       <c r="D398" t="n">
-        <v>20.8929090909091</v>
+        <v>20.826</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="1" t="n">
-        <v>44585</v>
+        <v>44574</v>
       </c>
       <c r="B399" t="s">
         <v>7</v>
@@ -5971,12 +5971,12 @@
         <v>10</v>
       </c>
       <c r="D399" t="n">
-        <v>20.8929090909091</v>
+        <v>20.8196363636364</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="1" t="n">
-        <v>44586</v>
+        <v>44575</v>
       </c>
       <c r="B400" t="s">
         <v>7</v>
@@ -5985,12 +5985,12 @@
         <v>10</v>
       </c>
       <c r="D400" t="n">
-        <v>20.8936363636364</v>
+        <v>20.8356363636364</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="1" t="n">
-        <v>44587</v>
+        <v>44576</v>
       </c>
       <c r="B401" t="s">
         <v>7</v>
@@ -5999,12 +5999,12 @@
         <v>10</v>
       </c>
       <c r="D401" t="n">
-        <v>20.8992727272727</v>
+        <v>20.8518181818182</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="1" t="n">
-        <v>44588</v>
+        <v>44577</v>
       </c>
       <c r="B402" t="s">
         <v>7</v>
@@ -6013,12 +6013,12 @@
         <v>10</v>
       </c>
       <c r="D402" t="n">
-        <v>20.8990909090909</v>
+        <v>20.8463636363636</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="1" t="n">
-        <v>44589</v>
+        <v>44578</v>
       </c>
       <c r="B403" t="s">
         <v>7</v>
@@ -6027,12 +6027,12 @@
         <v>10</v>
       </c>
       <c r="D403" t="n">
-        <v>20.8976363636364</v>
+        <v>20.85</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="1" t="n">
-        <v>44590</v>
+        <v>44579</v>
       </c>
       <c r="B404" t="s">
         <v>7</v>
@@ -6041,12 +6041,12 @@
         <v>10</v>
       </c>
       <c r="D404" t="n">
-        <v>20.8961818181818</v>
+        <v>20.8536363636364</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="1" t="n">
-        <v>44591</v>
+        <v>44580</v>
       </c>
       <c r="B405" t="s">
         <v>7</v>
@@ -6055,12 +6055,12 @@
         <v>10</v>
       </c>
       <c r="D405" t="n">
-        <v>20.8981818181818</v>
+        <v>20.8594545454545</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="1" t="n">
-        <v>44592</v>
+        <v>44581</v>
       </c>
       <c r="B406" t="s">
         <v>7</v>
@@ -6069,12 +6069,12 @@
         <v>10</v>
       </c>
       <c r="D406" t="n">
-        <v>20.9018181818182</v>
+        <v>20.8832727272727</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" s="1" t="n">
-        <v>44593</v>
+        <v>44582</v>
       </c>
       <c r="B407" t="s">
         <v>7</v>
@@ -6083,12 +6083,12 @@
         <v>10</v>
       </c>
       <c r="D407" t="n">
-        <v>20.9054545454545</v>
+        <v>20.8901818181818</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="1" t="n">
-        <v>44594</v>
+        <v>44583</v>
       </c>
       <c r="B408" t="s">
         <v>7</v>
@@ -6097,12 +6097,12 @@
         <v>10</v>
       </c>
       <c r="D408" t="n">
-        <v>20.9210909090909</v>
+        <v>20.8945454545455</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="1" t="n">
-        <v>44595</v>
+        <v>44584</v>
       </c>
       <c r="B409" t="s">
         <v>7</v>
@@ -6111,180 +6111,180 @@
         <v>10</v>
       </c>
       <c r="D409" t="n">
-        <v>20.9210909090909</v>
+        <v>20.8929090909091</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="1" t="n">
-        <v>44562</v>
+        <v>44585</v>
       </c>
       <c r="B410" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C410" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D410" t="n">
-        <v>21.8417142857143</v>
+        <v>20.8929090909091</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="1" t="n">
-        <v>44563</v>
+        <v>44586</v>
       </c>
       <c r="B411" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C411" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D411" t="n">
-        <v>21.8468571428571</v>
+        <v>20.8936363636364</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="1" t="n">
-        <v>44564</v>
+        <v>44587</v>
       </c>
       <c r="B412" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C412" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D412" t="n">
-        <v>21.8748571428571</v>
+        <v>20.8992727272727</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="1" t="n">
-        <v>44565</v>
+        <v>44588</v>
       </c>
       <c r="B413" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C413" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D413" t="n">
-        <v>21.8748571428571</v>
+        <v>20.8990909090909</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" s="1" t="n">
-        <v>44566</v>
+        <v>44589</v>
       </c>
       <c r="B414" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C414" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D414" t="n">
-        <v>21.8662857142857</v>
+        <v>20.8976363636364</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" s="1" t="n">
-        <v>44567</v>
+        <v>44590</v>
       </c>
       <c r="B415" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C415" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D415" t="n">
-        <v>21.8582857142857</v>
+        <v>20.8961818181818</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" s="1" t="n">
-        <v>44568</v>
+        <v>44591</v>
       </c>
       <c r="B416" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C416" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D416" t="n">
-        <v>21.8522857142857</v>
+        <v>20.8981818181818</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" s="1" t="n">
-        <v>44569</v>
+        <v>44592</v>
       </c>
       <c r="B417" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C417" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D417" t="n">
-        <v>21.8597142857143</v>
+        <v>20.9018181818182</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" s="1" t="n">
-        <v>44570</v>
+        <v>44593</v>
       </c>
       <c r="B418" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C418" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D418" t="n">
-        <v>21.8691428571429</v>
+        <v>20.9054545454545</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" s="1" t="n">
-        <v>44571</v>
+        <v>44594</v>
       </c>
       <c r="B419" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C419" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D419" t="n">
-        <v>21.8691428571429</v>
+        <v>20.9210909090909</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" s="1" t="n">
-        <v>44572</v>
+        <v>44595</v>
       </c>
       <c r="B420" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C420" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D420" t="n">
-        <v>21.8691428571429</v>
+        <v>20.9210909090909</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" s="1" t="n">
-        <v>44573</v>
+        <v>44596</v>
       </c>
       <c r="B421" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C421" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D421" t="n">
-        <v>21.8882857142857</v>
+        <v>20.9252727272727</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" s="1" t="n">
-        <v>44574</v>
+        <v>44562</v>
       </c>
       <c r="B422" t="s">
         <v>4</v>
@@ -6293,12 +6293,12 @@
         <v>11</v>
       </c>
       <c r="D422" t="n">
-        <v>21.9302857142857</v>
+        <v>21.8417142857143</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" s="1" t="n">
-        <v>44575</v>
+        <v>44563</v>
       </c>
       <c r="B423" t="s">
         <v>4</v>
@@ -6307,12 +6307,12 @@
         <v>11</v>
       </c>
       <c r="D423" t="n">
-        <v>21.9345714285714</v>
+        <v>21.8468571428571</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" s="1" t="n">
-        <v>44576</v>
+        <v>44564</v>
       </c>
       <c r="B424" t="s">
         <v>4</v>
@@ -6321,12 +6321,12 @@
         <v>11</v>
       </c>
       <c r="D424" t="n">
-        <v>21.952</v>
+        <v>21.8748571428571</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" s="1" t="n">
-        <v>44577</v>
+        <v>44565</v>
       </c>
       <c r="B425" t="s">
         <v>4</v>
@@ -6335,12 +6335,12 @@
         <v>11</v>
       </c>
       <c r="D425" t="n">
-        <v>21.9737142857143</v>
+        <v>21.8748571428571</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" s="1" t="n">
-        <v>44578</v>
+        <v>44566</v>
       </c>
       <c r="B426" t="s">
         <v>4</v>
@@ -6349,12 +6349,12 @@
         <v>11</v>
       </c>
       <c r="D426" t="n">
-        <v>21.9737142857143</v>
+        <v>21.8662857142857</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" s="1" t="n">
-        <v>44579</v>
+        <v>44567</v>
       </c>
       <c r="B427" t="s">
         <v>4</v>
@@ -6363,12 +6363,12 @@
         <v>11</v>
       </c>
       <c r="D427" t="n">
-        <v>21.9871428571429</v>
+        <v>21.8582857142857</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" s="1" t="n">
-        <v>44580</v>
+        <v>44568</v>
       </c>
       <c r="B428" t="s">
         <v>4</v>
@@ -6377,12 +6377,12 @@
         <v>11</v>
       </c>
       <c r="D428" t="n">
-        <v>21.9871428571429</v>
+        <v>21.8522857142857</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" s="1" t="n">
-        <v>44581</v>
+        <v>44569</v>
       </c>
       <c r="B429" t="s">
         <v>4</v>
@@ -6391,12 +6391,12 @@
         <v>11</v>
       </c>
       <c r="D429" t="n">
-        <v>21.9908571428571</v>
+        <v>21.8597142857143</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" s="1" t="n">
-        <v>44582</v>
+        <v>44570</v>
       </c>
       <c r="B430" t="s">
         <v>4</v>
@@ -6405,12 +6405,12 @@
         <v>11</v>
       </c>
       <c r="D430" t="n">
-        <v>22.0005714285714</v>
+        <v>21.8691428571429</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" s="1" t="n">
-        <v>44583</v>
+        <v>44571</v>
       </c>
       <c r="B431" t="s">
         <v>4</v>
@@ -6419,12 +6419,12 @@
         <v>11</v>
       </c>
       <c r="D431" t="n">
-        <v>22.0005714285714</v>
+        <v>21.8691428571429</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" s="1" t="n">
-        <v>44584</v>
+        <v>44572</v>
       </c>
       <c r="B432" t="s">
         <v>4</v>
@@ -6433,12 +6433,12 @@
         <v>11</v>
       </c>
       <c r="D432" t="n">
-        <v>21.9988571428571</v>
+        <v>21.8691428571429</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" s="1" t="n">
-        <v>44585</v>
+        <v>44573</v>
       </c>
       <c r="B433" t="s">
         <v>4</v>
@@ -6447,12 +6447,12 @@
         <v>11</v>
       </c>
       <c r="D433" t="n">
-        <v>22.0045714285714</v>
+        <v>21.8882857142857</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" s="1" t="n">
-        <v>44586</v>
+        <v>44574</v>
       </c>
       <c r="B434" t="s">
         <v>4</v>
@@ -6461,12 +6461,12 @@
         <v>11</v>
       </c>
       <c r="D434" t="n">
-        <v>22.0045714285714</v>
+        <v>21.9302857142857</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" s="1" t="n">
-        <v>44587</v>
+        <v>44575</v>
       </c>
       <c r="B435" t="s">
         <v>4</v>
@@ -6475,12 +6475,12 @@
         <v>11</v>
       </c>
       <c r="D435" t="n">
-        <v>22.0342857142857</v>
+        <v>21.9345714285714</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" s="1" t="n">
-        <v>44588</v>
+        <v>44576</v>
       </c>
       <c r="B436" t="s">
         <v>4</v>
@@ -6489,12 +6489,12 @@
         <v>11</v>
       </c>
       <c r="D436" t="n">
-        <v>22.0474285714286</v>
+        <v>21.952</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" s="1" t="n">
-        <v>44589</v>
+        <v>44577</v>
       </c>
       <c r="B437" t="s">
         <v>4</v>
@@ -6503,12 +6503,12 @@
         <v>11</v>
       </c>
       <c r="D437" t="n">
-        <v>22.0394285714286</v>
+        <v>21.9737142857143</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" s="1" t="n">
-        <v>44590</v>
+        <v>44578</v>
       </c>
       <c r="B438" t="s">
         <v>4</v>
@@ -6517,12 +6517,12 @@
         <v>11</v>
       </c>
       <c r="D438" t="n">
-        <v>22.0402857142857</v>
+        <v>21.9737142857143</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" s="1" t="n">
-        <v>44591</v>
+        <v>44579</v>
       </c>
       <c r="B439" t="s">
         <v>4</v>
@@ -6531,12 +6531,12 @@
         <v>11</v>
       </c>
       <c r="D439" t="n">
-        <v>22.0548571428571</v>
+        <v>21.9871428571429</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" s="1" t="n">
-        <v>44592</v>
+        <v>44580</v>
       </c>
       <c r="B440" t="s">
         <v>4</v>
@@ -6545,12 +6545,12 @@
         <v>11</v>
       </c>
       <c r="D440" t="n">
-        <v>22.0548571428571</v>
+        <v>21.9871428571429</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" s="1" t="n">
-        <v>44593</v>
+        <v>44581</v>
       </c>
       <c r="B441" t="s">
         <v>4</v>
@@ -6559,12 +6559,12 @@
         <v>11</v>
       </c>
       <c r="D441" t="n">
-        <v>22.0548571428571</v>
+        <v>21.9908571428571</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" s="1" t="n">
-        <v>44594</v>
+        <v>44582</v>
       </c>
       <c r="B442" t="s">
         <v>4</v>
@@ -6573,12 +6573,12 @@
         <v>11</v>
       </c>
       <c r="D442" t="n">
-        <v>22.0748571428571</v>
+        <v>22.0005714285714</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" s="1" t="n">
-        <v>44595</v>
+        <v>44583</v>
       </c>
       <c r="B443" t="s">
         <v>4</v>
@@ -6587,194 +6587,194 @@
         <v>11</v>
       </c>
       <c r="D443" t="n">
-        <v>22.0837142857143</v>
+        <v>22.0005714285714</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" s="1" t="n">
-        <v>44562</v>
+        <v>44584</v>
       </c>
       <c r="B444" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C444" t="s">
         <v>11</v>
       </c>
       <c r="D444" t="n">
-        <v>22.96</v>
+        <v>21.9988571428571</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" s="1" t="n">
-        <v>44563</v>
+        <v>44585</v>
       </c>
       <c r="B445" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C445" t="s">
         <v>11</v>
       </c>
       <c r="D445" t="n">
-        <v>22.9595238095238</v>
+        <v>22.0045714285714</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" s="1" t="n">
-        <v>44564</v>
+        <v>44586</v>
       </c>
       <c r="B446" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C446" t="s">
         <v>11</v>
       </c>
       <c r="D446" t="n">
-        <v>22.9659523809524</v>
+        <v>22.0045714285714</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" s="1" t="n">
-        <v>44565</v>
+        <v>44587</v>
       </c>
       <c r="B447" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C447" t="s">
         <v>11</v>
       </c>
       <c r="D447" t="n">
-        <v>22.9659523809524</v>
+        <v>22.0342857142857</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" s="1" t="n">
-        <v>44566</v>
+        <v>44588</v>
       </c>
       <c r="B448" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C448" t="s">
         <v>11</v>
       </c>
       <c r="D448" t="n">
-        <v>22.967619047619</v>
+        <v>22.0474285714286</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" s="1" t="n">
-        <v>44567</v>
+        <v>44589</v>
       </c>
       <c r="B449" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C449" t="s">
         <v>11</v>
       </c>
       <c r="D449" t="n">
-        <v>22.9961904761905</v>
+        <v>22.0394285714286</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" s="1" t="n">
-        <v>44568</v>
+        <v>44590</v>
       </c>
       <c r="B450" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C450" t="s">
         <v>11</v>
       </c>
       <c r="D450" t="n">
-        <v>23.0071428571429</v>
+        <v>22.0402857142857</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" s="1" t="n">
-        <v>44569</v>
+        <v>44591</v>
       </c>
       <c r="B451" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C451" t="s">
         <v>11</v>
       </c>
       <c r="D451" t="n">
-        <v>23.0109523809524</v>
+        <v>22.0548571428571</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" s="1" t="n">
-        <v>44570</v>
+        <v>44592</v>
       </c>
       <c r="B452" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C452" t="s">
         <v>11</v>
       </c>
       <c r="D452" t="n">
-        <v>23.0119047619048</v>
+        <v>22.0548571428571</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" s="1" t="n">
-        <v>44571</v>
+        <v>44593</v>
       </c>
       <c r="B453" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C453" t="s">
         <v>11</v>
       </c>
       <c r="D453" t="n">
-        <v>23.0119047619048</v>
+        <v>22.0548571428571</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" s="1" t="n">
-        <v>44572</v>
+        <v>44594</v>
       </c>
       <c r="B454" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C454" t="s">
         <v>11</v>
       </c>
       <c r="D454" t="n">
-        <v>23.017619047619</v>
+        <v>22.0748571428571</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" s="1" t="n">
-        <v>44573</v>
+        <v>44595</v>
       </c>
       <c r="B455" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C455" t="s">
         <v>11</v>
       </c>
       <c r="D455" t="n">
-        <v>23.0330952380952</v>
+        <v>22.0837142857143</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" s="1" t="n">
-        <v>44574</v>
+        <v>44596</v>
       </c>
       <c r="B456" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C456" t="s">
         <v>11</v>
       </c>
       <c r="D456" t="n">
-        <v>23.0414285714286</v>
+        <v>22.1005714285714</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" s="1" t="n">
-        <v>44575</v>
+        <v>44562</v>
       </c>
       <c r="B457" t="s">
         <v>6</v>
@@ -6783,12 +6783,12 @@
         <v>11</v>
       </c>
       <c r="D457" t="n">
-        <v>23.0495238095238</v>
+        <v>22.96</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" s="1" t="n">
-        <v>44576</v>
+        <v>44563</v>
       </c>
       <c r="B458" t="s">
         <v>6</v>
@@ -6797,12 +6797,12 @@
         <v>11</v>
       </c>
       <c r="D458" t="n">
-        <v>23.0514285714286</v>
+        <v>22.9595238095238</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" s="1" t="n">
-        <v>44577</v>
+        <v>44564</v>
       </c>
       <c r="B459" t="s">
         <v>6</v>
@@ -6811,12 +6811,12 @@
         <v>11</v>
       </c>
       <c r="D459" t="n">
-        <v>23.0566666666667</v>
+        <v>22.9659523809524</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" s="1" t="n">
-        <v>44578</v>
+        <v>44565</v>
       </c>
       <c r="B460" t="s">
         <v>6</v>
@@ -6825,12 +6825,12 @@
         <v>11</v>
       </c>
       <c r="D460" t="n">
-        <v>23.0569047619048</v>
+        <v>22.9659523809524</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" s="1" t="n">
-        <v>44579</v>
+        <v>44566</v>
       </c>
       <c r="B461" t="s">
         <v>6</v>
@@ -6839,12 +6839,12 @@
         <v>11</v>
       </c>
       <c r="D461" t="n">
-        <v>23.0569047619048</v>
+        <v>22.967619047619</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" s="1" t="n">
-        <v>44580</v>
+        <v>44567</v>
       </c>
       <c r="B462" t="s">
         <v>6</v>
@@ -6853,12 +6853,12 @@
         <v>11</v>
       </c>
       <c r="D462" t="n">
-        <v>23.047380952381</v>
+        <v>22.9961904761905</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" s="1" t="n">
-        <v>44581</v>
+        <v>44568</v>
       </c>
       <c r="B463" t="s">
         <v>6</v>
@@ -6867,12 +6867,12 @@
         <v>11</v>
       </c>
       <c r="D463" t="n">
-        <v>23.0485714285714</v>
+        <v>23.0071428571429</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" s="1" t="n">
-        <v>44582</v>
+        <v>44569</v>
       </c>
       <c r="B464" t="s">
         <v>6</v>
@@ -6881,12 +6881,12 @@
         <v>11</v>
       </c>
       <c r="D464" t="n">
-        <v>23.0492857142857</v>
+        <v>23.0109523809524</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" s="1" t="n">
-        <v>44583</v>
+        <v>44570</v>
       </c>
       <c r="B465" t="s">
         <v>6</v>
@@ -6895,12 +6895,12 @@
         <v>11</v>
       </c>
       <c r="D465" t="n">
-        <v>23.0545238095238</v>
+        <v>23.0119047619048</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" s="1" t="n">
-        <v>44584</v>
+        <v>44571</v>
       </c>
       <c r="B466" t="s">
         <v>6</v>
@@ -6909,12 +6909,12 @@
         <v>11</v>
       </c>
       <c r="D466" t="n">
-        <v>23.0545238095238</v>
+        <v>23.0119047619048</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" s="1" t="n">
-        <v>44585</v>
+        <v>44572</v>
       </c>
       <c r="B467" t="s">
         <v>6</v>
@@ -6923,12 +6923,12 @@
         <v>11</v>
       </c>
       <c r="D467" t="n">
-        <v>23.057380952381</v>
+        <v>23.017619047619</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" s="1" t="n">
-        <v>44586</v>
+        <v>44573</v>
       </c>
       <c r="B468" t="s">
         <v>6</v>
@@ -6937,12 +6937,12 @@
         <v>11</v>
       </c>
       <c r="D468" t="n">
-        <v>23.057380952381</v>
+        <v>23.0330952380952</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" s="1" t="n">
-        <v>44587</v>
+        <v>44574</v>
       </c>
       <c r="B469" t="s">
         <v>6</v>
@@ -6951,12 +6951,12 @@
         <v>11</v>
       </c>
       <c r="D469" t="n">
-        <v>23.0678571428571</v>
+        <v>23.0414285714286</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" s="1" t="n">
-        <v>44588</v>
+        <v>44575</v>
       </c>
       <c r="B470" t="s">
         <v>6</v>
@@ -6965,12 +6965,12 @@
         <v>11</v>
       </c>
       <c r="D470" t="n">
-        <v>23.0754761904762</v>
+        <v>23.0495238095238</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" s="1" t="n">
-        <v>44589</v>
+        <v>44576</v>
       </c>
       <c r="B471" t="s">
         <v>6</v>
@@ -6979,12 +6979,12 @@
         <v>11</v>
       </c>
       <c r="D471" t="n">
-        <v>23.0414285714286</v>
+        <v>23.0514285714286</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" s="1" t="n">
-        <v>44590</v>
+        <v>44577</v>
       </c>
       <c r="B472" t="s">
         <v>6</v>
@@ -6993,12 +6993,12 @@
         <v>11</v>
       </c>
       <c r="D472" t="n">
-        <v>23.0947619047619</v>
+        <v>23.0566666666667</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" s="1" t="n">
-        <v>44591</v>
+        <v>44578</v>
       </c>
       <c r="B473" t="s">
         <v>6</v>
@@ -7007,12 +7007,12 @@
         <v>11</v>
       </c>
       <c r="D473" t="n">
-        <v>23.1142857142857</v>
+        <v>23.0569047619048</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" s="1" t="n">
-        <v>44592</v>
+        <v>44579</v>
       </c>
       <c r="B474" t="s">
         <v>6</v>
@@ -7021,12 +7021,12 @@
         <v>11</v>
       </c>
       <c r="D474" t="n">
-        <v>23.1142857142857</v>
+        <v>23.0569047619048</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" s="1" t="n">
-        <v>44593</v>
+        <v>44580</v>
       </c>
       <c r="B475" t="s">
         <v>6</v>
@@ -7035,12 +7035,12 @@
         <v>11</v>
       </c>
       <c r="D475" t="n">
-        <v>23.1228571428571</v>
+        <v>23.047380952381</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" s="1" t="n">
-        <v>44594</v>
+        <v>44581</v>
       </c>
       <c r="B476" t="s">
         <v>6</v>
@@ -7049,12 +7049,12 @@
         <v>11</v>
       </c>
       <c r="D476" t="n">
-        <v>23.1252380952381</v>
+        <v>23.0485714285714</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" s="1" t="n">
-        <v>44595</v>
+        <v>44582</v>
       </c>
       <c r="B477" t="s">
         <v>6</v>
@@ -7063,208 +7063,208 @@
         <v>11</v>
       </c>
       <c r="D477" t="n">
-        <v>23.1309523809524</v>
+        <v>23.0492857142857</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" s="1" t="n">
-        <v>44562</v>
+        <v>44583</v>
       </c>
       <c r="B478" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C478" t="s">
         <v>11</v>
       </c>
       <c r="D478" t="n">
-        <v>20.9079069767442</v>
+        <v>23.0545238095238</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" s="1" t="n">
-        <v>44563</v>
+        <v>44584</v>
       </c>
       <c r="B479" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C479" t="s">
         <v>11</v>
       </c>
       <c r="D479" t="n">
-        <v>20.9072093023256</v>
+        <v>23.0545238095238</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" s="1" t="n">
-        <v>44564</v>
+        <v>44585</v>
       </c>
       <c r="B480" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C480" t="s">
         <v>11</v>
       </c>
       <c r="D480" t="n">
-        <v>20.913488372093</v>
+        <v>23.057380952381</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" s="1" t="n">
-        <v>44565</v>
+        <v>44586</v>
       </c>
       <c r="B481" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C481" t="s">
         <v>11</v>
       </c>
       <c r="D481" t="n">
-        <v>20.913488372093</v>
+        <v>23.057380952381</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" s="1" t="n">
-        <v>44566</v>
+        <v>44587</v>
       </c>
       <c r="B482" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C482" t="s">
         <v>11</v>
       </c>
       <c r="D482" t="n">
-        <v>20.9390697674419</v>
+        <v>23.0678571428571</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" s="1" t="n">
-        <v>44567</v>
+        <v>44588</v>
       </c>
       <c r="B483" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C483" t="s">
         <v>11</v>
       </c>
       <c r="D483" t="n">
-        <v>20.9458139534884</v>
+        <v>23.0754761904762</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" s="1" t="n">
-        <v>44568</v>
+        <v>44589</v>
       </c>
       <c r="B484" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C484" t="s">
         <v>11</v>
       </c>
       <c r="D484" t="n">
-        <v>20.9586046511628</v>
+        <v>23.0414285714286</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" s="1" t="n">
-        <v>44569</v>
+        <v>44590</v>
       </c>
       <c r="B485" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C485" t="s">
         <v>11</v>
       </c>
       <c r="D485" t="n">
-        <v>20.9688372093023</v>
+        <v>23.0947619047619</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" s="1" t="n">
-        <v>44570</v>
+        <v>44591</v>
       </c>
       <c r="B486" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C486" t="s">
         <v>11</v>
       </c>
       <c r="D486" t="n">
-        <v>20.9316279069767</v>
+        <v>23.1142857142857</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" s="1" t="n">
-        <v>44571</v>
+        <v>44592</v>
       </c>
       <c r="B487" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C487" t="s">
         <v>11</v>
       </c>
       <c r="D487" t="n">
-        <v>20.9239534883721</v>
+        <v>23.1142857142857</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" s="1" t="n">
-        <v>44572</v>
+        <v>44593</v>
       </c>
       <c r="B488" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C488" t="s">
         <v>11</v>
       </c>
       <c r="D488" t="n">
-        <v>20.9004651162791</v>
+        <v>23.1228571428571</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" s="1" t="n">
-        <v>44573</v>
+        <v>44594</v>
       </c>
       <c r="B489" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C489" t="s">
         <v>11</v>
       </c>
       <c r="D489" t="n">
-        <v>20.8746511627907</v>
+        <v>23.1252380952381</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" s="1" t="n">
-        <v>44574</v>
+        <v>44595</v>
       </c>
       <c r="B490" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C490" t="s">
         <v>11</v>
       </c>
       <c r="D490" t="n">
-        <v>20.863023255814</v>
+        <v>23.1309523809524</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" s="1" t="n">
-        <v>44575</v>
+        <v>44596</v>
       </c>
       <c r="B491" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C491" t="s">
         <v>11</v>
       </c>
       <c r="D491" t="n">
-        <v>20.873023255814</v>
+        <v>23.1357142857143</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" s="1" t="n">
-        <v>44576</v>
+        <v>44562</v>
       </c>
       <c r="B492" t="s">
         <v>7</v>
@@ -7273,12 +7273,12 @@
         <v>11</v>
       </c>
       <c r="D492" t="n">
-        <v>20.893488372093</v>
+        <v>20.9079069767442</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" s="1" t="n">
-        <v>44577</v>
+        <v>44563</v>
       </c>
       <c r="B493" t="s">
         <v>7</v>
@@ -7287,12 +7287,12 @@
         <v>11</v>
       </c>
       <c r="D493" t="n">
-        <v>20.9213953488372</v>
+        <v>20.9072093023256</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" s="1" t="n">
-        <v>44578</v>
+        <v>44564</v>
       </c>
       <c r="B494" t="s">
         <v>7</v>
@@ -7301,12 +7301,12 @@
         <v>11</v>
       </c>
       <c r="D494" t="n">
-        <v>20.9220930232558</v>
+        <v>20.913488372093</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" s="1" t="n">
-        <v>44579</v>
+        <v>44565</v>
       </c>
       <c r="B495" t="s">
         <v>7</v>
@@ -7315,12 +7315,12 @@
         <v>11</v>
       </c>
       <c r="D495" t="n">
-        <v>20.9290697674419</v>
+        <v>20.913488372093</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" s="1" t="n">
-        <v>44580</v>
+        <v>44566</v>
       </c>
       <c r="B496" t="s">
         <v>7</v>
@@ -7329,12 +7329,12 @@
         <v>11</v>
       </c>
       <c r="D496" t="n">
-        <v>20.9290697674419</v>
+        <v>20.9390697674419</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" s="1" t="n">
-        <v>44581</v>
+        <v>44567</v>
       </c>
       <c r="B497" t="s">
         <v>7</v>
@@ -7343,12 +7343,12 @@
         <v>11</v>
       </c>
       <c r="D497" t="n">
-        <v>20.9325581395349</v>
+        <v>20.9458139534884</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" s="1" t="n">
-        <v>44582</v>
+        <v>44568</v>
       </c>
       <c r="B498" t="s">
         <v>7</v>
@@ -7357,12 +7357,12 @@
         <v>11</v>
       </c>
       <c r="D498" t="n">
-        <v>20.9451162790698</v>
+        <v>20.9586046511628</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" s="1" t="n">
-        <v>44583</v>
+        <v>44569</v>
       </c>
       <c r="B499" t="s">
         <v>7</v>
@@ -7371,12 +7371,12 @@
         <v>11</v>
       </c>
       <c r="D499" t="n">
-        <v>20.9462790697674</v>
+        <v>20.9688372093023</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" s="1" t="n">
-        <v>44584</v>
+        <v>44570</v>
       </c>
       <c r="B500" t="s">
         <v>7</v>
@@ -7385,12 +7385,12 @@
         <v>11</v>
       </c>
       <c r="D500" t="n">
-        <v>20.9420930232558</v>
+        <v>20.9316279069767</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" s="1" t="n">
-        <v>44585</v>
+        <v>44571</v>
       </c>
       <c r="B501" t="s">
         <v>7</v>
@@ -7399,12 +7399,12 @@
         <v>11</v>
       </c>
       <c r="D501" t="n">
-        <v>20.9453488372093</v>
+        <v>20.9239534883721</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" s="1" t="n">
-        <v>44586</v>
+        <v>44572</v>
       </c>
       <c r="B502" t="s">
         <v>7</v>
@@ -7413,12 +7413,12 @@
         <v>11</v>
       </c>
       <c r="D502" t="n">
-        <v>20.9523255813953</v>
+        <v>20.9004651162791</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" s="1" t="n">
-        <v>44587</v>
+        <v>44573</v>
       </c>
       <c r="B503" t="s">
         <v>7</v>
@@ -7427,12 +7427,12 @@
         <v>11</v>
       </c>
       <c r="D503" t="n">
-        <v>20.956976744186</v>
+        <v>20.8746511627907</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" s="1" t="n">
-        <v>44588</v>
+        <v>44574</v>
       </c>
       <c r="B504" t="s">
         <v>7</v>
@@ -7441,12 +7441,12 @@
         <v>11</v>
       </c>
       <c r="D504" t="n">
-        <v>20.9588372093023</v>
+        <v>20.863023255814</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" s="1" t="n">
-        <v>44589</v>
+        <v>44575</v>
       </c>
       <c r="B505" t="s">
         <v>7</v>
@@ -7455,12 +7455,12 @@
         <v>11</v>
       </c>
       <c r="D505" t="n">
-        <v>20.9574418604651</v>
+        <v>20.873023255814</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" s="1" t="n">
-        <v>44590</v>
+        <v>44576</v>
       </c>
       <c r="B506" t="s">
         <v>7</v>
@@ -7469,12 +7469,12 @@
         <v>11</v>
       </c>
       <c r="D506" t="n">
-        <v>20.9697674418605</v>
+        <v>20.893488372093</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" s="1" t="n">
-        <v>44591</v>
+        <v>44577</v>
       </c>
       <c r="B507" t="s">
         <v>7</v>
@@ -7483,12 +7483,12 @@
         <v>11</v>
       </c>
       <c r="D507" t="n">
-        <v>20.9786046511628</v>
+        <v>20.9213953488372</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" s="1" t="n">
-        <v>44592</v>
+        <v>44578</v>
       </c>
       <c r="B508" t="s">
         <v>7</v>
@@ -7497,12 +7497,12 @@
         <v>11</v>
       </c>
       <c r="D508" t="n">
-        <v>20.9806976744186</v>
+        <v>20.9220930232558</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" s="1" t="n">
-        <v>44593</v>
+        <v>44579</v>
       </c>
       <c r="B509" t="s">
         <v>7</v>
@@ -7511,12 +7511,12 @@
         <v>11</v>
       </c>
       <c r="D509" t="n">
-        <v>20.9748837209302</v>
+        <v>20.9290697674419</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" s="1" t="n">
-        <v>44594</v>
+        <v>44580</v>
       </c>
       <c r="B510" t="s">
         <v>7</v>
@@ -7525,12 +7525,12 @@
         <v>11</v>
       </c>
       <c r="D510" t="n">
-        <v>20.9748837209302</v>
+        <v>20.9290697674419</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" s="1" t="n">
-        <v>44595</v>
+        <v>44581</v>
       </c>
       <c r="B511" t="s">
         <v>7</v>
@@ -7539,222 +7539,222 @@
         <v>11</v>
       </c>
       <c r="D511" t="n">
-        <v>20.9827906976744</v>
+        <v>20.9325581395349</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" s="1" t="n">
-        <v>44562</v>
+        <v>44582</v>
       </c>
       <c r="B512" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C512" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D512" t="n">
-        <v>21.8206896551724</v>
+        <v>20.9451162790698</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" s="1" t="n">
-        <v>44563</v>
+        <v>44583</v>
       </c>
       <c r="B513" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C513" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D513" t="n">
-        <v>21.8365517241379</v>
+        <v>20.9462790697674</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" s="1" t="n">
-        <v>44564</v>
+        <v>44584</v>
       </c>
       <c r="B514" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C514" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D514" t="n">
-        <v>21.8370689655172</v>
+        <v>20.9420930232558</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" s="1" t="n">
-        <v>44565</v>
+        <v>44585</v>
       </c>
       <c r="B515" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C515" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D515" t="n">
-        <v>21.8451724137931</v>
+        <v>20.9453488372093</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" s="1" t="n">
-        <v>44566</v>
+        <v>44586</v>
       </c>
       <c r="B516" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C516" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D516" t="n">
-        <v>21.8486206896552</v>
+        <v>20.9523255813953</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" s="1" t="n">
-        <v>44567</v>
+        <v>44587</v>
       </c>
       <c r="B517" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C517" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D517" t="n">
-        <v>21.8558620689655</v>
+        <v>20.956976744186</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" s="1" t="n">
-        <v>44568</v>
+        <v>44588</v>
       </c>
       <c r="B518" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C518" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D518" t="n">
-        <v>21.8655172413793</v>
+        <v>20.9588372093023</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" s="1" t="n">
-        <v>44569</v>
+        <v>44589</v>
       </c>
       <c r="B519" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C519" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D519" t="n">
-        <v>21.8781034482759</v>
+        <v>20.9574418604651</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" s="1" t="n">
-        <v>44570</v>
+        <v>44590</v>
       </c>
       <c r="B520" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C520" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D520" t="n">
-        <v>21.8918965517241</v>
+        <v>20.9697674418605</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" s="1" t="n">
-        <v>44571</v>
+        <v>44591</v>
       </c>
       <c r="B521" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C521" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D521" t="n">
-        <v>21.8918965517241</v>
+        <v>20.9786046511628</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" s="1" t="n">
-        <v>44572</v>
+        <v>44592</v>
       </c>
       <c r="B522" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C522" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D522" t="n">
-        <v>21.8918965517241</v>
+        <v>20.9806976744186</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" s="1" t="n">
-        <v>44573</v>
+        <v>44593</v>
       </c>
       <c r="B523" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C523" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D523" t="n">
-        <v>21.8948275862069</v>
+        <v>20.9748837209302</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" s="1" t="n">
-        <v>44574</v>
+        <v>44594</v>
       </c>
       <c r="B524" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C524" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D524" t="n">
-        <v>21.9013793103448</v>
+        <v>20.9748837209302</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" s="1" t="n">
-        <v>44575</v>
+        <v>44595</v>
       </c>
       <c r="B525" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C525" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D525" t="n">
-        <v>21.9348275862069</v>
+        <v>20.9827906976744</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" s="1" t="n">
-        <v>44576</v>
+        <v>44596</v>
       </c>
       <c r="B526" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C526" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D526" t="n">
-        <v>21.9508620689655</v>
+        <v>20.9897674418605</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" s="1" t="n">
-        <v>44577</v>
+        <v>44562</v>
       </c>
       <c r="B527" t="s">
         <v>4</v>
@@ -7763,12 +7763,12 @@
         <v>12</v>
       </c>
       <c r="D527" t="n">
-        <v>21.9594827586207</v>
+        <v>21.8206896551724</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" s="1" t="n">
-        <v>44578</v>
+        <v>44563</v>
       </c>
       <c r="B528" t="s">
         <v>4</v>
@@ -7777,12 +7777,12 @@
         <v>12</v>
       </c>
       <c r="D528" t="n">
-        <v>21.9629310344828</v>
+        <v>21.8365517241379</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" s="1" t="n">
-        <v>44579</v>
+        <v>44564</v>
       </c>
       <c r="B529" t="s">
         <v>4</v>
@@ -7791,12 +7791,12 @@
         <v>12</v>
       </c>
       <c r="D529" t="n">
-        <v>21.9801724137931</v>
+        <v>21.8370689655172</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" s="1" t="n">
-        <v>44580</v>
+        <v>44565</v>
       </c>
       <c r="B530" t="s">
         <v>4</v>
@@ -7805,12 +7805,12 @@
         <v>12</v>
       </c>
       <c r="D530" t="n">
-        <v>22.0012068965517</v>
+        <v>21.8451724137931</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" s="1" t="n">
-        <v>44581</v>
+        <v>44566</v>
       </c>
       <c r="B531" t="s">
         <v>4</v>
@@ -7819,12 +7819,12 @@
         <v>12</v>
       </c>
       <c r="D531" t="n">
-        <v>22.0122413793103</v>
+        <v>21.8486206896552</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" s="1" t="n">
-        <v>44582</v>
+        <v>44567</v>
       </c>
       <c r="B532" t="s">
         <v>4</v>
@@ -7833,12 +7833,12 @@
         <v>12</v>
       </c>
       <c r="D532" t="n">
-        <v>22.0229310344828</v>
+        <v>21.8558620689655</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" s="1" t="n">
-        <v>44583</v>
+        <v>44568</v>
       </c>
       <c r="B533" t="s">
         <v>4</v>
@@ -7847,12 +7847,12 @@
         <v>12</v>
       </c>
       <c r="D533" t="n">
-        <v>22.0279310344828</v>
+        <v>21.8655172413793</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" s="1" t="n">
-        <v>44584</v>
+        <v>44569</v>
       </c>
       <c r="B534" t="s">
         <v>4</v>
@@ -7861,12 +7861,12 @@
         <v>12</v>
       </c>
       <c r="D534" t="n">
-        <v>22.0289655172414</v>
+        <v>21.8781034482759</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="1" t="n">
-        <v>44585</v>
+        <v>44570</v>
       </c>
       <c r="B535" t="s">
         <v>4</v>
@@ -7875,12 +7875,12 @@
         <v>12</v>
       </c>
       <c r="D535" t="n">
-        <v>22.0289655172414</v>
+        <v>21.8918965517241</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="1" t="n">
-        <v>44586</v>
+        <v>44571</v>
       </c>
       <c r="B536" t="s">
         <v>4</v>
@@ -7889,12 +7889,12 @@
         <v>12</v>
       </c>
       <c r="D536" t="n">
-        <v>22.0289655172414</v>
+        <v>21.8918965517241</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" s="1" t="n">
-        <v>44587</v>
+        <v>44572</v>
       </c>
       <c r="B537" t="s">
         <v>4</v>
@@ -7903,12 +7903,12 @@
         <v>12</v>
       </c>
       <c r="D537" t="n">
-        <v>22.0539655172414</v>
+        <v>21.8918965517241</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" s="1" t="n">
-        <v>44588</v>
+        <v>44573</v>
       </c>
       <c r="B538" t="s">
         <v>4</v>
@@ -7917,12 +7917,12 @@
         <v>12</v>
       </c>
       <c r="D538" t="n">
-        <v>22.0541379310345</v>
+        <v>21.8948275862069</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="1" t="n">
-        <v>44589</v>
+        <v>44574</v>
       </c>
       <c r="B539" t="s">
         <v>4</v>
@@ -7931,12 +7931,12 @@
         <v>12</v>
       </c>
       <c r="D539" t="n">
-        <v>22.061724137931</v>
+        <v>21.9013793103448</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="1" t="n">
-        <v>44590</v>
+        <v>44575</v>
       </c>
       <c r="B540" t="s">
         <v>4</v>
@@ -7945,12 +7945,12 @@
         <v>12</v>
       </c>
       <c r="D540" t="n">
-        <v>22.0710344827586</v>
+        <v>21.9348275862069</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="1" t="n">
-        <v>44591</v>
+        <v>44576</v>
       </c>
       <c r="B541" t="s">
         <v>4</v>
@@ -7959,12 +7959,12 @@
         <v>12</v>
       </c>
       <c r="D541" t="n">
-        <v>22.0762068965517</v>
+        <v>21.9508620689655</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" s="1" t="n">
-        <v>44592</v>
+        <v>44577</v>
       </c>
       <c r="B542" t="s">
         <v>4</v>
@@ -7973,12 +7973,12 @@
         <v>12</v>
       </c>
       <c r="D542" t="n">
-        <v>22.0744827586207</v>
+        <v>21.9594827586207</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" s="1" t="n">
-        <v>44593</v>
+        <v>44578</v>
       </c>
       <c r="B543" t="s">
         <v>4</v>
@@ -7987,12 +7987,12 @@
         <v>12</v>
       </c>
       <c r="D543" t="n">
-        <v>22.0744827586207</v>
+        <v>21.9629310344828</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" s="1" t="n">
-        <v>44594</v>
+        <v>44579</v>
       </c>
       <c r="B544" t="s">
         <v>4</v>
@@ -8001,12 +8001,12 @@
         <v>12</v>
       </c>
       <c r="D544" t="n">
-        <v>22.1041379310345</v>
+        <v>21.9801724137931</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="1" t="n">
-        <v>44595</v>
+        <v>44580</v>
       </c>
       <c r="B545" t="s">
         <v>4</v>
@@ -8015,236 +8015,236 @@
         <v>12</v>
       </c>
       <c r="D545" t="n">
-        <v>22.1155172413793</v>
+        <v>22.0012068965517</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="1" t="n">
-        <v>44562</v>
+        <v>44581</v>
       </c>
       <c r="B546" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C546" t="s">
         <v>12</v>
       </c>
       <c r="D546" t="n">
-        <v>23.1925225225225</v>
+        <v>22.0122413793103</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="1" t="n">
-        <v>44563</v>
+        <v>44582</v>
       </c>
       <c r="B547" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C547" t="s">
         <v>12</v>
       </c>
       <c r="D547" t="n">
-        <v>23.2095495495495</v>
+        <v>22.0229310344828</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" s="1" t="n">
-        <v>44564</v>
+        <v>44583</v>
       </c>
       <c r="B548" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C548" t="s">
         <v>12</v>
       </c>
       <c r="D548" t="n">
-        <v>23.2102702702703</v>
+        <v>22.0279310344828</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="1" t="n">
-        <v>44565</v>
+        <v>44584</v>
       </c>
       <c r="B549" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C549" t="s">
         <v>12</v>
       </c>
       <c r="D549" t="n">
-        <v>23.2326126126126</v>
+        <v>22.0289655172414</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="1" t="n">
-        <v>44566</v>
+        <v>44585</v>
       </c>
       <c r="B550" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C550" t="s">
         <v>12</v>
       </c>
       <c r="D550" t="n">
-        <v>23.2481081081081</v>
+        <v>22.0289655172414</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="1" t="n">
-        <v>44567</v>
+        <v>44586</v>
       </c>
       <c r="B551" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C551" t="s">
         <v>12</v>
       </c>
       <c r="D551" t="n">
-        <v>23.2995495495495</v>
+        <v>22.0289655172414</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="1" t="n">
-        <v>44568</v>
+        <v>44587</v>
       </c>
       <c r="B552" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C552" t="s">
         <v>12</v>
       </c>
       <c r="D552" t="n">
-        <v>23.3083783783784</v>
+        <v>22.0539655172414</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="1" t="n">
-        <v>44569</v>
+        <v>44588</v>
       </c>
       <c r="B553" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C553" t="s">
         <v>12</v>
       </c>
       <c r="D553" t="n">
-        <v>23.3227927927928</v>
+        <v>22.0541379310345</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="1" t="n">
-        <v>44570</v>
+        <v>44589</v>
       </c>
       <c r="B554" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C554" t="s">
         <v>12</v>
       </c>
       <c r="D554" t="n">
-        <v>23.3292792792793</v>
+        <v>22.061724137931</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="1" t="n">
-        <v>44571</v>
+        <v>44590</v>
       </c>
       <c r="B555" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C555" t="s">
         <v>12</v>
       </c>
       <c r="D555" t="n">
-        <v>23.3373873873874</v>
+        <v>22.0710344827586</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="1" t="n">
-        <v>44572</v>
+        <v>44591</v>
       </c>
       <c r="B556" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C556" t="s">
         <v>12</v>
       </c>
       <c r="D556" t="n">
-        <v>23.3382882882883</v>
+        <v>22.0762068965517</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="1" t="n">
-        <v>44573</v>
+        <v>44592</v>
       </c>
       <c r="B557" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C557" t="s">
         <v>12</v>
       </c>
       <c r="D557" t="n">
-        <v>23.3463963963964</v>
+        <v>22.0744827586207</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="1" t="n">
-        <v>44574</v>
+        <v>44593</v>
       </c>
       <c r="B558" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C558" t="s">
         <v>12</v>
       </c>
       <c r="D558" t="n">
-        <v>23.350990990991</v>
+        <v>22.0744827586207</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="1" t="n">
-        <v>44575</v>
+        <v>44594</v>
       </c>
       <c r="B559" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C559" t="s">
         <v>12</v>
       </c>
       <c r="D559" t="n">
-        <v>23.37</v>
+        <v>22.1041379310345</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="1" t="n">
-        <v>44576</v>
+        <v>44595</v>
       </c>
       <c r="B560" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C560" t="s">
         <v>12</v>
       </c>
       <c r="D560" t="n">
-        <v>23.4382882882883</v>
+        <v>22.1155172413793</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="1" t="n">
-        <v>44577</v>
+        <v>44596</v>
       </c>
       <c r="B561" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C561" t="s">
         <v>12</v>
       </c>
       <c r="D561" t="n">
-        <v>23.4328828828829</v>
+        <v>22.1189655172414</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="1" t="n">
-        <v>44578</v>
+        <v>44562</v>
       </c>
       <c r="B562" t="s">
         <v>6</v>
@@ -8253,12 +8253,12 @@
         <v>12</v>
       </c>
       <c r="D562" t="n">
-        <v>23.4333333333333</v>
+        <v>23.1925225225225</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" s="1" t="n">
-        <v>44579</v>
+        <v>44563</v>
       </c>
       <c r="B563" t="s">
         <v>6</v>
@@ -8267,12 +8267,12 @@
         <v>12</v>
       </c>
       <c r="D563" t="n">
-        <v>23.4362162162162</v>
+        <v>23.2095495495495</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" s="1" t="n">
-        <v>44580</v>
+        <v>44564</v>
       </c>
       <c r="B564" t="s">
         <v>6</v>
@@ -8281,12 +8281,12 @@
         <v>12</v>
       </c>
       <c r="D564" t="n">
-        <v>23.4383783783784</v>
+        <v>23.2102702702703</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" s="1" t="n">
-        <v>44581</v>
+        <v>44565</v>
       </c>
       <c r="B565" t="s">
         <v>6</v>
@@ -8295,12 +8295,12 @@
         <v>12</v>
       </c>
       <c r="D565" t="n">
-        <v>23.3811711711712</v>
+        <v>23.2326126126126</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" s="1" t="n">
-        <v>44582</v>
+        <v>44566</v>
       </c>
       <c r="B566" t="s">
         <v>6</v>
@@ -8309,12 +8309,12 @@
         <v>12</v>
       </c>
       <c r="D566" t="n">
-        <v>23.3984684684685</v>
+        <v>23.2481081081081</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" s="1" t="n">
-        <v>44583</v>
+        <v>44567</v>
       </c>
       <c r="B567" t="s">
         <v>6</v>
@@ -8323,12 +8323,12 @@
         <v>12</v>
       </c>
       <c r="D567" t="n">
-        <v>23.4007207207207</v>
+        <v>23.2995495495495</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" s="1" t="n">
-        <v>44584</v>
+        <v>44568</v>
       </c>
       <c r="B568" t="s">
         <v>6</v>
@@ -8337,12 +8337,12 @@
         <v>12</v>
       </c>
       <c r="D568" t="n">
-        <v>23.4044144144144</v>
+        <v>23.3083783783784</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" s="1" t="n">
-        <v>44585</v>
+        <v>44569</v>
       </c>
       <c r="B569" t="s">
         <v>6</v>
@@ -8351,12 +8351,12 @@
         <v>12</v>
       </c>
       <c r="D569" t="n">
-        <v>23.4062162162162</v>
+        <v>23.3227927927928</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" s="1" t="n">
-        <v>44586</v>
+        <v>44570</v>
       </c>
       <c r="B570" t="s">
         <v>6</v>
@@ -8365,12 +8365,12 @@
         <v>12</v>
       </c>
       <c r="D570" t="n">
-        <v>23.4253153153153</v>
+        <v>23.3292792792793</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" s="1" t="n">
-        <v>44587</v>
+        <v>44571</v>
       </c>
       <c r="B571" t="s">
         <v>6</v>
@@ -8379,12 +8379,12 @@
         <v>12</v>
       </c>
       <c r="D571" t="n">
-        <v>23.4313513513514</v>
+        <v>23.3373873873874</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" s="1" t="n">
-        <v>44588</v>
+        <v>44572</v>
       </c>
       <c r="B572" t="s">
         <v>6</v>
@@ -8393,12 +8393,12 @@
         <v>12</v>
       </c>
       <c r="D572" t="n">
-        <v>23.4363063063063</v>
+        <v>23.3382882882883</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" s="1" t="n">
-        <v>44589</v>
+        <v>44573</v>
       </c>
       <c r="B573" t="s">
         <v>6</v>
@@ -8407,12 +8407,12 @@
         <v>12</v>
       </c>
       <c r="D573" t="n">
-        <v>23.4356756756757</v>
+        <v>23.3463963963964</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" s="1" t="n">
-        <v>44590</v>
+        <v>44574</v>
       </c>
       <c r="B574" t="s">
         <v>6</v>
@@ -8421,12 +8421,12 @@
         <v>12</v>
       </c>
       <c r="D574" t="n">
-        <v>23.4473873873874</v>
+        <v>23.350990990991</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" s="1" t="n">
-        <v>44591</v>
+        <v>44575</v>
       </c>
       <c r="B575" t="s">
         <v>6</v>
@@ -8435,12 +8435,12 @@
         <v>12</v>
       </c>
       <c r="D575" t="n">
-        <v>23.4496396396396</v>
+        <v>23.37</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" s="1" t="n">
-        <v>44592</v>
+        <v>44576</v>
       </c>
       <c r="B576" t="s">
         <v>6</v>
@@ -8449,12 +8449,12 @@
         <v>12</v>
       </c>
       <c r="D576" t="n">
-        <v>23.4487387387387</v>
+        <v>23.4382882882883</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" s="1" t="n">
-        <v>44593</v>
+        <v>44577</v>
       </c>
       <c r="B577" t="s">
         <v>6</v>
@@ -8463,12 +8463,12 @@
         <v>12</v>
       </c>
       <c r="D577" t="n">
-        <v>23.4493693693694</v>
+        <v>23.4328828828829</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" s="1" t="n">
-        <v>44594</v>
+        <v>44578</v>
       </c>
       <c r="B578" t="s">
         <v>6</v>
@@ -8477,12 +8477,12 @@
         <v>12</v>
       </c>
       <c r="D578" t="n">
-        <v>23.4601801801802</v>
+        <v>23.4333333333333</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" s="1" t="n">
-        <v>44595</v>
+        <v>44579</v>
       </c>
       <c r="B579" t="s">
         <v>6</v>
@@ -8491,250 +8491,250 @@
         <v>12</v>
       </c>
       <c r="D579" t="n">
-        <v>23.4700900900901</v>
+        <v>23.4362162162162</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" s="1" t="n">
-        <v>44562</v>
+        <v>44580</v>
       </c>
       <c r="B580" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C580" t="s">
         <v>12</v>
       </c>
       <c r="D580" t="n">
-        <v>21.0064864864865</v>
+        <v>23.4383783783784</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" s="1" t="n">
-        <v>44563</v>
+        <v>44581</v>
       </c>
       <c r="B581" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C581" t="s">
         <v>12</v>
       </c>
       <c r="D581" t="n">
-        <v>21.0158558558559</v>
+        <v>23.3811711711712</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" s="1" t="n">
-        <v>44564</v>
+        <v>44582</v>
       </c>
       <c r="B582" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C582" t="s">
         <v>12</v>
       </c>
       <c r="D582" t="n">
-        <v>21.0141441441441</v>
+        <v>23.3984684684685</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" s="1" t="n">
-        <v>44565</v>
+        <v>44583</v>
       </c>
       <c r="B583" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C583" t="s">
         <v>12</v>
       </c>
       <c r="D583" t="n">
-        <v>21.027027027027</v>
+        <v>23.4007207207207</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" s="1" t="n">
-        <v>44566</v>
+        <v>44584</v>
       </c>
       <c r="B584" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C584" t="s">
         <v>12</v>
       </c>
       <c r="D584" t="n">
-        <v>21.0442342342342</v>
+        <v>23.4044144144144</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" s="1" t="n">
-        <v>44567</v>
+        <v>44585</v>
       </c>
       <c r="B585" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C585" t="s">
         <v>12</v>
       </c>
       <c r="D585" t="n">
-        <v>21.1037837837838</v>
+        <v>23.4062162162162</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" s="1" t="n">
-        <v>44568</v>
+        <v>44586</v>
       </c>
       <c r="B586" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C586" t="s">
         <v>12</v>
       </c>
       <c r="D586" t="n">
-        <v>21.0835135135135</v>
+        <v>23.4253153153153</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" s="1" t="n">
-        <v>44569</v>
+        <v>44587</v>
       </c>
       <c r="B587" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C587" t="s">
         <v>12</v>
       </c>
       <c r="D587" t="n">
-        <v>21.0995495495496</v>
+        <v>23.4313513513514</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" s="1" t="n">
-        <v>44570</v>
+        <v>44588</v>
       </c>
       <c r="B588" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C588" t="s">
         <v>12</v>
       </c>
       <c r="D588" t="n">
-        <v>21.094954954955</v>
+        <v>23.4363063063063</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" s="1" t="n">
-        <v>44571</v>
+        <v>44589</v>
       </c>
       <c r="B589" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C589" t="s">
         <v>12</v>
       </c>
       <c r="D589" t="n">
-        <v>21.0977477477477</v>
+        <v>23.4356756756757</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" s="1" t="n">
-        <v>44572</v>
+        <v>44590</v>
       </c>
       <c r="B590" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C590" t="s">
         <v>12</v>
       </c>
       <c r="D590" t="n">
-        <v>21.0977477477477</v>
+        <v>23.4473873873874</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" s="1" t="n">
-        <v>44573</v>
+        <v>44591</v>
       </c>
       <c r="B591" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C591" t="s">
         <v>12</v>
       </c>
       <c r="D591" t="n">
-        <v>21.0985585585586</v>
+        <v>23.4496396396396</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" s="1" t="n">
-        <v>44574</v>
+        <v>44592</v>
       </c>
       <c r="B592" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C592" t="s">
         <v>12</v>
       </c>
       <c r="D592" t="n">
-        <v>21.0721621621622</v>
+        <v>23.4487387387387</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" s="1" t="n">
-        <v>44575</v>
+        <v>44593</v>
       </c>
       <c r="B593" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C593" t="s">
         <v>12</v>
       </c>
       <c r="D593" t="n">
-        <v>21.0942342342342</v>
+        <v>23.4493693693694</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" s="1" t="n">
-        <v>44576</v>
+        <v>44594</v>
       </c>
       <c r="B594" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C594" t="s">
         <v>12</v>
       </c>
       <c r="D594" t="n">
-        <v>21.101981981982</v>
+        <v>23.4601801801802</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" s="1" t="n">
-        <v>44577</v>
+        <v>44595</v>
       </c>
       <c r="B595" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C595" t="s">
         <v>12</v>
       </c>
       <c r="D595" t="n">
-        <v>21.0937837837838</v>
+        <v>23.4700900900901</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" s="1" t="n">
-        <v>44578</v>
+        <v>44596</v>
       </c>
       <c r="B596" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C596" t="s">
         <v>12</v>
       </c>
       <c r="D596" t="n">
-        <v>21.0848648648649</v>
+        <v>23.470990990991</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" s="1" t="n">
-        <v>44579</v>
+        <v>44562</v>
       </c>
       <c r="B597" t="s">
         <v>7</v>
@@ -8743,12 +8743,12 @@
         <v>12</v>
       </c>
       <c r="D597" t="n">
-        <v>21.0988288288288</v>
+        <v>21.0064864864865</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" s="1" t="n">
-        <v>44580</v>
+        <v>44563</v>
       </c>
       <c r="B598" t="s">
         <v>7</v>
@@ -8757,12 +8757,12 @@
         <v>12</v>
       </c>
       <c r="D598" t="n">
-        <v>21.0969369369369</v>
+        <v>21.0158558558559</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" s="1" t="n">
-        <v>44581</v>
+        <v>44564</v>
       </c>
       <c r="B599" t="s">
         <v>7</v>
@@ -8771,12 +8771,12 @@
         <v>12</v>
       </c>
       <c r="D599" t="n">
-        <v>21.1026126126126</v>
+        <v>21.0141441441441</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" s="1" t="n">
-        <v>44582</v>
+        <v>44565</v>
       </c>
       <c r="B600" t="s">
         <v>7</v>
@@ -8785,12 +8785,12 @@
         <v>12</v>
       </c>
       <c r="D600" t="n">
-        <v>21.1125225225225</v>
+        <v>21.027027027027</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" s="1" t="n">
-        <v>44583</v>
+        <v>44566</v>
       </c>
       <c r="B601" t="s">
         <v>7</v>
@@ -8799,12 +8799,12 @@
         <v>12</v>
       </c>
       <c r="D601" t="n">
-        <v>21.1110810810811</v>
+        <v>21.0442342342342</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" s="1" t="n">
-        <v>44584</v>
+        <v>44567</v>
       </c>
       <c r="B602" t="s">
         <v>7</v>
@@ -8813,12 +8813,12 @@
         <v>12</v>
       </c>
       <c r="D602" t="n">
-        <v>21.1175675675676</v>
+        <v>21.1037837837838</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" s="1" t="n">
-        <v>44585</v>
+        <v>44568</v>
       </c>
       <c r="B603" t="s">
         <v>7</v>
@@ -8827,12 +8827,12 @@
         <v>12</v>
       </c>
       <c r="D603" t="n">
-        <v>21.105045045045</v>
+        <v>21.0835135135135</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" s="1" t="n">
-        <v>44586</v>
+        <v>44569</v>
       </c>
       <c r="B604" t="s">
         <v>7</v>
@@ -8841,12 +8841,12 @@
         <v>12</v>
       </c>
       <c r="D604" t="n">
-        <v>21.1237837837838</v>
+        <v>21.0995495495496</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" s="1" t="n">
-        <v>44587</v>
+        <v>44570</v>
       </c>
       <c r="B605" t="s">
         <v>7</v>
@@ -8855,12 +8855,12 @@
         <v>12</v>
       </c>
       <c r="D605" t="n">
-        <v>21.128018018018</v>
+        <v>21.094954954955</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" s="1" t="n">
-        <v>44588</v>
+        <v>44571</v>
       </c>
       <c r="B606" t="s">
         <v>7</v>
@@ -8869,12 +8869,12 @@
         <v>12</v>
       </c>
       <c r="D606" t="n">
-        <v>21.139009009009</v>
+        <v>21.0977477477477</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" s="1" t="n">
-        <v>44589</v>
+        <v>44572</v>
       </c>
       <c r="B607" t="s">
         <v>7</v>
@@ -8883,12 +8883,12 @@
         <v>12</v>
       </c>
       <c r="D607" t="n">
-        <v>21.1357657657658</v>
+        <v>21.0977477477477</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" s="1" t="n">
-        <v>44590</v>
+        <v>44573</v>
       </c>
       <c r="B608" t="s">
         <v>7</v>
@@ -8897,12 +8897,12 @@
         <v>12</v>
       </c>
       <c r="D608" t="n">
-        <v>21.1426126126126</v>
+        <v>21.0985585585586</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" s="1" t="n">
-        <v>44591</v>
+        <v>44574</v>
       </c>
       <c r="B609" t="s">
         <v>7</v>
@@ -8911,12 +8911,12 @@
         <v>12</v>
       </c>
       <c r="D609" t="n">
-        <v>21.1431531531532</v>
+        <v>21.0721621621622</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" s="1" t="n">
-        <v>44592</v>
+        <v>44575</v>
       </c>
       <c r="B610" t="s">
         <v>7</v>
@@ -8925,12 +8925,12 @@
         <v>12</v>
       </c>
       <c r="D610" t="n">
-        <v>21.1322522522523</v>
+        <v>21.0942342342342</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" s="1" t="n">
-        <v>44593</v>
+        <v>44576</v>
       </c>
       <c r="B611" t="s">
         <v>7</v>
@@ -8939,12 +8939,12 @@
         <v>12</v>
       </c>
       <c r="D611" t="n">
-        <v>21.1448648648649</v>
+        <v>21.101981981982</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" s="1" t="n">
-        <v>44594</v>
+        <v>44577</v>
       </c>
       <c r="B612" t="s">
         <v>7</v>
@@ -8953,21 +8953,273 @@
         <v>12</v>
       </c>
       <c r="D612" t="n">
-        <v>21.1565765765766</v>
+        <v>21.0937837837838</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" s="1" t="n">
+        <v>44578</v>
+      </c>
+      <c r="B613" t="s">
+        <v>7</v>
+      </c>
+      <c r="C613" t="s">
+        <v>12</v>
+      </c>
+      <c r="D613" t="n">
+        <v>21.0848648648649</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" s="1" t="n">
+        <v>44579</v>
+      </c>
+      <c r="B614" t="s">
+        <v>7</v>
+      </c>
+      <c r="C614" t="s">
+        <v>12</v>
+      </c>
+      <c r="D614" t="n">
+        <v>21.0988288288288</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" s="1" t="n">
+        <v>44580</v>
+      </c>
+      <c r="B615" t="s">
+        <v>7</v>
+      </c>
+      <c r="C615" t="s">
+        <v>12</v>
+      </c>
+      <c r="D615" t="n">
+        <v>21.0969369369369</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" s="1" t="n">
+        <v>44581</v>
+      </c>
+      <c r="B616" t="s">
+        <v>7</v>
+      </c>
+      <c r="C616" t="s">
+        <v>12</v>
+      </c>
+      <c r="D616" t="n">
+        <v>21.1026126126126</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" s="1" t="n">
+        <v>44582</v>
+      </c>
+      <c r="B617" t="s">
+        <v>7</v>
+      </c>
+      <c r="C617" t="s">
+        <v>12</v>
+      </c>
+      <c r="D617" t="n">
+        <v>21.1125225225225</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" s="1" t="n">
+        <v>44583</v>
+      </c>
+      <c r="B618" t="s">
+        <v>7</v>
+      </c>
+      <c r="C618" t="s">
+        <v>12</v>
+      </c>
+      <c r="D618" t="n">
+        <v>21.1110810810811</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" s="1" t="n">
+        <v>44584</v>
+      </c>
+      <c r="B619" t="s">
+        <v>7</v>
+      </c>
+      <c r="C619" t="s">
+        <v>12</v>
+      </c>
+      <c r="D619" t="n">
+        <v>21.1175675675676</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" s="1" t="n">
+        <v>44585</v>
+      </c>
+      <c r="B620" t="s">
+        <v>7</v>
+      </c>
+      <c r="C620" t="s">
+        <v>12</v>
+      </c>
+      <c r="D620" t="n">
+        <v>21.105045045045</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" s="1" t="n">
+        <v>44586</v>
+      </c>
+      <c r="B621" t="s">
+        <v>7</v>
+      </c>
+      <c r="C621" t="s">
+        <v>12</v>
+      </c>
+      <c r="D621" t="n">
+        <v>21.1237837837838</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" s="1" t="n">
+        <v>44587</v>
+      </c>
+      <c r="B622" t="s">
+        <v>7</v>
+      </c>
+      <c r="C622" t="s">
+        <v>12</v>
+      </c>
+      <c r="D622" t="n">
+        <v>21.128018018018</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" s="1" t="n">
+        <v>44588</v>
+      </c>
+      <c r="B623" t="s">
+        <v>7</v>
+      </c>
+      <c r="C623" t="s">
+        <v>12</v>
+      </c>
+      <c r="D623" t="n">
+        <v>21.139009009009</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" s="1" t="n">
+        <v>44589</v>
+      </c>
+      <c r="B624" t="s">
+        <v>7</v>
+      </c>
+      <c r="C624" t="s">
+        <v>12</v>
+      </c>
+      <c r="D624" t="n">
+        <v>21.1357657657658</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" s="1" t="n">
+        <v>44590</v>
+      </c>
+      <c r="B625" t="s">
+        <v>7</v>
+      </c>
+      <c r="C625" t="s">
+        <v>12</v>
+      </c>
+      <c r="D625" t="n">
+        <v>21.1426126126126</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" s="1" t="n">
+        <v>44591</v>
+      </c>
+      <c r="B626" t="s">
+        <v>7</v>
+      </c>
+      <c r="C626" t="s">
+        <v>12</v>
+      </c>
+      <c r="D626" t="n">
+        <v>21.1431531531532</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" s="1" t="n">
+        <v>44592</v>
+      </c>
+      <c r="B627" t="s">
+        <v>7</v>
+      </c>
+      <c r="C627" t="s">
+        <v>12</v>
+      </c>
+      <c r="D627" t="n">
+        <v>21.1322522522523</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" s="1" t="n">
+        <v>44593</v>
+      </c>
+      <c r="B628" t="s">
+        <v>7</v>
+      </c>
+      <c r="C628" t="s">
+        <v>12</v>
+      </c>
+      <c r="D628" t="n">
+        <v>21.1448648648649</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" s="1" t="n">
+        <v>44594</v>
+      </c>
+      <c r="B629" t="s">
+        <v>7</v>
+      </c>
+      <c r="C629" t="s">
+        <v>12</v>
+      </c>
+      <c r="D629" t="n">
+        <v>21.1565765765766</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" s="1" t="n">
         <v>44595</v>
       </c>
-      <c r="B613" t="s">
-        <v>7</v>
-      </c>
-      <c r="C613" t="s">
-        <v>12</v>
-      </c>
-      <c r="D613" t="n">
+      <c r="B630" t="s">
+        <v>7</v>
+      </c>
+      <c r="C630" t="s">
+        <v>12</v>
+      </c>
+      <c r="D630" t="n">
         <v>21.1677477477477</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" s="1" t="n">
+        <v>44596</v>
+      </c>
+      <c r="B631" t="s">
+        <v>7</v>
+      </c>
+      <c r="C631" t="s">
+        <v>12</v>
+      </c>
+      <c r="D631" t="n">
+        <v>21.1688288288288</v>
       </c>
     </row>
   </sheetData>

--- a/GasAmg.xlsx
+++ b/GasAmg.xlsx
@@ -894,21 +894,21 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>44562</v>
+        <v>44597</v>
       </c>
       <c r="B37" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
       </c>
       <c r="D37" t="n">
-        <v>22.982</v>
+        <v>22.277619047619</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>44563</v>
+        <v>44562</v>
       </c>
       <c r="B38" t="s">
         <v>6</v>
@@ -917,12 +917,12 @@
         <v>5</v>
       </c>
       <c r="D38" t="n">
-        <v>22.9855</v>
+        <v>22.982</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>44564</v>
+        <v>44563</v>
       </c>
       <c r="B39" t="s">
         <v>6</v>
@@ -936,7 +936,7 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>44565</v>
+        <v>44564</v>
       </c>
       <c r="B40" t="s">
         <v>6</v>
@@ -945,12 +945,12 @@
         <v>5</v>
       </c>
       <c r="D40" t="n">
-        <v>23.014</v>
+        <v>22.9855</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>44566</v>
+        <v>44565</v>
       </c>
       <c r="B41" t="s">
         <v>6</v>
@@ -959,12 +959,12 @@
         <v>5</v>
       </c>
       <c r="D41" t="n">
-        <v>23.0155</v>
+        <v>23.014</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>44567</v>
+        <v>44566</v>
       </c>
       <c r="B42" t="s">
         <v>6</v>
@@ -978,7 +978,7 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>44568</v>
+        <v>44567</v>
       </c>
       <c r="B43" t="s">
         <v>6</v>
@@ -987,12 +987,12 @@
         <v>5</v>
       </c>
       <c r="D43" t="n">
-        <v>23.0355</v>
+        <v>23.0155</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>44569</v>
+        <v>44568</v>
       </c>
       <c r="B44" t="s">
         <v>6</v>
@@ -1001,12 +1001,12 @@
         <v>5</v>
       </c>
       <c r="D44" t="n">
-        <v>23.0405</v>
+        <v>23.0355</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>44570</v>
+        <v>44569</v>
       </c>
       <c r="B45" t="s">
         <v>6</v>
@@ -1015,12 +1015,12 @@
         <v>5</v>
       </c>
       <c r="D45" t="n">
-        <v>23.0515</v>
+        <v>23.0405</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>44571</v>
+        <v>44570</v>
       </c>
       <c r="B46" t="s">
         <v>6</v>
@@ -1034,7 +1034,7 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>44572</v>
+        <v>44571</v>
       </c>
       <c r="B47" t="s">
         <v>6</v>
@@ -1048,7 +1048,7 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>44573</v>
+        <v>44572</v>
       </c>
       <c r="B48" t="s">
         <v>6</v>
@@ -1057,12 +1057,12 @@
         <v>5</v>
       </c>
       <c r="D48" t="n">
-        <v>23.129</v>
+        <v>23.0515</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>44574</v>
+        <v>44573</v>
       </c>
       <c r="B49" t="s">
         <v>6</v>
@@ -1071,12 +1071,12 @@
         <v>5</v>
       </c>
       <c r="D49" t="n">
-        <v>23.137</v>
+        <v>23.129</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>44575</v>
+        <v>44574</v>
       </c>
       <c r="B50" t="s">
         <v>6</v>
@@ -1085,12 +1085,12 @@
         <v>5</v>
       </c>
       <c r="D50" t="n">
-        <v>23.1625</v>
+        <v>23.137</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>44576</v>
+        <v>44575</v>
       </c>
       <c r="B51" t="s">
         <v>6</v>
@@ -1099,12 +1099,12 @@
         <v>5</v>
       </c>
       <c r="D51" t="n">
-        <v>23.1675</v>
+        <v>23.1625</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>44577</v>
+        <v>44576</v>
       </c>
       <c r="B52" t="s">
         <v>6</v>
@@ -1118,7 +1118,7 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>44578</v>
+        <v>44577</v>
       </c>
       <c r="B53" t="s">
         <v>6</v>
@@ -1127,12 +1127,12 @@
         <v>5</v>
       </c>
       <c r="D53" t="n">
-        <v>23.182</v>
+        <v>23.1675</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>44579</v>
+        <v>44578</v>
       </c>
       <c r="B54" t="s">
         <v>6</v>
@@ -1146,7 +1146,7 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>44580</v>
+        <v>44579</v>
       </c>
       <c r="B55" t="s">
         <v>6</v>
@@ -1160,7 +1160,7 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>44581</v>
+        <v>44580</v>
       </c>
       <c r="B56" t="s">
         <v>6</v>
@@ -1169,12 +1169,12 @@
         <v>5</v>
       </c>
       <c r="D56" t="n">
-        <v>23.197</v>
+        <v>23.182</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>44582</v>
+        <v>44581</v>
       </c>
       <c r="B57" t="s">
         <v>6</v>
@@ -1183,12 +1183,12 @@
         <v>5</v>
       </c>
       <c r="D57" t="n">
-        <v>23.2085</v>
+        <v>23.197</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>44583</v>
+        <v>44582</v>
       </c>
       <c r="B58" t="s">
         <v>6</v>
@@ -1197,12 +1197,12 @@
         <v>5</v>
       </c>
       <c r="D58" t="n">
-        <v>23.2125</v>
+        <v>23.2085</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>44584</v>
+        <v>44583</v>
       </c>
       <c r="B59" t="s">
         <v>6</v>
@@ -1211,12 +1211,12 @@
         <v>5</v>
       </c>
       <c r="D59" t="n">
-        <v>23.2225</v>
+        <v>23.2125</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>44585</v>
+        <v>44584</v>
       </c>
       <c r="B60" t="s">
         <v>6</v>
@@ -1230,7 +1230,7 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>44586</v>
+        <v>44585</v>
       </c>
       <c r="B61" t="s">
         <v>6</v>
@@ -1244,7 +1244,7 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>44587</v>
+        <v>44586</v>
       </c>
       <c r="B62" t="s">
         <v>6</v>
@@ -1258,7 +1258,7 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>44588</v>
+        <v>44587</v>
       </c>
       <c r="B63" t="s">
         <v>6</v>
@@ -1272,7 +1272,7 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>44589</v>
+        <v>44588</v>
       </c>
       <c r="B64" t="s">
         <v>6</v>
@@ -1281,12 +1281,12 @@
         <v>5</v>
       </c>
       <c r="D64" t="n">
-        <v>23.2285</v>
+        <v>23.2225</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>44590</v>
+        <v>44589</v>
       </c>
       <c r="B65" t="s">
         <v>6</v>
@@ -1295,12 +1295,12 @@
         <v>5</v>
       </c>
       <c r="D65" t="n">
-        <v>23.2325</v>
+        <v>23.2285</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>44591</v>
+        <v>44590</v>
       </c>
       <c r="B66" t="s">
         <v>6</v>
@@ -1309,12 +1309,12 @@
         <v>5</v>
       </c>
       <c r="D66" t="n">
-        <v>23.247</v>
+        <v>23.2325</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>44592</v>
+        <v>44591</v>
       </c>
       <c r="B67" t="s">
         <v>6</v>
@@ -1328,7 +1328,7 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>44593</v>
+        <v>44592</v>
       </c>
       <c r="B68" t="s">
         <v>6</v>
@@ -1342,7 +1342,7 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>44594</v>
+        <v>44593</v>
       </c>
       <c r="B69" t="s">
         <v>6</v>
@@ -1356,7 +1356,7 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>44595</v>
+        <v>44594</v>
       </c>
       <c r="B70" t="s">
         <v>6</v>
@@ -1365,12 +1365,12 @@
         <v>5</v>
       </c>
       <c r="D70" t="n">
-        <v>23.2615</v>
+        <v>23.247</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>44596</v>
+        <v>44595</v>
       </c>
       <c r="B71" t="s">
         <v>6</v>
@@ -1384,35 +1384,35 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>44562</v>
+        <v>44596</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C72" t="s">
         <v>5</v>
       </c>
       <c r="D72" t="n">
-        <v>20.7971428571429</v>
+        <v>23.2615</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>44563</v>
+        <v>44597</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C73" t="s">
         <v>5</v>
       </c>
       <c r="D73" t="n">
-        <v>20.8247619047619</v>
+        <v>23.286</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>44564</v>
+        <v>44562</v>
       </c>
       <c r="B74" t="s">
         <v>7</v>
@@ -1421,12 +1421,12 @@
         <v>5</v>
       </c>
       <c r="D74" t="n">
-        <v>20.8247619047619</v>
+        <v>20.7971428571429</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>44565</v>
+        <v>44563</v>
       </c>
       <c r="B75" t="s">
         <v>7</v>
@@ -1435,12 +1435,12 @@
         <v>5</v>
       </c>
       <c r="D75" t="n">
-        <v>20.8704761904762</v>
+        <v>20.8247619047619</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>44566</v>
+        <v>44564</v>
       </c>
       <c r="B76" t="s">
         <v>7</v>
@@ -1449,12 +1449,12 @@
         <v>5</v>
       </c>
       <c r="D76" t="n">
-        <v>20.8528571428571</v>
+        <v>20.8247619047619</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>44567</v>
+        <v>44565</v>
       </c>
       <c r="B77" t="s">
         <v>7</v>
@@ -1463,12 +1463,12 @@
         <v>5</v>
       </c>
       <c r="D77" t="n">
-        <v>20.8547619047619</v>
+        <v>20.8704761904762</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>44568</v>
+        <v>44566</v>
       </c>
       <c r="B78" t="s">
         <v>7</v>
@@ -1477,12 +1477,12 @@
         <v>5</v>
       </c>
       <c r="D78" t="n">
-        <v>20.8790476190476</v>
+        <v>20.8528571428571</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>44569</v>
+        <v>44567</v>
       </c>
       <c r="B79" t="s">
         <v>7</v>
@@ -1491,12 +1491,12 @@
         <v>5</v>
       </c>
       <c r="D79" t="n">
-        <v>20.8857142857143</v>
+        <v>20.8547619047619</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>44570</v>
+        <v>44568</v>
       </c>
       <c r="B80" t="s">
         <v>7</v>
@@ -1505,12 +1505,12 @@
         <v>5</v>
       </c>
       <c r="D80" t="n">
-        <v>20.9004761904762</v>
+        <v>20.8790476190476</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>44571</v>
+        <v>44569</v>
       </c>
       <c r="B81" t="s">
         <v>7</v>
@@ -1519,12 +1519,12 @@
         <v>5</v>
       </c>
       <c r="D81" t="n">
-        <v>20.9004761904762</v>
+        <v>20.8857142857143</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>44572</v>
+        <v>44570</v>
       </c>
       <c r="B82" t="s">
         <v>7</v>
@@ -1538,7 +1538,7 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>44573</v>
+        <v>44571</v>
       </c>
       <c r="B83" t="s">
         <v>7</v>
@@ -1547,12 +1547,12 @@
         <v>5</v>
       </c>
       <c r="D83" t="n">
-        <v>20.9028571428571</v>
+        <v>20.9004761904762</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>44574</v>
+        <v>44572</v>
       </c>
       <c r="B84" t="s">
         <v>7</v>
@@ -1561,12 +1561,12 @@
         <v>5</v>
       </c>
       <c r="D84" t="n">
-        <v>20.9042857142857</v>
+        <v>20.9004761904762</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>44575</v>
+        <v>44573</v>
       </c>
       <c r="B85" t="s">
         <v>7</v>
@@ -1575,12 +1575,12 @@
         <v>5</v>
       </c>
       <c r="D85" t="n">
-        <v>20.9071428571429</v>
+        <v>20.9028571428571</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>44576</v>
+        <v>44574</v>
       </c>
       <c r="B86" t="s">
         <v>7</v>
@@ -1589,12 +1589,12 @@
         <v>5</v>
       </c>
       <c r="D86" t="n">
-        <v>20.9404761904762</v>
+        <v>20.9042857142857</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>44577</v>
+        <v>44575</v>
       </c>
       <c r="B87" t="s">
         <v>7</v>
@@ -1603,12 +1603,12 @@
         <v>5</v>
       </c>
       <c r="D87" t="n">
-        <v>20.9404761904762</v>
+        <v>20.9071428571429</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>44578</v>
+        <v>44576</v>
       </c>
       <c r="B88" t="s">
         <v>7</v>
@@ -1622,7 +1622,7 @@
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>44579</v>
+        <v>44577</v>
       </c>
       <c r="B89" t="s">
         <v>7</v>
@@ -1636,7 +1636,7 @@
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>44580</v>
+        <v>44578</v>
       </c>
       <c r="B90" t="s">
         <v>7</v>
@@ -1645,12 +1645,12 @@
         <v>5</v>
       </c>
       <c r="D90" t="n">
-        <v>20.9433333333333</v>
+        <v>20.9404761904762</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>44581</v>
+        <v>44579</v>
       </c>
       <c r="B91" t="s">
         <v>7</v>
@@ -1659,12 +1659,12 @@
         <v>5</v>
       </c>
       <c r="D91" t="n">
-        <v>20.9590476190476</v>
+        <v>20.9404761904762</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>44582</v>
+        <v>44580</v>
       </c>
       <c r="B92" t="s">
         <v>7</v>
@@ -1673,12 +1673,12 @@
         <v>5</v>
       </c>
       <c r="D92" t="n">
-        <v>20.9685714285714</v>
+        <v>20.9433333333333</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>44583</v>
+        <v>44581</v>
       </c>
       <c r="B93" t="s">
         <v>7</v>
@@ -1687,12 +1687,12 @@
         <v>5</v>
       </c>
       <c r="D93" t="n">
-        <v>20.9785714285714</v>
+        <v>20.9590476190476</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>44584</v>
+        <v>44582</v>
       </c>
       <c r="B94" t="s">
         <v>7</v>
@@ -1701,12 +1701,12 @@
         <v>5</v>
       </c>
       <c r="D94" t="n">
-        <v>20.977619047619</v>
+        <v>20.9685714285714</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>44585</v>
+        <v>44583</v>
       </c>
       <c r="B95" t="s">
         <v>7</v>
@@ -1715,12 +1715,12 @@
         <v>5</v>
       </c>
       <c r="D95" t="n">
-        <v>20.977619047619</v>
+        <v>20.9785714285714</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>44586</v>
+        <v>44584</v>
       </c>
       <c r="B96" t="s">
         <v>7</v>
@@ -1734,7 +1734,7 @@
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>44587</v>
+        <v>44585</v>
       </c>
       <c r="B97" t="s">
         <v>7</v>
@@ -1743,12 +1743,12 @@
         <v>5</v>
       </c>
       <c r="D97" t="n">
-        <v>20.9880952380952</v>
+        <v>20.977619047619</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>44588</v>
+        <v>44586</v>
       </c>
       <c r="B98" t="s">
         <v>7</v>
@@ -1757,12 +1757,12 @@
         <v>5</v>
       </c>
       <c r="D98" t="n">
-        <v>20.9880952380952</v>
+        <v>20.977619047619</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>44589</v>
+        <v>44587</v>
       </c>
       <c r="B99" t="s">
         <v>7</v>
@@ -1771,12 +1771,12 @@
         <v>5</v>
       </c>
       <c r="D99" t="n">
-        <v>21</v>
+        <v>20.9880952380952</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>44590</v>
+        <v>44588</v>
       </c>
       <c r="B100" t="s">
         <v>7</v>
@@ -1785,12 +1785,12 @@
         <v>5</v>
       </c>
       <c r="D100" t="n">
-        <v>21.0090476190476</v>
+        <v>20.9880952380952</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>44591</v>
+        <v>44589</v>
       </c>
       <c r="B101" t="s">
         <v>7</v>
@@ -1799,12 +1799,12 @@
         <v>5</v>
       </c>
       <c r="D101" t="n">
-        <v>21.0290476190476</v>
+        <v>21</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>44592</v>
+        <v>44590</v>
       </c>
       <c r="B102" t="s">
         <v>7</v>
@@ -1813,12 +1813,12 @@
         <v>5</v>
       </c>
       <c r="D102" t="n">
-        <v>21.0385714285714</v>
+        <v>21.0090476190476</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>44593</v>
+        <v>44591</v>
       </c>
       <c r="B103" t="s">
         <v>7</v>
@@ -1827,12 +1827,12 @@
         <v>5</v>
       </c>
       <c r="D103" t="n">
-        <v>21.0385714285714</v>
+        <v>21.0290476190476</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>44594</v>
+        <v>44592</v>
       </c>
       <c r="B104" t="s">
         <v>7</v>
@@ -1841,12 +1841,12 @@
         <v>5</v>
       </c>
       <c r="D104" t="n">
-        <v>21.0528571428571</v>
+        <v>21.0385714285714</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>44595</v>
+        <v>44593</v>
       </c>
       <c r="B105" t="s">
         <v>7</v>
@@ -1855,12 +1855,12 @@
         <v>5</v>
       </c>
       <c r="D105" t="n">
-        <v>21.0528571428571</v>
+        <v>21.0385714285714</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>44596</v>
+        <v>44594</v>
       </c>
       <c r="B106" t="s">
         <v>7</v>
@@ -1869,54 +1869,54 @@
         <v>5</v>
       </c>
       <c r="D106" t="n">
-        <v>21.0690476190476</v>
+        <v>21.0528571428571</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>44562</v>
+        <v>44595</v>
       </c>
       <c r="B107" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D107" t="n">
-        <v>21.8166071428571</v>
+        <v>21.0528571428571</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>44563</v>
+        <v>44596</v>
       </c>
       <c r="B108" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D108" t="n">
-        <v>21.8160714285714</v>
+        <v>21.0690476190476</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>44564</v>
+        <v>44597</v>
       </c>
       <c r="B109" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D109" t="n">
-        <v>21.80875</v>
+        <v>21.0785714285714</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>44565</v>
+        <v>44562</v>
       </c>
       <c r="B110" t="s">
         <v>4</v>
@@ -1925,12 +1925,12 @@
         <v>8</v>
       </c>
       <c r="D110" t="n">
-        <v>21.8051785714286</v>
+        <v>21.8166071428571</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>44566</v>
+        <v>44563</v>
       </c>
       <c r="B111" t="s">
         <v>4</v>
@@ -1939,12 +1939,12 @@
         <v>8</v>
       </c>
       <c r="D111" t="n">
-        <v>21.8173214285714</v>
+        <v>21.8160714285714</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>44567</v>
+        <v>44564</v>
       </c>
       <c r="B112" t="s">
         <v>4</v>
@@ -1953,12 +1953,12 @@
         <v>8</v>
       </c>
       <c r="D112" t="n">
-        <v>21.8083928571429</v>
+        <v>21.80875</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>44568</v>
+        <v>44565</v>
       </c>
       <c r="B113" t="s">
         <v>4</v>
@@ -1967,12 +1967,12 @@
         <v>8</v>
       </c>
       <c r="D113" t="n">
-        <v>21.8082142857143</v>
+        <v>21.8051785714286</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>44569</v>
+        <v>44566</v>
       </c>
       <c r="B114" t="s">
         <v>4</v>
@@ -1981,12 +1981,12 @@
         <v>8</v>
       </c>
       <c r="D114" t="n">
-        <v>21.8585714285714</v>
+        <v>21.8173214285714</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>44570</v>
+        <v>44567</v>
       </c>
       <c r="B115" t="s">
         <v>4</v>
@@ -1995,12 +1995,12 @@
         <v>8</v>
       </c>
       <c r="D115" t="n">
-        <v>21.8498214285714</v>
+        <v>21.8083928571429</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>44571</v>
+        <v>44568</v>
       </c>
       <c r="B116" t="s">
         <v>4</v>
@@ -2009,12 +2009,12 @@
         <v>8</v>
       </c>
       <c r="D116" t="n">
-        <v>21.83375</v>
+        <v>21.8082142857143</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>44572</v>
+        <v>44569</v>
       </c>
       <c r="B117" t="s">
         <v>4</v>
@@ -2023,12 +2023,12 @@
         <v>8</v>
       </c>
       <c r="D117" t="n">
-        <v>21.8516071428571</v>
+        <v>21.8585714285714</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>44573</v>
+        <v>44570</v>
       </c>
       <c r="B118" t="s">
         <v>4</v>
@@ -2037,12 +2037,12 @@
         <v>8</v>
       </c>
       <c r="D118" t="n">
-        <v>21.8853571428571</v>
+        <v>21.8498214285714</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>44574</v>
+        <v>44571</v>
       </c>
       <c r="B119" t="s">
         <v>4</v>
@@ -2051,12 +2051,12 @@
         <v>8</v>
       </c>
       <c r="D119" t="n">
-        <v>21.8948214285714</v>
+        <v>21.83375</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>44575</v>
+        <v>44572</v>
       </c>
       <c r="B120" t="s">
         <v>4</v>
@@ -2065,12 +2065,12 @@
         <v>8</v>
       </c>
       <c r="D120" t="n">
-        <v>21.9010714285714</v>
+        <v>21.8516071428571</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>44576</v>
+        <v>44573</v>
       </c>
       <c r="B121" t="s">
         <v>4</v>
@@ -2079,12 +2079,12 @@
         <v>8</v>
       </c>
       <c r="D121" t="n">
-        <v>21.9028571428571</v>
+        <v>21.8853571428571</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>44577</v>
+        <v>44574</v>
       </c>
       <c r="B122" t="s">
         <v>4</v>
@@ -2093,12 +2093,12 @@
         <v>8</v>
       </c>
       <c r="D122" t="n">
-        <v>21.90875</v>
+        <v>21.8948214285714</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>44578</v>
+        <v>44575</v>
       </c>
       <c r="B123" t="s">
         <v>4</v>
@@ -2107,12 +2107,12 @@
         <v>8</v>
       </c>
       <c r="D123" t="n">
-        <v>21.8944642857143</v>
+        <v>21.9010714285714</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>44579</v>
+        <v>44576</v>
       </c>
       <c r="B124" t="s">
         <v>4</v>
@@ -2121,12 +2121,12 @@
         <v>8</v>
       </c>
       <c r="D124" t="n">
-        <v>21.9283928571429</v>
+        <v>21.9028571428571</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>44580</v>
+        <v>44577</v>
       </c>
       <c r="B125" t="s">
         <v>4</v>
@@ -2135,12 +2135,12 @@
         <v>8</v>
       </c>
       <c r="D125" t="n">
-        <v>21.9244642857143</v>
+        <v>21.90875</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>44581</v>
+        <v>44578</v>
       </c>
       <c r="B126" t="s">
         <v>4</v>
@@ -2149,12 +2149,12 @@
         <v>8</v>
       </c>
       <c r="D126" t="n">
-        <v>21.9325</v>
+        <v>21.8944642857143</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>44582</v>
+        <v>44579</v>
       </c>
       <c r="B127" t="s">
         <v>4</v>
@@ -2163,12 +2163,12 @@
         <v>8</v>
       </c>
       <c r="D127" t="n">
-        <v>21.9405357142857</v>
+        <v>21.9283928571429</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>44583</v>
+        <v>44580</v>
       </c>
       <c r="B128" t="s">
         <v>4</v>
@@ -2177,12 +2177,12 @@
         <v>8</v>
       </c>
       <c r="D128" t="n">
-        <v>21.9471428571429</v>
+        <v>21.9244642857143</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>44584</v>
+        <v>44581</v>
       </c>
       <c r="B129" t="s">
         <v>4</v>
@@ -2191,12 +2191,12 @@
         <v>8</v>
       </c>
       <c r="D129" t="n">
-        <v>21.9519642857143</v>
+        <v>21.9325</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>44585</v>
+        <v>44582</v>
       </c>
       <c r="B130" t="s">
         <v>4</v>
@@ -2205,12 +2205,12 @@
         <v>8</v>
       </c>
       <c r="D130" t="n">
-        <v>21.9376785714286</v>
+        <v>21.9405357142857</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>44586</v>
+        <v>44583</v>
       </c>
       <c r="B131" t="s">
         <v>4</v>
@@ -2219,12 +2219,12 @@
         <v>8</v>
       </c>
       <c r="D131" t="n">
-        <v>21.95375</v>
+        <v>21.9471428571429</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>44587</v>
+        <v>44584</v>
       </c>
       <c r="B132" t="s">
         <v>4</v>
@@ -2233,12 +2233,12 @@
         <v>8</v>
       </c>
       <c r="D132" t="n">
-        <v>21.9694642857143</v>
+        <v>21.9519642857143</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>44588</v>
+        <v>44585</v>
       </c>
       <c r="B133" t="s">
         <v>4</v>
@@ -2247,12 +2247,12 @@
         <v>8</v>
       </c>
       <c r="D133" t="n">
-        <v>21.9648214285714</v>
+        <v>21.9376785714286</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>44589</v>
+        <v>44586</v>
       </c>
       <c r="B134" t="s">
         <v>4</v>
@@ -2261,12 +2261,12 @@
         <v>8</v>
       </c>
       <c r="D134" t="n">
-        <v>21.9683928571429</v>
+        <v>21.95375</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>44590</v>
+        <v>44587</v>
       </c>
       <c r="B135" t="s">
         <v>4</v>
@@ -2275,12 +2275,12 @@
         <v>8</v>
       </c>
       <c r="D135" t="n">
-        <v>21.9635714285714</v>
+        <v>21.9694642857143</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>44591</v>
+        <v>44588</v>
       </c>
       <c r="B136" t="s">
         <v>4</v>
@@ -2289,12 +2289,12 @@
         <v>8</v>
       </c>
       <c r="D136" t="n">
-        <v>21.9780357142857</v>
+        <v>21.9648214285714</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>44592</v>
+        <v>44589</v>
       </c>
       <c r="B137" t="s">
         <v>4</v>
@@ -2303,12 +2303,12 @@
         <v>8</v>
       </c>
       <c r="D137" t="n">
-        <v>21.96375</v>
+        <v>21.9683928571429</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>44593</v>
+        <v>44590</v>
       </c>
       <c r="B138" t="s">
         <v>4</v>
@@ -2317,12 +2317,12 @@
         <v>8</v>
       </c>
       <c r="D138" t="n">
-        <v>21.9780357142857</v>
+        <v>21.9635714285714</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>44594</v>
+        <v>44591</v>
       </c>
       <c r="B139" t="s">
         <v>4</v>
@@ -2331,12 +2331,12 @@
         <v>8</v>
       </c>
       <c r="D139" t="n">
-        <v>22.0108928571429</v>
+        <v>21.9780357142857</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>44595</v>
+        <v>44592</v>
       </c>
       <c r="B140" t="s">
         <v>4</v>
@@ -2345,12 +2345,12 @@
         <v>8</v>
       </c>
       <c r="D140" t="n">
-        <v>22.0060714285714</v>
+        <v>21.96375</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>44596</v>
+        <v>44593</v>
       </c>
       <c r="B141" t="s">
         <v>4</v>
@@ -2359,68 +2359,68 @@
         <v>8</v>
       </c>
       <c r="D141" t="n">
-        <v>22.0426785714286</v>
+        <v>21.9780357142857</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>44562</v>
+        <v>44594</v>
       </c>
       <c r="B142" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C142" t="s">
         <v>8</v>
       </c>
       <c r="D142" t="n">
-        <v>23.1053968253968</v>
+        <v>22.0108928571429</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>44563</v>
+        <v>44595</v>
       </c>
       <c r="B143" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C143" t="s">
         <v>8</v>
       </c>
       <c r="D143" t="n">
-        <v>23.1303174603175</v>
+        <v>22.0060714285714</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>44564</v>
+        <v>44596</v>
       </c>
       <c r="B144" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C144" t="s">
         <v>8</v>
       </c>
       <c r="D144" t="n">
-        <v>23.1181746031746</v>
+        <v>22.0426785714286</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>44565</v>
+        <v>44597</v>
       </c>
       <c r="B145" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C145" t="s">
         <v>8</v>
       </c>
       <c r="D145" t="n">
-        <v>23.1251587301587</v>
+        <v>22.0478571428571</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>44566</v>
+        <v>44562</v>
       </c>
       <c r="B146" t="s">
         <v>6</v>
@@ -2429,12 +2429,12 @@
         <v>8</v>
       </c>
       <c r="D146" t="n">
-        <v>23.1421428571429</v>
+        <v>23.1053968253968</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>44567</v>
+        <v>44563</v>
       </c>
       <c r="B147" t="s">
         <v>6</v>
@@ -2443,12 +2443,12 @@
         <v>8</v>
       </c>
       <c r="D147" t="n">
-        <v>23.1629365079365</v>
+        <v>23.1303174603175</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>44568</v>
+        <v>44564</v>
       </c>
       <c r="B148" t="s">
         <v>6</v>
@@ -2457,12 +2457,12 @@
         <v>8</v>
       </c>
       <c r="D148" t="n">
-        <v>23.1716666666667</v>
+        <v>23.1181746031746</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>44569</v>
+        <v>44565</v>
       </c>
       <c r="B149" t="s">
         <v>6</v>
@@ -2471,12 +2471,12 @@
         <v>8</v>
       </c>
       <c r="D149" t="n">
-        <v>23.1869841269841</v>
+        <v>23.1251587301587</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>44570</v>
+        <v>44566</v>
       </c>
       <c r="B150" t="s">
         <v>6</v>
@@ -2485,12 +2485,12 @@
         <v>8</v>
       </c>
       <c r="D150" t="n">
-        <v>23.1927777777778</v>
+        <v>23.1421428571429</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>44571</v>
+        <v>44567</v>
       </c>
       <c r="B151" t="s">
         <v>6</v>
@@ -2499,12 +2499,12 @@
         <v>8</v>
       </c>
       <c r="D151" t="n">
-        <v>23.195873015873</v>
+        <v>23.1629365079365</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>44572</v>
+        <v>44568</v>
       </c>
       <c r="B152" t="s">
         <v>6</v>
@@ -2513,12 +2513,12 @@
         <v>8</v>
       </c>
       <c r="D152" t="n">
-        <v>23.1703968253968</v>
+        <v>23.1716666666667</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>44573</v>
+        <v>44569</v>
       </c>
       <c r="B153" t="s">
         <v>6</v>
@@ -2527,12 +2527,12 @@
         <v>8</v>
       </c>
       <c r="D153" t="n">
-        <v>23.2097619047619</v>
+        <v>23.1869841269841</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>44574</v>
+        <v>44570</v>
       </c>
       <c r="B154" t="s">
         <v>6</v>
@@ -2541,12 +2541,12 @@
         <v>8</v>
       </c>
       <c r="D154" t="n">
-        <v>23.2205555555556</v>
+        <v>23.1927777777778</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>44575</v>
+        <v>44571</v>
       </c>
       <c r="B155" t="s">
         <v>6</v>
@@ -2555,12 +2555,12 @@
         <v>8</v>
       </c>
       <c r="D155" t="n">
-        <v>23.2261111111111</v>
+        <v>23.195873015873</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>44576</v>
+        <v>44572</v>
       </c>
       <c r="B156" t="s">
         <v>6</v>
@@ -2569,12 +2569,12 @@
         <v>8</v>
       </c>
       <c r="D156" t="n">
-        <v>23.2265873015873</v>
+        <v>23.1703968253968</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>44577</v>
+        <v>44573</v>
       </c>
       <c r="B157" t="s">
         <v>6</v>
@@ -2583,12 +2583,12 @@
         <v>8</v>
       </c>
       <c r="D157" t="n">
-        <v>23.2284126984127</v>
+        <v>23.2097619047619</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>44578</v>
+        <v>44574</v>
       </c>
       <c r="B158" t="s">
         <v>6</v>
@@ -2597,12 +2597,12 @@
         <v>8</v>
       </c>
       <c r="D158" t="n">
-        <v>23.2296825396825</v>
+        <v>23.2205555555556</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>44579</v>
+        <v>44575</v>
       </c>
       <c r="B159" t="s">
         <v>6</v>
@@ -2611,12 +2611,12 @@
         <v>8</v>
       </c>
       <c r="D159" t="n">
-        <v>23.2337301587302</v>
+        <v>23.2261111111111</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>44580</v>
+        <v>44576</v>
       </c>
       <c r="B160" t="s">
         <v>6</v>
@@ -2625,12 +2625,12 @@
         <v>8</v>
       </c>
       <c r="D160" t="n">
-        <v>23.2570634920635</v>
+        <v>23.2265873015873</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>44581</v>
+        <v>44577</v>
       </c>
       <c r="B161" t="s">
         <v>6</v>
@@ -2639,12 +2639,12 @@
         <v>8</v>
       </c>
       <c r="D161" t="n">
-        <v>23.2701587301587</v>
+        <v>23.2284126984127</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>44582</v>
+        <v>44578</v>
       </c>
       <c r="B162" t="s">
         <v>6</v>
@@ -2653,12 +2653,12 @@
         <v>8</v>
       </c>
       <c r="D162" t="n">
-        <v>23.2738888888889</v>
+        <v>23.2296825396825</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>44583</v>
+        <v>44579</v>
       </c>
       <c r="B163" t="s">
         <v>6</v>
@@ -2667,12 +2667,12 @@
         <v>8</v>
       </c>
       <c r="D163" t="n">
-        <v>23.2864285714286</v>
+        <v>23.2337301587302</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>44584</v>
+        <v>44580</v>
       </c>
       <c r="B164" t="s">
         <v>6</v>
@@ -2681,12 +2681,12 @@
         <v>8</v>
       </c>
       <c r="D164" t="n">
-        <v>23.2903174603175</v>
+        <v>23.2570634920635</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>44585</v>
+        <v>44581</v>
       </c>
       <c r="B165" t="s">
         <v>6</v>
@@ -2695,12 +2695,12 @@
         <v>8</v>
       </c>
       <c r="D165" t="n">
-        <v>23.2895238095238</v>
+        <v>23.2701587301587</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>44586</v>
+        <v>44582</v>
       </c>
       <c r="B166" t="s">
         <v>6</v>
@@ -2709,12 +2709,12 @@
         <v>8</v>
       </c>
       <c r="D166" t="n">
-        <v>23.2953968253968</v>
+        <v>23.2738888888889</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>44587</v>
+        <v>44583</v>
       </c>
       <c r="B167" t="s">
         <v>6</v>
@@ -2723,12 +2723,12 @@
         <v>8</v>
       </c>
       <c r="D167" t="n">
-        <v>23.3019047619048</v>
+        <v>23.2864285714286</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>44588</v>
+        <v>44584</v>
       </c>
       <c r="B168" t="s">
         <v>6</v>
@@ -2737,12 +2737,12 @@
         <v>8</v>
       </c>
       <c r="D168" t="n">
-        <v>23.3071428571429</v>
+        <v>23.2903174603175</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>44589</v>
+        <v>44585</v>
       </c>
       <c r="B169" t="s">
         <v>6</v>
@@ -2751,12 +2751,12 @@
         <v>8</v>
       </c>
       <c r="D169" t="n">
-        <v>23.3089682539683</v>
+        <v>23.2895238095238</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>44590</v>
+        <v>44586</v>
       </c>
       <c r="B170" t="s">
         <v>6</v>
@@ -2765,12 +2765,12 @@
         <v>8</v>
       </c>
       <c r="D170" t="n">
-        <v>23.3001587301587</v>
+        <v>23.2953968253968</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>44591</v>
+        <v>44587</v>
       </c>
       <c r="B171" t="s">
         <v>6</v>
@@ -2779,12 +2779,12 @@
         <v>8</v>
       </c>
       <c r="D171" t="n">
-        <v>23.3194444444444</v>
+        <v>23.3019047619048</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>44592</v>
+        <v>44588</v>
       </c>
       <c r="B172" t="s">
         <v>6</v>
@@ -2793,12 +2793,12 @@
         <v>8</v>
       </c>
       <c r="D172" t="n">
-        <v>23.3202380952381</v>
+        <v>23.3071428571429</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>44593</v>
+        <v>44589</v>
       </c>
       <c r="B173" t="s">
         <v>6</v>
@@ -2807,12 +2807,12 @@
         <v>8</v>
       </c>
       <c r="D173" t="n">
-        <v>23.3429365079365</v>
+        <v>23.3089682539683</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>44594</v>
+        <v>44590</v>
       </c>
       <c r="B174" t="s">
         <v>6</v>
@@ -2821,12 +2821,12 @@
         <v>8</v>
       </c>
       <c r="D174" t="n">
-        <v>23.3310317460317</v>
+        <v>23.3001587301587</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>44595</v>
+        <v>44591</v>
       </c>
       <c r="B175" t="s">
         <v>6</v>
@@ -2835,12 +2835,12 @@
         <v>8</v>
       </c>
       <c r="D175" t="n">
-        <v>23.3405555555556</v>
+        <v>23.3194444444444</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>44596</v>
+        <v>44592</v>
       </c>
       <c r="B176" t="s">
         <v>6</v>
@@ -2849,82 +2849,82 @@
         <v>8</v>
       </c>
       <c r="D176" t="n">
-        <v>23.3464285714286</v>
+        <v>23.3202380952381</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="B177" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C177" t="s">
         <v>8</v>
       </c>
       <c r="D177" t="n">
-        <v>20.898992248062</v>
+        <v>23.3429365079365</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
-        <v>44563</v>
+        <v>44594</v>
       </c>
       <c r="B178" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C178" t="s">
         <v>8</v>
       </c>
       <c r="D178" t="n">
-        <v>20.9282170542636</v>
+        <v>23.3310317460317</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
-        <v>44564</v>
+        <v>44595</v>
       </c>
       <c r="B179" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C179" t="s">
         <v>8</v>
       </c>
       <c r="D179" t="n">
-        <v>20.9231782945736</v>
+        <v>23.3405555555556</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>44565</v>
+        <v>44596</v>
       </c>
       <c r="B180" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C180" t="s">
         <v>8</v>
       </c>
       <c r="D180" t="n">
-        <v>20.9351937984496</v>
+        <v>23.3464285714286</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
-        <v>44566</v>
+        <v>44597</v>
       </c>
       <c r="B181" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C181" t="s">
         <v>8</v>
       </c>
       <c r="D181" t="n">
-        <v>20.9878294573643</v>
+        <v>23.3511904761905</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
-        <v>44567</v>
+        <v>44562</v>
       </c>
       <c r="B182" t="s">
         <v>7</v>
@@ -2933,12 +2933,12 @@
         <v>8</v>
       </c>
       <c r="D182" t="n">
-        <v>21.0073643410853</v>
+        <v>20.898992248062</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
-        <v>44568</v>
+        <v>44563</v>
       </c>
       <c r="B183" t="s">
         <v>7</v>
@@ -2947,12 +2947,12 @@
         <v>8</v>
       </c>
       <c r="D183" t="n">
-        <v>21.0072868217054</v>
+        <v>20.9282170542636</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
-        <v>44569</v>
+        <v>44564</v>
       </c>
       <c r="B184" t="s">
         <v>7</v>
@@ -2961,12 +2961,12 @@
         <v>8</v>
       </c>
       <c r="D184" t="n">
-        <v>21.0057364341085</v>
+        <v>20.9231782945736</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>44570</v>
+        <v>44565</v>
       </c>
       <c r="B185" t="s">
         <v>7</v>
@@ -2975,12 +2975,12 @@
         <v>8</v>
       </c>
       <c r="D185" t="n">
-        <v>20.9878294573643</v>
+        <v>20.9351937984496</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>44571</v>
+        <v>44566</v>
       </c>
       <c r="B186" t="s">
         <v>7</v>
@@ -2989,12 +2989,12 @@
         <v>8</v>
       </c>
       <c r="D186" t="n">
-        <v>20.9848062015504</v>
+        <v>20.9878294573643</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
-        <v>44572</v>
+        <v>44567</v>
       </c>
       <c r="B187" t="s">
         <v>7</v>
@@ -3003,12 +3003,12 @@
         <v>8</v>
       </c>
       <c r="D187" t="n">
-        <v>20.9837984496124</v>
+        <v>21.0073643410853</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
-        <v>44573</v>
+        <v>44568</v>
       </c>
       <c r="B188" t="s">
         <v>7</v>
@@ -3017,12 +3017,12 @@
         <v>8</v>
       </c>
       <c r="D188" t="n">
-        <v>20.9815503875969</v>
+        <v>21.0072868217054</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
-        <v>44574</v>
+        <v>44569</v>
       </c>
       <c r="B189" t="s">
         <v>7</v>
@@ -3031,12 +3031,12 @@
         <v>8</v>
       </c>
       <c r="D189" t="n">
-        <v>20.9628682170543</v>
+        <v>21.0057364341085</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
-        <v>44575</v>
+        <v>44570</v>
       </c>
       <c r="B190" t="s">
         <v>7</v>
@@ -3045,12 +3045,12 @@
         <v>8</v>
       </c>
       <c r="D190" t="n">
-        <v>20.9932558139535</v>
+        <v>20.9878294573643</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
-        <v>44576</v>
+        <v>44571</v>
       </c>
       <c r="B191" t="s">
         <v>7</v>
@@ -3059,12 +3059,12 @@
         <v>8</v>
       </c>
       <c r="D191" t="n">
-        <v>20.9991472868217</v>
+        <v>20.9848062015504</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
-        <v>44577</v>
+        <v>44572</v>
       </c>
       <c r="B192" t="s">
         <v>7</v>
@@ -3073,12 +3073,12 @@
         <v>8</v>
       </c>
       <c r="D192" t="n">
-        <v>20.9958914728682</v>
+        <v>20.9837984496124</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
-        <v>44578</v>
+        <v>44573</v>
       </c>
       <c r="B193" t="s">
         <v>7</v>
@@ -3087,12 +3087,12 @@
         <v>8</v>
       </c>
       <c r="D193" t="n">
-        <v>20.9891472868217</v>
+        <v>20.9815503875969</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
-        <v>44579</v>
+        <v>44574</v>
       </c>
       <c r="B194" t="s">
         <v>7</v>
@@ -3101,12 +3101,12 @@
         <v>8</v>
       </c>
       <c r="D194" t="n">
-        <v>21.0002325581395</v>
+        <v>20.9628682170543</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
-        <v>44580</v>
+        <v>44575</v>
       </c>
       <c r="B195" t="s">
         <v>7</v>
@@ -3115,12 +3115,12 @@
         <v>8</v>
       </c>
       <c r="D195" t="n">
-        <v>21.0181395348837</v>
+        <v>20.9932558139535</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
-        <v>44581</v>
+        <v>44576</v>
       </c>
       <c r="B196" t="s">
         <v>7</v>
@@ -3129,12 +3129,12 @@
         <v>8</v>
       </c>
       <c r="D196" t="n">
-        <v>21.026976744186</v>
+        <v>20.9991472868217</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
-        <v>44582</v>
+        <v>44577</v>
       </c>
       <c r="B197" t="s">
         <v>7</v>
@@ -3143,12 +3143,12 @@
         <v>8</v>
       </c>
       <c r="D197" t="n">
-        <v>21.0304651162791</v>
+        <v>20.9958914728682</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
-        <v>44583</v>
+        <v>44578</v>
       </c>
       <c r="B198" t="s">
         <v>7</v>
@@ -3157,12 +3157,12 @@
         <v>8</v>
       </c>
       <c r="D198" t="n">
-        <v>21.0454263565891</v>
+        <v>20.9891472868217</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
-        <v>44584</v>
+        <v>44579</v>
       </c>
       <c r="B199" t="s">
         <v>7</v>
@@ -3171,12 +3171,12 @@
         <v>8</v>
       </c>
       <c r="D199" t="n">
-        <v>21.0455813953488</v>
+        <v>21.0002325581395</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
-        <v>44585</v>
+        <v>44580</v>
       </c>
       <c r="B200" t="s">
         <v>7</v>
@@ -3185,12 +3185,12 @@
         <v>8</v>
       </c>
       <c r="D200" t="n">
-        <v>21.0408527131783</v>
+        <v>21.0181395348837</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
-        <v>44586</v>
+        <v>44581</v>
       </c>
       <c r="B201" t="s">
         <v>7</v>
@@ -3199,12 +3199,12 @@
         <v>8</v>
       </c>
       <c r="D201" t="n">
-        <v>21.0537984496124</v>
+        <v>21.026976744186</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
-        <v>44587</v>
+        <v>44582</v>
       </c>
       <c r="B202" t="s">
         <v>7</v>
@@ -3213,12 +3213,12 @@
         <v>8</v>
       </c>
       <c r="D202" t="n">
-        <v>21.0571317829457</v>
+        <v>21.0304651162791</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
-        <v>44588</v>
+        <v>44583</v>
       </c>
       <c r="B203" t="s">
         <v>7</v>
@@ -3227,12 +3227,12 @@
         <v>8</v>
       </c>
       <c r="D203" t="n">
-        <v>21.063488372093</v>
+        <v>21.0454263565891</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
-        <v>44589</v>
+        <v>44584</v>
       </c>
       <c r="B204" t="s">
         <v>7</v>
@@ -3241,12 +3241,12 @@
         <v>8</v>
       </c>
       <c r="D204" t="n">
-        <v>21.0696899224806</v>
+        <v>21.0455813953488</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
-        <v>44590</v>
+        <v>44585</v>
       </c>
       <c r="B205" t="s">
         <v>7</v>
@@ -3255,12 +3255,12 @@
         <v>8</v>
       </c>
       <c r="D205" t="n">
-        <v>21.0715503875969</v>
+        <v>21.0408527131783</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
-        <v>44591</v>
+        <v>44586</v>
       </c>
       <c r="B206" t="s">
         <v>7</v>
@@ -3269,12 +3269,12 @@
         <v>8</v>
       </c>
       <c r="D206" t="n">
-        <v>21.0771317829457</v>
+        <v>21.0537984496124</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
-        <v>44592</v>
+        <v>44587</v>
       </c>
       <c r="B207" t="s">
         <v>7</v>
@@ -3283,12 +3283,12 @@
         <v>8</v>
       </c>
       <c r="D207" t="n">
-        <v>21.0759689922481</v>
+        <v>21.0571317829457</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
-        <v>44593</v>
+        <v>44588</v>
       </c>
       <c r="B208" t="s">
         <v>7</v>
@@ -3297,12 +3297,12 @@
         <v>8</v>
       </c>
       <c r="D208" t="n">
-        <v>21.0853488372093</v>
+        <v>21.063488372093</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
-        <v>44594</v>
+        <v>44589</v>
       </c>
       <c r="B209" t="s">
         <v>7</v>
@@ -3311,12 +3311,12 @@
         <v>8</v>
       </c>
       <c r="D209" t="n">
-        <v>21.0791472868217</v>
+        <v>21.0696899224806</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
-        <v>44595</v>
+        <v>44590</v>
       </c>
       <c r="B210" t="s">
         <v>7</v>
@@ -3325,12 +3325,12 @@
         <v>8</v>
       </c>
       <c r="D210" t="n">
-        <v>21.0796124031008</v>
+        <v>21.0715503875969</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
-        <v>44596</v>
+        <v>44591</v>
       </c>
       <c r="B211" t="s">
         <v>7</v>
@@ -3339,96 +3339,96 @@
         <v>8</v>
       </c>
       <c r="D211" t="n">
-        <v>21.0876744186046</v>
+        <v>21.0771317829457</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
-        <v>44562</v>
+        <v>44592</v>
       </c>
       <c r="B212" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C212" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D212" t="n">
-        <v>21.5081481481481</v>
+        <v>21.0759689922481</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
-        <v>44563</v>
+        <v>44593</v>
       </c>
       <c r="B213" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C213" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D213" t="n">
-        <v>21.512962962963</v>
+        <v>21.0853488372093</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
-        <v>44564</v>
+        <v>44594</v>
       </c>
       <c r="B214" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C214" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D214" t="n">
-        <v>21.512962962963</v>
+        <v>21.0791472868217</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
-        <v>44565</v>
+        <v>44595</v>
       </c>
       <c r="B215" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C215" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D215" t="n">
-        <v>21.5211111111111</v>
+        <v>21.0796124031008</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
-        <v>44566</v>
+        <v>44596</v>
       </c>
       <c r="B216" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C216" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D216" t="n">
-        <v>21.5598148148148</v>
+        <v>21.0876744186046</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
-        <v>44567</v>
+        <v>44597</v>
       </c>
       <c r="B217" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C217" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D217" t="n">
-        <v>21.5757407407407</v>
+        <v>21.0894573643411</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
-        <v>44568</v>
+        <v>44562</v>
       </c>
       <c r="B218" t="s">
         <v>4</v>
@@ -3437,12 +3437,12 @@
         <v>9</v>
       </c>
       <c r="D218" t="n">
-        <v>21.592962962963</v>
+        <v>21.5081481481481</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
-        <v>44569</v>
+        <v>44563</v>
       </c>
       <c r="B219" t="s">
         <v>4</v>
@@ -3451,12 +3451,12 @@
         <v>9</v>
       </c>
       <c r="D219" t="n">
-        <v>21.6074074074074</v>
+        <v>21.512962962963</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
-        <v>44570</v>
+        <v>44564</v>
       </c>
       <c r="B220" t="s">
         <v>4</v>
@@ -3465,12 +3465,12 @@
         <v>9</v>
       </c>
       <c r="D220" t="n">
-        <v>21.6264814814815</v>
+        <v>21.512962962963</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
-        <v>44571</v>
+        <v>44565</v>
       </c>
       <c r="B221" t="s">
         <v>4</v>
@@ -3479,12 +3479,12 @@
         <v>9</v>
       </c>
       <c r="D221" t="n">
-        <v>21.6264814814815</v>
+        <v>21.5211111111111</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
-        <v>44572</v>
+        <v>44566</v>
       </c>
       <c r="B222" t="s">
         <v>4</v>
@@ -3493,12 +3493,12 @@
         <v>9</v>
       </c>
       <c r="D222" t="n">
-        <v>21.6264814814815</v>
+        <v>21.5598148148148</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
-        <v>44573</v>
+        <v>44567</v>
       </c>
       <c r="B223" t="s">
         <v>4</v>
@@ -3507,12 +3507,12 @@
         <v>9</v>
       </c>
       <c r="D223" t="n">
-        <v>21.6377777777778</v>
+        <v>21.5757407407407</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
-        <v>44574</v>
+        <v>44568</v>
       </c>
       <c r="B224" t="s">
         <v>4</v>
@@ -3521,12 +3521,12 @@
         <v>9</v>
       </c>
       <c r="D224" t="n">
-        <v>21.6598148148148</v>
+        <v>21.592962962963</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
-        <v>44575</v>
+        <v>44569</v>
       </c>
       <c r="B225" t="s">
         <v>4</v>
@@ -3535,12 +3535,12 @@
         <v>9</v>
       </c>
       <c r="D225" t="n">
-        <v>21.6805555555556</v>
+        <v>21.6074074074074</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
-        <v>44576</v>
+        <v>44570</v>
       </c>
       <c r="B226" t="s">
         <v>4</v>
@@ -3549,12 +3549,12 @@
         <v>9</v>
       </c>
       <c r="D226" t="n">
-        <v>21.682037037037</v>
+        <v>21.6264814814815</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
-        <v>44577</v>
+        <v>44571</v>
       </c>
       <c r="B227" t="s">
         <v>4</v>
@@ -3563,12 +3563,12 @@
         <v>9</v>
       </c>
       <c r="D227" t="n">
-        <v>21.6875925925926</v>
+        <v>21.6264814814815</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
-        <v>44578</v>
+        <v>44572</v>
       </c>
       <c r="B228" t="s">
         <v>4</v>
@@ -3577,12 +3577,12 @@
         <v>9</v>
       </c>
       <c r="D228" t="n">
-        <v>21.6875925925926</v>
+        <v>21.6264814814815</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
-        <v>44579</v>
+        <v>44573</v>
       </c>
       <c r="B229" t="s">
         <v>4</v>
@@ -3591,12 +3591,12 @@
         <v>9</v>
       </c>
       <c r="D229" t="n">
-        <v>21.6912962962963</v>
+        <v>21.6377777777778</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
-        <v>44580</v>
+        <v>44574</v>
       </c>
       <c r="B230" t="s">
         <v>4</v>
@@ -3605,12 +3605,12 @@
         <v>9</v>
       </c>
       <c r="D230" t="n">
-        <v>21.6972222222222</v>
+        <v>21.6598148148148</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
-        <v>44581</v>
+        <v>44575</v>
       </c>
       <c r="B231" t="s">
         <v>4</v>
@@ -3619,12 +3619,12 @@
         <v>9</v>
       </c>
       <c r="D231" t="n">
-        <v>21.6972222222222</v>
+        <v>21.6805555555556</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
-        <v>44582</v>
+        <v>44576</v>
       </c>
       <c r="B232" t="s">
         <v>4</v>
@@ -3633,12 +3633,12 @@
         <v>9</v>
       </c>
       <c r="D232" t="n">
-        <v>21.7133333333333</v>
+        <v>21.682037037037</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
-        <v>44583</v>
+        <v>44577</v>
       </c>
       <c r="B233" t="s">
         <v>4</v>
@@ -3647,12 +3647,12 @@
         <v>9</v>
       </c>
       <c r="D233" t="n">
-        <v>21.72</v>
+        <v>21.6875925925926</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
-        <v>44584</v>
+        <v>44578</v>
       </c>
       <c r="B234" t="s">
         <v>4</v>
@@ -3661,12 +3661,12 @@
         <v>9</v>
       </c>
       <c r="D234" t="n">
-        <v>21.7237037037037</v>
+        <v>21.6875925925926</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
-        <v>44585</v>
+        <v>44579</v>
       </c>
       <c r="B235" t="s">
         <v>4</v>
@@ -3675,12 +3675,12 @@
         <v>9</v>
       </c>
       <c r="D235" t="n">
-        <v>21.7274074074074</v>
+        <v>21.6912962962963</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
-        <v>44586</v>
+        <v>44580</v>
       </c>
       <c r="B236" t="s">
         <v>4</v>
@@ -3689,12 +3689,12 @@
         <v>9</v>
       </c>
       <c r="D236" t="n">
-        <v>21.7274074074074</v>
+        <v>21.6972222222222</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
-        <v>44587</v>
+        <v>44581</v>
       </c>
       <c r="B237" t="s">
         <v>4</v>
@@ -3703,12 +3703,12 @@
         <v>9</v>
       </c>
       <c r="D237" t="n">
-        <v>21.7307407407407</v>
+        <v>21.6972222222222</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
-        <v>44588</v>
+        <v>44582</v>
       </c>
       <c r="B238" t="s">
         <v>4</v>
@@ -3717,12 +3717,12 @@
         <v>9</v>
       </c>
       <c r="D238" t="n">
-        <v>21.7424074074074</v>
+        <v>21.7133333333333</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
-        <v>44589</v>
+        <v>44583</v>
       </c>
       <c r="B239" t="s">
         <v>4</v>
@@ -3731,12 +3731,12 @@
         <v>9</v>
       </c>
       <c r="D239" t="n">
-        <v>21.7651851851852</v>
+        <v>21.72</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
-        <v>44590</v>
+        <v>44584</v>
       </c>
       <c r="B240" t="s">
         <v>4</v>
@@ -3745,12 +3745,12 @@
         <v>9</v>
       </c>
       <c r="D240" t="n">
-        <v>21.7692592592593</v>
+        <v>21.7237037037037</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
-        <v>44591</v>
+        <v>44585</v>
       </c>
       <c r="B241" t="s">
         <v>4</v>
@@ -3759,12 +3759,12 @@
         <v>9</v>
       </c>
       <c r="D241" t="n">
-        <v>21.7798148148148</v>
+        <v>21.7274074074074</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
-        <v>44592</v>
+        <v>44586</v>
       </c>
       <c r="B242" t="s">
         <v>4</v>
@@ -3773,12 +3773,12 @@
         <v>9</v>
       </c>
       <c r="D242" t="n">
-        <v>21.7798148148148</v>
+        <v>21.7274074074074</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
-        <v>44593</v>
+        <v>44587</v>
       </c>
       <c r="B243" t="s">
         <v>4</v>
@@ -3787,12 +3787,12 @@
         <v>9</v>
       </c>
       <c r="D243" t="n">
-        <v>21.7853703703704</v>
+        <v>21.7307407407407</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
-        <v>44594</v>
+        <v>44588</v>
       </c>
       <c r="B244" t="s">
         <v>4</v>
@@ -3801,12 +3801,12 @@
         <v>9</v>
       </c>
       <c r="D244" t="n">
-        <v>21.7927777777778</v>
+        <v>21.7424074074074</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
-        <v>44595</v>
+        <v>44589</v>
       </c>
       <c r="B245" t="s">
         <v>4</v>
@@ -3815,12 +3815,12 @@
         <v>9</v>
       </c>
       <c r="D245" t="n">
-        <v>21.7927777777778</v>
+        <v>21.7651851851852</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
-        <v>44596</v>
+        <v>44590</v>
       </c>
       <c r="B246" t="s">
         <v>4</v>
@@ -3829,110 +3829,110 @@
         <v>9</v>
       </c>
       <c r="D246" t="n">
-        <v>21.8001851851852</v>
+        <v>21.7692592592593</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
-        <v>44562</v>
+        <v>44591</v>
       </c>
       <c r="B247" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C247" t="s">
         <v>9</v>
       </c>
       <c r="D247" t="n">
-        <v>22.91859375</v>
+        <v>21.7798148148148</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
-        <v>44563</v>
+        <v>44592</v>
       </c>
       <c r="B248" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C248" t="s">
         <v>9</v>
       </c>
       <c r="D248" t="n">
-        <v>22.91796875</v>
+        <v>21.7798148148148</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
-        <v>44564</v>
+        <v>44593</v>
       </c>
       <c r="B249" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C249" t="s">
         <v>9</v>
       </c>
       <c r="D249" t="n">
-        <v>22.91796875</v>
+        <v>21.7853703703704</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
-        <v>44565</v>
+        <v>44594</v>
       </c>
       <c r="B250" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C250" t="s">
         <v>9</v>
       </c>
       <c r="D250" t="n">
-        <v>22.92109375</v>
+        <v>21.7927777777778</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
-        <v>44566</v>
+        <v>44595</v>
       </c>
       <c r="B251" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C251" t="s">
         <v>9</v>
       </c>
       <c r="D251" t="n">
-        <v>22.93453125</v>
+        <v>21.7927777777778</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
-        <v>44567</v>
+        <v>44596</v>
       </c>
       <c r="B252" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C252" t="s">
         <v>9</v>
       </c>
       <c r="D252" t="n">
-        <v>22.96671875</v>
+        <v>21.8001851851852</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
-        <v>44568</v>
+        <v>44597</v>
       </c>
       <c r="B253" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C253" t="s">
         <v>9</v>
       </c>
       <c r="D253" t="n">
-        <v>22.98828125</v>
+        <v>21.7961111111111</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
-        <v>44569</v>
+        <v>44562</v>
       </c>
       <c r="B254" t="s">
         <v>6</v>
@@ -3941,12 +3941,12 @@
         <v>9</v>
       </c>
       <c r="D254" t="n">
-        <v>23.00359375</v>
+        <v>22.91859375</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
-        <v>44570</v>
+        <v>44563</v>
       </c>
       <c r="B255" t="s">
         <v>6</v>
@@ -3955,12 +3955,12 @@
         <v>9</v>
       </c>
       <c r="D255" t="n">
-        <v>23.02234375</v>
+        <v>22.91796875</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
-        <v>44571</v>
+        <v>44564</v>
       </c>
       <c r="B256" t="s">
         <v>6</v>
@@ -3969,12 +3969,12 @@
         <v>9</v>
       </c>
       <c r="D256" t="n">
-        <v>23.02234375</v>
+        <v>22.91796875</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
-        <v>44572</v>
+        <v>44565</v>
       </c>
       <c r="B257" t="s">
         <v>6</v>
@@ -3983,12 +3983,12 @@
         <v>9</v>
       </c>
       <c r="D257" t="n">
-        <v>23.035</v>
+        <v>22.92109375</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
-        <v>44573</v>
+        <v>44566</v>
       </c>
       <c r="B258" t="s">
         <v>6</v>
@@ -3997,12 +3997,12 @@
         <v>9</v>
       </c>
       <c r="D258" t="n">
-        <v>23.0515625</v>
+        <v>22.93453125</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
-        <v>44574</v>
+        <v>44567</v>
       </c>
       <c r="B259" t="s">
         <v>6</v>
@@ -4011,12 +4011,12 @@
         <v>9</v>
       </c>
       <c r="D259" t="n">
-        <v>23.0765625</v>
+        <v>22.96671875</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
-        <v>44575</v>
+        <v>44568</v>
       </c>
       <c r="B260" t="s">
         <v>6</v>
@@ -4025,12 +4025,12 @@
         <v>9</v>
       </c>
       <c r="D260" t="n">
-        <v>23.076875</v>
+        <v>22.98828125</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
-        <v>44576</v>
+        <v>44569</v>
       </c>
       <c r="B261" t="s">
         <v>6</v>
@@ -4039,12 +4039,12 @@
         <v>9</v>
       </c>
       <c r="D261" t="n">
-        <v>23.0821875</v>
+        <v>23.00359375</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
-        <v>44577</v>
+        <v>44570</v>
       </c>
       <c r="B262" t="s">
         <v>6</v>
@@ -4053,12 +4053,12 @@
         <v>9</v>
       </c>
       <c r="D262" t="n">
-        <v>23.080625</v>
+        <v>23.02234375</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
-        <v>44578</v>
+        <v>44571</v>
       </c>
       <c r="B263" t="s">
         <v>6</v>
@@ -4067,12 +4067,12 @@
         <v>9</v>
       </c>
       <c r="D263" t="n">
-        <v>23.080625</v>
+        <v>23.02234375</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
-        <v>44579</v>
+        <v>44572</v>
       </c>
       <c r="B264" t="s">
         <v>6</v>
@@ -4081,12 +4081,12 @@
         <v>9</v>
       </c>
       <c r="D264" t="n">
-        <v>23.08703125</v>
+        <v>23.035</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
-        <v>44580</v>
+        <v>44573</v>
       </c>
       <c r="B265" t="s">
         <v>6</v>
@@ -4095,12 +4095,12 @@
         <v>9</v>
       </c>
       <c r="D265" t="n">
-        <v>23.09890625</v>
+        <v>23.0515625</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
-        <v>44581</v>
+        <v>44574</v>
       </c>
       <c r="B266" t="s">
         <v>6</v>
@@ -4109,12 +4109,12 @@
         <v>9</v>
       </c>
       <c r="D266" t="n">
-        <v>23.09890625</v>
+        <v>23.0765625</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
-        <v>44582</v>
+        <v>44575</v>
       </c>
       <c r="B267" t="s">
         <v>6</v>
@@ -4123,12 +4123,12 @@
         <v>9</v>
       </c>
       <c r="D267" t="n">
-        <v>23.1109375</v>
+        <v>23.076875</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
-        <v>44583</v>
+        <v>44576</v>
       </c>
       <c r="B268" t="s">
         <v>6</v>
@@ -4137,12 +4137,12 @@
         <v>9</v>
       </c>
       <c r="D268" t="n">
-        <v>23.13921875</v>
+        <v>23.0821875</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
-        <v>44584</v>
+        <v>44577</v>
       </c>
       <c r="B269" t="s">
         <v>6</v>
@@ -4151,12 +4151,12 @@
         <v>9</v>
       </c>
       <c r="D269" t="n">
-        <v>23.1396875</v>
+        <v>23.080625</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
-        <v>44585</v>
+        <v>44578</v>
       </c>
       <c r="B270" t="s">
         <v>6</v>
@@ -4165,12 +4165,12 @@
         <v>9</v>
       </c>
       <c r="D270" t="n">
-        <v>23.1428125</v>
+        <v>23.080625</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
-        <v>44586</v>
+        <v>44579</v>
       </c>
       <c r="B271" t="s">
         <v>6</v>
@@ -4179,12 +4179,12 @@
         <v>9</v>
       </c>
       <c r="D271" t="n">
-        <v>23.14609375</v>
+        <v>23.08703125</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
-        <v>44587</v>
+        <v>44580</v>
       </c>
       <c r="B272" t="s">
         <v>6</v>
@@ -4193,12 +4193,12 @@
         <v>9</v>
       </c>
       <c r="D272" t="n">
-        <v>23.15125</v>
+        <v>23.09890625</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
-        <v>44588</v>
+        <v>44581</v>
       </c>
       <c r="B273" t="s">
         <v>6</v>
@@ -4207,12 +4207,12 @@
         <v>9</v>
       </c>
       <c r="D273" t="n">
-        <v>23.1503125</v>
+        <v>23.09890625</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
-        <v>44589</v>
+        <v>44582</v>
       </c>
       <c r="B274" t="s">
         <v>6</v>
@@ -4221,12 +4221,12 @@
         <v>9</v>
       </c>
       <c r="D274" t="n">
-        <v>23.15265625</v>
+        <v>23.1109375</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
-        <v>44590</v>
+        <v>44583</v>
       </c>
       <c r="B275" t="s">
         <v>6</v>
@@ -4235,12 +4235,12 @@
         <v>9</v>
       </c>
       <c r="D275" t="n">
-        <v>23.160625</v>
+        <v>23.13921875</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
-        <v>44591</v>
+        <v>44584</v>
       </c>
       <c r="B276" t="s">
         <v>6</v>
@@ -4249,12 +4249,12 @@
         <v>9</v>
       </c>
       <c r="D276" t="n">
-        <v>23.16828125</v>
+        <v>23.1396875</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
-        <v>44592</v>
+        <v>44585</v>
       </c>
       <c r="B277" t="s">
         <v>6</v>
@@ -4263,12 +4263,12 @@
         <v>9</v>
       </c>
       <c r="D277" t="n">
-        <v>23.16828125</v>
+        <v>23.1428125</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
-        <v>44593</v>
+        <v>44586</v>
       </c>
       <c r="B278" t="s">
         <v>6</v>
@@ -4277,12 +4277,12 @@
         <v>9</v>
       </c>
       <c r="D278" t="n">
-        <v>23.17625</v>
+        <v>23.14609375</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
-        <v>44594</v>
+        <v>44587</v>
       </c>
       <c r="B279" t="s">
         <v>6</v>
@@ -4291,12 +4291,12 @@
         <v>9</v>
       </c>
       <c r="D279" t="n">
-        <v>23.1778125</v>
+        <v>23.15125</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
-        <v>44595</v>
+        <v>44588</v>
       </c>
       <c r="B280" t="s">
         <v>6</v>
@@ -4305,12 +4305,12 @@
         <v>9</v>
       </c>
       <c r="D280" t="n">
-        <v>23.179375</v>
+        <v>23.1503125</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
-        <v>44596</v>
+        <v>44589</v>
       </c>
       <c r="B281" t="s">
         <v>6</v>
@@ -4319,124 +4319,124 @@
         <v>9</v>
       </c>
       <c r="D281" t="n">
-        <v>23.18328125</v>
+        <v>23.15265625</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
-        <v>44562</v>
+        <v>44590</v>
       </c>
       <c r="B282" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C282" t="s">
         <v>9</v>
       </c>
       <c r="D282" t="n">
-        <v>20.6065151515152</v>
+        <v>23.160625</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
-        <v>44563</v>
+        <v>44591</v>
       </c>
       <c r="B283" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C283" t="s">
         <v>9</v>
       </c>
       <c r="D283" t="n">
-        <v>20.6087878787879</v>
+        <v>23.16828125</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
-        <v>44564</v>
+        <v>44592</v>
       </c>
       <c r="B284" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C284" t="s">
         <v>9</v>
       </c>
       <c r="D284" t="n">
-        <v>20.6087878787879</v>
+        <v>23.16828125</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
-        <v>44565</v>
+        <v>44593</v>
       </c>
       <c r="B285" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C285" t="s">
         <v>9</v>
       </c>
       <c r="D285" t="n">
-        <v>20.6133333333333</v>
+        <v>23.17625</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
-        <v>44566</v>
+        <v>44594</v>
       </c>
       <c r="B286" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C286" t="s">
         <v>9</v>
       </c>
       <c r="D286" t="n">
-        <v>20.6781818181818</v>
+        <v>23.1778125</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
-        <v>44567</v>
+        <v>44595</v>
       </c>
       <c r="B287" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C287" t="s">
         <v>9</v>
       </c>
       <c r="D287" t="n">
-        <v>20.7092424242424</v>
+        <v>23.179375</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
-        <v>44568</v>
+        <v>44596</v>
       </c>
       <c r="B288" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C288" t="s">
         <v>9</v>
       </c>
       <c r="D288" t="n">
-        <v>20.7286363636364</v>
+        <v>23.18328125</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
-        <v>44569</v>
+        <v>44597</v>
       </c>
       <c r="B289" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C289" t="s">
         <v>9</v>
       </c>
       <c r="D289" t="n">
-        <v>20.7330303030303</v>
+        <v>23.20125</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
-        <v>44570</v>
+        <v>44562</v>
       </c>
       <c r="B290" t="s">
         <v>7</v>
@@ -4445,12 +4445,12 @@
         <v>9</v>
       </c>
       <c r="D290" t="n">
-        <v>20.725</v>
+        <v>20.6065151515152</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
-        <v>44571</v>
+        <v>44563</v>
       </c>
       <c r="B291" t="s">
         <v>7</v>
@@ -4459,12 +4459,12 @@
         <v>9</v>
       </c>
       <c r="D291" t="n">
-        <v>20.725</v>
+        <v>20.6087878787879</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
-        <v>44572</v>
+        <v>44564</v>
       </c>
       <c r="B292" t="s">
         <v>7</v>
@@ -4473,12 +4473,12 @@
         <v>9</v>
       </c>
       <c r="D292" t="n">
-        <v>20.7128787878788</v>
+        <v>20.6087878787879</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
-        <v>44573</v>
+        <v>44565</v>
       </c>
       <c r="B293" t="s">
         <v>7</v>
@@ -4487,12 +4487,12 @@
         <v>9</v>
       </c>
       <c r="D293" t="n">
-        <v>20.7272727272727</v>
+        <v>20.6133333333333</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
-        <v>44574</v>
+        <v>44566</v>
       </c>
       <c r="B294" t="s">
         <v>7</v>
@@ -4501,12 +4501,12 @@
         <v>9</v>
       </c>
       <c r="D294" t="n">
-        <v>20.7092424242424</v>
+        <v>20.6781818181818</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
-        <v>44575</v>
+        <v>44567</v>
       </c>
       <c r="B295" t="s">
         <v>7</v>
@@ -4515,12 +4515,12 @@
         <v>9</v>
       </c>
       <c r="D295" t="n">
-        <v>20.7124242424242</v>
+        <v>20.7092424242424</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
-        <v>44576</v>
+        <v>44568</v>
       </c>
       <c r="B296" t="s">
         <v>7</v>
@@ -4529,12 +4529,12 @@
         <v>9</v>
       </c>
       <c r="D296" t="n">
-        <v>20.7092424242424</v>
+        <v>20.7286363636364</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
-        <v>44577</v>
+        <v>44569</v>
       </c>
       <c r="B297" t="s">
         <v>7</v>
@@ -4543,12 +4543,12 @@
         <v>9</v>
       </c>
       <c r="D297" t="n">
-        <v>20.7372727272727</v>
+        <v>20.7330303030303</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
-        <v>44578</v>
+        <v>44570</v>
       </c>
       <c r="B298" t="s">
         <v>7</v>
@@ -4557,12 +4557,12 @@
         <v>9</v>
       </c>
       <c r="D298" t="n">
-        <v>20.7372727272727</v>
+        <v>20.725</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
-        <v>44579</v>
+        <v>44571</v>
       </c>
       <c r="B299" t="s">
         <v>7</v>
@@ -4571,12 +4571,12 @@
         <v>9</v>
       </c>
       <c r="D299" t="n">
-        <v>20.7418181818182</v>
+        <v>20.725</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
-        <v>44580</v>
+        <v>44572</v>
       </c>
       <c r="B300" t="s">
         <v>7</v>
@@ -4585,12 +4585,12 @@
         <v>9</v>
       </c>
       <c r="D300" t="n">
-        <v>20.7542424242424</v>
+        <v>20.7128787878788</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
-        <v>44581</v>
+        <v>44573</v>
       </c>
       <c r="B301" t="s">
         <v>7</v>
@@ -4599,12 +4599,12 @@
         <v>9</v>
       </c>
       <c r="D301" t="n">
-        <v>20.7542424242424</v>
+        <v>20.7272727272727</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
-        <v>44582</v>
+        <v>44574</v>
       </c>
       <c r="B302" t="s">
         <v>7</v>
@@ -4613,12 +4613,12 @@
         <v>9</v>
       </c>
       <c r="D302" t="n">
-        <v>20.7706060606061</v>
+        <v>20.7092424242424</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
-        <v>44583</v>
+        <v>44575</v>
       </c>
       <c r="B303" t="s">
         <v>7</v>
@@ -4627,12 +4627,12 @@
         <v>9</v>
       </c>
       <c r="D303" t="n">
-        <v>20.73</v>
+        <v>20.7124242424242</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
-        <v>44584</v>
+        <v>44576</v>
       </c>
       <c r="B304" t="s">
         <v>7</v>
@@ -4641,12 +4641,12 @@
         <v>9</v>
       </c>
       <c r="D304" t="n">
-        <v>20.7478787878788</v>
+        <v>20.7092424242424</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
-        <v>44585</v>
+        <v>44577</v>
       </c>
       <c r="B305" t="s">
         <v>7</v>
@@ -4655,12 +4655,12 @@
         <v>9</v>
       </c>
       <c r="D305" t="n">
-        <v>20.7480303030303</v>
+        <v>20.7372727272727</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
-        <v>44586</v>
+        <v>44578</v>
       </c>
       <c r="B306" t="s">
         <v>7</v>
@@ -4669,12 +4669,12 @@
         <v>9</v>
       </c>
       <c r="D306" t="n">
-        <v>20.7495454545455</v>
+        <v>20.7372727272727</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
-        <v>44587</v>
+        <v>44579</v>
       </c>
       <c r="B307" t="s">
         <v>7</v>
@@ -4683,12 +4683,12 @@
         <v>9</v>
       </c>
       <c r="D307" t="n">
-        <v>20.7660606060606</v>
+        <v>20.7418181818182</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
-        <v>44588</v>
+        <v>44580</v>
       </c>
       <c r="B308" t="s">
         <v>7</v>
@@ -4697,12 +4697,12 @@
         <v>9</v>
       </c>
       <c r="D308" t="n">
-        <v>20.7789393939394</v>
+        <v>20.7542424242424</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
-        <v>44589</v>
+        <v>44581</v>
       </c>
       <c r="B309" t="s">
         <v>7</v>
@@ -4711,12 +4711,12 @@
         <v>9</v>
       </c>
       <c r="D309" t="n">
-        <v>20.7801515151515</v>
+        <v>20.7542424242424</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
-        <v>44590</v>
+        <v>44582</v>
       </c>
       <c r="B310" t="s">
         <v>7</v>
@@ -4725,12 +4725,12 @@
         <v>9</v>
       </c>
       <c r="D310" t="n">
-        <v>20.7775757575758</v>
+        <v>20.7706060606061</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
-        <v>44591</v>
+        <v>44583</v>
       </c>
       <c r="B311" t="s">
         <v>7</v>
@@ -4739,12 +4739,12 @@
         <v>9</v>
       </c>
       <c r="D311" t="n">
-        <v>20.7863636363636</v>
+        <v>20.73</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
-        <v>44592</v>
+        <v>44584</v>
       </c>
       <c r="B312" t="s">
         <v>7</v>
@@ -4753,12 +4753,12 @@
         <v>9</v>
       </c>
       <c r="D312" t="n">
-        <v>20.7863636363636</v>
+        <v>20.7478787878788</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
-        <v>44593</v>
+        <v>44585</v>
       </c>
       <c r="B313" t="s">
         <v>7</v>
@@ -4767,12 +4767,12 @@
         <v>9</v>
       </c>
       <c r="D313" t="n">
-        <v>20.7927272727273</v>
+        <v>20.7480303030303</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
-        <v>44594</v>
+        <v>44586</v>
       </c>
       <c r="B314" t="s">
         <v>7</v>
@@ -4781,12 +4781,12 @@
         <v>9</v>
       </c>
       <c r="D314" t="n">
-        <v>20.7942424242424</v>
+        <v>20.7495454545455</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
-        <v>44595</v>
+        <v>44587</v>
       </c>
       <c r="B315" t="s">
         <v>7</v>
@@ -4795,12 +4795,12 @@
         <v>9</v>
       </c>
       <c r="D315" t="n">
-        <v>20.8087878787879</v>
+        <v>20.7660606060606</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
-        <v>44596</v>
+        <v>44588</v>
       </c>
       <c r="B316" t="s">
         <v>7</v>
@@ -4809,138 +4809,138 @@
         <v>9</v>
       </c>
       <c r="D316" t="n">
-        <v>20.8159090909091</v>
+        <v>20.7789393939394</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
-        <v>44562</v>
+        <v>44589</v>
       </c>
       <c r="B317" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C317" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D317" t="n">
-        <v>21.5029268292683</v>
+        <v>20.7801515151515</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
-        <v>44563</v>
+        <v>44590</v>
       </c>
       <c r="B318" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C318" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D318" t="n">
-        <v>21.5219512195122</v>
+        <v>20.7775757575758</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
-        <v>44564</v>
+        <v>44591</v>
       </c>
       <c r="B319" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C319" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D319" t="n">
-        <v>21.5219512195122</v>
+        <v>20.7863636363636</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
-        <v>44565</v>
+        <v>44592</v>
       </c>
       <c r="B320" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C320" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D320" t="n">
-        <v>21.5675609756098</v>
+        <v>20.7863636363636</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
-        <v>44566</v>
+        <v>44593</v>
       </c>
       <c r="B321" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C321" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D321" t="n">
-        <v>21.5809756097561</v>
+        <v>20.7927272727273</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
-        <v>44567</v>
+        <v>44594</v>
       </c>
       <c r="B322" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C322" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D322" t="n">
-        <v>21.5712195121951</v>
+        <v>20.7942424242424</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
-        <v>44568</v>
+        <v>44595</v>
       </c>
       <c r="B323" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C323" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D323" t="n">
-        <v>21.5631707317073</v>
+        <v>20.8087878787879</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
-        <v>44569</v>
+        <v>44596</v>
       </c>
       <c r="B324" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C324" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D324" t="n">
-        <v>21.5985365853659</v>
+        <v>20.8159090909091</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
-        <v>44570</v>
+        <v>44597</v>
       </c>
       <c r="B325" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C325" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D325" t="n">
-        <v>21.6253658536585</v>
+        <v>20.835</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
-        <v>44571</v>
+        <v>44562</v>
       </c>
       <c r="B326" t="s">
         <v>4</v>
@@ -4949,12 +4949,12 @@
         <v>10</v>
       </c>
       <c r="D326" t="n">
-        <v>21.6253658536585</v>
+        <v>21.5029268292683</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
-        <v>44572</v>
+        <v>44563</v>
       </c>
       <c r="B327" t="s">
         <v>4</v>
@@ -4963,12 +4963,12 @@
         <v>10</v>
       </c>
       <c r="D327" t="n">
-        <v>21.6253658536585</v>
+        <v>21.5219512195122</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
-        <v>44573</v>
+        <v>44564</v>
       </c>
       <c r="B328" t="s">
         <v>4</v>
@@ -4977,12 +4977,12 @@
         <v>10</v>
       </c>
       <c r="D328" t="n">
-        <v>21.6919512195122</v>
+        <v>21.5219512195122</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
-        <v>44574</v>
+        <v>44565</v>
       </c>
       <c r="B329" t="s">
         <v>4</v>
@@ -4991,12 +4991,12 @@
         <v>10</v>
       </c>
       <c r="D329" t="n">
-        <v>21.6775609756098</v>
+        <v>21.5675609756098</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
-        <v>44575</v>
+        <v>44566</v>
       </c>
       <c r="B330" t="s">
         <v>4</v>
@@ -5005,12 +5005,12 @@
         <v>10</v>
       </c>
       <c r="D330" t="n">
-        <v>21.6863414634146</v>
+        <v>21.5809756097561</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
-        <v>44576</v>
+        <v>44567</v>
       </c>
       <c r="B331" t="s">
         <v>4</v>
@@ -5019,12 +5019,12 @@
         <v>10</v>
       </c>
       <c r="D331" t="n">
-        <v>21.6856097560976</v>
+        <v>21.5712195121951</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
-        <v>44577</v>
+        <v>44568</v>
       </c>
       <c r="B332" t="s">
         <v>4</v>
@@ -5033,12 +5033,12 @@
         <v>10</v>
       </c>
       <c r="D332" t="n">
-        <v>21.6756097560976</v>
+        <v>21.5631707317073</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
-        <v>44578</v>
+        <v>44569</v>
       </c>
       <c r="B333" t="s">
         <v>4</v>
@@ -5047,12 +5047,12 @@
         <v>10</v>
       </c>
       <c r="D333" t="n">
-        <v>21.6756097560976</v>
+        <v>21.5985365853659</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="1" t="n">
-        <v>44579</v>
+        <v>44570</v>
       </c>
       <c r="B334" t="s">
         <v>4</v>
@@ -5061,12 +5061,12 @@
         <v>10</v>
       </c>
       <c r="D334" t="n">
-        <v>21.6756097560976</v>
+        <v>21.6253658536585</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="1" t="n">
-        <v>44580</v>
+        <v>44571</v>
       </c>
       <c r="B335" t="s">
         <v>4</v>
@@ -5075,12 +5075,12 @@
         <v>10</v>
       </c>
       <c r="D335" t="n">
-        <v>21.6943902439024</v>
+        <v>21.6253658536585</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="1" t="n">
-        <v>44581</v>
+        <v>44572</v>
       </c>
       <c r="B336" t="s">
         <v>4</v>
@@ -5089,12 +5089,12 @@
         <v>10</v>
       </c>
       <c r="D336" t="n">
-        <v>21.7256097560976</v>
+        <v>21.6253658536585</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="1" t="n">
-        <v>44582</v>
+        <v>44573</v>
       </c>
       <c r="B337" t="s">
         <v>4</v>
@@ -5103,12 +5103,12 @@
         <v>10</v>
       </c>
       <c r="D337" t="n">
-        <v>21.7353658536585</v>
+        <v>21.6919512195122</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="1" t="n">
-        <v>44583</v>
+        <v>44574</v>
       </c>
       <c r="B338" t="s">
         <v>4</v>
@@ -5117,12 +5117,12 @@
         <v>10</v>
       </c>
       <c r="D338" t="n">
-        <v>21.740243902439</v>
+        <v>21.6775609756098</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="1" t="n">
-        <v>44584</v>
+        <v>44575</v>
       </c>
       <c r="B339" t="s">
         <v>4</v>
@@ -5131,12 +5131,12 @@
         <v>10</v>
       </c>
       <c r="D339" t="n">
-        <v>21.7385365853659</v>
+        <v>21.6863414634146</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="1" t="n">
-        <v>44585</v>
+        <v>44576</v>
       </c>
       <c r="B340" t="s">
         <v>4</v>
@@ -5145,12 +5145,12 @@
         <v>10</v>
       </c>
       <c r="D340" t="n">
-        <v>21.7385365853659</v>
+        <v>21.6856097560976</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="1" t="n">
-        <v>44586</v>
+        <v>44577</v>
       </c>
       <c r="B341" t="s">
         <v>4</v>
@@ -5159,12 +5159,12 @@
         <v>10</v>
       </c>
       <c r="D341" t="n">
-        <v>21.7407317073171</v>
+        <v>21.6756097560976</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="1" t="n">
-        <v>44587</v>
+        <v>44578</v>
       </c>
       <c r="B342" t="s">
         <v>4</v>
@@ -5173,12 +5173,12 @@
         <v>10</v>
       </c>
       <c r="D342" t="n">
-        <v>21.7407317073171</v>
+        <v>21.6756097560976</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="1" t="n">
-        <v>44588</v>
+        <v>44579</v>
       </c>
       <c r="B343" t="s">
         <v>4</v>
@@ -5187,12 +5187,12 @@
         <v>10</v>
       </c>
       <c r="D343" t="n">
-        <v>21.7424390243902</v>
+        <v>21.6756097560976</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="1" t="n">
-        <v>44589</v>
+        <v>44580</v>
       </c>
       <c r="B344" t="s">
         <v>4</v>
@@ -5201,12 +5201,12 @@
         <v>10</v>
       </c>
       <c r="D344" t="n">
-        <v>21.7412195121951</v>
+        <v>21.6943902439024</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="1" t="n">
-        <v>44590</v>
+        <v>44581</v>
       </c>
       <c r="B345" t="s">
         <v>4</v>
@@ -5215,12 +5215,12 @@
         <v>10</v>
       </c>
       <c r="D345" t="n">
-        <v>21.7456097560976</v>
+        <v>21.7256097560976</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="1" t="n">
-        <v>44591</v>
+        <v>44582</v>
       </c>
       <c r="B346" t="s">
         <v>4</v>
@@ -5229,12 +5229,12 @@
         <v>10</v>
       </c>
       <c r="D346" t="n">
-        <v>21.7648780487805</v>
+        <v>21.7353658536585</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="1" t="n">
-        <v>44592</v>
+        <v>44583</v>
       </c>
       <c r="B347" t="s">
         <v>4</v>
@@ -5243,12 +5243,12 @@
         <v>10</v>
       </c>
       <c r="D347" t="n">
-        <v>21.769756097561</v>
+        <v>21.740243902439</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="1" t="n">
-        <v>44593</v>
+        <v>44584</v>
       </c>
       <c r="B348" t="s">
         <v>4</v>
@@ -5257,12 +5257,12 @@
         <v>10</v>
       </c>
       <c r="D348" t="n">
-        <v>21.769756097561</v>
+        <v>21.7385365853659</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="1" t="n">
-        <v>44594</v>
+        <v>44585</v>
       </c>
       <c r="B349" t="s">
         <v>4</v>
@@ -5271,12 +5271,12 @@
         <v>10</v>
       </c>
       <c r="D349" t="n">
-        <v>21.7707317073171</v>
+        <v>21.7385365853659</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="1" t="n">
-        <v>44595</v>
+        <v>44586</v>
       </c>
       <c r="B350" t="s">
         <v>4</v>
@@ -5285,12 +5285,12 @@
         <v>10</v>
       </c>
       <c r="D350" t="n">
-        <v>21.7756097560976</v>
+        <v>21.7407317073171</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="1" t="n">
-        <v>44596</v>
+        <v>44587</v>
       </c>
       <c r="B351" t="s">
         <v>4</v>
@@ -5299,152 +5299,152 @@
         <v>10</v>
       </c>
       <c r="D351" t="n">
-        <v>21.7870731707317</v>
+        <v>21.7407317073171</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="1" t="n">
-        <v>44562</v>
+        <v>44588</v>
       </c>
       <c r="B352" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C352" t="s">
         <v>10</v>
       </c>
       <c r="D352" t="n">
-        <v>23.0265454545455</v>
+        <v>21.7424390243902</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="1" t="n">
-        <v>44563</v>
+        <v>44589</v>
       </c>
       <c r="B353" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C353" t="s">
         <v>10</v>
       </c>
       <c r="D353" t="n">
-        <v>23.0314545454545</v>
+        <v>21.7412195121951</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="1" t="n">
-        <v>44564</v>
+        <v>44590</v>
       </c>
       <c r="B354" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C354" t="s">
         <v>10</v>
       </c>
       <c r="D354" t="n">
-        <v>23.0314545454545</v>
+        <v>21.7456097560976</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="1" t="n">
-        <v>44565</v>
+        <v>44591</v>
       </c>
       <c r="B355" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C355" t="s">
         <v>10</v>
       </c>
       <c r="D355" t="n">
-        <v>23.0509090909091</v>
+        <v>21.7648780487805</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="1" t="n">
-        <v>44566</v>
+        <v>44592</v>
       </c>
       <c r="B356" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C356" t="s">
         <v>10</v>
       </c>
       <c r="D356" t="n">
-        <v>23.0698181818182</v>
+        <v>21.769756097561</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="1" t="n">
-        <v>44567</v>
+        <v>44593</v>
       </c>
       <c r="B357" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C357" t="s">
         <v>10</v>
       </c>
       <c r="D357" t="n">
-        <v>23.0838181818182</v>
+        <v>21.769756097561</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="1" t="n">
-        <v>44568</v>
+        <v>44594</v>
       </c>
       <c r="B358" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C358" t="s">
         <v>10</v>
       </c>
       <c r="D358" t="n">
-        <v>23.0914545454545</v>
+        <v>21.7707317073171</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="1" t="n">
-        <v>44569</v>
+        <v>44595</v>
       </c>
       <c r="B359" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C359" t="s">
         <v>10</v>
       </c>
       <c r="D359" t="n">
-        <v>23.1112727272727</v>
+        <v>21.7756097560976</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="1" t="n">
-        <v>44570</v>
+        <v>44596</v>
       </c>
       <c r="B360" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C360" t="s">
         <v>10</v>
       </c>
       <c r="D360" t="n">
-        <v>23.1110909090909</v>
+        <v>21.7870731707317</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="1" t="n">
-        <v>44571</v>
+        <v>44597</v>
       </c>
       <c r="B361" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C361" t="s">
         <v>10</v>
       </c>
       <c r="D361" t="n">
-        <v>23.1092727272727</v>
+        <v>21.859756097561</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="1" t="n">
-        <v>44572</v>
+        <v>44562</v>
       </c>
       <c r="B362" t="s">
         <v>6</v>
@@ -5453,12 +5453,12 @@
         <v>10</v>
       </c>
       <c r="D362" t="n">
-        <v>23.1130909090909</v>
+        <v>23.0265454545455</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="1" t="n">
-        <v>44573</v>
+        <v>44563</v>
       </c>
       <c r="B363" t="s">
         <v>6</v>
@@ -5467,12 +5467,12 @@
         <v>10</v>
       </c>
       <c r="D363" t="n">
-        <v>23.1265454545455</v>
+        <v>23.0314545454545</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="1" t="n">
-        <v>44574</v>
+        <v>44564</v>
       </c>
       <c r="B364" t="s">
         <v>6</v>
@@ -5481,12 +5481,12 @@
         <v>10</v>
       </c>
       <c r="D364" t="n">
-        <v>23.1356363636364</v>
+        <v>23.0314545454545</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="1" t="n">
-        <v>44575</v>
+        <v>44565</v>
       </c>
       <c r="B365" t="s">
         <v>6</v>
@@ -5495,12 +5495,12 @@
         <v>10</v>
       </c>
       <c r="D365" t="n">
-        <v>23.1650909090909</v>
+        <v>23.0509090909091</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="1" t="n">
-        <v>44576</v>
+        <v>44566</v>
       </c>
       <c r="B366" t="s">
         <v>6</v>
@@ -5509,12 +5509,12 @@
         <v>10</v>
       </c>
       <c r="D366" t="n">
-        <v>23.1807272727273</v>
+        <v>23.0698181818182</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="1" t="n">
-        <v>44577</v>
+        <v>44567</v>
       </c>
       <c r="B367" t="s">
         <v>6</v>
@@ -5523,12 +5523,12 @@
         <v>10</v>
       </c>
       <c r="D367" t="n">
-        <v>23.1778181818182</v>
+        <v>23.0838181818182</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="1" t="n">
-        <v>44578</v>
+        <v>44568</v>
       </c>
       <c r="B368" t="s">
         <v>6</v>
@@ -5537,12 +5537,12 @@
         <v>10</v>
       </c>
       <c r="D368" t="n">
-        <v>23.1778181818182</v>
+        <v>23.0914545454545</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="1" t="n">
-        <v>44579</v>
+        <v>44569</v>
       </c>
       <c r="B369" t="s">
         <v>6</v>
@@ -5551,12 +5551,12 @@
         <v>10</v>
       </c>
       <c r="D369" t="n">
-        <v>23.1816363636364</v>
+        <v>23.1112727272727</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="1" t="n">
-        <v>44580</v>
+        <v>44570</v>
       </c>
       <c r="B370" t="s">
         <v>6</v>
@@ -5565,12 +5565,12 @@
         <v>10</v>
       </c>
       <c r="D370" t="n">
-        <v>23.186</v>
+        <v>23.1110909090909</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="1" t="n">
-        <v>44581</v>
+        <v>44571</v>
       </c>
       <c r="B371" t="s">
         <v>6</v>
@@ -5579,12 +5579,12 @@
         <v>10</v>
       </c>
       <c r="D371" t="n">
-        <v>23.186</v>
+        <v>23.1092727272727</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="1" t="n">
-        <v>44582</v>
+        <v>44572</v>
       </c>
       <c r="B372" t="s">
         <v>6</v>
@@ -5593,12 +5593,12 @@
         <v>10</v>
       </c>
       <c r="D372" t="n">
-        <v>23.1732727272727</v>
+        <v>23.1130909090909</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="1" t="n">
-        <v>44583</v>
+        <v>44573</v>
       </c>
       <c r="B373" t="s">
         <v>6</v>
@@ -5607,12 +5607,12 @@
         <v>10</v>
       </c>
       <c r="D373" t="n">
-        <v>23.1850909090909</v>
+        <v>23.1265454545455</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="1" t="n">
-        <v>44584</v>
+        <v>44574</v>
       </c>
       <c r="B374" t="s">
         <v>6</v>
@@ -5621,12 +5621,12 @@
         <v>10</v>
       </c>
       <c r="D374" t="n">
-        <v>23.1852727272727</v>
+        <v>23.1356363636364</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="1" t="n">
-        <v>44585</v>
+        <v>44575</v>
       </c>
       <c r="B375" t="s">
         <v>6</v>
@@ -5635,12 +5635,12 @@
         <v>10</v>
       </c>
       <c r="D375" t="n">
-        <v>23.1852727272727</v>
+        <v>23.1650909090909</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="1" t="n">
-        <v>44586</v>
+        <v>44576</v>
       </c>
       <c r="B376" t="s">
         <v>6</v>
@@ -5649,12 +5649,12 @@
         <v>10</v>
       </c>
       <c r="D376" t="n">
-        <v>23.1901818181818</v>
+        <v>23.1807272727273</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="1" t="n">
-        <v>44587</v>
+        <v>44577</v>
       </c>
       <c r="B377" t="s">
         <v>6</v>
@@ -5663,12 +5663,12 @@
         <v>10</v>
       </c>
       <c r="D377" t="n">
-        <v>23.2003636363636</v>
+        <v>23.1778181818182</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="1" t="n">
-        <v>44588</v>
+        <v>44578</v>
       </c>
       <c r="B378" t="s">
         <v>6</v>
@@ -5677,12 +5677,12 @@
         <v>10</v>
       </c>
       <c r="D378" t="n">
-        <v>23.2023636363636</v>
+        <v>23.1778181818182</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="1" t="n">
-        <v>44589</v>
+        <v>44579</v>
       </c>
       <c r="B379" t="s">
         <v>6</v>
@@ -5691,12 +5691,12 @@
         <v>10</v>
       </c>
       <c r="D379" t="n">
-        <v>23.1981818181818</v>
+        <v>23.1816363636364</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="1" t="n">
-        <v>44590</v>
+        <v>44580</v>
       </c>
       <c r="B380" t="s">
         <v>6</v>
@@ -5705,12 +5705,12 @@
         <v>10</v>
       </c>
       <c r="D380" t="n">
-        <v>23.2034545454545</v>
+        <v>23.186</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="1" t="n">
-        <v>44591</v>
+        <v>44581</v>
       </c>
       <c r="B381" t="s">
         <v>6</v>
@@ -5719,12 +5719,12 @@
         <v>10</v>
       </c>
       <c r="D381" t="n">
-        <v>23.2032727272727</v>
+        <v>23.186</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="1" t="n">
-        <v>44592</v>
+        <v>44582</v>
       </c>
       <c r="B382" t="s">
         <v>6</v>
@@ -5733,12 +5733,12 @@
         <v>10</v>
       </c>
       <c r="D382" t="n">
-        <v>23.2287272727273</v>
+        <v>23.1732727272727</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="1" t="n">
-        <v>44593</v>
+        <v>44583</v>
       </c>
       <c r="B383" t="s">
         <v>6</v>
@@ -5747,12 +5747,12 @@
         <v>10</v>
       </c>
       <c r="D383" t="n">
-        <v>23.2325454545455</v>
+        <v>23.1850909090909</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="1" t="n">
-        <v>44594</v>
+        <v>44584</v>
       </c>
       <c r="B384" t="s">
         <v>6</v>
@@ -5761,12 +5761,12 @@
         <v>10</v>
       </c>
       <c r="D384" t="n">
-        <v>23.2372727272727</v>
+        <v>23.1852727272727</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="1" t="n">
-        <v>44595</v>
+        <v>44585</v>
       </c>
       <c r="B385" t="s">
         <v>6</v>
@@ -5775,12 +5775,12 @@
         <v>10</v>
       </c>
       <c r="D385" t="n">
-        <v>23.2390909090909</v>
+        <v>23.1852727272727</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="1" t="n">
-        <v>44596</v>
+        <v>44586</v>
       </c>
       <c r="B386" t="s">
         <v>6</v>
@@ -5789,166 +5789,166 @@
         <v>10</v>
       </c>
       <c r="D386" t="n">
-        <v>23.2445454545455</v>
+        <v>23.1901818181818</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="1" t="n">
-        <v>44562</v>
+        <v>44587</v>
       </c>
       <c r="B387" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C387" t="s">
         <v>10</v>
       </c>
       <c r="D387" t="n">
-        <v>20.702</v>
+        <v>23.2003636363636</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="1" t="n">
-        <v>44563</v>
+        <v>44588</v>
       </c>
       <c r="B388" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C388" t="s">
         <v>10</v>
       </c>
       <c r="D388" t="n">
-        <v>20.7236363636364</v>
+        <v>23.2023636363636</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="1" t="n">
-        <v>44564</v>
+        <v>44589</v>
       </c>
       <c r="B389" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C389" t="s">
         <v>10</v>
       </c>
       <c r="D389" t="n">
-        <v>20.7345454545455</v>
+        <v>23.1981818181818</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="1" t="n">
-        <v>44565</v>
+        <v>44590</v>
       </c>
       <c r="B390" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C390" t="s">
         <v>10</v>
       </c>
       <c r="D390" t="n">
-        <v>20.7574545454545</v>
+        <v>23.2034545454545</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="1" t="n">
-        <v>44566</v>
+        <v>44591</v>
       </c>
       <c r="B391" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C391" t="s">
         <v>10</v>
       </c>
       <c r="D391" t="n">
-        <v>20.7961818181818</v>
+        <v>23.2032727272727</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="1" t="n">
-        <v>44567</v>
+        <v>44592</v>
       </c>
       <c r="B392" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C392" t="s">
         <v>10</v>
       </c>
       <c r="D392" t="n">
-        <v>20.8190909090909</v>
+        <v>23.2287272727273</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="1" t="n">
-        <v>44568</v>
+        <v>44593</v>
       </c>
       <c r="B393" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C393" t="s">
         <v>10</v>
       </c>
       <c r="D393" t="n">
-        <v>20.8203636363636</v>
+        <v>23.2325454545455</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="1" t="n">
-        <v>44569</v>
+        <v>44594</v>
       </c>
       <c r="B394" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C394" t="s">
         <v>10</v>
       </c>
       <c r="D394" t="n">
-        <v>20.8349090909091</v>
+        <v>23.2372727272727</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="1" t="n">
-        <v>44570</v>
+        <v>44595</v>
       </c>
       <c r="B395" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C395" t="s">
         <v>10</v>
       </c>
       <c r="D395" t="n">
-        <v>20.8312727272727</v>
+        <v>23.2390909090909</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="1" t="n">
-        <v>44571</v>
+        <v>44596</v>
       </c>
       <c r="B396" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C396" t="s">
         <v>10</v>
       </c>
       <c r="D396" t="n">
-        <v>20.8221818181818</v>
+        <v>23.2445454545455</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="1" t="n">
-        <v>44572</v>
+        <v>44597</v>
       </c>
       <c r="B397" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C397" t="s">
         <v>10</v>
       </c>
       <c r="D397" t="n">
-        <v>20.8258181818182</v>
+        <v>23.2621818181818</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="1" t="n">
-        <v>44573</v>
+        <v>44562</v>
       </c>
       <c r="B398" t="s">
         <v>7</v>
@@ -5957,12 +5957,12 @@
         <v>10</v>
       </c>
       <c r="D398" t="n">
-        <v>20.826</v>
+        <v>20.702</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="1" t="n">
-        <v>44574</v>
+        <v>44563</v>
       </c>
       <c r="B399" t="s">
         <v>7</v>
@@ -5971,12 +5971,12 @@
         <v>10</v>
       </c>
       <c r="D399" t="n">
-        <v>20.8196363636364</v>
+        <v>20.7236363636364</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="1" t="n">
-        <v>44575</v>
+        <v>44564</v>
       </c>
       <c r="B400" t="s">
         <v>7</v>
@@ -5985,12 +5985,12 @@
         <v>10</v>
       </c>
       <c r="D400" t="n">
-        <v>20.8356363636364</v>
+        <v>20.7345454545455</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="1" t="n">
-        <v>44576</v>
+        <v>44565</v>
       </c>
       <c r="B401" t="s">
         <v>7</v>
@@ -5999,12 +5999,12 @@
         <v>10</v>
       </c>
       <c r="D401" t="n">
-        <v>20.8518181818182</v>
+        <v>20.7574545454545</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="1" t="n">
-        <v>44577</v>
+        <v>44566</v>
       </c>
       <c r="B402" t="s">
         <v>7</v>
@@ -6013,12 +6013,12 @@
         <v>10</v>
       </c>
       <c r="D402" t="n">
-        <v>20.8463636363636</v>
+        <v>20.7961818181818</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="1" t="n">
-        <v>44578</v>
+        <v>44567</v>
       </c>
       <c r="B403" t="s">
         <v>7</v>
@@ -6027,12 +6027,12 @@
         <v>10</v>
       </c>
       <c r="D403" t="n">
-        <v>20.85</v>
+        <v>20.8190909090909</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="1" t="n">
-        <v>44579</v>
+        <v>44568</v>
       </c>
       <c r="B404" t="s">
         <v>7</v>
@@ -6041,12 +6041,12 @@
         <v>10</v>
       </c>
       <c r="D404" t="n">
-        <v>20.8536363636364</v>
+        <v>20.8203636363636</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="1" t="n">
-        <v>44580</v>
+        <v>44569</v>
       </c>
       <c r="B405" t="s">
         <v>7</v>
@@ -6055,12 +6055,12 @@
         <v>10</v>
       </c>
       <c r="D405" t="n">
-        <v>20.8594545454545</v>
+        <v>20.8349090909091</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="1" t="n">
-        <v>44581</v>
+        <v>44570</v>
       </c>
       <c r="B406" t="s">
         <v>7</v>
@@ -6069,12 +6069,12 @@
         <v>10</v>
       </c>
       <c r="D406" t="n">
-        <v>20.8832727272727</v>
+        <v>20.8312727272727</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" s="1" t="n">
-        <v>44582</v>
+        <v>44571</v>
       </c>
       <c r="B407" t="s">
         <v>7</v>
@@ -6083,12 +6083,12 @@
         <v>10</v>
       </c>
       <c r="D407" t="n">
-        <v>20.8901818181818</v>
+        <v>20.8221818181818</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="1" t="n">
-        <v>44583</v>
+        <v>44572</v>
       </c>
       <c r="B408" t="s">
         <v>7</v>
@@ -6097,12 +6097,12 @@
         <v>10</v>
       </c>
       <c r="D408" t="n">
-        <v>20.8945454545455</v>
+        <v>20.8258181818182</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="1" t="n">
-        <v>44584</v>
+        <v>44573</v>
       </c>
       <c r="B409" t="s">
         <v>7</v>
@@ -6111,12 +6111,12 @@
         <v>10</v>
       </c>
       <c r="D409" t="n">
-        <v>20.8929090909091</v>
+        <v>20.826</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="1" t="n">
-        <v>44585</v>
+        <v>44574</v>
       </c>
       <c r="B410" t="s">
         <v>7</v>
@@ -6125,12 +6125,12 @@
         <v>10</v>
       </c>
       <c r="D410" t="n">
-        <v>20.8929090909091</v>
+        <v>20.8196363636364</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="1" t="n">
-        <v>44586</v>
+        <v>44575</v>
       </c>
       <c r="B411" t="s">
         <v>7</v>
@@ -6139,12 +6139,12 @@
         <v>10</v>
       </c>
       <c r="D411" t="n">
-        <v>20.8936363636364</v>
+        <v>20.8356363636364</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="1" t="n">
-        <v>44587</v>
+        <v>44576</v>
       </c>
       <c r="B412" t="s">
         <v>7</v>
@@ -6153,12 +6153,12 @@
         <v>10</v>
       </c>
       <c r="D412" t="n">
-        <v>20.8992727272727</v>
+        <v>20.8518181818182</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="1" t="n">
-        <v>44588</v>
+        <v>44577</v>
       </c>
       <c r="B413" t="s">
         <v>7</v>
@@ -6167,12 +6167,12 @@
         <v>10</v>
       </c>
       <c r="D413" t="n">
-        <v>20.8990909090909</v>
+        <v>20.8463636363636</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" s="1" t="n">
-        <v>44589</v>
+        <v>44578</v>
       </c>
       <c r="B414" t="s">
         <v>7</v>
@@ -6181,12 +6181,12 @@
         <v>10</v>
       </c>
       <c r="D414" t="n">
-        <v>20.8976363636364</v>
+        <v>20.85</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" s="1" t="n">
-        <v>44590</v>
+        <v>44579</v>
       </c>
       <c r="B415" t="s">
         <v>7</v>
@@ -6195,12 +6195,12 @@
         <v>10</v>
       </c>
       <c r="D415" t="n">
-        <v>20.8961818181818</v>
+        <v>20.8536363636364</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" s="1" t="n">
-        <v>44591</v>
+        <v>44580</v>
       </c>
       <c r="B416" t="s">
         <v>7</v>
@@ -6209,12 +6209,12 @@
         <v>10</v>
       </c>
       <c r="D416" t="n">
-        <v>20.8981818181818</v>
+        <v>20.8594545454545</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" s="1" t="n">
-        <v>44592</v>
+        <v>44581</v>
       </c>
       <c r="B417" t="s">
         <v>7</v>
@@ -6223,12 +6223,12 @@
         <v>10</v>
       </c>
       <c r="D417" t="n">
-        <v>20.9018181818182</v>
+        <v>20.8832727272727</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" s="1" t="n">
-        <v>44593</v>
+        <v>44582</v>
       </c>
       <c r="B418" t="s">
         <v>7</v>
@@ -6237,12 +6237,12 @@
         <v>10</v>
       </c>
       <c r="D418" t="n">
-        <v>20.9054545454545</v>
+        <v>20.8901818181818</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" s="1" t="n">
-        <v>44594</v>
+        <v>44583</v>
       </c>
       <c r="B419" t="s">
         <v>7</v>
@@ -6251,12 +6251,12 @@
         <v>10</v>
       </c>
       <c r="D419" t="n">
-        <v>20.9210909090909</v>
+        <v>20.8945454545455</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" s="1" t="n">
-        <v>44595</v>
+        <v>44584</v>
       </c>
       <c r="B420" t="s">
         <v>7</v>
@@ -6265,12 +6265,12 @@
         <v>10</v>
       </c>
       <c r="D420" t="n">
-        <v>20.9210909090909</v>
+        <v>20.8929090909091</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" s="1" t="n">
-        <v>44596</v>
+        <v>44585</v>
       </c>
       <c r="B421" t="s">
         <v>7</v>
@@ -6279,180 +6279,180 @@
         <v>10</v>
       </c>
       <c r="D421" t="n">
-        <v>20.9252727272727</v>
+        <v>20.8929090909091</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" s="1" t="n">
-        <v>44562</v>
+        <v>44586</v>
       </c>
       <c r="B422" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C422" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D422" t="n">
-        <v>21.8417142857143</v>
+        <v>20.8936363636364</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" s="1" t="n">
-        <v>44563</v>
+        <v>44587</v>
       </c>
       <c r="B423" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C423" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D423" t="n">
-        <v>21.8468571428571</v>
+        <v>20.8992727272727</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" s="1" t="n">
-        <v>44564</v>
+        <v>44588</v>
       </c>
       <c r="B424" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C424" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D424" t="n">
-        <v>21.8748571428571</v>
+        <v>20.8990909090909</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" s="1" t="n">
-        <v>44565</v>
+        <v>44589</v>
       </c>
       <c r="B425" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C425" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D425" t="n">
-        <v>21.8748571428571</v>
+        <v>20.8976363636364</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" s="1" t="n">
-        <v>44566</v>
+        <v>44590</v>
       </c>
       <c r="B426" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C426" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D426" t="n">
-        <v>21.8662857142857</v>
+        <v>20.8961818181818</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" s="1" t="n">
-        <v>44567</v>
+        <v>44591</v>
       </c>
       <c r="B427" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C427" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D427" t="n">
-        <v>21.8582857142857</v>
+        <v>20.8981818181818</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" s="1" t="n">
-        <v>44568</v>
+        <v>44592</v>
       </c>
       <c r="B428" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C428" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D428" t="n">
-        <v>21.8522857142857</v>
+        <v>20.9018181818182</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" s="1" t="n">
-        <v>44569</v>
+        <v>44593</v>
       </c>
       <c r="B429" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C429" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D429" t="n">
-        <v>21.8597142857143</v>
+        <v>20.9054545454545</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" s="1" t="n">
-        <v>44570</v>
+        <v>44594</v>
       </c>
       <c r="B430" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C430" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D430" t="n">
-        <v>21.8691428571429</v>
+        <v>20.9210909090909</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" s="1" t="n">
-        <v>44571</v>
+        <v>44595</v>
       </c>
       <c r="B431" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C431" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D431" t="n">
-        <v>21.8691428571429</v>
+        <v>20.9210909090909</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" s="1" t="n">
-        <v>44572</v>
+        <v>44596</v>
       </c>
       <c r="B432" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C432" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D432" t="n">
-        <v>21.8691428571429</v>
+        <v>20.9252727272727</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" s="1" t="n">
-        <v>44573</v>
+        <v>44597</v>
       </c>
       <c r="B433" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C433" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D433" t="n">
-        <v>21.8882857142857</v>
+        <v>20.9829090909091</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" s="1" t="n">
-        <v>44574</v>
+        <v>44562</v>
       </c>
       <c r="B434" t="s">
         <v>4</v>
@@ -6461,12 +6461,12 @@
         <v>11</v>
       </c>
       <c r="D434" t="n">
-        <v>21.9302857142857</v>
+        <v>21.8417142857143</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" s="1" t="n">
-        <v>44575</v>
+        <v>44563</v>
       </c>
       <c r="B435" t="s">
         <v>4</v>
@@ -6475,12 +6475,12 @@
         <v>11</v>
       </c>
       <c r="D435" t="n">
-        <v>21.9345714285714</v>
+        <v>21.8468571428571</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" s="1" t="n">
-        <v>44576</v>
+        <v>44564</v>
       </c>
       <c r="B436" t="s">
         <v>4</v>
@@ -6489,12 +6489,12 @@
         <v>11</v>
       </c>
       <c r="D436" t="n">
-        <v>21.952</v>
+        <v>21.8748571428571</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" s="1" t="n">
-        <v>44577</v>
+        <v>44565</v>
       </c>
       <c r="B437" t="s">
         <v>4</v>
@@ -6503,12 +6503,12 @@
         <v>11</v>
       </c>
       <c r="D437" t="n">
-        <v>21.9737142857143</v>
+        <v>21.8748571428571</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" s="1" t="n">
-        <v>44578</v>
+        <v>44566</v>
       </c>
       <c r="B438" t="s">
         <v>4</v>
@@ -6517,12 +6517,12 @@
         <v>11</v>
       </c>
       <c r="D438" t="n">
-        <v>21.9737142857143</v>
+        <v>21.8662857142857</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" s="1" t="n">
-        <v>44579</v>
+        <v>44567</v>
       </c>
       <c r="B439" t="s">
         <v>4</v>
@@ -6531,12 +6531,12 @@
         <v>11</v>
       </c>
       <c r="D439" t="n">
-        <v>21.9871428571429</v>
+        <v>21.8582857142857</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" s="1" t="n">
-        <v>44580</v>
+        <v>44568</v>
       </c>
       <c r="B440" t="s">
         <v>4</v>
@@ -6545,12 +6545,12 @@
         <v>11</v>
       </c>
       <c r="D440" t="n">
-        <v>21.9871428571429</v>
+        <v>21.8522857142857</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" s="1" t="n">
-        <v>44581</v>
+        <v>44569</v>
       </c>
       <c r="B441" t="s">
         <v>4</v>
@@ -6559,12 +6559,12 @@
         <v>11</v>
       </c>
       <c r="D441" t="n">
-        <v>21.9908571428571</v>
+        <v>21.8597142857143</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" s="1" t="n">
-        <v>44582</v>
+        <v>44570</v>
       </c>
       <c r="B442" t="s">
         <v>4</v>
@@ -6573,12 +6573,12 @@
         <v>11</v>
       </c>
       <c r="D442" t="n">
-        <v>22.0005714285714</v>
+        <v>21.8691428571429</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" s="1" t="n">
-        <v>44583</v>
+        <v>44571</v>
       </c>
       <c r="B443" t="s">
         <v>4</v>
@@ -6587,12 +6587,12 @@
         <v>11</v>
       </c>
       <c r="D443" t="n">
-        <v>22.0005714285714</v>
+        <v>21.8691428571429</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" s="1" t="n">
-        <v>44584</v>
+        <v>44572</v>
       </c>
       <c r="B444" t="s">
         <v>4</v>
@@ -6601,12 +6601,12 @@
         <v>11</v>
       </c>
       <c r="D444" t="n">
-        <v>21.9988571428571</v>
+        <v>21.8691428571429</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" s="1" t="n">
-        <v>44585</v>
+        <v>44573</v>
       </c>
       <c r="B445" t="s">
         <v>4</v>
@@ -6615,12 +6615,12 @@
         <v>11</v>
       </c>
       <c r="D445" t="n">
-        <v>22.0045714285714</v>
+        <v>21.8882857142857</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" s="1" t="n">
-        <v>44586</v>
+        <v>44574</v>
       </c>
       <c r="B446" t="s">
         <v>4</v>
@@ -6629,12 +6629,12 @@
         <v>11</v>
       </c>
       <c r="D446" t="n">
-        <v>22.0045714285714</v>
+        <v>21.9302857142857</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" s="1" t="n">
-        <v>44587</v>
+        <v>44575</v>
       </c>
       <c r="B447" t="s">
         <v>4</v>
@@ -6643,12 +6643,12 @@
         <v>11</v>
       </c>
       <c r="D447" t="n">
-        <v>22.0342857142857</v>
+        <v>21.9345714285714</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" s="1" t="n">
-        <v>44588</v>
+        <v>44576</v>
       </c>
       <c r="B448" t="s">
         <v>4</v>
@@ -6657,12 +6657,12 @@
         <v>11</v>
       </c>
       <c r="D448" t="n">
-        <v>22.0474285714286</v>
+        <v>21.952</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" s="1" t="n">
-        <v>44589</v>
+        <v>44577</v>
       </c>
       <c r="B449" t="s">
         <v>4</v>
@@ -6671,12 +6671,12 @@
         <v>11</v>
       </c>
       <c r="D449" t="n">
-        <v>22.0394285714286</v>
+        <v>21.9737142857143</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" s="1" t="n">
-        <v>44590</v>
+        <v>44578</v>
       </c>
       <c r="B450" t="s">
         <v>4</v>
@@ -6685,12 +6685,12 @@
         <v>11</v>
       </c>
       <c r="D450" t="n">
-        <v>22.0402857142857</v>
+        <v>21.9737142857143</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" s="1" t="n">
-        <v>44591</v>
+        <v>44579</v>
       </c>
       <c r="B451" t="s">
         <v>4</v>
@@ -6699,12 +6699,12 @@
         <v>11</v>
       </c>
       <c r="D451" t="n">
-        <v>22.0548571428571</v>
+        <v>21.9871428571429</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" s="1" t="n">
-        <v>44592</v>
+        <v>44580</v>
       </c>
       <c r="B452" t="s">
         <v>4</v>
@@ -6713,12 +6713,12 @@
         <v>11</v>
       </c>
       <c r="D452" t="n">
-        <v>22.0548571428571</v>
+        <v>21.9871428571429</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" s="1" t="n">
-        <v>44593</v>
+        <v>44581</v>
       </c>
       <c r="B453" t="s">
         <v>4</v>
@@ -6727,12 +6727,12 @@
         <v>11</v>
       </c>
       <c r="D453" t="n">
-        <v>22.0548571428571</v>
+        <v>21.9908571428571</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" s="1" t="n">
-        <v>44594</v>
+        <v>44582</v>
       </c>
       <c r="B454" t="s">
         <v>4</v>
@@ -6741,12 +6741,12 @@
         <v>11</v>
       </c>
       <c r="D454" t="n">
-        <v>22.0748571428571</v>
+        <v>22.0005714285714</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" s="1" t="n">
-        <v>44595</v>
+        <v>44583</v>
       </c>
       <c r="B455" t="s">
         <v>4</v>
@@ -6755,12 +6755,12 @@
         <v>11</v>
       </c>
       <c r="D455" t="n">
-        <v>22.0837142857143</v>
+        <v>22.0005714285714</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" s="1" t="n">
-        <v>44596</v>
+        <v>44584</v>
       </c>
       <c r="B456" t="s">
         <v>4</v>
@@ -6769,194 +6769,194 @@
         <v>11</v>
       </c>
       <c r="D456" t="n">
-        <v>22.1005714285714</v>
+        <v>21.9988571428571</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" s="1" t="n">
-        <v>44562</v>
+        <v>44585</v>
       </c>
       <c r="B457" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C457" t="s">
         <v>11</v>
       </c>
       <c r="D457" t="n">
-        <v>22.96</v>
+        <v>22.0045714285714</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" s="1" t="n">
-        <v>44563</v>
+        <v>44586</v>
       </c>
       <c r="B458" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C458" t="s">
         <v>11</v>
       </c>
       <c r="D458" t="n">
-        <v>22.9595238095238</v>
+        <v>22.0045714285714</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" s="1" t="n">
-        <v>44564</v>
+        <v>44587</v>
       </c>
       <c r="B459" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C459" t="s">
         <v>11</v>
       </c>
       <c r="D459" t="n">
-        <v>22.9659523809524</v>
+        <v>22.0342857142857</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" s="1" t="n">
-        <v>44565</v>
+        <v>44588</v>
       </c>
       <c r="B460" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C460" t="s">
         <v>11</v>
       </c>
       <c r="D460" t="n">
-        <v>22.9659523809524</v>
+        <v>22.0474285714286</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" s="1" t="n">
-        <v>44566</v>
+        <v>44589</v>
       </c>
       <c r="B461" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C461" t="s">
         <v>11</v>
       </c>
       <c r="D461" t="n">
-        <v>22.967619047619</v>
+        <v>22.0394285714286</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" s="1" t="n">
-        <v>44567</v>
+        <v>44590</v>
       </c>
       <c r="B462" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C462" t="s">
         <v>11</v>
       </c>
       <c r="D462" t="n">
-        <v>22.9961904761905</v>
+        <v>22.0402857142857</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" s="1" t="n">
-        <v>44568</v>
+        <v>44591</v>
       </c>
       <c r="B463" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C463" t="s">
         <v>11</v>
       </c>
       <c r="D463" t="n">
-        <v>23.0071428571429</v>
+        <v>22.0548571428571</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" s="1" t="n">
-        <v>44569</v>
+        <v>44592</v>
       </c>
       <c r="B464" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C464" t="s">
         <v>11</v>
       </c>
       <c r="D464" t="n">
-        <v>23.0109523809524</v>
+        <v>22.0548571428571</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" s="1" t="n">
-        <v>44570</v>
+        <v>44593</v>
       </c>
       <c r="B465" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C465" t="s">
         <v>11</v>
       </c>
       <c r="D465" t="n">
-        <v>23.0119047619048</v>
+        <v>22.0548571428571</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" s="1" t="n">
-        <v>44571</v>
+        <v>44594</v>
       </c>
       <c r="B466" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C466" t="s">
         <v>11</v>
       </c>
       <c r="D466" t="n">
-        <v>23.0119047619048</v>
+        <v>22.0748571428571</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" s="1" t="n">
-        <v>44572</v>
+        <v>44595</v>
       </c>
       <c r="B467" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C467" t="s">
         <v>11</v>
       </c>
       <c r="D467" t="n">
-        <v>23.017619047619</v>
+        <v>22.0837142857143</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" s="1" t="n">
-        <v>44573</v>
+        <v>44596</v>
       </c>
       <c r="B468" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C468" t="s">
         <v>11</v>
       </c>
       <c r="D468" t="n">
-        <v>23.0330952380952</v>
+        <v>22.1005714285714</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" s="1" t="n">
-        <v>44574</v>
+        <v>44597</v>
       </c>
       <c r="B469" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C469" t="s">
         <v>11</v>
       </c>
       <c r="D469" t="n">
-        <v>23.0414285714286</v>
+        <v>22.0702857142857</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" s="1" t="n">
-        <v>44575</v>
+        <v>44562</v>
       </c>
       <c r="B470" t="s">
         <v>6</v>
@@ -6965,12 +6965,12 @@
         <v>11</v>
       </c>
       <c r="D470" t="n">
-        <v>23.0495238095238</v>
+        <v>22.96</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" s="1" t="n">
-        <v>44576</v>
+        <v>44563</v>
       </c>
       <c r="B471" t="s">
         <v>6</v>
@@ -6979,12 +6979,12 @@
         <v>11</v>
       </c>
       <c r="D471" t="n">
-        <v>23.0514285714286</v>
+        <v>22.9595238095238</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" s="1" t="n">
-        <v>44577</v>
+        <v>44564</v>
       </c>
       <c r="B472" t="s">
         <v>6</v>
@@ -6993,12 +6993,12 @@
         <v>11</v>
       </c>
       <c r="D472" t="n">
-        <v>23.0566666666667</v>
+        <v>22.9659523809524</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" s="1" t="n">
-        <v>44578</v>
+        <v>44565</v>
       </c>
       <c r="B473" t="s">
         <v>6</v>
@@ -7007,12 +7007,12 @@
         <v>11</v>
       </c>
       <c r="D473" t="n">
-        <v>23.0569047619048</v>
+        <v>22.9659523809524</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" s="1" t="n">
-        <v>44579</v>
+        <v>44566</v>
       </c>
       <c r="B474" t="s">
         <v>6</v>
@@ -7021,12 +7021,12 @@
         <v>11</v>
       </c>
       <c r="D474" t="n">
-        <v>23.0569047619048</v>
+        <v>22.967619047619</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" s="1" t="n">
-        <v>44580</v>
+        <v>44567</v>
       </c>
       <c r="B475" t="s">
         <v>6</v>
@@ -7035,12 +7035,12 @@
         <v>11</v>
       </c>
       <c r="D475" t="n">
-        <v>23.047380952381</v>
+        <v>22.9961904761905</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" s="1" t="n">
-        <v>44581</v>
+        <v>44568</v>
       </c>
       <c r="B476" t="s">
         <v>6</v>
@@ -7049,12 +7049,12 @@
         <v>11</v>
       </c>
       <c r="D476" t="n">
-        <v>23.0485714285714</v>
+        <v>23.0071428571429</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" s="1" t="n">
-        <v>44582</v>
+        <v>44569</v>
       </c>
       <c r="B477" t="s">
         <v>6</v>
@@ -7063,12 +7063,12 @@
         <v>11</v>
       </c>
       <c r="D477" t="n">
-        <v>23.0492857142857</v>
+        <v>23.0109523809524</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" s="1" t="n">
-        <v>44583</v>
+        <v>44570</v>
       </c>
       <c r="B478" t="s">
         <v>6</v>
@@ -7077,12 +7077,12 @@
         <v>11</v>
       </c>
       <c r="D478" t="n">
-        <v>23.0545238095238</v>
+        <v>23.0119047619048</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" s="1" t="n">
-        <v>44584</v>
+        <v>44571</v>
       </c>
       <c r="B479" t="s">
         <v>6</v>
@@ -7091,12 +7091,12 @@
         <v>11</v>
       </c>
       <c r="D479" t="n">
-        <v>23.0545238095238</v>
+        <v>23.0119047619048</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" s="1" t="n">
-        <v>44585</v>
+        <v>44572</v>
       </c>
       <c r="B480" t="s">
         <v>6</v>
@@ -7105,12 +7105,12 @@
         <v>11</v>
       </c>
       <c r="D480" t="n">
-        <v>23.057380952381</v>
+        <v>23.017619047619</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" s="1" t="n">
-        <v>44586</v>
+        <v>44573</v>
       </c>
       <c r="B481" t="s">
         <v>6</v>
@@ -7119,12 +7119,12 @@
         <v>11</v>
       </c>
       <c r="D481" t="n">
-        <v>23.057380952381</v>
+        <v>23.0330952380952</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" s="1" t="n">
-        <v>44587</v>
+        <v>44574</v>
       </c>
       <c r="B482" t="s">
         <v>6</v>
@@ -7133,12 +7133,12 @@
         <v>11</v>
       </c>
       <c r="D482" t="n">
-        <v>23.0678571428571</v>
+        <v>23.0414285714286</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" s="1" t="n">
-        <v>44588</v>
+        <v>44575</v>
       </c>
       <c r="B483" t="s">
         <v>6</v>
@@ -7147,12 +7147,12 @@
         <v>11</v>
       </c>
       <c r="D483" t="n">
-        <v>23.0754761904762</v>
+        <v>23.0495238095238</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" s="1" t="n">
-        <v>44589</v>
+        <v>44576</v>
       </c>
       <c r="B484" t="s">
         <v>6</v>
@@ -7161,12 +7161,12 @@
         <v>11</v>
       </c>
       <c r="D484" t="n">
-        <v>23.0414285714286</v>
+        <v>23.0514285714286</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" s="1" t="n">
-        <v>44590</v>
+        <v>44577</v>
       </c>
       <c r="B485" t="s">
         <v>6</v>
@@ -7175,12 +7175,12 @@
         <v>11</v>
       </c>
       <c r="D485" t="n">
-        <v>23.0947619047619</v>
+        <v>23.0566666666667</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" s="1" t="n">
-        <v>44591</v>
+        <v>44578</v>
       </c>
       <c r="B486" t="s">
         <v>6</v>
@@ -7189,12 +7189,12 @@
         <v>11</v>
       </c>
       <c r="D486" t="n">
-        <v>23.1142857142857</v>
+        <v>23.0569047619048</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" s="1" t="n">
-        <v>44592</v>
+        <v>44579</v>
       </c>
       <c r="B487" t="s">
         <v>6</v>
@@ -7203,12 +7203,12 @@
         <v>11</v>
       </c>
       <c r="D487" t="n">
-        <v>23.1142857142857</v>
+        <v>23.0569047619048</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" s="1" t="n">
-        <v>44593</v>
+        <v>44580</v>
       </c>
       <c r="B488" t="s">
         <v>6</v>
@@ -7217,12 +7217,12 @@
         <v>11</v>
       </c>
       <c r="D488" t="n">
-        <v>23.1228571428571</v>
+        <v>23.047380952381</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" s="1" t="n">
-        <v>44594</v>
+        <v>44581</v>
       </c>
       <c r="B489" t="s">
         <v>6</v>
@@ -7231,12 +7231,12 @@
         <v>11</v>
       </c>
       <c r="D489" t="n">
-        <v>23.1252380952381</v>
+        <v>23.0485714285714</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" s="1" t="n">
-        <v>44595</v>
+        <v>44582</v>
       </c>
       <c r="B490" t="s">
         <v>6</v>
@@ -7245,12 +7245,12 @@
         <v>11</v>
       </c>
       <c r="D490" t="n">
-        <v>23.1309523809524</v>
+        <v>23.0492857142857</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" s="1" t="n">
-        <v>44596</v>
+        <v>44583</v>
       </c>
       <c r="B491" t="s">
         <v>6</v>
@@ -7259,208 +7259,208 @@
         <v>11</v>
       </c>
       <c r="D491" t="n">
-        <v>23.1357142857143</v>
+        <v>23.0545238095238</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" s="1" t="n">
-        <v>44562</v>
+        <v>44584</v>
       </c>
       <c r="B492" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C492" t="s">
         <v>11</v>
       </c>
       <c r="D492" t="n">
-        <v>20.9079069767442</v>
+        <v>23.0545238095238</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" s="1" t="n">
-        <v>44563</v>
+        <v>44585</v>
       </c>
       <c r="B493" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C493" t="s">
         <v>11</v>
       </c>
       <c r="D493" t="n">
-        <v>20.9072093023256</v>
+        <v>23.057380952381</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" s="1" t="n">
-        <v>44564</v>
+        <v>44586</v>
       </c>
       <c r="B494" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C494" t="s">
         <v>11</v>
       </c>
       <c r="D494" t="n">
-        <v>20.913488372093</v>
+        <v>23.057380952381</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" s="1" t="n">
-        <v>44565</v>
+        <v>44587</v>
       </c>
       <c r="B495" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C495" t="s">
         <v>11</v>
       </c>
       <c r="D495" t="n">
-        <v>20.913488372093</v>
+        <v>23.0678571428571</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" s="1" t="n">
-        <v>44566</v>
+        <v>44588</v>
       </c>
       <c r="B496" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C496" t="s">
         <v>11</v>
       </c>
       <c r="D496" t="n">
-        <v>20.9390697674419</v>
+        <v>23.0754761904762</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" s="1" t="n">
-        <v>44567</v>
+        <v>44589</v>
       </c>
       <c r="B497" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C497" t="s">
         <v>11</v>
       </c>
       <c r="D497" t="n">
-        <v>20.9458139534884</v>
+        <v>23.0414285714286</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" s="1" t="n">
-        <v>44568</v>
+        <v>44590</v>
       </c>
       <c r="B498" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C498" t="s">
         <v>11</v>
       </c>
       <c r="D498" t="n">
-        <v>20.9586046511628</v>
+        <v>23.0947619047619</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" s="1" t="n">
-        <v>44569</v>
+        <v>44591</v>
       </c>
       <c r="B499" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C499" t="s">
         <v>11</v>
       </c>
       <c r="D499" t="n">
-        <v>20.9688372093023</v>
+        <v>23.1142857142857</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" s="1" t="n">
-        <v>44570</v>
+        <v>44592</v>
       </c>
       <c r="B500" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C500" t="s">
         <v>11</v>
       </c>
       <c r="D500" t="n">
-        <v>20.9316279069767</v>
+        <v>23.1142857142857</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" s="1" t="n">
-        <v>44571</v>
+        <v>44593</v>
       </c>
       <c r="B501" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C501" t="s">
         <v>11</v>
       </c>
       <c r="D501" t="n">
-        <v>20.9239534883721</v>
+        <v>23.1228571428571</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" s="1" t="n">
-        <v>44572</v>
+        <v>44594</v>
       </c>
       <c r="B502" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C502" t="s">
         <v>11</v>
       </c>
       <c r="D502" t="n">
-        <v>20.9004651162791</v>
+        <v>23.1252380952381</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" s="1" t="n">
-        <v>44573</v>
+        <v>44595</v>
       </c>
       <c r="B503" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C503" t="s">
         <v>11</v>
       </c>
       <c r="D503" t="n">
-        <v>20.8746511627907</v>
+        <v>23.1309523809524</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" s="1" t="n">
-        <v>44574</v>
+        <v>44596</v>
       </c>
       <c r="B504" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C504" t="s">
         <v>11</v>
       </c>
       <c r="D504" t="n">
-        <v>20.863023255814</v>
+        <v>23.1357142857143</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" s="1" t="n">
-        <v>44575</v>
+        <v>44597</v>
       </c>
       <c r="B505" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C505" t="s">
         <v>11</v>
       </c>
       <c r="D505" t="n">
-        <v>20.873023255814</v>
+        <v>23.1666666666667</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" s="1" t="n">
-        <v>44576</v>
+        <v>44562</v>
       </c>
       <c r="B506" t="s">
         <v>7</v>
@@ -7469,12 +7469,12 @@
         <v>11</v>
       </c>
       <c r="D506" t="n">
-        <v>20.893488372093</v>
+        <v>20.9079069767442</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" s="1" t="n">
-        <v>44577</v>
+        <v>44563</v>
       </c>
       <c r="B507" t="s">
         <v>7</v>
@@ -7483,12 +7483,12 @@
         <v>11</v>
       </c>
       <c r="D507" t="n">
-        <v>20.9213953488372</v>
+        <v>20.9072093023256</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" s="1" t="n">
-        <v>44578</v>
+        <v>44564</v>
       </c>
       <c r="B508" t="s">
         <v>7</v>
@@ -7497,12 +7497,12 @@
         <v>11</v>
       </c>
       <c r="D508" t="n">
-        <v>20.9220930232558</v>
+        <v>20.913488372093</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" s="1" t="n">
-        <v>44579</v>
+        <v>44565</v>
       </c>
       <c r="B509" t="s">
         <v>7</v>
@@ -7511,12 +7511,12 @@
         <v>11</v>
       </c>
       <c r="D509" t="n">
-        <v>20.9290697674419</v>
+        <v>20.913488372093</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" s="1" t="n">
-        <v>44580</v>
+        <v>44566</v>
       </c>
       <c r="B510" t="s">
         <v>7</v>
@@ -7525,12 +7525,12 @@
         <v>11</v>
       </c>
       <c r="D510" t="n">
-        <v>20.9290697674419</v>
+        <v>20.9390697674419</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" s="1" t="n">
-        <v>44581</v>
+        <v>44567</v>
       </c>
       <c r="B511" t="s">
         <v>7</v>
@@ -7539,12 +7539,12 @@
         <v>11</v>
       </c>
       <c r="D511" t="n">
-        <v>20.9325581395349</v>
+        <v>20.9458139534884</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" s="1" t="n">
-        <v>44582</v>
+        <v>44568</v>
       </c>
       <c r="B512" t="s">
         <v>7</v>
@@ -7553,12 +7553,12 @@
         <v>11</v>
       </c>
       <c r="D512" t="n">
-        <v>20.9451162790698</v>
+        <v>20.9586046511628</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" s="1" t="n">
-        <v>44583</v>
+        <v>44569</v>
       </c>
       <c r="B513" t="s">
         <v>7</v>
@@ -7567,12 +7567,12 @@
         <v>11</v>
       </c>
       <c r="D513" t="n">
-        <v>20.9462790697674</v>
+        <v>20.9688372093023</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" s="1" t="n">
-        <v>44584</v>
+        <v>44570</v>
       </c>
       <c r="B514" t="s">
         <v>7</v>
@@ -7581,12 +7581,12 @@
         <v>11</v>
       </c>
       <c r="D514" t="n">
-        <v>20.9420930232558</v>
+        <v>20.9316279069767</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" s="1" t="n">
-        <v>44585</v>
+        <v>44571</v>
       </c>
       <c r="B515" t="s">
         <v>7</v>
@@ -7595,12 +7595,12 @@
         <v>11</v>
       </c>
       <c r="D515" t="n">
-        <v>20.9453488372093</v>
+        <v>20.9239534883721</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" s="1" t="n">
-        <v>44586</v>
+        <v>44572</v>
       </c>
       <c r="B516" t="s">
         <v>7</v>
@@ -7609,12 +7609,12 @@
         <v>11</v>
       </c>
       <c r="D516" t="n">
-        <v>20.9523255813953</v>
+        <v>20.9004651162791</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" s="1" t="n">
-        <v>44587</v>
+        <v>44573</v>
       </c>
       <c r="B517" t="s">
         <v>7</v>
@@ -7623,12 +7623,12 @@
         <v>11</v>
       </c>
       <c r="D517" t="n">
-        <v>20.956976744186</v>
+        <v>20.8746511627907</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" s="1" t="n">
-        <v>44588</v>
+        <v>44574</v>
       </c>
       <c r="B518" t="s">
         <v>7</v>
@@ -7637,12 +7637,12 @@
         <v>11</v>
       </c>
       <c r="D518" t="n">
-        <v>20.9588372093023</v>
+        <v>20.863023255814</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" s="1" t="n">
-        <v>44589</v>
+        <v>44575</v>
       </c>
       <c r="B519" t="s">
         <v>7</v>
@@ -7651,12 +7651,12 @@
         <v>11</v>
       </c>
       <c r="D519" t="n">
-        <v>20.9574418604651</v>
+        <v>20.873023255814</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" s="1" t="n">
-        <v>44590</v>
+        <v>44576</v>
       </c>
       <c r="B520" t="s">
         <v>7</v>
@@ -7665,12 +7665,12 @@
         <v>11</v>
       </c>
       <c r="D520" t="n">
-        <v>20.9697674418605</v>
+        <v>20.893488372093</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" s="1" t="n">
-        <v>44591</v>
+        <v>44577</v>
       </c>
       <c r="B521" t="s">
         <v>7</v>
@@ -7679,12 +7679,12 @@
         <v>11</v>
       </c>
       <c r="D521" t="n">
-        <v>20.9786046511628</v>
+        <v>20.9213953488372</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" s="1" t="n">
-        <v>44592</v>
+        <v>44578</v>
       </c>
       <c r="B522" t="s">
         <v>7</v>
@@ -7693,12 +7693,12 @@
         <v>11</v>
       </c>
       <c r="D522" t="n">
-        <v>20.9806976744186</v>
+        <v>20.9220930232558</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" s="1" t="n">
-        <v>44593</v>
+        <v>44579</v>
       </c>
       <c r="B523" t="s">
         <v>7</v>
@@ -7707,12 +7707,12 @@
         <v>11</v>
       </c>
       <c r="D523" t="n">
-        <v>20.9748837209302</v>
+        <v>20.9290697674419</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" s="1" t="n">
-        <v>44594</v>
+        <v>44580</v>
       </c>
       <c r="B524" t="s">
         <v>7</v>
@@ -7721,12 +7721,12 @@
         <v>11</v>
       </c>
       <c r="D524" t="n">
-        <v>20.9748837209302</v>
+        <v>20.9290697674419</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" s="1" t="n">
-        <v>44595</v>
+        <v>44581</v>
       </c>
       <c r="B525" t="s">
         <v>7</v>
@@ -7735,12 +7735,12 @@
         <v>11</v>
       </c>
       <c r="D525" t="n">
-        <v>20.9827906976744</v>
+        <v>20.9325581395349</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" s="1" t="n">
-        <v>44596</v>
+        <v>44582</v>
       </c>
       <c r="B526" t="s">
         <v>7</v>
@@ -7749,222 +7749,222 @@
         <v>11</v>
       </c>
       <c r="D526" t="n">
-        <v>20.9897674418605</v>
+        <v>20.9451162790698</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" s="1" t="n">
-        <v>44562</v>
+        <v>44583</v>
       </c>
       <c r="B527" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C527" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D527" t="n">
-        <v>21.8206896551724</v>
+        <v>20.9462790697674</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" s="1" t="n">
-        <v>44563</v>
+        <v>44584</v>
       </c>
       <c r="B528" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C528" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D528" t="n">
-        <v>21.8365517241379</v>
+        <v>20.9420930232558</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" s="1" t="n">
-        <v>44564</v>
+        <v>44585</v>
       </c>
       <c r="B529" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C529" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D529" t="n">
-        <v>21.8370689655172</v>
+        <v>20.9453488372093</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" s="1" t="n">
-        <v>44565</v>
+        <v>44586</v>
       </c>
       <c r="B530" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C530" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D530" t="n">
-        <v>21.8451724137931</v>
+        <v>20.9523255813953</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" s="1" t="n">
-        <v>44566</v>
+        <v>44587</v>
       </c>
       <c r="B531" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C531" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D531" t="n">
-        <v>21.8486206896552</v>
+        <v>20.956976744186</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" s="1" t="n">
-        <v>44567</v>
+        <v>44588</v>
       </c>
       <c r="B532" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C532" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D532" t="n">
-        <v>21.8558620689655</v>
+        <v>20.9588372093023</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" s="1" t="n">
-        <v>44568</v>
+        <v>44589</v>
       </c>
       <c r="B533" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C533" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D533" t="n">
-        <v>21.8655172413793</v>
+        <v>20.9574418604651</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" s="1" t="n">
-        <v>44569</v>
+        <v>44590</v>
       </c>
       <c r="B534" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C534" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D534" t="n">
-        <v>21.8781034482759</v>
+        <v>20.9697674418605</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="1" t="n">
-        <v>44570</v>
+        <v>44591</v>
       </c>
       <c r="B535" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C535" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D535" t="n">
-        <v>21.8918965517241</v>
+        <v>20.9786046511628</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="1" t="n">
-        <v>44571</v>
+        <v>44592</v>
       </c>
       <c r="B536" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C536" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D536" t="n">
-        <v>21.8918965517241</v>
+        <v>20.9806976744186</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" s="1" t="n">
-        <v>44572</v>
+        <v>44593</v>
       </c>
       <c r="B537" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C537" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D537" t="n">
-        <v>21.8918965517241</v>
+        <v>20.9748837209302</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" s="1" t="n">
-        <v>44573</v>
+        <v>44594</v>
       </c>
       <c r="B538" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C538" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D538" t="n">
-        <v>21.8948275862069</v>
+        <v>20.9748837209302</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="1" t="n">
-        <v>44574</v>
+        <v>44595</v>
       </c>
       <c r="B539" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C539" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D539" t="n">
-        <v>21.9013793103448</v>
+        <v>20.9827906976744</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="1" t="n">
-        <v>44575</v>
+        <v>44596</v>
       </c>
       <c r="B540" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C540" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D540" t="n">
-        <v>21.9348275862069</v>
+        <v>20.9897674418605</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="1" t="n">
-        <v>44576</v>
+        <v>44597</v>
       </c>
       <c r="B541" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C541" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D541" t="n">
-        <v>21.9508620689655</v>
+        <v>20.9953488372093</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" s="1" t="n">
-        <v>44577</v>
+        <v>44562</v>
       </c>
       <c r="B542" t="s">
         <v>4</v>
@@ -7973,12 +7973,12 @@
         <v>12</v>
       </c>
       <c r="D542" t="n">
-        <v>21.9594827586207</v>
+        <v>21.8206896551724</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" s="1" t="n">
-        <v>44578</v>
+        <v>44563</v>
       </c>
       <c r="B543" t="s">
         <v>4</v>
@@ -7987,12 +7987,12 @@
         <v>12</v>
       </c>
       <c r="D543" t="n">
-        <v>21.9629310344828</v>
+        <v>21.8365517241379</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" s="1" t="n">
-        <v>44579</v>
+        <v>44564</v>
       </c>
       <c r="B544" t="s">
         <v>4</v>
@@ -8001,12 +8001,12 @@
         <v>12</v>
       </c>
       <c r="D544" t="n">
-        <v>21.9801724137931</v>
+        <v>21.8370689655172</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="1" t="n">
-        <v>44580</v>
+        <v>44565</v>
       </c>
       <c r="B545" t="s">
         <v>4</v>
@@ -8015,12 +8015,12 @@
         <v>12</v>
       </c>
       <c r="D545" t="n">
-        <v>22.0012068965517</v>
+        <v>21.8451724137931</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="1" t="n">
-        <v>44581</v>
+        <v>44566</v>
       </c>
       <c r="B546" t="s">
         <v>4</v>
@@ -8029,12 +8029,12 @@
         <v>12</v>
       </c>
       <c r="D546" t="n">
-        <v>22.0122413793103</v>
+        <v>21.8486206896552</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="1" t="n">
-        <v>44582</v>
+        <v>44567</v>
       </c>
       <c r="B547" t="s">
         <v>4</v>
@@ -8043,12 +8043,12 @@
         <v>12</v>
       </c>
       <c r="D547" t="n">
-        <v>22.0229310344828</v>
+        <v>21.8558620689655</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" s="1" t="n">
-        <v>44583</v>
+        <v>44568</v>
       </c>
       <c r="B548" t="s">
         <v>4</v>
@@ -8057,12 +8057,12 @@
         <v>12</v>
       </c>
       <c r="D548" t="n">
-        <v>22.0279310344828</v>
+        <v>21.8655172413793</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="1" t="n">
-        <v>44584</v>
+        <v>44569</v>
       </c>
       <c r="B549" t="s">
         <v>4</v>
@@ -8071,12 +8071,12 @@
         <v>12</v>
       </c>
       <c r="D549" t="n">
-        <v>22.0289655172414</v>
+        <v>21.8781034482759</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="1" t="n">
-        <v>44585</v>
+        <v>44570</v>
       </c>
       <c r="B550" t="s">
         <v>4</v>
@@ -8085,12 +8085,12 @@
         <v>12</v>
       </c>
       <c r="D550" t="n">
-        <v>22.0289655172414</v>
+        <v>21.8918965517241</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="1" t="n">
-        <v>44586</v>
+        <v>44571</v>
       </c>
       <c r="B551" t="s">
         <v>4</v>
@@ -8099,12 +8099,12 @@
         <v>12</v>
       </c>
       <c r="D551" t="n">
-        <v>22.0289655172414</v>
+        <v>21.8918965517241</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="1" t="n">
-        <v>44587</v>
+        <v>44572</v>
       </c>
       <c r="B552" t="s">
         <v>4</v>
@@ -8113,12 +8113,12 @@
         <v>12</v>
       </c>
       <c r="D552" t="n">
-        <v>22.0539655172414</v>
+        <v>21.8918965517241</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="1" t="n">
-        <v>44588</v>
+        <v>44573</v>
       </c>
       <c r="B553" t="s">
         <v>4</v>
@@ -8127,12 +8127,12 @@
         <v>12</v>
       </c>
       <c r="D553" t="n">
-        <v>22.0541379310345</v>
+        <v>21.8948275862069</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="1" t="n">
-        <v>44589</v>
+        <v>44574</v>
       </c>
       <c r="B554" t="s">
         <v>4</v>
@@ -8141,12 +8141,12 @@
         <v>12</v>
       </c>
       <c r="D554" t="n">
-        <v>22.061724137931</v>
+        <v>21.9013793103448</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="1" t="n">
-        <v>44590</v>
+        <v>44575</v>
       </c>
       <c r="B555" t="s">
         <v>4</v>
@@ -8155,12 +8155,12 @@
         <v>12</v>
       </c>
       <c r="D555" t="n">
-        <v>22.0710344827586</v>
+        <v>21.9348275862069</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="1" t="n">
-        <v>44591</v>
+        <v>44576</v>
       </c>
       <c r="B556" t="s">
         <v>4</v>
@@ -8169,12 +8169,12 @@
         <v>12</v>
       </c>
       <c r="D556" t="n">
-        <v>22.0762068965517</v>
+        <v>21.9508620689655</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="1" t="n">
-        <v>44592</v>
+        <v>44577</v>
       </c>
       <c r="B557" t="s">
         <v>4</v>
@@ -8183,12 +8183,12 @@
         <v>12</v>
       </c>
       <c r="D557" t="n">
-        <v>22.0744827586207</v>
+        <v>21.9594827586207</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="1" t="n">
-        <v>44593</v>
+        <v>44578</v>
       </c>
       <c r="B558" t="s">
         <v>4</v>
@@ -8197,12 +8197,12 @@
         <v>12</v>
       </c>
       <c r="D558" t="n">
-        <v>22.0744827586207</v>
+        <v>21.9629310344828</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="1" t="n">
-        <v>44594</v>
+        <v>44579</v>
       </c>
       <c r="B559" t="s">
         <v>4</v>
@@ -8211,12 +8211,12 @@
         <v>12</v>
       </c>
       <c r="D559" t="n">
-        <v>22.1041379310345</v>
+        <v>21.9801724137931</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="1" t="n">
-        <v>44595</v>
+        <v>44580</v>
       </c>
       <c r="B560" t="s">
         <v>4</v>
@@ -8225,12 +8225,12 @@
         <v>12</v>
       </c>
       <c r="D560" t="n">
-        <v>22.1155172413793</v>
+        <v>22.0012068965517</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="1" t="n">
-        <v>44596</v>
+        <v>44581</v>
       </c>
       <c r="B561" t="s">
         <v>4</v>
@@ -8239,236 +8239,236 @@
         <v>12</v>
       </c>
       <c r="D561" t="n">
-        <v>22.1189655172414</v>
+        <v>22.0122413793103</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="1" t="n">
-        <v>44562</v>
+        <v>44582</v>
       </c>
       <c r="B562" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C562" t="s">
         <v>12</v>
       </c>
       <c r="D562" t="n">
-        <v>23.1925225225225</v>
+        <v>22.0229310344828</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" s="1" t="n">
-        <v>44563</v>
+        <v>44583</v>
       </c>
       <c r="B563" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C563" t="s">
         <v>12</v>
       </c>
       <c r="D563" t="n">
-        <v>23.2095495495495</v>
+        <v>22.0279310344828</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" s="1" t="n">
-        <v>44564</v>
+        <v>44584</v>
       </c>
       <c r="B564" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C564" t="s">
         <v>12</v>
       </c>
       <c r="D564" t="n">
-        <v>23.2102702702703</v>
+        <v>22.0289655172414</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" s="1" t="n">
-        <v>44565</v>
+        <v>44585</v>
       </c>
       <c r="B565" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C565" t="s">
         <v>12</v>
       </c>
       <c r="D565" t="n">
-        <v>23.2326126126126</v>
+        <v>22.0289655172414</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" s="1" t="n">
-        <v>44566</v>
+        <v>44586</v>
       </c>
       <c r="B566" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C566" t="s">
         <v>12</v>
       </c>
       <c r="D566" t="n">
-        <v>23.2481081081081</v>
+        <v>22.0289655172414</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" s="1" t="n">
-        <v>44567</v>
+        <v>44587</v>
       </c>
       <c r="B567" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C567" t="s">
         <v>12</v>
       </c>
       <c r="D567" t="n">
-        <v>23.2995495495495</v>
+        <v>22.0539655172414</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" s="1" t="n">
-        <v>44568</v>
+        <v>44588</v>
       </c>
       <c r="B568" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C568" t="s">
         <v>12</v>
       </c>
       <c r="D568" t="n">
-        <v>23.3083783783784</v>
+        <v>22.0541379310345</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" s="1" t="n">
-        <v>44569</v>
+        <v>44589</v>
       </c>
       <c r="B569" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C569" t="s">
         <v>12</v>
       </c>
       <c r="D569" t="n">
-        <v>23.3227927927928</v>
+        <v>22.061724137931</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" s="1" t="n">
-        <v>44570</v>
+        <v>44590</v>
       </c>
       <c r="B570" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C570" t="s">
         <v>12</v>
       </c>
       <c r="D570" t="n">
-        <v>23.3292792792793</v>
+        <v>22.0710344827586</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" s="1" t="n">
-        <v>44571</v>
+        <v>44591</v>
       </c>
       <c r="B571" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C571" t="s">
         <v>12</v>
       </c>
       <c r="D571" t="n">
-        <v>23.3373873873874</v>
+        <v>22.0762068965517</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" s="1" t="n">
-        <v>44572</v>
+        <v>44592</v>
       </c>
       <c r="B572" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C572" t="s">
         <v>12</v>
       </c>
       <c r="D572" t="n">
-        <v>23.3382882882883</v>
+        <v>22.0744827586207</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" s="1" t="n">
-        <v>44573</v>
+        <v>44593</v>
       </c>
       <c r="B573" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C573" t="s">
         <v>12</v>
       </c>
       <c r="D573" t="n">
-        <v>23.3463963963964</v>
+        <v>22.0744827586207</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" s="1" t="n">
-        <v>44574</v>
+        <v>44594</v>
       </c>
       <c r="B574" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C574" t="s">
         <v>12</v>
       </c>
       <c r="D574" t="n">
-        <v>23.350990990991</v>
+        <v>22.1041379310345</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" s="1" t="n">
-        <v>44575</v>
+        <v>44595</v>
       </c>
       <c r="B575" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C575" t="s">
         <v>12</v>
       </c>
       <c r="D575" t="n">
-        <v>23.37</v>
+        <v>22.1155172413793</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" s="1" t="n">
-        <v>44576</v>
+        <v>44596</v>
       </c>
       <c r="B576" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C576" t="s">
         <v>12</v>
       </c>
       <c r="D576" t="n">
-        <v>23.4382882882883</v>
+        <v>22.1189655172414</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" s="1" t="n">
-        <v>44577</v>
+        <v>44597</v>
       </c>
       <c r="B577" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C577" t="s">
         <v>12</v>
       </c>
       <c r="D577" t="n">
-        <v>23.4328828828829</v>
+        <v>22.1394827586207</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" s="1" t="n">
-        <v>44578</v>
+        <v>44562</v>
       </c>
       <c r="B578" t="s">
         <v>6</v>
@@ -8477,12 +8477,12 @@
         <v>12</v>
       </c>
       <c r="D578" t="n">
-        <v>23.4333333333333</v>
+        <v>23.1925225225225</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" s="1" t="n">
-        <v>44579</v>
+        <v>44563</v>
       </c>
       <c r="B579" t="s">
         <v>6</v>
@@ -8491,12 +8491,12 @@
         <v>12</v>
       </c>
       <c r="D579" t="n">
-        <v>23.4362162162162</v>
+        <v>23.2095495495495</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" s="1" t="n">
-        <v>44580</v>
+        <v>44564</v>
       </c>
       <c r="B580" t="s">
         <v>6</v>
@@ -8505,12 +8505,12 @@
         <v>12</v>
       </c>
       <c r="D580" t="n">
-        <v>23.4383783783784</v>
+        <v>23.2102702702703</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" s="1" t="n">
-        <v>44581</v>
+        <v>44565</v>
       </c>
       <c r="B581" t="s">
         <v>6</v>
@@ -8519,12 +8519,12 @@
         <v>12</v>
       </c>
       <c r="D581" t="n">
-        <v>23.3811711711712</v>
+        <v>23.2326126126126</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" s="1" t="n">
-        <v>44582</v>
+        <v>44566</v>
       </c>
       <c r="B582" t="s">
         <v>6</v>
@@ -8533,12 +8533,12 @@
         <v>12</v>
       </c>
       <c r="D582" t="n">
-        <v>23.3984684684685</v>
+        <v>23.2481081081081</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" s="1" t="n">
-        <v>44583</v>
+        <v>44567</v>
       </c>
       <c r="B583" t="s">
         <v>6</v>
@@ -8547,12 +8547,12 @@
         <v>12</v>
       </c>
       <c r="D583" t="n">
-        <v>23.4007207207207</v>
+        <v>23.2995495495495</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" s="1" t="n">
-        <v>44584</v>
+        <v>44568</v>
       </c>
       <c r="B584" t="s">
         <v>6</v>
@@ -8561,12 +8561,12 @@
         <v>12</v>
       </c>
       <c r="D584" t="n">
-        <v>23.4044144144144</v>
+        <v>23.3083783783784</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" s="1" t="n">
-        <v>44585</v>
+        <v>44569</v>
       </c>
       <c r="B585" t="s">
         <v>6</v>
@@ -8575,12 +8575,12 @@
         <v>12</v>
       </c>
       <c r="D585" t="n">
-        <v>23.4062162162162</v>
+        <v>23.3227927927928</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" s="1" t="n">
-        <v>44586</v>
+        <v>44570</v>
       </c>
       <c r="B586" t="s">
         <v>6</v>
@@ -8589,12 +8589,12 @@
         <v>12</v>
       </c>
       <c r="D586" t="n">
-        <v>23.4253153153153</v>
+        <v>23.3292792792793</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" s="1" t="n">
-        <v>44587</v>
+        <v>44571</v>
       </c>
       <c r="B587" t="s">
         <v>6</v>
@@ -8603,12 +8603,12 @@
         <v>12</v>
       </c>
       <c r="D587" t="n">
-        <v>23.4313513513514</v>
+        <v>23.3373873873874</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" s="1" t="n">
-        <v>44588</v>
+        <v>44572</v>
       </c>
       <c r="B588" t="s">
         <v>6</v>
@@ -8617,12 +8617,12 @@
         <v>12</v>
       </c>
       <c r="D588" t="n">
-        <v>23.4363063063063</v>
+        <v>23.3382882882883</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" s="1" t="n">
-        <v>44589</v>
+        <v>44573</v>
       </c>
       <c r="B589" t="s">
         <v>6</v>
@@ -8631,12 +8631,12 @@
         <v>12</v>
       </c>
       <c r="D589" t="n">
-        <v>23.4356756756757</v>
+        <v>23.3463963963964</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" s="1" t="n">
-        <v>44590</v>
+        <v>44574</v>
       </c>
       <c r="B590" t="s">
         <v>6</v>
@@ -8645,12 +8645,12 @@
         <v>12</v>
       </c>
       <c r="D590" t="n">
-        <v>23.4473873873874</v>
+        <v>23.350990990991</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" s="1" t="n">
-        <v>44591</v>
+        <v>44575</v>
       </c>
       <c r="B591" t="s">
         <v>6</v>
@@ -8659,12 +8659,12 @@
         <v>12</v>
       </c>
       <c r="D591" t="n">
-        <v>23.4496396396396</v>
+        <v>23.37</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" s="1" t="n">
-        <v>44592</v>
+        <v>44576</v>
       </c>
       <c r="B592" t="s">
         <v>6</v>
@@ -8673,12 +8673,12 @@
         <v>12</v>
       </c>
       <c r="D592" t="n">
-        <v>23.4487387387387</v>
+        <v>23.4382882882883</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" s="1" t="n">
-        <v>44593</v>
+        <v>44577</v>
       </c>
       <c r="B593" t="s">
         <v>6</v>
@@ -8687,12 +8687,12 @@
         <v>12</v>
       </c>
       <c r="D593" t="n">
-        <v>23.4493693693694</v>
+        <v>23.4328828828829</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" s="1" t="n">
-        <v>44594</v>
+        <v>44578</v>
       </c>
       <c r="B594" t="s">
         <v>6</v>
@@ -8701,12 +8701,12 @@
         <v>12</v>
       </c>
       <c r="D594" t="n">
-        <v>23.4601801801802</v>
+        <v>23.4333333333333</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" s="1" t="n">
-        <v>44595</v>
+        <v>44579</v>
       </c>
       <c r="B595" t="s">
         <v>6</v>
@@ -8715,12 +8715,12 @@
         <v>12</v>
       </c>
       <c r="D595" t="n">
-        <v>23.4700900900901</v>
+        <v>23.4362162162162</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" s="1" t="n">
-        <v>44596</v>
+        <v>44580</v>
       </c>
       <c r="B596" t="s">
         <v>6</v>
@@ -8729,250 +8729,250 @@
         <v>12</v>
       </c>
       <c r="D596" t="n">
-        <v>23.470990990991</v>
+        <v>23.4383783783784</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" s="1" t="n">
-        <v>44562</v>
+        <v>44581</v>
       </c>
       <c r="B597" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C597" t="s">
         <v>12</v>
       </c>
       <c r="D597" t="n">
-        <v>21.0064864864865</v>
+        <v>23.3811711711712</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" s="1" t="n">
-        <v>44563</v>
+        <v>44582</v>
       </c>
       <c r="B598" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C598" t="s">
         <v>12</v>
       </c>
       <c r="D598" t="n">
-        <v>21.0158558558559</v>
+        <v>23.3984684684685</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" s="1" t="n">
-        <v>44564</v>
+        <v>44583</v>
       </c>
       <c r="B599" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C599" t="s">
         <v>12</v>
       </c>
       <c r="D599" t="n">
-        <v>21.0141441441441</v>
+        <v>23.4007207207207</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" s="1" t="n">
-        <v>44565</v>
+        <v>44584</v>
       </c>
       <c r="B600" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C600" t="s">
         <v>12</v>
       </c>
       <c r="D600" t="n">
-        <v>21.027027027027</v>
+        <v>23.4044144144144</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" s="1" t="n">
-        <v>44566</v>
+        <v>44585</v>
       </c>
       <c r="B601" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C601" t="s">
         <v>12</v>
       </c>
       <c r="D601" t="n">
-        <v>21.0442342342342</v>
+        <v>23.4062162162162</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" s="1" t="n">
-        <v>44567</v>
+        <v>44586</v>
       </c>
       <c r="B602" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C602" t="s">
         <v>12</v>
       </c>
       <c r="D602" t="n">
-        <v>21.1037837837838</v>
+        <v>23.4253153153153</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" s="1" t="n">
-        <v>44568</v>
+        <v>44587</v>
       </c>
       <c r="B603" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C603" t="s">
         <v>12</v>
       </c>
       <c r="D603" t="n">
-        <v>21.0835135135135</v>
+        <v>23.4313513513514</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" s="1" t="n">
-        <v>44569</v>
+        <v>44588</v>
       </c>
       <c r="B604" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C604" t="s">
         <v>12</v>
       </c>
       <c r="D604" t="n">
-        <v>21.0995495495496</v>
+        <v>23.4363063063063</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" s="1" t="n">
-        <v>44570</v>
+        <v>44589</v>
       </c>
       <c r="B605" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C605" t="s">
         <v>12</v>
       </c>
       <c r="D605" t="n">
-        <v>21.094954954955</v>
+        <v>23.4356756756757</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" s="1" t="n">
-        <v>44571</v>
+        <v>44590</v>
       </c>
       <c r="B606" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C606" t="s">
         <v>12</v>
       </c>
       <c r="D606" t="n">
-        <v>21.0977477477477</v>
+        <v>23.4473873873874</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" s="1" t="n">
-        <v>44572</v>
+        <v>44591</v>
       </c>
       <c r="B607" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C607" t="s">
         <v>12</v>
       </c>
       <c r="D607" t="n">
-        <v>21.0977477477477</v>
+        <v>23.4496396396396</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" s="1" t="n">
-        <v>44573</v>
+        <v>44592</v>
       </c>
       <c r="B608" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C608" t="s">
         <v>12</v>
       </c>
       <c r="D608" t="n">
-        <v>21.0985585585586</v>
+        <v>23.4487387387387</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" s="1" t="n">
-        <v>44574</v>
+        <v>44593</v>
       </c>
       <c r="B609" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C609" t="s">
         <v>12</v>
       </c>
       <c r="D609" t="n">
-        <v>21.0721621621622</v>
+        <v>23.4493693693694</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" s="1" t="n">
-        <v>44575</v>
+        <v>44594</v>
       </c>
       <c r="B610" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C610" t="s">
         <v>12</v>
       </c>
       <c r="D610" t="n">
-        <v>21.0942342342342</v>
+        <v>23.4601801801802</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" s="1" t="n">
-        <v>44576</v>
+        <v>44595</v>
       </c>
       <c r="B611" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C611" t="s">
         <v>12</v>
       </c>
       <c r="D611" t="n">
-        <v>21.101981981982</v>
+        <v>23.4700900900901</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" s="1" t="n">
-        <v>44577</v>
+        <v>44596</v>
       </c>
       <c r="B612" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C612" t="s">
         <v>12</v>
       </c>
       <c r="D612" t="n">
-        <v>21.0937837837838</v>
+        <v>23.470990990991</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" s="1" t="n">
-        <v>44578</v>
+        <v>44597</v>
       </c>
       <c r="B613" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C613" t="s">
         <v>12</v>
       </c>
       <c r="D613" t="n">
-        <v>21.0848648648649</v>
+        <v>23.4763063063063</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" s="1" t="n">
-        <v>44579</v>
+        <v>44562</v>
       </c>
       <c r="B614" t="s">
         <v>7</v>
@@ -8981,12 +8981,12 @@
         <v>12</v>
       </c>
       <c r="D614" t="n">
-        <v>21.0988288288288</v>
+        <v>21.0064864864865</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" s="1" t="n">
-        <v>44580</v>
+        <v>44563</v>
       </c>
       <c r="B615" t="s">
         <v>7</v>
@@ -8995,12 +8995,12 @@
         <v>12</v>
       </c>
       <c r="D615" t="n">
-        <v>21.0969369369369</v>
+        <v>21.0158558558559</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" s="1" t="n">
-        <v>44581</v>
+        <v>44564</v>
       </c>
       <c r="B616" t="s">
         <v>7</v>
@@ -9009,12 +9009,12 @@
         <v>12</v>
       </c>
       <c r="D616" t="n">
-        <v>21.1026126126126</v>
+        <v>21.0141441441441</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" s="1" t="n">
-        <v>44582</v>
+        <v>44565</v>
       </c>
       <c r="B617" t="s">
         <v>7</v>
@@ -9023,12 +9023,12 @@
         <v>12</v>
       </c>
       <c r="D617" t="n">
-        <v>21.1125225225225</v>
+        <v>21.027027027027</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" s="1" t="n">
-        <v>44583</v>
+        <v>44566</v>
       </c>
       <c r="B618" t="s">
         <v>7</v>
@@ -9037,12 +9037,12 @@
         <v>12</v>
       </c>
       <c r="D618" t="n">
-        <v>21.1110810810811</v>
+        <v>21.0442342342342</v>
       </c>
     </row>
     <row r="619">
       <c r="A619" s="1" t="n">
-        <v>44584</v>
+        <v>44567</v>
       </c>
       <c r="B619" t="s">
         <v>7</v>
@@ -9051,12 +9051,12 @@
         <v>12</v>
       </c>
       <c r="D619" t="n">
-        <v>21.1175675675676</v>
+        <v>21.1037837837838</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" s="1" t="n">
-        <v>44585</v>
+        <v>44568</v>
       </c>
       <c r="B620" t="s">
         <v>7</v>
@@ -9065,12 +9065,12 @@
         <v>12</v>
       </c>
       <c r="D620" t="n">
-        <v>21.105045045045</v>
+        <v>21.0835135135135</v>
       </c>
     </row>
     <row r="621">
       <c r="A621" s="1" t="n">
-        <v>44586</v>
+        <v>44569</v>
       </c>
       <c r="B621" t="s">
         <v>7</v>
@@ -9079,12 +9079,12 @@
         <v>12</v>
       </c>
       <c r="D621" t="n">
-        <v>21.1237837837838</v>
+        <v>21.0995495495496</v>
       </c>
     </row>
     <row r="622">
       <c r="A622" s="1" t="n">
-        <v>44587</v>
+        <v>44570</v>
       </c>
       <c r="B622" t="s">
         <v>7</v>
@@ -9093,12 +9093,12 @@
         <v>12</v>
       </c>
       <c r="D622" t="n">
-        <v>21.128018018018</v>
+        <v>21.094954954955</v>
       </c>
     </row>
     <row r="623">
       <c r="A623" s="1" t="n">
-        <v>44588</v>
+        <v>44571</v>
       </c>
       <c r="B623" t="s">
         <v>7</v>
@@ -9107,12 +9107,12 @@
         <v>12</v>
       </c>
       <c r="D623" t="n">
-        <v>21.139009009009</v>
+        <v>21.0977477477477</v>
       </c>
     </row>
     <row r="624">
       <c r="A624" s="1" t="n">
-        <v>44589</v>
+        <v>44572</v>
       </c>
       <c r="B624" t="s">
         <v>7</v>
@@ -9121,12 +9121,12 @@
         <v>12</v>
       </c>
       <c r="D624" t="n">
-        <v>21.1357657657658</v>
+        <v>21.0977477477477</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" s="1" t="n">
-        <v>44590</v>
+        <v>44573</v>
       </c>
       <c r="B625" t="s">
         <v>7</v>
@@ -9135,12 +9135,12 @@
         <v>12</v>
       </c>
       <c r="D625" t="n">
-        <v>21.1426126126126</v>
+        <v>21.0985585585586</v>
       </c>
     </row>
     <row r="626">
       <c r="A626" s="1" t="n">
-        <v>44591</v>
+        <v>44574</v>
       </c>
       <c r="B626" t="s">
         <v>7</v>
@@ -9149,12 +9149,12 @@
         <v>12</v>
       </c>
       <c r="D626" t="n">
-        <v>21.1431531531532</v>
+        <v>21.0721621621622</v>
       </c>
     </row>
     <row r="627">
       <c r="A627" s="1" t="n">
-        <v>44592</v>
+        <v>44575</v>
       </c>
       <c r="B627" t="s">
         <v>7</v>
@@ -9163,12 +9163,12 @@
         <v>12</v>
       </c>
       <c r="D627" t="n">
-        <v>21.1322522522523</v>
+        <v>21.0942342342342</v>
       </c>
     </row>
     <row r="628">
       <c r="A628" s="1" t="n">
-        <v>44593</v>
+        <v>44576</v>
       </c>
       <c r="B628" t="s">
         <v>7</v>
@@ -9177,12 +9177,12 @@
         <v>12</v>
       </c>
       <c r="D628" t="n">
-        <v>21.1448648648649</v>
+        <v>21.101981981982</v>
       </c>
     </row>
     <row r="629">
       <c r="A629" s="1" t="n">
-        <v>44594</v>
+        <v>44577</v>
       </c>
       <c r="B629" t="s">
         <v>7</v>
@@ -9191,12 +9191,12 @@
         <v>12</v>
       </c>
       <c r="D629" t="n">
-        <v>21.1565765765766</v>
+        <v>21.0937837837838</v>
       </c>
     </row>
     <row r="630">
       <c r="A630" s="1" t="n">
-        <v>44595</v>
+        <v>44578</v>
       </c>
       <c r="B630" t="s">
         <v>7</v>
@@ -9205,21 +9205,273 @@
         <v>12</v>
       </c>
       <c r="D630" t="n">
-        <v>21.1677477477477</v>
+        <v>21.0848648648649</v>
       </c>
     </row>
     <row r="631">
       <c r="A631" s="1" t="n">
+        <v>44579</v>
+      </c>
+      <c r="B631" t="s">
+        <v>7</v>
+      </c>
+      <c r="C631" t="s">
+        <v>12</v>
+      </c>
+      <c r="D631" t="n">
+        <v>21.0988288288288</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" s="1" t="n">
+        <v>44580</v>
+      </c>
+      <c r="B632" t="s">
+        <v>7</v>
+      </c>
+      <c r="C632" t="s">
+        <v>12</v>
+      </c>
+      <c r="D632" t="n">
+        <v>21.0969369369369</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" s="1" t="n">
+        <v>44581</v>
+      </c>
+      <c r="B633" t="s">
+        <v>7</v>
+      </c>
+      <c r="C633" t="s">
+        <v>12</v>
+      </c>
+      <c r="D633" t="n">
+        <v>21.1026126126126</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" s="1" t="n">
+        <v>44582</v>
+      </c>
+      <c r="B634" t="s">
+        <v>7</v>
+      </c>
+      <c r="C634" t="s">
+        <v>12</v>
+      </c>
+      <c r="D634" t="n">
+        <v>21.1125225225225</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" s="1" t="n">
+        <v>44583</v>
+      </c>
+      <c r="B635" t="s">
+        <v>7</v>
+      </c>
+      <c r="C635" t="s">
+        <v>12</v>
+      </c>
+      <c r="D635" t="n">
+        <v>21.1110810810811</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" s="1" t="n">
+        <v>44584</v>
+      </c>
+      <c r="B636" t="s">
+        <v>7</v>
+      </c>
+      <c r="C636" t="s">
+        <v>12</v>
+      </c>
+      <c r="D636" t="n">
+        <v>21.1175675675676</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" s="1" t="n">
+        <v>44585</v>
+      </c>
+      <c r="B637" t="s">
+        <v>7</v>
+      </c>
+      <c r="C637" t="s">
+        <v>12</v>
+      </c>
+      <c r="D637" t="n">
+        <v>21.105045045045</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" s="1" t="n">
+        <v>44586</v>
+      </c>
+      <c r="B638" t="s">
+        <v>7</v>
+      </c>
+      <c r="C638" t="s">
+        <v>12</v>
+      </c>
+      <c r="D638" t="n">
+        <v>21.1237837837838</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" s="1" t="n">
+        <v>44587</v>
+      </c>
+      <c r="B639" t="s">
+        <v>7</v>
+      </c>
+      <c r="C639" t="s">
+        <v>12</v>
+      </c>
+      <c r="D639" t="n">
+        <v>21.128018018018</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" s="1" t="n">
+        <v>44588</v>
+      </c>
+      <c r="B640" t="s">
+        <v>7</v>
+      </c>
+      <c r="C640" t="s">
+        <v>12</v>
+      </c>
+      <c r="D640" t="n">
+        <v>21.139009009009</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" s="1" t="n">
+        <v>44589</v>
+      </c>
+      <c r="B641" t="s">
+        <v>7</v>
+      </c>
+      <c r="C641" t="s">
+        <v>12</v>
+      </c>
+      <c r="D641" t="n">
+        <v>21.1357657657658</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" s="1" t="n">
+        <v>44590</v>
+      </c>
+      <c r="B642" t="s">
+        <v>7</v>
+      </c>
+      <c r="C642" t="s">
+        <v>12</v>
+      </c>
+      <c r="D642" t="n">
+        <v>21.1426126126126</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" s="1" t="n">
+        <v>44591</v>
+      </c>
+      <c r="B643" t="s">
+        <v>7</v>
+      </c>
+      <c r="C643" t="s">
+        <v>12</v>
+      </c>
+      <c r="D643" t="n">
+        <v>21.1431531531532</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" s="1" t="n">
+        <v>44592</v>
+      </c>
+      <c r="B644" t="s">
+        <v>7</v>
+      </c>
+      <c r="C644" t="s">
+        <v>12</v>
+      </c>
+      <c r="D644" t="n">
+        <v>21.1322522522523</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" s="1" t="n">
+        <v>44593</v>
+      </c>
+      <c r="B645" t="s">
+        <v>7</v>
+      </c>
+      <c r="C645" t="s">
+        <v>12</v>
+      </c>
+      <c r="D645" t="n">
+        <v>21.1448648648649</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" s="1" t="n">
+        <v>44594</v>
+      </c>
+      <c r="B646" t="s">
+        <v>7</v>
+      </c>
+      <c r="C646" t="s">
+        <v>12</v>
+      </c>
+      <c r="D646" t="n">
+        <v>21.1565765765766</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" s="1" t="n">
+        <v>44595</v>
+      </c>
+      <c r="B647" t="s">
+        <v>7</v>
+      </c>
+      <c r="C647" t="s">
+        <v>12</v>
+      </c>
+      <c r="D647" t="n">
+        <v>21.1677477477477</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" s="1" t="n">
         <v>44596</v>
       </c>
-      <c r="B631" t="s">
-        <v>7</v>
-      </c>
-      <c r="C631" t="s">
-        <v>12</v>
-      </c>
-      <c r="D631" t="n">
+      <c r="B648" t="s">
+        <v>7</v>
+      </c>
+      <c r="C648" t="s">
+        <v>12</v>
+      </c>
+      <c r="D648" t="n">
         <v>21.1688288288288</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" s="1" t="n">
+        <v>44597</v>
+      </c>
+      <c r="B649" t="s">
+        <v>7</v>
+      </c>
+      <c r="C649" t="s">
+        <v>12</v>
+      </c>
+      <c r="D649" t="n">
+        <v>21.1833333333333</v>
       </c>
     </row>
   </sheetData>

--- a/GasAmg.xlsx
+++ b/GasAmg.xlsx
@@ -908,21 +908,21 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>44562</v>
+        <v>44598</v>
       </c>
       <c r="B38" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
       </c>
       <c r="D38" t="n">
-        <v>22.982</v>
+        <v>22.2828571428571</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>44563</v>
+        <v>44562</v>
       </c>
       <c r="B39" t="s">
         <v>6</v>
@@ -931,12 +931,12 @@
         <v>5</v>
       </c>
       <c r="D39" t="n">
-        <v>22.9855</v>
+        <v>22.982</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>44564</v>
+        <v>44563</v>
       </c>
       <c r="B40" t="s">
         <v>6</v>
@@ -950,7 +950,7 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>44565</v>
+        <v>44564</v>
       </c>
       <c r="B41" t="s">
         <v>6</v>
@@ -959,12 +959,12 @@
         <v>5</v>
       </c>
       <c r="D41" t="n">
-        <v>23.014</v>
+        <v>22.9855</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>44566</v>
+        <v>44565</v>
       </c>
       <c r="B42" t="s">
         <v>6</v>
@@ -973,12 +973,12 @@
         <v>5</v>
       </c>
       <c r="D42" t="n">
-        <v>23.0155</v>
+        <v>23.014</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>44567</v>
+        <v>44566</v>
       </c>
       <c r="B43" t="s">
         <v>6</v>
@@ -992,7 +992,7 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>44568</v>
+        <v>44567</v>
       </c>
       <c r="B44" t="s">
         <v>6</v>
@@ -1001,12 +1001,12 @@
         <v>5</v>
       </c>
       <c r="D44" t="n">
-        <v>23.0355</v>
+        <v>23.0155</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>44569</v>
+        <v>44568</v>
       </c>
       <c r="B45" t="s">
         <v>6</v>
@@ -1015,12 +1015,12 @@
         <v>5</v>
       </c>
       <c r="D45" t="n">
-        <v>23.0405</v>
+        <v>23.0355</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>44570</v>
+        <v>44569</v>
       </c>
       <c r="B46" t="s">
         <v>6</v>
@@ -1029,12 +1029,12 @@
         <v>5</v>
       </c>
       <c r="D46" t="n">
-        <v>23.0515</v>
+        <v>23.0405</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>44571</v>
+        <v>44570</v>
       </c>
       <c r="B47" t="s">
         <v>6</v>
@@ -1048,7 +1048,7 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>44572</v>
+        <v>44571</v>
       </c>
       <c r="B48" t="s">
         <v>6</v>
@@ -1062,7 +1062,7 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>44573</v>
+        <v>44572</v>
       </c>
       <c r="B49" t="s">
         <v>6</v>
@@ -1071,12 +1071,12 @@
         <v>5</v>
       </c>
       <c r="D49" t="n">
-        <v>23.129</v>
+        <v>23.0515</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>44574</v>
+        <v>44573</v>
       </c>
       <c r="B50" t="s">
         <v>6</v>
@@ -1085,12 +1085,12 @@
         <v>5</v>
       </c>
       <c r="D50" t="n">
-        <v>23.137</v>
+        <v>23.129</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>44575</v>
+        <v>44574</v>
       </c>
       <c r="B51" t="s">
         <v>6</v>
@@ -1099,12 +1099,12 @@
         <v>5</v>
       </c>
       <c r="D51" t="n">
-        <v>23.1625</v>
+        <v>23.137</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>44576</v>
+        <v>44575</v>
       </c>
       <c r="B52" t="s">
         <v>6</v>
@@ -1113,12 +1113,12 @@
         <v>5</v>
       </c>
       <c r="D52" t="n">
-        <v>23.1675</v>
+        <v>23.1625</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>44577</v>
+        <v>44576</v>
       </c>
       <c r="B53" t="s">
         <v>6</v>
@@ -1132,7 +1132,7 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>44578</v>
+        <v>44577</v>
       </c>
       <c r="B54" t="s">
         <v>6</v>
@@ -1141,12 +1141,12 @@
         <v>5</v>
       </c>
       <c r="D54" t="n">
-        <v>23.182</v>
+        <v>23.1675</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>44579</v>
+        <v>44578</v>
       </c>
       <c r="B55" t="s">
         <v>6</v>
@@ -1160,7 +1160,7 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>44580</v>
+        <v>44579</v>
       </c>
       <c r="B56" t="s">
         <v>6</v>
@@ -1174,7 +1174,7 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>44581</v>
+        <v>44580</v>
       </c>
       <c r="B57" t="s">
         <v>6</v>
@@ -1183,12 +1183,12 @@
         <v>5</v>
       </c>
       <c r="D57" t="n">
-        <v>23.197</v>
+        <v>23.182</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>44582</v>
+        <v>44581</v>
       </c>
       <c r="B58" t="s">
         <v>6</v>
@@ -1197,12 +1197,12 @@
         <v>5</v>
       </c>
       <c r="D58" t="n">
-        <v>23.2085</v>
+        <v>23.197</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>44583</v>
+        <v>44582</v>
       </c>
       <c r="B59" t="s">
         <v>6</v>
@@ -1211,12 +1211,12 @@
         <v>5</v>
       </c>
       <c r="D59" t="n">
-        <v>23.2125</v>
+        <v>23.2085</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>44584</v>
+        <v>44583</v>
       </c>
       <c r="B60" t="s">
         <v>6</v>
@@ -1225,12 +1225,12 @@
         <v>5</v>
       </c>
       <c r="D60" t="n">
-        <v>23.2225</v>
+        <v>23.2125</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>44585</v>
+        <v>44584</v>
       </c>
       <c r="B61" t="s">
         <v>6</v>
@@ -1244,7 +1244,7 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>44586</v>
+        <v>44585</v>
       </c>
       <c r="B62" t="s">
         <v>6</v>
@@ -1258,7 +1258,7 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>44587</v>
+        <v>44586</v>
       </c>
       <c r="B63" t="s">
         <v>6</v>
@@ -1272,7 +1272,7 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>44588</v>
+        <v>44587</v>
       </c>
       <c r="B64" t="s">
         <v>6</v>
@@ -1286,7 +1286,7 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>44589</v>
+        <v>44588</v>
       </c>
       <c r="B65" t="s">
         <v>6</v>
@@ -1295,12 +1295,12 @@
         <v>5</v>
       </c>
       <c r="D65" t="n">
-        <v>23.2285</v>
+        <v>23.2225</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>44590</v>
+        <v>44589</v>
       </c>
       <c r="B66" t="s">
         <v>6</v>
@@ -1309,12 +1309,12 @@
         <v>5</v>
       </c>
       <c r="D66" t="n">
-        <v>23.2325</v>
+        <v>23.2285</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>44591</v>
+        <v>44590</v>
       </c>
       <c r="B67" t="s">
         <v>6</v>
@@ -1323,12 +1323,12 @@
         <v>5</v>
       </c>
       <c r="D67" t="n">
-        <v>23.247</v>
+        <v>23.2325</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>44592</v>
+        <v>44591</v>
       </c>
       <c r="B68" t="s">
         <v>6</v>
@@ -1342,7 +1342,7 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>44593</v>
+        <v>44592</v>
       </c>
       <c r="B69" t="s">
         <v>6</v>
@@ -1356,7 +1356,7 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>44594</v>
+        <v>44593</v>
       </c>
       <c r="B70" t="s">
         <v>6</v>
@@ -1370,7 +1370,7 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>44595</v>
+        <v>44594</v>
       </c>
       <c r="B71" t="s">
         <v>6</v>
@@ -1379,12 +1379,12 @@
         <v>5</v>
       </c>
       <c r="D71" t="n">
-        <v>23.2615</v>
+        <v>23.247</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>44596</v>
+        <v>44595</v>
       </c>
       <c r="B72" t="s">
         <v>6</v>
@@ -1398,7 +1398,7 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>44597</v>
+        <v>44596</v>
       </c>
       <c r="B73" t="s">
         <v>6</v>
@@ -1407,40 +1407,40 @@
         <v>5</v>
       </c>
       <c r="D73" t="n">
-        <v>23.286</v>
+        <v>23.2615</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>44562</v>
+        <v>44597</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C74" t="s">
         <v>5</v>
       </c>
       <c r="D74" t="n">
-        <v>20.7971428571429</v>
+        <v>23.286</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>44563</v>
+        <v>44598</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C75" t="s">
         <v>5</v>
       </c>
       <c r="D75" t="n">
-        <v>20.8247619047619</v>
+        <v>23.303</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>44564</v>
+        <v>44562</v>
       </c>
       <c r="B76" t="s">
         <v>7</v>
@@ -1449,12 +1449,12 @@
         <v>5</v>
       </c>
       <c r="D76" t="n">
-        <v>20.8247619047619</v>
+        <v>20.7971428571429</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>44565</v>
+        <v>44563</v>
       </c>
       <c r="B77" t="s">
         <v>7</v>
@@ -1463,12 +1463,12 @@
         <v>5</v>
       </c>
       <c r="D77" t="n">
-        <v>20.8704761904762</v>
+        <v>20.8247619047619</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>44566</v>
+        <v>44564</v>
       </c>
       <c r="B78" t="s">
         <v>7</v>
@@ -1477,12 +1477,12 @@
         <v>5</v>
       </c>
       <c r="D78" t="n">
-        <v>20.8528571428571</v>
+        <v>20.8247619047619</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>44567</v>
+        <v>44565</v>
       </c>
       <c r="B79" t="s">
         <v>7</v>
@@ -1491,12 +1491,12 @@
         <v>5</v>
       </c>
       <c r="D79" t="n">
-        <v>20.8547619047619</v>
+        <v>20.8704761904762</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>44568</v>
+        <v>44566</v>
       </c>
       <c r="B80" t="s">
         <v>7</v>
@@ -1505,12 +1505,12 @@
         <v>5</v>
       </c>
       <c r="D80" t="n">
-        <v>20.8790476190476</v>
+        <v>20.8528571428571</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>44569</v>
+        <v>44567</v>
       </c>
       <c r="B81" t="s">
         <v>7</v>
@@ -1519,12 +1519,12 @@
         <v>5</v>
       </c>
       <c r="D81" t="n">
-        <v>20.8857142857143</v>
+        <v>20.8547619047619</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>44570</v>
+        <v>44568</v>
       </c>
       <c r="B82" t="s">
         <v>7</v>
@@ -1533,12 +1533,12 @@
         <v>5</v>
       </c>
       <c r="D82" t="n">
-        <v>20.9004761904762</v>
+        <v>20.8790476190476</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>44571</v>
+        <v>44569</v>
       </c>
       <c r="B83" t="s">
         <v>7</v>
@@ -1547,12 +1547,12 @@
         <v>5</v>
       </c>
       <c r="D83" t="n">
-        <v>20.9004761904762</v>
+        <v>20.8857142857143</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>44572</v>
+        <v>44570</v>
       </c>
       <c r="B84" t="s">
         <v>7</v>
@@ -1566,7 +1566,7 @@
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>44573</v>
+        <v>44571</v>
       </c>
       <c r="B85" t="s">
         <v>7</v>
@@ -1575,12 +1575,12 @@
         <v>5</v>
       </c>
       <c r="D85" t="n">
-        <v>20.9028571428571</v>
+        <v>20.9004761904762</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>44574</v>
+        <v>44572</v>
       </c>
       <c r="B86" t="s">
         <v>7</v>
@@ -1589,12 +1589,12 @@
         <v>5</v>
       </c>
       <c r="D86" t="n">
-        <v>20.9042857142857</v>
+        <v>20.9004761904762</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>44575</v>
+        <v>44573</v>
       </c>
       <c r="B87" t="s">
         <v>7</v>
@@ -1603,12 +1603,12 @@
         <v>5</v>
       </c>
       <c r="D87" t="n">
-        <v>20.9071428571429</v>
+        <v>20.9028571428571</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>44576</v>
+        <v>44574</v>
       </c>
       <c r="B88" t="s">
         <v>7</v>
@@ -1617,12 +1617,12 @@
         <v>5</v>
       </c>
       <c r="D88" t="n">
-        <v>20.9404761904762</v>
+        <v>20.9042857142857</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>44577</v>
+        <v>44575</v>
       </c>
       <c r="B89" t="s">
         <v>7</v>
@@ -1631,12 +1631,12 @@
         <v>5</v>
       </c>
       <c r="D89" t="n">
-        <v>20.9404761904762</v>
+        <v>20.9071428571429</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>44578</v>
+        <v>44576</v>
       </c>
       <c r="B90" t="s">
         <v>7</v>
@@ -1650,7 +1650,7 @@
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>44579</v>
+        <v>44577</v>
       </c>
       <c r="B91" t="s">
         <v>7</v>
@@ -1664,7 +1664,7 @@
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>44580</v>
+        <v>44578</v>
       </c>
       <c r="B92" t="s">
         <v>7</v>
@@ -1673,12 +1673,12 @@
         <v>5</v>
       </c>
       <c r="D92" t="n">
-        <v>20.9433333333333</v>
+        <v>20.9404761904762</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>44581</v>
+        <v>44579</v>
       </c>
       <c r="B93" t="s">
         <v>7</v>
@@ -1687,12 +1687,12 @@
         <v>5</v>
       </c>
       <c r="D93" t="n">
-        <v>20.9590476190476</v>
+        <v>20.9404761904762</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>44582</v>
+        <v>44580</v>
       </c>
       <c r="B94" t="s">
         <v>7</v>
@@ -1701,12 +1701,12 @@
         <v>5</v>
       </c>
       <c r="D94" t="n">
-        <v>20.9685714285714</v>
+        <v>20.9433333333333</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>44583</v>
+        <v>44581</v>
       </c>
       <c r="B95" t="s">
         <v>7</v>
@@ -1715,12 +1715,12 @@
         <v>5</v>
       </c>
       <c r="D95" t="n">
-        <v>20.9785714285714</v>
+        <v>20.9590476190476</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>44584</v>
+        <v>44582</v>
       </c>
       <c r="B96" t="s">
         <v>7</v>
@@ -1729,12 +1729,12 @@
         <v>5</v>
       </c>
       <c r="D96" t="n">
-        <v>20.977619047619</v>
+        <v>20.9685714285714</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>44585</v>
+        <v>44583</v>
       </c>
       <c r="B97" t="s">
         <v>7</v>
@@ -1743,12 +1743,12 @@
         <v>5</v>
       </c>
       <c r="D97" t="n">
-        <v>20.977619047619</v>
+        <v>20.9785714285714</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>44586</v>
+        <v>44584</v>
       </c>
       <c r="B98" t="s">
         <v>7</v>
@@ -1762,7 +1762,7 @@
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>44587</v>
+        <v>44585</v>
       </c>
       <c r="B99" t="s">
         <v>7</v>
@@ -1771,12 +1771,12 @@
         <v>5</v>
       </c>
       <c r="D99" t="n">
-        <v>20.9880952380952</v>
+        <v>20.977619047619</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>44588</v>
+        <v>44586</v>
       </c>
       <c r="B100" t="s">
         <v>7</v>
@@ -1785,12 +1785,12 @@
         <v>5</v>
       </c>
       <c r="D100" t="n">
-        <v>20.9880952380952</v>
+        <v>20.977619047619</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>44589</v>
+        <v>44587</v>
       </c>
       <c r="B101" t="s">
         <v>7</v>
@@ -1799,12 +1799,12 @@
         <v>5</v>
       </c>
       <c r="D101" t="n">
-        <v>21</v>
+        <v>20.9880952380952</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>44590</v>
+        <v>44588</v>
       </c>
       <c r="B102" t="s">
         <v>7</v>
@@ -1813,12 +1813,12 @@
         <v>5</v>
       </c>
       <c r="D102" t="n">
-        <v>21.0090476190476</v>
+        <v>20.9880952380952</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>44591</v>
+        <v>44589</v>
       </c>
       <c r="B103" t="s">
         <v>7</v>
@@ -1827,12 +1827,12 @@
         <v>5</v>
       </c>
       <c r="D103" t="n">
-        <v>21.0290476190476</v>
+        <v>21</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>44592</v>
+        <v>44590</v>
       </c>
       <c r="B104" t="s">
         <v>7</v>
@@ -1841,12 +1841,12 @@
         <v>5</v>
       </c>
       <c r="D104" t="n">
-        <v>21.0385714285714</v>
+        <v>21.0090476190476</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>44593</v>
+        <v>44591</v>
       </c>
       <c r="B105" t="s">
         <v>7</v>
@@ -1855,12 +1855,12 @@
         <v>5</v>
       </c>
       <c r="D105" t="n">
-        <v>21.0385714285714</v>
+        <v>21.0290476190476</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>44594</v>
+        <v>44592</v>
       </c>
       <c r="B106" t="s">
         <v>7</v>
@@ -1869,12 +1869,12 @@
         <v>5</v>
       </c>
       <c r="D106" t="n">
-        <v>21.0528571428571</v>
+        <v>21.0385714285714</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>44595</v>
+        <v>44593</v>
       </c>
       <c r="B107" t="s">
         <v>7</v>
@@ -1883,12 +1883,12 @@
         <v>5</v>
       </c>
       <c r="D107" t="n">
-        <v>21.0528571428571</v>
+        <v>21.0385714285714</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>44596</v>
+        <v>44594</v>
       </c>
       <c r="B108" t="s">
         <v>7</v>
@@ -1897,12 +1897,12 @@
         <v>5</v>
       </c>
       <c r="D108" t="n">
-        <v>21.0690476190476</v>
+        <v>21.0528571428571</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>44597</v>
+        <v>44595</v>
       </c>
       <c r="B109" t="s">
         <v>7</v>
@@ -1911,54 +1911,54 @@
         <v>5</v>
       </c>
       <c r="D109" t="n">
-        <v>21.0785714285714</v>
+        <v>21.0528571428571</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>44562</v>
+        <v>44596</v>
       </c>
       <c r="B110" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D110" t="n">
-        <v>21.8166071428571</v>
+        <v>21.0690476190476</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>44563</v>
+        <v>44597</v>
       </c>
       <c r="B111" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D111" t="n">
-        <v>21.8160714285714</v>
+        <v>21.0785714285714</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>44564</v>
+        <v>44598</v>
       </c>
       <c r="B112" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D112" t="n">
-        <v>21.80875</v>
+        <v>21.1014285714286</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>44565</v>
+        <v>44562</v>
       </c>
       <c r="B113" t="s">
         <v>4</v>
@@ -1967,12 +1967,12 @@
         <v>8</v>
       </c>
       <c r="D113" t="n">
-        <v>21.8051785714286</v>
+        <v>21.8166071428571</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>44566</v>
+        <v>44563</v>
       </c>
       <c r="B114" t="s">
         <v>4</v>
@@ -1981,12 +1981,12 @@
         <v>8</v>
       </c>
       <c r="D114" t="n">
-        <v>21.8173214285714</v>
+        <v>21.8160714285714</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>44567</v>
+        <v>44564</v>
       </c>
       <c r="B115" t="s">
         <v>4</v>
@@ -1995,12 +1995,12 @@
         <v>8</v>
       </c>
       <c r="D115" t="n">
-        <v>21.8083928571429</v>
+        <v>21.80875</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>44568</v>
+        <v>44565</v>
       </c>
       <c r="B116" t="s">
         <v>4</v>
@@ -2009,12 +2009,12 @@
         <v>8</v>
       </c>
       <c r="D116" t="n">
-        <v>21.8082142857143</v>
+        <v>21.8051785714286</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>44569</v>
+        <v>44566</v>
       </c>
       <c r="B117" t="s">
         <v>4</v>
@@ -2023,12 +2023,12 @@
         <v>8</v>
       </c>
       <c r="D117" t="n">
-        <v>21.8585714285714</v>
+        <v>21.8173214285714</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>44570</v>
+        <v>44567</v>
       </c>
       <c r="B118" t="s">
         <v>4</v>
@@ -2037,12 +2037,12 @@
         <v>8</v>
       </c>
       <c r="D118" t="n">
-        <v>21.8498214285714</v>
+        <v>21.8083928571429</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>44571</v>
+        <v>44568</v>
       </c>
       <c r="B119" t="s">
         <v>4</v>
@@ -2051,12 +2051,12 @@
         <v>8</v>
       </c>
       <c r="D119" t="n">
-        <v>21.83375</v>
+        <v>21.8082142857143</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>44572</v>
+        <v>44569</v>
       </c>
       <c r="B120" t="s">
         <v>4</v>
@@ -2065,12 +2065,12 @@
         <v>8</v>
       </c>
       <c r="D120" t="n">
-        <v>21.8516071428571</v>
+        <v>21.8585714285714</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>44573</v>
+        <v>44570</v>
       </c>
       <c r="B121" t="s">
         <v>4</v>
@@ -2079,12 +2079,12 @@
         <v>8</v>
       </c>
       <c r="D121" t="n">
-        <v>21.8853571428571</v>
+        <v>21.8498214285714</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>44574</v>
+        <v>44571</v>
       </c>
       <c r="B122" t="s">
         <v>4</v>
@@ -2093,12 +2093,12 @@
         <v>8</v>
       </c>
       <c r="D122" t="n">
-        <v>21.8948214285714</v>
+        <v>21.83375</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>44575</v>
+        <v>44572</v>
       </c>
       <c r="B123" t="s">
         <v>4</v>
@@ -2107,12 +2107,12 @@
         <v>8</v>
       </c>
       <c r="D123" t="n">
-        <v>21.9010714285714</v>
+        <v>21.8516071428571</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>44576</v>
+        <v>44573</v>
       </c>
       <c r="B124" t="s">
         <v>4</v>
@@ -2121,12 +2121,12 @@
         <v>8</v>
       </c>
       <c r="D124" t="n">
-        <v>21.9028571428571</v>
+        <v>21.8853571428571</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>44577</v>
+        <v>44574</v>
       </c>
       <c r="B125" t="s">
         <v>4</v>
@@ -2135,12 +2135,12 @@
         <v>8</v>
       </c>
       <c r="D125" t="n">
-        <v>21.90875</v>
+        <v>21.8948214285714</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>44578</v>
+        <v>44575</v>
       </c>
       <c r="B126" t="s">
         <v>4</v>
@@ -2149,12 +2149,12 @@
         <v>8</v>
       </c>
       <c r="D126" t="n">
-        <v>21.8944642857143</v>
+        <v>21.9010714285714</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>44579</v>
+        <v>44576</v>
       </c>
       <c r="B127" t="s">
         <v>4</v>
@@ -2163,12 +2163,12 @@
         <v>8</v>
       </c>
       <c r="D127" t="n">
-        <v>21.9283928571429</v>
+        <v>21.9028571428571</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>44580</v>
+        <v>44577</v>
       </c>
       <c r="B128" t="s">
         <v>4</v>
@@ -2177,12 +2177,12 @@
         <v>8</v>
       </c>
       <c r="D128" t="n">
-        <v>21.9244642857143</v>
+        <v>21.90875</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>44581</v>
+        <v>44578</v>
       </c>
       <c r="B129" t="s">
         <v>4</v>
@@ -2191,12 +2191,12 @@
         <v>8</v>
       </c>
       <c r="D129" t="n">
-        <v>21.9325</v>
+        <v>21.8944642857143</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>44582</v>
+        <v>44579</v>
       </c>
       <c r="B130" t="s">
         <v>4</v>
@@ -2205,12 +2205,12 @@
         <v>8</v>
       </c>
       <c r="D130" t="n">
-        <v>21.9405357142857</v>
+        <v>21.9283928571429</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>44583</v>
+        <v>44580</v>
       </c>
       <c r="B131" t="s">
         <v>4</v>
@@ -2219,12 +2219,12 @@
         <v>8</v>
       </c>
       <c r="D131" t="n">
-        <v>21.9471428571429</v>
+        <v>21.9244642857143</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>44584</v>
+        <v>44581</v>
       </c>
       <c r="B132" t="s">
         <v>4</v>
@@ -2233,12 +2233,12 @@
         <v>8</v>
       </c>
       <c r="D132" t="n">
-        <v>21.9519642857143</v>
+        <v>21.9325</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>44585</v>
+        <v>44582</v>
       </c>
       <c r="B133" t="s">
         <v>4</v>
@@ -2247,12 +2247,12 @@
         <v>8</v>
       </c>
       <c r="D133" t="n">
-        <v>21.9376785714286</v>
+        <v>21.9405357142857</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>44586</v>
+        <v>44583</v>
       </c>
       <c r="B134" t="s">
         <v>4</v>
@@ -2261,12 +2261,12 @@
         <v>8</v>
       </c>
       <c r="D134" t="n">
-        <v>21.95375</v>
+        <v>21.9471428571429</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>44587</v>
+        <v>44584</v>
       </c>
       <c r="B135" t="s">
         <v>4</v>
@@ -2275,12 +2275,12 @@
         <v>8</v>
       </c>
       <c r="D135" t="n">
-        <v>21.9694642857143</v>
+        <v>21.9519642857143</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>44588</v>
+        <v>44585</v>
       </c>
       <c r="B136" t="s">
         <v>4</v>
@@ -2289,12 +2289,12 @@
         <v>8</v>
       </c>
       <c r="D136" t="n">
-        <v>21.9648214285714</v>
+        <v>21.9376785714286</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>44589</v>
+        <v>44586</v>
       </c>
       <c r="B137" t="s">
         <v>4</v>
@@ -2303,12 +2303,12 @@
         <v>8</v>
       </c>
       <c r="D137" t="n">
-        <v>21.9683928571429</v>
+        <v>21.95375</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>44590</v>
+        <v>44587</v>
       </c>
       <c r="B138" t="s">
         <v>4</v>
@@ -2317,12 +2317,12 @@
         <v>8</v>
       </c>
       <c r="D138" t="n">
-        <v>21.9635714285714</v>
+        <v>21.9694642857143</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>44591</v>
+        <v>44588</v>
       </c>
       <c r="B139" t="s">
         <v>4</v>
@@ -2331,12 +2331,12 @@
         <v>8</v>
       </c>
       <c r="D139" t="n">
-        <v>21.9780357142857</v>
+        <v>21.9648214285714</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>44592</v>
+        <v>44589</v>
       </c>
       <c r="B140" t="s">
         <v>4</v>
@@ -2345,12 +2345,12 @@
         <v>8</v>
       </c>
       <c r="D140" t="n">
-        <v>21.96375</v>
+        <v>21.9683928571429</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>44593</v>
+        <v>44590</v>
       </c>
       <c r="B141" t="s">
         <v>4</v>
@@ -2359,12 +2359,12 @@
         <v>8</v>
       </c>
       <c r="D141" t="n">
-        <v>21.9780357142857</v>
+        <v>21.9635714285714</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>44594</v>
+        <v>44591</v>
       </c>
       <c r="B142" t="s">
         <v>4</v>
@@ -2373,12 +2373,12 @@
         <v>8</v>
       </c>
       <c r="D142" t="n">
-        <v>22.0108928571429</v>
+        <v>21.9780357142857</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>44595</v>
+        <v>44592</v>
       </c>
       <c r="B143" t="s">
         <v>4</v>
@@ -2387,12 +2387,12 @@
         <v>8</v>
       </c>
       <c r="D143" t="n">
-        <v>22.0060714285714</v>
+        <v>21.96375</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>44596</v>
+        <v>44593</v>
       </c>
       <c r="B144" t="s">
         <v>4</v>
@@ -2401,12 +2401,12 @@
         <v>8</v>
       </c>
       <c r="D144" t="n">
-        <v>22.0426785714286</v>
+        <v>21.9780357142857</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>44597</v>
+        <v>44594</v>
       </c>
       <c r="B145" t="s">
         <v>4</v>
@@ -2415,68 +2415,68 @@
         <v>8</v>
       </c>
       <c r="D145" t="n">
-        <v>22.0478571428571</v>
+        <v>22.0108928571429</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>44562</v>
+        <v>44595</v>
       </c>
       <c r="B146" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C146" t="s">
         <v>8</v>
       </c>
       <c r="D146" t="n">
-        <v>23.1053968253968</v>
+        <v>22.0060714285714</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>44563</v>
+        <v>44596</v>
       </c>
       <c r="B147" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C147" t="s">
         <v>8</v>
       </c>
       <c r="D147" t="n">
-        <v>23.1303174603175</v>
+        <v>22.0426785714286</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>44564</v>
+        <v>44597</v>
       </c>
       <c r="B148" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C148" t="s">
         <v>8</v>
       </c>
       <c r="D148" t="n">
-        <v>23.1181746031746</v>
+        <v>22.0478571428571</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>44565</v>
+        <v>44598</v>
       </c>
       <c r="B149" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C149" t="s">
         <v>8</v>
       </c>
       <c r="D149" t="n">
-        <v>23.1251587301587</v>
+        <v>22.0578571428571</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>44566</v>
+        <v>44562</v>
       </c>
       <c r="B150" t="s">
         <v>6</v>
@@ -2485,12 +2485,12 @@
         <v>8</v>
       </c>
       <c r="D150" t="n">
-        <v>23.1421428571429</v>
+        <v>23.1053968253968</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>44567</v>
+        <v>44563</v>
       </c>
       <c r="B151" t="s">
         <v>6</v>
@@ -2499,12 +2499,12 @@
         <v>8</v>
       </c>
       <c r="D151" t="n">
-        <v>23.1629365079365</v>
+        <v>23.1303174603175</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>44568</v>
+        <v>44564</v>
       </c>
       <c r="B152" t="s">
         <v>6</v>
@@ -2513,12 +2513,12 @@
         <v>8</v>
       </c>
       <c r="D152" t="n">
-        <v>23.1716666666667</v>
+        <v>23.1181746031746</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>44569</v>
+        <v>44565</v>
       </c>
       <c r="B153" t="s">
         <v>6</v>
@@ -2527,12 +2527,12 @@
         <v>8</v>
       </c>
       <c r="D153" t="n">
-        <v>23.1869841269841</v>
+        <v>23.1251587301587</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>44570</v>
+        <v>44566</v>
       </c>
       <c r="B154" t="s">
         <v>6</v>
@@ -2541,12 +2541,12 @@
         <v>8</v>
       </c>
       <c r="D154" t="n">
-        <v>23.1927777777778</v>
+        <v>23.1421428571429</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>44571</v>
+        <v>44567</v>
       </c>
       <c r="B155" t="s">
         <v>6</v>
@@ -2555,12 +2555,12 @@
         <v>8</v>
       </c>
       <c r="D155" t="n">
-        <v>23.195873015873</v>
+        <v>23.1629365079365</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>44572</v>
+        <v>44568</v>
       </c>
       <c r="B156" t="s">
         <v>6</v>
@@ -2569,12 +2569,12 @@
         <v>8</v>
       </c>
       <c r="D156" t="n">
-        <v>23.1703968253968</v>
+        <v>23.1716666666667</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>44573</v>
+        <v>44569</v>
       </c>
       <c r="B157" t="s">
         <v>6</v>
@@ -2583,12 +2583,12 @@
         <v>8</v>
       </c>
       <c r="D157" t="n">
-        <v>23.2097619047619</v>
+        <v>23.1869841269841</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>44574</v>
+        <v>44570</v>
       </c>
       <c r="B158" t="s">
         <v>6</v>
@@ -2597,12 +2597,12 @@
         <v>8</v>
       </c>
       <c r="D158" t="n">
-        <v>23.2205555555556</v>
+        <v>23.1927777777778</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>44575</v>
+        <v>44571</v>
       </c>
       <c r="B159" t="s">
         <v>6</v>
@@ -2611,12 +2611,12 @@
         <v>8</v>
       </c>
       <c r="D159" t="n">
-        <v>23.2261111111111</v>
+        <v>23.195873015873</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>44576</v>
+        <v>44572</v>
       </c>
       <c r="B160" t="s">
         <v>6</v>
@@ -2625,12 +2625,12 @@
         <v>8</v>
       </c>
       <c r="D160" t="n">
-        <v>23.2265873015873</v>
+        <v>23.1703968253968</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>44577</v>
+        <v>44573</v>
       </c>
       <c r="B161" t="s">
         <v>6</v>
@@ -2639,12 +2639,12 @@
         <v>8</v>
       </c>
       <c r="D161" t="n">
-        <v>23.2284126984127</v>
+        <v>23.2097619047619</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>44578</v>
+        <v>44574</v>
       </c>
       <c r="B162" t="s">
         <v>6</v>
@@ -2653,12 +2653,12 @@
         <v>8</v>
       </c>
       <c r="D162" t="n">
-        <v>23.2296825396825</v>
+        <v>23.2205555555556</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>44579</v>
+        <v>44575</v>
       </c>
       <c r="B163" t="s">
         <v>6</v>
@@ -2667,12 +2667,12 @@
         <v>8</v>
       </c>
       <c r="D163" t="n">
-        <v>23.2337301587302</v>
+        <v>23.2261111111111</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>44580</v>
+        <v>44576</v>
       </c>
       <c r="B164" t="s">
         <v>6</v>
@@ -2681,12 +2681,12 @@
         <v>8</v>
       </c>
       <c r="D164" t="n">
-        <v>23.2570634920635</v>
+        <v>23.2265873015873</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>44581</v>
+        <v>44577</v>
       </c>
       <c r="B165" t="s">
         <v>6</v>
@@ -2695,12 +2695,12 @@
         <v>8</v>
       </c>
       <c r="D165" t="n">
-        <v>23.2701587301587</v>
+        <v>23.2284126984127</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>44582</v>
+        <v>44578</v>
       </c>
       <c r="B166" t="s">
         <v>6</v>
@@ -2709,12 +2709,12 @@
         <v>8</v>
       </c>
       <c r="D166" t="n">
-        <v>23.2738888888889</v>
+        <v>23.2296825396825</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>44583</v>
+        <v>44579</v>
       </c>
       <c r="B167" t="s">
         <v>6</v>
@@ -2723,12 +2723,12 @@
         <v>8</v>
       </c>
       <c r="D167" t="n">
-        <v>23.2864285714286</v>
+        <v>23.2337301587302</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>44584</v>
+        <v>44580</v>
       </c>
       <c r="B168" t="s">
         <v>6</v>
@@ -2737,12 +2737,12 @@
         <v>8</v>
       </c>
       <c r="D168" t="n">
-        <v>23.2903174603175</v>
+        <v>23.2570634920635</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>44585</v>
+        <v>44581</v>
       </c>
       <c r="B169" t="s">
         <v>6</v>
@@ -2751,12 +2751,12 @@
         <v>8</v>
       </c>
       <c r="D169" t="n">
-        <v>23.2895238095238</v>
+        <v>23.2701587301587</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>44586</v>
+        <v>44582</v>
       </c>
       <c r="B170" t="s">
         <v>6</v>
@@ -2765,12 +2765,12 @@
         <v>8</v>
       </c>
       <c r="D170" t="n">
-        <v>23.2953968253968</v>
+        <v>23.2738888888889</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>44587</v>
+        <v>44583</v>
       </c>
       <c r="B171" t="s">
         <v>6</v>
@@ -2779,12 +2779,12 @@
         <v>8</v>
       </c>
       <c r="D171" t="n">
-        <v>23.3019047619048</v>
+        <v>23.2864285714286</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>44588</v>
+        <v>44584</v>
       </c>
       <c r="B172" t="s">
         <v>6</v>
@@ -2793,12 +2793,12 @@
         <v>8</v>
       </c>
       <c r="D172" t="n">
-        <v>23.3071428571429</v>
+        <v>23.2903174603175</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>44589</v>
+        <v>44585</v>
       </c>
       <c r="B173" t="s">
         <v>6</v>
@@ -2807,12 +2807,12 @@
         <v>8</v>
       </c>
       <c r="D173" t="n">
-        <v>23.3089682539683</v>
+        <v>23.2895238095238</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>44590</v>
+        <v>44586</v>
       </c>
       <c r="B174" t="s">
         <v>6</v>
@@ -2821,12 +2821,12 @@
         <v>8</v>
       </c>
       <c r="D174" t="n">
-        <v>23.3001587301587</v>
+        <v>23.2953968253968</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>44591</v>
+        <v>44587</v>
       </c>
       <c r="B175" t="s">
         <v>6</v>
@@ -2835,12 +2835,12 @@
         <v>8</v>
       </c>
       <c r="D175" t="n">
-        <v>23.3194444444444</v>
+        <v>23.3019047619048</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>44592</v>
+        <v>44588</v>
       </c>
       <c r="B176" t="s">
         <v>6</v>
@@ -2849,12 +2849,12 @@
         <v>8</v>
       </c>
       <c r="D176" t="n">
-        <v>23.3202380952381</v>
+        <v>23.3071428571429</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>44593</v>
+        <v>44589</v>
       </c>
       <c r="B177" t="s">
         <v>6</v>
@@ -2863,12 +2863,12 @@
         <v>8</v>
       </c>
       <c r="D177" t="n">
-        <v>23.3429365079365</v>
+        <v>23.3089682539683</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
-        <v>44594</v>
+        <v>44590</v>
       </c>
       <c r="B178" t="s">
         <v>6</v>
@@ -2877,12 +2877,12 @@
         <v>8</v>
       </c>
       <c r="D178" t="n">
-        <v>23.3310317460317</v>
+        <v>23.3001587301587</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
-        <v>44595</v>
+        <v>44591</v>
       </c>
       <c r="B179" t="s">
         <v>6</v>
@@ -2891,12 +2891,12 @@
         <v>8</v>
       </c>
       <c r="D179" t="n">
-        <v>23.3405555555556</v>
+        <v>23.3194444444444</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>44596</v>
+        <v>44592</v>
       </c>
       <c r="B180" t="s">
         <v>6</v>
@@ -2905,12 +2905,12 @@
         <v>8</v>
       </c>
       <c r="D180" t="n">
-        <v>23.3464285714286</v>
+        <v>23.3202380952381</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
-        <v>44597</v>
+        <v>44593</v>
       </c>
       <c r="B181" t="s">
         <v>6</v>
@@ -2919,82 +2919,82 @@
         <v>8</v>
       </c>
       <c r="D181" t="n">
-        <v>23.3511904761905</v>
+        <v>23.3429365079365</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
-        <v>44562</v>
+        <v>44594</v>
       </c>
       <c r="B182" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C182" t="s">
         <v>8</v>
       </c>
       <c r="D182" t="n">
-        <v>20.898992248062</v>
+        <v>23.3310317460317</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
-        <v>44563</v>
+        <v>44595</v>
       </c>
       <c r="B183" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C183" t="s">
         <v>8</v>
       </c>
       <c r="D183" t="n">
-        <v>20.9282170542636</v>
+        <v>23.3405555555556</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
-        <v>44564</v>
+        <v>44596</v>
       </c>
       <c r="B184" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C184" t="s">
         <v>8</v>
       </c>
       <c r="D184" t="n">
-        <v>20.9231782945736</v>
+        <v>23.3464285714286</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>44565</v>
+        <v>44597</v>
       </c>
       <c r="B185" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C185" t="s">
         <v>8</v>
       </c>
       <c r="D185" t="n">
-        <v>20.9351937984496</v>
+        <v>23.3511904761905</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>44566</v>
+        <v>44598</v>
       </c>
       <c r="B186" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C186" t="s">
         <v>8</v>
       </c>
       <c r="D186" t="n">
-        <v>20.9878294573643</v>
+        <v>23.3552380952381</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
-        <v>44567</v>
+        <v>44562</v>
       </c>
       <c r="B187" t="s">
         <v>7</v>
@@ -3003,12 +3003,12 @@
         <v>8</v>
       </c>
       <c r="D187" t="n">
-        <v>21.0073643410853</v>
+        <v>20.898992248062</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
-        <v>44568</v>
+        <v>44563</v>
       </c>
       <c r="B188" t="s">
         <v>7</v>
@@ -3017,12 +3017,12 @@
         <v>8</v>
       </c>
       <c r="D188" t="n">
-        <v>21.0072868217054</v>
+        <v>20.9282170542636</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
-        <v>44569</v>
+        <v>44564</v>
       </c>
       <c r="B189" t="s">
         <v>7</v>
@@ -3031,12 +3031,12 @@
         <v>8</v>
       </c>
       <c r="D189" t="n">
-        <v>21.0057364341085</v>
+        <v>20.9231782945736</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
-        <v>44570</v>
+        <v>44565</v>
       </c>
       <c r="B190" t="s">
         <v>7</v>
@@ -3045,12 +3045,12 @@
         <v>8</v>
       </c>
       <c r="D190" t="n">
-        <v>20.9878294573643</v>
+        <v>20.9351937984496</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
-        <v>44571</v>
+        <v>44566</v>
       </c>
       <c r="B191" t="s">
         <v>7</v>
@@ -3059,12 +3059,12 @@
         <v>8</v>
       </c>
       <c r="D191" t="n">
-        <v>20.9848062015504</v>
+        <v>20.9878294573643</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
-        <v>44572</v>
+        <v>44567</v>
       </c>
       <c r="B192" t="s">
         <v>7</v>
@@ -3073,12 +3073,12 @@
         <v>8</v>
       </c>
       <c r="D192" t="n">
-        <v>20.9837984496124</v>
+        <v>21.0073643410853</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
-        <v>44573</v>
+        <v>44568</v>
       </c>
       <c r="B193" t="s">
         <v>7</v>
@@ -3087,12 +3087,12 @@
         <v>8</v>
       </c>
       <c r="D193" t="n">
-        <v>20.9815503875969</v>
+        <v>21.0072868217054</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
-        <v>44574</v>
+        <v>44569</v>
       </c>
       <c r="B194" t="s">
         <v>7</v>
@@ -3101,12 +3101,12 @@
         <v>8</v>
       </c>
       <c r="D194" t="n">
-        <v>20.9628682170543</v>
+        <v>21.0057364341085</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
-        <v>44575</v>
+        <v>44570</v>
       </c>
       <c r="B195" t="s">
         <v>7</v>
@@ -3115,12 +3115,12 @@
         <v>8</v>
       </c>
       <c r="D195" t="n">
-        <v>20.9932558139535</v>
+        <v>20.9878294573643</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
-        <v>44576</v>
+        <v>44571</v>
       </c>
       <c r="B196" t="s">
         <v>7</v>
@@ -3129,12 +3129,12 @@
         <v>8</v>
       </c>
       <c r="D196" t="n">
-        <v>20.9991472868217</v>
+        <v>20.9848062015504</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
-        <v>44577</v>
+        <v>44572</v>
       </c>
       <c r="B197" t="s">
         <v>7</v>
@@ -3143,12 +3143,12 @@
         <v>8</v>
       </c>
       <c r="D197" t="n">
-        <v>20.9958914728682</v>
+        <v>20.9837984496124</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
-        <v>44578</v>
+        <v>44573</v>
       </c>
       <c r="B198" t="s">
         <v>7</v>
@@ -3157,12 +3157,12 @@
         <v>8</v>
       </c>
       <c r="D198" t="n">
-        <v>20.9891472868217</v>
+        <v>20.9815503875969</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
-        <v>44579</v>
+        <v>44574</v>
       </c>
       <c r="B199" t="s">
         <v>7</v>
@@ -3171,12 +3171,12 @@
         <v>8</v>
       </c>
       <c r="D199" t="n">
-        <v>21.0002325581395</v>
+        <v>20.9628682170543</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
-        <v>44580</v>
+        <v>44575</v>
       </c>
       <c r="B200" t="s">
         <v>7</v>
@@ -3185,12 +3185,12 @@
         <v>8</v>
       </c>
       <c r="D200" t="n">
-        <v>21.0181395348837</v>
+        <v>20.9932558139535</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
-        <v>44581</v>
+        <v>44576</v>
       </c>
       <c r="B201" t="s">
         <v>7</v>
@@ -3199,12 +3199,12 @@
         <v>8</v>
       </c>
       <c r="D201" t="n">
-        <v>21.026976744186</v>
+        <v>20.9991472868217</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
-        <v>44582</v>
+        <v>44577</v>
       </c>
       <c r="B202" t="s">
         <v>7</v>
@@ -3213,12 +3213,12 @@
         <v>8</v>
       </c>
       <c r="D202" t="n">
-        <v>21.0304651162791</v>
+        <v>20.9958914728682</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
-        <v>44583</v>
+        <v>44578</v>
       </c>
       <c r="B203" t="s">
         <v>7</v>
@@ -3227,12 +3227,12 @@
         <v>8</v>
       </c>
       <c r="D203" t="n">
-        <v>21.0454263565891</v>
+        <v>20.9891472868217</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
-        <v>44584</v>
+        <v>44579</v>
       </c>
       <c r="B204" t="s">
         <v>7</v>
@@ -3241,12 +3241,12 @@
         <v>8</v>
       </c>
       <c r="D204" t="n">
-        <v>21.0455813953488</v>
+        <v>21.0002325581395</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
-        <v>44585</v>
+        <v>44580</v>
       </c>
       <c r="B205" t="s">
         <v>7</v>
@@ -3255,12 +3255,12 @@
         <v>8</v>
       </c>
       <c r="D205" t="n">
-        <v>21.0408527131783</v>
+        <v>21.0181395348837</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
-        <v>44586</v>
+        <v>44581</v>
       </c>
       <c r="B206" t="s">
         <v>7</v>
@@ -3269,12 +3269,12 @@
         <v>8</v>
       </c>
       <c r="D206" t="n">
-        <v>21.0537984496124</v>
+        <v>21.026976744186</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
-        <v>44587</v>
+        <v>44582</v>
       </c>
       <c r="B207" t="s">
         <v>7</v>
@@ -3283,12 +3283,12 @@
         <v>8</v>
       </c>
       <c r="D207" t="n">
-        <v>21.0571317829457</v>
+        <v>21.0304651162791</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
-        <v>44588</v>
+        <v>44583</v>
       </c>
       <c r="B208" t="s">
         <v>7</v>
@@ -3297,12 +3297,12 @@
         <v>8</v>
       </c>
       <c r="D208" t="n">
-        <v>21.063488372093</v>
+        <v>21.0454263565891</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
-        <v>44589</v>
+        <v>44584</v>
       </c>
       <c r="B209" t="s">
         <v>7</v>
@@ -3311,12 +3311,12 @@
         <v>8</v>
       </c>
       <c r="D209" t="n">
-        <v>21.0696899224806</v>
+        <v>21.0455813953488</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
-        <v>44590</v>
+        <v>44585</v>
       </c>
       <c r="B210" t="s">
         <v>7</v>
@@ -3325,12 +3325,12 @@
         <v>8</v>
       </c>
       <c r="D210" t="n">
-        <v>21.0715503875969</v>
+        <v>21.0408527131783</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
-        <v>44591</v>
+        <v>44586</v>
       </c>
       <c r="B211" t="s">
         <v>7</v>
@@ -3339,12 +3339,12 @@
         <v>8</v>
       </c>
       <c r="D211" t="n">
-        <v>21.0771317829457</v>
+        <v>21.0537984496124</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
-        <v>44592</v>
+        <v>44587</v>
       </c>
       <c r="B212" t="s">
         <v>7</v>
@@ -3353,12 +3353,12 @@
         <v>8</v>
       </c>
       <c r="D212" t="n">
-        <v>21.0759689922481</v>
+        <v>21.0571317829457</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
-        <v>44593</v>
+        <v>44588</v>
       </c>
       <c r="B213" t="s">
         <v>7</v>
@@ -3367,12 +3367,12 @@
         <v>8</v>
       </c>
       <c r="D213" t="n">
-        <v>21.0853488372093</v>
+        <v>21.063488372093</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
-        <v>44594</v>
+        <v>44589</v>
       </c>
       <c r="B214" t="s">
         <v>7</v>
@@ -3381,12 +3381,12 @@
         <v>8</v>
       </c>
       <c r="D214" t="n">
-        <v>21.0791472868217</v>
+        <v>21.0696899224806</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
-        <v>44595</v>
+        <v>44590</v>
       </c>
       <c r="B215" t="s">
         <v>7</v>
@@ -3395,12 +3395,12 @@
         <v>8</v>
       </c>
       <c r="D215" t="n">
-        <v>21.0796124031008</v>
+        <v>21.0715503875969</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
-        <v>44596</v>
+        <v>44591</v>
       </c>
       <c r="B216" t="s">
         <v>7</v>
@@ -3409,12 +3409,12 @@
         <v>8</v>
       </c>
       <c r="D216" t="n">
-        <v>21.0876744186046</v>
+        <v>21.0771317829457</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
-        <v>44597</v>
+        <v>44592</v>
       </c>
       <c r="B217" t="s">
         <v>7</v>
@@ -3423,96 +3423,96 @@
         <v>8</v>
       </c>
       <c r="D217" t="n">
-        <v>21.0894573643411</v>
+        <v>21.0759689922481</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="B218" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C218" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D218" t="n">
-        <v>21.5081481481481</v>
+        <v>21.0853488372093</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
-        <v>44563</v>
+        <v>44594</v>
       </c>
       <c r="B219" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C219" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D219" t="n">
-        <v>21.512962962963</v>
+        <v>21.0791472868217</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
-        <v>44564</v>
+        <v>44595</v>
       </c>
       <c r="B220" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C220" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D220" t="n">
-        <v>21.512962962963</v>
+        <v>21.0796124031008</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
-        <v>44565</v>
+        <v>44596</v>
       </c>
       <c r="B221" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C221" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D221" t="n">
-        <v>21.5211111111111</v>
+        <v>21.0876744186046</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
-        <v>44566</v>
+        <v>44597</v>
       </c>
       <c r="B222" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C222" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D222" t="n">
-        <v>21.5598148148148</v>
+        <v>21.0894573643411</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
-        <v>44567</v>
+        <v>44598</v>
       </c>
       <c r="B223" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C223" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D223" t="n">
-        <v>21.5757407407407</v>
+        <v>21.0986046511628</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
-        <v>44568</v>
+        <v>44562</v>
       </c>
       <c r="B224" t="s">
         <v>4</v>
@@ -3521,12 +3521,12 @@
         <v>9</v>
       </c>
       <c r="D224" t="n">
-        <v>21.592962962963</v>
+        <v>21.5081481481481</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
-        <v>44569</v>
+        <v>44563</v>
       </c>
       <c r="B225" t="s">
         <v>4</v>
@@ -3535,12 +3535,12 @@
         <v>9</v>
       </c>
       <c r="D225" t="n">
-        <v>21.6074074074074</v>
+        <v>21.512962962963</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
-        <v>44570</v>
+        <v>44564</v>
       </c>
       <c r="B226" t="s">
         <v>4</v>
@@ -3549,12 +3549,12 @@
         <v>9</v>
       </c>
       <c r="D226" t="n">
-        <v>21.6264814814815</v>
+        <v>21.512962962963</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
-        <v>44571</v>
+        <v>44565</v>
       </c>
       <c r="B227" t="s">
         <v>4</v>
@@ -3563,12 +3563,12 @@
         <v>9</v>
       </c>
       <c r="D227" t="n">
-        <v>21.6264814814815</v>
+        <v>21.5211111111111</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
-        <v>44572</v>
+        <v>44566</v>
       </c>
       <c r="B228" t="s">
         <v>4</v>
@@ -3577,12 +3577,12 @@
         <v>9</v>
       </c>
       <c r="D228" t="n">
-        <v>21.6264814814815</v>
+        <v>21.5598148148148</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
-        <v>44573</v>
+        <v>44567</v>
       </c>
       <c r="B229" t="s">
         <v>4</v>
@@ -3591,12 +3591,12 @@
         <v>9</v>
       </c>
       <c r="D229" t="n">
-        <v>21.6377777777778</v>
+        <v>21.5757407407407</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
-        <v>44574</v>
+        <v>44568</v>
       </c>
       <c r="B230" t="s">
         <v>4</v>
@@ -3605,12 +3605,12 @@
         <v>9</v>
       </c>
       <c r="D230" t="n">
-        <v>21.6598148148148</v>
+        <v>21.592962962963</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
-        <v>44575</v>
+        <v>44569</v>
       </c>
       <c r="B231" t="s">
         <v>4</v>
@@ -3619,12 +3619,12 @@
         <v>9</v>
       </c>
       <c r="D231" t="n">
-        <v>21.6805555555556</v>
+        <v>21.6074074074074</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
-        <v>44576</v>
+        <v>44570</v>
       </c>
       <c r="B232" t="s">
         <v>4</v>
@@ -3633,12 +3633,12 @@
         <v>9</v>
       </c>
       <c r="D232" t="n">
-        <v>21.682037037037</v>
+        <v>21.6264814814815</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
-        <v>44577</v>
+        <v>44571</v>
       </c>
       <c r="B233" t="s">
         <v>4</v>
@@ -3647,12 +3647,12 @@
         <v>9</v>
       </c>
       <c r="D233" t="n">
-        <v>21.6875925925926</v>
+        <v>21.6264814814815</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
-        <v>44578</v>
+        <v>44572</v>
       </c>
       <c r="B234" t="s">
         <v>4</v>
@@ -3661,12 +3661,12 @@
         <v>9</v>
       </c>
       <c r="D234" t="n">
-        <v>21.6875925925926</v>
+        <v>21.6264814814815</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
-        <v>44579</v>
+        <v>44573</v>
       </c>
       <c r="B235" t="s">
         <v>4</v>
@@ -3675,12 +3675,12 @@
         <v>9</v>
       </c>
       <c r="D235" t="n">
-        <v>21.6912962962963</v>
+        <v>21.6377777777778</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
-        <v>44580</v>
+        <v>44574</v>
       </c>
       <c r="B236" t="s">
         <v>4</v>
@@ -3689,12 +3689,12 @@
         <v>9</v>
       </c>
       <c r="D236" t="n">
-        <v>21.6972222222222</v>
+        <v>21.6598148148148</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
-        <v>44581</v>
+        <v>44575</v>
       </c>
       <c r="B237" t="s">
         <v>4</v>
@@ -3703,12 +3703,12 @@
         <v>9</v>
       </c>
       <c r="D237" t="n">
-        <v>21.6972222222222</v>
+        <v>21.6805555555556</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
-        <v>44582</v>
+        <v>44576</v>
       </c>
       <c r="B238" t="s">
         <v>4</v>
@@ -3717,12 +3717,12 @@
         <v>9</v>
       </c>
       <c r="D238" t="n">
-        <v>21.7133333333333</v>
+        <v>21.682037037037</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
-        <v>44583</v>
+        <v>44577</v>
       </c>
       <c r="B239" t="s">
         <v>4</v>
@@ -3731,12 +3731,12 @@
         <v>9</v>
       </c>
       <c r="D239" t="n">
-        <v>21.72</v>
+        <v>21.6875925925926</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
-        <v>44584</v>
+        <v>44578</v>
       </c>
       <c r="B240" t="s">
         <v>4</v>
@@ -3745,12 +3745,12 @@
         <v>9</v>
       </c>
       <c r="D240" t="n">
-        <v>21.7237037037037</v>
+        <v>21.6875925925926</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
-        <v>44585</v>
+        <v>44579</v>
       </c>
       <c r="B241" t="s">
         <v>4</v>
@@ -3759,12 +3759,12 @@
         <v>9</v>
       </c>
       <c r="D241" t="n">
-        <v>21.7274074074074</v>
+        <v>21.6912962962963</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
-        <v>44586</v>
+        <v>44580</v>
       </c>
       <c r="B242" t="s">
         <v>4</v>
@@ -3773,12 +3773,12 @@
         <v>9</v>
       </c>
       <c r="D242" t="n">
-        <v>21.7274074074074</v>
+        <v>21.6972222222222</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
-        <v>44587</v>
+        <v>44581</v>
       </c>
       <c r="B243" t="s">
         <v>4</v>
@@ -3787,12 +3787,12 @@
         <v>9</v>
       </c>
       <c r="D243" t="n">
-        <v>21.7307407407407</v>
+        <v>21.6972222222222</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
-        <v>44588</v>
+        <v>44582</v>
       </c>
       <c r="B244" t="s">
         <v>4</v>
@@ -3801,12 +3801,12 @@
         <v>9</v>
       </c>
       <c r="D244" t="n">
-        <v>21.7424074074074</v>
+        <v>21.7133333333333</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
-        <v>44589</v>
+        <v>44583</v>
       </c>
       <c r="B245" t="s">
         <v>4</v>
@@ -3815,12 +3815,12 @@
         <v>9</v>
       </c>
       <c r="D245" t="n">
-        <v>21.7651851851852</v>
+        <v>21.72</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
-        <v>44590</v>
+        <v>44584</v>
       </c>
       <c r="B246" t="s">
         <v>4</v>
@@ -3829,12 +3829,12 @@
         <v>9</v>
       </c>
       <c r="D246" t="n">
-        <v>21.7692592592593</v>
+        <v>21.7237037037037</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
-        <v>44591</v>
+        <v>44585</v>
       </c>
       <c r="B247" t="s">
         <v>4</v>
@@ -3843,12 +3843,12 @@
         <v>9</v>
       </c>
       <c r="D247" t="n">
-        <v>21.7798148148148</v>
+        <v>21.7274074074074</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
-        <v>44592</v>
+        <v>44586</v>
       </c>
       <c r="B248" t="s">
         <v>4</v>
@@ -3857,12 +3857,12 @@
         <v>9</v>
       </c>
       <c r="D248" t="n">
-        <v>21.7798148148148</v>
+        <v>21.7274074074074</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
-        <v>44593</v>
+        <v>44587</v>
       </c>
       <c r="B249" t="s">
         <v>4</v>
@@ -3871,12 +3871,12 @@
         <v>9</v>
       </c>
       <c r="D249" t="n">
-        <v>21.7853703703704</v>
+        <v>21.7307407407407</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
-        <v>44594</v>
+        <v>44588</v>
       </c>
       <c r="B250" t="s">
         <v>4</v>
@@ -3885,12 +3885,12 @@
         <v>9</v>
       </c>
       <c r="D250" t="n">
-        <v>21.7927777777778</v>
+        <v>21.7424074074074</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
-        <v>44595</v>
+        <v>44589</v>
       </c>
       <c r="B251" t="s">
         <v>4</v>
@@ -3899,12 +3899,12 @@
         <v>9</v>
       </c>
       <c r="D251" t="n">
-        <v>21.7927777777778</v>
+        <v>21.7651851851852</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
-        <v>44596</v>
+        <v>44590</v>
       </c>
       <c r="B252" t="s">
         <v>4</v>
@@ -3913,12 +3913,12 @@
         <v>9</v>
       </c>
       <c r="D252" t="n">
-        <v>21.8001851851852</v>
+        <v>21.7692592592593</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
-        <v>44597</v>
+        <v>44591</v>
       </c>
       <c r="B253" t="s">
         <v>4</v>
@@ -3927,110 +3927,110 @@
         <v>9</v>
       </c>
       <c r="D253" t="n">
-        <v>21.7961111111111</v>
+        <v>21.7798148148148</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
-        <v>44562</v>
+        <v>44592</v>
       </c>
       <c r="B254" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C254" t="s">
         <v>9</v>
       </c>
       <c r="D254" t="n">
-        <v>22.91859375</v>
+        <v>21.7798148148148</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
-        <v>44563</v>
+        <v>44593</v>
       </c>
       <c r="B255" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C255" t="s">
         <v>9</v>
       </c>
       <c r="D255" t="n">
-        <v>22.91796875</v>
+        <v>21.7853703703704</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
-        <v>44564</v>
+        <v>44594</v>
       </c>
       <c r="B256" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C256" t="s">
         <v>9</v>
       </c>
       <c r="D256" t="n">
-        <v>22.91796875</v>
+        <v>21.7927777777778</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
-        <v>44565</v>
+        <v>44595</v>
       </c>
       <c r="B257" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C257" t="s">
         <v>9</v>
       </c>
       <c r="D257" t="n">
-        <v>22.92109375</v>
+        <v>21.7927777777778</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
-        <v>44566</v>
+        <v>44596</v>
       </c>
       <c r="B258" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C258" t="s">
         <v>9</v>
       </c>
       <c r="D258" t="n">
-        <v>22.93453125</v>
+        <v>21.8001851851852</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
-        <v>44567</v>
+        <v>44597</v>
       </c>
       <c r="B259" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C259" t="s">
         <v>9</v>
       </c>
       <c r="D259" t="n">
-        <v>22.96671875</v>
+        <v>21.7961111111111</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
-        <v>44568</v>
+        <v>44598</v>
       </c>
       <c r="B260" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C260" t="s">
         <v>9</v>
       </c>
       <c r="D260" t="n">
-        <v>22.98828125</v>
+        <v>21.8046296296296</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
-        <v>44569</v>
+        <v>44562</v>
       </c>
       <c r="B261" t="s">
         <v>6</v>
@@ -4039,12 +4039,12 @@
         <v>9</v>
       </c>
       <c r="D261" t="n">
-        <v>23.00359375</v>
+        <v>22.91859375</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
-        <v>44570</v>
+        <v>44563</v>
       </c>
       <c r="B262" t="s">
         <v>6</v>
@@ -4053,12 +4053,12 @@
         <v>9</v>
       </c>
       <c r="D262" t="n">
-        <v>23.02234375</v>
+        <v>22.91796875</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
-        <v>44571</v>
+        <v>44564</v>
       </c>
       <c r="B263" t="s">
         <v>6</v>
@@ -4067,12 +4067,12 @@
         <v>9</v>
       </c>
       <c r="D263" t="n">
-        <v>23.02234375</v>
+        <v>22.91796875</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
-        <v>44572</v>
+        <v>44565</v>
       </c>
       <c r="B264" t="s">
         <v>6</v>
@@ -4081,12 +4081,12 @@
         <v>9</v>
       </c>
       <c r="D264" t="n">
-        <v>23.035</v>
+        <v>22.92109375</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
-        <v>44573</v>
+        <v>44566</v>
       </c>
       <c r="B265" t="s">
         <v>6</v>
@@ -4095,12 +4095,12 @@
         <v>9</v>
       </c>
       <c r="D265" t="n">
-        <v>23.0515625</v>
+        <v>22.93453125</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
-        <v>44574</v>
+        <v>44567</v>
       </c>
       <c r="B266" t="s">
         <v>6</v>
@@ -4109,12 +4109,12 @@
         <v>9</v>
       </c>
       <c r="D266" t="n">
-        <v>23.0765625</v>
+        <v>22.96671875</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
-        <v>44575</v>
+        <v>44568</v>
       </c>
       <c r="B267" t="s">
         <v>6</v>
@@ -4123,12 +4123,12 @@
         <v>9</v>
       </c>
       <c r="D267" t="n">
-        <v>23.076875</v>
+        <v>22.98828125</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
-        <v>44576</v>
+        <v>44569</v>
       </c>
       <c r="B268" t="s">
         <v>6</v>
@@ -4137,12 +4137,12 @@
         <v>9</v>
       </c>
       <c r="D268" t="n">
-        <v>23.0821875</v>
+        <v>23.00359375</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
-        <v>44577</v>
+        <v>44570</v>
       </c>
       <c r="B269" t="s">
         <v>6</v>
@@ -4151,12 +4151,12 @@
         <v>9</v>
       </c>
       <c r="D269" t="n">
-        <v>23.080625</v>
+        <v>23.02234375</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
-        <v>44578</v>
+        <v>44571</v>
       </c>
       <c r="B270" t="s">
         <v>6</v>
@@ -4165,12 +4165,12 @@
         <v>9</v>
       </c>
       <c r="D270" t="n">
-        <v>23.080625</v>
+        <v>23.02234375</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
-        <v>44579</v>
+        <v>44572</v>
       </c>
       <c r="B271" t="s">
         <v>6</v>
@@ -4179,12 +4179,12 @@
         <v>9</v>
       </c>
       <c r="D271" t="n">
-        <v>23.08703125</v>
+        <v>23.035</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
-        <v>44580</v>
+        <v>44573</v>
       </c>
       <c r="B272" t="s">
         <v>6</v>
@@ -4193,12 +4193,12 @@
         <v>9</v>
       </c>
       <c r="D272" t="n">
-        <v>23.09890625</v>
+        <v>23.0515625</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
-        <v>44581</v>
+        <v>44574</v>
       </c>
       <c r="B273" t="s">
         <v>6</v>
@@ -4207,12 +4207,12 @@
         <v>9</v>
       </c>
       <c r="D273" t="n">
-        <v>23.09890625</v>
+        <v>23.0765625</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
-        <v>44582</v>
+        <v>44575</v>
       </c>
       <c r="B274" t="s">
         <v>6</v>
@@ -4221,12 +4221,12 @@
         <v>9</v>
       </c>
       <c r="D274" t="n">
-        <v>23.1109375</v>
+        <v>23.076875</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
-        <v>44583</v>
+        <v>44576</v>
       </c>
       <c r="B275" t="s">
         <v>6</v>
@@ -4235,12 +4235,12 @@
         <v>9</v>
       </c>
       <c r="D275" t="n">
-        <v>23.13921875</v>
+        <v>23.0821875</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
-        <v>44584</v>
+        <v>44577</v>
       </c>
       <c r="B276" t="s">
         <v>6</v>
@@ -4249,12 +4249,12 @@
         <v>9</v>
       </c>
       <c r="D276" t="n">
-        <v>23.1396875</v>
+        <v>23.080625</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
-        <v>44585</v>
+        <v>44578</v>
       </c>
       <c r="B277" t="s">
         <v>6</v>
@@ -4263,12 +4263,12 @@
         <v>9</v>
       </c>
       <c r="D277" t="n">
-        <v>23.1428125</v>
+        <v>23.080625</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
-        <v>44586</v>
+        <v>44579</v>
       </c>
       <c r="B278" t="s">
         <v>6</v>
@@ -4277,12 +4277,12 @@
         <v>9</v>
       </c>
       <c r="D278" t="n">
-        <v>23.14609375</v>
+        <v>23.08703125</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
-        <v>44587</v>
+        <v>44580</v>
       </c>
       <c r="B279" t="s">
         <v>6</v>
@@ -4291,12 +4291,12 @@
         <v>9</v>
       </c>
       <c r="D279" t="n">
-        <v>23.15125</v>
+        <v>23.09890625</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
-        <v>44588</v>
+        <v>44581</v>
       </c>
       <c r="B280" t="s">
         <v>6</v>
@@ -4305,12 +4305,12 @@
         <v>9</v>
       </c>
       <c r="D280" t="n">
-        <v>23.1503125</v>
+        <v>23.09890625</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
-        <v>44589</v>
+        <v>44582</v>
       </c>
       <c r="B281" t="s">
         <v>6</v>
@@ -4319,12 +4319,12 @@
         <v>9</v>
       </c>
       <c r="D281" t="n">
-        <v>23.15265625</v>
+        <v>23.1109375</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
-        <v>44590</v>
+        <v>44583</v>
       </c>
       <c r="B282" t="s">
         <v>6</v>
@@ -4333,12 +4333,12 @@
         <v>9</v>
       </c>
       <c r="D282" t="n">
-        <v>23.160625</v>
+        <v>23.13921875</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
-        <v>44591</v>
+        <v>44584</v>
       </c>
       <c r="B283" t="s">
         <v>6</v>
@@ -4347,12 +4347,12 @@
         <v>9</v>
       </c>
       <c r="D283" t="n">
-        <v>23.16828125</v>
+        <v>23.1396875</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
-        <v>44592</v>
+        <v>44585</v>
       </c>
       <c r="B284" t="s">
         <v>6</v>
@@ -4361,12 +4361,12 @@
         <v>9</v>
       </c>
       <c r="D284" t="n">
-        <v>23.16828125</v>
+        <v>23.1428125</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
-        <v>44593</v>
+        <v>44586</v>
       </c>
       <c r="B285" t="s">
         <v>6</v>
@@ -4375,12 +4375,12 @@
         <v>9</v>
       </c>
       <c r="D285" t="n">
-        <v>23.17625</v>
+        <v>23.14609375</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
-        <v>44594</v>
+        <v>44587</v>
       </c>
       <c r="B286" t="s">
         <v>6</v>
@@ -4389,12 +4389,12 @@
         <v>9</v>
       </c>
       <c r="D286" t="n">
-        <v>23.1778125</v>
+        <v>23.15125</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
-        <v>44595</v>
+        <v>44588</v>
       </c>
       <c r="B287" t="s">
         <v>6</v>
@@ -4403,12 +4403,12 @@
         <v>9</v>
       </c>
       <c r="D287" t="n">
-        <v>23.179375</v>
+        <v>23.1503125</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
-        <v>44596</v>
+        <v>44589</v>
       </c>
       <c r="B288" t="s">
         <v>6</v>
@@ -4417,12 +4417,12 @@
         <v>9</v>
       </c>
       <c r="D288" t="n">
-        <v>23.18328125</v>
+        <v>23.15265625</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
-        <v>44597</v>
+        <v>44590</v>
       </c>
       <c r="B289" t="s">
         <v>6</v>
@@ -4431,124 +4431,124 @@
         <v>9</v>
       </c>
       <c r="D289" t="n">
-        <v>23.20125</v>
+        <v>23.160625</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
-        <v>44562</v>
+        <v>44591</v>
       </c>
       <c r="B290" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C290" t="s">
         <v>9</v>
       </c>
       <c r="D290" t="n">
-        <v>20.6065151515152</v>
+        <v>23.16828125</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
-        <v>44563</v>
+        <v>44592</v>
       </c>
       <c r="B291" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C291" t="s">
         <v>9</v>
       </c>
       <c r="D291" t="n">
-        <v>20.6087878787879</v>
+        <v>23.16828125</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
-        <v>44564</v>
+        <v>44593</v>
       </c>
       <c r="B292" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C292" t="s">
         <v>9</v>
       </c>
       <c r="D292" t="n">
-        <v>20.6087878787879</v>
+        <v>23.17625</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
-        <v>44565</v>
+        <v>44594</v>
       </c>
       <c r="B293" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C293" t="s">
         <v>9</v>
       </c>
       <c r="D293" t="n">
-        <v>20.6133333333333</v>
+        <v>23.1778125</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
-        <v>44566</v>
+        <v>44595</v>
       </c>
       <c r="B294" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C294" t="s">
         <v>9</v>
       </c>
       <c r="D294" t="n">
-        <v>20.6781818181818</v>
+        <v>23.179375</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
-        <v>44567</v>
+        <v>44596</v>
       </c>
       <c r="B295" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C295" t="s">
         <v>9</v>
       </c>
       <c r="D295" t="n">
-        <v>20.7092424242424</v>
+        <v>23.18328125</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
-        <v>44568</v>
+        <v>44597</v>
       </c>
       <c r="B296" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C296" t="s">
         <v>9</v>
       </c>
       <c r="D296" t="n">
-        <v>20.7286363636364</v>
+        <v>23.20125</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
-        <v>44569</v>
+        <v>44598</v>
       </c>
       <c r="B297" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C297" t="s">
         <v>9</v>
       </c>
       <c r="D297" t="n">
-        <v>20.7330303030303</v>
+        <v>23.204375</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
-        <v>44570</v>
+        <v>44562</v>
       </c>
       <c r="B298" t="s">
         <v>7</v>
@@ -4557,12 +4557,12 @@
         <v>9</v>
       </c>
       <c r="D298" t="n">
-        <v>20.725</v>
+        <v>20.6065151515152</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
-        <v>44571</v>
+        <v>44563</v>
       </c>
       <c r="B299" t="s">
         <v>7</v>
@@ -4571,12 +4571,12 @@
         <v>9</v>
       </c>
       <c r="D299" t="n">
-        <v>20.725</v>
+        <v>20.6087878787879</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
-        <v>44572</v>
+        <v>44564</v>
       </c>
       <c r="B300" t="s">
         <v>7</v>
@@ -4585,12 +4585,12 @@
         <v>9</v>
       </c>
       <c r="D300" t="n">
-        <v>20.7128787878788</v>
+        <v>20.6087878787879</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
-        <v>44573</v>
+        <v>44565</v>
       </c>
       <c r="B301" t="s">
         <v>7</v>
@@ -4599,12 +4599,12 @@
         <v>9</v>
       </c>
       <c r="D301" t="n">
-        <v>20.7272727272727</v>
+        <v>20.6133333333333</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
-        <v>44574</v>
+        <v>44566</v>
       </c>
       <c r="B302" t="s">
         <v>7</v>
@@ -4613,12 +4613,12 @@
         <v>9</v>
       </c>
       <c r="D302" t="n">
-        <v>20.7092424242424</v>
+        <v>20.6781818181818</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
-        <v>44575</v>
+        <v>44567</v>
       </c>
       <c r="B303" t="s">
         <v>7</v>
@@ -4627,12 +4627,12 @@
         <v>9</v>
       </c>
       <c r="D303" t="n">
-        <v>20.7124242424242</v>
+        <v>20.7092424242424</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
-        <v>44576</v>
+        <v>44568</v>
       </c>
       <c r="B304" t="s">
         <v>7</v>
@@ -4641,12 +4641,12 @@
         <v>9</v>
       </c>
       <c r="D304" t="n">
-        <v>20.7092424242424</v>
+        <v>20.7286363636364</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
-        <v>44577</v>
+        <v>44569</v>
       </c>
       <c r="B305" t="s">
         <v>7</v>
@@ -4655,12 +4655,12 @@
         <v>9</v>
       </c>
       <c r="D305" t="n">
-        <v>20.7372727272727</v>
+        <v>20.7330303030303</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
-        <v>44578</v>
+        <v>44570</v>
       </c>
       <c r="B306" t="s">
         <v>7</v>
@@ -4669,12 +4669,12 @@
         <v>9</v>
       </c>
       <c r="D306" t="n">
-        <v>20.7372727272727</v>
+        <v>20.725</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
-        <v>44579</v>
+        <v>44571</v>
       </c>
       <c r="B307" t="s">
         <v>7</v>
@@ -4683,12 +4683,12 @@
         <v>9</v>
       </c>
       <c r="D307" t="n">
-        <v>20.7418181818182</v>
+        <v>20.725</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
-        <v>44580</v>
+        <v>44572</v>
       </c>
       <c r="B308" t="s">
         <v>7</v>
@@ -4697,12 +4697,12 @@
         <v>9</v>
       </c>
       <c r="D308" t="n">
-        <v>20.7542424242424</v>
+        <v>20.7128787878788</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
-        <v>44581</v>
+        <v>44573</v>
       </c>
       <c r="B309" t="s">
         <v>7</v>
@@ -4711,12 +4711,12 @@
         <v>9</v>
       </c>
       <c r="D309" t="n">
-        <v>20.7542424242424</v>
+        <v>20.7272727272727</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
-        <v>44582</v>
+        <v>44574</v>
       </c>
       <c r="B310" t="s">
         <v>7</v>
@@ -4725,12 +4725,12 @@
         <v>9</v>
       </c>
       <c r="D310" t="n">
-        <v>20.7706060606061</v>
+        <v>20.7092424242424</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
-        <v>44583</v>
+        <v>44575</v>
       </c>
       <c r="B311" t="s">
         <v>7</v>
@@ -4739,12 +4739,12 @@
         <v>9</v>
       </c>
       <c r="D311" t="n">
-        <v>20.73</v>
+        <v>20.7124242424242</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
-        <v>44584</v>
+        <v>44576</v>
       </c>
       <c r="B312" t="s">
         <v>7</v>
@@ -4753,12 +4753,12 @@
         <v>9</v>
       </c>
       <c r="D312" t="n">
-        <v>20.7478787878788</v>
+        <v>20.7092424242424</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
-        <v>44585</v>
+        <v>44577</v>
       </c>
       <c r="B313" t="s">
         <v>7</v>
@@ -4767,12 +4767,12 @@
         <v>9</v>
       </c>
       <c r="D313" t="n">
-        <v>20.7480303030303</v>
+        <v>20.7372727272727</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
-        <v>44586</v>
+        <v>44578</v>
       </c>
       <c r="B314" t="s">
         <v>7</v>
@@ -4781,12 +4781,12 @@
         <v>9</v>
       </c>
       <c r="D314" t="n">
-        <v>20.7495454545455</v>
+        <v>20.7372727272727</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
-        <v>44587</v>
+        <v>44579</v>
       </c>
       <c r="B315" t="s">
         <v>7</v>
@@ -4795,12 +4795,12 @@
         <v>9</v>
       </c>
       <c r="D315" t="n">
-        <v>20.7660606060606</v>
+        <v>20.7418181818182</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
-        <v>44588</v>
+        <v>44580</v>
       </c>
       <c r="B316" t="s">
         <v>7</v>
@@ -4809,12 +4809,12 @@
         <v>9</v>
       </c>
       <c r="D316" t="n">
-        <v>20.7789393939394</v>
+        <v>20.7542424242424</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
-        <v>44589</v>
+        <v>44581</v>
       </c>
       <c r="B317" t="s">
         <v>7</v>
@@ -4823,12 +4823,12 @@
         <v>9</v>
       </c>
       <c r="D317" t="n">
-        <v>20.7801515151515</v>
+        <v>20.7542424242424</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
-        <v>44590</v>
+        <v>44582</v>
       </c>
       <c r="B318" t="s">
         <v>7</v>
@@ -4837,12 +4837,12 @@
         <v>9</v>
       </c>
       <c r="D318" t="n">
-        <v>20.7775757575758</v>
+        <v>20.7706060606061</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
-        <v>44591</v>
+        <v>44583</v>
       </c>
       <c r="B319" t="s">
         <v>7</v>
@@ -4851,12 +4851,12 @@
         <v>9</v>
       </c>
       <c r="D319" t="n">
-        <v>20.7863636363636</v>
+        <v>20.73</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
-        <v>44592</v>
+        <v>44584</v>
       </c>
       <c r="B320" t="s">
         <v>7</v>
@@ -4865,12 +4865,12 @@
         <v>9</v>
       </c>
       <c r="D320" t="n">
-        <v>20.7863636363636</v>
+        <v>20.7478787878788</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
-        <v>44593</v>
+        <v>44585</v>
       </c>
       <c r="B321" t="s">
         <v>7</v>
@@ -4879,12 +4879,12 @@
         <v>9</v>
       </c>
       <c r="D321" t="n">
-        <v>20.7927272727273</v>
+        <v>20.7480303030303</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
-        <v>44594</v>
+        <v>44586</v>
       </c>
       <c r="B322" t="s">
         <v>7</v>
@@ -4893,12 +4893,12 @@
         <v>9</v>
       </c>
       <c r="D322" t="n">
-        <v>20.7942424242424</v>
+        <v>20.7495454545455</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
-        <v>44595</v>
+        <v>44587</v>
       </c>
       <c r="B323" t="s">
         <v>7</v>
@@ -4907,12 +4907,12 @@
         <v>9</v>
       </c>
       <c r="D323" t="n">
-        <v>20.8087878787879</v>
+        <v>20.7660606060606</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
-        <v>44596</v>
+        <v>44588</v>
       </c>
       <c r="B324" t="s">
         <v>7</v>
@@ -4921,12 +4921,12 @@
         <v>9</v>
       </c>
       <c r="D324" t="n">
-        <v>20.8159090909091</v>
+        <v>20.7789393939394</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
-        <v>44597</v>
+        <v>44589</v>
       </c>
       <c r="B325" t="s">
         <v>7</v>
@@ -4935,138 +4935,138 @@
         <v>9</v>
       </c>
       <c r="D325" t="n">
-        <v>20.835</v>
+        <v>20.7801515151515</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
-        <v>44562</v>
+        <v>44590</v>
       </c>
       <c r="B326" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C326" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D326" t="n">
-        <v>21.5029268292683</v>
+        <v>20.7775757575758</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
-        <v>44563</v>
+        <v>44591</v>
       </c>
       <c r="B327" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C327" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D327" t="n">
-        <v>21.5219512195122</v>
+        <v>20.7863636363636</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
-        <v>44564</v>
+        <v>44592</v>
       </c>
       <c r="B328" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C328" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D328" t="n">
-        <v>21.5219512195122</v>
+        <v>20.7863636363636</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
-        <v>44565</v>
+        <v>44593</v>
       </c>
       <c r="B329" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C329" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D329" t="n">
-        <v>21.5675609756098</v>
+        <v>20.7927272727273</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
-        <v>44566</v>
+        <v>44594</v>
       </c>
       <c r="B330" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C330" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D330" t="n">
-        <v>21.5809756097561</v>
+        <v>20.7942424242424</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
-        <v>44567</v>
+        <v>44595</v>
       </c>
       <c r="B331" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C331" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D331" t="n">
-        <v>21.5712195121951</v>
+        <v>20.8087878787879</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
-        <v>44568</v>
+        <v>44596</v>
       </c>
       <c r="B332" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C332" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D332" t="n">
-        <v>21.5631707317073</v>
+        <v>20.8159090909091</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
-        <v>44569</v>
+        <v>44597</v>
       </c>
       <c r="B333" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C333" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D333" t="n">
-        <v>21.5985365853659</v>
+        <v>20.835</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="1" t="n">
-        <v>44570</v>
+        <v>44598</v>
       </c>
       <c r="B334" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C334" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D334" t="n">
-        <v>21.6253658536585</v>
+        <v>20.8416666666667</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="1" t="n">
-        <v>44571</v>
+        <v>44562</v>
       </c>
       <c r="B335" t="s">
         <v>4</v>
@@ -5075,12 +5075,12 @@
         <v>10</v>
       </c>
       <c r="D335" t="n">
-        <v>21.6253658536585</v>
+        <v>21.5029268292683</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="1" t="n">
-        <v>44572</v>
+        <v>44563</v>
       </c>
       <c r="B336" t="s">
         <v>4</v>
@@ -5089,12 +5089,12 @@
         <v>10</v>
       </c>
       <c r="D336" t="n">
-        <v>21.6253658536585</v>
+        <v>21.5219512195122</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="1" t="n">
-        <v>44573</v>
+        <v>44564</v>
       </c>
       <c r="B337" t="s">
         <v>4</v>
@@ -5103,12 +5103,12 @@
         <v>10</v>
       </c>
       <c r="D337" t="n">
-        <v>21.6919512195122</v>
+        <v>21.5219512195122</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="1" t="n">
-        <v>44574</v>
+        <v>44565</v>
       </c>
       <c r="B338" t="s">
         <v>4</v>
@@ -5117,12 +5117,12 @@
         <v>10</v>
       </c>
       <c r="D338" t="n">
-        <v>21.6775609756098</v>
+        <v>21.5675609756098</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="1" t="n">
-        <v>44575</v>
+        <v>44566</v>
       </c>
       <c r="B339" t="s">
         <v>4</v>
@@ -5131,12 +5131,12 @@
         <v>10</v>
       </c>
       <c r="D339" t="n">
-        <v>21.6863414634146</v>
+        <v>21.5809756097561</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="1" t="n">
-        <v>44576</v>
+        <v>44567</v>
       </c>
       <c r="B340" t="s">
         <v>4</v>
@@ -5145,12 +5145,12 @@
         <v>10</v>
       </c>
       <c r="D340" t="n">
-        <v>21.6856097560976</v>
+        <v>21.5712195121951</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="1" t="n">
-        <v>44577</v>
+        <v>44568</v>
       </c>
       <c r="B341" t="s">
         <v>4</v>
@@ -5159,12 +5159,12 @@
         <v>10</v>
       </c>
       <c r="D341" t="n">
-        <v>21.6756097560976</v>
+        <v>21.5631707317073</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="1" t="n">
-        <v>44578</v>
+        <v>44569</v>
       </c>
       <c r="B342" t="s">
         <v>4</v>
@@ -5173,12 +5173,12 @@
         <v>10</v>
       </c>
       <c r="D342" t="n">
-        <v>21.6756097560976</v>
+        <v>21.5985365853659</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="1" t="n">
-        <v>44579</v>
+        <v>44570</v>
       </c>
       <c r="B343" t="s">
         <v>4</v>
@@ -5187,12 +5187,12 @@
         <v>10</v>
       </c>
       <c r="D343" t="n">
-        <v>21.6756097560976</v>
+        <v>21.6253658536585</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="1" t="n">
-        <v>44580</v>
+        <v>44571</v>
       </c>
       <c r="B344" t="s">
         <v>4</v>
@@ -5201,12 +5201,12 @@
         <v>10</v>
       </c>
       <c r="D344" t="n">
-        <v>21.6943902439024</v>
+        <v>21.6253658536585</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="1" t="n">
-        <v>44581</v>
+        <v>44572</v>
       </c>
       <c r="B345" t="s">
         <v>4</v>
@@ -5215,12 +5215,12 @@
         <v>10</v>
       </c>
       <c r="D345" t="n">
-        <v>21.7256097560976</v>
+        <v>21.6253658536585</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="1" t="n">
-        <v>44582</v>
+        <v>44573</v>
       </c>
       <c r="B346" t="s">
         <v>4</v>
@@ -5229,12 +5229,12 @@
         <v>10</v>
       </c>
       <c r="D346" t="n">
-        <v>21.7353658536585</v>
+        <v>21.6919512195122</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="1" t="n">
-        <v>44583</v>
+        <v>44574</v>
       </c>
       <c r="B347" t="s">
         <v>4</v>
@@ -5243,12 +5243,12 @@
         <v>10</v>
       </c>
       <c r="D347" t="n">
-        <v>21.740243902439</v>
+        <v>21.6775609756098</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="1" t="n">
-        <v>44584</v>
+        <v>44575</v>
       </c>
       <c r="B348" t="s">
         <v>4</v>
@@ -5257,12 +5257,12 @@
         <v>10</v>
       </c>
       <c r="D348" t="n">
-        <v>21.7385365853659</v>
+        <v>21.6863414634146</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="1" t="n">
-        <v>44585</v>
+        <v>44576</v>
       </c>
       <c r="B349" t="s">
         <v>4</v>
@@ -5271,12 +5271,12 @@
         <v>10</v>
       </c>
       <c r="D349" t="n">
-        <v>21.7385365853659</v>
+        <v>21.6856097560976</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="1" t="n">
-        <v>44586</v>
+        <v>44577</v>
       </c>
       <c r="B350" t="s">
         <v>4</v>
@@ -5285,12 +5285,12 @@
         <v>10</v>
       </c>
       <c r="D350" t="n">
-        <v>21.7407317073171</v>
+        <v>21.6756097560976</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="1" t="n">
-        <v>44587</v>
+        <v>44578</v>
       </c>
       <c r="B351" t="s">
         <v>4</v>
@@ -5299,12 +5299,12 @@
         <v>10</v>
       </c>
       <c r="D351" t="n">
-        <v>21.7407317073171</v>
+        <v>21.6756097560976</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="1" t="n">
-        <v>44588</v>
+        <v>44579</v>
       </c>
       <c r="B352" t="s">
         <v>4</v>
@@ -5313,12 +5313,12 @@
         <v>10</v>
       </c>
       <c r="D352" t="n">
-        <v>21.7424390243902</v>
+        <v>21.6756097560976</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="1" t="n">
-        <v>44589</v>
+        <v>44580</v>
       </c>
       <c r="B353" t="s">
         <v>4</v>
@@ -5327,12 +5327,12 @@
         <v>10</v>
       </c>
       <c r="D353" t="n">
-        <v>21.7412195121951</v>
+        <v>21.6943902439024</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="1" t="n">
-        <v>44590</v>
+        <v>44581</v>
       </c>
       <c r="B354" t="s">
         <v>4</v>
@@ -5341,12 +5341,12 @@
         <v>10</v>
       </c>
       <c r="D354" t="n">
-        <v>21.7456097560976</v>
+        <v>21.7256097560976</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="1" t="n">
-        <v>44591</v>
+        <v>44582</v>
       </c>
       <c r="B355" t="s">
         <v>4</v>
@@ -5355,12 +5355,12 @@
         <v>10</v>
       </c>
       <c r="D355" t="n">
-        <v>21.7648780487805</v>
+        <v>21.7353658536585</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="1" t="n">
-        <v>44592</v>
+        <v>44583</v>
       </c>
       <c r="B356" t="s">
         <v>4</v>
@@ -5369,12 +5369,12 @@
         <v>10</v>
       </c>
       <c r="D356" t="n">
-        <v>21.769756097561</v>
+        <v>21.740243902439</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="1" t="n">
-        <v>44593</v>
+        <v>44584</v>
       </c>
       <c r="B357" t="s">
         <v>4</v>
@@ -5383,12 +5383,12 @@
         <v>10</v>
       </c>
       <c r="D357" t="n">
-        <v>21.769756097561</v>
+        <v>21.7385365853659</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="1" t="n">
-        <v>44594</v>
+        <v>44585</v>
       </c>
       <c r="B358" t="s">
         <v>4</v>
@@ -5397,12 +5397,12 @@
         <v>10</v>
       </c>
       <c r="D358" t="n">
-        <v>21.7707317073171</v>
+        <v>21.7385365853659</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="1" t="n">
-        <v>44595</v>
+        <v>44586</v>
       </c>
       <c r="B359" t="s">
         <v>4</v>
@@ -5411,12 +5411,12 @@
         <v>10</v>
       </c>
       <c r="D359" t="n">
-        <v>21.7756097560976</v>
+        <v>21.7407317073171</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="1" t="n">
-        <v>44596</v>
+        <v>44587</v>
       </c>
       <c r="B360" t="s">
         <v>4</v>
@@ -5425,12 +5425,12 @@
         <v>10</v>
       </c>
       <c r="D360" t="n">
-        <v>21.7870731707317</v>
+        <v>21.7407317073171</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="1" t="n">
-        <v>44597</v>
+        <v>44588</v>
       </c>
       <c r="B361" t="s">
         <v>4</v>
@@ -5439,152 +5439,152 @@
         <v>10</v>
       </c>
       <c r="D361" t="n">
-        <v>21.859756097561</v>
+        <v>21.7424390243902</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="1" t="n">
-        <v>44562</v>
+        <v>44589</v>
       </c>
       <c r="B362" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C362" t="s">
         <v>10</v>
       </c>
       <c r="D362" t="n">
-        <v>23.0265454545455</v>
+        <v>21.7412195121951</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="1" t="n">
-        <v>44563</v>
+        <v>44590</v>
       </c>
       <c r="B363" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C363" t="s">
         <v>10</v>
       </c>
       <c r="D363" t="n">
-        <v>23.0314545454545</v>
+        <v>21.7456097560976</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="1" t="n">
-        <v>44564</v>
+        <v>44591</v>
       </c>
       <c r="B364" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C364" t="s">
         <v>10</v>
       </c>
       <c r="D364" t="n">
-        <v>23.0314545454545</v>
+        <v>21.7648780487805</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="1" t="n">
-        <v>44565</v>
+        <v>44592</v>
       </c>
       <c r="B365" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C365" t="s">
         <v>10</v>
       </c>
       <c r="D365" t="n">
-        <v>23.0509090909091</v>
+        <v>21.769756097561</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="1" t="n">
-        <v>44566</v>
+        <v>44593</v>
       </c>
       <c r="B366" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C366" t="s">
         <v>10</v>
       </c>
       <c r="D366" t="n">
-        <v>23.0698181818182</v>
+        <v>21.769756097561</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="1" t="n">
-        <v>44567</v>
+        <v>44594</v>
       </c>
       <c r="B367" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C367" t="s">
         <v>10</v>
       </c>
       <c r="D367" t="n">
-        <v>23.0838181818182</v>
+        <v>21.7707317073171</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="1" t="n">
-        <v>44568</v>
+        <v>44595</v>
       </c>
       <c r="B368" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C368" t="s">
         <v>10</v>
       </c>
       <c r="D368" t="n">
-        <v>23.0914545454545</v>
+        <v>21.7756097560976</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="1" t="n">
-        <v>44569</v>
+        <v>44596</v>
       </c>
       <c r="B369" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C369" t="s">
         <v>10</v>
       </c>
       <c r="D369" t="n">
-        <v>23.1112727272727</v>
+        <v>21.7870731707317</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="1" t="n">
-        <v>44570</v>
+        <v>44597</v>
       </c>
       <c r="B370" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C370" t="s">
         <v>10</v>
       </c>
       <c r="D370" t="n">
-        <v>23.1110909090909</v>
+        <v>21.859756097561</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="1" t="n">
-        <v>44571</v>
+        <v>44598</v>
       </c>
       <c r="B371" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C371" t="s">
         <v>10</v>
       </c>
       <c r="D371" t="n">
-        <v>23.1092727272727</v>
+        <v>21.8919512195122</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="1" t="n">
-        <v>44572</v>
+        <v>44562</v>
       </c>
       <c r="B372" t="s">
         <v>6</v>
@@ -5593,12 +5593,12 @@
         <v>10</v>
       </c>
       <c r="D372" t="n">
-        <v>23.1130909090909</v>
+        <v>23.0265454545455</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="1" t="n">
-        <v>44573</v>
+        <v>44563</v>
       </c>
       <c r="B373" t="s">
         <v>6</v>
@@ -5607,12 +5607,12 @@
         <v>10</v>
       </c>
       <c r="D373" t="n">
-        <v>23.1265454545455</v>
+        <v>23.0314545454545</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="1" t="n">
-        <v>44574</v>
+        <v>44564</v>
       </c>
       <c r="B374" t="s">
         <v>6</v>
@@ -5621,12 +5621,12 @@
         <v>10</v>
       </c>
       <c r="D374" t="n">
-        <v>23.1356363636364</v>
+        <v>23.0314545454545</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="1" t="n">
-        <v>44575</v>
+        <v>44565</v>
       </c>
       <c r="B375" t="s">
         <v>6</v>
@@ -5635,12 +5635,12 @@
         <v>10</v>
       </c>
       <c r="D375" t="n">
-        <v>23.1650909090909</v>
+        <v>23.0509090909091</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="1" t="n">
-        <v>44576</v>
+        <v>44566</v>
       </c>
       <c r="B376" t="s">
         <v>6</v>
@@ -5649,12 +5649,12 @@
         <v>10</v>
       </c>
       <c r="D376" t="n">
-        <v>23.1807272727273</v>
+        <v>23.0698181818182</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="1" t="n">
-        <v>44577</v>
+        <v>44567</v>
       </c>
       <c r="B377" t="s">
         <v>6</v>
@@ -5663,12 +5663,12 @@
         <v>10</v>
       </c>
       <c r="D377" t="n">
-        <v>23.1778181818182</v>
+        <v>23.0838181818182</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="1" t="n">
-        <v>44578</v>
+        <v>44568</v>
       </c>
       <c r="B378" t="s">
         <v>6</v>
@@ -5677,12 +5677,12 @@
         <v>10</v>
       </c>
       <c r="D378" t="n">
-        <v>23.1778181818182</v>
+        <v>23.0914545454545</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="1" t="n">
-        <v>44579</v>
+        <v>44569</v>
       </c>
       <c r="B379" t="s">
         <v>6</v>
@@ -5691,12 +5691,12 @@
         <v>10</v>
       </c>
       <c r="D379" t="n">
-        <v>23.1816363636364</v>
+        <v>23.1112727272727</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="1" t="n">
-        <v>44580</v>
+        <v>44570</v>
       </c>
       <c r="B380" t="s">
         <v>6</v>
@@ -5705,12 +5705,12 @@
         <v>10</v>
       </c>
       <c r="D380" t="n">
-        <v>23.186</v>
+        <v>23.1110909090909</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="1" t="n">
-        <v>44581</v>
+        <v>44571</v>
       </c>
       <c r="B381" t="s">
         <v>6</v>
@@ -5719,12 +5719,12 @@
         <v>10</v>
       </c>
       <c r="D381" t="n">
-        <v>23.186</v>
+        <v>23.1092727272727</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="1" t="n">
-        <v>44582</v>
+        <v>44572</v>
       </c>
       <c r="B382" t="s">
         <v>6</v>
@@ -5733,12 +5733,12 @@
         <v>10</v>
       </c>
       <c r="D382" t="n">
-        <v>23.1732727272727</v>
+        <v>23.1130909090909</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="1" t="n">
-        <v>44583</v>
+        <v>44573</v>
       </c>
       <c r="B383" t="s">
         <v>6</v>
@@ -5747,12 +5747,12 @@
         <v>10</v>
       </c>
       <c r="D383" t="n">
-        <v>23.1850909090909</v>
+        <v>23.1265454545455</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="1" t="n">
-        <v>44584</v>
+        <v>44574</v>
       </c>
       <c r="B384" t="s">
         <v>6</v>
@@ -5761,12 +5761,12 @@
         <v>10</v>
       </c>
       <c r="D384" t="n">
-        <v>23.1852727272727</v>
+        <v>23.1356363636364</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="1" t="n">
-        <v>44585</v>
+        <v>44575</v>
       </c>
       <c r="B385" t="s">
         <v>6</v>
@@ -5775,12 +5775,12 @@
         <v>10</v>
       </c>
       <c r="D385" t="n">
-        <v>23.1852727272727</v>
+        <v>23.1650909090909</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="1" t="n">
-        <v>44586</v>
+        <v>44576</v>
       </c>
       <c r="B386" t="s">
         <v>6</v>
@@ -5789,12 +5789,12 @@
         <v>10</v>
       </c>
       <c r="D386" t="n">
-        <v>23.1901818181818</v>
+        <v>23.1807272727273</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="1" t="n">
-        <v>44587</v>
+        <v>44577</v>
       </c>
       <c r="B387" t="s">
         <v>6</v>
@@ -5803,12 +5803,12 @@
         <v>10</v>
       </c>
       <c r="D387" t="n">
-        <v>23.2003636363636</v>
+        <v>23.1778181818182</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="1" t="n">
-        <v>44588</v>
+        <v>44578</v>
       </c>
       <c r="B388" t="s">
         <v>6</v>
@@ -5817,12 +5817,12 @@
         <v>10</v>
       </c>
       <c r="D388" t="n">
-        <v>23.2023636363636</v>
+        <v>23.1778181818182</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="1" t="n">
-        <v>44589</v>
+        <v>44579</v>
       </c>
       <c r="B389" t="s">
         <v>6</v>
@@ -5831,12 +5831,12 @@
         <v>10</v>
       </c>
       <c r="D389" t="n">
-        <v>23.1981818181818</v>
+        <v>23.1816363636364</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="1" t="n">
-        <v>44590</v>
+        <v>44580</v>
       </c>
       <c r="B390" t="s">
         <v>6</v>
@@ -5845,12 +5845,12 @@
         <v>10</v>
       </c>
       <c r="D390" t="n">
-        <v>23.2034545454545</v>
+        <v>23.186</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="1" t="n">
-        <v>44591</v>
+        <v>44581</v>
       </c>
       <c r="B391" t="s">
         <v>6</v>
@@ -5859,12 +5859,12 @@
         <v>10</v>
       </c>
       <c r="D391" t="n">
-        <v>23.2032727272727</v>
+        <v>23.186</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="1" t="n">
-        <v>44592</v>
+        <v>44582</v>
       </c>
       <c r="B392" t="s">
         <v>6</v>
@@ -5873,12 +5873,12 @@
         <v>10</v>
       </c>
       <c r="D392" t="n">
-        <v>23.2287272727273</v>
+        <v>23.1732727272727</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="1" t="n">
-        <v>44593</v>
+        <v>44583</v>
       </c>
       <c r="B393" t="s">
         <v>6</v>
@@ -5887,12 +5887,12 @@
         <v>10</v>
       </c>
       <c r="D393" t="n">
-        <v>23.2325454545455</v>
+        <v>23.1850909090909</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="1" t="n">
-        <v>44594</v>
+        <v>44584</v>
       </c>
       <c r="B394" t="s">
         <v>6</v>
@@ -5901,12 +5901,12 @@
         <v>10</v>
       </c>
       <c r="D394" t="n">
-        <v>23.2372727272727</v>
+        <v>23.1852727272727</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="1" t="n">
-        <v>44595</v>
+        <v>44585</v>
       </c>
       <c r="B395" t="s">
         <v>6</v>
@@ -5915,12 +5915,12 @@
         <v>10</v>
       </c>
       <c r="D395" t="n">
-        <v>23.2390909090909</v>
+        <v>23.1852727272727</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="1" t="n">
-        <v>44596</v>
+        <v>44586</v>
       </c>
       <c r="B396" t="s">
         <v>6</v>
@@ -5929,12 +5929,12 @@
         <v>10</v>
       </c>
       <c r="D396" t="n">
-        <v>23.2445454545455</v>
+        <v>23.1901818181818</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="1" t="n">
-        <v>44597</v>
+        <v>44587</v>
       </c>
       <c r="B397" t="s">
         <v>6</v>
@@ -5943,166 +5943,166 @@
         <v>10</v>
       </c>
       <c r="D397" t="n">
-        <v>23.2621818181818</v>
+        <v>23.2003636363636</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="1" t="n">
-        <v>44562</v>
+        <v>44588</v>
       </c>
       <c r="B398" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C398" t="s">
         <v>10</v>
       </c>
       <c r="D398" t="n">
-        <v>20.702</v>
+        <v>23.2023636363636</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="1" t="n">
-        <v>44563</v>
+        <v>44589</v>
       </c>
       <c r="B399" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C399" t="s">
         <v>10</v>
       </c>
       <c r="D399" t="n">
-        <v>20.7236363636364</v>
+        <v>23.1981818181818</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="1" t="n">
-        <v>44564</v>
+        <v>44590</v>
       </c>
       <c r="B400" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C400" t="s">
         <v>10</v>
       </c>
       <c r="D400" t="n">
-        <v>20.7345454545455</v>
+        <v>23.2034545454545</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="1" t="n">
-        <v>44565</v>
+        <v>44591</v>
       </c>
       <c r="B401" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C401" t="s">
         <v>10</v>
       </c>
       <c r="D401" t="n">
-        <v>20.7574545454545</v>
+        <v>23.2032727272727</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="1" t="n">
-        <v>44566</v>
+        <v>44592</v>
       </c>
       <c r="B402" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C402" t="s">
         <v>10</v>
       </c>
       <c r="D402" t="n">
-        <v>20.7961818181818</v>
+        <v>23.2287272727273</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="1" t="n">
-        <v>44567</v>
+        <v>44593</v>
       </c>
       <c r="B403" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C403" t="s">
         <v>10</v>
       </c>
       <c r="D403" t="n">
-        <v>20.8190909090909</v>
+        <v>23.2325454545455</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="1" t="n">
-        <v>44568</v>
+        <v>44594</v>
       </c>
       <c r="B404" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C404" t="s">
         <v>10</v>
       </c>
       <c r="D404" t="n">
-        <v>20.8203636363636</v>
+        <v>23.2372727272727</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="1" t="n">
-        <v>44569</v>
+        <v>44595</v>
       </c>
       <c r="B405" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C405" t="s">
         <v>10</v>
       </c>
       <c r="D405" t="n">
-        <v>20.8349090909091</v>
+        <v>23.2390909090909</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="1" t="n">
-        <v>44570</v>
+        <v>44596</v>
       </c>
       <c r="B406" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C406" t="s">
         <v>10</v>
       </c>
       <c r="D406" t="n">
-        <v>20.8312727272727</v>
+        <v>23.2445454545455</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" s="1" t="n">
-        <v>44571</v>
+        <v>44597</v>
       </c>
       <c r="B407" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C407" t="s">
         <v>10</v>
       </c>
       <c r="D407" t="n">
-        <v>20.8221818181818</v>
+        <v>23.2621818181818</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="1" t="n">
-        <v>44572</v>
+        <v>44598</v>
       </c>
       <c r="B408" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C408" t="s">
         <v>10</v>
       </c>
       <c r="D408" t="n">
-        <v>20.8258181818182</v>
+        <v>23.266</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="1" t="n">
-        <v>44573</v>
+        <v>44562</v>
       </c>
       <c r="B409" t="s">
         <v>7</v>
@@ -6111,12 +6111,12 @@
         <v>10</v>
       </c>
       <c r="D409" t="n">
-        <v>20.826</v>
+        <v>20.702</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="1" t="n">
-        <v>44574</v>
+        <v>44563</v>
       </c>
       <c r="B410" t="s">
         <v>7</v>
@@ -6125,12 +6125,12 @@
         <v>10</v>
       </c>
       <c r="D410" t="n">
-        <v>20.8196363636364</v>
+        <v>20.7236363636364</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="1" t="n">
-        <v>44575</v>
+        <v>44564</v>
       </c>
       <c r="B411" t="s">
         <v>7</v>
@@ -6139,12 +6139,12 @@
         <v>10</v>
       </c>
       <c r="D411" t="n">
-        <v>20.8356363636364</v>
+        <v>20.7345454545455</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="1" t="n">
-        <v>44576</v>
+        <v>44565</v>
       </c>
       <c r="B412" t="s">
         <v>7</v>
@@ -6153,12 +6153,12 @@
         <v>10</v>
       </c>
       <c r="D412" t="n">
-        <v>20.8518181818182</v>
+        <v>20.7574545454545</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="1" t="n">
-        <v>44577</v>
+        <v>44566</v>
       </c>
       <c r="B413" t="s">
         <v>7</v>
@@ -6167,12 +6167,12 @@
         <v>10</v>
       </c>
       <c r="D413" t="n">
-        <v>20.8463636363636</v>
+        <v>20.7961818181818</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" s="1" t="n">
-        <v>44578</v>
+        <v>44567</v>
       </c>
       <c r="B414" t="s">
         <v>7</v>
@@ -6181,12 +6181,12 @@
         <v>10</v>
       </c>
       <c r="D414" t="n">
-        <v>20.85</v>
+        <v>20.8190909090909</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" s="1" t="n">
-        <v>44579</v>
+        <v>44568</v>
       </c>
       <c r="B415" t="s">
         <v>7</v>
@@ -6195,12 +6195,12 @@
         <v>10</v>
       </c>
       <c r="D415" t="n">
-        <v>20.8536363636364</v>
+        <v>20.8203636363636</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" s="1" t="n">
-        <v>44580</v>
+        <v>44569</v>
       </c>
       <c r="B416" t="s">
         <v>7</v>
@@ -6209,12 +6209,12 @@
         <v>10</v>
       </c>
       <c r="D416" t="n">
-        <v>20.8594545454545</v>
+        <v>20.8349090909091</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" s="1" t="n">
-        <v>44581</v>
+        <v>44570</v>
       </c>
       <c r="B417" t="s">
         <v>7</v>
@@ -6223,12 +6223,12 @@
         <v>10</v>
       </c>
       <c r="D417" t="n">
-        <v>20.8832727272727</v>
+        <v>20.8312727272727</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" s="1" t="n">
-        <v>44582</v>
+        <v>44571</v>
       </c>
       <c r="B418" t="s">
         <v>7</v>
@@ -6237,12 +6237,12 @@
         <v>10</v>
       </c>
       <c r="D418" t="n">
-        <v>20.8901818181818</v>
+        <v>20.8221818181818</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" s="1" t="n">
-        <v>44583</v>
+        <v>44572</v>
       </c>
       <c r="B419" t="s">
         <v>7</v>
@@ -6251,12 +6251,12 @@
         <v>10</v>
       </c>
       <c r="D419" t="n">
-        <v>20.8945454545455</v>
+        <v>20.8258181818182</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" s="1" t="n">
-        <v>44584</v>
+        <v>44573</v>
       </c>
       <c r="B420" t="s">
         <v>7</v>
@@ -6265,12 +6265,12 @@
         <v>10</v>
       </c>
       <c r="D420" t="n">
-        <v>20.8929090909091</v>
+        <v>20.826</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" s="1" t="n">
-        <v>44585</v>
+        <v>44574</v>
       </c>
       <c r="B421" t="s">
         <v>7</v>
@@ -6279,12 +6279,12 @@
         <v>10</v>
       </c>
       <c r="D421" t="n">
-        <v>20.8929090909091</v>
+        <v>20.8196363636364</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" s="1" t="n">
-        <v>44586</v>
+        <v>44575</v>
       </c>
       <c r="B422" t="s">
         <v>7</v>
@@ -6293,12 +6293,12 @@
         <v>10</v>
       </c>
       <c r="D422" t="n">
-        <v>20.8936363636364</v>
+        <v>20.8356363636364</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" s="1" t="n">
-        <v>44587</v>
+        <v>44576</v>
       </c>
       <c r="B423" t="s">
         <v>7</v>
@@ -6307,12 +6307,12 @@
         <v>10</v>
       </c>
       <c r="D423" t="n">
-        <v>20.8992727272727</v>
+        <v>20.8518181818182</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" s="1" t="n">
-        <v>44588</v>
+        <v>44577</v>
       </c>
       <c r="B424" t="s">
         <v>7</v>
@@ -6321,12 +6321,12 @@
         <v>10</v>
       </c>
       <c r="D424" t="n">
-        <v>20.8990909090909</v>
+        <v>20.8463636363636</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" s="1" t="n">
-        <v>44589</v>
+        <v>44578</v>
       </c>
       <c r="B425" t="s">
         <v>7</v>
@@ -6335,12 +6335,12 @@
         <v>10</v>
       </c>
       <c r="D425" t="n">
-        <v>20.8976363636364</v>
+        <v>20.85</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" s="1" t="n">
-        <v>44590</v>
+        <v>44579</v>
       </c>
       <c r="B426" t="s">
         <v>7</v>
@@ -6349,12 +6349,12 @@
         <v>10</v>
       </c>
       <c r="D426" t="n">
-        <v>20.8961818181818</v>
+        <v>20.8536363636364</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" s="1" t="n">
-        <v>44591</v>
+        <v>44580</v>
       </c>
       <c r="B427" t="s">
         <v>7</v>
@@ -6363,12 +6363,12 @@
         <v>10</v>
       </c>
       <c r="D427" t="n">
-        <v>20.8981818181818</v>
+        <v>20.8594545454545</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" s="1" t="n">
-        <v>44592</v>
+        <v>44581</v>
       </c>
       <c r="B428" t="s">
         <v>7</v>
@@ -6377,12 +6377,12 @@
         <v>10</v>
       </c>
       <c r="D428" t="n">
-        <v>20.9018181818182</v>
+        <v>20.8832727272727</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" s="1" t="n">
-        <v>44593</v>
+        <v>44582</v>
       </c>
       <c r="B429" t="s">
         <v>7</v>
@@ -6391,12 +6391,12 @@
         <v>10</v>
       </c>
       <c r="D429" t="n">
-        <v>20.9054545454545</v>
+        <v>20.8901818181818</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" s="1" t="n">
-        <v>44594</v>
+        <v>44583</v>
       </c>
       <c r="B430" t="s">
         <v>7</v>
@@ -6405,12 +6405,12 @@
         <v>10</v>
       </c>
       <c r="D430" t="n">
-        <v>20.9210909090909</v>
+        <v>20.8945454545455</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" s="1" t="n">
-        <v>44595</v>
+        <v>44584</v>
       </c>
       <c r="B431" t="s">
         <v>7</v>
@@ -6419,12 +6419,12 @@
         <v>10</v>
       </c>
       <c r="D431" t="n">
-        <v>20.9210909090909</v>
+        <v>20.8929090909091</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" s="1" t="n">
-        <v>44596</v>
+        <v>44585</v>
       </c>
       <c r="B432" t="s">
         <v>7</v>
@@ -6433,12 +6433,12 @@
         <v>10</v>
       </c>
       <c r="D432" t="n">
-        <v>20.9252727272727</v>
+        <v>20.8929090909091</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" s="1" t="n">
-        <v>44597</v>
+        <v>44586</v>
       </c>
       <c r="B433" t="s">
         <v>7</v>
@@ -6447,180 +6447,180 @@
         <v>10</v>
       </c>
       <c r="D433" t="n">
-        <v>20.9829090909091</v>
+        <v>20.8936363636364</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" s="1" t="n">
-        <v>44562</v>
+        <v>44587</v>
       </c>
       <c r="B434" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C434" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D434" t="n">
-        <v>21.8417142857143</v>
+        <v>20.8992727272727</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" s="1" t="n">
-        <v>44563</v>
+        <v>44588</v>
       </c>
       <c r="B435" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C435" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D435" t="n">
-        <v>21.8468571428571</v>
+        <v>20.8990909090909</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" s="1" t="n">
-        <v>44564</v>
+        <v>44589</v>
       </c>
       <c r="B436" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C436" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D436" t="n">
-        <v>21.8748571428571</v>
+        <v>20.8976363636364</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" s="1" t="n">
-        <v>44565</v>
+        <v>44590</v>
       </c>
       <c r="B437" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C437" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D437" t="n">
-        <v>21.8748571428571</v>
+        <v>20.8961818181818</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" s="1" t="n">
-        <v>44566</v>
+        <v>44591</v>
       </c>
       <c r="B438" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C438" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D438" t="n">
-        <v>21.8662857142857</v>
+        <v>20.8981818181818</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" s="1" t="n">
-        <v>44567</v>
+        <v>44592</v>
       </c>
       <c r="B439" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C439" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D439" t="n">
-        <v>21.8582857142857</v>
+        <v>20.9018181818182</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" s="1" t="n">
-        <v>44568</v>
+        <v>44593</v>
       </c>
       <c r="B440" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C440" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D440" t="n">
-        <v>21.8522857142857</v>
+        <v>20.9054545454545</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" s="1" t="n">
-        <v>44569</v>
+        <v>44594</v>
       </c>
       <c r="B441" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C441" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D441" t="n">
-        <v>21.8597142857143</v>
+        <v>20.9210909090909</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" s="1" t="n">
-        <v>44570</v>
+        <v>44595</v>
       </c>
       <c r="B442" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C442" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D442" t="n">
-        <v>21.8691428571429</v>
+        <v>20.9210909090909</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" s="1" t="n">
-        <v>44571</v>
+        <v>44596</v>
       </c>
       <c r="B443" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C443" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D443" t="n">
-        <v>21.8691428571429</v>
+        <v>20.9252727272727</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" s="1" t="n">
-        <v>44572</v>
+        <v>44597</v>
       </c>
       <c r="B444" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C444" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D444" t="n">
-        <v>21.8691428571429</v>
+        <v>20.9829090909091</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" s="1" t="n">
-        <v>44573</v>
+        <v>44598</v>
       </c>
       <c r="B445" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C445" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D445" t="n">
-        <v>21.8882857142857</v>
+        <v>20.9969090909091</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" s="1" t="n">
-        <v>44574</v>
+        <v>44562</v>
       </c>
       <c r="B446" t="s">
         <v>4</v>
@@ -6629,12 +6629,12 @@
         <v>11</v>
       </c>
       <c r="D446" t="n">
-        <v>21.9302857142857</v>
+        <v>21.8417142857143</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" s="1" t="n">
-        <v>44575</v>
+        <v>44563</v>
       </c>
       <c r="B447" t="s">
         <v>4</v>
@@ -6643,12 +6643,12 @@
         <v>11</v>
       </c>
       <c r="D447" t="n">
-        <v>21.9345714285714</v>
+        <v>21.8468571428571</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" s="1" t="n">
-        <v>44576</v>
+        <v>44564</v>
       </c>
       <c r="B448" t="s">
         <v>4</v>
@@ -6657,12 +6657,12 @@
         <v>11</v>
       </c>
       <c r="D448" t="n">
-        <v>21.952</v>
+        <v>21.8748571428571</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" s="1" t="n">
-        <v>44577</v>
+        <v>44565</v>
       </c>
       <c r="B449" t="s">
         <v>4</v>
@@ -6671,12 +6671,12 @@
         <v>11</v>
       </c>
       <c r="D449" t="n">
-        <v>21.9737142857143</v>
+        <v>21.8748571428571</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" s="1" t="n">
-        <v>44578</v>
+        <v>44566</v>
       </c>
       <c r="B450" t="s">
         <v>4</v>
@@ -6685,12 +6685,12 @@
         <v>11</v>
       </c>
       <c r="D450" t="n">
-        <v>21.9737142857143</v>
+        <v>21.8662857142857</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" s="1" t="n">
-        <v>44579</v>
+        <v>44567</v>
       </c>
       <c r="B451" t="s">
         <v>4</v>
@@ -6699,12 +6699,12 @@
         <v>11</v>
       </c>
       <c r="D451" t="n">
-        <v>21.9871428571429</v>
+        <v>21.8582857142857</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" s="1" t="n">
-        <v>44580</v>
+        <v>44568</v>
       </c>
       <c r="B452" t="s">
         <v>4</v>
@@ -6713,12 +6713,12 @@
         <v>11</v>
       </c>
       <c r="D452" t="n">
-        <v>21.9871428571429</v>
+        <v>21.8522857142857</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" s="1" t="n">
-        <v>44581</v>
+        <v>44569</v>
       </c>
       <c r="B453" t="s">
         <v>4</v>
@@ -6727,12 +6727,12 @@
         <v>11</v>
       </c>
       <c r="D453" t="n">
-        <v>21.9908571428571</v>
+        <v>21.8597142857143</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" s="1" t="n">
-        <v>44582</v>
+        <v>44570</v>
       </c>
       <c r="B454" t="s">
         <v>4</v>
@@ -6741,12 +6741,12 @@
         <v>11</v>
       </c>
       <c r="D454" t="n">
-        <v>22.0005714285714</v>
+        <v>21.8691428571429</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" s="1" t="n">
-        <v>44583</v>
+        <v>44571</v>
       </c>
       <c r="B455" t="s">
         <v>4</v>
@@ -6755,12 +6755,12 @@
         <v>11</v>
       </c>
       <c r="D455" t="n">
-        <v>22.0005714285714</v>
+        <v>21.8691428571429</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" s="1" t="n">
-        <v>44584</v>
+        <v>44572</v>
       </c>
       <c r="B456" t="s">
         <v>4</v>
@@ -6769,12 +6769,12 @@
         <v>11</v>
       </c>
       <c r="D456" t="n">
-        <v>21.9988571428571</v>
+        <v>21.8691428571429</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" s="1" t="n">
-        <v>44585</v>
+        <v>44573</v>
       </c>
       <c r="B457" t="s">
         <v>4</v>
@@ -6783,12 +6783,12 @@
         <v>11</v>
       </c>
       <c r="D457" t="n">
-        <v>22.0045714285714</v>
+        <v>21.8882857142857</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" s="1" t="n">
-        <v>44586</v>
+        <v>44574</v>
       </c>
       <c r="B458" t="s">
         <v>4</v>
@@ -6797,12 +6797,12 @@
         <v>11</v>
       </c>
       <c r="D458" t="n">
-        <v>22.0045714285714</v>
+        <v>21.9302857142857</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" s="1" t="n">
-        <v>44587</v>
+        <v>44575</v>
       </c>
       <c r="B459" t="s">
         <v>4</v>
@@ -6811,12 +6811,12 @@
         <v>11</v>
       </c>
       <c r="D459" t="n">
-        <v>22.0342857142857</v>
+        <v>21.9345714285714</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" s="1" t="n">
-        <v>44588</v>
+        <v>44576</v>
       </c>
       <c r="B460" t="s">
         <v>4</v>
@@ -6825,12 +6825,12 @@
         <v>11</v>
       </c>
       <c r="D460" t="n">
-        <v>22.0474285714286</v>
+        <v>21.952</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" s="1" t="n">
-        <v>44589</v>
+        <v>44577</v>
       </c>
       <c r="B461" t="s">
         <v>4</v>
@@ -6839,12 +6839,12 @@
         <v>11</v>
       </c>
       <c r="D461" t="n">
-        <v>22.0394285714286</v>
+        <v>21.9737142857143</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" s="1" t="n">
-        <v>44590</v>
+        <v>44578</v>
       </c>
       <c r="B462" t="s">
         <v>4</v>
@@ -6853,12 +6853,12 @@
         <v>11</v>
       </c>
       <c r="D462" t="n">
-        <v>22.0402857142857</v>
+        <v>21.9737142857143</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" s="1" t="n">
-        <v>44591</v>
+        <v>44579</v>
       </c>
       <c r="B463" t="s">
         <v>4</v>
@@ -6867,12 +6867,12 @@
         <v>11</v>
       </c>
       <c r="D463" t="n">
-        <v>22.0548571428571</v>
+        <v>21.9871428571429</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" s="1" t="n">
-        <v>44592</v>
+        <v>44580</v>
       </c>
       <c r="B464" t="s">
         <v>4</v>
@@ -6881,12 +6881,12 @@
         <v>11</v>
       </c>
       <c r="D464" t="n">
-        <v>22.0548571428571</v>
+        <v>21.9871428571429</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" s="1" t="n">
-        <v>44593</v>
+        <v>44581</v>
       </c>
       <c r="B465" t="s">
         <v>4</v>
@@ -6895,12 +6895,12 @@
         <v>11</v>
       </c>
       <c r="D465" t="n">
-        <v>22.0548571428571</v>
+        <v>21.9908571428571</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" s="1" t="n">
-        <v>44594</v>
+        <v>44582</v>
       </c>
       <c r="B466" t="s">
         <v>4</v>
@@ -6909,12 +6909,12 @@
         <v>11</v>
       </c>
       <c r="D466" t="n">
-        <v>22.0748571428571</v>
+        <v>22.0005714285714</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" s="1" t="n">
-        <v>44595</v>
+        <v>44583</v>
       </c>
       <c r="B467" t="s">
         <v>4</v>
@@ -6923,12 +6923,12 @@
         <v>11</v>
       </c>
       <c r="D467" t="n">
-        <v>22.0837142857143</v>
+        <v>22.0005714285714</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" s="1" t="n">
-        <v>44596</v>
+        <v>44584</v>
       </c>
       <c r="B468" t="s">
         <v>4</v>
@@ -6937,12 +6937,12 @@
         <v>11</v>
       </c>
       <c r="D468" t="n">
-        <v>22.1005714285714</v>
+        <v>21.9988571428571</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" s="1" t="n">
-        <v>44597</v>
+        <v>44585</v>
       </c>
       <c r="B469" t="s">
         <v>4</v>
@@ -6951,194 +6951,194 @@
         <v>11</v>
       </c>
       <c r="D469" t="n">
-        <v>22.0702857142857</v>
+        <v>22.0045714285714</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" s="1" t="n">
-        <v>44562</v>
+        <v>44586</v>
       </c>
       <c r="B470" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C470" t="s">
         <v>11</v>
       </c>
       <c r="D470" t="n">
-        <v>22.96</v>
+        <v>22.0045714285714</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" s="1" t="n">
-        <v>44563</v>
+        <v>44587</v>
       </c>
       <c r="B471" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C471" t="s">
         <v>11</v>
       </c>
       <c r="D471" t="n">
-        <v>22.9595238095238</v>
+        <v>22.0342857142857</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" s="1" t="n">
-        <v>44564</v>
+        <v>44588</v>
       </c>
       <c r="B472" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C472" t="s">
         <v>11</v>
       </c>
       <c r="D472" t="n">
-        <v>22.9659523809524</v>
+        <v>22.0474285714286</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" s="1" t="n">
-        <v>44565</v>
+        <v>44589</v>
       </c>
       <c r="B473" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C473" t="s">
         <v>11</v>
       </c>
       <c r="D473" t="n">
-        <v>22.9659523809524</v>
+        <v>22.0394285714286</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" s="1" t="n">
-        <v>44566</v>
+        <v>44590</v>
       </c>
       <c r="B474" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C474" t="s">
         <v>11</v>
       </c>
       <c r="D474" t="n">
-        <v>22.967619047619</v>
+        <v>22.0402857142857</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" s="1" t="n">
-        <v>44567</v>
+        <v>44591</v>
       </c>
       <c r="B475" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C475" t="s">
         <v>11</v>
       </c>
       <c r="D475" t="n">
-        <v>22.9961904761905</v>
+        <v>22.0548571428571</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" s="1" t="n">
-        <v>44568</v>
+        <v>44592</v>
       </c>
       <c r="B476" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C476" t="s">
         <v>11</v>
       </c>
       <c r="D476" t="n">
-        <v>23.0071428571429</v>
+        <v>22.0548571428571</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" s="1" t="n">
-        <v>44569</v>
+        <v>44593</v>
       </c>
       <c r="B477" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C477" t="s">
         <v>11</v>
       </c>
       <c r="D477" t="n">
-        <v>23.0109523809524</v>
+        <v>22.0548571428571</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" s="1" t="n">
-        <v>44570</v>
+        <v>44594</v>
       </c>
       <c r="B478" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C478" t="s">
         <v>11</v>
       </c>
       <c r="D478" t="n">
-        <v>23.0119047619048</v>
+        <v>22.0748571428571</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" s="1" t="n">
-        <v>44571</v>
+        <v>44595</v>
       </c>
       <c r="B479" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C479" t="s">
         <v>11</v>
       </c>
       <c r="D479" t="n">
-        <v>23.0119047619048</v>
+        <v>22.0837142857143</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" s="1" t="n">
-        <v>44572</v>
+        <v>44596</v>
       </c>
       <c r="B480" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C480" t="s">
         <v>11</v>
       </c>
       <c r="D480" t="n">
-        <v>23.017619047619</v>
+        <v>22.1005714285714</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" s="1" t="n">
-        <v>44573</v>
+        <v>44597</v>
       </c>
       <c r="B481" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C481" t="s">
         <v>11</v>
       </c>
       <c r="D481" t="n">
-        <v>23.0330952380952</v>
+        <v>22.0702857142857</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" s="1" t="n">
-        <v>44574</v>
+        <v>44598</v>
       </c>
       <c r="B482" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C482" t="s">
         <v>11</v>
       </c>
       <c r="D482" t="n">
-        <v>23.0414285714286</v>
+        <v>22.0805714285714</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" s="1" t="n">
-        <v>44575</v>
+        <v>44562</v>
       </c>
       <c r="B483" t="s">
         <v>6</v>
@@ -7147,12 +7147,12 @@
         <v>11</v>
       </c>
       <c r="D483" t="n">
-        <v>23.0495238095238</v>
+        <v>22.96</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" s="1" t="n">
-        <v>44576</v>
+        <v>44563</v>
       </c>
       <c r="B484" t="s">
         <v>6</v>
@@ -7161,12 +7161,12 @@
         <v>11</v>
       </c>
       <c r="D484" t="n">
-        <v>23.0514285714286</v>
+        <v>22.9595238095238</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" s="1" t="n">
-        <v>44577</v>
+        <v>44564</v>
       </c>
       <c r="B485" t="s">
         <v>6</v>
@@ -7175,12 +7175,12 @@
         <v>11</v>
       </c>
       <c r="D485" t="n">
-        <v>23.0566666666667</v>
+        <v>22.9659523809524</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" s="1" t="n">
-        <v>44578</v>
+        <v>44565</v>
       </c>
       <c r="B486" t="s">
         <v>6</v>
@@ -7189,12 +7189,12 @@
         <v>11</v>
       </c>
       <c r="D486" t="n">
-        <v>23.0569047619048</v>
+        <v>22.9659523809524</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" s="1" t="n">
-        <v>44579</v>
+        <v>44566</v>
       </c>
       <c r="B487" t="s">
         <v>6</v>
@@ -7203,12 +7203,12 @@
         <v>11</v>
       </c>
       <c r="D487" t="n">
-        <v>23.0569047619048</v>
+        <v>22.967619047619</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" s="1" t="n">
-        <v>44580</v>
+        <v>44567</v>
       </c>
       <c r="B488" t="s">
         <v>6</v>
@@ -7217,12 +7217,12 @@
         <v>11</v>
       </c>
       <c r="D488" t="n">
-        <v>23.047380952381</v>
+        <v>22.9961904761905</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" s="1" t="n">
-        <v>44581</v>
+        <v>44568</v>
       </c>
       <c r="B489" t="s">
         <v>6</v>
@@ -7231,12 +7231,12 @@
         <v>11</v>
       </c>
       <c r="D489" t="n">
-        <v>23.0485714285714</v>
+        <v>23.0071428571429</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" s="1" t="n">
-        <v>44582</v>
+        <v>44569</v>
       </c>
       <c r="B490" t="s">
         <v>6</v>
@@ -7245,12 +7245,12 @@
         <v>11</v>
       </c>
       <c r="D490" t="n">
-        <v>23.0492857142857</v>
+        <v>23.0109523809524</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" s="1" t="n">
-        <v>44583</v>
+        <v>44570</v>
       </c>
       <c r="B491" t="s">
         <v>6</v>
@@ -7259,12 +7259,12 @@
         <v>11</v>
       </c>
       <c r="D491" t="n">
-        <v>23.0545238095238</v>
+        <v>23.0119047619048</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" s="1" t="n">
-        <v>44584</v>
+        <v>44571</v>
       </c>
       <c r="B492" t="s">
         <v>6</v>
@@ -7273,12 +7273,12 @@
         <v>11</v>
       </c>
       <c r="D492" t="n">
-        <v>23.0545238095238</v>
+        <v>23.0119047619048</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" s="1" t="n">
-        <v>44585</v>
+        <v>44572</v>
       </c>
       <c r="B493" t="s">
         <v>6</v>
@@ -7287,12 +7287,12 @@
         <v>11</v>
       </c>
       <c r="D493" t="n">
-        <v>23.057380952381</v>
+        <v>23.017619047619</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" s="1" t="n">
-        <v>44586</v>
+        <v>44573</v>
       </c>
       <c r="B494" t="s">
         <v>6</v>
@@ -7301,12 +7301,12 @@
         <v>11</v>
       </c>
       <c r="D494" t="n">
-        <v>23.057380952381</v>
+        <v>23.0330952380952</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" s="1" t="n">
-        <v>44587</v>
+        <v>44574</v>
       </c>
       <c r="B495" t="s">
         <v>6</v>
@@ -7315,12 +7315,12 @@
         <v>11</v>
       </c>
       <c r="D495" t="n">
-        <v>23.0678571428571</v>
+        <v>23.0414285714286</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" s="1" t="n">
-        <v>44588</v>
+        <v>44575</v>
       </c>
       <c r="B496" t="s">
         <v>6</v>
@@ -7329,12 +7329,12 @@
         <v>11</v>
       </c>
       <c r="D496" t="n">
-        <v>23.0754761904762</v>
+        <v>23.0495238095238</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" s="1" t="n">
-        <v>44589</v>
+        <v>44576</v>
       </c>
       <c r="B497" t="s">
         <v>6</v>
@@ -7343,12 +7343,12 @@
         <v>11</v>
       </c>
       <c r="D497" t="n">
-        <v>23.0414285714286</v>
+        <v>23.0514285714286</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" s="1" t="n">
-        <v>44590</v>
+        <v>44577</v>
       </c>
       <c r="B498" t="s">
         <v>6</v>
@@ -7357,12 +7357,12 @@
         <v>11</v>
       </c>
       <c r="D498" t="n">
-        <v>23.0947619047619</v>
+        <v>23.0566666666667</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" s="1" t="n">
-        <v>44591</v>
+        <v>44578</v>
       </c>
       <c r="B499" t="s">
         <v>6</v>
@@ -7371,12 +7371,12 @@
         <v>11</v>
       </c>
       <c r="D499" t="n">
-        <v>23.1142857142857</v>
+        <v>23.0569047619048</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" s="1" t="n">
-        <v>44592</v>
+        <v>44579</v>
       </c>
       <c r="B500" t="s">
         <v>6</v>
@@ -7385,12 +7385,12 @@
         <v>11</v>
       </c>
       <c r="D500" t="n">
-        <v>23.1142857142857</v>
+        <v>23.0569047619048</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" s="1" t="n">
-        <v>44593</v>
+        <v>44580</v>
       </c>
       <c r="B501" t="s">
         <v>6</v>
@@ -7399,12 +7399,12 @@
         <v>11</v>
       </c>
       <c r="D501" t="n">
-        <v>23.1228571428571</v>
+        <v>23.047380952381</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" s="1" t="n">
-        <v>44594</v>
+        <v>44581</v>
       </c>
       <c r="B502" t="s">
         <v>6</v>
@@ -7413,12 +7413,12 @@
         <v>11</v>
       </c>
       <c r="D502" t="n">
-        <v>23.1252380952381</v>
+        <v>23.0485714285714</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" s="1" t="n">
-        <v>44595</v>
+        <v>44582</v>
       </c>
       <c r="B503" t="s">
         <v>6</v>
@@ -7427,12 +7427,12 @@
         <v>11</v>
       </c>
       <c r="D503" t="n">
-        <v>23.1309523809524</v>
+        <v>23.0492857142857</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" s="1" t="n">
-        <v>44596</v>
+        <v>44583</v>
       </c>
       <c r="B504" t="s">
         <v>6</v>
@@ -7441,12 +7441,12 @@
         <v>11</v>
       </c>
       <c r="D504" t="n">
-        <v>23.1357142857143</v>
+        <v>23.0545238095238</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" s="1" t="n">
-        <v>44597</v>
+        <v>44584</v>
       </c>
       <c r="B505" t="s">
         <v>6</v>
@@ -7455,208 +7455,208 @@
         <v>11</v>
       </c>
       <c r="D505" t="n">
-        <v>23.1666666666667</v>
+        <v>23.0545238095238</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" s="1" t="n">
-        <v>44562</v>
+        <v>44585</v>
       </c>
       <c r="B506" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C506" t="s">
         <v>11</v>
       </c>
       <c r="D506" t="n">
-        <v>20.9079069767442</v>
+        <v>23.057380952381</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" s="1" t="n">
-        <v>44563</v>
+        <v>44586</v>
       </c>
       <c r="B507" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C507" t="s">
         <v>11</v>
       </c>
       <c r="D507" t="n">
-        <v>20.9072093023256</v>
+        <v>23.057380952381</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" s="1" t="n">
-        <v>44564</v>
+        <v>44587</v>
       </c>
       <c r="B508" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C508" t="s">
         <v>11</v>
       </c>
       <c r="D508" t="n">
-        <v>20.913488372093</v>
+        <v>23.0678571428571</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" s="1" t="n">
-        <v>44565</v>
+        <v>44588</v>
       </c>
       <c r="B509" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C509" t="s">
         <v>11</v>
       </c>
       <c r="D509" t="n">
-        <v>20.913488372093</v>
+        <v>23.0754761904762</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" s="1" t="n">
-        <v>44566</v>
+        <v>44589</v>
       </c>
       <c r="B510" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C510" t="s">
         <v>11</v>
       </c>
       <c r="D510" t="n">
-        <v>20.9390697674419</v>
+        <v>23.0414285714286</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" s="1" t="n">
-        <v>44567</v>
+        <v>44590</v>
       </c>
       <c r="B511" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C511" t="s">
         <v>11</v>
       </c>
       <c r="D511" t="n">
-        <v>20.9458139534884</v>
+        <v>23.0947619047619</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" s="1" t="n">
-        <v>44568</v>
+        <v>44591</v>
       </c>
       <c r="B512" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C512" t="s">
         <v>11</v>
       </c>
       <c r="D512" t="n">
-        <v>20.9586046511628</v>
+        <v>23.1142857142857</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" s="1" t="n">
-        <v>44569</v>
+        <v>44592</v>
       </c>
       <c r="B513" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C513" t="s">
         <v>11</v>
       </c>
       <c r="D513" t="n">
-        <v>20.9688372093023</v>
+        <v>23.1142857142857</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" s="1" t="n">
-        <v>44570</v>
+        <v>44593</v>
       </c>
       <c r="B514" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C514" t="s">
         <v>11</v>
       </c>
       <c r="D514" t="n">
-        <v>20.9316279069767</v>
+        <v>23.1228571428571</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" s="1" t="n">
-        <v>44571</v>
+        <v>44594</v>
       </c>
       <c r="B515" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C515" t="s">
         <v>11</v>
       </c>
       <c r="D515" t="n">
-        <v>20.9239534883721</v>
+        <v>23.1252380952381</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" s="1" t="n">
-        <v>44572</v>
+        <v>44595</v>
       </c>
       <c r="B516" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C516" t="s">
         <v>11</v>
       </c>
       <c r="D516" t="n">
-        <v>20.9004651162791</v>
+        <v>23.1309523809524</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" s="1" t="n">
-        <v>44573</v>
+        <v>44596</v>
       </c>
       <c r="B517" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C517" t="s">
         <v>11</v>
       </c>
       <c r="D517" t="n">
-        <v>20.8746511627907</v>
+        <v>23.1357142857143</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" s="1" t="n">
-        <v>44574</v>
+        <v>44597</v>
       </c>
       <c r="B518" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C518" t="s">
         <v>11</v>
       </c>
       <c r="D518" t="n">
-        <v>20.863023255814</v>
+        <v>23.1666666666667</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" s="1" t="n">
-        <v>44575</v>
+        <v>44598</v>
       </c>
       <c r="B519" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C519" t="s">
         <v>11</v>
       </c>
       <c r="D519" t="n">
-        <v>20.873023255814</v>
+        <v>23.1757142857143</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" s="1" t="n">
-        <v>44576</v>
+        <v>44562</v>
       </c>
       <c r="B520" t="s">
         <v>7</v>
@@ -7665,12 +7665,12 @@
         <v>11</v>
       </c>
       <c r="D520" t="n">
-        <v>20.893488372093</v>
+        <v>20.9079069767442</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" s="1" t="n">
-        <v>44577</v>
+        <v>44563</v>
       </c>
       <c r="B521" t="s">
         <v>7</v>
@@ -7679,12 +7679,12 @@
         <v>11</v>
       </c>
       <c r="D521" t="n">
-        <v>20.9213953488372</v>
+        <v>20.9072093023256</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" s="1" t="n">
-        <v>44578</v>
+        <v>44564</v>
       </c>
       <c r="B522" t="s">
         <v>7</v>
@@ -7693,12 +7693,12 @@
         <v>11</v>
       </c>
       <c r="D522" t="n">
-        <v>20.9220930232558</v>
+        <v>20.913488372093</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" s="1" t="n">
-        <v>44579</v>
+        <v>44565</v>
       </c>
       <c r="B523" t="s">
         <v>7</v>
@@ -7707,12 +7707,12 @@
         <v>11</v>
       </c>
       <c r="D523" t="n">
-        <v>20.9290697674419</v>
+        <v>20.913488372093</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" s="1" t="n">
-        <v>44580</v>
+        <v>44566</v>
       </c>
       <c r="B524" t="s">
         <v>7</v>
@@ -7721,12 +7721,12 @@
         <v>11</v>
       </c>
       <c r="D524" t="n">
-        <v>20.9290697674419</v>
+        <v>20.9390697674419</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" s="1" t="n">
-        <v>44581</v>
+        <v>44567</v>
       </c>
       <c r="B525" t="s">
         <v>7</v>
@@ -7735,12 +7735,12 @@
         <v>11</v>
       </c>
       <c r="D525" t="n">
-        <v>20.9325581395349</v>
+        <v>20.9458139534884</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" s="1" t="n">
-        <v>44582</v>
+        <v>44568</v>
       </c>
       <c r="B526" t="s">
         <v>7</v>
@@ -7749,12 +7749,12 @@
         <v>11</v>
       </c>
       <c r="D526" t="n">
-        <v>20.9451162790698</v>
+        <v>20.9586046511628</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" s="1" t="n">
-        <v>44583</v>
+        <v>44569</v>
       </c>
       <c r="B527" t="s">
         <v>7</v>
@@ -7763,12 +7763,12 @@
         <v>11</v>
       </c>
       <c r="D527" t="n">
-        <v>20.9462790697674</v>
+        <v>20.9688372093023</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" s="1" t="n">
-        <v>44584</v>
+        <v>44570</v>
       </c>
       <c r="B528" t="s">
         <v>7</v>
@@ -7777,12 +7777,12 @@
         <v>11</v>
       </c>
       <c r="D528" t="n">
-        <v>20.9420930232558</v>
+        <v>20.9316279069767</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" s="1" t="n">
-        <v>44585</v>
+        <v>44571</v>
       </c>
       <c r="B529" t="s">
         <v>7</v>
@@ -7791,12 +7791,12 @@
         <v>11</v>
       </c>
       <c r="D529" t="n">
-        <v>20.9453488372093</v>
+        <v>20.9239534883721</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" s="1" t="n">
-        <v>44586</v>
+        <v>44572</v>
       </c>
       <c r="B530" t="s">
         <v>7</v>
@@ -7805,12 +7805,12 @@
         <v>11</v>
       </c>
       <c r="D530" t="n">
-        <v>20.9523255813953</v>
+        <v>20.9004651162791</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" s="1" t="n">
-        <v>44587</v>
+        <v>44573</v>
       </c>
       <c r="B531" t="s">
         <v>7</v>
@@ -7819,12 +7819,12 @@
         <v>11</v>
       </c>
       <c r="D531" t="n">
-        <v>20.956976744186</v>
+        <v>20.8746511627907</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" s="1" t="n">
-        <v>44588</v>
+        <v>44574</v>
       </c>
       <c r="B532" t="s">
         <v>7</v>
@@ -7833,12 +7833,12 @@
         <v>11</v>
       </c>
       <c r="D532" t="n">
-        <v>20.9588372093023</v>
+        <v>20.863023255814</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" s="1" t="n">
-        <v>44589</v>
+        <v>44575</v>
       </c>
       <c r="B533" t="s">
         <v>7</v>
@@ -7847,12 +7847,12 @@
         <v>11</v>
       </c>
       <c r="D533" t="n">
-        <v>20.9574418604651</v>
+        <v>20.873023255814</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" s="1" t="n">
-        <v>44590</v>
+        <v>44576</v>
       </c>
       <c r="B534" t="s">
         <v>7</v>
@@ -7861,12 +7861,12 @@
         <v>11</v>
       </c>
       <c r="D534" t="n">
-        <v>20.9697674418605</v>
+        <v>20.893488372093</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="1" t="n">
-        <v>44591</v>
+        <v>44577</v>
       </c>
       <c r="B535" t="s">
         <v>7</v>
@@ -7875,12 +7875,12 @@
         <v>11</v>
       </c>
       <c r="D535" t="n">
-        <v>20.9786046511628</v>
+        <v>20.9213953488372</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="1" t="n">
-        <v>44592</v>
+        <v>44578</v>
       </c>
       <c r="B536" t="s">
         <v>7</v>
@@ -7889,12 +7889,12 @@
         <v>11</v>
       </c>
       <c r="D536" t="n">
-        <v>20.9806976744186</v>
+        <v>20.9220930232558</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" s="1" t="n">
-        <v>44593</v>
+        <v>44579</v>
       </c>
       <c r="B537" t="s">
         <v>7</v>
@@ -7903,12 +7903,12 @@
         <v>11</v>
       </c>
       <c r="D537" t="n">
-        <v>20.9748837209302</v>
+        <v>20.9290697674419</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" s="1" t="n">
-        <v>44594</v>
+        <v>44580</v>
       </c>
       <c r="B538" t="s">
         <v>7</v>
@@ -7917,12 +7917,12 @@
         <v>11</v>
       </c>
       <c r="D538" t="n">
-        <v>20.9748837209302</v>
+        <v>20.9290697674419</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="1" t="n">
-        <v>44595</v>
+        <v>44581</v>
       </c>
       <c r="B539" t="s">
         <v>7</v>
@@ -7931,12 +7931,12 @@
         <v>11</v>
       </c>
       <c r="D539" t="n">
-        <v>20.9827906976744</v>
+        <v>20.9325581395349</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="1" t="n">
-        <v>44596</v>
+        <v>44582</v>
       </c>
       <c r="B540" t="s">
         <v>7</v>
@@ -7945,12 +7945,12 @@
         <v>11</v>
       </c>
       <c r="D540" t="n">
-        <v>20.9897674418605</v>
+        <v>20.9451162790698</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="1" t="n">
-        <v>44597</v>
+        <v>44583</v>
       </c>
       <c r="B541" t="s">
         <v>7</v>
@@ -7959,222 +7959,222 @@
         <v>11</v>
       </c>
       <c r="D541" t="n">
-        <v>20.9953488372093</v>
+        <v>20.9462790697674</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" s="1" t="n">
-        <v>44562</v>
+        <v>44584</v>
       </c>
       <c r="B542" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C542" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D542" t="n">
-        <v>21.8206896551724</v>
+        <v>20.9420930232558</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" s="1" t="n">
-        <v>44563</v>
+        <v>44585</v>
       </c>
       <c r="B543" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C543" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D543" t="n">
-        <v>21.8365517241379</v>
+        <v>20.9453488372093</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" s="1" t="n">
-        <v>44564</v>
+        <v>44586</v>
       </c>
       <c r="B544" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C544" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D544" t="n">
-        <v>21.8370689655172</v>
+        <v>20.9523255813953</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="1" t="n">
-        <v>44565</v>
+        <v>44587</v>
       </c>
       <c r="B545" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C545" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D545" t="n">
-        <v>21.8451724137931</v>
+        <v>20.956976744186</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="1" t="n">
-        <v>44566</v>
+        <v>44588</v>
       </c>
       <c r="B546" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C546" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D546" t="n">
-        <v>21.8486206896552</v>
+        <v>20.9588372093023</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="1" t="n">
-        <v>44567</v>
+        <v>44589</v>
       </c>
       <c r="B547" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C547" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D547" t="n">
-        <v>21.8558620689655</v>
+        <v>20.9574418604651</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" s="1" t="n">
-        <v>44568</v>
+        <v>44590</v>
       </c>
       <c r="B548" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C548" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D548" t="n">
-        <v>21.8655172413793</v>
+        <v>20.9697674418605</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="1" t="n">
-        <v>44569</v>
+        <v>44591</v>
       </c>
       <c r="B549" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C549" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D549" t="n">
-        <v>21.8781034482759</v>
+        <v>20.9786046511628</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="1" t="n">
-        <v>44570</v>
+        <v>44592</v>
       </c>
       <c r="B550" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C550" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D550" t="n">
-        <v>21.8918965517241</v>
+        <v>20.9806976744186</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="1" t="n">
-        <v>44571</v>
+        <v>44593</v>
       </c>
       <c r="B551" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C551" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D551" t="n">
-        <v>21.8918965517241</v>
+        <v>20.9748837209302</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="1" t="n">
-        <v>44572</v>
+        <v>44594</v>
       </c>
       <c r="B552" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C552" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D552" t="n">
-        <v>21.8918965517241</v>
+        <v>20.9748837209302</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="1" t="n">
-        <v>44573</v>
+        <v>44595</v>
       </c>
       <c r="B553" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C553" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D553" t="n">
-        <v>21.8948275862069</v>
+        <v>20.9827906976744</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="1" t="n">
-        <v>44574</v>
+        <v>44596</v>
       </c>
       <c r="B554" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C554" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D554" t="n">
-        <v>21.9013793103448</v>
+        <v>20.9897674418605</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="1" t="n">
-        <v>44575</v>
+        <v>44597</v>
       </c>
       <c r="B555" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C555" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D555" t="n">
-        <v>21.9348275862069</v>
+        <v>20.9953488372093</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="1" t="n">
-        <v>44576</v>
+        <v>44598</v>
       </c>
       <c r="B556" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C556" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D556" t="n">
-        <v>21.9508620689655</v>
+        <v>21.0246511627907</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="1" t="n">
-        <v>44577</v>
+        <v>44562</v>
       </c>
       <c r="B557" t="s">
         <v>4</v>
@@ -8183,12 +8183,12 @@
         <v>12</v>
       </c>
       <c r="D557" t="n">
-        <v>21.9594827586207</v>
+        <v>21.8206896551724</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="1" t="n">
-        <v>44578</v>
+        <v>44563</v>
       </c>
       <c r="B558" t="s">
         <v>4</v>
@@ -8197,12 +8197,12 @@
         <v>12</v>
       </c>
       <c r="D558" t="n">
-        <v>21.9629310344828</v>
+        <v>21.8365517241379</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="1" t="n">
-        <v>44579</v>
+        <v>44564</v>
       </c>
       <c r="B559" t="s">
         <v>4</v>
@@ -8211,12 +8211,12 @@
         <v>12</v>
       </c>
       <c r="D559" t="n">
-        <v>21.9801724137931</v>
+        <v>21.8370689655172</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="1" t="n">
-        <v>44580</v>
+        <v>44565</v>
       </c>
       <c r="B560" t="s">
         <v>4</v>
@@ -8225,12 +8225,12 @@
         <v>12</v>
       </c>
       <c r="D560" t="n">
-        <v>22.0012068965517</v>
+        <v>21.8451724137931</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="1" t="n">
-        <v>44581</v>
+        <v>44566</v>
       </c>
       <c r="B561" t="s">
         <v>4</v>
@@ -8239,12 +8239,12 @@
         <v>12</v>
       </c>
       <c r="D561" t="n">
-        <v>22.0122413793103</v>
+        <v>21.8486206896552</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="1" t="n">
-        <v>44582</v>
+        <v>44567</v>
       </c>
       <c r="B562" t="s">
         <v>4</v>
@@ -8253,12 +8253,12 @@
         <v>12</v>
       </c>
       <c r="D562" t="n">
-        <v>22.0229310344828</v>
+        <v>21.8558620689655</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" s="1" t="n">
-        <v>44583</v>
+        <v>44568</v>
       </c>
       <c r="B563" t="s">
         <v>4</v>
@@ -8267,12 +8267,12 @@
         <v>12</v>
       </c>
       <c r="D563" t="n">
-        <v>22.0279310344828</v>
+        <v>21.8655172413793</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" s="1" t="n">
-        <v>44584</v>
+        <v>44569</v>
       </c>
       <c r="B564" t="s">
         <v>4</v>
@@ -8281,12 +8281,12 @@
         <v>12</v>
       </c>
       <c r="D564" t="n">
-        <v>22.0289655172414</v>
+        <v>21.8781034482759</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" s="1" t="n">
-        <v>44585</v>
+        <v>44570</v>
       </c>
       <c r="B565" t="s">
         <v>4</v>
@@ -8295,12 +8295,12 @@
         <v>12</v>
       </c>
       <c r="D565" t="n">
-        <v>22.0289655172414</v>
+        <v>21.8918965517241</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" s="1" t="n">
-        <v>44586</v>
+        <v>44571</v>
       </c>
       <c r="B566" t="s">
         <v>4</v>
@@ -8309,12 +8309,12 @@
         <v>12</v>
       </c>
       <c r="D566" t="n">
-        <v>22.0289655172414</v>
+        <v>21.8918965517241</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" s="1" t="n">
-        <v>44587</v>
+        <v>44572</v>
       </c>
       <c r="B567" t="s">
         <v>4</v>
@@ -8323,12 +8323,12 @@
         <v>12</v>
       </c>
       <c r="D567" t="n">
-        <v>22.0539655172414</v>
+        <v>21.8918965517241</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" s="1" t="n">
-        <v>44588</v>
+        <v>44573</v>
       </c>
       <c r="B568" t="s">
         <v>4</v>
@@ -8337,12 +8337,12 @@
         <v>12</v>
       </c>
       <c r="D568" t="n">
-        <v>22.0541379310345</v>
+        <v>21.8948275862069</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" s="1" t="n">
-        <v>44589</v>
+        <v>44574</v>
       </c>
       <c r="B569" t="s">
         <v>4</v>
@@ -8351,12 +8351,12 @@
         <v>12</v>
       </c>
       <c r="D569" t="n">
-        <v>22.061724137931</v>
+        <v>21.9013793103448</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" s="1" t="n">
-        <v>44590</v>
+        <v>44575</v>
       </c>
       <c r="B570" t="s">
         <v>4</v>
@@ -8365,12 +8365,12 @@
         <v>12</v>
       </c>
       <c r="D570" t="n">
-        <v>22.0710344827586</v>
+        <v>21.9348275862069</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" s="1" t="n">
-        <v>44591</v>
+        <v>44576</v>
       </c>
       <c r="B571" t="s">
         <v>4</v>
@@ -8379,12 +8379,12 @@
         <v>12</v>
       </c>
       <c r="D571" t="n">
-        <v>22.0762068965517</v>
+        <v>21.9508620689655</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" s="1" t="n">
-        <v>44592</v>
+        <v>44577</v>
       </c>
       <c r="B572" t="s">
         <v>4</v>
@@ -8393,12 +8393,12 @@
         <v>12</v>
       </c>
       <c r="D572" t="n">
-        <v>22.0744827586207</v>
+        <v>21.9594827586207</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" s="1" t="n">
-        <v>44593</v>
+        <v>44578</v>
       </c>
       <c r="B573" t="s">
         <v>4</v>
@@ -8407,12 +8407,12 @@
         <v>12</v>
       </c>
       <c r="D573" t="n">
-        <v>22.0744827586207</v>
+        <v>21.9629310344828</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" s="1" t="n">
-        <v>44594</v>
+        <v>44579</v>
       </c>
       <c r="B574" t="s">
         <v>4</v>
@@ -8421,12 +8421,12 @@
         <v>12</v>
       </c>
       <c r="D574" t="n">
-        <v>22.1041379310345</v>
+        <v>21.9801724137931</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" s="1" t="n">
-        <v>44595</v>
+        <v>44580</v>
       </c>
       <c r="B575" t="s">
         <v>4</v>
@@ -8435,12 +8435,12 @@
         <v>12</v>
       </c>
       <c r="D575" t="n">
-        <v>22.1155172413793</v>
+        <v>22.0012068965517</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" s="1" t="n">
-        <v>44596</v>
+        <v>44581</v>
       </c>
       <c r="B576" t="s">
         <v>4</v>
@@ -8449,12 +8449,12 @@
         <v>12</v>
       </c>
       <c r="D576" t="n">
-        <v>22.1189655172414</v>
+        <v>22.0122413793103</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" s="1" t="n">
-        <v>44597</v>
+        <v>44582</v>
       </c>
       <c r="B577" t="s">
         <v>4</v>
@@ -8463,236 +8463,236 @@
         <v>12</v>
       </c>
       <c r="D577" t="n">
-        <v>22.1394827586207</v>
+        <v>22.0229310344828</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" s="1" t="n">
-        <v>44562</v>
+        <v>44583</v>
       </c>
       <c r="B578" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C578" t="s">
         <v>12</v>
       </c>
       <c r="D578" t="n">
-        <v>23.1925225225225</v>
+        <v>22.0279310344828</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" s="1" t="n">
-        <v>44563</v>
+        <v>44584</v>
       </c>
       <c r="B579" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C579" t="s">
         <v>12</v>
       </c>
       <c r="D579" t="n">
-        <v>23.2095495495495</v>
+        <v>22.0289655172414</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" s="1" t="n">
-        <v>44564</v>
+        <v>44585</v>
       </c>
       <c r="B580" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C580" t="s">
         <v>12</v>
       </c>
       <c r="D580" t="n">
-        <v>23.2102702702703</v>
+        <v>22.0289655172414</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" s="1" t="n">
-        <v>44565</v>
+        <v>44586</v>
       </c>
       <c r="B581" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C581" t="s">
         <v>12</v>
       </c>
       <c r="D581" t="n">
-        <v>23.2326126126126</v>
+        <v>22.0289655172414</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" s="1" t="n">
-        <v>44566</v>
+        <v>44587</v>
       </c>
       <c r="B582" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C582" t="s">
         <v>12</v>
       </c>
       <c r="D582" t="n">
-        <v>23.2481081081081</v>
+        <v>22.0539655172414</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" s="1" t="n">
-        <v>44567</v>
+        <v>44588</v>
       </c>
       <c r="B583" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C583" t="s">
         <v>12</v>
       </c>
       <c r="D583" t="n">
-        <v>23.2995495495495</v>
+        <v>22.0541379310345</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" s="1" t="n">
-        <v>44568</v>
+        <v>44589</v>
       </c>
       <c r="B584" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C584" t="s">
         <v>12</v>
       </c>
       <c r="D584" t="n">
-        <v>23.3083783783784</v>
+        <v>22.061724137931</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" s="1" t="n">
-        <v>44569</v>
+        <v>44590</v>
       </c>
       <c r="B585" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C585" t="s">
         <v>12</v>
       </c>
       <c r="D585" t="n">
-        <v>23.3227927927928</v>
+        <v>22.0710344827586</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" s="1" t="n">
-        <v>44570</v>
+        <v>44591</v>
       </c>
       <c r="B586" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C586" t="s">
         <v>12</v>
       </c>
       <c r="D586" t="n">
-        <v>23.3292792792793</v>
+        <v>22.0762068965517</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" s="1" t="n">
-        <v>44571</v>
+        <v>44592</v>
       </c>
       <c r="B587" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C587" t="s">
         <v>12</v>
       </c>
       <c r="D587" t="n">
-        <v>23.3373873873874</v>
+        <v>22.0744827586207</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" s="1" t="n">
-        <v>44572</v>
+        <v>44593</v>
       </c>
       <c r="B588" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C588" t="s">
         <v>12</v>
       </c>
       <c r="D588" t="n">
-        <v>23.3382882882883</v>
+        <v>22.0744827586207</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" s="1" t="n">
-        <v>44573</v>
+        <v>44594</v>
       </c>
       <c r="B589" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C589" t="s">
         <v>12</v>
       </c>
       <c r="D589" t="n">
-        <v>23.3463963963964</v>
+        <v>22.1041379310345</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" s="1" t="n">
-        <v>44574</v>
+        <v>44595</v>
       </c>
       <c r="B590" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C590" t="s">
         <v>12</v>
       </c>
       <c r="D590" t="n">
-        <v>23.350990990991</v>
+        <v>22.1155172413793</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" s="1" t="n">
-        <v>44575</v>
+        <v>44596</v>
       </c>
       <c r="B591" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C591" t="s">
         <v>12</v>
       </c>
       <c r="D591" t="n">
-        <v>23.37</v>
+        <v>22.1189655172414</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" s="1" t="n">
-        <v>44576</v>
+        <v>44597</v>
       </c>
       <c r="B592" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C592" t="s">
         <v>12</v>
       </c>
       <c r="D592" t="n">
-        <v>23.4382882882883</v>
+        <v>22.1394827586207</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" s="1" t="n">
-        <v>44577</v>
+        <v>44598</v>
       </c>
       <c r="B593" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C593" t="s">
         <v>12</v>
       </c>
       <c r="D593" t="n">
-        <v>23.4328828828829</v>
+        <v>22.1455172413793</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" s="1" t="n">
-        <v>44578</v>
+        <v>44562</v>
       </c>
       <c r="B594" t="s">
         <v>6</v>
@@ -8701,12 +8701,12 @@
         <v>12</v>
       </c>
       <c r="D594" t="n">
-        <v>23.4333333333333</v>
+        <v>23.1925225225225</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" s="1" t="n">
-        <v>44579</v>
+        <v>44563</v>
       </c>
       <c r="B595" t="s">
         <v>6</v>
@@ -8715,12 +8715,12 @@
         <v>12</v>
       </c>
       <c r="D595" t="n">
-        <v>23.4362162162162</v>
+        <v>23.2095495495495</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" s="1" t="n">
-        <v>44580</v>
+        <v>44564</v>
       </c>
       <c r="B596" t="s">
         <v>6</v>
@@ -8729,12 +8729,12 @@
         <v>12</v>
       </c>
       <c r="D596" t="n">
-        <v>23.4383783783784</v>
+        <v>23.2102702702703</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" s="1" t="n">
-        <v>44581</v>
+        <v>44565</v>
       </c>
       <c r="B597" t="s">
         <v>6</v>
@@ -8743,12 +8743,12 @@
         <v>12</v>
       </c>
       <c r="D597" t="n">
-        <v>23.3811711711712</v>
+        <v>23.2326126126126</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" s="1" t="n">
-        <v>44582</v>
+        <v>44566</v>
       </c>
       <c r="B598" t="s">
         <v>6</v>
@@ -8757,12 +8757,12 @@
         <v>12</v>
       </c>
       <c r="D598" t="n">
-        <v>23.3984684684685</v>
+        <v>23.2481081081081</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" s="1" t="n">
-        <v>44583</v>
+        <v>44567</v>
       </c>
       <c r="B599" t="s">
         <v>6</v>
@@ -8771,12 +8771,12 @@
         <v>12</v>
       </c>
       <c r="D599" t="n">
-        <v>23.4007207207207</v>
+        <v>23.2995495495495</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" s="1" t="n">
-        <v>44584</v>
+        <v>44568</v>
       </c>
       <c r="B600" t="s">
         <v>6</v>
@@ -8785,12 +8785,12 @@
         <v>12</v>
       </c>
       <c r="D600" t="n">
-        <v>23.4044144144144</v>
+        <v>23.3083783783784</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" s="1" t="n">
-        <v>44585</v>
+        <v>44569</v>
       </c>
       <c r="B601" t="s">
         <v>6</v>
@@ -8799,12 +8799,12 @@
         <v>12</v>
       </c>
       <c r="D601" t="n">
-        <v>23.4062162162162</v>
+        <v>23.3227927927928</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" s="1" t="n">
-        <v>44586</v>
+        <v>44570</v>
       </c>
       <c r="B602" t="s">
         <v>6</v>
@@ -8813,12 +8813,12 @@
         <v>12</v>
       </c>
       <c r="D602" t="n">
-        <v>23.4253153153153</v>
+        <v>23.3292792792793</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" s="1" t="n">
-        <v>44587</v>
+        <v>44571</v>
       </c>
       <c r="B603" t="s">
         <v>6</v>
@@ -8827,12 +8827,12 @@
         <v>12</v>
       </c>
       <c r="D603" t="n">
-        <v>23.4313513513514</v>
+        <v>23.3373873873874</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" s="1" t="n">
-        <v>44588</v>
+        <v>44572</v>
       </c>
       <c r="B604" t="s">
         <v>6</v>
@@ -8841,12 +8841,12 @@
         <v>12</v>
       </c>
       <c r="D604" t="n">
-        <v>23.4363063063063</v>
+        <v>23.3382882882883</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" s="1" t="n">
-        <v>44589</v>
+        <v>44573</v>
       </c>
       <c r="B605" t="s">
         <v>6</v>
@@ -8855,12 +8855,12 @@
         <v>12</v>
       </c>
       <c r="D605" t="n">
-        <v>23.4356756756757</v>
+        <v>23.3463963963964</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" s="1" t="n">
-        <v>44590</v>
+        <v>44574</v>
       </c>
       <c r="B606" t="s">
         <v>6</v>
@@ -8869,12 +8869,12 @@
         <v>12</v>
       </c>
       <c r="D606" t="n">
-        <v>23.4473873873874</v>
+        <v>23.350990990991</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" s="1" t="n">
-        <v>44591</v>
+        <v>44575</v>
       </c>
       <c r="B607" t="s">
         <v>6</v>
@@ -8883,12 +8883,12 @@
         <v>12</v>
       </c>
       <c r="D607" t="n">
-        <v>23.4496396396396</v>
+        <v>23.37</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" s="1" t="n">
-        <v>44592</v>
+        <v>44576</v>
       </c>
       <c r="B608" t="s">
         <v>6</v>
@@ -8897,12 +8897,12 @@
         <v>12</v>
       </c>
       <c r="D608" t="n">
-        <v>23.4487387387387</v>
+        <v>23.4382882882883</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" s="1" t="n">
-        <v>44593</v>
+        <v>44577</v>
       </c>
       <c r="B609" t="s">
         <v>6</v>
@@ -8911,12 +8911,12 @@
         <v>12</v>
       </c>
       <c r="D609" t="n">
-        <v>23.4493693693694</v>
+        <v>23.4328828828829</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" s="1" t="n">
-        <v>44594</v>
+        <v>44578</v>
       </c>
       <c r="B610" t="s">
         <v>6</v>
@@ -8925,12 +8925,12 @@
         <v>12</v>
       </c>
       <c r="D610" t="n">
-        <v>23.4601801801802</v>
+        <v>23.4333333333333</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" s="1" t="n">
-        <v>44595</v>
+        <v>44579</v>
       </c>
       <c r="B611" t="s">
         <v>6</v>
@@ -8939,12 +8939,12 @@
         <v>12</v>
       </c>
       <c r="D611" t="n">
-        <v>23.4700900900901</v>
+        <v>23.4362162162162</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" s="1" t="n">
-        <v>44596</v>
+        <v>44580</v>
       </c>
       <c r="B612" t="s">
         <v>6</v>
@@ -8953,12 +8953,12 @@
         <v>12</v>
       </c>
       <c r="D612" t="n">
-        <v>23.470990990991</v>
+        <v>23.4383783783784</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" s="1" t="n">
-        <v>44597</v>
+        <v>44581</v>
       </c>
       <c r="B613" t="s">
         <v>6</v>
@@ -8967,250 +8967,250 @@
         <v>12</v>
       </c>
       <c r="D613" t="n">
-        <v>23.4763063063063</v>
+        <v>23.3811711711712</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" s="1" t="n">
-        <v>44562</v>
+        <v>44582</v>
       </c>
       <c r="B614" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C614" t="s">
         <v>12</v>
       </c>
       <c r="D614" t="n">
-        <v>21.0064864864865</v>
+        <v>23.3984684684685</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" s="1" t="n">
-        <v>44563</v>
+        <v>44583</v>
       </c>
       <c r="B615" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C615" t="s">
         <v>12</v>
       </c>
       <c r="D615" t="n">
-        <v>21.0158558558559</v>
+        <v>23.4007207207207</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" s="1" t="n">
-        <v>44564</v>
+        <v>44584</v>
       </c>
       <c r="B616" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C616" t="s">
         <v>12</v>
       </c>
       <c r="D616" t="n">
-        <v>21.0141441441441</v>
+        <v>23.4044144144144</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" s="1" t="n">
-        <v>44565</v>
+        <v>44585</v>
       </c>
       <c r="B617" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C617" t="s">
         <v>12</v>
       </c>
       <c r="D617" t="n">
-        <v>21.027027027027</v>
+        <v>23.4062162162162</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" s="1" t="n">
-        <v>44566</v>
+        <v>44586</v>
       </c>
       <c r="B618" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C618" t="s">
         <v>12</v>
       </c>
       <c r="D618" t="n">
-        <v>21.0442342342342</v>
+        <v>23.4253153153153</v>
       </c>
     </row>
     <row r="619">
       <c r="A619" s="1" t="n">
-        <v>44567</v>
+        <v>44587</v>
       </c>
       <c r="B619" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C619" t="s">
         <v>12</v>
       </c>
       <c r="D619" t="n">
-        <v>21.1037837837838</v>
+        <v>23.4313513513514</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" s="1" t="n">
-        <v>44568</v>
+        <v>44588</v>
       </c>
       <c r="B620" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C620" t="s">
         <v>12</v>
       </c>
       <c r="D620" t="n">
-        <v>21.0835135135135</v>
+        <v>23.4363063063063</v>
       </c>
     </row>
     <row r="621">
       <c r="A621" s="1" t="n">
-        <v>44569</v>
+        <v>44589</v>
       </c>
       <c r="B621" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C621" t="s">
         <v>12</v>
       </c>
       <c r="D621" t="n">
-        <v>21.0995495495496</v>
+        <v>23.4356756756757</v>
       </c>
     </row>
     <row r="622">
       <c r="A622" s="1" t="n">
-        <v>44570</v>
+        <v>44590</v>
       </c>
       <c r="B622" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C622" t="s">
         <v>12</v>
       </c>
       <c r="D622" t="n">
-        <v>21.094954954955</v>
+        <v>23.4473873873874</v>
       </c>
     </row>
     <row r="623">
       <c r="A623" s="1" t="n">
-        <v>44571</v>
+        <v>44591</v>
       </c>
       <c r="B623" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C623" t="s">
         <v>12</v>
       </c>
       <c r="D623" t="n">
-        <v>21.0977477477477</v>
+        <v>23.4496396396396</v>
       </c>
     </row>
     <row r="624">
       <c r="A624" s="1" t="n">
-        <v>44572</v>
+        <v>44592</v>
       </c>
       <c r="B624" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C624" t="s">
         <v>12</v>
       </c>
       <c r="D624" t="n">
-        <v>21.0977477477477</v>
+        <v>23.4487387387387</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" s="1" t="n">
-        <v>44573</v>
+        <v>44593</v>
       </c>
       <c r="B625" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C625" t="s">
         <v>12</v>
       </c>
       <c r="D625" t="n">
-        <v>21.0985585585586</v>
+        <v>23.4493693693694</v>
       </c>
     </row>
     <row r="626">
       <c r="A626" s="1" t="n">
-        <v>44574</v>
+        <v>44594</v>
       </c>
       <c r="B626" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C626" t="s">
         <v>12</v>
       </c>
       <c r="D626" t="n">
-        <v>21.0721621621622</v>
+        <v>23.4601801801802</v>
       </c>
     </row>
     <row r="627">
       <c r="A627" s="1" t="n">
-        <v>44575</v>
+        <v>44595</v>
       </c>
       <c r="B627" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C627" t="s">
         <v>12</v>
       </c>
       <c r="D627" t="n">
-        <v>21.0942342342342</v>
+        <v>23.4700900900901</v>
       </c>
     </row>
     <row r="628">
       <c r="A628" s="1" t="n">
-        <v>44576</v>
+        <v>44596</v>
       </c>
       <c r="B628" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C628" t="s">
         <v>12</v>
       </c>
       <c r="D628" t="n">
-        <v>21.101981981982</v>
+        <v>23.470990990991</v>
       </c>
     </row>
     <row r="629">
       <c r="A629" s="1" t="n">
-        <v>44577</v>
+        <v>44597</v>
       </c>
       <c r="B629" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C629" t="s">
         <v>12</v>
       </c>
       <c r="D629" t="n">
-        <v>21.0937837837838</v>
+        <v>23.4763063063063</v>
       </c>
     </row>
     <row r="630">
       <c r="A630" s="1" t="n">
-        <v>44578</v>
+        <v>44598</v>
       </c>
       <c r="B630" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C630" t="s">
         <v>12</v>
       </c>
       <c r="D630" t="n">
-        <v>21.0848648648649</v>
+        <v>23.4781981981982</v>
       </c>
     </row>
     <row r="631">
       <c r="A631" s="1" t="n">
-        <v>44579</v>
+        <v>44562</v>
       </c>
       <c r="B631" t="s">
         <v>7</v>
@@ -9219,12 +9219,12 @@
         <v>12</v>
       </c>
       <c r="D631" t="n">
-        <v>21.0988288288288</v>
+        <v>21.0064864864865</v>
       </c>
     </row>
     <row r="632">
       <c r="A632" s="1" t="n">
-        <v>44580</v>
+        <v>44563</v>
       </c>
       <c r="B632" t="s">
         <v>7</v>
@@ -9233,12 +9233,12 @@
         <v>12</v>
       </c>
       <c r="D632" t="n">
-        <v>21.0969369369369</v>
+        <v>21.0158558558559</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" s="1" t="n">
-        <v>44581</v>
+        <v>44564</v>
       </c>
       <c r="B633" t="s">
         <v>7</v>
@@ -9247,12 +9247,12 @@
         <v>12</v>
       </c>
       <c r="D633" t="n">
-        <v>21.1026126126126</v>
+        <v>21.0141441441441</v>
       </c>
     </row>
     <row r="634">
       <c r="A634" s="1" t="n">
-        <v>44582</v>
+        <v>44565</v>
       </c>
       <c r="B634" t="s">
         <v>7</v>
@@ -9261,12 +9261,12 @@
         <v>12</v>
       </c>
       <c r="D634" t="n">
-        <v>21.1125225225225</v>
+        <v>21.027027027027</v>
       </c>
     </row>
     <row r="635">
       <c r="A635" s="1" t="n">
-        <v>44583</v>
+        <v>44566</v>
       </c>
       <c r="B635" t="s">
         <v>7</v>
@@ -9275,12 +9275,12 @@
         <v>12</v>
       </c>
       <c r="D635" t="n">
-        <v>21.1110810810811</v>
+        <v>21.0442342342342</v>
       </c>
     </row>
     <row r="636">
       <c r="A636" s="1" t="n">
-        <v>44584</v>
+        <v>44567</v>
       </c>
       <c r="B636" t="s">
         <v>7</v>
@@ -9289,12 +9289,12 @@
         <v>12</v>
       </c>
       <c r="D636" t="n">
-        <v>21.1175675675676</v>
+        <v>21.1037837837838</v>
       </c>
     </row>
     <row r="637">
       <c r="A637" s="1" t="n">
-        <v>44585</v>
+        <v>44568</v>
       </c>
       <c r="B637" t="s">
         <v>7</v>
@@ -9303,12 +9303,12 @@
         <v>12</v>
       </c>
       <c r="D637" t="n">
-        <v>21.105045045045</v>
+        <v>21.0835135135135</v>
       </c>
     </row>
     <row r="638">
       <c r="A638" s="1" t="n">
-        <v>44586</v>
+        <v>44569</v>
       </c>
       <c r="B638" t="s">
         <v>7</v>
@@ -9317,12 +9317,12 @@
         <v>12</v>
       </c>
       <c r="D638" t="n">
-        <v>21.1237837837838</v>
+        <v>21.0995495495496</v>
       </c>
     </row>
     <row r="639">
       <c r="A639" s="1" t="n">
-        <v>44587</v>
+        <v>44570</v>
       </c>
       <c r="B639" t="s">
         <v>7</v>
@@ -9331,12 +9331,12 @@
         <v>12</v>
       </c>
       <c r="D639" t="n">
-        <v>21.128018018018</v>
+        <v>21.094954954955</v>
       </c>
     </row>
     <row r="640">
       <c r="A640" s="1" t="n">
-        <v>44588</v>
+        <v>44571</v>
       </c>
       <c r="B640" t="s">
         <v>7</v>
@@ -9345,12 +9345,12 @@
         <v>12</v>
       </c>
       <c r="D640" t="n">
-        <v>21.139009009009</v>
+        <v>21.0977477477477</v>
       </c>
     </row>
     <row r="641">
       <c r="A641" s="1" t="n">
-        <v>44589</v>
+        <v>44572</v>
       </c>
       <c r="B641" t="s">
         <v>7</v>
@@ -9359,12 +9359,12 @@
         <v>12</v>
       </c>
       <c r="D641" t="n">
-        <v>21.1357657657658</v>
+        <v>21.0977477477477</v>
       </c>
     </row>
     <row r="642">
       <c r="A642" s="1" t="n">
-        <v>44590</v>
+        <v>44573</v>
       </c>
       <c r="B642" t="s">
         <v>7</v>
@@ -9373,12 +9373,12 @@
         <v>12</v>
       </c>
       <c r="D642" t="n">
-        <v>21.1426126126126</v>
+        <v>21.0985585585586</v>
       </c>
     </row>
     <row r="643">
       <c r="A643" s="1" t="n">
-        <v>44591</v>
+        <v>44574</v>
       </c>
       <c r="B643" t="s">
         <v>7</v>
@@ -9387,12 +9387,12 @@
         <v>12</v>
       </c>
       <c r="D643" t="n">
-        <v>21.1431531531532</v>
+        <v>21.0721621621622</v>
       </c>
     </row>
     <row r="644">
       <c r="A644" s="1" t="n">
-        <v>44592</v>
+        <v>44575</v>
       </c>
       <c r="B644" t="s">
         <v>7</v>
@@ -9401,12 +9401,12 @@
         <v>12</v>
       </c>
       <c r="D644" t="n">
-        <v>21.1322522522523</v>
+        <v>21.0942342342342</v>
       </c>
     </row>
     <row r="645">
       <c r="A645" s="1" t="n">
-        <v>44593</v>
+        <v>44576</v>
       </c>
       <c r="B645" t="s">
         <v>7</v>
@@ -9415,12 +9415,12 @@
         <v>12</v>
       </c>
       <c r="D645" t="n">
-        <v>21.1448648648649</v>
+        <v>21.101981981982</v>
       </c>
     </row>
     <row r="646">
       <c r="A646" s="1" t="n">
-        <v>44594</v>
+        <v>44577</v>
       </c>
       <c r="B646" t="s">
         <v>7</v>
@@ -9429,12 +9429,12 @@
         <v>12</v>
       </c>
       <c r="D646" t="n">
-        <v>21.1565765765766</v>
+        <v>21.0937837837838</v>
       </c>
     </row>
     <row r="647">
       <c r="A647" s="1" t="n">
-        <v>44595</v>
+        <v>44578</v>
       </c>
       <c r="B647" t="s">
         <v>7</v>
@@ -9443,12 +9443,12 @@
         <v>12</v>
       </c>
       <c r="D647" t="n">
-        <v>21.1677477477477</v>
+        <v>21.0848648648649</v>
       </c>
     </row>
     <row r="648">
       <c r="A648" s="1" t="n">
-        <v>44596</v>
+        <v>44579</v>
       </c>
       <c r="B648" t="s">
         <v>7</v>
@@ -9457,21 +9457,273 @@
         <v>12</v>
       </c>
       <c r="D648" t="n">
-        <v>21.1688288288288</v>
+        <v>21.0988288288288</v>
       </c>
     </row>
     <row r="649">
       <c r="A649" s="1" t="n">
+        <v>44580</v>
+      </c>
+      <c r="B649" t="s">
+        <v>7</v>
+      </c>
+      <c r="C649" t="s">
+        <v>12</v>
+      </c>
+      <c r="D649" t="n">
+        <v>21.0969369369369</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" s="1" t="n">
+        <v>44581</v>
+      </c>
+      <c r="B650" t="s">
+        <v>7</v>
+      </c>
+      <c r="C650" t="s">
+        <v>12</v>
+      </c>
+      <c r="D650" t="n">
+        <v>21.1026126126126</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" s="1" t="n">
+        <v>44582</v>
+      </c>
+      <c r="B651" t="s">
+        <v>7</v>
+      </c>
+      <c r="C651" t="s">
+        <v>12</v>
+      </c>
+      <c r="D651" t="n">
+        <v>21.1125225225225</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" s="1" t="n">
+        <v>44583</v>
+      </c>
+      <c r="B652" t="s">
+        <v>7</v>
+      </c>
+      <c r="C652" t="s">
+        <v>12</v>
+      </c>
+      <c r="D652" t="n">
+        <v>21.1110810810811</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" s="1" t="n">
+        <v>44584</v>
+      </c>
+      <c r="B653" t="s">
+        <v>7</v>
+      </c>
+      <c r="C653" t="s">
+        <v>12</v>
+      </c>
+      <c r="D653" t="n">
+        <v>21.1175675675676</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" s="1" t="n">
+        <v>44585</v>
+      </c>
+      <c r="B654" t="s">
+        <v>7</v>
+      </c>
+      <c r="C654" t="s">
+        <v>12</v>
+      </c>
+      <c r="D654" t="n">
+        <v>21.105045045045</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" s="1" t="n">
+        <v>44586</v>
+      </c>
+      <c r="B655" t="s">
+        <v>7</v>
+      </c>
+      <c r="C655" t="s">
+        <v>12</v>
+      </c>
+      <c r="D655" t="n">
+        <v>21.1237837837838</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" s="1" t="n">
+        <v>44587</v>
+      </c>
+      <c r="B656" t="s">
+        <v>7</v>
+      </c>
+      <c r="C656" t="s">
+        <v>12</v>
+      </c>
+      <c r="D656" t="n">
+        <v>21.128018018018</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" s="1" t="n">
+        <v>44588</v>
+      </c>
+      <c r="B657" t="s">
+        <v>7</v>
+      </c>
+      <c r="C657" t="s">
+        <v>12</v>
+      </c>
+      <c r="D657" t="n">
+        <v>21.139009009009</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" s="1" t="n">
+        <v>44589</v>
+      </c>
+      <c r="B658" t="s">
+        <v>7</v>
+      </c>
+      <c r="C658" t="s">
+        <v>12</v>
+      </c>
+      <c r="D658" t="n">
+        <v>21.1357657657658</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" s="1" t="n">
+        <v>44590</v>
+      </c>
+      <c r="B659" t="s">
+        <v>7</v>
+      </c>
+      <c r="C659" t="s">
+        <v>12</v>
+      </c>
+      <c r="D659" t="n">
+        <v>21.1426126126126</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" s="1" t="n">
+        <v>44591</v>
+      </c>
+      <c r="B660" t="s">
+        <v>7</v>
+      </c>
+      <c r="C660" t="s">
+        <v>12</v>
+      </c>
+      <c r="D660" t="n">
+        <v>21.1431531531532</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" s="1" t="n">
+        <v>44592</v>
+      </c>
+      <c r="B661" t="s">
+        <v>7</v>
+      </c>
+      <c r="C661" t="s">
+        <v>12</v>
+      </c>
+      <c r="D661" t="n">
+        <v>21.1322522522523</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" s="1" t="n">
+        <v>44593</v>
+      </c>
+      <c r="B662" t="s">
+        <v>7</v>
+      </c>
+      <c r="C662" t="s">
+        <v>12</v>
+      </c>
+      <c r="D662" t="n">
+        <v>21.1448648648649</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" s="1" t="n">
+        <v>44594</v>
+      </c>
+      <c r="B663" t="s">
+        <v>7</v>
+      </c>
+      <c r="C663" t="s">
+        <v>12</v>
+      </c>
+      <c r="D663" t="n">
+        <v>21.1565765765766</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" s="1" t="n">
+        <v>44595</v>
+      </c>
+      <c r="B664" t="s">
+        <v>7</v>
+      </c>
+      <c r="C664" t="s">
+        <v>12</v>
+      </c>
+      <c r="D664" t="n">
+        <v>21.1677477477477</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" s="1" t="n">
+        <v>44596</v>
+      </c>
+      <c r="B665" t="s">
+        <v>7</v>
+      </c>
+      <c r="C665" t="s">
+        <v>12</v>
+      </c>
+      <c r="D665" t="n">
+        <v>21.1688288288288</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" s="1" t="n">
         <v>44597</v>
       </c>
-      <c r="B649" t="s">
-        <v>7</v>
-      </c>
-      <c r="C649" t="s">
-        <v>12</v>
-      </c>
-      <c r="D649" t="n">
+      <c r="B666" t="s">
+        <v>7</v>
+      </c>
+      <c r="C666" t="s">
+        <v>12</v>
+      </c>
+      <c r="D666" t="n">
         <v>21.1833333333333</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" s="1" t="n">
+        <v>44598</v>
+      </c>
+      <c r="B667" t="s">
+        <v>7</v>
+      </c>
+      <c r="C667" t="s">
+        <v>12</v>
+      </c>
+      <c r="D667" t="n">
+        <v>21.1801801801802</v>
       </c>
     </row>
   </sheetData>

--- a/GasAmg.xlsx
+++ b/GasAmg.xlsx
@@ -922,21 +922,21 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>44562</v>
+        <v>44599</v>
       </c>
       <c r="B39" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
       </c>
       <c r="D39" t="n">
-        <v>22.982</v>
+        <v>22.2828571428571</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>44563</v>
+        <v>44562</v>
       </c>
       <c r="B40" t="s">
         <v>6</v>
@@ -945,12 +945,12 @@
         <v>5</v>
       </c>
       <c r="D40" t="n">
-        <v>22.9855</v>
+        <v>22.982</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>44564</v>
+        <v>44563</v>
       </c>
       <c r="B41" t="s">
         <v>6</v>
@@ -964,7 +964,7 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>44565</v>
+        <v>44564</v>
       </c>
       <c r="B42" t="s">
         <v>6</v>
@@ -973,12 +973,12 @@
         <v>5</v>
       </c>
       <c r="D42" t="n">
-        <v>23.014</v>
+        <v>22.9855</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>44566</v>
+        <v>44565</v>
       </c>
       <c r="B43" t="s">
         <v>6</v>
@@ -987,12 +987,12 @@
         <v>5</v>
       </c>
       <c r="D43" t="n">
-        <v>23.0155</v>
+        <v>23.014</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>44567</v>
+        <v>44566</v>
       </c>
       <c r="B44" t="s">
         <v>6</v>
@@ -1006,7 +1006,7 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>44568</v>
+        <v>44567</v>
       </c>
       <c r="B45" t="s">
         <v>6</v>
@@ -1015,12 +1015,12 @@
         <v>5</v>
       </c>
       <c r="D45" t="n">
-        <v>23.0355</v>
+        <v>23.0155</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>44569</v>
+        <v>44568</v>
       </c>
       <c r="B46" t="s">
         <v>6</v>
@@ -1029,12 +1029,12 @@
         <v>5</v>
       </c>
       <c r="D46" t="n">
-        <v>23.0405</v>
+        <v>23.0355</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>44570</v>
+        <v>44569</v>
       </c>
       <c r="B47" t="s">
         <v>6</v>
@@ -1043,12 +1043,12 @@
         <v>5</v>
       </c>
       <c r="D47" t="n">
-        <v>23.0515</v>
+        <v>23.0405</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>44571</v>
+        <v>44570</v>
       </c>
       <c r="B48" t="s">
         <v>6</v>
@@ -1062,7 +1062,7 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>44572</v>
+        <v>44571</v>
       </c>
       <c r="B49" t="s">
         <v>6</v>
@@ -1076,7 +1076,7 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>44573</v>
+        <v>44572</v>
       </c>
       <c r="B50" t="s">
         <v>6</v>
@@ -1085,12 +1085,12 @@
         <v>5</v>
       </c>
       <c r="D50" t="n">
-        <v>23.129</v>
+        <v>23.0515</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>44574</v>
+        <v>44573</v>
       </c>
       <c r="B51" t="s">
         <v>6</v>
@@ -1099,12 +1099,12 @@
         <v>5</v>
       </c>
       <c r="D51" t="n">
-        <v>23.137</v>
+        <v>23.129</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>44575</v>
+        <v>44574</v>
       </c>
       <c r="B52" t="s">
         <v>6</v>
@@ -1113,12 +1113,12 @@
         <v>5</v>
       </c>
       <c r="D52" t="n">
-        <v>23.1625</v>
+        <v>23.137</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>44576</v>
+        <v>44575</v>
       </c>
       <c r="B53" t="s">
         <v>6</v>
@@ -1127,12 +1127,12 @@
         <v>5</v>
       </c>
       <c r="D53" t="n">
-        <v>23.1675</v>
+        <v>23.1625</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>44577</v>
+        <v>44576</v>
       </c>
       <c r="B54" t="s">
         <v>6</v>
@@ -1146,7 +1146,7 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>44578</v>
+        <v>44577</v>
       </c>
       <c r="B55" t="s">
         <v>6</v>
@@ -1155,12 +1155,12 @@
         <v>5</v>
       </c>
       <c r="D55" t="n">
-        <v>23.182</v>
+        <v>23.1675</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>44579</v>
+        <v>44578</v>
       </c>
       <c r="B56" t="s">
         <v>6</v>
@@ -1174,7 +1174,7 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>44580</v>
+        <v>44579</v>
       </c>
       <c r="B57" t="s">
         <v>6</v>
@@ -1188,7 +1188,7 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>44581</v>
+        <v>44580</v>
       </c>
       <c r="B58" t="s">
         <v>6</v>
@@ -1197,12 +1197,12 @@
         <v>5</v>
       </c>
       <c r="D58" t="n">
-        <v>23.197</v>
+        <v>23.182</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>44582</v>
+        <v>44581</v>
       </c>
       <c r="B59" t="s">
         <v>6</v>
@@ -1211,12 +1211,12 @@
         <v>5</v>
       </c>
       <c r="D59" t="n">
-        <v>23.2085</v>
+        <v>23.197</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>44583</v>
+        <v>44582</v>
       </c>
       <c r="B60" t="s">
         <v>6</v>
@@ -1225,12 +1225,12 @@
         <v>5</v>
       </c>
       <c r="D60" t="n">
-        <v>23.2125</v>
+        <v>23.2085</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>44584</v>
+        <v>44583</v>
       </c>
       <c r="B61" t="s">
         <v>6</v>
@@ -1239,12 +1239,12 @@
         <v>5</v>
       </c>
       <c r="D61" t="n">
-        <v>23.2225</v>
+        <v>23.2125</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>44585</v>
+        <v>44584</v>
       </c>
       <c r="B62" t="s">
         <v>6</v>
@@ -1258,7 +1258,7 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>44586</v>
+        <v>44585</v>
       </c>
       <c r="B63" t="s">
         <v>6</v>
@@ -1272,7 +1272,7 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>44587</v>
+        <v>44586</v>
       </c>
       <c r="B64" t="s">
         <v>6</v>
@@ -1286,7 +1286,7 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>44588</v>
+        <v>44587</v>
       </c>
       <c r="B65" t="s">
         <v>6</v>
@@ -1300,7 +1300,7 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>44589</v>
+        <v>44588</v>
       </c>
       <c r="B66" t="s">
         <v>6</v>
@@ -1309,12 +1309,12 @@
         <v>5</v>
       </c>
       <c r="D66" t="n">
-        <v>23.2285</v>
+        <v>23.2225</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>44590</v>
+        <v>44589</v>
       </c>
       <c r="B67" t="s">
         <v>6</v>
@@ -1323,12 +1323,12 @@
         <v>5</v>
       </c>
       <c r="D67" t="n">
-        <v>23.2325</v>
+        <v>23.2285</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>44591</v>
+        <v>44590</v>
       </c>
       <c r="B68" t="s">
         <v>6</v>
@@ -1337,12 +1337,12 @@
         <v>5</v>
       </c>
       <c r="D68" t="n">
-        <v>23.247</v>
+        <v>23.2325</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>44592</v>
+        <v>44591</v>
       </c>
       <c r="B69" t="s">
         <v>6</v>
@@ -1356,7 +1356,7 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>44593</v>
+        <v>44592</v>
       </c>
       <c r="B70" t="s">
         <v>6</v>
@@ -1370,7 +1370,7 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>44594</v>
+        <v>44593</v>
       </c>
       <c r="B71" t="s">
         <v>6</v>
@@ -1384,7 +1384,7 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>44595</v>
+        <v>44594</v>
       </c>
       <c r="B72" t="s">
         <v>6</v>
@@ -1393,12 +1393,12 @@
         <v>5</v>
       </c>
       <c r="D72" t="n">
-        <v>23.2615</v>
+        <v>23.247</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>44596</v>
+        <v>44595</v>
       </c>
       <c r="B73" t="s">
         <v>6</v>
@@ -1412,7 +1412,7 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>44597</v>
+        <v>44596</v>
       </c>
       <c r="B74" t="s">
         <v>6</v>
@@ -1421,12 +1421,12 @@
         <v>5</v>
       </c>
       <c r="D74" t="n">
-        <v>23.286</v>
+        <v>23.2615</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>44598</v>
+        <v>44597</v>
       </c>
       <c r="B75" t="s">
         <v>6</v>
@@ -1435,40 +1435,40 @@
         <v>5</v>
       </c>
       <c r="D75" t="n">
-        <v>23.303</v>
+        <v>23.286</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>44562</v>
+        <v>44598</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C76" t="s">
         <v>5</v>
       </c>
       <c r="D76" t="n">
-        <v>20.7971428571429</v>
+        <v>23.303</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>44563</v>
+        <v>44599</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C77" t="s">
         <v>5</v>
       </c>
       <c r="D77" t="n">
-        <v>20.8247619047619</v>
+        <v>23.303</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>44564</v>
+        <v>44562</v>
       </c>
       <c r="B78" t="s">
         <v>7</v>
@@ -1477,12 +1477,12 @@
         <v>5</v>
       </c>
       <c r="D78" t="n">
-        <v>20.8247619047619</v>
+        <v>20.7971428571429</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>44565</v>
+        <v>44563</v>
       </c>
       <c r="B79" t="s">
         <v>7</v>
@@ -1491,12 +1491,12 @@
         <v>5</v>
       </c>
       <c r="D79" t="n">
-        <v>20.8704761904762</v>
+        <v>20.8247619047619</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>44566</v>
+        <v>44564</v>
       </c>
       <c r="B80" t="s">
         <v>7</v>
@@ -1505,12 +1505,12 @@
         <v>5</v>
       </c>
       <c r="D80" t="n">
-        <v>20.8528571428571</v>
+        <v>20.8247619047619</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>44567</v>
+        <v>44565</v>
       </c>
       <c r="B81" t="s">
         <v>7</v>
@@ -1519,12 +1519,12 @@
         <v>5</v>
       </c>
       <c r="D81" t="n">
-        <v>20.8547619047619</v>
+        <v>20.8704761904762</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>44568</v>
+        <v>44566</v>
       </c>
       <c r="B82" t="s">
         <v>7</v>
@@ -1533,12 +1533,12 @@
         <v>5</v>
       </c>
       <c r="D82" t="n">
-        <v>20.8790476190476</v>
+        <v>20.8528571428571</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>44569</v>
+        <v>44567</v>
       </c>
       <c r="B83" t="s">
         <v>7</v>
@@ -1547,12 +1547,12 @@
         <v>5</v>
       </c>
       <c r="D83" t="n">
-        <v>20.8857142857143</v>
+        <v>20.8547619047619</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>44570</v>
+        <v>44568</v>
       </c>
       <c r="B84" t="s">
         <v>7</v>
@@ -1561,12 +1561,12 @@
         <v>5</v>
       </c>
       <c r="D84" t="n">
-        <v>20.9004761904762</v>
+        <v>20.8790476190476</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>44571</v>
+        <v>44569</v>
       </c>
       <c r="B85" t="s">
         <v>7</v>
@@ -1575,12 +1575,12 @@
         <v>5</v>
       </c>
       <c r="D85" t="n">
-        <v>20.9004761904762</v>
+        <v>20.8857142857143</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>44572</v>
+        <v>44570</v>
       </c>
       <c r="B86" t="s">
         <v>7</v>
@@ -1594,7 +1594,7 @@
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>44573</v>
+        <v>44571</v>
       </c>
       <c r="B87" t="s">
         <v>7</v>
@@ -1603,12 +1603,12 @@
         <v>5</v>
       </c>
       <c r="D87" t="n">
-        <v>20.9028571428571</v>
+        <v>20.9004761904762</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>44574</v>
+        <v>44572</v>
       </c>
       <c r="B88" t="s">
         <v>7</v>
@@ -1617,12 +1617,12 @@
         <v>5</v>
       </c>
       <c r="D88" t="n">
-        <v>20.9042857142857</v>
+        <v>20.9004761904762</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>44575</v>
+        <v>44573</v>
       </c>
       <c r="B89" t="s">
         <v>7</v>
@@ -1631,12 +1631,12 @@
         <v>5</v>
       </c>
       <c r="D89" t="n">
-        <v>20.9071428571429</v>
+        <v>20.9028571428571</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>44576</v>
+        <v>44574</v>
       </c>
       <c r="B90" t="s">
         <v>7</v>
@@ -1645,12 +1645,12 @@
         <v>5</v>
       </c>
       <c r="D90" t="n">
-        <v>20.9404761904762</v>
+        <v>20.9042857142857</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>44577</v>
+        <v>44575</v>
       </c>
       <c r="B91" t="s">
         <v>7</v>
@@ -1659,12 +1659,12 @@
         <v>5</v>
       </c>
       <c r="D91" t="n">
-        <v>20.9404761904762</v>
+        <v>20.9071428571429</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>44578</v>
+        <v>44576</v>
       </c>
       <c r="B92" t="s">
         <v>7</v>
@@ -1678,7 +1678,7 @@
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>44579</v>
+        <v>44577</v>
       </c>
       <c r="B93" t="s">
         <v>7</v>
@@ -1692,7 +1692,7 @@
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>44580</v>
+        <v>44578</v>
       </c>
       <c r="B94" t="s">
         <v>7</v>
@@ -1701,12 +1701,12 @@
         <v>5</v>
       </c>
       <c r="D94" t="n">
-        <v>20.9433333333333</v>
+        <v>20.9404761904762</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>44581</v>
+        <v>44579</v>
       </c>
       <c r="B95" t="s">
         <v>7</v>
@@ -1715,12 +1715,12 @@
         <v>5</v>
       </c>
       <c r="D95" t="n">
-        <v>20.9590476190476</v>
+        <v>20.9404761904762</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>44582</v>
+        <v>44580</v>
       </c>
       <c r="B96" t="s">
         <v>7</v>
@@ -1729,12 +1729,12 @@
         <v>5</v>
       </c>
       <c r="D96" t="n">
-        <v>20.9685714285714</v>
+        <v>20.9433333333333</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>44583</v>
+        <v>44581</v>
       </c>
       <c r="B97" t="s">
         <v>7</v>
@@ -1743,12 +1743,12 @@
         <v>5</v>
       </c>
       <c r="D97" t="n">
-        <v>20.9785714285714</v>
+        <v>20.9590476190476</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>44584</v>
+        <v>44582</v>
       </c>
       <c r="B98" t="s">
         <v>7</v>
@@ -1757,12 +1757,12 @@
         <v>5</v>
       </c>
       <c r="D98" t="n">
-        <v>20.977619047619</v>
+        <v>20.9685714285714</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>44585</v>
+        <v>44583</v>
       </c>
       <c r="B99" t="s">
         <v>7</v>
@@ -1771,12 +1771,12 @@
         <v>5</v>
       </c>
       <c r="D99" t="n">
-        <v>20.977619047619</v>
+        <v>20.9785714285714</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>44586</v>
+        <v>44584</v>
       </c>
       <c r="B100" t="s">
         <v>7</v>
@@ -1790,7 +1790,7 @@
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>44587</v>
+        <v>44585</v>
       </c>
       <c r="B101" t="s">
         <v>7</v>
@@ -1799,12 +1799,12 @@
         <v>5</v>
       </c>
       <c r="D101" t="n">
-        <v>20.9880952380952</v>
+        <v>20.977619047619</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>44588</v>
+        <v>44586</v>
       </c>
       <c r="B102" t="s">
         <v>7</v>
@@ -1813,12 +1813,12 @@
         <v>5</v>
       </c>
       <c r="D102" t="n">
-        <v>20.9880952380952</v>
+        <v>20.977619047619</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>44589</v>
+        <v>44587</v>
       </c>
       <c r="B103" t="s">
         <v>7</v>
@@ -1827,12 +1827,12 @@
         <v>5</v>
       </c>
       <c r="D103" t="n">
-        <v>21</v>
+        <v>20.9880952380952</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>44590</v>
+        <v>44588</v>
       </c>
       <c r="B104" t="s">
         <v>7</v>
@@ -1841,12 +1841,12 @@
         <v>5</v>
       </c>
       <c r="D104" t="n">
-        <v>21.0090476190476</v>
+        <v>20.9880952380952</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>44591</v>
+        <v>44589</v>
       </c>
       <c r="B105" t="s">
         <v>7</v>
@@ -1855,12 +1855,12 @@
         <v>5</v>
       </c>
       <c r="D105" t="n">
-        <v>21.0290476190476</v>
+        <v>21</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>44592</v>
+        <v>44590</v>
       </c>
       <c r="B106" t="s">
         <v>7</v>
@@ -1869,12 +1869,12 @@
         <v>5</v>
       </c>
       <c r="D106" t="n">
-        <v>21.0385714285714</v>
+        <v>21.0090476190476</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>44593</v>
+        <v>44591</v>
       </c>
       <c r="B107" t="s">
         <v>7</v>
@@ -1883,12 +1883,12 @@
         <v>5</v>
       </c>
       <c r="D107" t="n">
-        <v>21.0385714285714</v>
+        <v>21.0290476190476</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>44594</v>
+        <v>44592</v>
       </c>
       <c r="B108" t="s">
         <v>7</v>
@@ -1897,12 +1897,12 @@
         <v>5</v>
       </c>
       <c r="D108" t="n">
-        <v>21.0528571428571</v>
+        <v>21.0385714285714</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>44595</v>
+        <v>44593</v>
       </c>
       <c r="B109" t="s">
         <v>7</v>
@@ -1911,12 +1911,12 @@
         <v>5</v>
       </c>
       <c r="D109" t="n">
-        <v>21.0528571428571</v>
+        <v>21.0385714285714</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>44596</v>
+        <v>44594</v>
       </c>
       <c r="B110" t="s">
         <v>7</v>
@@ -1925,12 +1925,12 @@
         <v>5</v>
       </c>
       <c r="D110" t="n">
-        <v>21.0690476190476</v>
+        <v>21.0528571428571</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>44597</v>
+        <v>44595</v>
       </c>
       <c r="B111" t="s">
         <v>7</v>
@@ -1939,12 +1939,12 @@
         <v>5</v>
       </c>
       <c r="D111" t="n">
-        <v>21.0785714285714</v>
+        <v>21.0528571428571</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>44598</v>
+        <v>44596</v>
       </c>
       <c r="B112" t="s">
         <v>7</v>
@@ -1953,54 +1953,54 @@
         <v>5</v>
       </c>
       <c r="D112" t="n">
-        <v>21.1014285714286</v>
+        <v>21.0690476190476</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>44562</v>
+        <v>44597</v>
       </c>
       <c r="B113" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D113" t="n">
-        <v>21.8166071428571</v>
+        <v>21.0785714285714</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>44563</v>
+        <v>44598</v>
       </c>
       <c r="B114" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D114" t="n">
-        <v>21.8160714285714</v>
+        <v>21.1014285714286</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>44564</v>
+        <v>44599</v>
       </c>
       <c r="B115" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D115" t="n">
-        <v>21.80875</v>
+        <v>21.1014285714286</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>44565</v>
+        <v>44562</v>
       </c>
       <c r="B116" t="s">
         <v>4</v>
@@ -2009,12 +2009,12 @@
         <v>8</v>
       </c>
       <c r="D116" t="n">
-        <v>21.8051785714286</v>
+        <v>21.8166071428571</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>44566</v>
+        <v>44563</v>
       </c>
       <c r="B117" t="s">
         <v>4</v>
@@ -2023,12 +2023,12 @@
         <v>8</v>
       </c>
       <c r="D117" t="n">
-        <v>21.8173214285714</v>
+        <v>21.8160714285714</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>44567</v>
+        <v>44564</v>
       </c>
       <c r="B118" t="s">
         <v>4</v>
@@ -2037,12 +2037,12 @@
         <v>8</v>
       </c>
       <c r="D118" t="n">
-        <v>21.8083928571429</v>
+        <v>21.80875</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>44568</v>
+        <v>44565</v>
       </c>
       <c r="B119" t="s">
         <v>4</v>
@@ -2051,12 +2051,12 @@
         <v>8</v>
       </c>
       <c r="D119" t="n">
-        <v>21.8082142857143</v>
+        <v>21.8051785714286</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>44569</v>
+        <v>44566</v>
       </c>
       <c r="B120" t="s">
         <v>4</v>
@@ -2065,12 +2065,12 @@
         <v>8</v>
       </c>
       <c r="D120" t="n">
-        <v>21.8585714285714</v>
+        <v>21.8173214285714</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>44570</v>
+        <v>44567</v>
       </c>
       <c r="B121" t="s">
         <v>4</v>
@@ -2079,12 +2079,12 @@
         <v>8</v>
       </c>
       <c r="D121" t="n">
-        <v>21.8498214285714</v>
+        <v>21.8083928571429</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>44571</v>
+        <v>44568</v>
       </c>
       <c r="B122" t="s">
         <v>4</v>
@@ -2093,12 +2093,12 @@
         <v>8</v>
       </c>
       <c r="D122" t="n">
-        <v>21.83375</v>
+        <v>21.8082142857143</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>44572</v>
+        <v>44569</v>
       </c>
       <c r="B123" t="s">
         <v>4</v>
@@ -2107,12 +2107,12 @@
         <v>8</v>
       </c>
       <c r="D123" t="n">
-        <v>21.8516071428571</v>
+        <v>21.8585714285714</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>44573</v>
+        <v>44570</v>
       </c>
       <c r="B124" t="s">
         <v>4</v>
@@ -2121,12 +2121,12 @@
         <v>8</v>
       </c>
       <c r="D124" t="n">
-        <v>21.8853571428571</v>
+        <v>21.8498214285714</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>44574</v>
+        <v>44571</v>
       </c>
       <c r="B125" t="s">
         <v>4</v>
@@ -2135,12 +2135,12 @@
         <v>8</v>
       </c>
       <c r="D125" t="n">
-        <v>21.8948214285714</v>
+        <v>21.83375</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>44575</v>
+        <v>44572</v>
       </c>
       <c r="B126" t="s">
         <v>4</v>
@@ -2149,12 +2149,12 @@
         <v>8</v>
       </c>
       <c r="D126" t="n">
-        <v>21.9010714285714</v>
+        <v>21.8516071428571</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>44576</v>
+        <v>44573</v>
       </c>
       <c r="B127" t="s">
         <v>4</v>
@@ -2163,12 +2163,12 @@
         <v>8</v>
       </c>
       <c r="D127" t="n">
-        <v>21.9028571428571</v>
+        <v>21.8853571428571</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>44577</v>
+        <v>44574</v>
       </c>
       <c r="B128" t="s">
         <v>4</v>
@@ -2177,12 +2177,12 @@
         <v>8</v>
       </c>
       <c r="D128" t="n">
-        <v>21.90875</v>
+        <v>21.8948214285714</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>44578</v>
+        <v>44575</v>
       </c>
       <c r="B129" t="s">
         <v>4</v>
@@ -2191,12 +2191,12 @@
         <v>8</v>
       </c>
       <c r="D129" t="n">
-        <v>21.8944642857143</v>
+        <v>21.9010714285714</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>44579</v>
+        <v>44576</v>
       </c>
       <c r="B130" t="s">
         <v>4</v>
@@ -2205,12 +2205,12 @@
         <v>8</v>
       </c>
       <c r="D130" t="n">
-        <v>21.9283928571429</v>
+        <v>21.9028571428571</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>44580</v>
+        <v>44577</v>
       </c>
       <c r="B131" t="s">
         <v>4</v>
@@ -2219,12 +2219,12 @@
         <v>8</v>
       </c>
       <c r="D131" t="n">
-        <v>21.9244642857143</v>
+        <v>21.90875</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>44581</v>
+        <v>44578</v>
       </c>
       <c r="B132" t="s">
         <v>4</v>
@@ -2233,12 +2233,12 @@
         <v>8</v>
       </c>
       <c r="D132" t="n">
-        <v>21.9325</v>
+        <v>21.8944642857143</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>44582</v>
+        <v>44579</v>
       </c>
       <c r="B133" t="s">
         <v>4</v>
@@ -2247,12 +2247,12 @@
         <v>8</v>
       </c>
       <c r="D133" t="n">
-        <v>21.9405357142857</v>
+        <v>21.9283928571429</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>44583</v>
+        <v>44580</v>
       </c>
       <c r="B134" t="s">
         <v>4</v>
@@ -2261,12 +2261,12 @@
         <v>8</v>
       </c>
       <c r="D134" t="n">
-        <v>21.9471428571429</v>
+        <v>21.9244642857143</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>44584</v>
+        <v>44581</v>
       </c>
       <c r="B135" t="s">
         <v>4</v>
@@ -2275,12 +2275,12 @@
         <v>8</v>
       </c>
       <c r="D135" t="n">
-        <v>21.9519642857143</v>
+        <v>21.9325</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>44585</v>
+        <v>44582</v>
       </c>
       <c r="B136" t="s">
         <v>4</v>
@@ -2289,12 +2289,12 @@
         <v>8</v>
       </c>
       <c r="D136" t="n">
-        <v>21.9376785714286</v>
+        <v>21.9405357142857</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>44586</v>
+        <v>44583</v>
       </c>
       <c r="B137" t="s">
         <v>4</v>
@@ -2303,12 +2303,12 @@
         <v>8</v>
       </c>
       <c r="D137" t="n">
-        <v>21.95375</v>
+        <v>21.9471428571429</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>44587</v>
+        <v>44584</v>
       </c>
       <c r="B138" t="s">
         <v>4</v>
@@ -2317,12 +2317,12 @@
         <v>8</v>
       </c>
       <c r="D138" t="n">
-        <v>21.9694642857143</v>
+        <v>21.9519642857143</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>44588</v>
+        <v>44585</v>
       </c>
       <c r="B139" t="s">
         <v>4</v>
@@ -2331,12 +2331,12 @@
         <v>8</v>
       </c>
       <c r="D139" t="n">
-        <v>21.9648214285714</v>
+        <v>21.9376785714286</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>44589</v>
+        <v>44586</v>
       </c>
       <c r="B140" t="s">
         <v>4</v>
@@ -2345,12 +2345,12 @@
         <v>8</v>
       </c>
       <c r="D140" t="n">
-        <v>21.9683928571429</v>
+        <v>21.95375</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>44590</v>
+        <v>44587</v>
       </c>
       <c r="B141" t="s">
         <v>4</v>
@@ -2359,12 +2359,12 @@
         <v>8</v>
       </c>
       <c r="D141" t="n">
-        <v>21.9635714285714</v>
+        <v>21.9694642857143</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>44591</v>
+        <v>44588</v>
       </c>
       <c r="B142" t="s">
         <v>4</v>
@@ -2373,12 +2373,12 @@
         <v>8</v>
       </c>
       <c r="D142" t="n">
-        <v>21.9780357142857</v>
+        <v>21.9648214285714</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>44592</v>
+        <v>44589</v>
       </c>
       <c r="B143" t="s">
         <v>4</v>
@@ -2387,12 +2387,12 @@
         <v>8</v>
       </c>
       <c r="D143" t="n">
-        <v>21.96375</v>
+        <v>21.9683928571429</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>44593</v>
+        <v>44590</v>
       </c>
       <c r="B144" t="s">
         <v>4</v>
@@ -2401,12 +2401,12 @@
         <v>8</v>
       </c>
       <c r="D144" t="n">
-        <v>21.9780357142857</v>
+        <v>21.9635714285714</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>44594</v>
+        <v>44591</v>
       </c>
       <c r="B145" t="s">
         <v>4</v>
@@ -2415,12 +2415,12 @@
         <v>8</v>
       </c>
       <c r="D145" t="n">
-        <v>22.0108928571429</v>
+        <v>21.9780357142857</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>44595</v>
+        <v>44592</v>
       </c>
       <c r="B146" t="s">
         <v>4</v>
@@ -2429,12 +2429,12 @@
         <v>8</v>
       </c>
       <c r="D146" t="n">
-        <v>22.0060714285714</v>
+        <v>21.96375</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>44596</v>
+        <v>44593</v>
       </c>
       <c r="B147" t="s">
         <v>4</v>
@@ -2443,12 +2443,12 @@
         <v>8</v>
       </c>
       <c r="D147" t="n">
-        <v>22.0426785714286</v>
+        <v>21.9780357142857</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>44597</v>
+        <v>44594</v>
       </c>
       <c r="B148" t="s">
         <v>4</v>
@@ -2457,12 +2457,12 @@
         <v>8</v>
       </c>
       <c r="D148" t="n">
-        <v>22.0478571428571</v>
+        <v>22.0108928571429</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>44598</v>
+        <v>44595</v>
       </c>
       <c r="B149" t="s">
         <v>4</v>
@@ -2471,68 +2471,68 @@
         <v>8</v>
       </c>
       <c r="D149" t="n">
-        <v>22.0578571428571</v>
+        <v>22.0060714285714</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>44562</v>
+        <v>44596</v>
       </c>
       <c r="B150" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C150" t="s">
         <v>8</v>
       </c>
       <c r="D150" t="n">
-        <v>23.1053968253968</v>
+        <v>22.0426785714286</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>44563</v>
+        <v>44597</v>
       </c>
       <c r="B151" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C151" t="s">
         <v>8</v>
       </c>
       <c r="D151" t="n">
-        <v>23.1303174603175</v>
+        <v>22.0478571428571</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>44564</v>
+        <v>44598</v>
       </c>
       <c r="B152" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C152" t="s">
         <v>8</v>
       </c>
       <c r="D152" t="n">
-        <v>23.1181746031746</v>
+        <v>22.0578571428571</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>44565</v>
+        <v>44599</v>
       </c>
       <c r="B153" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C153" t="s">
         <v>8</v>
       </c>
       <c r="D153" t="n">
-        <v>23.1251587301587</v>
+        <v>22.0489285714286</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>44566</v>
+        <v>44562</v>
       </c>
       <c r="B154" t="s">
         <v>6</v>
@@ -2541,12 +2541,12 @@
         <v>8</v>
       </c>
       <c r="D154" t="n">
-        <v>23.1421428571429</v>
+        <v>23.1053968253968</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>44567</v>
+        <v>44563</v>
       </c>
       <c r="B155" t="s">
         <v>6</v>
@@ -2555,12 +2555,12 @@
         <v>8</v>
       </c>
       <c r="D155" t="n">
-        <v>23.1629365079365</v>
+        <v>23.1303174603175</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>44568</v>
+        <v>44564</v>
       </c>
       <c r="B156" t="s">
         <v>6</v>
@@ -2569,12 +2569,12 @@
         <v>8</v>
       </c>
       <c r="D156" t="n">
-        <v>23.1716666666667</v>
+        <v>23.1181746031746</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>44569</v>
+        <v>44565</v>
       </c>
       <c r="B157" t="s">
         <v>6</v>
@@ -2583,12 +2583,12 @@
         <v>8</v>
       </c>
       <c r="D157" t="n">
-        <v>23.1869841269841</v>
+        <v>23.1251587301587</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>44570</v>
+        <v>44566</v>
       </c>
       <c r="B158" t="s">
         <v>6</v>
@@ -2597,12 +2597,12 @@
         <v>8</v>
       </c>
       <c r="D158" t="n">
-        <v>23.1927777777778</v>
+        <v>23.1421428571429</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>44571</v>
+        <v>44567</v>
       </c>
       <c r="B159" t="s">
         <v>6</v>
@@ -2611,12 +2611,12 @@
         <v>8</v>
       </c>
       <c r="D159" t="n">
-        <v>23.195873015873</v>
+        <v>23.1629365079365</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>44572</v>
+        <v>44568</v>
       </c>
       <c r="B160" t="s">
         <v>6</v>
@@ -2625,12 +2625,12 @@
         <v>8</v>
       </c>
       <c r="D160" t="n">
-        <v>23.1703968253968</v>
+        <v>23.1716666666667</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>44573</v>
+        <v>44569</v>
       </c>
       <c r="B161" t="s">
         <v>6</v>
@@ -2639,12 +2639,12 @@
         <v>8</v>
       </c>
       <c r="D161" t="n">
-        <v>23.2097619047619</v>
+        <v>23.1869841269841</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>44574</v>
+        <v>44570</v>
       </c>
       <c r="B162" t="s">
         <v>6</v>
@@ -2653,12 +2653,12 @@
         <v>8</v>
       </c>
       <c r="D162" t="n">
-        <v>23.2205555555556</v>
+        <v>23.1927777777778</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>44575</v>
+        <v>44571</v>
       </c>
       <c r="B163" t="s">
         <v>6</v>
@@ -2667,12 +2667,12 @@
         <v>8</v>
       </c>
       <c r="D163" t="n">
-        <v>23.2261111111111</v>
+        <v>23.195873015873</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>44576</v>
+        <v>44572</v>
       </c>
       <c r="B164" t="s">
         <v>6</v>
@@ -2681,12 +2681,12 @@
         <v>8</v>
       </c>
       <c r="D164" t="n">
-        <v>23.2265873015873</v>
+        <v>23.1703968253968</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>44577</v>
+        <v>44573</v>
       </c>
       <c r="B165" t="s">
         <v>6</v>
@@ -2695,12 +2695,12 @@
         <v>8</v>
       </c>
       <c r="D165" t="n">
-        <v>23.2284126984127</v>
+        <v>23.2097619047619</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>44578</v>
+        <v>44574</v>
       </c>
       <c r="B166" t="s">
         <v>6</v>
@@ -2709,12 +2709,12 @@
         <v>8</v>
       </c>
       <c r="D166" t="n">
-        <v>23.2296825396825</v>
+        <v>23.2205555555556</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>44579</v>
+        <v>44575</v>
       </c>
       <c r="B167" t="s">
         <v>6</v>
@@ -2723,12 +2723,12 @@
         <v>8</v>
       </c>
       <c r="D167" t="n">
-        <v>23.2337301587302</v>
+        <v>23.2261111111111</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>44580</v>
+        <v>44576</v>
       </c>
       <c r="B168" t="s">
         <v>6</v>
@@ -2737,12 +2737,12 @@
         <v>8</v>
       </c>
       <c r="D168" t="n">
-        <v>23.2570634920635</v>
+        <v>23.2265873015873</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>44581</v>
+        <v>44577</v>
       </c>
       <c r="B169" t="s">
         <v>6</v>
@@ -2751,12 +2751,12 @@
         <v>8</v>
       </c>
       <c r="D169" t="n">
-        <v>23.2701587301587</v>
+        <v>23.2284126984127</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>44582</v>
+        <v>44578</v>
       </c>
       <c r="B170" t="s">
         <v>6</v>
@@ -2765,12 +2765,12 @@
         <v>8</v>
       </c>
       <c r="D170" t="n">
-        <v>23.2738888888889</v>
+        <v>23.2296825396825</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>44583</v>
+        <v>44579</v>
       </c>
       <c r="B171" t="s">
         <v>6</v>
@@ -2779,12 +2779,12 @@
         <v>8</v>
       </c>
       <c r="D171" t="n">
-        <v>23.2864285714286</v>
+        <v>23.2337301587302</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>44584</v>
+        <v>44580</v>
       </c>
       <c r="B172" t="s">
         <v>6</v>
@@ -2793,12 +2793,12 @@
         <v>8</v>
       </c>
       <c r="D172" t="n">
-        <v>23.2903174603175</v>
+        <v>23.2570634920635</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>44585</v>
+        <v>44581</v>
       </c>
       <c r="B173" t="s">
         <v>6</v>
@@ -2807,12 +2807,12 @@
         <v>8</v>
       </c>
       <c r="D173" t="n">
-        <v>23.2895238095238</v>
+        <v>23.2701587301587</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>44586</v>
+        <v>44582</v>
       </c>
       <c r="B174" t="s">
         <v>6</v>
@@ -2821,12 +2821,12 @@
         <v>8</v>
       </c>
       <c r="D174" t="n">
-        <v>23.2953968253968</v>
+        <v>23.2738888888889</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>44587</v>
+        <v>44583</v>
       </c>
       <c r="B175" t="s">
         <v>6</v>
@@ -2835,12 +2835,12 @@
         <v>8</v>
       </c>
       <c r="D175" t="n">
-        <v>23.3019047619048</v>
+        <v>23.2864285714286</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>44588</v>
+        <v>44584</v>
       </c>
       <c r="B176" t="s">
         <v>6</v>
@@ -2849,12 +2849,12 @@
         <v>8</v>
       </c>
       <c r="D176" t="n">
-        <v>23.3071428571429</v>
+        <v>23.2903174603175</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>44589</v>
+        <v>44585</v>
       </c>
       <c r="B177" t="s">
         <v>6</v>
@@ -2863,12 +2863,12 @@
         <v>8</v>
       </c>
       <c r="D177" t="n">
-        <v>23.3089682539683</v>
+        <v>23.2895238095238</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
-        <v>44590</v>
+        <v>44586</v>
       </c>
       <c r="B178" t="s">
         <v>6</v>
@@ -2877,12 +2877,12 @@
         <v>8</v>
       </c>
       <c r="D178" t="n">
-        <v>23.3001587301587</v>
+        <v>23.2953968253968</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
-        <v>44591</v>
+        <v>44587</v>
       </c>
       <c r="B179" t="s">
         <v>6</v>
@@ -2891,12 +2891,12 @@
         <v>8</v>
       </c>
       <c r="D179" t="n">
-        <v>23.3194444444444</v>
+        <v>23.3019047619048</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>44592</v>
+        <v>44588</v>
       </c>
       <c r="B180" t="s">
         <v>6</v>
@@ -2905,12 +2905,12 @@
         <v>8</v>
       </c>
       <c r="D180" t="n">
-        <v>23.3202380952381</v>
+        <v>23.3071428571429</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
-        <v>44593</v>
+        <v>44589</v>
       </c>
       <c r="B181" t="s">
         <v>6</v>
@@ -2919,12 +2919,12 @@
         <v>8</v>
       </c>
       <c r="D181" t="n">
-        <v>23.3429365079365</v>
+        <v>23.3089682539683</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
-        <v>44594</v>
+        <v>44590</v>
       </c>
       <c r="B182" t="s">
         <v>6</v>
@@ -2933,12 +2933,12 @@
         <v>8</v>
       </c>
       <c r="D182" t="n">
-        <v>23.3310317460317</v>
+        <v>23.3001587301587</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
-        <v>44595</v>
+        <v>44591</v>
       </c>
       <c r="B183" t="s">
         <v>6</v>
@@ -2947,12 +2947,12 @@
         <v>8</v>
       </c>
       <c r="D183" t="n">
-        <v>23.3405555555556</v>
+        <v>23.3194444444444</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
-        <v>44596</v>
+        <v>44592</v>
       </c>
       <c r="B184" t="s">
         <v>6</v>
@@ -2961,12 +2961,12 @@
         <v>8</v>
       </c>
       <c r="D184" t="n">
-        <v>23.3464285714286</v>
+        <v>23.3202380952381</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>44597</v>
+        <v>44593</v>
       </c>
       <c r="B185" t="s">
         <v>6</v>
@@ -2975,12 +2975,12 @@
         <v>8</v>
       </c>
       <c r="D185" t="n">
-        <v>23.3511904761905</v>
+        <v>23.3429365079365</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>44598</v>
+        <v>44594</v>
       </c>
       <c r="B186" t="s">
         <v>6</v>
@@ -2989,82 +2989,82 @@
         <v>8</v>
       </c>
       <c r="D186" t="n">
-        <v>23.3552380952381</v>
+        <v>23.3310317460317</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
-        <v>44562</v>
+        <v>44595</v>
       </c>
       <c r="B187" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C187" t="s">
         <v>8</v>
       </c>
       <c r="D187" t="n">
-        <v>20.898992248062</v>
+        <v>23.3405555555556</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
-        <v>44563</v>
+        <v>44596</v>
       </c>
       <c r="B188" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C188" t="s">
         <v>8</v>
       </c>
       <c r="D188" t="n">
-        <v>20.9282170542636</v>
+        <v>23.3464285714286</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
-        <v>44564</v>
+        <v>44597</v>
       </c>
       <c r="B189" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C189" t="s">
         <v>8</v>
       </c>
       <c r="D189" t="n">
-        <v>20.9231782945736</v>
+        <v>23.3511904761905</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
-        <v>44565</v>
+        <v>44598</v>
       </c>
       <c r="B190" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C190" t="s">
         <v>8</v>
       </c>
       <c r="D190" t="n">
-        <v>20.9351937984496</v>
+        <v>23.3552380952381</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
-        <v>44566</v>
+        <v>44599</v>
       </c>
       <c r="B191" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C191" t="s">
         <v>8</v>
       </c>
       <c r="D191" t="n">
-        <v>20.9878294573643</v>
+        <v>23.3560317460317</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
-        <v>44567</v>
+        <v>44562</v>
       </c>
       <c r="B192" t="s">
         <v>7</v>
@@ -3073,12 +3073,12 @@
         <v>8</v>
       </c>
       <c r="D192" t="n">
-        <v>21.0073643410853</v>
+        <v>20.898992248062</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
-        <v>44568</v>
+        <v>44563</v>
       </c>
       <c r="B193" t="s">
         <v>7</v>
@@ -3087,12 +3087,12 @@
         <v>8</v>
       </c>
       <c r="D193" t="n">
-        <v>21.0072868217054</v>
+        <v>20.9282170542636</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
-        <v>44569</v>
+        <v>44564</v>
       </c>
       <c r="B194" t="s">
         <v>7</v>
@@ -3101,12 +3101,12 @@
         <v>8</v>
       </c>
       <c r="D194" t="n">
-        <v>21.0057364341085</v>
+        <v>20.9231782945736</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
-        <v>44570</v>
+        <v>44565</v>
       </c>
       <c r="B195" t="s">
         <v>7</v>
@@ -3115,12 +3115,12 @@
         <v>8</v>
       </c>
       <c r="D195" t="n">
-        <v>20.9878294573643</v>
+        <v>20.9351937984496</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
-        <v>44571</v>
+        <v>44566</v>
       </c>
       <c r="B196" t="s">
         <v>7</v>
@@ -3129,12 +3129,12 @@
         <v>8</v>
       </c>
       <c r="D196" t="n">
-        <v>20.9848062015504</v>
+        <v>20.9878294573643</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
-        <v>44572</v>
+        <v>44567</v>
       </c>
       <c r="B197" t="s">
         <v>7</v>
@@ -3143,12 +3143,12 @@
         <v>8</v>
       </c>
       <c r="D197" t="n">
-        <v>20.9837984496124</v>
+        <v>21.0073643410853</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
-        <v>44573</v>
+        <v>44568</v>
       </c>
       <c r="B198" t="s">
         <v>7</v>
@@ -3157,12 +3157,12 @@
         <v>8</v>
       </c>
       <c r="D198" t="n">
-        <v>20.9815503875969</v>
+        <v>21.0072868217054</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
-        <v>44574</v>
+        <v>44569</v>
       </c>
       <c r="B199" t="s">
         <v>7</v>
@@ -3171,12 +3171,12 @@
         <v>8</v>
       </c>
       <c r="D199" t="n">
-        <v>20.9628682170543</v>
+        <v>21.0057364341085</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
-        <v>44575</v>
+        <v>44570</v>
       </c>
       <c r="B200" t="s">
         <v>7</v>
@@ -3185,12 +3185,12 @@
         <v>8</v>
       </c>
       <c r="D200" t="n">
-        <v>20.9932558139535</v>
+        <v>20.9878294573643</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
-        <v>44576</v>
+        <v>44571</v>
       </c>
       <c r="B201" t="s">
         <v>7</v>
@@ -3199,12 +3199,12 @@
         <v>8</v>
       </c>
       <c r="D201" t="n">
-        <v>20.9991472868217</v>
+        <v>20.9848062015504</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
-        <v>44577</v>
+        <v>44572</v>
       </c>
       <c r="B202" t="s">
         <v>7</v>
@@ -3213,12 +3213,12 @@
         <v>8</v>
       </c>
       <c r="D202" t="n">
-        <v>20.9958914728682</v>
+        <v>20.9837984496124</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
-        <v>44578</v>
+        <v>44573</v>
       </c>
       <c r="B203" t="s">
         <v>7</v>
@@ -3227,12 +3227,12 @@
         <v>8</v>
       </c>
       <c r="D203" t="n">
-        <v>20.9891472868217</v>
+        <v>20.9815503875969</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
-        <v>44579</v>
+        <v>44574</v>
       </c>
       <c r="B204" t="s">
         <v>7</v>
@@ -3241,12 +3241,12 @@
         <v>8</v>
       </c>
       <c r="D204" t="n">
-        <v>21.0002325581395</v>
+        <v>20.9628682170543</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
-        <v>44580</v>
+        <v>44575</v>
       </c>
       <c r="B205" t="s">
         <v>7</v>
@@ -3255,12 +3255,12 @@
         <v>8</v>
       </c>
       <c r="D205" t="n">
-        <v>21.0181395348837</v>
+        <v>20.9932558139535</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
-        <v>44581</v>
+        <v>44576</v>
       </c>
       <c r="B206" t="s">
         <v>7</v>
@@ -3269,12 +3269,12 @@
         <v>8</v>
       </c>
       <c r="D206" t="n">
-        <v>21.026976744186</v>
+        <v>20.9991472868217</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
-        <v>44582</v>
+        <v>44577</v>
       </c>
       <c r="B207" t="s">
         <v>7</v>
@@ -3283,12 +3283,12 @@
         <v>8</v>
       </c>
       <c r="D207" t="n">
-        <v>21.0304651162791</v>
+        <v>20.9958914728682</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
-        <v>44583</v>
+        <v>44578</v>
       </c>
       <c r="B208" t="s">
         <v>7</v>
@@ -3297,12 +3297,12 @@
         <v>8</v>
       </c>
       <c r="D208" t="n">
-        <v>21.0454263565891</v>
+        <v>20.9891472868217</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
-        <v>44584</v>
+        <v>44579</v>
       </c>
       <c r="B209" t="s">
         <v>7</v>
@@ -3311,12 +3311,12 @@
         <v>8</v>
       </c>
       <c r="D209" t="n">
-        <v>21.0455813953488</v>
+        <v>21.0002325581395</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
-        <v>44585</v>
+        <v>44580</v>
       </c>
       <c r="B210" t="s">
         <v>7</v>
@@ -3325,12 +3325,12 @@
         <v>8</v>
       </c>
       <c r="D210" t="n">
-        <v>21.0408527131783</v>
+        <v>21.0181395348837</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
-        <v>44586</v>
+        <v>44581</v>
       </c>
       <c r="B211" t="s">
         <v>7</v>
@@ -3339,12 +3339,12 @@
         <v>8</v>
       </c>
       <c r="D211" t="n">
-        <v>21.0537984496124</v>
+        <v>21.026976744186</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
-        <v>44587</v>
+        <v>44582</v>
       </c>
       <c r="B212" t="s">
         <v>7</v>
@@ -3353,12 +3353,12 @@
         <v>8</v>
       </c>
       <c r="D212" t="n">
-        <v>21.0571317829457</v>
+        <v>21.0304651162791</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
-        <v>44588</v>
+        <v>44583</v>
       </c>
       <c r="B213" t="s">
         <v>7</v>
@@ -3367,12 +3367,12 @@
         <v>8</v>
       </c>
       <c r="D213" t="n">
-        <v>21.063488372093</v>
+        <v>21.0454263565891</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
-        <v>44589</v>
+        <v>44584</v>
       </c>
       <c r="B214" t="s">
         <v>7</v>
@@ -3381,12 +3381,12 @@
         <v>8</v>
       </c>
       <c r="D214" t="n">
-        <v>21.0696899224806</v>
+        <v>21.0455813953488</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
-        <v>44590</v>
+        <v>44585</v>
       </c>
       <c r="B215" t="s">
         <v>7</v>
@@ -3395,12 +3395,12 @@
         <v>8</v>
       </c>
       <c r="D215" t="n">
-        <v>21.0715503875969</v>
+        <v>21.0408527131783</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
-        <v>44591</v>
+        <v>44586</v>
       </c>
       <c r="B216" t="s">
         <v>7</v>
@@ -3409,12 +3409,12 @@
         <v>8</v>
       </c>
       <c r="D216" t="n">
-        <v>21.0771317829457</v>
+        <v>21.0537984496124</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
-        <v>44592</v>
+        <v>44587</v>
       </c>
       <c r="B217" t="s">
         <v>7</v>
@@ -3423,12 +3423,12 @@
         <v>8</v>
       </c>
       <c r="D217" t="n">
-        <v>21.0759689922481</v>
+        <v>21.0571317829457</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
-        <v>44593</v>
+        <v>44588</v>
       </c>
       <c r="B218" t="s">
         <v>7</v>
@@ -3437,12 +3437,12 @@
         <v>8</v>
       </c>
       <c r="D218" t="n">
-        <v>21.0853488372093</v>
+        <v>21.063488372093</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
-        <v>44594</v>
+        <v>44589</v>
       </c>
       <c r="B219" t="s">
         <v>7</v>
@@ -3451,12 +3451,12 @@
         <v>8</v>
       </c>
       <c r="D219" t="n">
-        <v>21.0791472868217</v>
+        <v>21.0696899224806</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
-        <v>44595</v>
+        <v>44590</v>
       </c>
       <c r="B220" t="s">
         <v>7</v>
@@ -3465,12 +3465,12 @@
         <v>8</v>
       </c>
       <c r="D220" t="n">
-        <v>21.0796124031008</v>
+        <v>21.0715503875969</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
-        <v>44596</v>
+        <v>44591</v>
       </c>
       <c r="B221" t="s">
         <v>7</v>
@@ -3479,12 +3479,12 @@
         <v>8</v>
       </c>
       <c r="D221" t="n">
-        <v>21.0876744186046</v>
+        <v>21.0771317829457</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
-        <v>44597</v>
+        <v>44592</v>
       </c>
       <c r="B222" t="s">
         <v>7</v>
@@ -3493,12 +3493,12 @@
         <v>8</v>
       </c>
       <c r="D222" t="n">
-        <v>21.0894573643411</v>
+        <v>21.0759689922481</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
-        <v>44598</v>
+        <v>44593</v>
       </c>
       <c r="B223" t="s">
         <v>7</v>
@@ -3507,96 +3507,96 @@
         <v>8</v>
       </c>
       <c r="D223" t="n">
-        <v>21.0986046511628</v>
+        <v>21.0853488372093</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
-        <v>44562</v>
+        <v>44594</v>
       </c>
       <c r="B224" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C224" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D224" t="n">
-        <v>21.5081481481481</v>
+        <v>21.0791472868217</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
-        <v>44563</v>
+        <v>44595</v>
       </c>
       <c r="B225" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C225" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D225" t="n">
-        <v>21.512962962963</v>
+        <v>21.0796124031008</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
-        <v>44564</v>
+        <v>44596</v>
       </c>
       <c r="B226" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C226" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D226" t="n">
-        <v>21.512962962963</v>
+        <v>21.0876744186046</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
-        <v>44565</v>
+        <v>44597</v>
       </c>
       <c r="B227" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C227" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D227" t="n">
-        <v>21.5211111111111</v>
+        <v>21.0894573643411</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
-        <v>44566</v>
+        <v>44598</v>
       </c>
       <c r="B228" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C228" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D228" t="n">
-        <v>21.5598148148148</v>
+        <v>21.0986046511628</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
-        <v>44567</v>
+        <v>44599</v>
       </c>
       <c r="B229" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C229" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D229" t="n">
-        <v>21.5757407407407</v>
+        <v>21.0937984496124</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
-        <v>44568</v>
+        <v>44562</v>
       </c>
       <c r="B230" t="s">
         <v>4</v>
@@ -3605,12 +3605,12 @@
         <v>9</v>
       </c>
       <c r="D230" t="n">
-        <v>21.592962962963</v>
+        <v>21.5081481481481</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
-        <v>44569</v>
+        <v>44563</v>
       </c>
       <c r="B231" t="s">
         <v>4</v>
@@ -3619,12 +3619,12 @@
         <v>9</v>
       </c>
       <c r="D231" t="n">
-        <v>21.6074074074074</v>
+        <v>21.512962962963</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
-        <v>44570</v>
+        <v>44564</v>
       </c>
       <c r="B232" t="s">
         <v>4</v>
@@ -3633,12 +3633,12 @@
         <v>9</v>
       </c>
       <c r="D232" t="n">
-        <v>21.6264814814815</v>
+        <v>21.512962962963</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
-        <v>44571</v>
+        <v>44565</v>
       </c>
       <c r="B233" t="s">
         <v>4</v>
@@ -3647,12 +3647,12 @@
         <v>9</v>
       </c>
       <c r="D233" t="n">
-        <v>21.6264814814815</v>
+        <v>21.5211111111111</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
-        <v>44572</v>
+        <v>44566</v>
       </c>
       <c r="B234" t="s">
         <v>4</v>
@@ -3661,12 +3661,12 @@
         <v>9</v>
       </c>
       <c r="D234" t="n">
-        <v>21.6264814814815</v>
+        <v>21.5598148148148</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
-        <v>44573</v>
+        <v>44567</v>
       </c>
       <c r="B235" t="s">
         <v>4</v>
@@ -3675,12 +3675,12 @@
         <v>9</v>
       </c>
       <c r="D235" t="n">
-        <v>21.6377777777778</v>
+        <v>21.5757407407407</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
-        <v>44574</v>
+        <v>44568</v>
       </c>
       <c r="B236" t="s">
         <v>4</v>
@@ -3689,12 +3689,12 @@
         <v>9</v>
       </c>
       <c r="D236" t="n">
-        <v>21.6598148148148</v>
+        <v>21.592962962963</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
-        <v>44575</v>
+        <v>44569</v>
       </c>
       <c r="B237" t="s">
         <v>4</v>
@@ -3703,12 +3703,12 @@
         <v>9</v>
       </c>
       <c r="D237" t="n">
-        <v>21.6805555555556</v>
+        <v>21.6074074074074</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
-        <v>44576</v>
+        <v>44570</v>
       </c>
       <c r="B238" t="s">
         <v>4</v>
@@ -3717,12 +3717,12 @@
         <v>9</v>
       </c>
       <c r="D238" t="n">
-        <v>21.682037037037</v>
+        <v>21.6264814814815</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
-        <v>44577</v>
+        <v>44571</v>
       </c>
       <c r="B239" t="s">
         <v>4</v>
@@ -3731,12 +3731,12 @@
         <v>9</v>
       </c>
       <c r="D239" t="n">
-        <v>21.6875925925926</v>
+        <v>21.6264814814815</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
-        <v>44578</v>
+        <v>44572</v>
       </c>
       <c r="B240" t="s">
         <v>4</v>
@@ -3745,12 +3745,12 @@
         <v>9</v>
       </c>
       <c r="D240" t="n">
-        <v>21.6875925925926</v>
+        <v>21.6264814814815</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
-        <v>44579</v>
+        <v>44573</v>
       </c>
       <c r="B241" t="s">
         <v>4</v>
@@ -3759,12 +3759,12 @@
         <v>9</v>
       </c>
       <c r="D241" t="n">
-        <v>21.6912962962963</v>
+        <v>21.6377777777778</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
-        <v>44580</v>
+        <v>44574</v>
       </c>
       <c r="B242" t="s">
         <v>4</v>
@@ -3773,12 +3773,12 @@
         <v>9</v>
       </c>
       <c r="D242" t="n">
-        <v>21.6972222222222</v>
+        <v>21.6598148148148</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
-        <v>44581</v>
+        <v>44575</v>
       </c>
       <c r="B243" t="s">
         <v>4</v>
@@ -3787,12 +3787,12 @@
         <v>9</v>
       </c>
       <c r="D243" t="n">
-        <v>21.6972222222222</v>
+        <v>21.6805555555556</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
-        <v>44582</v>
+        <v>44576</v>
       </c>
       <c r="B244" t="s">
         <v>4</v>
@@ -3801,12 +3801,12 @@
         <v>9</v>
       </c>
       <c r="D244" t="n">
-        <v>21.7133333333333</v>
+        <v>21.682037037037</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
-        <v>44583</v>
+        <v>44577</v>
       </c>
       <c r="B245" t="s">
         <v>4</v>
@@ -3815,12 +3815,12 @@
         <v>9</v>
       </c>
       <c r="D245" t="n">
-        <v>21.72</v>
+        <v>21.6875925925926</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
-        <v>44584</v>
+        <v>44578</v>
       </c>
       <c r="B246" t="s">
         <v>4</v>
@@ -3829,12 +3829,12 @@
         <v>9</v>
       </c>
       <c r="D246" t="n">
-        <v>21.7237037037037</v>
+        <v>21.6875925925926</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
-        <v>44585</v>
+        <v>44579</v>
       </c>
       <c r="B247" t="s">
         <v>4</v>
@@ -3843,12 +3843,12 @@
         <v>9</v>
       </c>
       <c r="D247" t="n">
-        <v>21.7274074074074</v>
+        <v>21.6912962962963</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
-        <v>44586</v>
+        <v>44580</v>
       </c>
       <c r="B248" t="s">
         <v>4</v>
@@ -3857,12 +3857,12 @@
         <v>9</v>
       </c>
       <c r="D248" t="n">
-        <v>21.7274074074074</v>
+        <v>21.6972222222222</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
-        <v>44587</v>
+        <v>44581</v>
       </c>
       <c r="B249" t="s">
         <v>4</v>
@@ -3871,12 +3871,12 @@
         <v>9</v>
       </c>
       <c r="D249" t="n">
-        <v>21.7307407407407</v>
+        <v>21.6972222222222</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
-        <v>44588</v>
+        <v>44582</v>
       </c>
       <c r="B250" t="s">
         <v>4</v>
@@ -3885,12 +3885,12 @@
         <v>9</v>
       </c>
       <c r="D250" t="n">
-        <v>21.7424074074074</v>
+        <v>21.7133333333333</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
-        <v>44589</v>
+        <v>44583</v>
       </c>
       <c r="B251" t="s">
         <v>4</v>
@@ -3899,12 +3899,12 @@
         <v>9</v>
       </c>
       <c r="D251" t="n">
-        <v>21.7651851851852</v>
+        <v>21.72</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
-        <v>44590</v>
+        <v>44584</v>
       </c>
       <c r="B252" t="s">
         <v>4</v>
@@ -3913,12 +3913,12 @@
         <v>9</v>
       </c>
       <c r="D252" t="n">
-        <v>21.7692592592593</v>
+        <v>21.7237037037037</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
-        <v>44591</v>
+        <v>44585</v>
       </c>
       <c r="B253" t="s">
         <v>4</v>
@@ -3927,12 +3927,12 @@
         <v>9</v>
       </c>
       <c r="D253" t="n">
-        <v>21.7798148148148</v>
+        <v>21.7274074074074</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
-        <v>44592</v>
+        <v>44586</v>
       </c>
       <c r="B254" t="s">
         <v>4</v>
@@ -3941,12 +3941,12 @@
         <v>9</v>
       </c>
       <c r="D254" t="n">
-        <v>21.7798148148148</v>
+        <v>21.7274074074074</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
-        <v>44593</v>
+        <v>44587</v>
       </c>
       <c r="B255" t="s">
         <v>4</v>
@@ -3955,12 +3955,12 @@
         <v>9</v>
       </c>
       <c r="D255" t="n">
-        <v>21.7853703703704</v>
+        <v>21.7307407407407</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
-        <v>44594</v>
+        <v>44588</v>
       </c>
       <c r="B256" t="s">
         <v>4</v>
@@ -3969,12 +3969,12 @@
         <v>9</v>
       </c>
       <c r="D256" t="n">
-        <v>21.7927777777778</v>
+        <v>21.7424074074074</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
-        <v>44595</v>
+        <v>44589</v>
       </c>
       <c r="B257" t="s">
         <v>4</v>
@@ -3983,12 +3983,12 @@
         <v>9</v>
       </c>
       <c r="D257" t="n">
-        <v>21.7927777777778</v>
+        <v>21.7651851851852</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
-        <v>44596</v>
+        <v>44590</v>
       </c>
       <c r="B258" t="s">
         <v>4</v>
@@ -3997,12 +3997,12 @@
         <v>9</v>
       </c>
       <c r="D258" t="n">
-        <v>21.8001851851852</v>
+        <v>21.7692592592593</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
-        <v>44597</v>
+        <v>44591</v>
       </c>
       <c r="B259" t="s">
         <v>4</v>
@@ -4011,12 +4011,12 @@
         <v>9</v>
       </c>
       <c r="D259" t="n">
-        <v>21.7961111111111</v>
+        <v>21.7798148148148</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
-        <v>44598</v>
+        <v>44592</v>
       </c>
       <c r="B260" t="s">
         <v>4</v>
@@ -4025,110 +4025,110 @@
         <v>9</v>
       </c>
       <c r="D260" t="n">
-        <v>21.8046296296296</v>
+        <v>21.7798148148148</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="B261" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C261" t="s">
         <v>9</v>
       </c>
       <c r="D261" t="n">
-        <v>22.91859375</v>
+        <v>21.7853703703704</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
-        <v>44563</v>
+        <v>44594</v>
       </c>
       <c r="B262" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C262" t="s">
         <v>9</v>
       </c>
       <c r="D262" t="n">
-        <v>22.91796875</v>
+        <v>21.7927777777778</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
-        <v>44564</v>
+        <v>44595</v>
       </c>
       <c r="B263" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C263" t="s">
         <v>9</v>
       </c>
       <c r="D263" t="n">
-        <v>22.91796875</v>
+        <v>21.7927777777778</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
-        <v>44565</v>
+        <v>44596</v>
       </c>
       <c r="B264" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C264" t="s">
         <v>9</v>
       </c>
       <c r="D264" t="n">
-        <v>22.92109375</v>
+        <v>21.8001851851852</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
-        <v>44566</v>
+        <v>44597</v>
       </c>
       <c r="B265" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C265" t="s">
         <v>9</v>
       </c>
       <c r="D265" t="n">
-        <v>22.93453125</v>
+        <v>21.7961111111111</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
-        <v>44567</v>
+        <v>44598</v>
       </c>
       <c r="B266" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C266" t="s">
         <v>9</v>
       </c>
       <c r="D266" t="n">
-        <v>22.96671875</v>
+        <v>21.8046296296296</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
-        <v>44568</v>
+        <v>44599</v>
       </c>
       <c r="B267" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C267" t="s">
         <v>9</v>
       </c>
       <c r="D267" t="n">
-        <v>22.98828125</v>
+        <v>21.8046296296296</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
-        <v>44569</v>
+        <v>44562</v>
       </c>
       <c r="B268" t="s">
         <v>6</v>
@@ -4137,12 +4137,12 @@
         <v>9</v>
       </c>
       <c r="D268" t="n">
-        <v>23.00359375</v>
+        <v>22.91859375</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
-        <v>44570</v>
+        <v>44563</v>
       </c>
       <c r="B269" t="s">
         <v>6</v>
@@ -4151,12 +4151,12 @@
         <v>9</v>
       </c>
       <c r="D269" t="n">
-        <v>23.02234375</v>
+        <v>22.91796875</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
-        <v>44571</v>
+        <v>44564</v>
       </c>
       <c r="B270" t="s">
         <v>6</v>
@@ -4165,12 +4165,12 @@
         <v>9</v>
       </c>
       <c r="D270" t="n">
-        <v>23.02234375</v>
+        <v>22.91796875</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
-        <v>44572</v>
+        <v>44565</v>
       </c>
       <c r="B271" t="s">
         <v>6</v>
@@ -4179,12 +4179,12 @@
         <v>9</v>
       </c>
       <c r="D271" t="n">
-        <v>23.035</v>
+        <v>22.92109375</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
-        <v>44573</v>
+        <v>44566</v>
       </c>
       <c r="B272" t="s">
         <v>6</v>
@@ -4193,12 +4193,12 @@
         <v>9</v>
       </c>
       <c r="D272" t="n">
-        <v>23.0515625</v>
+        <v>22.93453125</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
-        <v>44574</v>
+        <v>44567</v>
       </c>
       <c r="B273" t="s">
         <v>6</v>
@@ -4207,12 +4207,12 @@
         <v>9</v>
       </c>
       <c r="D273" t="n">
-        <v>23.0765625</v>
+        <v>22.96671875</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
-        <v>44575</v>
+        <v>44568</v>
       </c>
       <c r="B274" t="s">
         <v>6</v>
@@ -4221,12 +4221,12 @@
         <v>9</v>
       </c>
       <c r="D274" t="n">
-        <v>23.076875</v>
+        <v>22.98828125</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
-        <v>44576</v>
+        <v>44569</v>
       </c>
       <c r="B275" t="s">
         <v>6</v>
@@ -4235,12 +4235,12 @@
         <v>9</v>
       </c>
       <c r="D275" t="n">
-        <v>23.0821875</v>
+        <v>23.00359375</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
-        <v>44577</v>
+        <v>44570</v>
       </c>
       <c r="B276" t="s">
         <v>6</v>
@@ -4249,12 +4249,12 @@
         <v>9</v>
       </c>
       <c r="D276" t="n">
-        <v>23.080625</v>
+        <v>23.02234375</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
-        <v>44578</v>
+        <v>44571</v>
       </c>
       <c r="B277" t="s">
         <v>6</v>
@@ -4263,12 +4263,12 @@
         <v>9</v>
       </c>
       <c r="D277" t="n">
-        <v>23.080625</v>
+        <v>23.02234375</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
-        <v>44579</v>
+        <v>44572</v>
       </c>
       <c r="B278" t="s">
         <v>6</v>
@@ -4277,12 +4277,12 @@
         <v>9</v>
       </c>
       <c r="D278" t="n">
-        <v>23.08703125</v>
+        <v>23.035</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
-        <v>44580</v>
+        <v>44573</v>
       </c>
       <c r="B279" t="s">
         <v>6</v>
@@ -4291,12 +4291,12 @@
         <v>9</v>
       </c>
       <c r="D279" t="n">
-        <v>23.09890625</v>
+        <v>23.0515625</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
-        <v>44581</v>
+        <v>44574</v>
       </c>
       <c r="B280" t="s">
         <v>6</v>
@@ -4305,12 +4305,12 @@
         <v>9</v>
       </c>
       <c r="D280" t="n">
-        <v>23.09890625</v>
+        <v>23.0765625</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
-        <v>44582</v>
+        <v>44575</v>
       </c>
       <c r="B281" t="s">
         <v>6</v>
@@ -4319,12 +4319,12 @@
         <v>9</v>
       </c>
       <c r="D281" t="n">
-        <v>23.1109375</v>
+        <v>23.076875</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
-        <v>44583</v>
+        <v>44576</v>
       </c>
       <c r="B282" t="s">
         <v>6</v>
@@ -4333,12 +4333,12 @@
         <v>9</v>
       </c>
       <c r="D282" t="n">
-        <v>23.13921875</v>
+        <v>23.0821875</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
-        <v>44584</v>
+        <v>44577</v>
       </c>
       <c r="B283" t="s">
         <v>6</v>
@@ -4347,12 +4347,12 @@
         <v>9</v>
       </c>
       <c r="D283" t="n">
-        <v>23.1396875</v>
+        <v>23.080625</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
-        <v>44585</v>
+        <v>44578</v>
       </c>
       <c r="B284" t="s">
         <v>6</v>
@@ -4361,12 +4361,12 @@
         <v>9</v>
       </c>
       <c r="D284" t="n">
-        <v>23.1428125</v>
+        <v>23.080625</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
-        <v>44586</v>
+        <v>44579</v>
       </c>
       <c r="B285" t="s">
         <v>6</v>
@@ -4375,12 +4375,12 @@
         <v>9</v>
       </c>
       <c r="D285" t="n">
-        <v>23.14609375</v>
+        <v>23.08703125</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
-        <v>44587</v>
+        <v>44580</v>
       </c>
       <c r="B286" t="s">
         <v>6</v>
@@ -4389,12 +4389,12 @@
         <v>9</v>
       </c>
       <c r="D286" t="n">
-        <v>23.15125</v>
+        <v>23.09890625</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
-        <v>44588</v>
+        <v>44581</v>
       </c>
       <c r="B287" t="s">
         <v>6</v>
@@ -4403,12 +4403,12 @@
         <v>9</v>
       </c>
       <c r="D287" t="n">
-        <v>23.1503125</v>
+        <v>23.09890625</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
-        <v>44589</v>
+        <v>44582</v>
       </c>
       <c r="B288" t="s">
         <v>6</v>
@@ -4417,12 +4417,12 @@
         <v>9</v>
       </c>
       <c r="D288" t="n">
-        <v>23.15265625</v>
+        <v>23.1109375</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
-        <v>44590</v>
+        <v>44583</v>
       </c>
       <c r="B289" t="s">
         <v>6</v>
@@ -4431,12 +4431,12 @@
         <v>9</v>
       </c>
       <c r="D289" t="n">
-        <v>23.160625</v>
+        <v>23.13921875</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
-        <v>44591</v>
+        <v>44584</v>
       </c>
       <c r="B290" t="s">
         <v>6</v>
@@ -4445,12 +4445,12 @@
         <v>9</v>
       </c>
       <c r="D290" t="n">
-        <v>23.16828125</v>
+        <v>23.1396875</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
-        <v>44592</v>
+        <v>44585</v>
       </c>
       <c r="B291" t="s">
         <v>6</v>
@@ -4459,12 +4459,12 @@
         <v>9</v>
       </c>
       <c r="D291" t="n">
-        <v>23.16828125</v>
+        <v>23.1428125</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
-        <v>44593</v>
+        <v>44586</v>
       </c>
       <c r="B292" t="s">
         <v>6</v>
@@ -4473,12 +4473,12 @@
         <v>9</v>
       </c>
       <c r="D292" t="n">
-        <v>23.17625</v>
+        <v>23.14609375</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
-        <v>44594</v>
+        <v>44587</v>
       </c>
       <c r="B293" t="s">
         <v>6</v>
@@ -4487,12 +4487,12 @@
         <v>9</v>
       </c>
       <c r="D293" t="n">
-        <v>23.1778125</v>
+        <v>23.15125</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
-        <v>44595</v>
+        <v>44588</v>
       </c>
       <c r="B294" t="s">
         <v>6</v>
@@ -4501,12 +4501,12 @@
         <v>9</v>
       </c>
       <c r="D294" t="n">
-        <v>23.179375</v>
+        <v>23.1503125</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
-        <v>44596</v>
+        <v>44589</v>
       </c>
       <c r="B295" t="s">
         <v>6</v>
@@ -4515,12 +4515,12 @@
         <v>9</v>
       </c>
       <c r="D295" t="n">
-        <v>23.18328125</v>
+        <v>23.15265625</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
-        <v>44597</v>
+        <v>44590</v>
       </c>
       <c r="B296" t="s">
         <v>6</v>
@@ -4529,12 +4529,12 @@
         <v>9</v>
       </c>
       <c r="D296" t="n">
-        <v>23.20125</v>
+        <v>23.160625</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
-        <v>44598</v>
+        <v>44591</v>
       </c>
       <c r="B297" t="s">
         <v>6</v>
@@ -4543,124 +4543,124 @@
         <v>9</v>
       </c>
       <c r="D297" t="n">
-        <v>23.204375</v>
+        <v>23.16828125</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
-        <v>44562</v>
+        <v>44592</v>
       </c>
       <c r="B298" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C298" t="s">
         <v>9</v>
       </c>
       <c r="D298" t="n">
-        <v>20.6065151515152</v>
+        <v>23.16828125</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
-        <v>44563</v>
+        <v>44593</v>
       </c>
       <c r="B299" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C299" t="s">
         <v>9</v>
       </c>
       <c r="D299" t="n">
-        <v>20.6087878787879</v>
+        <v>23.17625</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
-        <v>44564</v>
+        <v>44594</v>
       </c>
       <c r="B300" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C300" t="s">
         <v>9</v>
       </c>
       <c r="D300" t="n">
-        <v>20.6087878787879</v>
+        <v>23.1778125</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
-        <v>44565</v>
+        <v>44595</v>
       </c>
       <c r="B301" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C301" t="s">
         <v>9</v>
       </c>
       <c r="D301" t="n">
-        <v>20.6133333333333</v>
+        <v>23.179375</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
-        <v>44566</v>
+        <v>44596</v>
       </c>
       <c r="B302" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C302" t="s">
         <v>9</v>
       </c>
       <c r="D302" t="n">
-        <v>20.6781818181818</v>
+        <v>23.18328125</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
-        <v>44567</v>
+        <v>44597</v>
       </c>
       <c r="B303" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C303" t="s">
         <v>9</v>
       </c>
       <c r="D303" t="n">
-        <v>20.7092424242424</v>
+        <v>23.20125</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
-        <v>44568</v>
+        <v>44598</v>
       </c>
       <c r="B304" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C304" t="s">
         <v>9</v>
       </c>
       <c r="D304" t="n">
-        <v>20.7286363636364</v>
+        <v>23.204375</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
-        <v>44569</v>
+        <v>44599</v>
       </c>
       <c r="B305" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C305" t="s">
         <v>9</v>
       </c>
       <c r="D305" t="n">
-        <v>20.7330303030303</v>
+        <v>23.204375</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
-        <v>44570</v>
+        <v>44562</v>
       </c>
       <c r="B306" t="s">
         <v>7</v>
@@ -4669,12 +4669,12 @@
         <v>9</v>
       </c>
       <c r="D306" t="n">
-        <v>20.725</v>
+        <v>20.6065151515152</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
-        <v>44571</v>
+        <v>44563</v>
       </c>
       <c r="B307" t="s">
         <v>7</v>
@@ -4683,12 +4683,12 @@
         <v>9</v>
       </c>
       <c r="D307" t="n">
-        <v>20.725</v>
+        <v>20.6087878787879</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
-        <v>44572</v>
+        <v>44564</v>
       </c>
       <c r="B308" t="s">
         <v>7</v>
@@ -4697,12 +4697,12 @@
         <v>9</v>
       </c>
       <c r="D308" t="n">
-        <v>20.7128787878788</v>
+        <v>20.6087878787879</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
-        <v>44573</v>
+        <v>44565</v>
       </c>
       <c r="B309" t="s">
         <v>7</v>
@@ -4711,12 +4711,12 @@
         <v>9</v>
       </c>
       <c r="D309" t="n">
-        <v>20.7272727272727</v>
+        <v>20.6133333333333</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
-        <v>44574</v>
+        <v>44566</v>
       </c>
       <c r="B310" t="s">
         <v>7</v>
@@ -4725,12 +4725,12 @@
         <v>9</v>
       </c>
       <c r="D310" t="n">
-        <v>20.7092424242424</v>
+        <v>20.6781818181818</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
-        <v>44575</v>
+        <v>44567</v>
       </c>
       <c r="B311" t="s">
         <v>7</v>
@@ -4739,12 +4739,12 @@
         <v>9</v>
       </c>
       <c r="D311" t="n">
-        <v>20.7124242424242</v>
+        <v>20.7092424242424</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
-        <v>44576</v>
+        <v>44568</v>
       </c>
       <c r="B312" t="s">
         <v>7</v>
@@ -4753,12 +4753,12 @@
         <v>9</v>
       </c>
       <c r="D312" t="n">
-        <v>20.7092424242424</v>
+        <v>20.7286363636364</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
-        <v>44577</v>
+        <v>44569</v>
       </c>
       <c r="B313" t="s">
         <v>7</v>
@@ -4767,12 +4767,12 @@
         <v>9</v>
       </c>
       <c r="D313" t="n">
-        <v>20.7372727272727</v>
+        <v>20.7330303030303</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
-        <v>44578</v>
+        <v>44570</v>
       </c>
       <c r="B314" t="s">
         <v>7</v>
@@ -4781,12 +4781,12 @@
         <v>9</v>
       </c>
       <c r="D314" t="n">
-        <v>20.7372727272727</v>
+        <v>20.725</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
-        <v>44579</v>
+        <v>44571</v>
       </c>
       <c r="B315" t="s">
         <v>7</v>
@@ -4795,12 +4795,12 @@
         <v>9</v>
       </c>
       <c r="D315" t="n">
-        <v>20.7418181818182</v>
+        <v>20.725</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
-        <v>44580</v>
+        <v>44572</v>
       </c>
       <c r="B316" t="s">
         <v>7</v>
@@ -4809,12 +4809,12 @@
         <v>9</v>
       </c>
       <c r="D316" t="n">
-        <v>20.7542424242424</v>
+        <v>20.7128787878788</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
-        <v>44581</v>
+        <v>44573</v>
       </c>
       <c r="B317" t="s">
         <v>7</v>
@@ -4823,12 +4823,12 @@
         <v>9</v>
       </c>
       <c r="D317" t="n">
-        <v>20.7542424242424</v>
+        <v>20.7272727272727</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
-        <v>44582</v>
+        <v>44574</v>
       </c>
       <c r="B318" t="s">
         <v>7</v>
@@ -4837,12 +4837,12 @@
         <v>9</v>
       </c>
       <c r="D318" t="n">
-        <v>20.7706060606061</v>
+        <v>20.7092424242424</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
-        <v>44583</v>
+        <v>44575</v>
       </c>
       <c r="B319" t="s">
         <v>7</v>
@@ -4851,12 +4851,12 @@
         <v>9</v>
       </c>
       <c r="D319" t="n">
-        <v>20.73</v>
+        <v>20.7124242424242</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
-        <v>44584</v>
+        <v>44576</v>
       </c>
       <c r="B320" t="s">
         <v>7</v>
@@ -4865,12 +4865,12 @@
         <v>9</v>
       </c>
       <c r="D320" t="n">
-        <v>20.7478787878788</v>
+        <v>20.7092424242424</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
-        <v>44585</v>
+        <v>44577</v>
       </c>
       <c r="B321" t="s">
         <v>7</v>
@@ -4879,12 +4879,12 @@
         <v>9</v>
       </c>
       <c r="D321" t="n">
-        <v>20.7480303030303</v>
+        <v>20.7372727272727</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
-        <v>44586</v>
+        <v>44578</v>
       </c>
       <c r="B322" t="s">
         <v>7</v>
@@ -4893,12 +4893,12 @@
         <v>9</v>
       </c>
       <c r="D322" t="n">
-        <v>20.7495454545455</v>
+        <v>20.7372727272727</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
-        <v>44587</v>
+        <v>44579</v>
       </c>
       <c r="B323" t="s">
         <v>7</v>
@@ -4907,12 +4907,12 @@
         <v>9</v>
       </c>
       <c r="D323" t="n">
-        <v>20.7660606060606</v>
+        <v>20.7418181818182</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
-        <v>44588</v>
+        <v>44580</v>
       </c>
       <c r="B324" t="s">
         <v>7</v>
@@ -4921,12 +4921,12 @@
         <v>9</v>
       </c>
       <c r="D324" t="n">
-        <v>20.7789393939394</v>
+        <v>20.7542424242424</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
-        <v>44589</v>
+        <v>44581</v>
       </c>
       <c r="B325" t="s">
         <v>7</v>
@@ -4935,12 +4935,12 @@
         <v>9</v>
       </c>
       <c r="D325" t="n">
-        <v>20.7801515151515</v>
+        <v>20.7542424242424</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
-        <v>44590</v>
+        <v>44582</v>
       </c>
       <c r="B326" t="s">
         <v>7</v>
@@ -4949,12 +4949,12 @@
         <v>9</v>
       </c>
       <c r="D326" t="n">
-        <v>20.7775757575758</v>
+        <v>20.7706060606061</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
-        <v>44591</v>
+        <v>44583</v>
       </c>
       <c r="B327" t="s">
         <v>7</v>
@@ -4963,12 +4963,12 @@
         <v>9</v>
       </c>
       <c r="D327" t="n">
-        <v>20.7863636363636</v>
+        <v>20.73</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
-        <v>44592</v>
+        <v>44584</v>
       </c>
       <c r="B328" t="s">
         <v>7</v>
@@ -4977,12 +4977,12 @@
         <v>9</v>
       </c>
       <c r="D328" t="n">
-        <v>20.7863636363636</v>
+        <v>20.7478787878788</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
-        <v>44593</v>
+        <v>44585</v>
       </c>
       <c r="B329" t="s">
         <v>7</v>
@@ -4991,12 +4991,12 @@
         <v>9</v>
       </c>
       <c r="D329" t="n">
-        <v>20.7927272727273</v>
+        <v>20.7480303030303</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
-        <v>44594</v>
+        <v>44586</v>
       </c>
       <c r="B330" t="s">
         <v>7</v>
@@ -5005,12 +5005,12 @@
         <v>9</v>
       </c>
       <c r="D330" t="n">
-        <v>20.7942424242424</v>
+        <v>20.7495454545455</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
-        <v>44595</v>
+        <v>44587</v>
       </c>
       <c r="B331" t="s">
         <v>7</v>
@@ -5019,12 +5019,12 @@
         <v>9</v>
       </c>
       <c r="D331" t="n">
-        <v>20.8087878787879</v>
+        <v>20.7660606060606</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
-        <v>44596</v>
+        <v>44588</v>
       </c>
       <c r="B332" t="s">
         <v>7</v>
@@ -5033,12 +5033,12 @@
         <v>9</v>
       </c>
       <c r="D332" t="n">
-        <v>20.8159090909091</v>
+        <v>20.7789393939394</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
-        <v>44597</v>
+        <v>44589</v>
       </c>
       <c r="B333" t="s">
         <v>7</v>
@@ -5047,12 +5047,12 @@
         <v>9</v>
       </c>
       <c r="D333" t="n">
-        <v>20.835</v>
+        <v>20.7801515151515</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="1" t="n">
-        <v>44598</v>
+        <v>44590</v>
       </c>
       <c r="B334" t="s">
         <v>7</v>
@@ -5061,138 +5061,138 @@
         <v>9</v>
       </c>
       <c r="D334" t="n">
-        <v>20.8416666666667</v>
+        <v>20.7775757575758</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="1" t="n">
-        <v>44562</v>
+        <v>44591</v>
       </c>
       <c r="B335" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C335" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D335" t="n">
-        <v>21.5029268292683</v>
+        <v>20.7863636363636</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="1" t="n">
-        <v>44563</v>
+        <v>44592</v>
       </c>
       <c r="B336" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C336" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D336" t="n">
-        <v>21.5219512195122</v>
+        <v>20.7863636363636</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="1" t="n">
-        <v>44564</v>
+        <v>44593</v>
       </c>
       <c r="B337" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C337" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D337" t="n">
-        <v>21.5219512195122</v>
+        <v>20.7927272727273</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="1" t="n">
-        <v>44565</v>
+        <v>44594</v>
       </c>
       <c r="B338" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C338" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D338" t="n">
-        <v>21.5675609756098</v>
+        <v>20.7942424242424</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="1" t="n">
-        <v>44566</v>
+        <v>44595</v>
       </c>
       <c r="B339" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C339" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D339" t="n">
-        <v>21.5809756097561</v>
+        <v>20.8087878787879</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="1" t="n">
-        <v>44567</v>
+        <v>44596</v>
       </c>
       <c r="B340" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C340" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D340" t="n">
-        <v>21.5712195121951</v>
+        <v>20.8159090909091</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="1" t="n">
-        <v>44568</v>
+        <v>44597</v>
       </c>
       <c r="B341" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C341" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D341" t="n">
-        <v>21.5631707317073</v>
+        <v>20.835</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="1" t="n">
-        <v>44569</v>
+        <v>44598</v>
       </c>
       <c r="B342" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C342" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D342" t="n">
-        <v>21.5985365853659</v>
+        <v>20.8416666666667</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="1" t="n">
-        <v>44570</v>
+        <v>44599</v>
       </c>
       <c r="B343" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C343" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D343" t="n">
-        <v>21.6253658536585</v>
+        <v>20.8416666666667</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="1" t="n">
-        <v>44571</v>
+        <v>44562</v>
       </c>
       <c r="B344" t="s">
         <v>4</v>
@@ -5201,12 +5201,12 @@
         <v>10</v>
       </c>
       <c r="D344" t="n">
-        <v>21.6253658536585</v>
+        <v>21.5029268292683</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="1" t="n">
-        <v>44572</v>
+        <v>44563</v>
       </c>
       <c r="B345" t="s">
         <v>4</v>
@@ -5215,12 +5215,12 @@
         <v>10</v>
       </c>
       <c r="D345" t="n">
-        <v>21.6253658536585</v>
+        <v>21.5219512195122</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="1" t="n">
-        <v>44573</v>
+        <v>44564</v>
       </c>
       <c r="B346" t="s">
         <v>4</v>
@@ -5229,12 +5229,12 @@
         <v>10</v>
       </c>
       <c r="D346" t="n">
-        <v>21.6919512195122</v>
+        <v>21.5219512195122</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="1" t="n">
-        <v>44574</v>
+        <v>44565</v>
       </c>
       <c r="B347" t="s">
         <v>4</v>
@@ -5243,12 +5243,12 @@
         <v>10</v>
       </c>
       <c r="D347" t="n">
-        <v>21.6775609756098</v>
+        <v>21.5675609756098</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="1" t="n">
-        <v>44575</v>
+        <v>44566</v>
       </c>
       <c r="B348" t="s">
         <v>4</v>
@@ -5257,12 +5257,12 @@
         <v>10</v>
       </c>
       <c r="D348" t="n">
-        <v>21.6863414634146</v>
+        <v>21.5809756097561</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="1" t="n">
-        <v>44576</v>
+        <v>44567</v>
       </c>
       <c r="B349" t="s">
         <v>4</v>
@@ -5271,12 +5271,12 @@
         <v>10</v>
       </c>
       <c r="D349" t="n">
-        <v>21.6856097560976</v>
+        <v>21.5712195121951</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="1" t="n">
-        <v>44577</v>
+        <v>44568</v>
       </c>
       <c r="B350" t="s">
         <v>4</v>
@@ -5285,12 +5285,12 @@
         <v>10</v>
       </c>
       <c r="D350" t="n">
-        <v>21.6756097560976</v>
+        <v>21.5631707317073</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="1" t="n">
-        <v>44578</v>
+        <v>44569</v>
       </c>
       <c r="B351" t="s">
         <v>4</v>
@@ -5299,12 +5299,12 @@
         <v>10</v>
       </c>
       <c r="D351" t="n">
-        <v>21.6756097560976</v>
+        <v>21.5985365853659</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="1" t="n">
-        <v>44579</v>
+        <v>44570</v>
       </c>
       <c r="B352" t="s">
         <v>4</v>
@@ -5313,12 +5313,12 @@
         <v>10</v>
       </c>
       <c r="D352" t="n">
-        <v>21.6756097560976</v>
+        <v>21.6253658536585</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="1" t="n">
-        <v>44580</v>
+        <v>44571</v>
       </c>
       <c r="B353" t="s">
         <v>4</v>
@@ -5327,12 +5327,12 @@
         <v>10</v>
       </c>
       <c r="D353" t="n">
-        <v>21.6943902439024</v>
+        <v>21.6253658536585</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="1" t="n">
-        <v>44581</v>
+        <v>44572</v>
       </c>
       <c r="B354" t="s">
         <v>4</v>
@@ -5341,12 +5341,12 @@
         <v>10</v>
       </c>
       <c r="D354" t="n">
-        <v>21.7256097560976</v>
+        <v>21.6253658536585</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="1" t="n">
-        <v>44582</v>
+        <v>44573</v>
       </c>
       <c r="B355" t="s">
         <v>4</v>
@@ -5355,12 +5355,12 @@
         <v>10</v>
       </c>
       <c r="D355" t="n">
-        <v>21.7353658536585</v>
+        <v>21.6919512195122</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="1" t="n">
-        <v>44583</v>
+        <v>44574</v>
       </c>
       <c r="B356" t="s">
         <v>4</v>
@@ -5369,12 +5369,12 @@
         <v>10</v>
       </c>
       <c r="D356" t="n">
-        <v>21.740243902439</v>
+        <v>21.6775609756098</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="1" t="n">
-        <v>44584</v>
+        <v>44575</v>
       </c>
       <c r="B357" t="s">
         <v>4</v>
@@ -5383,12 +5383,12 @@
         <v>10</v>
       </c>
       <c r="D357" t="n">
-        <v>21.7385365853659</v>
+        <v>21.6863414634146</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="1" t="n">
-        <v>44585</v>
+        <v>44576</v>
       </c>
       <c r="B358" t="s">
         <v>4</v>
@@ -5397,12 +5397,12 @@
         <v>10</v>
       </c>
       <c r="D358" t="n">
-        <v>21.7385365853659</v>
+        <v>21.6856097560976</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="1" t="n">
-        <v>44586</v>
+        <v>44577</v>
       </c>
       <c r="B359" t="s">
         <v>4</v>
@@ -5411,12 +5411,12 @@
         <v>10</v>
       </c>
       <c r="D359" t="n">
-        <v>21.7407317073171</v>
+        <v>21.6756097560976</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="1" t="n">
-        <v>44587</v>
+        <v>44578</v>
       </c>
       <c r="B360" t="s">
         <v>4</v>
@@ -5425,12 +5425,12 @@
         <v>10</v>
       </c>
       <c r="D360" t="n">
-        <v>21.7407317073171</v>
+        <v>21.6756097560976</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="1" t="n">
-        <v>44588</v>
+        <v>44579</v>
       </c>
       <c r="B361" t="s">
         <v>4</v>
@@ -5439,12 +5439,12 @@
         <v>10</v>
       </c>
       <c r="D361" t="n">
-        <v>21.7424390243902</v>
+        <v>21.6756097560976</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="1" t="n">
-        <v>44589</v>
+        <v>44580</v>
       </c>
       <c r="B362" t="s">
         <v>4</v>
@@ -5453,12 +5453,12 @@
         <v>10</v>
       </c>
       <c r="D362" t="n">
-        <v>21.7412195121951</v>
+        <v>21.6943902439024</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="1" t="n">
-        <v>44590</v>
+        <v>44581</v>
       </c>
       <c r="B363" t="s">
         <v>4</v>
@@ -5467,12 +5467,12 @@
         <v>10</v>
       </c>
       <c r="D363" t="n">
-        <v>21.7456097560976</v>
+        <v>21.7256097560976</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="1" t="n">
-        <v>44591</v>
+        <v>44582</v>
       </c>
       <c r="B364" t="s">
         <v>4</v>
@@ -5481,12 +5481,12 @@
         <v>10</v>
       </c>
       <c r="D364" t="n">
-        <v>21.7648780487805</v>
+        <v>21.7353658536585</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="1" t="n">
-        <v>44592</v>
+        <v>44583</v>
       </c>
       <c r="B365" t="s">
         <v>4</v>
@@ -5495,12 +5495,12 @@
         <v>10</v>
       </c>
       <c r="D365" t="n">
-        <v>21.769756097561</v>
+        <v>21.740243902439</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="1" t="n">
-        <v>44593</v>
+        <v>44584</v>
       </c>
       <c r="B366" t="s">
         <v>4</v>
@@ -5509,12 +5509,12 @@
         <v>10</v>
       </c>
       <c r="D366" t="n">
-        <v>21.769756097561</v>
+        <v>21.7385365853659</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="1" t="n">
-        <v>44594</v>
+        <v>44585</v>
       </c>
       <c r="B367" t="s">
         <v>4</v>
@@ -5523,12 +5523,12 @@
         <v>10</v>
       </c>
       <c r="D367" t="n">
-        <v>21.7707317073171</v>
+        <v>21.7385365853659</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="1" t="n">
-        <v>44595</v>
+        <v>44586</v>
       </c>
       <c r="B368" t="s">
         <v>4</v>
@@ -5537,12 +5537,12 @@
         <v>10</v>
       </c>
       <c r="D368" t="n">
-        <v>21.7756097560976</v>
+        <v>21.7407317073171</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="1" t="n">
-        <v>44596</v>
+        <v>44587</v>
       </c>
       <c r="B369" t="s">
         <v>4</v>
@@ -5551,12 +5551,12 @@
         <v>10</v>
       </c>
       <c r="D369" t="n">
-        <v>21.7870731707317</v>
+        <v>21.7407317073171</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="1" t="n">
-        <v>44597</v>
+        <v>44588</v>
       </c>
       <c r="B370" t="s">
         <v>4</v>
@@ -5565,12 +5565,12 @@
         <v>10</v>
       </c>
       <c r="D370" t="n">
-        <v>21.859756097561</v>
+        <v>21.7424390243902</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="1" t="n">
-        <v>44598</v>
+        <v>44589</v>
       </c>
       <c r="B371" t="s">
         <v>4</v>
@@ -5579,152 +5579,152 @@
         <v>10</v>
       </c>
       <c r="D371" t="n">
-        <v>21.8919512195122</v>
+        <v>21.7412195121951</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="1" t="n">
-        <v>44562</v>
+        <v>44590</v>
       </c>
       <c r="B372" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C372" t="s">
         <v>10</v>
       </c>
       <c r="D372" t="n">
-        <v>23.0265454545455</v>
+        <v>21.7456097560976</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="1" t="n">
-        <v>44563</v>
+        <v>44591</v>
       </c>
       <c r="B373" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C373" t="s">
         <v>10</v>
       </c>
       <c r="D373" t="n">
-        <v>23.0314545454545</v>
+        <v>21.7648780487805</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="1" t="n">
-        <v>44564</v>
+        <v>44592</v>
       </c>
       <c r="B374" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C374" t="s">
         <v>10</v>
       </c>
       <c r="D374" t="n">
-        <v>23.0314545454545</v>
+        <v>21.769756097561</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="1" t="n">
-        <v>44565</v>
+        <v>44593</v>
       </c>
       <c r="B375" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C375" t="s">
         <v>10</v>
       </c>
       <c r="D375" t="n">
-        <v>23.0509090909091</v>
+        <v>21.769756097561</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="1" t="n">
-        <v>44566</v>
+        <v>44594</v>
       </c>
       <c r="B376" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C376" t="s">
         <v>10</v>
       </c>
       <c r="D376" t="n">
-        <v>23.0698181818182</v>
+        <v>21.7707317073171</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="1" t="n">
-        <v>44567</v>
+        <v>44595</v>
       </c>
       <c r="B377" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C377" t="s">
         <v>10</v>
       </c>
       <c r="D377" t="n">
-        <v>23.0838181818182</v>
+        <v>21.7756097560976</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="1" t="n">
-        <v>44568</v>
+        <v>44596</v>
       </c>
       <c r="B378" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C378" t="s">
         <v>10</v>
       </c>
       <c r="D378" t="n">
-        <v>23.0914545454545</v>
+        <v>21.7870731707317</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="1" t="n">
-        <v>44569</v>
+        <v>44597</v>
       </c>
       <c r="B379" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C379" t="s">
         <v>10</v>
       </c>
       <c r="D379" t="n">
-        <v>23.1112727272727</v>
+        <v>21.859756097561</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="1" t="n">
-        <v>44570</v>
+        <v>44598</v>
       </c>
       <c r="B380" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C380" t="s">
         <v>10</v>
       </c>
       <c r="D380" t="n">
-        <v>23.1110909090909</v>
+        <v>21.8919512195122</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="1" t="n">
-        <v>44571</v>
+        <v>44599</v>
       </c>
       <c r="B381" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C381" t="s">
         <v>10</v>
       </c>
       <c r="D381" t="n">
-        <v>23.1092727272727</v>
+        <v>21.8919512195122</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="1" t="n">
-        <v>44572</v>
+        <v>44562</v>
       </c>
       <c r="B382" t="s">
         <v>6</v>
@@ -5733,12 +5733,12 @@
         <v>10</v>
       </c>
       <c r="D382" t="n">
-        <v>23.1130909090909</v>
+        <v>23.0265454545455</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="1" t="n">
-        <v>44573</v>
+        <v>44563</v>
       </c>
       <c r="B383" t="s">
         <v>6</v>
@@ -5747,12 +5747,12 @@
         <v>10</v>
       </c>
       <c r="D383" t="n">
-        <v>23.1265454545455</v>
+        <v>23.0314545454545</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="1" t="n">
-        <v>44574</v>
+        <v>44564</v>
       </c>
       <c r="B384" t="s">
         <v>6</v>
@@ -5761,12 +5761,12 @@
         <v>10</v>
       </c>
       <c r="D384" t="n">
-        <v>23.1356363636364</v>
+        <v>23.0314545454545</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="1" t="n">
-        <v>44575</v>
+        <v>44565</v>
       </c>
       <c r="B385" t="s">
         <v>6</v>
@@ -5775,12 +5775,12 @@
         <v>10</v>
       </c>
       <c r="D385" t="n">
-        <v>23.1650909090909</v>
+        <v>23.0509090909091</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="1" t="n">
-        <v>44576</v>
+        <v>44566</v>
       </c>
       <c r="B386" t="s">
         <v>6</v>
@@ -5789,12 +5789,12 @@
         <v>10</v>
       </c>
       <c r="D386" t="n">
-        <v>23.1807272727273</v>
+        <v>23.0698181818182</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="1" t="n">
-        <v>44577</v>
+        <v>44567</v>
       </c>
       <c r="B387" t="s">
         <v>6</v>
@@ -5803,12 +5803,12 @@
         <v>10</v>
       </c>
       <c r="D387" t="n">
-        <v>23.1778181818182</v>
+        <v>23.0838181818182</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="1" t="n">
-        <v>44578</v>
+        <v>44568</v>
       </c>
       <c r="B388" t="s">
         <v>6</v>
@@ -5817,12 +5817,12 @@
         <v>10</v>
       </c>
       <c r="D388" t="n">
-        <v>23.1778181818182</v>
+        <v>23.0914545454545</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="1" t="n">
-        <v>44579</v>
+        <v>44569</v>
       </c>
       <c r="B389" t="s">
         <v>6</v>
@@ -5831,12 +5831,12 @@
         <v>10</v>
       </c>
       <c r="D389" t="n">
-        <v>23.1816363636364</v>
+        <v>23.1112727272727</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="1" t="n">
-        <v>44580</v>
+        <v>44570</v>
       </c>
       <c r="B390" t="s">
         <v>6</v>
@@ -5845,12 +5845,12 @@
         <v>10</v>
       </c>
       <c r="D390" t="n">
-        <v>23.186</v>
+        <v>23.1110909090909</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="1" t="n">
-        <v>44581</v>
+        <v>44571</v>
       </c>
       <c r="B391" t="s">
         <v>6</v>
@@ -5859,12 +5859,12 @@
         <v>10</v>
       </c>
       <c r="D391" t="n">
-        <v>23.186</v>
+        <v>23.1092727272727</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="1" t="n">
-        <v>44582</v>
+        <v>44572</v>
       </c>
       <c r="B392" t="s">
         <v>6</v>
@@ -5873,12 +5873,12 @@
         <v>10</v>
       </c>
       <c r="D392" t="n">
-        <v>23.1732727272727</v>
+        <v>23.1130909090909</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="1" t="n">
-        <v>44583</v>
+        <v>44573</v>
       </c>
       <c r="B393" t="s">
         <v>6</v>
@@ -5887,12 +5887,12 @@
         <v>10</v>
       </c>
       <c r="D393" t="n">
-        <v>23.1850909090909</v>
+        <v>23.1265454545455</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="1" t="n">
-        <v>44584</v>
+        <v>44574</v>
       </c>
       <c r="B394" t="s">
         <v>6</v>
@@ -5901,12 +5901,12 @@
         <v>10</v>
       </c>
       <c r="D394" t="n">
-        <v>23.1852727272727</v>
+        <v>23.1356363636364</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="1" t="n">
-        <v>44585</v>
+        <v>44575</v>
       </c>
       <c r="B395" t="s">
         <v>6</v>
@@ -5915,12 +5915,12 @@
         <v>10</v>
       </c>
       <c r="D395" t="n">
-        <v>23.1852727272727</v>
+        <v>23.1650909090909</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="1" t="n">
-        <v>44586</v>
+        <v>44576</v>
       </c>
       <c r="B396" t="s">
         <v>6</v>
@@ -5929,12 +5929,12 @@
         <v>10</v>
       </c>
       <c r="D396" t="n">
-        <v>23.1901818181818</v>
+        <v>23.1807272727273</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="1" t="n">
-        <v>44587</v>
+        <v>44577</v>
       </c>
       <c r="B397" t="s">
         <v>6</v>
@@ -5943,12 +5943,12 @@
         <v>10</v>
       </c>
       <c r="D397" t="n">
-        <v>23.2003636363636</v>
+        <v>23.1778181818182</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="1" t="n">
-        <v>44588</v>
+        <v>44578</v>
       </c>
       <c r="B398" t="s">
         <v>6</v>
@@ -5957,12 +5957,12 @@
         <v>10</v>
       </c>
       <c r="D398" t="n">
-        <v>23.2023636363636</v>
+        <v>23.1778181818182</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="1" t="n">
-        <v>44589</v>
+        <v>44579</v>
       </c>
       <c r="B399" t="s">
         <v>6</v>
@@ -5971,12 +5971,12 @@
         <v>10</v>
       </c>
       <c r="D399" t="n">
-        <v>23.1981818181818</v>
+        <v>23.1816363636364</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="1" t="n">
-        <v>44590</v>
+        <v>44580</v>
       </c>
       <c r="B400" t="s">
         <v>6</v>
@@ -5985,12 +5985,12 @@
         <v>10</v>
       </c>
       <c r="D400" t="n">
-        <v>23.2034545454545</v>
+        <v>23.186</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="1" t="n">
-        <v>44591</v>
+        <v>44581</v>
       </c>
       <c r="B401" t="s">
         <v>6</v>
@@ -5999,12 +5999,12 @@
         <v>10</v>
       </c>
       <c r="D401" t="n">
-        <v>23.2032727272727</v>
+        <v>23.186</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="1" t="n">
-        <v>44592</v>
+        <v>44582</v>
       </c>
       <c r="B402" t="s">
         <v>6</v>
@@ -6013,12 +6013,12 @@
         <v>10</v>
       </c>
       <c r="D402" t="n">
-        <v>23.2287272727273</v>
+        <v>23.1732727272727</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="1" t="n">
-        <v>44593</v>
+        <v>44583</v>
       </c>
       <c r="B403" t="s">
         <v>6</v>
@@ -6027,12 +6027,12 @@
         <v>10</v>
       </c>
       <c r="D403" t="n">
-        <v>23.2325454545455</v>
+        <v>23.1850909090909</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="1" t="n">
-        <v>44594</v>
+        <v>44584</v>
       </c>
       <c r="B404" t="s">
         <v>6</v>
@@ -6041,12 +6041,12 @@
         <v>10</v>
       </c>
       <c r="D404" t="n">
-        <v>23.2372727272727</v>
+        <v>23.1852727272727</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="1" t="n">
-        <v>44595</v>
+        <v>44585</v>
       </c>
       <c r="B405" t="s">
         <v>6</v>
@@ -6055,12 +6055,12 @@
         <v>10</v>
       </c>
       <c r="D405" t="n">
-        <v>23.2390909090909</v>
+        <v>23.1852727272727</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="1" t="n">
-        <v>44596</v>
+        <v>44586</v>
       </c>
       <c r="B406" t="s">
         <v>6</v>
@@ -6069,12 +6069,12 @@
         <v>10</v>
       </c>
       <c r="D406" t="n">
-        <v>23.2445454545455</v>
+        <v>23.1901818181818</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" s="1" t="n">
-        <v>44597</v>
+        <v>44587</v>
       </c>
       <c r="B407" t="s">
         <v>6</v>
@@ -6083,12 +6083,12 @@
         <v>10</v>
       </c>
       <c r="D407" t="n">
-        <v>23.2621818181818</v>
+        <v>23.2003636363636</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="1" t="n">
-        <v>44598</v>
+        <v>44588</v>
       </c>
       <c r="B408" t="s">
         <v>6</v>
@@ -6097,166 +6097,166 @@
         <v>10</v>
       </c>
       <c r="D408" t="n">
-        <v>23.266</v>
+        <v>23.2023636363636</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="1" t="n">
-        <v>44562</v>
+        <v>44589</v>
       </c>
       <c r="B409" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C409" t="s">
         <v>10</v>
       </c>
       <c r="D409" t="n">
-        <v>20.702</v>
+        <v>23.1981818181818</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="1" t="n">
-        <v>44563</v>
+        <v>44590</v>
       </c>
       <c r="B410" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C410" t="s">
         <v>10</v>
       </c>
       <c r="D410" t="n">
-        <v>20.7236363636364</v>
+        <v>23.2034545454545</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="1" t="n">
-        <v>44564</v>
+        <v>44591</v>
       </c>
       <c r="B411" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C411" t="s">
         <v>10</v>
       </c>
       <c r="D411" t="n">
-        <v>20.7345454545455</v>
+        <v>23.2032727272727</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="1" t="n">
-        <v>44565</v>
+        <v>44592</v>
       </c>
       <c r="B412" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C412" t="s">
         <v>10</v>
       </c>
       <c r="D412" t="n">
-        <v>20.7574545454545</v>
+        <v>23.2287272727273</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="1" t="n">
-        <v>44566</v>
+        <v>44593</v>
       </c>
       <c r="B413" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C413" t="s">
         <v>10</v>
       </c>
       <c r="D413" t="n">
-        <v>20.7961818181818</v>
+        <v>23.2325454545455</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" s="1" t="n">
-        <v>44567</v>
+        <v>44594</v>
       </c>
       <c r="B414" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C414" t="s">
         <v>10</v>
       </c>
       <c r="D414" t="n">
-        <v>20.8190909090909</v>
+        <v>23.2372727272727</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" s="1" t="n">
-        <v>44568</v>
+        <v>44595</v>
       </c>
       <c r="B415" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C415" t="s">
         <v>10</v>
       </c>
       <c r="D415" t="n">
-        <v>20.8203636363636</v>
+        <v>23.2390909090909</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" s="1" t="n">
-        <v>44569</v>
+        <v>44596</v>
       </c>
       <c r="B416" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C416" t="s">
         <v>10</v>
       </c>
       <c r="D416" t="n">
-        <v>20.8349090909091</v>
+        <v>23.2445454545455</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" s="1" t="n">
-        <v>44570</v>
+        <v>44597</v>
       </c>
       <c r="B417" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C417" t="s">
         <v>10</v>
       </c>
       <c r="D417" t="n">
-        <v>20.8312727272727</v>
+        <v>23.2621818181818</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" s="1" t="n">
-        <v>44571</v>
+        <v>44598</v>
       </c>
       <c r="B418" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C418" t="s">
         <v>10</v>
       </c>
       <c r="D418" t="n">
-        <v>20.8221818181818</v>
+        <v>23.266</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" s="1" t="n">
-        <v>44572</v>
+        <v>44599</v>
       </c>
       <c r="B419" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C419" t="s">
         <v>10</v>
       </c>
       <c r="D419" t="n">
-        <v>20.8258181818182</v>
+        <v>23.2769090909091</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" s="1" t="n">
-        <v>44573</v>
+        <v>44562</v>
       </c>
       <c r="B420" t="s">
         <v>7</v>
@@ -6265,12 +6265,12 @@
         <v>10</v>
       </c>
       <c r="D420" t="n">
-        <v>20.826</v>
+        <v>20.702</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" s="1" t="n">
-        <v>44574</v>
+        <v>44563</v>
       </c>
       <c r="B421" t="s">
         <v>7</v>
@@ -6279,12 +6279,12 @@
         <v>10</v>
       </c>
       <c r="D421" t="n">
-        <v>20.8196363636364</v>
+        <v>20.7236363636364</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" s="1" t="n">
-        <v>44575</v>
+        <v>44564</v>
       </c>
       <c r="B422" t="s">
         <v>7</v>
@@ -6293,12 +6293,12 @@
         <v>10</v>
       </c>
       <c r="D422" t="n">
-        <v>20.8356363636364</v>
+        <v>20.7345454545455</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" s="1" t="n">
-        <v>44576</v>
+        <v>44565</v>
       </c>
       <c r="B423" t="s">
         <v>7</v>
@@ -6307,12 +6307,12 @@
         <v>10</v>
       </c>
       <c r="D423" t="n">
-        <v>20.8518181818182</v>
+        <v>20.7574545454545</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" s="1" t="n">
-        <v>44577</v>
+        <v>44566</v>
       </c>
       <c r="B424" t="s">
         <v>7</v>
@@ -6321,12 +6321,12 @@
         <v>10</v>
       </c>
       <c r="D424" t="n">
-        <v>20.8463636363636</v>
+        <v>20.7961818181818</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" s="1" t="n">
-        <v>44578</v>
+        <v>44567</v>
       </c>
       <c r="B425" t="s">
         <v>7</v>
@@ -6335,12 +6335,12 @@
         <v>10</v>
       </c>
       <c r="D425" t="n">
-        <v>20.85</v>
+        <v>20.8190909090909</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" s="1" t="n">
-        <v>44579</v>
+        <v>44568</v>
       </c>
       <c r="B426" t="s">
         <v>7</v>
@@ -6349,12 +6349,12 @@
         <v>10</v>
       </c>
       <c r="D426" t="n">
-        <v>20.8536363636364</v>
+        <v>20.8203636363636</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" s="1" t="n">
-        <v>44580</v>
+        <v>44569</v>
       </c>
       <c r="B427" t="s">
         <v>7</v>
@@ -6363,12 +6363,12 @@
         <v>10</v>
       </c>
       <c r="D427" t="n">
-        <v>20.8594545454545</v>
+        <v>20.8349090909091</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" s="1" t="n">
-        <v>44581</v>
+        <v>44570</v>
       </c>
       <c r="B428" t="s">
         <v>7</v>
@@ -6377,12 +6377,12 @@
         <v>10</v>
       </c>
       <c r="D428" t="n">
-        <v>20.8832727272727</v>
+        <v>20.8312727272727</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" s="1" t="n">
-        <v>44582</v>
+        <v>44571</v>
       </c>
       <c r="B429" t="s">
         <v>7</v>
@@ -6391,12 +6391,12 @@
         <v>10</v>
       </c>
       <c r="D429" t="n">
-        <v>20.8901818181818</v>
+        <v>20.8221818181818</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" s="1" t="n">
-        <v>44583</v>
+        <v>44572</v>
       </c>
       <c r="B430" t="s">
         <v>7</v>
@@ -6405,12 +6405,12 @@
         <v>10</v>
       </c>
       <c r="D430" t="n">
-        <v>20.8945454545455</v>
+        <v>20.8258181818182</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" s="1" t="n">
-        <v>44584</v>
+        <v>44573</v>
       </c>
       <c r="B431" t="s">
         <v>7</v>
@@ -6419,12 +6419,12 @@
         <v>10</v>
       </c>
       <c r="D431" t="n">
-        <v>20.8929090909091</v>
+        <v>20.826</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" s="1" t="n">
-        <v>44585</v>
+        <v>44574</v>
       </c>
       <c r="B432" t="s">
         <v>7</v>
@@ -6433,12 +6433,12 @@
         <v>10</v>
       </c>
       <c r="D432" t="n">
-        <v>20.8929090909091</v>
+        <v>20.8196363636364</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" s="1" t="n">
-        <v>44586</v>
+        <v>44575</v>
       </c>
       <c r="B433" t="s">
         <v>7</v>
@@ -6447,12 +6447,12 @@
         <v>10</v>
       </c>
       <c r="D433" t="n">
-        <v>20.8936363636364</v>
+        <v>20.8356363636364</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" s="1" t="n">
-        <v>44587</v>
+        <v>44576</v>
       </c>
       <c r="B434" t="s">
         <v>7</v>
@@ -6461,12 +6461,12 @@
         <v>10</v>
       </c>
       <c r="D434" t="n">
-        <v>20.8992727272727</v>
+        <v>20.8518181818182</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" s="1" t="n">
-        <v>44588</v>
+        <v>44577</v>
       </c>
       <c r="B435" t="s">
         <v>7</v>
@@ -6475,12 +6475,12 @@
         <v>10</v>
       </c>
       <c r="D435" t="n">
-        <v>20.8990909090909</v>
+        <v>20.8463636363636</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" s="1" t="n">
-        <v>44589</v>
+        <v>44578</v>
       </c>
       <c r="B436" t="s">
         <v>7</v>
@@ -6489,12 +6489,12 @@
         <v>10</v>
       </c>
       <c r="D436" t="n">
-        <v>20.8976363636364</v>
+        <v>20.85</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" s="1" t="n">
-        <v>44590</v>
+        <v>44579</v>
       </c>
       <c r="B437" t="s">
         <v>7</v>
@@ -6503,12 +6503,12 @@
         <v>10</v>
       </c>
       <c r="D437" t="n">
-        <v>20.8961818181818</v>
+        <v>20.8536363636364</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" s="1" t="n">
-        <v>44591</v>
+        <v>44580</v>
       </c>
       <c r="B438" t="s">
         <v>7</v>
@@ -6517,12 +6517,12 @@
         <v>10</v>
       </c>
       <c r="D438" t="n">
-        <v>20.8981818181818</v>
+        <v>20.8594545454545</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" s="1" t="n">
-        <v>44592</v>
+        <v>44581</v>
       </c>
       <c r="B439" t="s">
         <v>7</v>
@@ -6531,12 +6531,12 @@
         <v>10</v>
       </c>
       <c r="D439" t="n">
-        <v>20.9018181818182</v>
+        <v>20.8832727272727</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" s="1" t="n">
-        <v>44593</v>
+        <v>44582</v>
       </c>
       <c r="B440" t="s">
         <v>7</v>
@@ -6545,12 +6545,12 @@
         <v>10</v>
       </c>
       <c r="D440" t="n">
-        <v>20.9054545454545</v>
+        <v>20.8901818181818</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" s="1" t="n">
-        <v>44594</v>
+        <v>44583</v>
       </c>
       <c r="B441" t="s">
         <v>7</v>
@@ -6559,12 +6559,12 @@
         <v>10</v>
       </c>
       <c r="D441" t="n">
-        <v>20.9210909090909</v>
+        <v>20.8945454545455</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" s="1" t="n">
-        <v>44595</v>
+        <v>44584</v>
       </c>
       <c r="B442" t="s">
         <v>7</v>
@@ -6573,12 +6573,12 @@
         <v>10</v>
       </c>
       <c r="D442" t="n">
-        <v>20.9210909090909</v>
+        <v>20.8929090909091</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" s="1" t="n">
-        <v>44596</v>
+        <v>44585</v>
       </c>
       <c r="B443" t="s">
         <v>7</v>
@@ -6587,12 +6587,12 @@
         <v>10</v>
       </c>
       <c r="D443" t="n">
-        <v>20.9252727272727</v>
+        <v>20.8929090909091</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" s="1" t="n">
-        <v>44597</v>
+        <v>44586</v>
       </c>
       <c r="B444" t="s">
         <v>7</v>
@@ -6601,12 +6601,12 @@
         <v>10</v>
       </c>
       <c r="D444" t="n">
-        <v>20.9829090909091</v>
+        <v>20.8936363636364</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" s="1" t="n">
-        <v>44598</v>
+        <v>44587</v>
       </c>
       <c r="B445" t="s">
         <v>7</v>
@@ -6615,180 +6615,180 @@
         <v>10</v>
       </c>
       <c r="D445" t="n">
-        <v>20.9969090909091</v>
+        <v>20.8992727272727</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" s="1" t="n">
-        <v>44562</v>
+        <v>44588</v>
       </c>
       <c r="B446" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C446" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D446" t="n">
-        <v>21.8417142857143</v>
+        <v>20.8990909090909</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" s="1" t="n">
-        <v>44563</v>
+        <v>44589</v>
       </c>
       <c r="B447" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C447" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D447" t="n">
-        <v>21.8468571428571</v>
+        <v>20.8976363636364</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" s="1" t="n">
-        <v>44564</v>
+        <v>44590</v>
       </c>
       <c r="B448" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C448" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D448" t="n">
-        <v>21.8748571428571</v>
+        <v>20.8961818181818</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" s="1" t="n">
-        <v>44565</v>
+        <v>44591</v>
       </c>
       <c r="B449" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C449" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D449" t="n">
-        <v>21.8748571428571</v>
+        <v>20.8981818181818</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" s="1" t="n">
-        <v>44566</v>
+        <v>44592</v>
       </c>
       <c r="B450" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C450" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D450" t="n">
-        <v>21.8662857142857</v>
+        <v>20.9018181818182</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" s="1" t="n">
-        <v>44567</v>
+        <v>44593</v>
       </c>
       <c r="B451" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C451" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D451" t="n">
-        <v>21.8582857142857</v>
+        <v>20.9054545454545</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" s="1" t="n">
-        <v>44568</v>
+        <v>44594</v>
       </c>
       <c r="B452" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C452" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D452" t="n">
-        <v>21.8522857142857</v>
+        <v>20.9210909090909</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" s="1" t="n">
-        <v>44569</v>
+        <v>44595</v>
       </c>
       <c r="B453" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C453" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D453" t="n">
-        <v>21.8597142857143</v>
+        <v>20.9210909090909</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" s="1" t="n">
-        <v>44570</v>
+        <v>44596</v>
       </c>
       <c r="B454" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C454" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D454" t="n">
-        <v>21.8691428571429</v>
+        <v>20.9252727272727</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" s="1" t="n">
-        <v>44571</v>
+        <v>44597</v>
       </c>
       <c r="B455" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C455" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D455" t="n">
-        <v>21.8691428571429</v>
+        <v>20.9829090909091</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" s="1" t="n">
-        <v>44572</v>
+        <v>44598</v>
       </c>
       <c r="B456" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C456" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D456" t="n">
-        <v>21.8691428571429</v>
+        <v>20.9969090909091</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" s="1" t="n">
-        <v>44573</v>
+        <v>44599</v>
       </c>
       <c r="B457" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C457" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D457" t="n">
-        <v>21.8882857142857</v>
+        <v>21.0023636363636</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" s="1" t="n">
-        <v>44574</v>
+        <v>44562</v>
       </c>
       <c r="B458" t="s">
         <v>4</v>
@@ -6797,12 +6797,12 @@
         <v>11</v>
       </c>
       <c r="D458" t="n">
-        <v>21.9302857142857</v>
+        <v>21.8417142857143</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" s="1" t="n">
-        <v>44575</v>
+        <v>44563</v>
       </c>
       <c r="B459" t="s">
         <v>4</v>
@@ -6811,12 +6811,12 @@
         <v>11</v>
       </c>
       <c r="D459" t="n">
-        <v>21.9345714285714</v>
+        <v>21.8468571428571</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" s="1" t="n">
-        <v>44576</v>
+        <v>44564</v>
       </c>
       <c r="B460" t="s">
         <v>4</v>
@@ -6825,12 +6825,12 @@
         <v>11</v>
       </c>
       <c r="D460" t="n">
-        <v>21.952</v>
+        <v>21.8748571428571</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" s="1" t="n">
-        <v>44577</v>
+        <v>44565</v>
       </c>
       <c r="B461" t="s">
         <v>4</v>
@@ -6839,12 +6839,12 @@
         <v>11</v>
       </c>
       <c r="D461" t="n">
-        <v>21.9737142857143</v>
+        <v>21.8748571428571</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" s="1" t="n">
-        <v>44578</v>
+        <v>44566</v>
       </c>
       <c r="B462" t="s">
         <v>4</v>
@@ -6853,12 +6853,12 @@
         <v>11</v>
       </c>
       <c r="D462" t="n">
-        <v>21.9737142857143</v>
+        <v>21.8662857142857</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" s="1" t="n">
-        <v>44579</v>
+        <v>44567</v>
       </c>
       <c r="B463" t="s">
         <v>4</v>
@@ -6867,12 +6867,12 @@
         <v>11</v>
       </c>
       <c r="D463" t="n">
-        <v>21.9871428571429</v>
+        <v>21.8582857142857</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" s="1" t="n">
-        <v>44580</v>
+        <v>44568</v>
       </c>
       <c r="B464" t="s">
         <v>4</v>
@@ -6881,12 +6881,12 @@
         <v>11</v>
       </c>
       <c r="D464" t="n">
-        <v>21.9871428571429</v>
+        <v>21.8522857142857</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" s="1" t="n">
-        <v>44581</v>
+        <v>44569</v>
       </c>
       <c r="B465" t="s">
         <v>4</v>
@@ -6895,12 +6895,12 @@
         <v>11</v>
       </c>
       <c r="D465" t="n">
-        <v>21.9908571428571</v>
+        <v>21.8597142857143</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" s="1" t="n">
-        <v>44582</v>
+        <v>44570</v>
       </c>
       <c r="B466" t="s">
         <v>4</v>
@@ -6909,12 +6909,12 @@
         <v>11</v>
       </c>
       <c r="D466" t="n">
-        <v>22.0005714285714</v>
+        <v>21.8691428571429</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" s="1" t="n">
-        <v>44583</v>
+        <v>44571</v>
       </c>
       <c r="B467" t="s">
         <v>4</v>
@@ -6923,12 +6923,12 @@
         <v>11</v>
       </c>
       <c r="D467" t="n">
-        <v>22.0005714285714</v>
+        <v>21.8691428571429</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" s="1" t="n">
-        <v>44584</v>
+        <v>44572</v>
       </c>
       <c r="B468" t="s">
         <v>4</v>
@@ -6937,12 +6937,12 @@
         <v>11</v>
       </c>
       <c r="D468" t="n">
-        <v>21.9988571428571</v>
+        <v>21.8691428571429</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" s="1" t="n">
-        <v>44585</v>
+        <v>44573</v>
       </c>
       <c r="B469" t="s">
         <v>4</v>
@@ -6951,12 +6951,12 @@
         <v>11</v>
       </c>
       <c r="D469" t="n">
-        <v>22.0045714285714</v>
+        <v>21.8882857142857</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" s="1" t="n">
-        <v>44586</v>
+        <v>44574</v>
       </c>
       <c r="B470" t="s">
         <v>4</v>
@@ -6965,12 +6965,12 @@
         <v>11</v>
       </c>
       <c r="D470" t="n">
-        <v>22.0045714285714</v>
+        <v>21.9302857142857</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" s="1" t="n">
-        <v>44587</v>
+        <v>44575</v>
       </c>
       <c r="B471" t="s">
         <v>4</v>
@@ -6979,12 +6979,12 @@
         <v>11</v>
       </c>
       <c r="D471" t="n">
-        <v>22.0342857142857</v>
+        <v>21.9345714285714</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" s="1" t="n">
-        <v>44588</v>
+        <v>44576</v>
       </c>
       <c r="B472" t="s">
         <v>4</v>
@@ -6993,12 +6993,12 @@
         <v>11</v>
       </c>
       <c r="D472" t="n">
-        <v>22.0474285714286</v>
+        <v>21.952</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" s="1" t="n">
-        <v>44589</v>
+        <v>44577</v>
       </c>
       <c r="B473" t="s">
         <v>4</v>
@@ -7007,12 +7007,12 @@
         <v>11</v>
       </c>
       <c r="D473" t="n">
-        <v>22.0394285714286</v>
+        <v>21.9737142857143</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" s="1" t="n">
-        <v>44590</v>
+        <v>44578</v>
       </c>
       <c r="B474" t="s">
         <v>4</v>
@@ -7021,12 +7021,12 @@
         <v>11</v>
       </c>
       <c r="D474" t="n">
-        <v>22.0402857142857</v>
+        <v>21.9737142857143</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" s="1" t="n">
-        <v>44591</v>
+        <v>44579</v>
       </c>
       <c r="B475" t="s">
         <v>4</v>
@@ -7035,12 +7035,12 @@
         <v>11</v>
       </c>
       <c r="D475" t="n">
-        <v>22.0548571428571</v>
+        <v>21.9871428571429</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" s="1" t="n">
-        <v>44592</v>
+        <v>44580</v>
       </c>
       <c r="B476" t="s">
         <v>4</v>
@@ -7049,12 +7049,12 @@
         <v>11</v>
       </c>
       <c r="D476" t="n">
-        <v>22.0548571428571</v>
+        <v>21.9871428571429</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" s="1" t="n">
-        <v>44593</v>
+        <v>44581</v>
       </c>
       <c r="B477" t="s">
         <v>4</v>
@@ -7063,12 +7063,12 @@
         <v>11</v>
       </c>
       <c r="D477" t="n">
-        <v>22.0548571428571</v>
+        <v>21.9908571428571</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" s="1" t="n">
-        <v>44594</v>
+        <v>44582</v>
       </c>
       <c r="B478" t="s">
         <v>4</v>
@@ -7077,12 +7077,12 @@
         <v>11</v>
       </c>
       <c r="D478" t="n">
-        <v>22.0748571428571</v>
+        <v>22.0005714285714</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" s="1" t="n">
-        <v>44595</v>
+        <v>44583</v>
       </c>
       <c r="B479" t="s">
         <v>4</v>
@@ -7091,12 +7091,12 @@
         <v>11</v>
       </c>
       <c r="D479" t="n">
-        <v>22.0837142857143</v>
+        <v>22.0005714285714</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" s="1" t="n">
-        <v>44596</v>
+        <v>44584</v>
       </c>
       <c r="B480" t="s">
         <v>4</v>
@@ -7105,12 +7105,12 @@
         <v>11</v>
       </c>
       <c r="D480" t="n">
-        <v>22.1005714285714</v>
+        <v>21.9988571428571</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" s="1" t="n">
-        <v>44597</v>
+        <v>44585</v>
       </c>
       <c r="B481" t="s">
         <v>4</v>
@@ -7119,12 +7119,12 @@
         <v>11</v>
       </c>
       <c r="D481" t="n">
-        <v>22.0702857142857</v>
+        <v>22.0045714285714</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" s="1" t="n">
-        <v>44598</v>
+        <v>44586</v>
       </c>
       <c r="B482" t="s">
         <v>4</v>
@@ -7133,194 +7133,194 @@
         <v>11</v>
       </c>
       <c r="D482" t="n">
-        <v>22.0805714285714</v>
+        <v>22.0045714285714</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" s="1" t="n">
-        <v>44562</v>
+        <v>44587</v>
       </c>
       <c r="B483" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C483" t="s">
         <v>11</v>
       </c>
       <c r="D483" t="n">
-        <v>22.96</v>
+        <v>22.0342857142857</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" s="1" t="n">
-        <v>44563</v>
+        <v>44588</v>
       </c>
       <c r="B484" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C484" t="s">
         <v>11</v>
       </c>
       <c r="D484" t="n">
-        <v>22.9595238095238</v>
+        <v>22.0474285714286</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" s="1" t="n">
-        <v>44564</v>
+        <v>44589</v>
       </c>
       <c r="B485" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C485" t="s">
         <v>11</v>
       </c>
       <c r="D485" t="n">
-        <v>22.9659523809524</v>
+        <v>22.0394285714286</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" s="1" t="n">
-        <v>44565</v>
+        <v>44590</v>
       </c>
       <c r="B486" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C486" t="s">
         <v>11</v>
       </c>
       <c r="D486" t="n">
-        <v>22.9659523809524</v>
+        <v>22.0402857142857</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" s="1" t="n">
-        <v>44566</v>
+        <v>44591</v>
       </c>
       <c r="B487" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C487" t="s">
         <v>11</v>
       </c>
       <c r="D487" t="n">
-        <v>22.967619047619</v>
+        <v>22.0548571428571</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" s="1" t="n">
-        <v>44567</v>
+        <v>44592</v>
       </c>
       <c r="B488" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C488" t="s">
         <v>11</v>
       </c>
       <c r="D488" t="n">
-        <v>22.9961904761905</v>
+        <v>22.0548571428571</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" s="1" t="n">
-        <v>44568</v>
+        <v>44593</v>
       </c>
       <c r="B489" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C489" t="s">
         <v>11</v>
       </c>
       <c r="D489" t="n">
-        <v>23.0071428571429</v>
+        <v>22.0548571428571</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" s="1" t="n">
-        <v>44569</v>
+        <v>44594</v>
       </c>
       <c r="B490" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C490" t="s">
         <v>11</v>
       </c>
       <c r="D490" t="n">
-        <v>23.0109523809524</v>
+        <v>22.0748571428571</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" s="1" t="n">
-        <v>44570</v>
+        <v>44595</v>
       </c>
       <c r="B491" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C491" t="s">
         <v>11</v>
       </c>
       <c r="D491" t="n">
-        <v>23.0119047619048</v>
+        <v>22.0837142857143</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" s="1" t="n">
-        <v>44571</v>
+        <v>44596</v>
       </c>
       <c r="B492" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C492" t="s">
         <v>11</v>
       </c>
       <c r="D492" t="n">
-        <v>23.0119047619048</v>
+        <v>22.1005714285714</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" s="1" t="n">
-        <v>44572</v>
+        <v>44597</v>
       </c>
       <c r="B493" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C493" t="s">
         <v>11</v>
       </c>
       <c r="D493" t="n">
-        <v>23.017619047619</v>
+        <v>22.0702857142857</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" s="1" t="n">
-        <v>44573</v>
+        <v>44598</v>
       </c>
       <c r="B494" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C494" t="s">
         <v>11</v>
       </c>
       <c r="D494" t="n">
-        <v>23.0330952380952</v>
+        <v>22.0805714285714</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" s="1" t="n">
-        <v>44574</v>
+        <v>44599</v>
       </c>
       <c r="B495" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C495" t="s">
         <v>11</v>
       </c>
       <c r="D495" t="n">
-        <v>23.0414285714286</v>
+        <v>22.0805714285714</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" s="1" t="n">
-        <v>44575</v>
+        <v>44562</v>
       </c>
       <c r="B496" t="s">
         <v>6</v>
@@ -7329,12 +7329,12 @@
         <v>11</v>
       </c>
       <c r="D496" t="n">
-        <v>23.0495238095238</v>
+        <v>22.96</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" s="1" t="n">
-        <v>44576</v>
+        <v>44563</v>
       </c>
       <c r="B497" t="s">
         <v>6</v>
@@ -7343,12 +7343,12 @@
         <v>11</v>
       </c>
       <c r="D497" t="n">
-        <v>23.0514285714286</v>
+        <v>22.9595238095238</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" s="1" t="n">
-        <v>44577</v>
+        <v>44564</v>
       </c>
       <c r="B498" t="s">
         <v>6</v>
@@ -7357,12 +7357,12 @@
         <v>11</v>
       </c>
       <c r="D498" t="n">
-        <v>23.0566666666667</v>
+        <v>22.9659523809524</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" s="1" t="n">
-        <v>44578</v>
+        <v>44565</v>
       </c>
       <c r="B499" t="s">
         <v>6</v>
@@ -7371,12 +7371,12 @@
         <v>11</v>
       </c>
       <c r="D499" t="n">
-        <v>23.0569047619048</v>
+        <v>22.9659523809524</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" s="1" t="n">
-        <v>44579</v>
+        <v>44566</v>
       </c>
       <c r="B500" t="s">
         <v>6</v>
@@ -7385,12 +7385,12 @@
         <v>11</v>
       </c>
       <c r="D500" t="n">
-        <v>23.0569047619048</v>
+        <v>22.967619047619</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" s="1" t="n">
-        <v>44580</v>
+        <v>44567</v>
       </c>
       <c r="B501" t="s">
         <v>6</v>
@@ -7399,12 +7399,12 @@
         <v>11</v>
       </c>
       <c r="D501" t="n">
-        <v>23.047380952381</v>
+        <v>22.9961904761905</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" s="1" t="n">
-        <v>44581</v>
+        <v>44568</v>
       </c>
       <c r="B502" t="s">
         <v>6</v>
@@ -7413,12 +7413,12 @@
         <v>11</v>
       </c>
       <c r="D502" t="n">
-        <v>23.0485714285714</v>
+        <v>23.0071428571429</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" s="1" t="n">
-        <v>44582</v>
+        <v>44569</v>
       </c>
       <c r="B503" t="s">
         <v>6</v>
@@ -7427,12 +7427,12 @@
         <v>11</v>
       </c>
       <c r="D503" t="n">
-        <v>23.0492857142857</v>
+        <v>23.0109523809524</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" s="1" t="n">
-        <v>44583</v>
+        <v>44570</v>
       </c>
       <c r="B504" t="s">
         <v>6</v>
@@ -7441,12 +7441,12 @@
         <v>11</v>
       </c>
       <c r="D504" t="n">
-        <v>23.0545238095238</v>
+        <v>23.0119047619048</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" s="1" t="n">
-        <v>44584</v>
+        <v>44571</v>
       </c>
       <c r="B505" t="s">
         <v>6</v>
@@ -7455,12 +7455,12 @@
         <v>11</v>
       </c>
       <c r="D505" t="n">
-        <v>23.0545238095238</v>
+        <v>23.0119047619048</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" s="1" t="n">
-        <v>44585</v>
+        <v>44572</v>
       </c>
       <c r="B506" t="s">
         <v>6</v>
@@ -7469,12 +7469,12 @@
         <v>11</v>
       </c>
       <c r="D506" t="n">
-        <v>23.057380952381</v>
+        <v>23.017619047619</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" s="1" t="n">
-        <v>44586</v>
+        <v>44573</v>
       </c>
       <c r="B507" t="s">
         <v>6</v>
@@ -7483,12 +7483,12 @@
         <v>11</v>
       </c>
       <c r="D507" t="n">
-        <v>23.057380952381</v>
+        <v>23.0330952380952</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" s="1" t="n">
-        <v>44587</v>
+        <v>44574</v>
       </c>
       <c r="B508" t="s">
         <v>6</v>
@@ -7497,12 +7497,12 @@
         <v>11</v>
       </c>
       <c r="D508" t="n">
-        <v>23.0678571428571</v>
+        <v>23.0414285714286</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" s="1" t="n">
-        <v>44588</v>
+        <v>44575</v>
       </c>
       <c r="B509" t="s">
         <v>6</v>
@@ -7511,12 +7511,12 @@
         <v>11</v>
       </c>
       <c r="D509" t="n">
-        <v>23.0754761904762</v>
+        <v>23.0495238095238</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" s="1" t="n">
-        <v>44589</v>
+        <v>44576</v>
       </c>
       <c r="B510" t="s">
         <v>6</v>
@@ -7525,12 +7525,12 @@
         <v>11</v>
       </c>
       <c r="D510" t="n">
-        <v>23.0414285714286</v>
+        <v>23.0514285714286</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" s="1" t="n">
-        <v>44590</v>
+        <v>44577</v>
       </c>
       <c r="B511" t="s">
         <v>6</v>
@@ -7539,12 +7539,12 @@
         <v>11</v>
       </c>
       <c r="D511" t="n">
-        <v>23.0947619047619</v>
+        <v>23.0566666666667</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" s="1" t="n">
-        <v>44591</v>
+        <v>44578</v>
       </c>
       <c r="B512" t="s">
         <v>6</v>
@@ -7553,12 +7553,12 @@
         <v>11</v>
       </c>
       <c r="D512" t="n">
-        <v>23.1142857142857</v>
+        <v>23.0569047619048</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" s="1" t="n">
-        <v>44592</v>
+        <v>44579</v>
       </c>
       <c r="B513" t="s">
         <v>6</v>
@@ -7567,12 +7567,12 @@
         <v>11</v>
       </c>
       <c r="D513" t="n">
-        <v>23.1142857142857</v>
+        <v>23.0569047619048</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" s="1" t="n">
-        <v>44593</v>
+        <v>44580</v>
       </c>
       <c r="B514" t="s">
         <v>6</v>
@@ -7581,12 +7581,12 @@
         <v>11</v>
       </c>
       <c r="D514" t="n">
-        <v>23.1228571428571</v>
+        <v>23.047380952381</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" s="1" t="n">
-        <v>44594</v>
+        <v>44581</v>
       </c>
       <c r="B515" t="s">
         <v>6</v>
@@ -7595,12 +7595,12 @@
         <v>11</v>
       </c>
       <c r="D515" t="n">
-        <v>23.1252380952381</v>
+        <v>23.0485714285714</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" s="1" t="n">
-        <v>44595</v>
+        <v>44582</v>
       </c>
       <c r="B516" t="s">
         <v>6</v>
@@ -7609,12 +7609,12 @@
         <v>11</v>
       </c>
       <c r="D516" t="n">
-        <v>23.1309523809524</v>
+        <v>23.0492857142857</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" s="1" t="n">
-        <v>44596</v>
+        <v>44583</v>
       </c>
       <c r="B517" t="s">
         <v>6</v>
@@ -7623,12 +7623,12 @@
         <v>11</v>
       </c>
       <c r="D517" t="n">
-        <v>23.1357142857143</v>
+        <v>23.0545238095238</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" s="1" t="n">
-        <v>44597</v>
+        <v>44584</v>
       </c>
       <c r="B518" t="s">
         <v>6</v>
@@ -7637,12 +7637,12 @@
         <v>11</v>
       </c>
       <c r="D518" t="n">
-        <v>23.1666666666667</v>
+        <v>23.0545238095238</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" s="1" t="n">
-        <v>44598</v>
+        <v>44585</v>
       </c>
       <c r="B519" t="s">
         <v>6</v>
@@ -7651,208 +7651,208 @@
         <v>11</v>
       </c>
       <c r="D519" t="n">
-        <v>23.1757142857143</v>
+        <v>23.057380952381</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" s="1" t="n">
-        <v>44562</v>
+        <v>44586</v>
       </c>
       <c r="B520" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C520" t="s">
         <v>11</v>
       </c>
       <c r="D520" t="n">
-        <v>20.9079069767442</v>
+        <v>23.057380952381</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" s="1" t="n">
-        <v>44563</v>
+        <v>44587</v>
       </c>
       <c r="B521" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C521" t="s">
         <v>11</v>
       </c>
       <c r="D521" t="n">
-        <v>20.9072093023256</v>
+        <v>23.0678571428571</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" s="1" t="n">
-        <v>44564</v>
+        <v>44588</v>
       </c>
       <c r="B522" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C522" t="s">
         <v>11</v>
       </c>
       <c r="D522" t="n">
-        <v>20.913488372093</v>
+        <v>23.0754761904762</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" s="1" t="n">
-        <v>44565</v>
+        <v>44589</v>
       </c>
       <c r="B523" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C523" t="s">
         <v>11</v>
       </c>
       <c r="D523" t="n">
-        <v>20.913488372093</v>
+        <v>23.0414285714286</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" s="1" t="n">
-        <v>44566</v>
+        <v>44590</v>
       </c>
       <c r="B524" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C524" t="s">
         <v>11</v>
       </c>
       <c r="D524" t="n">
-        <v>20.9390697674419</v>
+        <v>23.0947619047619</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" s="1" t="n">
-        <v>44567</v>
+        <v>44591</v>
       </c>
       <c r="B525" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C525" t="s">
         <v>11</v>
       </c>
       <c r="D525" t="n">
-        <v>20.9458139534884</v>
+        <v>23.1142857142857</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" s="1" t="n">
-        <v>44568</v>
+        <v>44592</v>
       </c>
       <c r="B526" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C526" t="s">
         <v>11</v>
       </c>
       <c r="D526" t="n">
-        <v>20.9586046511628</v>
+        <v>23.1142857142857</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" s="1" t="n">
-        <v>44569</v>
+        <v>44593</v>
       </c>
       <c r="B527" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C527" t="s">
         <v>11</v>
       </c>
       <c r="D527" t="n">
-        <v>20.9688372093023</v>
+        <v>23.1228571428571</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" s="1" t="n">
-        <v>44570</v>
+        <v>44594</v>
       </c>
       <c r="B528" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C528" t="s">
         <v>11</v>
       </c>
       <c r="D528" t="n">
-        <v>20.9316279069767</v>
+        <v>23.1252380952381</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" s="1" t="n">
-        <v>44571</v>
+        <v>44595</v>
       </c>
       <c r="B529" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C529" t="s">
         <v>11</v>
       </c>
       <c r="D529" t="n">
-        <v>20.9239534883721</v>
+        <v>23.1309523809524</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" s="1" t="n">
-        <v>44572</v>
+        <v>44596</v>
       </c>
       <c r="B530" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C530" t="s">
         <v>11</v>
       </c>
       <c r="D530" t="n">
-        <v>20.9004651162791</v>
+        <v>23.1357142857143</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" s="1" t="n">
-        <v>44573</v>
+        <v>44597</v>
       </c>
       <c r="B531" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C531" t="s">
         <v>11</v>
       </c>
       <c r="D531" t="n">
-        <v>20.8746511627907</v>
+        <v>23.1666666666667</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" s="1" t="n">
-        <v>44574</v>
+        <v>44598</v>
       </c>
       <c r="B532" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C532" t="s">
         <v>11</v>
       </c>
       <c r="D532" t="n">
-        <v>20.863023255814</v>
+        <v>23.1757142857143</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" s="1" t="n">
-        <v>44575</v>
+        <v>44599</v>
       </c>
       <c r="B533" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C533" t="s">
         <v>11</v>
       </c>
       <c r="D533" t="n">
-        <v>20.873023255814</v>
+        <v>23.1757142857143</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" s="1" t="n">
-        <v>44576</v>
+        <v>44562</v>
       </c>
       <c r="B534" t="s">
         <v>7</v>
@@ -7861,12 +7861,12 @@
         <v>11</v>
       </c>
       <c r="D534" t="n">
-        <v>20.893488372093</v>
+        <v>20.9079069767442</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="1" t="n">
-        <v>44577</v>
+        <v>44563</v>
       </c>
       <c r="B535" t="s">
         <v>7</v>
@@ -7875,12 +7875,12 @@
         <v>11</v>
       </c>
       <c r="D535" t="n">
-        <v>20.9213953488372</v>
+        <v>20.9072093023256</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="1" t="n">
-        <v>44578</v>
+        <v>44564</v>
       </c>
       <c r="B536" t="s">
         <v>7</v>
@@ -7889,12 +7889,12 @@
         <v>11</v>
       </c>
       <c r="D536" t="n">
-        <v>20.9220930232558</v>
+        <v>20.913488372093</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" s="1" t="n">
-        <v>44579</v>
+        <v>44565</v>
       </c>
       <c r="B537" t="s">
         <v>7</v>
@@ -7903,12 +7903,12 @@
         <v>11</v>
       </c>
       <c r="D537" t="n">
-        <v>20.9290697674419</v>
+        <v>20.913488372093</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" s="1" t="n">
-        <v>44580</v>
+        <v>44566</v>
       </c>
       <c r="B538" t="s">
         <v>7</v>
@@ -7917,12 +7917,12 @@
         <v>11</v>
       </c>
       <c r="D538" t="n">
-        <v>20.9290697674419</v>
+        <v>20.9390697674419</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="1" t="n">
-        <v>44581</v>
+        <v>44567</v>
       </c>
       <c r="B539" t="s">
         <v>7</v>
@@ -7931,12 +7931,12 @@
         <v>11</v>
       </c>
       <c r="D539" t="n">
-        <v>20.9325581395349</v>
+        <v>20.9458139534884</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="1" t="n">
-        <v>44582</v>
+        <v>44568</v>
       </c>
       <c r="B540" t="s">
         <v>7</v>
@@ -7945,12 +7945,12 @@
         <v>11</v>
       </c>
       <c r="D540" t="n">
-        <v>20.9451162790698</v>
+        <v>20.9586046511628</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="1" t="n">
-        <v>44583</v>
+        <v>44569</v>
       </c>
       <c r="B541" t="s">
         <v>7</v>
@@ -7959,12 +7959,12 @@
         <v>11</v>
       </c>
       <c r="D541" t="n">
-        <v>20.9462790697674</v>
+        <v>20.9688372093023</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" s="1" t="n">
-        <v>44584</v>
+        <v>44570</v>
       </c>
       <c r="B542" t="s">
         <v>7</v>
@@ -7973,12 +7973,12 @@
         <v>11</v>
       </c>
       <c r="D542" t="n">
-        <v>20.9420930232558</v>
+        <v>20.9316279069767</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" s="1" t="n">
-        <v>44585</v>
+        <v>44571</v>
       </c>
       <c r="B543" t="s">
         <v>7</v>
@@ -7987,12 +7987,12 @@
         <v>11</v>
       </c>
       <c r="D543" t="n">
-        <v>20.9453488372093</v>
+        <v>20.9239534883721</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" s="1" t="n">
-        <v>44586</v>
+        <v>44572</v>
       </c>
       <c r="B544" t="s">
         <v>7</v>
@@ -8001,12 +8001,12 @@
         <v>11</v>
       </c>
       <c r="D544" t="n">
-        <v>20.9523255813953</v>
+        <v>20.9004651162791</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="1" t="n">
-        <v>44587</v>
+        <v>44573</v>
       </c>
       <c r="B545" t="s">
         <v>7</v>
@@ -8015,12 +8015,12 @@
         <v>11</v>
       </c>
       <c r="D545" t="n">
-        <v>20.956976744186</v>
+        <v>20.8746511627907</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="1" t="n">
-        <v>44588</v>
+        <v>44574</v>
       </c>
       <c r="B546" t="s">
         <v>7</v>
@@ -8029,12 +8029,12 @@
         <v>11</v>
       </c>
       <c r="D546" t="n">
-        <v>20.9588372093023</v>
+        <v>20.863023255814</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="1" t="n">
-        <v>44589</v>
+        <v>44575</v>
       </c>
       <c r="B547" t="s">
         <v>7</v>
@@ -8043,12 +8043,12 @@
         <v>11</v>
       </c>
       <c r="D547" t="n">
-        <v>20.9574418604651</v>
+        <v>20.873023255814</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" s="1" t="n">
-        <v>44590</v>
+        <v>44576</v>
       </c>
       <c r="B548" t="s">
         <v>7</v>
@@ -8057,12 +8057,12 @@
         <v>11</v>
       </c>
       <c r="D548" t="n">
-        <v>20.9697674418605</v>
+        <v>20.893488372093</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="1" t="n">
-        <v>44591</v>
+        <v>44577</v>
       </c>
       <c r="B549" t="s">
         <v>7</v>
@@ -8071,12 +8071,12 @@
         <v>11</v>
       </c>
       <c r="D549" t="n">
-        <v>20.9786046511628</v>
+        <v>20.9213953488372</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="1" t="n">
-        <v>44592</v>
+        <v>44578</v>
       </c>
       <c r="B550" t="s">
         <v>7</v>
@@ -8085,12 +8085,12 @@
         <v>11</v>
       </c>
       <c r="D550" t="n">
-        <v>20.9806976744186</v>
+        <v>20.9220930232558</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="1" t="n">
-        <v>44593</v>
+        <v>44579</v>
       </c>
       <c r="B551" t="s">
         <v>7</v>
@@ -8099,12 +8099,12 @@
         <v>11</v>
       </c>
       <c r="D551" t="n">
-        <v>20.9748837209302</v>
+        <v>20.9290697674419</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="1" t="n">
-        <v>44594</v>
+        <v>44580</v>
       </c>
       <c r="B552" t="s">
         <v>7</v>
@@ -8113,12 +8113,12 @@
         <v>11</v>
       </c>
       <c r="D552" t="n">
-        <v>20.9748837209302</v>
+        <v>20.9290697674419</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="1" t="n">
-        <v>44595</v>
+        <v>44581</v>
       </c>
       <c r="B553" t="s">
         <v>7</v>
@@ -8127,12 +8127,12 @@
         <v>11</v>
       </c>
       <c r="D553" t="n">
-        <v>20.9827906976744</v>
+        <v>20.9325581395349</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="1" t="n">
-        <v>44596</v>
+        <v>44582</v>
       </c>
       <c r="B554" t="s">
         <v>7</v>
@@ -8141,12 +8141,12 @@
         <v>11</v>
       </c>
       <c r="D554" t="n">
-        <v>20.9897674418605</v>
+        <v>20.9451162790698</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="1" t="n">
-        <v>44597</v>
+        <v>44583</v>
       </c>
       <c r="B555" t="s">
         <v>7</v>
@@ -8155,12 +8155,12 @@
         <v>11</v>
       </c>
       <c r="D555" t="n">
-        <v>20.9953488372093</v>
+        <v>20.9462790697674</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="1" t="n">
-        <v>44598</v>
+        <v>44584</v>
       </c>
       <c r="B556" t="s">
         <v>7</v>
@@ -8169,222 +8169,222 @@
         <v>11</v>
       </c>
       <c r="D556" t="n">
-        <v>21.0246511627907</v>
+        <v>20.9420930232558</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="1" t="n">
-        <v>44562</v>
+        <v>44585</v>
       </c>
       <c r="B557" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C557" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D557" t="n">
-        <v>21.8206896551724</v>
+        <v>20.9453488372093</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="1" t="n">
-        <v>44563</v>
+        <v>44586</v>
       </c>
       <c r="B558" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C558" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D558" t="n">
-        <v>21.8365517241379</v>
+        <v>20.9523255813953</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="1" t="n">
-        <v>44564</v>
+        <v>44587</v>
       </c>
       <c r="B559" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C559" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D559" t="n">
-        <v>21.8370689655172</v>
+        <v>20.956976744186</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="1" t="n">
-        <v>44565</v>
+        <v>44588</v>
       </c>
       <c r="B560" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C560" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D560" t="n">
-        <v>21.8451724137931</v>
+        <v>20.9588372093023</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="1" t="n">
-        <v>44566</v>
+        <v>44589</v>
       </c>
       <c r="B561" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C561" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D561" t="n">
-        <v>21.8486206896552</v>
+        <v>20.9574418604651</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="1" t="n">
-        <v>44567</v>
+        <v>44590</v>
       </c>
       <c r="B562" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C562" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D562" t="n">
-        <v>21.8558620689655</v>
+        <v>20.9697674418605</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" s="1" t="n">
-        <v>44568</v>
+        <v>44591</v>
       </c>
       <c r="B563" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C563" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D563" t="n">
-        <v>21.8655172413793</v>
+        <v>20.9786046511628</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" s="1" t="n">
-        <v>44569</v>
+        <v>44592</v>
       </c>
       <c r="B564" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C564" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D564" t="n">
-        <v>21.8781034482759</v>
+        <v>20.9806976744186</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" s="1" t="n">
-        <v>44570</v>
+        <v>44593</v>
       </c>
       <c r="B565" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C565" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D565" t="n">
-        <v>21.8918965517241</v>
+        <v>20.9748837209302</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" s="1" t="n">
-        <v>44571</v>
+        <v>44594</v>
       </c>
       <c r="B566" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C566" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D566" t="n">
-        <v>21.8918965517241</v>
+        <v>20.9748837209302</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" s="1" t="n">
-        <v>44572</v>
+        <v>44595</v>
       </c>
       <c r="B567" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C567" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D567" t="n">
-        <v>21.8918965517241</v>
+        <v>20.9827906976744</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" s="1" t="n">
-        <v>44573</v>
+        <v>44596</v>
       </c>
       <c r="B568" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C568" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D568" t="n">
-        <v>21.8948275862069</v>
+        <v>20.9897674418605</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" s="1" t="n">
-        <v>44574</v>
+        <v>44597</v>
       </c>
       <c r="B569" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C569" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D569" t="n">
-        <v>21.9013793103448</v>
+        <v>20.9953488372093</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" s="1" t="n">
-        <v>44575</v>
+        <v>44598</v>
       </c>
       <c r="B570" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C570" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D570" t="n">
-        <v>21.9348275862069</v>
+        <v>21.0246511627907</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" s="1" t="n">
-        <v>44576</v>
+        <v>44599</v>
       </c>
       <c r="B571" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C571" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D571" t="n">
-        <v>21.9508620689655</v>
+        <v>21.0246511627907</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" s="1" t="n">
-        <v>44577</v>
+        <v>44562</v>
       </c>
       <c r="B572" t="s">
         <v>4</v>
@@ -8393,12 +8393,12 @@
         <v>12</v>
       </c>
       <c r="D572" t="n">
-        <v>21.9594827586207</v>
+        <v>21.8206896551724</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" s="1" t="n">
-        <v>44578</v>
+        <v>44563</v>
       </c>
       <c r="B573" t="s">
         <v>4</v>
@@ -8407,12 +8407,12 @@
         <v>12</v>
       </c>
       <c r="D573" t="n">
-        <v>21.9629310344828</v>
+        <v>21.8365517241379</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" s="1" t="n">
-        <v>44579</v>
+        <v>44564</v>
       </c>
       <c r="B574" t="s">
         <v>4</v>
@@ -8421,12 +8421,12 @@
         <v>12</v>
       </c>
       <c r="D574" t="n">
-        <v>21.9801724137931</v>
+        <v>21.8370689655172</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" s="1" t="n">
-        <v>44580</v>
+        <v>44565</v>
       </c>
       <c r="B575" t="s">
         <v>4</v>
@@ -8435,12 +8435,12 @@
         <v>12</v>
       </c>
       <c r="D575" t="n">
-        <v>22.0012068965517</v>
+        <v>21.8451724137931</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" s="1" t="n">
-        <v>44581</v>
+        <v>44566</v>
       </c>
       <c r="B576" t="s">
         <v>4</v>
@@ -8449,12 +8449,12 @@
         <v>12</v>
       </c>
       <c r="D576" t="n">
-        <v>22.0122413793103</v>
+        <v>21.8486206896552</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" s="1" t="n">
-        <v>44582</v>
+        <v>44567</v>
       </c>
       <c r="B577" t="s">
         <v>4</v>
@@ -8463,12 +8463,12 @@
         <v>12</v>
       </c>
       <c r="D577" t="n">
-        <v>22.0229310344828</v>
+        <v>21.8558620689655</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" s="1" t="n">
-        <v>44583</v>
+        <v>44568</v>
       </c>
       <c r="B578" t="s">
         <v>4</v>
@@ -8477,12 +8477,12 @@
         <v>12</v>
       </c>
       <c r="D578" t="n">
-        <v>22.0279310344828</v>
+        <v>21.8655172413793</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" s="1" t="n">
-        <v>44584</v>
+        <v>44569</v>
       </c>
       <c r="B579" t="s">
         <v>4</v>
@@ -8491,12 +8491,12 @@
         <v>12</v>
       </c>
       <c r="D579" t="n">
-        <v>22.0289655172414</v>
+        <v>21.8781034482759</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" s="1" t="n">
-        <v>44585</v>
+        <v>44570</v>
       </c>
       <c r="B580" t="s">
         <v>4</v>
@@ -8505,12 +8505,12 @@
         <v>12</v>
       </c>
       <c r="D580" t="n">
-        <v>22.0289655172414</v>
+        <v>21.8918965517241</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" s="1" t="n">
-        <v>44586</v>
+        <v>44571</v>
       </c>
       <c r="B581" t="s">
         <v>4</v>
@@ -8519,12 +8519,12 @@
         <v>12</v>
       </c>
       <c r="D581" t="n">
-        <v>22.0289655172414</v>
+        <v>21.8918965517241</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" s="1" t="n">
-        <v>44587</v>
+        <v>44572</v>
       </c>
       <c r="B582" t="s">
         <v>4</v>
@@ -8533,12 +8533,12 @@
         <v>12</v>
       </c>
       <c r="D582" t="n">
-        <v>22.0539655172414</v>
+        <v>21.8918965517241</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" s="1" t="n">
-        <v>44588</v>
+        <v>44573</v>
       </c>
       <c r="B583" t="s">
         <v>4</v>
@@ -8547,12 +8547,12 @@
         <v>12</v>
       </c>
       <c r="D583" t="n">
-        <v>22.0541379310345</v>
+        <v>21.8948275862069</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" s="1" t="n">
-        <v>44589</v>
+        <v>44574</v>
       </c>
       <c r="B584" t="s">
         <v>4</v>
@@ -8561,12 +8561,12 @@
         <v>12</v>
       </c>
       <c r="D584" t="n">
-        <v>22.061724137931</v>
+        <v>21.9013793103448</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" s="1" t="n">
-        <v>44590</v>
+        <v>44575</v>
       </c>
       <c r="B585" t="s">
         <v>4</v>
@@ -8575,12 +8575,12 @@
         <v>12</v>
       </c>
       <c r="D585" t="n">
-        <v>22.0710344827586</v>
+        <v>21.9348275862069</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" s="1" t="n">
-        <v>44591</v>
+        <v>44576</v>
       </c>
       <c r="B586" t="s">
         <v>4</v>
@@ -8589,12 +8589,12 @@
         <v>12</v>
       </c>
       <c r="D586" t="n">
-        <v>22.0762068965517</v>
+        <v>21.9508620689655</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" s="1" t="n">
-        <v>44592</v>
+        <v>44577</v>
       </c>
       <c r="B587" t="s">
         <v>4</v>
@@ -8603,12 +8603,12 @@
         <v>12</v>
       </c>
       <c r="D587" t="n">
-        <v>22.0744827586207</v>
+        <v>21.9594827586207</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" s="1" t="n">
-        <v>44593</v>
+        <v>44578</v>
       </c>
       <c r="B588" t="s">
         <v>4</v>
@@ -8617,12 +8617,12 @@
         <v>12</v>
       </c>
       <c r="D588" t="n">
-        <v>22.0744827586207</v>
+        <v>21.9629310344828</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" s="1" t="n">
-        <v>44594</v>
+        <v>44579</v>
       </c>
       <c r="B589" t="s">
         <v>4</v>
@@ -8631,12 +8631,12 @@
         <v>12</v>
       </c>
       <c r="D589" t="n">
-        <v>22.1041379310345</v>
+        <v>21.9801724137931</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" s="1" t="n">
-        <v>44595</v>
+        <v>44580</v>
       </c>
       <c r="B590" t="s">
         <v>4</v>
@@ -8645,12 +8645,12 @@
         <v>12</v>
       </c>
       <c r="D590" t="n">
-        <v>22.1155172413793</v>
+        <v>22.0012068965517</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" s="1" t="n">
-        <v>44596</v>
+        <v>44581</v>
       </c>
       <c r="B591" t="s">
         <v>4</v>
@@ -8659,12 +8659,12 @@
         <v>12</v>
       </c>
       <c r="D591" t="n">
-        <v>22.1189655172414</v>
+        <v>22.0122413793103</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" s="1" t="n">
-        <v>44597</v>
+        <v>44582</v>
       </c>
       <c r="B592" t="s">
         <v>4</v>
@@ -8673,12 +8673,12 @@
         <v>12</v>
       </c>
       <c r="D592" t="n">
-        <v>22.1394827586207</v>
+        <v>22.0229310344828</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" s="1" t="n">
-        <v>44598</v>
+        <v>44583</v>
       </c>
       <c r="B593" t="s">
         <v>4</v>
@@ -8687,236 +8687,236 @@
         <v>12</v>
       </c>
       <c r="D593" t="n">
-        <v>22.1455172413793</v>
+        <v>22.0279310344828</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" s="1" t="n">
-        <v>44562</v>
+        <v>44584</v>
       </c>
       <c r="B594" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C594" t="s">
         <v>12</v>
       </c>
       <c r="D594" t="n">
-        <v>23.1925225225225</v>
+        <v>22.0289655172414</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" s="1" t="n">
-        <v>44563</v>
+        <v>44585</v>
       </c>
       <c r="B595" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C595" t="s">
         <v>12</v>
       </c>
       <c r="D595" t="n">
-        <v>23.2095495495495</v>
+        <v>22.0289655172414</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" s="1" t="n">
-        <v>44564</v>
+        <v>44586</v>
       </c>
       <c r="B596" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C596" t="s">
         <v>12</v>
       </c>
       <c r="D596" t="n">
-        <v>23.2102702702703</v>
+        <v>22.0289655172414</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" s="1" t="n">
-        <v>44565</v>
+        <v>44587</v>
       </c>
       <c r="B597" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C597" t="s">
         <v>12</v>
       </c>
       <c r="D597" t="n">
-        <v>23.2326126126126</v>
+        <v>22.0539655172414</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" s="1" t="n">
-        <v>44566</v>
+        <v>44588</v>
       </c>
       <c r="B598" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C598" t="s">
         <v>12</v>
       </c>
       <c r="D598" t="n">
-        <v>23.2481081081081</v>
+        <v>22.0541379310345</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" s="1" t="n">
-        <v>44567</v>
+        <v>44589</v>
       </c>
       <c r="B599" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C599" t="s">
         <v>12</v>
       </c>
       <c r="D599" t="n">
-        <v>23.2995495495495</v>
+        <v>22.061724137931</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" s="1" t="n">
-        <v>44568</v>
+        <v>44590</v>
       </c>
       <c r="B600" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C600" t="s">
         <v>12</v>
       </c>
       <c r="D600" t="n">
-        <v>23.3083783783784</v>
+        <v>22.0710344827586</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" s="1" t="n">
-        <v>44569</v>
+        <v>44591</v>
       </c>
       <c r="B601" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C601" t="s">
         <v>12</v>
       </c>
       <c r="D601" t="n">
-        <v>23.3227927927928</v>
+        <v>22.0762068965517</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" s="1" t="n">
-        <v>44570</v>
+        <v>44592</v>
       </c>
       <c r="B602" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C602" t="s">
         <v>12</v>
       </c>
       <c r="D602" t="n">
-        <v>23.3292792792793</v>
+        <v>22.0744827586207</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" s="1" t="n">
-        <v>44571</v>
+        <v>44593</v>
       </c>
       <c r="B603" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C603" t="s">
         <v>12</v>
       </c>
       <c r="D603" t="n">
-        <v>23.3373873873874</v>
+        <v>22.0744827586207</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" s="1" t="n">
-        <v>44572</v>
+        <v>44594</v>
       </c>
       <c r="B604" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C604" t="s">
         <v>12</v>
       </c>
       <c r="D604" t="n">
-        <v>23.3382882882883</v>
+        <v>22.1041379310345</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" s="1" t="n">
-        <v>44573</v>
+        <v>44595</v>
       </c>
       <c r="B605" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C605" t="s">
         <v>12</v>
       </c>
       <c r="D605" t="n">
-        <v>23.3463963963964</v>
+        <v>22.1155172413793</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" s="1" t="n">
-        <v>44574</v>
+        <v>44596</v>
       </c>
       <c r="B606" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C606" t="s">
         <v>12</v>
       </c>
       <c r="D606" t="n">
-        <v>23.350990990991</v>
+        <v>22.1189655172414</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" s="1" t="n">
-        <v>44575</v>
+        <v>44597</v>
       </c>
       <c r="B607" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C607" t="s">
         <v>12</v>
       </c>
       <c r="D607" t="n">
-        <v>23.37</v>
+        <v>22.1394827586207</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" s="1" t="n">
-        <v>44576</v>
+        <v>44598</v>
       </c>
       <c r="B608" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C608" t="s">
         <v>12</v>
       </c>
       <c r="D608" t="n">
-        <v>23.4382882882883</v>
+        <v>22.1455172413793</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" s="1" t="n">
-        <v>44577</v>
+        <v>44599</v>
       </c>
       <c r="B609" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C609" t="s">
         <v>12</v>
       </c>
       <c r="D609" t="n">
-        <v>23.4328828828829</v>
+        <v>22.148275862069</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" s="1" t="n">
-        <v>44578</v>
+        <v>44562</v>
       </c>
       <c r="B610" t="s">
         <v>6</v>
@@ -8925,12 +8925,12 @@
         <v>12</v>
       </c>
       <c r="D610" t="n">
-        <v>23.4333333333333</v>
+        <v>23.1925225225225</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" s="1" t="n">
-        <v>44579</v>
+        <v>44563</v>
       </c>
       <c r="B611" t="s">
         <v>6</v>
@@ -8939,12 +8939,12 @@
         <v>12</v>
       </c>
       <c r="D611" t="n">
-        <v>23.4362162162162</v>
+        <v>23.2095495495495</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" s="1" t="n">
-        <v>44580</v>
+        <v>44564</v>
       </c>
       <c r="B612" t="s">
         <v>6</v>
@@ -8953,12 +8953,12 @@
         <v>12</v>
       </c>
       <c r="D612" t="n">
-        <v>23.4383783783784</v>
+        <v>23.2102702702703</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" s="1" t="n">
-        <v>44581</v>
+        <v>44565</v>
       </c>
       <c r="B613" t="s">
         <v>6</v>
@@ -8967,12 +8967,12 @@
         <v>12</v>
       </c>
       <c r="D613" t="n">
-        <v>23.3811711711712</v>
+        <v>23.2326126126126</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" s="1" t="n">
-        <v>44582</v>
+        <v>44566</v>
       </c>
       <c r="B614" t="s">
         <v>6</v>
@@ -8981,12 +8981,12 @@
         <v>12</v>
       </c>
       <c r="D614" t="n">
-        <v>23.3984684684685</v>
+        <v>23.2481081081081</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" s="1" t="n">
-        <v>44583</v>
+        <v>44567</v>
       </c>
       <c r="B615" t="s">
         <v>6</v>
@@ -8995,12 +8995,12 @@
         <v>12</v>
       </c>
       <c r="D615" t="n">
-        <v>23.4007207207207</v>
+        <v>23.2995495495495</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" s="1" t="n">
-        <v>44584</v>
+        <v>44568</v>
       </c>
       <c r="B616" t="s">
         <v>6</v>
@@ -9009,12 +9009,12 @@
         <v>12</v>
       </c>
       <c r="D616" t="n">
-        <v>23.4044144144144</v>
+        <v>23.3083783783784</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" s="1" t="n">
-        <v>44585</v>
+        <v>44569</v>
       </c>
       <c r="B617" t="s">
         <v>6</v>
@@ -9023,12 +9023,12 @@
         <v>12</v>
       </c>
       <c r="D617" t="n">
-        <v>23.4062162162162</v>
+        <v>23.3227927927928</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" s="1" t="n">
-        <v>44586</v>
+        <v>44570</v>
       </c>
       <c r="B618" t="s">
         <v>6</v>
@@ -9037,12 +9037,12 @@
         <v>12</v>
       </c>
       <c r="D618" t="n">
-        <v>23.4253153153153</v>
+        <v>23.3292792792793</v>
       </c>
     </row>
     <row r="619">
       <c r="A619" s="1" t="n">
-        <v>44587</v>
+        <v>44571</v>
       </c>
       <c r="B619" t="s">
         <v>6</v>
@@ -9051,12 +9051,12 @@
         <v>12</v>
       </c>
       <c r="D619" t="n">
-        <v>23.4313513513514</v>
+        <v>23.3373873873874</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" s="1" t="n">
-        <v>44588</v>
+        <v>44572</v>
       </c>
       <c r="B620" t="s">
         <v>6</v>
@@ -9065,12 +9065,12 @@
         <v>12</v>
       </c>
       <c r="D620" t="n">
-        <v>23.4363063063063</v>
+        <v>23.3382882882883</v>
       </c>
     </row>
     <row r="621">
       <c r="A621" s="1" t="n">
-        <v>44589</v>
+        <v>44573</v>
       </c>
       <c r="B621" t="s">
         <v>6</v>
@@ -9079,12 +9079,12 @@
         <v>12</v>
       </c>
       <c r="D621" t="n">
-        <v>23.4356756756757</v>
+        <v>23.3463963963964</v>
       </c>
     </row>
     <row r="622">
       <c r="A622" s="1" t="n">
-        <v>44590</v>
+        <v>44574</v>
       </c>
       <c r="B622" t="s">
         <v>6</v>
@@ -9093,12 +9093,12 @@
         <v>12</v>
       </c>
       <c r="D622" t="n">
-        <v>23.4473873873874</v>
+        <v>23.350990990991</v>
       </c>
     </row>
     <row r="623">
       <c r="A623" s="1" t="n">
-        <v>44591</v>
+        <v>44575</v>
       </c>
       <c r="B623" t="s">
         <v>6</v>
@@ -9107,12 +9107,12 @@
         <v>12</v>
       </c>
       <c r="D623" t="n">
-        <v>23.4496396396396</v>
+        <v>23.37</v>
       </c>
     </row>
     <row r="624">
       <c r="A624" s="1" t="n">
-        <v>44592</v>
+        <v>44576</v>
       </c>
       <c r="B624" t="s">
         <v>6</v>
@@ -9121,12 +9121,12 @@
         <v>12</v>
       </c>
       <c r="D624" t="n">
-        <v>23.4487387387387</v>
+        <v>23.4382882882883</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" s="1" t="n">
-        <v>44593</v>
+        <v>44577</v>
       </c>
       <c r="B625" t="s">
         <v>6</v>
@@ -9135,12 +9135,12 @@
         <v>12</v>
       </c>
       <c r="D625" t="n">
-        <v>23.4493693693694</v>
+        <v>23.4328828828829</v>
       </c>
     </row>
     <row r="626">
       <c r="A626" s="1" t="n">
-        <v>44594</v>
+        <v>44578</v>
       </c>
       <c r="B626" t="s">
         <v>6</v>
@@ -9149,12 +9149,12 @@
         <v>12</v>
       </c>
       <c r="D626" t="n">
-        <v>23.4601801801802</v>
+        <v>23.4333333333333</v>
       </c>
     </row>
     <row r="627">
       <c r="A627" s="1" t="n">
-        <v>44595</v>
+        <v>44579</v>
       </c>
       <c r="B627" t="s">
         <v>6</v>
@@ -9163,12 +9163,12 @@
         <v>12</v>
       </c>
       <c r="D627" t="n">
-        <v>23.4700900900901</v>
+        <v>23.4362162162162</v>
       </c>
     </row>
     <row r="628">
       <c r="A628" s="1" t="n">
-        <v>44596</v>
+        <v>44580</v>
       </c>
       <c r="B628" t="s">
         <v>6</v>
@@ -9177,12 +9177,12 @@
         <v>12</v>
       </c>
       <c r="D628" t="n">
-        <v>23.470990990991</v>
+        <v>23.4383783783784</v>
       </c>
     </row>
     <row r="629">
       <c r="A629" s="1" t="n">
-        <v>44597</v>
+        <v>44581</v>
       </c>
       <c r="B629" t="s">
         <v>6</v>
@@ -9191,12 +9191,12 @@
         <v>12</v>
       </c>
       <c r="D629" t="n">
-        <v>23.4763063063063</v>
+        <v>23.3811711711712</v>
       </c>
     </row>
     <row r="630">
       <c r="A630" s="1" t="n">
-        <v>44598</v>
+        <v>44582</v>
       </c>
       <c r="B630" t="s">
         <v>6</v>
@@ -9205,250 +9205,250 @@
         <v>12</v>
       </c>
       <c r="D630" t="n">
-        <v>23.4781981981982</v>
+        <v>23.3984684684685</v>
       </c>
     </row>
     <row r="631">
       <c r="A631" s="1" t="n">
-        <v>44562</v>
+        <v>44583</v>
       </c>
       <c r="B631" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C631" t="s">
         <v>12</v>
       </c>
       <c r="D631" t="n">
-        <v>21.0064864864865</v>
+        <v>23.4007207207207</v>
       </c>
     </row>
     <row r="632">
       <c r="A632" s="1" t="n">
-        <v>44563</v>
+        <v>44584</v>
       </c>
       <c r="B632" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C632" t="s">
         <v>12</v>
       </c>
       <c r="D632" t="n">
-        <v>21.0158558558559</v>
+        <v>23.4044144144144</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" s="1" t="n">
-        <v>44564</v>
+        <v>44585</v>
       </c>
       <c r="B633" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C633" t="s">
         <v>12</v>
       </c>
       <c r="D633" t="n">
-        <v>21.0141441441441</v>
+        <v>23.4062162162162</v>
       </c>
     </row>
     <row r="634">
       <c r="A634" s="1" t="n">
-        <v>44565</v>
+        <v>44586</v>
       </c>
       <c r="B634" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C634" t="s">
         <v>12</v>
       </c>
       <c r="D634" t="n">
-        <v>21.027027027027</v>
+        <v>23.4253153153153</v>
       </c>
     </row>
     <row r="635">
       <c r="A635" s="1" t="n">
-        <v>44566</v>
+        <v>44587</v>
       </c>
       <c r="B635" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C635" t="s">
         <v>12</v>
       </c>
       <c r="D635" t="n">
-        <v>21.0442342342342</v>
+        <v>23.4313513513514</v>
       </c>
     </row>
     <row r="636">
       <c r="A636" s="1" t="n">
-        <v>44567</v>
+        <v>44588</v>
       </c>
       <c r="B636" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C636" t="s">
         <v>12</v>
       </c>
       <c r="D636" t="n">
-        <v>21.1037837837838</v>
+        <v>23.4363063063063</v>
       </c>
     </row>
     <row r="637">
       <c r="A637" s="1" t="n">
-        <v>44568</v>
+        <v>44589</v>
       </c>
       <c r="B637" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C637" t="s">
         <v>12</v>
       </c>
       <c r="D637" t="n">
-        <v>21.0835135135135</v>
+        <v>23.4356756756757</v>
       </c>
     </row>
     <row r="638">
       <c r="A638" s="1" t="n">
-        <v>44569</v>
+        <v>44590</v>
       </c>
       <c r="B638" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C638" t="s">
         <v>12</v>
       </c>
       <c r="D638" t="n">
-        <v>21.0995495495496</v>
+        <v>23.4473873873874</v>
       </c>
     </row>
     <row r="639">
       <c r="A639" s="1" t="n">
-        <v>44570</v>
+        <v>44591</v>
       </c>
       <c r="B639" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C639" t="s">
         <v>12</v>
       </c>
       <c r="D639" t="n">
-        <v>21.094954954955</v>
+        <v>23.4496396396396</v>
       </c>
     </row>
     <row r="640">
       <c r="A640" s="1" t="n">
-        <v>44571</v>
+        <v>44592</v>
       </c>
       <c r="B640" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C640" t="s">
         <v>12</v>
       </c>
       <c r="D640" t="n">
-        <v>21.0977477477477</v>
+        <v>23.4487387387387</v>
       </c>
     </row>
     <row r="641">
       <c r="A641" s="1" t="n">
-        <v>44572</v>
+        <v>44593</v>
       </c>
       <c r="B641" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C641" t="s">
         <v>12</v>
       </c>
       <c r="D641" t="n">
-        <v>21.0977477477477</v>
+        <v>23.4493693693694</v>
       </c>
     </row>
     <row r="642">
       <c r="A642" s="1" t="n">
-        <v>44573</v>
+        <v>44594</v>
       </c>
       <c r="B642" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C642" t="s">
         <v>12</v>
       </c>
       <c r="D642" t="n">
-        <v>21.0985585585586</v>
+        <v>23.4601801801802</v>
       </c>
     </row>
     <row r="643">
       <c r="A643" s="1" t="n">
-        <v>44574</v>
+        <v>44595</v>
       </c>
       <c r="B643" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C643" t="s">
         <v>12</v>
       </c>
       <c r="D643" t="n">
-        <v>21.0721621621622</v>
+        <v>23.4700900900901</v>
       </c>
     </row>
     <row r="644">
       <c r="A644" s="1" t="n">
-        <v>44575</v>
+        <v>44596</v>
       </c>
       <c r="B644" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C644" t="s">
         <v>12</v>
       </c>
       <c r="D644" t="n">
-        <v>21.0942342342342</v>
+        <v>23.470990990991</v>
       </c>
     </row>
     <row r="645">
       <c r="A645" s="1" t="n">
-        <v>44576</v>
+        <v>44597</v>
       </c>
       <c r="B645" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C645" t="s">
         <v>12</v>
       </c>
       <c r="D645" t="n">
-        <v>21.101981981982</v>
+        <v>23.4763063063063</v>
       </c>
     </row>
     <row r="646">
       <c r="A646" s="1" t="n">
-        <v>44577</v>
+        <v>44598</v>
       </c>
       <c r="B646" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C646" t="s">
         <v>12</v>
       </c>
       <c r="D646" t="n">
-        <v>21.0937837837838</v>
+        <v>23.4781981981982</v>
       </c>
     </row>
     <row r="647">
       <c r="A647" s="1" t="n">
-        <v>44578</v>
+        <v>44599</v>
       </c>
       <c r="B647" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C647" t="s">
         <v>12</v>
       </c>
       <c r="D647" t="n">
-        <v>21.0848648648649</v>
+        <v>23.4795495495495</v>
       </c>
     </row>
     <row r="648">
       <c r="A648" s="1" t="n">
-        <v>44579</v>
+        <v>44562</v>
       </c>
       <c r="B648" t="s">
         <v>7</v>
@@ -9457,12 +9457,12 @@
         <v>12</v>
       </c>
       <c r="D648" t="n">
-        <v>21.0988288288288</v>
+        <v>21.0064864864865</v>
       </c>
     </row>
     <row r="649">
       <c r="A649" s="1" t="n">
-        <v>44580</v>
+        <v>44563</v>
       </c>
       <c r="B649" t="s">
         <v>7</v>
@@ -9471,12 +9471,12 @@
         <v>12</v>
       </c>
       <c r="D649" t="n">
-        <v>21.0969369369369</v>
+        <v>21.0158558558559</v>
       </c>
     </row>
     <row r="650">
       <c r="A650" s="1" t="n">
-        <v>44581</v>
+        <v>44564</v>
       </c>
       <c r="B650" t="s">
         <v>7</v>
@@ -9485,12 +9485,12 @@
         <v>12</v>
       </c>
       <c r="D650" t="n">
-        <v>21.1026126126126</v>
+        <v>21.0141441441441</v>
       </c>
     </row>
     <row r="651">
       <c r="A651" s="1" t="n">
-        <v>44582</v>
+        <v>44565</v>
       </c>
       <c r="B651" t="s">
         <v>7</v>
@@ -9499,12 +9499,12 @@
         <v>12</v>
       </c>
       <c r="D651" t="n">
-        <v>21.1125225225225</v>
+        <v>21.027027027027</v>
       </c>
     </row>
     <row r="652">
       <c r="A652" s="1" t="n">
-        <v>44583</v>
+        <v>44566</v>
       </c>
       <c r="B652" t="s">
         <v>7</v>
@@ -9513,12 +9513,12 @@
         <v>12</v>
       </c>
       <c r="D652" t="n">
-        <v>21.1110810810811</v>
+        <v>21.0442342342342</v>
       </c>
     </row>
     <row r="653">
       <c r="A653" s="1" t="n">
-        <v>44584</v>
+        <v>44567</v>
       </c>
       <c r="B653" t="s">
         <v>7</v>
@@ -9527,12 +9527,12 @@
         <v>12</v>
       </c>
       <c r="D653" t="n">
-        <v>21.1175675675676</v>
+        <v>21.1037837837838</v>
       </c>
     </row>
     <row r="654">
       <c r="A654" s="1" t="n">
-        <v>44585</v>
+        <v>44568</v>
       </c>
       <c r="B654" t="s">
         <v>7</v>
@@ -9541,12 +9541,12 @@
         <v>12</v>
       </c>
       <c r="D654" t="n">
-        <v>21.105045045045</v>
+        <v>21.0835135135135</v>
       </c>
     </row>
     <row r="655">
       <c r="A655" s="1" t="n">
-        <v>44586</v>
+        <v>44569</v>
       </c>
       <c r="B655" t="s">
         <v>7</v>
@@ -9555,12 +9555,12 @@
         <v>12</v>
       </c>
       <c r="D655" t="n">
-        <v>21.1237837837838</v>
+        <v>21.0995495495496</v>
       </c>
     </row>
     <row r="656">
       <c r="A656" s="1" t="n">
-        <v>44587</v>
+        <v>44570</v>
       </c>
       <c r="B656" t="s">
         <v>7</v>
@@ -9569,12 +9569,12 @@
         <v>12</v>
       </c>
       <c r="D656" t="n">
-        <v>21.128018018018</v>
+        <v>21.094954954955</v>
       </c>
     </row>
     <row r="657">
       <c r="A657" s="1" t="n">
-        <v>44588</v>
+        <v>44571</v>
       </c>
       <c r="B657" t="s">
         <v>7</v>
@@ -9583,12 +9583,12 @@
         <v>12</v>
       </c>
       <c r="D657" t="n">
-        <v>21.139009009009</v>
+        <v>21.0977477477477</v>
       </c>
     </row>
     <row r="658">
       <c r="A658" s="1" t="n">
-        <v>44589</v>
+        <v>44572</v>
       </c>
       <c r="B658" t="s">
         <v>7</v>
@@ -9597,12 +9597,12 @@
         <v>12</v>
       </c>
       <c r="D658" t="n">
-        <v>21.1357657657658</v>
+        <v>21.0977477477477</v>
       </c>
     </row>
     <row r="659">
       <c r="A659" s="1" t="n">
-        <v>44590</v>
+        <v>44573</v>
       </c>
       <c r="B659" t="s">
         <v>7</v>
@@ -9611,12 +9611,12 @@
         <v>12</v>
       </c>
       <c r="D659" t="n">
-        <v>21.1426126126126</v>
+        <v>21.0985585585586</v>
       </c>
     </row>
     <row r="660">
       <c r="A660" s="1" t="n">
-        <v>44591</v>
+        <v>44574</v>
       </c>
       <c r="B660" t="s">
         <v>7</v>
@@ -9625,12 +9625,12 @@
         <v>12</v>
       </c>
       <c r="D660" t="n">
-        <v>21.1431531531532</v>
+        <v>21.0721621621622</v>
       </c>
     </row>
     <row r="661">
       <c r="A661" s="1" t="n">
-        <v>44592</v>
+        <v>44575</v>
       </c>
       <c r="B661" t="s">
         <v>7</v>
@@ -9639,12 +9639,12 @@
         <v>12</v>
       </c>
       <c r="D661" t="n">
-        <v>21.1322522522523</v>
+        <v>21.0942342342342</v>
       </c>
     </row>
     <row r="662">
       <c r="A662" s="1" t="n">
-        <v>44593</v>
+        <v>44576</v>
       </c>
       <c r="B662" t="s">
         <v>7</v>
@@ -9653,12 +9653,12 @@
         <v>12</v>
       </c>
       <c r="D662" t="n">
-        <v>21.1448648648649</v>
+        <v>21.101981981982</v>
       </c>
     </row>
     <row r="663">
       <c r="A663" s="1" t="n">
-        <v>44594</v>
+        <v>44577</v>
       </c>
       <c r="B663" t="s">
         <v>7</v>
@@ -9667,12 +9667,12 @@
         <v>12</v>
       </c>
       <c r="D663" t="n">
-        <v>21.1565765765766</v>
+        <v>21.0937837837838</v>
       </c>
     </row>
     <row r="664">
       <c r="A664" s="1" t="n">
-        <v>44595</v>
+        <v>44578</v>
       </c>
       <c r="B664" t="s">
         <v>7</v>
@@ -9681,12 +9681,12 @@
         <v>12</v>
       </c>
       <c r="D664" t="n">
-        <v>21.1677477477477</v>
+        <v>21.0848648648649</v>
       </c>
     </row>
     <row r="665">
       <c r="A665" s="1" t="n">
-        <v>44596</v>
+        <v>44579</v>
       </c>
       <c r="B665" t="s">
         <v>7</v>
@@ -9695,12 +9695,12 @@
         <v>12</v>
       </c>
       <c r="D665" t="n">
-        <v>21.1688288288288</v>
+        <v>21.0988288288288</v>
       </c>
     </row>
     <row r="666">
       <c r="A666" s="1" t="n">
-        <v>44597</v>
+        <v>44580</v>
       </c>
       <c r="B666" t="s">
         <v>7</v>
@@ -9709,21 +9709,273 @@
         <v>12</v>
       </c>
       <c r="D666" t="n">
-        <v>21.1833333333333</v>
+        <v>21.0969369369369</v>
       </c>
     </row>
     <row r="667">
       <c r="A667" s="1" t="n">
+        <v>44581</v>
+      </c>
+      <c r="B667" t="s">
+        <v>7</v>
+      </c>
+      <c r="C667" t="s">
+        <v>12</v>
+      </c>
+      <c r="D667" t="n">
+        <v>21.1026126126126</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" s="1" t="n">
+        <v>44582</v>
+      </c>
+      <c r="B668" t="s">
+        <v>7</v>
+      </c>
+      <c r="C668" t="s">
+        <v>12</v>
+      </c>
+      <c r="D668" t="n">
+        <v>21.1125225225225</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" s="1" t="n">
+        <v>44583</v>
+      </c>
+      <c r="B669" t="s">
+        <v>7</v>
+      </c>
+      <c r="C669" t="s">
+        <v>12</v>
+      </c>
+      <c r="D669" t="n">
+        <v>21.1110810810811</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" s="1" t="n">
+        <v>44584</v>
+      </c>
+      <c r="B670" t="s">
+        <v>7</v>
+      </c>
+      <c r="C670" t="s">
+        <v>12</v>
+      </c>
+      <c r="D670" t="n">
+        <v>21.1175675675676</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" s="1" t="n">
+        <v>44585</v>
+      </c>
+      <c r="B671" t="s">
+        <v>7</v>
+      </c>
+      <c r="C671" t="s">
+        <v>12</v>
+      </c>
+      <c r="D671" t="n">
+        <v>21.105045045045</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" s="1" t="n">
+        <v>44586</v>
+      </c>
+      <c r="B672" t="s">
+        <v>7</v>
+      </c>
+      <c r="C672" t="s">
+        <v>12</v>
+      </c>
+      <c r="D672" t="n">
+        <v>21.1237837837838</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" s="1" t="n">
+        <v>44587</v>
+      </c>
+      <c r="B673" t="s">
+        <v>7</v>
+      </c>
+      <c r="C673" t="s">
+        <v>12</v>
+      </c>
+      <c r="D673" t="n">
+        <v>21.128018018018</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" s="1" t="n">
+        <v>44588</v>
+      </c>
+      <c r="B674" t="s">
+        <v>7</v>
+      </c>
+      <c r="C674" t="s">
+        <v>12</v>
+      </c>
+      <c r="D674" t="n">
+        <v>21.139009009009</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" s="1" t="n">
+        <v>44589</v>
+      </c>
+      <c r="B675" t="s">
+        <v>7</v>
+      </c>
+      <c r="C675" t="s">
+        <v>12</v>
+      </c>
+      <c r="D675" t="n">
+        <v>21.1357657657658</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" s="1" t="n">
+        <v>44590</v>
+      </c>
+      <c r="B676" t="s">
+        <v>7</v>
+      </c>
+      <c r="C676" t="s">
+        <v>12</v>
+      </c>
+      <c r="D676" t="n">
+        <v>21.1426126126126</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" s="1" t="n">
+        <v>44591</v>
+      </c>
+      <c r="B677" t="s">
+        <v>7</v>
+      </c>
+      <c r="C677" t="s">
+        <v>12</v>
+      </c>
+      <c r="D677" t="n">
+        <v>21.1431531531532</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" s="1" t="n">
+        <v>44592</v>
+      </c>
+      <c r="B678" t="s">
+        <v>7</v>
+      </c>
+      <c r="C678" t="s">
+        <v>12</v>
+      </c>
+      <c r="D678" t="n">
+        <v>21.1322522522523</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" s="1" t="n">
+        <v>44593</v>
+      </c>
+      <c r="B679" t="s">
+        <v>7</v>
+      </c>
+      <c r="C679" t="s">
+        <v>12</v>
+      </c>
+      <c r="D679" t="n">
+        <v>21.1448648648649</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" s="1" t="n">
+        <v>44594</v>
+      </c>
+      <c r="B680" t="s">
+        <v>7</v>
+      </c>
+      <c r="C680" t="s">
+        <v>12</v>
+      </c>
+      <c r="D680" t="n">
+        <v>21.1565765765766</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" s="1" t="n">
+        <v>44595</v>
+      </c>
+      <c r="B681" t="s">
+        <v>7</v>
+      </c>
+      <c r="C681" t="s">
+        <v>12</v>
+      </c>
+      <c r="D681" t="n">
+        <v>21.1677477477477</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" s="1" t="n">
+        <v>44596</v>
+      </c>
+      <c r="B682" t="s">
+        <v>7</v>
+      </c>
+      <c r="C682" t="s">
+        <v>12</v>
+      </c>
+      <c r="D682" t="n">
+        <v>21.1688288288288</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" s="1" t="n">
+        <v>44597</v>
+      </c>
+      <c r="B683" t="s">
+        <v>7</v>
+      </c>
+      <c r="C683" t="s">
+        <v>12</v>
+      </c>
+      <c r="D683" t="n">
+        <v>21.1833333333333</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" s="1" t="n">
         <v>44598</v>
       </c>
-      <c r="B667" t="s">
-        <v>7</v>
-      </c>
-      <c r="C667" t="s">
-        <v>12</v>
-      </c>
-      <c r="D667" t="n">
+      <c r="B684" t="s">
+        <v>7</v>
+      </c>
+      <c r="C684" t="s">
+        <v>12</v>
+      </c>
+      <c r="D684" t="n">
         <v>21.1801801801802</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" s="1" t="n">
+        <v>44599</v>
+      </c>
+      <c r="B685" t="s">
+        <v>7</v>
+      </c>
+      <c r="C685" t="s">
+        <v>12</v>
+      </c>
+      <c r="D685" t="n">
+        <v>21.1699099099099</v>
       </c>
     </row>
   </sheetData>
